--- a/socialstyrelsen/statistik-covid19-inskrivna_latest.xlsx
+++ b/socialstyrelsen/statistik-covid19-inskrivna_latest.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="274">
   <si>
     <t>Diabetes</t>
   </si>
@@ -1157,9 +1157,6 @@
   </si>
   <si>
     <t>vecka 38</t>
-  </si>
-  <si>
-    <t>vecka 40</t>
   </si>
 </sst>
 </file>
@@ -2349,6 +2346,69 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2364,78 +2424,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2487,19 +2484,19 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="29" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2609,7 +2606,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3070,7 +3066,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7943,7 +7938,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="50.45" customHeight="1">
-      <c r="B13" s="176" t="s">
+      <c r="B13" s="197" t="s">
         <v>165</v>
       </c>
       <c r="C13" s="75" t="s">
@@ -7957,24 +7952,24 @@
       </c>
     </row>
     <row r="14" spans="2:5" s="30" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B14" s="177"/>
+      <c r="B14" s="198"/>
       <c r="C14" s="142" t="s">
         <v>241</v>
       </c>
-      <c r="D14" s="174" t="s">
+      <c r="D14" s="195" t="s">
         <v>152</v>
       </c>
-      <c r="E14" s="174" t="s">
+      <c r="E14" s="195" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="15" spans="2:5" s="30" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
-      <c r="B15" s="177"/>
+      <c r="B15" s="198"/>
       <c r="C15" s="124" t="s">
         <v>190</v>
       </c>
-      <c r="D15" s="174"/>
-      <c r="E15" s="175"/>
+      <c r="D15" s="195"/>
+      <c r="E15" s="196"/>
     </row>
     <row r="16" spans="2:5" s="30" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="B16" s="121" t="s">
@@ -7990,20 +7985,20 @@
       <c r="B17" s="118" t="s">
         <v>218</v>
       </c>
-      <c r="C17" s="183" t="s">
+      <c r="C17" s="202" t="s">
         <v>222</v>
       </c>
-      <c r="D17" s="183"/>
+      <c r="D17" s="202"/>
       <c r="E17" s="120"/>
     </row>
     <row r="18" spans="2:6" s="30" customFormat="1" ht="40.5" customHeight="1" thickBot="1">
       <c r="B18" s="119" t="s">
         <v>219</v>
       </c>
-      <c r="C18" s="182" t="s">
+      <c r="C18" s="201" t="s">
         <v>220</v>
       </c>
-      <c r="D18" s="182"/>
+      <c r="D18" s="201"/>
       <c r="E18" s="120"/>
     </row>
     <row r="19" spans="2:6" ht="14.25" thickTop="1">
@@ -8220,16 +8215,16 @@
       <c r="F38" s="39"/>
     </row>
     <row r="39" spans="2:6" ht="27.75" thickTop="1">
-      <c r="B39" s="178" t="s">
+      <c r="B39" s="199" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="180" t="s">
+      <c r="D39" s="200" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="180" t="s">
+      <c r="E39" s="200" t="s">
         <v>49</v>
       </c>
       <c r="F39" s="10" t="s">
@@ -8237,45 +8232,45 @@
       </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="179"/>
+      <c r="B40" s="191"/>
       <c r="C40" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="181"/>
-      <c r="E40" s="181"/>
+      <c r="D40" s="186"/>
+      <c r="E40" s="186"/>
       <c r="F40" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="179"/>
+      <c r="B41" s="191"/>
       <c r="C41" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="181"/>
-      <c r="E41" s="181"/>
+      <c r="D41" s="186"/>
+      <c r="E41" s="186"/>
       <c r="F41" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="179"/>
+      <c r="B42" s="191"/>
       <c r="C42" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="D42" s="181"/>
-      <c r="E42" s="181"/>
+      <c r="D42" s="186"/>
+      <c r="E42" s="186"/>
       <c r="F42" s="11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="27">
-      <c r="B43" s="179"/>
+      <c r="B43" s="191"/>
       <c r="C43" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="D43" s="181"/>
-      <c r="E43" s="181"/>
+      <c r="D43" s="186"/>
+      <c r="E43" s="186"/>
       <c r="F43" s="11" t="s">
         <v>55</v>
       </c>
@@ -8305,22 +8300,22 @@
       <c r="F45" s="26"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="187"/>
-      <c r="C46" s="187"/>
-      <c r="D46" s="181" t="s">
+      <c r="B46" s="185"/>
+      <c r="C46" s="185"/>
+      <c r="D46" s="186" t="s">
         <v>60</v>
       </c>
-      <c r="E46" s="181" t="s">
+      <c r="E46" s="186" t="s">
         <v>61</v>
       </c>
-      <c r="F46" s="181"/>
+      <c r="F46" s="186"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="187"/>
-      <c r="C47" s="187"/>
-      <c r="D47" s="181"/>
-      <c r="E47" s="181"/>
-      <c r="F47" s="181"/>
+      <c r="B47" s="185"/>
+      <c r="C47" s="185"/>
+      <c r="D47" s="186"/>
+      <c r="E47" s="186"/>
+      <c r="F47" s="186"/>
     </row>
     <row r="48" spans="2:6" ht="14.25" thickBot="1">
       <c r="B48" s="39"/>
@@ -8334,16 +8329,16 @@
       <c r="F48" s="40"/>
     </row>
     <row r="49" spans="2:6" ht="14.25" thickTop="1">
-      <c r="B49" s="186" t="s">
+      <c r="B49" s="190" t="s">
         <v>0</v>
       </c>
       <c r="C49" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D49" s="188" t="s">
+      <c r="D49" s="192" t="s">
         <v>65</v>
       </c>
-      <c r="E49" s="188" t="s">
+      <c r="E49" s="192" t="s">
         <v>66</v>
       </c>
       <c r="F49" s="25" t="s">
@@ -8351,30 +8346,30 @@
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="179"/>
+      <c r="B50" s="191"/>
       <c r="C50" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="187"/>
-      <c r="E50" s="187"/>
+      <c r="D50" s="185"/>
+      <c r="E50" s="185"/>
       <c r="F50" s="25"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="179"/>
+      <c r="B51" s="191"/>
       <c r="C51" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="187"/>
-      <c r="E51" s="187"/>
+      <c r="D51" s="185"/>
+      <c r="E51" s="185"/>
       <c r="F51" s="25"/>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="179"/>
+      <c r="B52" s="191"/>
       <c r="C52" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="D52" s="187"/>
-      <c r="E52" s="187"/>
+      <c r="D52" s="185"/>
+      <c r="E52" s="185"/>
       <c r="F52" s="25"/>
     </row>
     <row r="53" spans="2:6" ht="27">
@@ -8426,46 +8421,46 @@
       <c r="F56" s="39"/>
     </row>
     <row r="57" spans="2:6" ht="14.25" thickTop="1">
-      <c r="B57" s="189" t="s">
+      <c r="B57" s="193" t="s">
         <v>76</v>
       </c>
       <c r="C57" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="191" t="s">
+      <c r="D57" s="194" t="s">
         <v>77</v>
       </c>
-      <c r="E57" s="191" t="s">
+      <c r="E57" s="194" t="s">
         <v>76</v>
       </c>
-      <c r="F57" s="184"/>
+      <c r="F57" s="189"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="190"/>
+      <c r="B58" s="184"/>
       <c r="C58" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="181"/>
-      <c r="E58" s="181"/>
-      <c r="F58" s="185"/>
+      <c r="D58" s="186"/>
+      <c r="E58" s="186"/>
+      <c r="F58" s="174"/>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="190"/>
+      <c r="B59" s="184"/>
       <c r="C59" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="181"/>
-      <c r="E59" s="181"/>
-      <c r="F59" s="185"/>
+      <c r="D59" s="186"/>
+      <c r="E59" s="186"/>
+      <c r="F59" s="174"/>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="190"/>
+      <c r="B60" s="184"/>
       <c r="C60" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="D60" s="181"/>
-      <c r="E60" s="181"/>
-      <c r="F60" s="185"/>
+      <c r="D60" s="186"/>
+      <c r="E60" s="186"/>
+      <c r="F60" s="174"/>
     </row>
     <row r="61" spans="2:6" ht="27">
       <c r="B61" s="24"/>
@@ -8481,22 +8476,22 @@
       <c r="F61" s="23"/>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="190"/>
-      <c r="C62" s="187"/>
-      <c r="D62" s="181" t="s">
+      <c r="B62" s="184"/>
+      <c r="C62" s="185"/>
+      <c r="D62" s="186" t="s">
         <v>80</v>
       </c>
-      <c r="E62" s="181" t="s">
+      <c r="E62" s="186" t="s">
         <v>81</v>
       </c>
-      <c r="F62" s="185"/>
+      <c r="F62" s="174"/>
     </row>
     <row r="63" spans="2:6">
-      <c r="B63" s="190"/>
-      <c r="C63" s="187"/>
-      <c r="D63" s="181"/>
-      <c r="E63" s="181"/>
-      <c r="F63" s="185"/>
+      <c r="B63" s="184"/>
+      <c r="C63" s="185"/>
+      <c r="D63" s="186"/>
+      <c r="E63" s="186"/>
+      <c r="F63" s="174"/>
     </row>
     <row r="64" spans="2:6">
       <c r="B64" s="24"/>
@@ -8632,47 +8627,47 @@
     </row>
     <row r="76" spans="2:6" ht="14.25" thickTop="1"/>
     <row r="78" spans="2:6">
-      <c r="B78" s="198" t="s">
+      <c r="B78" s="181" t="s">
         <v>148</v>
       </c>
-      <c r="C78" s="199"/>
-      <c r="D78" s="199"/>
-      <c r="E78" s="199"/>
+      <c r="C78" s="182"/>
+      <c r="D78" s="182"/>
+      <c r="E78" s="182"/>
     </row>
     <row r="79" spans="2:6" s="30" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="B79" s="196" t="s">
+      <c r="B79" s="179" t="s">
         <v>256</v>
       </c>
-      <c r="C79" s="196"/>
-      <c r="D79" s="196"/>
+      <c r="C79" s="179"/>
+      <c r="D79" s="179"/>
       <c r="E79" s="28"/>
     </row>
     <row r="80" spans="2:6">
       <c r="B80" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="C80" s="195" t="s">
+      <c r="C80" s="178" t="s">
         <v>138</v>
       </c>
-      <c r="D80" s="195"/>
+      <c r="D80" s="178"/>
     </row>
     <row r="81" spans="2:4" ht="57" customHeight="1">
       <c r="B81" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="C81" s="197" t="s">
+      <c r="C81" s="180" t="s">
         <v>144</v>
       </c>
-      <c r="D81" s="197"/>
+      <c r="D81" s="180"/>
     </row>
     <row r="82" spans="2:4" ht="72" customHeight="1" thickBot="1">
       <c r="B82" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="C82" s="194" t="s">
+      <c r="C82" s="177" t="s">
         <v>145</v>
       </c>
-      <c r="D82" s="194"/>
+      <c r="D82" s="177"/>
     </row>
     <row r="83" spans="2:4" ht="14.25" thickTop="1"/>
     <row r="84" spans="2:4">
@@ -8687,27 +8682,27 @@
       <c r="C85" s="74"/>
     </row>
     <row r="86" spans="2:4" ht="42" customHeight="1" thickBot="1">
-      <c r="B86" s="202" t="s">
+      <c r="B86" s="188" t="s">
         <v>189</v>
       </c>
-      <c r="C86" s="202"/>
-      <c r="D86" s="202"/>
+      <c r="C86" s="188"/>
+      <c r="D86" s="188"/>
     </row>
     <row r="87" spans="2:4" ht="14.25" thickBot="1">
-      <c r="B87" s="192" t="s">
+      <c r="B87" s="175" t="s">
         <v>149</v>
       </c>
-      <c r="C87" s="200" t="s">
+      <c r="C87" s="183" t="s">
         <v>227</v>
       </c>
-      <c r="D87" s="201" t="s">
+      <c r="D87" s="187" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="88" spans="2:4">
-      <c r="B88" s="193"/>
-      <c r="C88" s="200"/>
-      <c r="D88" s="201"/>
+      <c r="B88" s="176"/>
+      <c r="C88" s="183"/>
+      <c r="D88" s="187"/>
     </row>
     <row r="89" spans="2:4">
       <c r="B89" s="19" t="s">
@@ -8946,6 +8941,26 @@
     <sortCondition ref="B85:B105"/>
   </sortState>
   <mergeCells count="34">
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="E57:E60"/>
     <mergeCell ref="F62:F63"/>
     <mergeCell ref="B87:B88"/>
     <mergeCell ref="C82:D82"/>
@@ -8960,26 +8975,6 @@
     <mergeCell ref="E62:E63"/>
     <mergeCell ref="D87:D88"/>
     <mergeCell ref="B86:D86"/>
-    <mergeCell ref="F57:F60"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" location="Definitioner!B21" display="Riskfaktorer"/>
@@ -10641,126 +10636,126 @@
       <c r="AQ5" s="205"/>
       <c r="AR5" s="205"/>
       <c r="AS5" s="206"/>
-      <c r="AT5" s="222" t="s">
+      <c r="AT5" s="220" t="s">
         <v>197</v>
       </c>
-      <c r="AU5" s="223"/>
-      <c r="AV5" s="223"/>
-      <c r="AW5" s="223"/>
-      <c r="AX5" s="223"/>
-      <c r="AY5" s="223"/>
-      <c r="AZ5" s="223"/>
-      <c r="BA5" s="223"/>
-      <c r="BB5" s="223"/>
-      <c r="BC5" s="223"/>
-      <c r="BD5" s="223"/>
-      <c r="BE5" s="223"/>
-      <c r="BF5" s="223"/>
-      <c r="BG5" s="223"/>
-      <c r="BH5" s="223"/>
-      <c r="BI5" s="224"/>
+      <c r="AU5" s="221"/>
+      <c r="AV5" s="221"/>
+      <c r="AW5" s="221"/>
+      <c r="AX5" s="221"/>
+      <c r="AY5" s="221"/>
+      <c r="AZ5" s="221"/>
+      <c r="BA5" s="221"/>
+      <c r="BB5" s="221"/>
+      <c r="BC5" s="221"/>
+      <c r="BD5" s="221"/>
+      <c r="BE5" s="221"/>
+      <c r="BF5" s="221"/>
+      <c r="BG5" s="221"/>
+      <c r="BH5" s="221"/>
+      <c r="BI5" s="222"/>
     </row>
     <row r="6" spans="1:61" ht="13.5" customHeight="1">
       <c r="A6" s="218"/>
       <c r="B6" s="211"/>
       <c r="C6" s="210"/>
-      <c r="D6" s="220" t="s">
+      <c r="D6" s="223" t="s">
         <v>198</v>
       </c>
-      <c r="E6" s="221"/>
-      <c r="F6" s="220" t="s">
+      <c r="E6" s="224"/>
+      <c r="F6" s="223" t="s">
         <v>199</v>
       </c>
-      <c r="G6" s="221"/>
-      <c r="H6" s="220" t="s">
+      <c r="G6" s="224"/>
+      <c r="H6" s="223" t="s">
         <v>194</v>
       </c>
-      <c r="I6" s="221"/>
-      <c r="J6" s="220" t="s">
+      <c r="I6" s="224"/>
+      <c r="J6" s="223" t="s">
         <v>169</v>
       </c>
-      <c r="K6" s="221"/>
-      <c r="L6" s="220" t="s">
+      <c r="K6" s="224"/>
+      <c r="L6" s="223" t="s">
         <v>170</v>
       </c>
-      <c r="M6" s="221"/>
-      <c r="N6" s="220" t="s">
+      <c r="M6" s="224"/>
+      <c r="N6" s="223" t="s">
         <v>171</v>
       </c>
-      <c r="O6" s="221"/>
-      <c r="P6" s="220" t="s">
+      <c r="O6" s="224"/>
+      <c r="P6" s="223" t="s">
         <v>172</v>
       </c>
-      <c r="Q6" s="221"/>
-      <c r="R6" s="220" t="s">
+      <c r="Q6" s="224"/>
+      <c r="R6" s="223" t="s">
         <v>173</v>
       </c>
-      <c r="S6" s="221"/>
-      <c r="T6" s="220" t="s">
+      <c r="S6" s="224"/>
+      <c r="T6" s="223" t="s">
         <v>174</v>
       </c>
-      <c r="U6" s="221"/>
-      <c r="V6" s="220" t="s">
+      <c r="U6" s="224"/>
+      <c r="V6" s="223" t="s">
         <v>175</v>
       </c>
-      <c r="W6" s="221"/>
-      <c r="X6" s="220" t="s">
+      <c r="W6" s="224"/>
+      <c r="X6" s="223" t="s">
         <v>176</v>
       </c>
-      <c r="Y6" s="221"/>
-      <c r="Z6" s="220" t="s">
+      <c r="Y6" s="224"/>
+      <c r="Z6" s="223" t="s">
         <v>177</v>
       </c>
-      <c r="AA6" s="221"/>
-      <c r="AB6" s="220" t="s">
+      <c r="AA6" s="224"/>
+      <c r="AB6" s="223" t="s">
         <v>204</v>
       </c>
-      <c r="AC6" s="221"/>
-      <c r="AD6" s="220" t="s">
+      <c r="AC6" s="224"/>
+      <c r="AD6" s="223" t="s">
         <v>225</v>
       </c>
-      <c r="AE6" s="221"/>
-      <c r="AF6" s="220" t="s">
+      <c r="AE6" s="224"/>
+      <c r="AF6" s="223" t="s">
         <v>233</v>
       </c>
-      <c r="AG6" s="221"/>
-      <c r="AH6" s="220" t="s">
+      <c r="AG6" s="224"/>
+      <c r="AH6" s="223" t="s">
         <v>237</v>
       </c>
-      <c r="AI6" s="221"/>
-      <c r="AJ6" s="220" t="s">
+      <c r="AI6" s="224"/>
+      <c r="AJ6" s="223" t="s">
         <v>246</v>
       </c>
-      <c r="AK6" s="221"/>
-      <c r="AL6" s="220" t="s">
+      <c r="AK6" s="224"/>
+      <c r="AL6" s="223" t="s">
         <v>247</v>
       </c>
-      <c r="AM6" s="221"/>
-      <c r="AN6" s="220" t="s">
+      <c r="AM6" s="224"/>
+      <c r="AN6" s="223" t="s">
         <v>248</v>
       </c>
-      <c r="AO6" s="221"/>
-      <c r="AP6" s="220" t="s">
+      <c r="AO6" s="224"/>
+      <c r="AP6" s="223" t="s">
         <v>249</v>
       </c>
-      <c r="AQ6" s="221"/>
-      <c r="AR6" s="220" t="s">
+      <c r="AQ6" s="224"/>
+      <c r="AR6" s="223" t="s">
         <v>250</v>
       </c>
-      <c r="AS6" s="221"/>
-      <c r="AT6" s="220" t="s">
+      <c r="AS6" s="224"/>
+      <c r="AT6" s="223" t="s">
         <v>251</v>
       </c>
-      <c r="AU6" s="221"/>
-      <c r="AV6" s="220" t="s">
+      <c r="AU6" s="224"/>
+      <c r="AV6" s="223" t="s">
         <v>252</v>
       </c>
-      <c r="AW6" s="221"/>
-      <c r="AX6" s="220" t="s">
+      <c r="AW6" s="224"/>
+      <c r="AX6" s="223" t="s">
         <v>253</v>
       </c>
-      <c r="AY6" s="221"/>
-      <c r="AZ6" s="220" t="s">
+      <c r="AY6" s="224"/>
+      <c r="AZ6" s="223" t="s">
         <v>254</v>
       </c>
       <c r="BA6" s="228"/>
@@ -15063,6 +15058,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AT6:AU6"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="D5:AS5"/>
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="Z6:AA6"/>
     <mergeCell ref="AT5:BI5"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="P6:Q6"/>
@@ -15079,24 +15092,6 @@
     <mergeCell ref="AL6:AM6"/>
     <mergeCell ref="AJ6:AK6"/>
     <mergeCell ref="AX6:AY6"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="AT6:AU6"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="D5:AS5"/>
-    <mergeCell ref="AH6:AI6"/>
-    <mergeCell ref="AF6:AG6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15195,147 +15190,147 @@
       <c r="AO5" s="205"/>
       <c r="AP5" s="205"/>
       <c r="AQ5" s="206"/>
-      <c r="AR5" s="222" t="s">
+      <c r="AR5" s="220" t="s">
         <v>206</v>
       </c>
-      <c r="AS5" s="223"/>
-      <c r="AT5" s="223"/>
-      <c r="AU5" s="223"/>
-      <c r="AV5" s="223"/>
-      <c r="AW5" s="223"/>
-      <c r="AX5" s="223"/>
-      <c r="AY5" s="223"/>
-      <c r="AZ5" s="223"/>
-      <c r="BA5" s="223"/>
-      <c r="BB5" s="223"/>
-      <c r="BC5" s="223"/>
-      <c r="BD5" s="223"/>
-      <c r="BE5" s="223"/>
-      <c r="BF5" s="223"/>
-      <c r="BG5" s="223"/>
-      <c r="BH5" s="223"/>
-      <c r="BI5" s="224"/>
+      <c r="AS5" s="221"/>
+      <c r="AT5" s="221"/>
+      <c r="AU5" s="221"/>
+      <c r="AV5" s="221"/>
+      <c r="AW5" s="221"/>
+      <c r="AX5" s="221"/>
+      <c r="AY5" s="221"/>
+      <c r="AZ5" s="221"/>
+      <c r="BA5" s="221"/>
+      <c r="BB5" s="221"/>
+      <c r="BC5" s="221"/>
+      <c r="BD5" s="221"/>
+      <c r="BE5" s="221"/>
+      <c r="BF5" s="221"/>
+      <c r="BG5" s="221"/>
+      <c r="BH5" s="221"/>
+      <c r="BI5" s="222"/>
     </row>
     <row r="6" spans="1:61" ht="13.5" customHeight="1">
       <c r="A6" s="218"/>
       <c r="B6" s="211"/>
       <c r="C6" s="210"/>
-      <c r="D6" s="220" t="s">
+      <c r="D6" s="223" t="s">
         <v>199</v>
       </c>
-      <c r="E6" s="221"/>
-      <c r="F6" s="220" t="s">
+      <c r="E6" s="224"/>
+      <c r="F6" s="223" t="s">
         <v>194</v>
       </c>
-      <c r="G6" s="221"/>
-      <c r="H6" s="220" t="s">
+      <c r="G6" s="224"/>
+      <c r="H6" s="223" t="s">
         <v>169</v>
       </c>
-      <c r="I6" s="221"/>
-      <c r="J6" s="220" t="s">
+      <c r="I6" s="224"/>
+      <c r="J6" s="223" t="s">
         <v>170</v>
       </c>
-      <c r="K6" s="221"/>
-      <c r="L6" s="220" t="s">
+      <c r="K6" s="224"/>
+      <c r="L6" s="223" t="s">
         <v>171</v>
       </c>
-      <c r="M6" s="221"/>
-      <c r="N6" s="220" t="s">
+      <c r="M6" s="224"/>
+      <c r="N6" s="223" t="s">
         <v>172</v>
       </c>
-      <c r="O6" s="221"/>
-      <c r="P6" s="220" t="s">
+      <c r="O6" s="224"/>
+      <c r="P6" s="223" t="s">
         <v>173</v>
       </c>
-      <c r="Q6" s="221"/>
-      <c r="R6" s="220" t="s">
+      <c r="Q6" s="224"/>
+      <c r="R6" s="223" t="s">
         <v>174</v>
       </c>
-      <c r="S6" s="221"/>
-      <c r="T6" s="220" t="s">
+      <c r="S6" s="224"/>
+      <c r="T6" s="223" t="s">
         <v>175</v>
       </c>
-      <c r="U6" s="221"/>
-      <c r="V6" s="220" t="s">
+      <c r="U6" s="224"/>
+      <c r="V6" s="223" t="s">
         <v>176</v>
       </c>
-      <c r="W6" s="221"/>
-      <c r="X6" s="220" t="s">
+      <c r="W6" s="224"/>
+      <c r="X6" s="223" t="s">
         <v>177</v>
       </c>
-      <c r="Y6" s="221"/>
-      <c r="Z6" s="220" t="s">
+      <c r="Y6" s="224"/>
+      <c r="Z6" s="223" t="s">
         <v>204</v>
       </c>
-      <c r="AA6" s="221"/>
-      <c r="AB6" s="220" t="s">
+      <c r="AA6" s="224"/>
+      <c r="AB6" s="223" t="s">
         <v>225</v>
       </c>
-      <c r="AC6" s="221"/>
+      <c r="AC6" s="224"/>
       <c r="AD6" s="229" t="s">
         <v>233</v>
       </c>
-      <c r="AE6" s="221"/>
+      <c r="AE6" s="224"/>
       <c r="AF6" s="229" t="s">
         <v>237</v>
       </c>
-      <c r="AG6" s="221"/>
+      <c r="AG6" s="224"/>
       <c r="AH6" s="229" t="s">
         <v>246</v>
       </c>
-      <c r="AI6" s="221"/>
+      <c r="AI6" s="224"/>
       <c r="AJ6" s="229" t="s">
         <v>247</v>
       </c>
-      <c r="AK6" s="221"/>
+      <c r="AK6" s="224"/>
       <c r="AL6" s="229" t="s">
         <v>248</v>
       </c>
-      <c r="AM6" s="221"/>
+      <c r="AM6" s="224"/>
       <c r="AN6" s="229" t="s">
         <v>249</v>
       </c>
-      <c r="AO6" s="221"/>
+      <c r="AO6" s="224"/>
       <c r="AP6" s="229" t="s">
         <v>250</v>
       </c>
-      <c r="AQ6" s="221"/>
+      <c r="AQ6" s="224"/>
       <c r="AR6" s="229" t="s">
         <v>251</v>
       </c>
-      <c r="AS6" s="221"/>
+      <c r="AS6" s="224"/>
       <c r="AT6" s="229" t="s">
         <v>252</v>
       </c>
-      <c r="AU6" s="221"/>
+      <c r="AU6" s="224"/>
       <c r="AV6" s="229" t="s">
         <v>253</v>
       </c>
-      <c r="AW6" s="221"/>
+      <c r="AW6" s="224"/>
       <c r="AX6" s="229" t="s">
         <v>254</v>
       </c>
-      <c r="AY6" s="221"/>
+      <c r="AY6" s="224"/>
       <c r="AZ6" s="229" t="s">
         <v>257</v>
       </c>
-      <c r="BA6" s="221"/>
+      <c r="BA6" s="224"/>
       <c r="BB6" s="229" t="s">
         <v>259</v>
       </c>
-      <c r="BC6" s="221"/>
+      <c r="BC6" s="224"/>
       <c r="BD6" s="229" t="s">
         <v>260</v>
       </c>
-      <c r="BE6" s="221"/>
+      <c r="BE6" s="224"/>
       <c r="BF6" s="229" t="s">
+        <v>273</v>
+      </c>
+      <c r="BG6" s="224"/>
+      <c r="BH6" s="229" t="s">
         <v>265</v>
       </c>
-      <c r="BG6" s="221"/>
-      <c r="BH6" s="229" t="s">
-        <v>274</v>
-      </c>
-      <c r="BI6" s="221"/>
+      <c r="BI6" s="224"/>
     </row>
     <row r="7" spans="1:61">
       <c r="A7" s="219"/>
@@ -19596,11 +19591,17 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="BH6:BI6"/>
-    <mergeCell ref="AR5:BI5"/>
-    <mergeCell ref="BF6:BG6"/>
-    <mergeCell ref="BD6:BE6"/>
-    <mergeCell ref="BB6:BC6"/>
+    <mergeCell ref="AJ6:AK6"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AT6:AU6"/>
+    <mergeCell ref="AP6:AQ6"/>
+    <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="AN6:AO6"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="D5:AQ5"/>
     <mergeCell ref="R6:S6"/>
@@ -19614,21 +19615,15 @@
     <mergeCell ref="AF6:AG6"/>
     <mergeCell ref="AB6:AC6"/>
     <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="AL6:AM6"/>
+    <mergeCell ref="BH6:BI6"/>
+    <mergeCell ref="AR5:BI5"/>
+    <mergeCell ref="BF6:BG6"/>
+    <mergeCell ref="BD6:BE6"/>
+    <mergeCell ref="BB6:BC6"/>
     <mergeCell ref="AZ6:BA6"/>
-    <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="AJ6:AK6"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="AT6:AU6"/>
-    <mergeCell ref="AP6:AQ6"/>
-    <mergeCell ref="AR6:AS6"/>
-    <mergeCell ref="AN6:AO6"/>
     <mergeCell ref="AX6:AY6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19638,15 +19633,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100361443839E954C488E1554F766430BDE" ma:contentTypeVersion="37" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="ec0867efc9d878e75742a5b73fddae48">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dd3acd59-a8d8-42b1-950d-eec6c247243c" xmlns:ns3="343f6c91-b5b3-4dff-89ad-5fc55ccc8930" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f4ea334ff345e29c5775f0a2fd1174f" ns2:_="" ns3:_="">
     <xsd:import namespace="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
@@ -19979,6 +19965,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -20018,14 +20013,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C92573-D875-4871-BB97-75789C903393}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2BDD971-BADF-427E-9579-B824215A28B1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20044,16 +20031,24 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C92573-D875-4871-BB97-75789C903393}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4CF34A-7793-424A-BF7F-3DB732CF3454}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="343f6c91-b5b3-4dff-89ad-5fc55ccc8930"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>

--- a/socialstyrelsen/statistik-covid19-inskrivna_latest.xlsx
+++ b/socialstyrelsen/statistik-covid19-inskrivna_latest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projekt\Covid19_intensivvard\Upprepade leveranser\Output\Arbetsmapp\MALL_UT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\S\Delad\021-Statistik Covid\Excelfiler\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="283">
   <si>
     <t>Diabetes</t>
   </si>
@@ -996,33 +996,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Endast den första inskrivningen i slutenvård för en patient ingår i statistiken, skulle det förkomma mer än ett.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Antal unika patienter som rapporterats till Socialstyrelsen, som utskrivna från slutenvård som vårdats med diagnosen covid-19. Endast den sista utskrivningen i slutenvård för en patient ingår i statistiken, skulle det förkomma mer än ett. </t>
-  </si>
-  <si>
     <t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19.</t>
   </si>
   <si>
@@ -1165,6 +1138,33 @@
   </si>
   <si>
     <t>IU</t>
+  </si>
+  <si>
+    <r>
+      <t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Endast den första inskrivningen i slutenvård för en patient ingår i statistiken, skulle det förekomma mer än ett.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Antal unika patienter som rapporterats till Socialstyrelsen, som utskrivna från slutenvård som vårdats med diagnosen covid-19. Endast den sista utskrivningen i slutenvård för en patient ingår i statistiken, skulle det förekomma mer än ett. </t>
   </si>
 </sst>
 </file>
@@ -1837,10 +1837,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
-      </left>
-      <right/>
+      </right>
       <top style="medium">
         <color theme="8"/>
       </top>
@@ -1850,10 +1850,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
         <color indexed="64"/>
-      </right>
+      </left>
+      <right/>
       <top style="medium">
         <color theme="8"/>
       </top>
@@ -1913,7 +1913,7 @@
     <xf numFmtId="167" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2363,12 +2363,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2389,6 +2383,16 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="19" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2430,58 +2434,7 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="10" applyBorder="1" applyAlignment="1">
@@ -2511,11 +2464,62 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2568,10 +2572,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="29" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2580,7 +2587,10 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="29" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2589,29 +2599,12 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="34" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="34">
     <cellStyle name="Diagramrubrik" xfId="17"/>
@@ -7440,86 +7433,86 @@
     <row r="1" spans="2:6" ht="60" customHeight="1"/>
     <row r="2" spans="2:6" ht="14.25" thickBot="1"/>
     <row r="3" spans="2:6" ht="15.6" customHeight="1">
-      <c r="B3" s="175" t="s">
-        <v>261</v>
-      </c>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="177"/>
+      <c r="B3" s="177" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="179"/>
     </row>
     <row r="4" spans="2:6" s="30" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B4" s="181" t="s">
-        <v>266</v>
-      </c>
-      <c r="C4" s="182"/>
-      <c r="D4" s="182"/>
-      <c r="E4" s="182"/>
-      <c r="F4" s="183"/>
+      <c r="B4" s="183" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" s="184"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="185"/>
     </row>
     <row r="5" spans="2:6" s="30" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B5" s="181" t="str">
+      <c r="B5" s="183" t="str">
         <f>"veckovis inrapportering om slutenvård till Socialstyrelsen från regionerna. Patienter som slutenvårdas vid fler än ett tillfälle räknas bara som inskriven en gång respektive utskriven en"</f>
         <v>veckovis inrapportering om slutenvård till Socialstyrelsen från regionerna. Patienter som slutenvårdas vid fler än ett tillfälle räknas bara som inskriven en gång respektive utskriven en</v>
       </c>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="183"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="184"/>
+      <c r="F5" s="185"/>
     </row>
     <row r="6" spans="2:6" s="30" customFormat="1" ht="15.6" customHeight="1">
-      <c r="B6" s="181" t="s">
-        <v>267</v>
-      </c>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="183"/>
+      <c r="B6" s="183" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" s="184"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="184"/>
+      <c r="F6" s="185"/>
     </row>
     <row r="7" spans="2:6" ht="42.6" customHeight="1">
-      <c r="B7" s="178" t="s">
+      <c r="B7" s="180" t="s">
         <v>221</v>
       </c>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="180"/>
+      <c r="C7" s="181"/>
+      <c r="D7" s="181"/>
+      <c r="E7" s="181"/>
+      <c r="F7" s="182"/>
     </row>
     <row r="8" spans="2:6" ht="33" customHeight="1">
-      <c r="B8" s="178" t="s">
+      <c r="B8" s="180" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="179"/>
-      <c r="D8" s="179"/>
-      <c r="E8" s="179"/>
-      <c r="F8" s="180"/>
+      <c r="C8" s="181"/>
+      <c r="D8" s="181"/>
+      <c r="E8" s="181"/>
+      <c r="F8" s="182"/>
     </row>
     <row r="9" spans="2:6" ht="57.75" customHeight="1">
-      <c r="B9" s="181" t="s">
+      <c r="B9" s="183" t="s">
         <v>224</v>
       </c>
-      <c r="C9" s="182"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="182"/>
-      <c r="F9" s="183"/>
+      <c r="C9" s="184"/>
+      <c r="D9" s="184"/>
+      <c r="E9" s="184"/>
+      <c r="F9" s="185"/>
     </row>
     <row r="10" spans="2:6" ht="54.75" customHeight="1">
-      <c r="B10" s="181" t="s">
+      <c r="B10" s="183" t="s">
         <v>189</v>
       </c>
-      <c r="C10" s="182"/>
-      <c r="D10" s="182"/>
-      <c r="E10" s="182"/>
-      <c r="F10" s="183"/>
+      <c r="C10" s="184"/>
+      <c r="D10" s="184"/>
+      <c r="E10" s="184"/>
+      <c r="F10" s="185"/>
     </row>
     <row r="11" spans="2:6" ht="133.9" customHeight="1" thickBot="1">
-      <c r="B11" s="172" t="s">
-        <v>262</v>
-      </c>
-      <c r="C11" s="173"/>
-      <c r="D11" s="173"/>
-      <c r="E11" s="173"/>
-      <c r="F11" s="174"/>
+      <c r="B11" s="174" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" s="175"/>
+      <c r="D11" s="175"/>
+      <c r="E11" s="175"/>
+      <c r="F11" s="176"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="20"/>
@@ -7540,11 +7533,11 @@
       <c r="B15" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="171" t="s">
+      <c r="C15" s="173" t="s">
         <v>155</v>
       </c>
-      <c r="D15" s="171"/>
-      <c r="E15" s="171"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="173"/>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="37" t="s">
@@ -8069,7 +8062,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="50.45" customHeight="1">
-      <c r="B13" s="186" t="s">
+      <c r="B13" s="209" t="s">
         <v>164</v>
       </c>
       <c r="C13" s="75" t="s">
@@ -8083,24 +8076,24 @@
       </c>
     </row>
     <row r="14" spans="2:5" s="30" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B14" s="187"/>
+      <c r="B14" s="210"/>
       <c r="C14" s="142" t="s">
         <v>239</v>
       </c>
-      <c r="D14" s="184" t="s">
+      <c r="D14" s="207" t="s">
         <v>151</v>
       </c>
-      <c r="E14" s="184" t="s">
+      <c r="E14" s="207" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="15" spans="2:5" s="30" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
-      <c r="B15" s="187"/>
+      <c r="B15" s="210"/>
       <c r="C15" s="124" t="s">
         <v>188</v>
       </c>
-      <c r="D15" s="184"/>
-      <c r="E15" s="185"/>
+      <c r="D15" s="207"/>
+      <c r="E15" s="208"/>
     </row>
     <row r="16" spans="2:5" s="30" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="B16" s="121" t="s">
@@ -8116,20 +8109,20 @@
       <c r="B17" s="118" t="s">
         <v>216</v>
       </c>
-      <c r="C17" s="193" t="s">
+      <c r="C17" s="214" t="s">
         <v>220</v>
       </c>
-      <c r="D17" s="193"/>
+      <c r="D17" s="214"/>
       <c r="E17" s="120"/>
     </row>
     <row r="18" spans="2:6" s="30" customFormat="1" ht="40.5" customHeight="1" thickBot="1">
       <c r="B18" s="119" t="s">
         <v>217</v>
       </c>
-      <c r="C18" s="192" t="s">
+      <c r="C18" s="213" t="s">
         <v>218</v>
       </c>
-      <c r="D18" s="192"/>
+      <c r="D18" s="213"/>
       <c r="E18" s="120"/>
     </row>
     <row r="19" spans="2:6" ht="14.25" thickTop="1">
@@ -8346,16 +8339,16 @@
       <c r="F38" s="39"/>
     </row>
     <row r="39" spans="2:6" ht="27.75" thickTop="1">
-      <c r="B39" s="188" t="s">
+      <c r="B39" s="211" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="190" t="s">
+      <c r="D39" s="212" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="190" t="s">
+      <c r="E39" s="212" t="s">
         <v>49</v>
       </c>
       <c r="F39" s="10" t="s">
@@ -8363,45 +8356,45 @@
       </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="189"/>
+      <c r="B40" s="203"/>
       <c r="C40" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="191"/>
-      <c r="E40" s="191"/>
+      <c r="D40" s="198"/>
+      <c r="E40" s="198"/>
       <c r="F40" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="189"/>
+      <c r="B41" s="203"/>
       <c r="C41" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="191"/>
-      <c r="E41" s="191"/>
+      <c r="D41" s="198"/>
+      <c r="E41" s="198"/>
       <c r="F41" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="189"/>
+      <c r="B42" s="203"/>
       <c r="C42" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="D42" s="191"/>
-      <c r="E42" s="191"/>
+      <c r="D42" s="198"/>
+      <c r="E42" s="198"/>
       <c r="F42" s="11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="27">
-      <c r="B43" s="189"/>
+      <c r="B43" s="203"/>
       <c r="C43" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="D43" s="191"/>
-      <c r="E43" s="191"/>
+      <c r="D43" s="198"/>
+      <c r="E43" s="198"/>
       <c r="F43" s="11" t="s">
         <v>55</v>
       </c>
@@ -8433,20 +8426,20 @@
     <row r="46" spans="2:6">
       <c r="B46" s="197"/>
       <c r="C46" s="197"/>
-      <c r="D46" s="191" t="s">
+      <c r="D46" s="198" t="s">
         <v>60</v>
       </c>
-      <c r="E46" s="191" t="s">
+      <c r="E46" s="198" t="s">
         <v>61</v>
       </c>
-      <c r="F46" s="191"/>
+      <c r="F46" s="198"/>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="197"/>
       <c r="C47" s="197"/>
-      <c r="D47" s="191"/>
-      <c r="E47" s="191"/>
-      <c r="F47" s="191"/>
+      <c r="D47" s="198"/>
+      <c r="E47" s="198"/>
+      <c r="F47" s="198"/>
     </row>
     <row r="48" spans="2:6" ht="14.25" thickBot="1">
       <c r="B48" s="39"/>
@@ -8460,16 +8453,16 @@
       <c r="F48" s="40"/>
     </row>
     <row r="49" spans="2:6" ht="14.25" thickTop="1">
-      <c r="B49" s="196" t="s">
+      <c r="B49" s="202" t="s">
         <v>0</v>
       </c>
       <c r="C49" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D49" s="198" t="s">
+      <c r="D49" s="204" t="s">
         <v>65</v>
       </c>
-      <c r="E49" s="198" t="s">
+      <c r="E49" s="204" t="s">
         <v>66</v>
       </c>
       <c r="F49" s="25" t="s">
@@ -8477,7 +8470,7 @@
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="189"/>
+      <c r="B50" s="203"/>
       <c r="C50" s="8" t="s">
         <v>15</v>
       </c>
@@ -8486,7 +8479,7 @@
       <c r="F50" s="25"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="189"/>
+      <c r="B51" s="203"/>
       <c r="C51" s="8" t="s">
         <v>52</v>
       </c>
@@ -8495,7 +8488,7 @@
       <c r="F51" s="25"/>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="189"/>
+      <c r="B52" s="203"/>
       <c r="C52" s="8" t="s">
         <v>226</v>
       </c>
@@ -8552,46 +8545,46 @@
       <c r="F56" s="39"/>
     </row>
     <row r="57" spans="2:6" ht="14.25" thickTop="1">
-      <c r="B57" s="199" t="s">
+      <c r="B57" s="205" t="s">
         <v>76</v>
       </c>
       <c r="C57" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="201" t="s">
+      <c r="D57" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="E57" s="201" t="s">
+      <c r="E57" s="206" t="s">
         <v>76</v>
       </c>
-      <c r="F57" s="194"/>
+      <c r="F57" s="201"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="200"/>
+      <c r="B58" s="196"/>
       <c r="C58" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="191"/>
-      <c r="E58" s="191"/>
-      <c r="F58" s="195"/>
+      <c r="D58" s="198"/>
+      <c r="E58" s="198"/>
+      <c r="F58" s="186"/>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="200"/>
+      <c r="B59" s="196"/>
       <c r="C59" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="191"/>
-      <c r="E59" s="191"/>
-      <c r="F59" s="195"/>
+      <c r="D59" s="198"/>
+      <c r="E59" s="198"/>
+      <c r="F59" s="186"/>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="200"/>
+      <c r="B60" s="196"/>
       <c r="C60" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="D60" s="191"/>
-      <c r="E60" s="191"/>
-      <c r="F60" s="195"/>
+      <c r="D60" s="198"/>
+      <c r="E60" s="198"/>
+      <c r="F60" s="186"/>
     </row>
     <row r="61" spans="2:6" ht="27">
       <c r="B61" s="24"/>
@@ -8607,22 +8600,22 @@
       <c r="F61" s="23"/>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="200"/>
+      <c r="B62" s="196"/>
       <c r="C62" s="197"/>
-      <c r="D62" s="191" t="s">
+      <c r="D62" s="198" t="s">
         <v>80</v>
       </c>
-      <c r="E62" s="191" t="s">
+      <c r="E62" s="198" t="s">
         <v>81</v>
       </c>
-      <c r="F62" s="195"/>
+      <c r="F62" s="186"/>
     </row>
     <row r="63" spans="2:6">
-      <c r="B63" s="200"/>
+      <c r="B63" s="196"/>
       <c r="C63" s="197"/>
-      <c r="D63" s="191"/>
-      <c r="E63" s="191"/>
-      <c r="F63" s="195"/>
+      <c r="D63" s="198"/>
+      <c r="E63" s="198"/>
+      <c r="F63" s="186"/>
     </row>
     <row r="64" spans="2:6">
       <c r="B64" s="24"/>
@@ -8758,47 +8751,47 @@
     </row>
     <row r="76" spans="2:6" ht="14.25" thickTop="1"/>
     <row r="78" spans="2:6">
-      <c r="B78" s="208" t="s">
+      <c r="B78" s="193" t="s">
         <v>147</v>
       </c>
-      <c r="C78" s="209"/>
-      <c r="D78" s="209"/>
-      <c r="E78" s="209"/>
+      <c r="C78" s="194"/>
+      <c r="D78" s="194"/>
+      <c r="E78" s="194"/>
     </row>
     <row r="79" spans="2:6" s="30" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="B79" s="206" t="s">
-        <v>254</v>
-      </c>
-      <c r="C79" s="206"/>
-      <c r="D79" s="206"/>
+      <c r="B79" s="191" t="s">
+        <v>252</v>
+      </c>
+      <c r="C79" s="191"/>
+      <c r="D79" s="191"/>
       <c r="E79" s="28"/>
     </row>
     <row r="80" spans="2:6">
       <c r="B80" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C80" s="205" t="s">
+      <c r="C80" s="190" t="s">
         <v>138</v>
       </c>
-      <c r="D80" s="205"/>
+      <c r="D80" s="190"/>
     </row>
     <row r="81" spans="2:4" ht="57" customHeight="1">
       <c r="B81" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="C81" s="207" t="s">
+      <c r="C81" s="192" t="s">
         <v>143</v>
       </c>
-      <c r="D81" s="207"/>
+      <c r="D81" s="192"/>
     </row>
     <row r="82" spans="2:4" ht="72" customHeight="1" thickBot="1">
       <c r="B82" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="C82" s="204" t="s">
+      <c r="C82" s="189" t="s">
         <v>144</v>
       </c>
-      <c r="D82" s="204"/>
+      <c r="D82" s="189"/>
     </row>
     <row r="83" spans="2:4" ht="14.25" thickTop="1"/>
     <row r="84" spans="2:4">
@@ -8813,34 +8806,34 @@
       <c r="C85" s="74"/>
     </row>
     <row r="86" spans="2:4" ht="42" customHeight="1" thickBot="1">
-      <c r="B86" s="212" t="s">
+      <c r="B86" s="200" t="s">
         <v>187</v>
       </c>
-      <c r="C86" s="212"/>
-      <c r="D86" s="212"/>
+      <c r="C86" s="200"/>
+      <c r="D86" s="200"/>
     </row>
     <row r="87" spans="2:4" ht="14.25" thickBot="1">
-      <c r="B87" s="202" t="s">
+      <c r="B87" s="187" t="s">
         <v>148</v>
       </c>
-      <c r="C87" s="210" t="s">
+      <c r="C87" s="195" t="s">
         <v>225</v>
       </c>
-      <c r="D87" s="211" t="s">
+      <c r="D87" s="199" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="88" spans="2:4">
-      <c r="B88" s="203"/>
-      <c r="C88" s="210"/>
-      <c r="D88" s="211"/>
+      <c r="B88" s="188"/>
+      <c r="C88" s="195"/>
+      <c r="D88" s="199"/>
     </row>
     <row r="89" spans="2:4">
       <c r="B89" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C89" s="146" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D89">
         <v>47</v>
@@ -8851,7 +8844,7 @@
         <v>123</v>
       </c>
       <c r="C90" s="146" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D90">
         <v>47</v>
@@ -8862,7 +8855,7 @@
         <v>142</v>
       </c>
       <c r="C91" s="146" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D91">
         <v>43</v>
@@ -8873,7 +8866,7 @@
         <v>124</v>
       </c>
       <c r="C92" s="146" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D92">
         <v>47</v>
@@ -8884,7 +8877,7 @@
         <v>119</v>
       </c>
       <c r="C93" s="146" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D93">
         <v>47</v>
@@ -8895,7 +8888,7 @@
         <v>141</v>
       </c>
       <c r="C94" s="146" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D94" s="30">
         <v>47</v>
@@ -8906,7 +8899,7 @@
         <v>115</v>
       </c>
       <c r="C95" s="146" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D95" s="30">
         <v>47</v>
@@ -8917,7 +8910,7 @@
         <v>117</v>
       </c>
       <c r="C96" s="146" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D96" s="30">
         <v>47</v>
@@ -8928,7 +8921,7 @@
         <v>116</v>
       </c>
       <c r="C97" s="146" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D97" s="30">
         <v>47</v>
@@ -8939,7 +8932,7 @@
         <v>127</v>
       </c>
       <c r="C98" s="146" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D98" s="30">
         <v>39</v>
@@ -8950,7 +8943,7 @@
         <v>118</v>
       </c>
       <c r="C99" s="146" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D99" s="30">
         <v>47</v>
@@ -8961,7 +8954,7 @@
         <v>111</v>
       </c>
       <c r="C100" s="146" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D100" s="30">
         <v>47</v>
@@ -8972,7 +8965,7 @@
         <v>113</v>
       </c>
       <c r="C101" s="146" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D101" s="30">
         <v>48</v>
@@ -8983,7 +8976,7 @@
         <v>112</v>
       </c>
       <c r="C102" s="146" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D102" s="30">
         <v>47</v>
@@ -8994,7 +8987,7 @@
         <v>120</v>
       </c>
       <c r="C103" s="146" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D103" s="30">
         <v>47</v>
@@ -9005,7 +8998,7 @@
         <v>126</v>
       </c>
       <c r="C104" s="146" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D104" s="30">
         <v>47</v>
@@ -9016,7 +9009,7 @@
         <v>125</v>
       </c>
       <c r="C105" s="146" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D105" s="30">
         <v>48</v>
@@ -9027,7 +9020,7 @@
         <v>122</v>
       </c>
       <c r="C106" s="146" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D106" s="30">
         <v>47</v>
@@ -9038,7 +9031,7 @@
         <v>201</v>
       </c>
       <c r="C107" s="146" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D107" s="30">
         <v>48</v>
@@ -9049,7 +9042,7 @@
         <v>121</v>
       </c>
       <c r="C108" s="146" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D108" s="30">
         <v>47</v>
@@ -9060,7 +9053,7 @@
         <v>114</v>
       </c>
       <c r="C109" s="147" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D109" s="148">
         <v>47</v>
@@ -9072,6 +9065,26 @@
     <sortCondition ref="B85:B105"/>
   </sortState>
   <mergeCells count="34">
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="E57:E60"/>
     <mergeCell ref="F62:F63"/>
     <mergeCell ref="B87:B88"/>
     <mergeCell ref="C82:D82"/>
@@ -9086,26 +9099,6 @@
     <mergeCell ref="E62:E63"/>
     <mergeCell ref="D87:D88"/>
     <mergeCell ref="B86:D86"/>
-    <mergeCell ref="F57:F60"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" location="Definitioner!B21" display="Riskfaktorer"/>
@@ -9141,7 +9134,7 @@
         <v>44069</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -9203,15 +9196,15 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="29.25" customHeight="1">
-      <c r="A2" s="213" t="s">
-        <v>243</v>
-      </c>
-      <c r="B2" s="213"/>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="213"/>
-      <c r="F2" s="213"/>
-      <c r="G2" s="213"/>
+      <c r="A2" s="215" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="215"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="77"/>
@@ -9242,29 +9235,29 @@
     </row>
     <row r="6" spans="1:22" ht="21.75" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="214" t="s">
+      <c r="B6" s="216" t="s">
         <v>179</v>
       </c>
-      <c r="C6" s="215"/>
-      <c r="D6" s="215"/>
-      <c r="E6" s="215"/>
-      <c r="F6" s="215"/>
-      <c r="G6" s="216"/>
+      <c r="C6" s="217"/>
+      <c r="D6" s="217"/>
+      <c r="E6" s="217"/>
+      <c r="F6" s="217"/>
+      <c r="G6" s="218"/>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="58"/>
-      <c r="B7" s="222" t="s">
+      <c r="B7" s="224" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="222"/>
-      <c r="D7" s="220" t="s">
+      <c r="C7" s="224"/>
+      <c r="D7" s="222" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="221"/>
-      <c r="F7" s="219" t="s">
+      <c r="E7" s="223"/>
+      <c r="F7" s="221" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="219"/>
+      <c r="G7" s="221"/>
       <c r="V7" t="s">
         <v>110</v>
       </c>
@@ -9364,43 +9357,43 @@
         <v>206</v>
       </c>
       <c r="B12" s="34">
-        <v>4021</v>
+        <v>4079</v>
       </c>
       <c r="C12" s="131">
-        <v>14.413736200000001</v>
+        <v>14.6216439</v>
       </c>
       <c r="D12" s="34">
-        <v>2477</v>
+        <v>2511</v>
       </c>
       <c r="E12" s="54">
-        <v>15.986833600000001</v>
+        <v>16.206273400000001</v>
       </c>
       <c r="F12" s="34">
-        <v>1544</v>
+        <v>1568</v>
       </c>
       <c r="G12" s="54">
-        <v>12.448601099999999</v>
+        <v>12.642102700000001</v>
       </c>
     </row>
     <row r="13" spans="1:22" s="30" customFormat="1">
       <c r="A13" s="17"/>
       <c r="B13" s="130">
-        <v>2931</v>
+        <v>2943</v>
       </c>
       <c r="C13" s="133">
-        <v>10.506506099999999</v>
+        <v>10.549521500000001</v>
       </c>
       <c r="D13" s="130">
-        <v>2117</v>
+        <v>2125</v>
       </c>
       <c r="E13" s="82">
-        <v>13.663353600000001</v>
+        <v>13.714986400000001</v>
       </c>
       <c r="F13" s="130">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="G13" s="83">
-        <v>6.5629283000000003</v>
+        <v>6.5951785999999997</v>
       </c>
     </row>
     <row r="14" spans="1:22" s="30" customFormat="1">
@@ -9954,37 +9947,37 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="24" customHeight="1" thickTop="1">
-      <c r="A38" s="217" t="s">
+      <c r="A38" s="219" t="s">
         <v>183</v>
       </c>
-      <c r="B38" s="217"/>
-      <c r="C38" s="217"/>
-      <c r="D38" s="217"/>
-      <c r="E38" s="217"/>
-      <c r="F38" s="217"/>
-      <c r="G38" s="217"/>
+      <c r="B38" s="219"/>
+      <c r="C38" s="219"/>
+      <c r="D38" s="219"/>
+      <c r="E38" s="219"/>
+      <c r="F38" s="219"/>
+      <c r="G38" s="219"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="223" t="s">
+      <c r="A39" s="225" t="s">
         <v>178</v>
       </c>
-      <c r="B39" s="223"/>
-      <c r="C39" s="223"/>
-      <c r="D39" s="223"/>
-      <c r="E39" s="223"/>
-      <c r="F39" s="223"/>
-      <c r="G39" s="223"/>
+      <c r="B39" s="225"/>
+      <c r="C39" s="225"/>
+      <c r="D39" s="225"/>
+      <c r="E39" s="225"/>
+      <c r="F39" s="225"/>
+      <c r="G39" s="225"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="218" t="s">
+      <c r="A40" s="220" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="218"/>
-      <c r="C40" s="218"/>
-      <c r="D40" s="218"/>
-      <c r="E40" s="218"/>
-      <c r="F40" s="218"/>
-      <c r="G40" s="218"/>
+      <c r="B40" s="220"/>
+      <c r="C40" s="220"/>
+      <c r="D40" s="220"/>
+      <c r="E40" s="220"/>
+      <c r="F40" s="220"/>
+      <c r="G40" s="220"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="47"/>
@@ -10036,15 +10029,15 @@
       <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A2" s="224" t="s">
-        <v>242</v>
-      </c>
-      <c r="B2" s="224"/>
-      <c r="C2" s="224"/>
-      <c r="D2" s="224"/>
-      <c r="E2" s="224"/>
-      <c r="F2" s="224"/>
-      <c r="G2" s="224"/>
+      <c r="A2" s="226" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="226"/>
       <c r="H2" s="77"/>
       <c r="I2" s="77"/>
     </row>
@@ -10053,30 +10046,30 @@
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="226" t="s">
+      <c r="B5" s="228" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="227"/>
-      <c r="D5" s="226" t="s">
+      <c r="C5" s="229"/>
+      <c r="D5" s="228" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="227"/>
-      <c r="F5" s="226" t="s">
+      <c r="E5" s="229"/>
+      <c r="F5" s="228" t="s">
         <v>206</v>
       </c>
-      <c r="G5" s="227"/>
+      <c r="G5" s="229"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="228"/>
-      <c r="B6" s="221"/>
-      <c r="C6" s="220"/>
-      <c r="D6" s="221"/>
-      <c r="E6" s="220"/>
-      <c r="F6" s="221"/>
-      <c r="G6" s="220"/>
+      <c r="A6" s="230"/>
+      <c r="B6" s="223"/>
+      <c r="C6" s="222"/>
+      <c r="D6" s="223"/>
+      <c r="E6" s="222"/>
+      <c r="F6" s="223"/>
+      <c r="G6" s="222"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="229"/>
+      <c r="A7" s="231"/>
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
@@ -10113,10 +10106,10 @@
         <v>78.381187941355705</v>
       </c>
       <c r="F8" s="94">
-        <v>4021</v>
+        <v>4079</v>
       </c>
       <c r="G8" s="140">
-        <v>14.413736244040599</v>
+        <v>14.6216439043625</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -10159,10 +10152,10 @@
         <v>75.955414012738899</v>
       </c>
       <c r="F10" s="115">
-        <v>1689</v>
+        <v>1715</v>
       </c>
       <c r="G10" s="139">
-        <v>15.820532034469799</v>
+        <v>16.064068939677799</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -10182,10 +10175,10 @@
         <v>79.331837447020703</v>
       </c>
       <c r="F11" s="115">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="G11" s="139">
-        <v>14.0114684617302</v>
+        <v>14.310645724258301</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -10228,10 +10221,10 @@
         <v>77.351247600767806</v>
       </c>
       <c r="F13" s="115">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G13" s="139">
-        <v>10.684580934101101</v>
+        <v>10.940499040307101</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -10251,10 +10244,10 @@
         <v>82.533589251439594</v>
       </c>
       <c r="F14" s="115">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G14" s="139">
-        <v>11.900191938579701</v>
+        <v>11.996161228406899</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -10274,10 +10267,10 @@
         <v>77.910447761194106</v>
       </c>
       <c r="F15" s="115">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G15" s="139">
-        <v>15.920398009950301</v>
+        <v>16.119402985074601</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -10320,10 +10313,10 @@
         <v>83.3333333333334</v>
       </c>
       <c r="F17" s="115">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G17" s="139">
-        <v>12.368972746331201</v>
+        <v>12.4737945492662</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -10343,10 +10336,10 @@
         <v>72.151898734177195</v>
       </c>
       <c r="F18" s="115">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G18" s="139">
-        <v>11.6455696202532</v>
+        <v>11.8987341772152</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -10366,10 +10359,10 @@
         <v>86.827956989247298</v>
       </c>
       <c r="F19" s="115">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G19" s="139">
-        <v>10.3494623655914</v>
+        <v>10.752688172042999</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -10412,10 +10405,10 @@
         <v>78.693623639191301</v>
       </c>
       <c r="F21" s="115">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G21" s="139">
-        <v>18.040435458786899</v>
+        <v>18.195956454121301</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -10458,10 +10451,10 @@
         <v>65.874730021598296</v>
       </c>
       <c r="F23" s="115">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G23" s="139">
-        <v>15.334773218142599</v>
+        <v>15.7667386609071</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -10481,10 +10474,10 @@
         <v>81.481481481481495</v>
       </c>
       <c r="F24" s="115">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G24" s="139">
-        <v>10.617283950617299</v>
+        <v>11.358024691358001</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -10527,10 +10520,10 @@
         <v>67.581047381546099</v>
       </c>
       <c r="F26" s="115">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G26" s="139">
-        <v>19.950124688279299</v>
+        <v>20.1995012468828</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -10579,7 +10572,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="30" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B29" s="34">
         <v>169</v>
@@ -10601,32 +10594,32 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" thickBot="1">
-      <c r="A30" s="164" t="s">
+      <c r="A30" s="162" t="s">
         <v>142</v>
       </c>
-      <c r="B30" s="165">
+      <c r="B30" s="163">
         <v>33</v>
       </c>
-      <c r="C30" s="166">
+      <c r="C30" s="164">
         <v>0.11829228949348999</v>
       </c>
-      <c r="D30" s="167">
+      <c r="D30" s="165">
         <v>29</v>
       </c>
-      <c r="E30" s="168">
+      <c r="E30" s="166">
         <v>87.878787878787904</v>
       </c>
-      <c r="F30" s="169" t="s">
-        <v>163</v>
-      </c>
-      <c r="G30" s="170"/>
+      <c r="F30" s="167" t="s">
+        <v>163</v>
+      </c>
+      <c r="G30" s="168"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="163" t="s">
+      <c r="A31" s="161" t="s">
         <v>193</v>
       </c>
-      <c r="B31" s="163"/>
-      <c r="C31" s="163"/>
+      <c r="B31" s="161"/>
+      <c r="C31" s="161"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="48" t="s">
@@ -10643,13 +10636,13 @@
       <c r="C33" s="81"/>
     </row>
     <row r="34" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A34" s="225"/>
-      <c r="B34" s="225"/>
-      <c r="C34" s="225"/>
-      <c r="D34" s="225"/>
-      <c r="E34" s="225"/>
-      <c r="F34" s="225"/>
-      <c r="G34" s="225"/>
+      <c r="A34" s="227"/>
+      <c r="B34" s="227"/>
+      <c r="C34" s="227"/>
+      <c r="D34" s="227"/>
+      <c r="E34" s="227"/>
+      <c r="F34" s="227"/>
+      <c r="G34" s="227"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10691,19 +10684,20 @@
       <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:79" ht="30" customHeight="1">
-      <c r="A2" s="213" t="s">
-        <v>240</v>
-      </c>
-      <c r="B2" s="213"/>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="213"/>
-      <c r="F2" s="213"/>
-      <c r="G2" s="213"/>
-      <c r="H2" s="213"/>
-      <c r="I2" s="213"/>
+      <c r="A2" s="215" t="s">
+        <v>281</v>
+      </c>
+      <c r="B2" s="215"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
+      <c r="H2" s="215"/>
+      <c r="I2" s="215"/>
       <c r="J2" s="30"/>
       <c r="K2" s="30"/>
+      <c r="BF2" s="30"/>
     </row>
     <row r="3" spans="1:79">
       <c r="A3" s="61"/>
@@ -10729,250 +10723,250 @@
     </row>
     <row r="5" spans="1:79" ht="28.5" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="226" t="s">
+      <c r="B5" s="228" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="227"/>
-      <c r="D5" s="214" t="s">
+      <c r="C5" s="229"/>
+      <c r="D5" s="216" t="s">
         <v>194</v>
       </c>
-      <c r="E5" s="215"/>
-      <c r="F5" s="215"/>
-      <c r="G5" s="215"/>
-      <c r="H5" s="215"/>
-      <c r="I5" s="215"/>
-      <c r="J5" s="215"/>
-      <c r="K5" s="215"/>
-      <c r="L5" s="215"/>
-      <c r="M5" s="215"/>
-      <c r="N5" s="215"/>
-      <c r="O5" s="215"/>
-      <c r="P5" s="215"/>
-      <c r="Q5" s="215"/>
-      <c r="R5" s="215"/>
-      <c r="S5" s="215"/>
-      <c r="T5" s="215"/>
-      <c r="U5" s="215"/>
-      <c r="V5" s="215"/>
-      <c r="W5" s="215"/>
-      <c r="X5" s="215"/>
-      <c r="Y5" s="215"/>
-      <c r="Z5" s="215"/>
-      <c r="AA5" s="215"/>
-      <c r="AB5" s="215"/>
-      <c r="AC5" s="215"/>
-      <c r="AD5" s="215"/>
-      <c r="AE5" s="215"/>
-      <c r="AF5" s="215"/>
-      <c r="AG5" s="215"/>
-      <c r="AH5" s="215"/>
-      <c r="AI5" s="215"/>
-      <c r="AJ5" s="215"/>
-      <c r="AK5" s="215"/>
-      <c r="AL5" s="215"/>
-      <c r="AM5" s="215"/>
-      <c r="AN5" s="215"/>
-      <c r="AO5" s="215"/>
-      <c r="AP5" s="215"/>
-      <c r="AQ5" s="215"/>
-      <c r="AR5" s="215"/>
-      <c r="AS5" s="215"/>
-      <c r="AT5" s="215"/>
-      <c r="AU5" s="215"/>
-      <c r="AV5" s="215"/>
-      <c r="AW5" s="215"/>
-      <c r="AX5" s="215"/>
-      <c r="AY5" s="215"/>
-      <c r="AZ5" s="215"/>
-      <c r="BA5" s="215"/>
-      <c r="BB5" s="215"/>
-      <c r="BC5" s="215"/>
-      <c r="BD5" s="238"/>
-      <c r="BE5" s="238"/>
-      <c r="BF5" s="238"/>
-      <c r="BG5" s="238"/>
-      <c r="BH5" s="238"/>
-      <c r="BI5" s="238"/>
-      <c r="BJ5" s="238"/>
-      <c r="BK5" s="238"/>
-      <c r="BL5" s="239" t="s">
+      <c r="E5" s="217"/>
+      <c r="F5" s="217"/>
+      <c r="G5" s="217"/>
+      <c r="H5" s="217"/>
+      <c r="I5" s="217"/>
+      <c r="J5" s="217"/>
+      <c r="K5" s="217"/>
+      <c r="L5" s="217"/>
+      <c r="M5" s="217"/>
+      <c r="N5" s="217"/>
+      <c r="O5" s="217"/>
+      <c r="P5" s="217"/>
+      <c r="Q5" s="217"/>
+      <c r="R5" s="217"/>
+      <c r="S5" s="217"/>
+      <c r="T5" s="217"/>
+      <c r="U5" s="217"/>
+      <c r="V5" s="217"/>
+      <c r="W5" s="217"/>
+      <c r="X5" s="217"/>
+      <c r="Y5" s="217"/>
+      <c r="Z5" s="217"/>
+      <c r="AA5" s="217"/>
+      <c r="AB5" s="217"/>
+      <c r="AC5" s="217"/>
+      <c r="AD5" s="217"/>
+      <c r="AE5" s="217"/>
+      <c r="AF5" s="217"/>
+      <c r="AG5" s="217"/>
+      <c r="AH5" s="217"/>
+      <c r="AI5" s="217"/>
+      <c r="AJ5" s="217"/>
+      <c r="AK5" s="217"/>
+      <c r="AL5" s="217"/>
+      <c r="AM5" s="217"/>
+      <c r="AN5" s="217"/>
+      <c r="AO5" s="217"/>
+      <c r="AP5" s="217"/>
+      <c r="AQ5" s="217"/>
+      <c r="AR5" s="217"/>
+      <c r="AS5" s="217"/>
+      <c r="AT5" s="217"/>
+      <c r="AU5" s="217"/>
+      <c r="AV5" s="217"/>
+      <c r="AW5" s="217"/>
+      <c r="AX5" s="217"/>
+      <c r="AY5" s="217"/>
+      <c r="AZ5" s="217"/>
+      <c r="BA5" s="217"/>
+      <c r="BB5" s="217"/>
+      <c r="BC5" s="217"/>
+      <c r="BD5" s="169"/>
+      <c r="BE5" s="169"/>
+      <c r="BF5" s="169"/>
+      <c r="BG5" s="169"/>
+      <c r="BH5" s="169"/>
+      <c r="BI5" s="169"/>
+      <c r="BJ5" s="169"/>
+      <c r="BK5" s="170"/>
+      <c r="BL5" s="232" t="s">
         <v>195</v>
       </c>
-      <c r="BM5" s="234"/>
-      <c r="BN5" s="234"/>
-      <c r="BO5" s="234"/>
-      <c r="BP5" s="234"/>
-      <c r="BQ5" s="234"/>
-      <c r="BR5" s="234"/>
-      <c r="BS5" s="234"/>
-      <c r="BT5" s="234"/>
-      <c r="BU5" s="234"/>
-      <c r="BV5" s="234"/>
-      <c r="BW5" s="234"/>
-      <c r="BX5" s="234"/>
-      <c r="BY5" s="234"/>
-      <c r="BZ5" s="234"/>
-      <c r="CA5" s="241"/>
+      <c r="BM5" s="233"/>
+      <c r="BN5" s="233"/>
+      <c r="BO5" s="233"/>
+      <c r="BP5" s="233"/>
+      <c r="BQ5" s="233"/>
+      <c r="BR5" s="233"/>
+      <c r="BS5" s="233"/>
+      <c r="BT5" s="233"/>
+      <c r="BU5" s="233"/>
+      <c r="BV5" s="233"/>
+      <c r="BW5" s="233"/>
+      <c r="BX5" s="233"/>
+      <c r="BY5" s="233"/>
+      <c r="BZ5" s="233"/>
+      <c r="CA5" s="234"/>
     </row>
     <row r="6" spans="1:79" ht="13.5" customHeight="1">
-      <c r="A6" s="228"/>
-      <c r="B6" s="221"/>
-      <c r="C6" s="220"/>
-      <c r="D6" s="230" t="s">
+      <c r="A6" s="230"/>
+      <c r="B6" s="223"/>
+      <c r="C6" s="222"/>
+      <c r="D6" s="237" t="s">
         <v>196</v>
       </c>
-      <c r="E6" s="231"/>
-      <c r="F6" s="230" t="s">
+      <c r="E6" s="238"/>
+      <c r="F6" s="237" t="s">
         <v>197</v>
       </c>
-      <c r="G6" s="231"/>
-      <c r="H6" s="230" t="s">
+      <c r="G6" s="238"/>
+      <c r="H6" s="237" t="s">
         <v>192</v>
       </c>
-      <c r="I6" s="231"/>
-      <c r="J6" s="230" t="s">
+      <c r="I6" s="238"/>
+      <c r="J6" s="237" t="s">
         <v>168</v>
       </c>
-      <c r="K6" s="231"/>
-      <c r="L6" s="230" t="s">
+      <c r="K6" s="238"/>
+      <c r="L6" s="237" t="s">
         <v>169</v>
       </c>
-      <c r="M6" s="231"/>
-      <c r="N6" s="230" t="s">
+      <c r="M6" s="238"/>
+      <c r="N6" s="237" t="s">
         <v>170</v>
       </c>
-      <c r="O6" s="231"/>
-      <c r="P6" s="230" t="s">
+      <c r="O6" s="238"/>
+      <c r="P6" s="237" t="s">
         <v>171</v>
       </c>
-      <c r="Q6" s="231"/>
-      <c r="R6" s="230" t="s">
+      <c r="Q6" s="238"/>
+      <c r="R6" s="237" t="s">
         <v>172</v>
       </c>
-      <c r="S6" s="231"/>
-      <c r="T6" s="230" t="s">
+      <c r="S6" s="238"/>
+      <c r="T6" s="237" t="s">
         <v>173</v>
       </c>
-      <c r="U6" s="231"/>
-      <c r="V6" s="230" t="s">
+      <c r="U6" s="238"/>
+      <c r="V6" s="237" t="s">
         <v>174</v>
       </c>
-      <c r="W6" s="231"/>
-      <c r="X6" s="230" t="s">
+      <c r="W6" s="238"/>
+      <c r="X6" s="237" t="s">
         <v>175</v>
       </c>
-      <c r="Y6" s="231"/>
-      <c r="Z6" s="230" t="s">
+      <c r="Y6" s="238"/>
+      <c r="Z6" s="237" t="s">
         <v>176</v>
       </c>
-      <c r="AA6" s="231"/>
-      <c r="AB6" s="230" t="s">
+      <c r="AA6" s="238"/>
+      <c r="AB6" s="237" t="s">
         <v>202</v>
       </c>
-      <c r="AC6" s="231"/>
-      <c r="AD6" s="230" t="s">
+      <c r="AC6" s="238"/>
+      <c r="AD6" s="237" t="s">
         <v>223</v>
       </c>
-      <c r="AE6" s="231"/>
-      <c r="AF6" s="230" t="s">
+      <c r="AE6" s="238"/>
+      <c r="AF6" s="237" t="s">
         <v>231</v>
       </c>
-      <c r="AG6" s="231"/>
-      <c r="AH6" s="230" t="s">
+      <c r="AG6" s="238"/>
+      <c r="AH6" s="237" t="s">
         <v>235</v>
       </c>
-      <c r="AI6" s="231"/>
-      <c r="AJ6" s="230" t="s">
+      <c r="AI6" s="238"/>
+      <c r="AJ6" s="237" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK6" s="238"/>
+      <c r="AL6" s="237" t="s">
+        <v>243</v>
+      </c>
+      <c r="AM6" s="238"/>
+      <c r="AN6" s="237" t="s">
         <v>244</v>
       </c>
-      <c r="AK6" s="231"/>
-      <c r="AL6" s="230" t="s">
+      <c r="AO6" s="238"/>
+      <c r="AP6" s="237" t="s">
         <v>245</v>
       </c>
-      <c r="AM6" s="231"/>
-      <c r="AN6" s="230" t="s">
+      <c r="AQ6" s="238"/>
+      <c r="AR6" s="237" t="s">
         <v>246</v>
       </c>
-      <c r="AO6" s="231"/>
-      <c r="AP6" s="230" t="s">
+      <c r="AS6" s="238"/>
+      <c r="AT6" s="237" t="s">
         <v>247</v>
       </c>
-      <c r="AQ6" s="231"/>
-      <c r="AR6" s="230" t="s">
+      <c r="AU6" s="238"/>
+      <c r="AV6" s="237" t="s">
         <v>248</v>
       </c>
-      <c r="AS6" s="231"/>
-      <c r="AT6" s="230" t="s">
+      <c r="AW6" s="238"/>
+      <c r="AX6" s="237" t="s">
         <v>249</v>
       </c>
-      <c r="AU6" s="231"/>
-      <c r="AV6" s="230" t="s">
+      <c r="AY6" s="238"/>
+      <c r="AZ6" s="237" t="s">
         <v>250</v>
       </c>
-      <c r="AW6" s="231"/>
-      <c r="AX6" s="230" t="s">
-        <v>251</v>
-      </c>
-      <c r="AY6" s="231"/>
-      <c r="AZ6" s="230" t="s">
-        <v>252</v>
-      </c>
-      <c r="BA6" s="236"/>
-      <c r="BB6" s="232" t="s">
+      <c r="BA6" s="240"/>
+      <c r="BB6" s="235" t="s">
+        <v>253</v>
+      </c>
+      <c r="BC6" s="239"/>
+      <c r="BD6" s="235" t="s">
+        <v>254</v>
+      </c>
+      <c r="BE6" s="236"/>
+      <c r="BF6" s="235" t="s">
         <v>255</v>
       </c>
-      <c r="BC6" s="235"/>
-      <c r="BD6" s="232" t="s">
+      <c r="BG6" s="236"/>
+      <c r="BH6" s="235" t="s">
+        <v>257</v>
+      </c>
+      <c r="BI6" s="236"/>
+      <c r="BJ6" s="235" t="s">
         <v>256</v>
       </c>
-      <c r="BE6" s="233"/>
-      <c r="BF6" s="232" t="s">
-        <v>257</v>
-      </c>
-      <c r="BG6" s="233"/>
-      <c r="BH6" s="232" t="s">
-        <v>259</v>
-      </c>
-      <c r="BI6" s="233"/>
-      <c r="BJ6" s="232" t="s">
+      <c r="BK6" s="236"/>
+      <c r="BL6" s="235" t="s">
         <v>258</v>
       </c>
-      <c r="BK6" s="233"/>
-      <c r="BL6" s="232" t="s">
-        <v>260</v>
-      </c>
-      <c r="BM6" s="233"/>
-      <c r="BN6" s="232" t="s">
-        <v>264</v>
-      </c>
-      <c r="BO6" s="233"/>
-      <c r="BP6" s="232" t="s">
-        <v>265</v>
-      </c>
-      <c r="BQ6" s="233"/>
-      <c r="BR6" s="232" t="s">
+      <c r="BM6" s="236"/>
+      <c r="BN6" s="235" t="s">
+        <v>262</v>
+      </c>
+      <c r="BO6" s="236"/>
+      <c r="BP6" s="235" t="s">
+        <v>263</v>
+      </c>
+      <c r="BQ6" s="236"/>
+      <c r="BR6" s="235" t="s">
+        <v>274</v>
+      </c>
+      <c r="BS6" s="236"/>
+      <c r="BT6" s="235" t="s">
+        <v>275</v>
+      </c>
+      <c r="BU6" s="236"/>
+      <c r="BV6" s="235" t="s">
         <v>276</v>
       </c>
-      <c r="BS6" s="233"/>
-      <c r="BT6" s="232" t="s">
+      <c r="BW6" s="236"/>
+      <c r="BX6" s="235" t="s">
         <v>277</v>
       </c>
-      <c r="BU6" s="233"/>
-      <c r="BV6" s="232" t="s">
+      <c r="BY6" s="236"/>
+      <c r="BZ6" s="235" t="s">
         <v>278</v>
       </c>
-      <c r="BW6" s="233"/>
-      <c r="BX6" s="232" t="s">
-        <v>279</v>
-      </c>
-      <c r="BY6" s="233"/>
-      <c r="BZ6" s="232" t="s">
-        <v>280</v>
-      </c>
-      <c r="CA6" s="233"/>
+      <c r="CA6" s="236"/>
     </row>
     <row r="7" spans="1:79">
-      <c r="A7" s="229"/>
+      <c r="A7" s="231"/>
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
@@ -14111,52 +14105,52 @@
         <v>110</v>
       </c>
       <c r="BL20" s="112" t="s">
-        <v>282</v>
-      </c>
-      <c r="BM20" s="240" t="s">
-        <v>282</v>
+        <v>280</v>
+      </c>
+      <c r="BM20" s="101" t="s">
+        <v>280</v>
       </c>
       <c r="BN20" s="112" t="s">
-        <v>282</v>
-      </c>
-      <c r="BO20" s="240" t="s">
-        <v>282</v>
+        <v>280</v>
+      </c>
+      <c r="BO20" s="101" t="s">
+        <v>280</v>
       </c>
       <c r="BP20" s="112" t="s">
-        <v>282</v>
-      </c>
-      <c r="BQ20" s="240" t="s">
-        <v>282</v>
+        <v>280</v>
+      </c>
+      <c r="BQ20" s="172" t="s">
+        <v>280</v>
       </c>
       <c r="BR20" s="112" t="s">
-        <v>282</v>
-      </c>
-      <c r="BS20" s="240" t="s">
-        <v>282</v>
+        <v>280</v>
+      </c>
+      <c r="BS20" s="172" t="s">
+        <v>280</v>
       </c>
       <c r="BT20" s="112" t="s">
-        <v>282</v>
-      </c>
-      <c r="BU20" s="240" t="s">
-        <v>282</v>
+        <v>280</v>
+      </c>
+      <c r="BU20" s="172" t="s">
+        <v>280</v>
       </c>
       <c r="BV20" s="112" t="s">
-        <v>282</v>
-      </c>
-      <c r="BW20" s="240" t="s">
-        <v>282</v>
+        <v>280</v>
+      </c>
+      <c r="BW20" s="172" t="s">
+        <v>280</v>
       </c>
       <c r="BX20" s="112" t="s">
-        <v>282</v>
-      </c>
-      <c r="BY20" s="240" t="s">
-        <v>282</v>
+        <v>280</v>
+      </c>
+      <c r="BY20" s="172" t="s">
+        <v>280</v>
       </c>
       <c r="BZ20" s="112" t="s">
-        <v>282</v>
-      </c>
-      <c r="CA20" s="240" t="s">
-        <v>282</v>
+        <v>280</v>
+      </c>
+      <c r="CA20" s="172" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:79">
@@ -16073,7 +16067,7 @@
     </row>
     <row r="29" spans="1:79">
       <c r="A29" s="30" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B29" s="34">
         <v>169</v>
@@ -16144,19 +16138,19 @@
       <c r="X29" s="92">
         <v>5</v>
       </c>
-      <c r="Y29" s="86">
+      <c r="Y29" s="156">
         <v>2.9585798816568101</v>
       </c>
       <c r="Z29" s="92">
         <v>10</v>
       </c>
-      <c r="AA29" s="86">
+      <c r="AA29" s="156">
         <v>5.9171597633136104</v>
       </c>
       <c r="AB29" s="92">
         <v>6</v>
       </c>
-      <c r="AC29">
+      <c r="AC29" s="171">
         <v>3.55029585798817</v>
       </c>
       <c r="AD29" s="87">
@@ -16519,34 +16513,34 @@
         <v>110</v>
       </c>
       <c r="BR30" s="88" t="s">
-        <v>163</v>
+        <v>280</v>
       </c>
       <c r="BS30" s="105" t="s">
-        <v>110</v>
+        <v>280</v>
       </c>
       <c r="BT30" s="88" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BU30" s="105" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BV30" s="88" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BW30" s="105" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BX30" s="88" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BY30" s="105" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BZ30" s="88" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="CA30" s="105" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:79" ht="15.75" customHeight="1" thickTop="1">
@@ -16651,26 +16645,13 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="BL5:CA5"/>
-    <mergeCell ref="BT6:BU6"/>
-    <mergeCell ref="BV6:BW6"/>
-    <mergeCell ref="BX6:BY6"/>
-    <mergeCell ref="BZ6:CA6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="BF6:BG6"/>
-    <mergeCell ref="BH6:BI6"/>
-    <mergeCell ref="BD6:BE6"/>
-    <mergeCell ref="BB6:BC6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="AZ6:BA6"/>
-    <mergeCell ref="AR6:AS6"/>
-    <mergeCell ref="AP6:AQ6"/>
-    <mergeCell ref="BP6:BQ6"/>
-    <mergeCell ref="BR6:BS6"/>
-    <mergeCell ref="AX6:AY6"/>
-    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="D5:BC5"/>
     <mergeCell ref="BJ6:BK6"/>
     <mergeCell ref="BL6:BM6"/>
     <mergeCell ref="BN6:BO6"/>
@@ -16687,13 +16668,26 @@
     <mergeCell ref="AN6:AO6"/>
     <mergeCell ref="AL6:AM6"/>
     <mergeCell ref="AJ6:AK6"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="D5:BC5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="BF6:BG6"/>
+    <mergeCell ref="BH6:BI6"/>
+    <mergeCell ref="BD6:BE6"/>
+    <mergeCell ref="BB6:BC6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="AZ6:BA6"/>
+    <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="AP6:AQ6"/>
+    <mergeCell ref="AX6:AY6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="BL5:CA5"/>
+    <mergeCell ref="BV6:BW6"/>
+    <mergeCell ref="BX6:BY6"/>
+    <mergeCell ref="BZ6:CA6"/>
+    <mergeCell ref="BT6:BU6"/>
+    <mergeCell ref="BP6:BQ6"/>
+    <mergeCell ref="BR6:BS6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16703,7 +16697,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CB37"/>
+  <dimension ref="A1:CA37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -16714,23 +16708,23 @@
     <col min="34" max="16384" width="9.33203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:79" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:80" ht="46.5" customHeight="1">
-      <c r="A2" s="224" t="s">
-        <v>241</v>
-      </c>
-      <c r="B2" s="224"/>
-      <c r="C2" s="224"/>
-      <c r="D2" s="224"/>
-      <c r="E2" s="224"/>
-      <c r="F2" s="224"/>
-      <c r="G2" s="224"/>
-    </row>
-    <row r="3" spans="1:80">
+    <row r="2" spans="1:79" ht="46.5" customHeight="1">
+      <c r="A2" s="226" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="226"/>
+    </row>
+    <row r="3" spans="1:79">
       <c r="A3" s="61"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
@@ -16741,274 +16735,255 @@
       <c r="H3" s="61"/>
       <c r="I3" s="61"/>
     </row>
-    <row r="4" spans="1:80" ht="14.25" thickBot="1">
+    <row r="4" spans="1:79" ht="14.25" thickBot="1">
       <c r="A4" s="116"/>
-      <c r="BJ4" s="245"/>
-      <c r="BK4" s="245"/>
-      <c r="BL4" s="245"/>
-      <c r="BM4" s="245"/>
-      <c r="BN4" s="245"/>
-      <c r="BO4" s="245"/>
-      <c r="BP4" s="245"/>
-      <c r="BQ4" s="245"/>
-      <c r="BR4" s="245"/>
-      <c r="BS4" s="245"/>
-      <c r="BT4" s="245"/>
-      <c r="BU4" s="245"/>
-      <c r="BV4" s="245"/>
-      <c r="BW4" s="245"/>
-      <c r="BX4" s="245"/>
-      <c r="BY4" s="245"/>
-      <c r="BZ4" s="245"/>
-      <c r="CA4" s="245"/>
-    </row>
-    <row r="5" spans="1:80" ht="28.5" customHeight="1">
+    </row>
+    <row r="5" spans="1:79" ht="28.5" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="226" t="s">
+      <c r="B5" s="228" t="s">
         <v>205</v>
       </c>
-      <c r="C5" s="227"/>
-      <c r="D5" s="161" t="s">
+      <c r="C5" s="229"/>
+      <c r="D5" s="216" t="s">
         <v>194</v>
       </c>
-      <c r="E5" s="162"/>
-      <c r="F5" s="162"/>
-      <c r="G5" s="162"/>
-      <c r="H5" s="162"/>
-      <c r="I5" s="162"/>
-      <c r="J5" s="162"/>
-      <c r="K5" s="162"/>
-      <c r="L5" s="162"/>
-      <c r="M5" s="162"/>
-      <c r="N5" s="162"/>
-      <c r="O5" s="162"/>
-      <c r="P5" s="162"/>
-      <c r="Q5" s="162"/>
-      <c r="R5" s="162"/>
-      <c r="S5" s="162"/>
-      <c r="T5" s="162"/>
-      <c r="U5" s="162"/>
-      <c r="V5" s="162"/>
-      <c r="W5" s="162"/>
-      <c r="X5" s="162"/>
-      <c r="Y5" s="162"/>
-      <c r="Z5" s="162"/>
-      <c r="AA5" s="162"/>
-      <c r="AB5" s="162"/>
-      <c r="AC5" s="162"/>
-      <c r="AD5" s="162"/>
-      <c r="AE5" s="162"/>
-      <c r="AF5" s="162"/>
-      <c r="AG5" s="162"/>
-      <c r="AH5" s="162"/>
-      <c r="AI5" s="162"/>
-      <c r="AJ5" s="162"/>
-      <c r="AK5" s="162"/>
-      <c r="AL5" s="162"/>
-      <c r="AM5" s="162"/>
-      <c r="AN5" s="162"/>
-      <c r="AO5" s="162"/>
-      <c r="AP5" s="162"/>
-      <c r="AQ5" s="162"/>
-      <c r="AR5" s="162"/>
-      <c r="AS5" s="162"/>
-      <c r="AT5" s="162"/>
-      <c r="AU5" s="162"/>
-      <c r="AV5" s="162"/>
-      <c r="AW5" s="162"/>
-      <c r="AX5" s="162"/>
-      <c r="AY5" s="162"/>
-      <c r="AZ5" s="162"/>
-      <c r="BA5" s="162"/>
-      <c r="BB5" s="162"/>
-      <c r="BC5" s="162"/>
-      <c r="BD5" s="162"/>
-      <c r="BE5" s="162"/>
-      <c r="BF5" s="162"/>
-      <c r="BG5" s="162"/>
-      <c r="BH5" s="162"/>
-      <c r="BI5" s="162"/>
-      <c r="BJ5" s="221" t="s">
+      <c r="E5" s="217"/>
+      <c r="F5" s="217"/>
+      <c r="G5" s="217"/>
+      <c r="H5" s="217"/>
+      <c r="I5" s="217"/>
+      <c r="J5" s="217"/>
+      <c r="K5" s="217"/>
+      <c r="L5" s="217"/>
+      <c r="M5" s="217"/>
+      <c r="N5" s="217"/>
+      <c r="O5" s="217"/>
+      <c r="P5" s="217"/>
+      <c r="Q5" s="217"/>
+      <c r="R5" s="217"/>
+      <c r="S5" s="217"/>
+      <c r="T5" s="217"/>
+      <c r="U5" s="217"/>
+      <c r="V5" s="217"/>
+      <c r="W5" s="217"/>
+      <c r="X5" s="217"/>
+      <c r="Y5" s="217"/>
+      <c r="Z5" s="217"/>
+      <c r="AA5" s="217"/>
+      <c r="AB5" s="217"/>
+      <c r="AC5" s="217"/>
+      <c r="AD5" s="217"/>
+      <c r="AE5" s="217"/>
+      <c r="AF5" s="217"/>
+      <c r="AG5" s="217"/>
+      <c r="AH5" s="217"/>
+      <c r="AI5" s="217"/>
+      <c r="AJ5" s="217"/>
+      <c r="AK5" s="217"/>
+      <c r="AL5" s="217"/>
+      <c r="AM5" s="217"/>
+      <c r="AN5" s="217"/>
+      <c r="AO5" s="217"/>
+      <c r="AP5" s="217"/>
+      <c r="AQ5" s="217"/>
+      <c r="AR5" s="217"/>
+      <c r="AS5" s="217"/>
+      <c r="AT5" s="217"/>
+      <c r="AU5" s="217"/>
+      <c r="AV5" s="217"/>
+      <c r="AW5" s="217"/>
+      <c r="AX5" s="217"/>
+      <c r="AY5" s="217"/>
+      <c r="AZ5" s="217"/>
+      <c r="BA5" s="217"/>
+      <c r="BB5" s="169"/>
+      <c r="BC5" s="169"/>
+      <c r="BD5" s="169"/>
+      <c r="BE5" s="169"/>
+      <c r="BF5" s="169"/>
+      <c r="BG5" s="169"/>
+      <c r="BH5" s="169"/>
+      <c r="BI5" s="170"/>
+      <c r="BJ5" s="232" t="s">
         <v>204</v>
       </c>
-      <c r="BK5" s="244"/>
-      <c r="BL5" s="244"/>
-      <c r="BM5" s="244"/>
-      <c r="BN5" s="244"/>
-      <c r="BO5" s="244"/>
-      <c r="BP5" s="244"/>
-      <c r="BQ5" s="244"/>
-      <c r="BR5" s="244"/>
-      <c r="BS5" s="244"/>
-      <c r="BT5" s="244"/>
-      <c r="BU5" s="244"/>
-      <c r="BV5" s="244"/>
-      <c r="BW5" s="244"/>
-      <c r="BX5" s="244"/>
-      <c r="BY5" s="244"/>
-      <c r="BZ5" s="244"/>
-      <c r="CA5" s="220"/>
-      <c r="CB5" s="243"/>
-    </row>
-    <row r="6" spans="1:80" ht="13.5" customHeight="1">
-      <c r="A6" s="228"/>
-      <c r="B6" s="221"/>
-      <c r="C6" s="220"/>
-      <c r="D6" s="230" t="s">
+      <c r="BK5" s="233"/>
+      <c r="BL5" s="233"/>
+      <c r="BM5" s="233"/>
+      <c r="BN5" s="233"/>
+      <c r="BO5" s="233"/>
+      <c r="BP5" s="233"/>
+      <c r="BQ5" s="233"/>
+      <c r="BR5" s="233"/>
+      <c r="BS5" s="233"/>
+      <c r="BT5" s="233"/>
+      <c r="BU5" s="233"/>
+      <c r="BV5" s="233"/>
+      <c r="BW5" s="233"/>
+      <c r="BX5" s="233"/>
+      <c r="BY5" s="233"/>
+      <c r="BZ5" s="233"/>
+      <c r="CA5" s="241"/>
+    </row>
+    <row r="6" spans="1:79" ht="13.5" customHeight="1">
+      <c r="A6" s="230"/>
+      <c r="B6" s="223"/>
+      <c r="C6" s="222"/>
+      <c r="D6" s="237" t="s">
         <v>197</v>
       </c>
-      <c r="E6" s="231"/>
-      <c r="F6" s="230" t="s">
+      <c r="E6" s="238"/>
+      <c r="F6" s="237" t="s">
         <v>192</v>
       </c>
-      <c r="G6" s="231"/>
-      <c r="H6" s="230" t="s">
+      <c r="G6" s="238"/>
+      <c r="H6" s="237" t="s">
         <v>168</v>
       </c>
-      <c r="I6" s="231"/>
-      <c r="J6" s="230" t="s">
+      <c r="I6" s="238"/>
+      <c r="J6" s="237" t="s">
         <v>169</v>
       </c>
-      <c r="K6" s="231"/>
-      <c r="L6" s="230" t="s">
+      <c r="K6" s="238"/>
+      <c r="L6" s="237" t="s">
         <v>170</v>
       </c>
-      <c r="M6" s="231"/>
-      <c r="N6" s="230" t="s">
+      <c r="M6" s="238"/>
+      <c r="N6" s="237" t="s">
         <v>171</v>
       </c>
-      <c r="O6" s="231"/>
-      <c r="P6" s="230" t="s">
+      <c r="O6" s="238"/>
+      <c r="P6" s="237" t="s">
         <v>172</v>
       </c>
-      <c r="Q6" s="231"/>
-      <c r="R6" s="230" t="s">
+      <c r="Q6" s="238"/>
+      <c r="R6" s="237" t="s">
         <v>173</v>
       </c>
-      <c r="S6" s="231"/>
-      <c r="T6" s="230" t="s">
+      <c r="S6" s="238"/>
+      <c r="T6" s="237" t="s">
         <v>174</v>
       </c>
-      <c r="U6" s="231"/>
-      <c r="V6" s="230" t="s">
+      <c r="U6" s="238"/>
+      <c r="V6" s="237" t="s">
         <v>175</v>
       </c>
-      <c r="W6" s="231"/>
-      <c r="X6" s="230" t="s">
+      <c r="W6" s="238"/>
+      <c r="X6" s="237" t="s">
         <v>176</v>
       </c>
-      <c r="Y6" s="231"/>
-      <c r="Z6" s="230" t="s">
+      <c r="Y6" s="238"/>
+      <c r="Z6" s="237" t="s">
         <v>202</v>
       </c>
-      <c r="AA6" s="231"/>
-      <c r="AB6" s="230" t="s">
+      <c r="AA6" s="238"/>
+      <c r="AB6" s="237" t="s">
         <v>223</v>
       </c>
-      <c r="AC6" s="231"/>
-      <c r="AD6" s="237" t="s">
+      <c r="AC6" s="238"/>
+      <c r="AD6" s="242" t="s">
         <v>231</v>
       </c>
-      <c r="AE6" s="231"/>
-      <c r="AF6" s="237" t="s">
+      <c r="AE6" s="238"/>
+      <c r="AF6" s="242" t="s">
         <v>235</v>
       </c>
-      <c r="AG6" s="231"/>
-      <c r="AH6" s="237" t="s">
+      <c r="AG6" s="238"/>
+      <c r="AH6" s="242" t="s">
+        <v>242</v>
+      </c>
+      <c r="AI6" s="238"/>
+      <c r="AJ6" s="242" t="s">
+        <v>243</v>
+      </c>
+      <c r="AK6" s="238"/>
+      <c r="AL6" s="242" t="s">
         <v>244</v>
       </c>
-      <c r="AI6" s="231"/>
-      <c r="AJ6" s="237" t="s">
+      <c r="AM6" s="238"/>
+      <c r="AN6" s="242" t="s">
         <v>245</v>
       </c>
-      <c r="AK6" s="231"/>
-      <c r="AL6" s="237" t="s">
+      <c r="AO6" s="238"/>
+      <c r="AP6" s="242" t="s">
         <v>246</v>
       </c>
-      <c r="AM6" s="231"/>
-      <c r="AN6" s="237" t="s">
+      <c r="AQ6" s="238"/>
+      <c r="AR6" s="242" t="s">
         <v>247</v>
       </c>
-      <c r="AO6" s="231"/>
-      <c r="AP6" s="237" t="s">
+      <c r="AS6" s="238"/>
+      <c r="AT6" s="242" t="s">
         <v>248</v>
       </c>
-      <c r="AQ6" s="231"/>
-      <c r="AR6" s="237" t="s">
+      <c r="AU6" s="238"/>
+      <c r="AV6" s="242" t="s">
         <v>249</v>
       </c>
-      <c r="AS6" s="231"/>
-      <c r="AT6" s="237" t="s">
+      <c r="AW6" s="238"/>
+      <c r="AX6" s="242" t="s">
         <v>250</v>
       </c>
-      <c r="AU6" s="231"/>
-      <c r="AV6" s="237" t="s">
-        <v>251</v>
-      </c>
-      <c r="AW6" s="231"/>
-      <c r="AX6" s="237" t="s">
-        <v>252</v>
-      </c>
-      <c r="AY6" s="231"/>
-      <c r="AZ6" s="237" t="s">
+      <c r="AY6" s="238"/>
+      <c r="AZ6" s="242" t="s">
+        <v>253</v>
+      </c>
+      <c r="BA6" s="238"/>
+      <c r="BB6" s="242" t="s">
+        <v>254</v>
+      </c>
+      <c r="BC6" s="238"/>
+      <c r="BD6" s="242" t="s">
         <v>255</v>
       </c>
-      <c r="BA6" s="231"/>
-      <c r="BB6" s="237" t="s">
+      <c r="BE6" s="238"/>
+      <c r="BF6" s="242" t="s">
+        <v>257</v>
+      </c>
+      <c r="BG6" s="238"/>
+      <c r="BH6" s="242" t="s">
         <v>256</v>
       </c>
-      <c r="BC6" s="231"/>
-      <c r="BD6" s="237" t="s">
-        <v>257</v>
-      </c>
-      <c r="BE6" s="231"/>
-      <c r="BF6" s="237" t="s">
-        <v>259</v>
-      </c>
-      <c r="BG6" s="231"/>
-      <c r="BH6" s="237" t="s">
+      <c r="BI6" s="238"/>
+      <c r="BJ6" s="242" t="s">
         <v>258</v>
       </c>
-      <c r="BI6" s="231"/>
-      <c r="BJ6" s="237" t="s">
-        <v>260</v>
-      </c>
-      <c r="BK6" s="231"/>
-      <c r="BL6" s="237" t="s">
-        <v>264</v>
-      </c>
-      <c r="BM6" s="231"/>
+      <c r="BK6" s="238"/>
+      <c r="BL6" s="242" t="s">
+        <v>262</v>
+      </c>
+      <c r="BM6" s="238"/>
       <c r="BN6" s="242" t="s">
-        <v>265</v>
-      </c>
-      <c r="BO6" s="233"/>
+        <v>263</v>
+      </c>
+      <c r="BO6" s="238"/>
       <c r="BP6" s="242" t="s">
+        <v>274</v>
+      </c>
+      <c r="BQ6" s="238"/>
+      <c r="BR6" s="242" t="s">
+        <v>275</v>
+      </c>
+      <c r="BS6" s="238"/>
+      <c r="BT6" s="242" t="s">
         <v>276</v>
       </c>
-      <c r="BQ6" s="233"/>
-      <c r="BR6" s="242" t="s">
+      <c r="BU6" s="238"/>
+      <c r="BV6" s="242" t="s">
         <v>277</v>
       </c>
-      <c r="BS6" s="233"/>
-      <c r="BT6" s="242" t="s">
+      <c r="BW6" s="238"/>
+      <c r="BX6" s="242" t="s">
         <v>278</v>
       </c>
-      <c r="BU6" s="233"/>
-      <c r="BV6" s="242" t="s">
+      <c r="BY6" s="238"/>
+      <c r="BZ6" s="242" t="s">
         <v>279</v>
       </c>
-      <c r="BW6" s="233"/>
-      <c r="BX6" s="242" t="s">
-        <v>280</v>
-      </c>
-      <c r="BY6" s="233"/>
-      <c r="BZ6" s="242" t="s">
-        <v>281</v>
-      </c>
-      <c r="CA6" s="233"/>
-    </row>
-    <row r="7" spans="1:80">
-      <c r="A7" s="229"/>
+      <c r="CA6" s="238"/>
+    </row>
+    <row r="7" spans="1:79">
+      <c r="A7" s="231"/>
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
@@ -17244,7 +17219,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:80">
+    <row r="8" spans="1:79">
       <c r="A8" s="63" t="s">
         <v>222</v>
       </c>
@@ -17483,246 +17458,90 @@
         <v>3.1830238726790498</v>
       </c>
     </row>
-    <row r="9" spans="1:80">
+    <row r="9" spans="1:79">
       <c r="A9" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="95">
-        <v>0</v>
-      </c>
-      <c r="C9" s="96" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" s="66">
-        <v>0</v>
-      </c>
-      <c r="E9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="F9" s="66">
-        <v>0</v>
-      </c>
-      <c r="G9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="H9" s="66">
-        <v>0</v>
-      </c>
-      <c r="I9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="J9" s="66">
-        <v>0</v>
-      </c>
-      <c r="K9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="L9" s="66">
-        <v>0</v>
-      </c>
-      <c r="M9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="N9" s="66">
-        <v>0</v>
-      </c>
-      <c r="O9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="P9" s="66">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="R9" s="66">
-        <v>0</v>
-      </c>
-      <c r="S9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="T9" s="66">
-        <v>0</v>
-      </c>
-      <c r="U9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="V9" s="66">
-        <v>0</v>
-      </c>
-      <c r="W9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="X9" s="66">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z9" s="66">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB9" s="66">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD9" s="66">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF9" s="66">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH9" s="66">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ9" s="66">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL9" s="66">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="AN9" s="66">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP9" s="66">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="AR9" s="66">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="AT9" s="66">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="AV9" s="66">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="AX9" s="66">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="AZ9" s="66">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="BB9" s="66">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="BD9" s="66">
-        <v>0</v>
-      </c>
-      <c r="BE9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="BF9" s="66">
-        <v>0</v>
-      </c>
-      <c r="BG9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="BH9" s="66">
-        <v>0</v>
-      </c>
-      <c r="BI9" s="113" t="s">
-        <v>110</v>
-      </c>
-      <c r="BJ9" s="66">
-        <v>0</v>
-      </c>
-      <c r="BK9" s="113" t="s">
-        <v>110</v>
-      </c>
-      <c r="BL9" s="66">
-        <v>0</v>
-      </c>
-      <c r="BM9" s="113" t="s">
-        <v>110</v>
-      </c>
-      <c r="BN9" s="66">
-        <v>0</v>
-      </c>
-      <c r="BO9" s="113" t="s">
-        <v>110</v>
-      </c>
-      <c r="BP9" s="66">
-        <v>0</v>
-      </c>
-      <c r="BQ9" s="113" t="s">
-        <v>110</v>
-      </c>
-      <c r="BR9" s="66">
-        <v>0</v>
-      </c>
-      <c r="BS9" s="113" t="s">
-        <v>110</v>
-      </c>
-      <c r="BT9" s="66">
-        <v>0</v>
-      </c>
-      <c r="BU9" s="113" t="s">
-        <v>110</v>
-      </c>
-      <c r="BV9" s="66">
-        <v>0</v>
-      </c>
-      <c r="BW9" s="113" t="s">
-        <v>110</v>
-      </c>
-      <c r="BX9" s="66">
-        <v>0</v>
-      </c>
-      <c r="BY9" s="113" t="s">
-        <v>110</v>
-      </c>
-      <c r="BZ9" s="66">
-        <v>0</v>
-      </c>
-      <c r="CA9" s="113" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:80">
+      <c r="B9" s="95"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="66"/>
+      <c r="AA9" s="66"/>
+      <c r="AB9" s="66"/>
+      <c r="AC9" s="66"/>
+      <c r="AD9" s="66"/>
+      <c r="AE9" s="66"/>
+      <c r="AF9" s="66"/>
+      <c r="AG9" s="66"/>
+      <c r="AH9" s="66"/>
+      <c r="AI9" s="66"/>
+      <c r="AJ9" s="66"/>
+      <c r="AK9" s="66"/>
+      <c r="AL9" s="66"/>
+      <c r="AM9" s="66"/>
+      <c r="AN9" s="66"/>
+      <c r="AO9" s="66"/>
+      <c r="AP9" s="66"/>
+      <c r="AQ9" s="66"/>
+      <c r="AR9" s="66"/>
+      <c r="AS9" s="66"/>
+      <c r="AT9" s="66"/>
+      <c r="AU9" s="66"/>
+      <c r="AV9" s="66"/>
+      <c r="AW9" s="66"/>
+      <c r="AX9" s="66"/>
+      <c r="AY9" s="66"/>
+      <c r="AZ9" s="66"/>
+      <c r="BA9" s="66"/>
+      <c r="BB9" s="66"/>
+      <c r="BC9" s="66"/>
+      <c r="BD9" s="66"/>
+      <c r="BE9" s="66"/>
+      <c r="BF9" s="66"/>
+      <c r="BG9" s="66"/>
+      <c r="BH9" s="66"/>
+      <c r="BI9" s="113"/>
+      <c r="BJ9" s="66"/>
+      <c r="BK9" s="113"/>
+      <c r="BL9" s="66"/>
+      <c r="BM9" s="113"/>
+      <c r="BN9" s="66"/>
+      <c r="BO9" s="113"/>
+      <c r="BP9" s="66"/>
+      <c r="BQ9" s="113"/>
+      <c r="BR9" s="66"/>
+      <c r="BS9" s="113"/>
+      <c r="BT9" s="66"/>
+      <c r="BU9" s="113"/>
+      <c r="BV9" s="66"/>
+      <c r="BW9" s="113"/>
+      <c r="BX9" s="66"/>
+      <c r="BY9" s="113"/>
+      <c r="BZ9" s="66"/>
+      <c r="CA9" s="113"/>
+    </row>
+    <row r="10" spans="1:79">
       <c r="A10" s="69" t="s">
         <v>111</v>
       </c>
@@ -17961,7 +17780,7 @@
         <v>2.8733505981008798</v>
       </c>
     </row>
-    <row r="11" spans="1:80">
+    <row r="11" spans="1:79">
       <c r="A11" s="69" t="s">
         <v>201</v>
       </c>
@@ -18200,7 +18019,7 @@
         <v>4.9654305468258997</v>
       </c>
     </row>
-    <row r="12" spans="1:80">
+    <row r="12" spans="1:79">
       <c r="A12" s="65" t="s">
         <v>118</v>
       </c>
@@ -18439,7 +18258,7 @@
         <v>1.8497109826589599</v>
       </c>
     </row>
-    <row r="13" spans="1:80">
+    <row r="13" spans="1:79">
       <c r="A13" s="30" t="s">
         <v>114</v>
       </c>
@@ -18678,7 +18497,7 @@
         <v>5.3763440860215104</v>
       </c>
     </row>
-    <row r="14" spans="1:80">
+    <row r="14" spans="1:79">
       <c r="A14" s="30" t="s">
         <v>115</v>
       </c>
@@ -18917,7 +18736,7 @@
         <v>3.13953488372093</v>
       </c>
     </row>
-    <row r="15" spans="1:80">
+    <row r="15" spans="1:79">
       <c r="A15" s="30" t="s">
         <v>124</v>
       </c>
@@ -19156,7 +18975,7 @@
         <v>3.14465408805032</v>
       </c>
     </row>
-    <row r="16" spans="1:80">
+    <row r="16" spans="1:79">
       <c r="A16" s="30" t="s">
         <v>112</v>
       </c>
@@ -20297,58 +20116,58 @@
         <v>1.08108108108108</v>
       </c>
       <c r="BJ20" s="112" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BK20" s="101" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BL20" s="112" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BM20" s="101" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BN20" s="112" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BO20" s="101" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BP20" s="112" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BQ20" s="101" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BR20" s="112" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BS20" s="101" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BT20" s="112" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BU20" s="101" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BV20" s="112" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BW20" s="101" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BX20" s="112" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BY20" s="101" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BZ20" s="112" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="CA20" s="101" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:79">
@@ -22265,7 +22084,7 @@
     </row>
     <row r="29" spans="1:79">
       <c r="A29" s="30" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B29" s="97">
         <v>136</v>
@@ -22711,34 +22530,34 @@
         <v>0</v>
       </c>
       <c r="BR30" s="88" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BS30" s="105" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BT30" s="88" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BU30" s="105" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BV30" s="88" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BW30" s="105" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BX30" s="88" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BY30" s="105" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BZ30" s="88" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="CA30" s="105" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:79" ht="15.75" customHeight="1" thickTop="1">
@@ -22821,17 +22640,25 @@
       <c r="A37" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="BJ5:CA5"/>
-    <mergeCell ref="BX6:BY6"/>
-    <mergeCell ref="BZ6:CA6"/>
-    <mergeCell ref="BP6:BQ6"/>
-    <mergeCell ref="BR6:BS6"/>
-    <mergeCell ref="BT6:BU6"/>
-    <mergeCell ref="BV6:BW6"/>
-    <mergeCell ref="BJ6:BK6"/>
-    <mergeCell ref="BL6:BM6"/>
-    <mergeCell ref="BN6:BO6"/>
+  <mergeCells count="43">
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AT6:AU6"/>
+    <mergeCell ref="AP6:AQ6"/>
+    <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="AN6:AO6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D5:BA5"/>
     <mergeCell ref="BH6:BI6"/>
     <mergeCell ref="BF6:BG6"/>
     <mergeCell ref="BD6:BE6"/>
@@ -22846,24 +22673,17 @@
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
     <mergeCell ref="AJ6:AK6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="AF6:AG6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="AT6:AU6"/>
-    <mergeCell ref="AP6:AQ6"/>
-    <mergeCell ref="AR6:AS6"/>
-    <mergeCell ref="AN6:AO6"/>
+    <mergeCell ref="BJ5:CA5"/>
+    <mergeCell ref="BR6:BS6"/>
+    <mergeCell ref="BT6:BU6"/>
+    <mergeCell ref="BV6:BW6"/>
+    <mergeCell ref="BX6:BY6"/>
+    <mergeCell ref="BZ6:CA6"/>
+    <mergeCell ref="BP6:BQ6"/>
+    <mergeCell ref="BJ6:BK6"/>
+    <mergeCell ref="BL6:BM6"/>
+    <mergeCell ref="BN6:BO6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22872,53 +22692,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Publiceringsdatum xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">2020-04-28T22:00:00+00:00</Publiceringsdatum>
-    <Verksamhetsomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <Value>Hälso- och sjukvård</Value>
-    </Verksamhetsomr_x00e5_de>
-    <E_x002d_plikt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Ja</E_x002d_plikt>
-    <Produkt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Statistik</Produkt>
-    <Ansvarig_x0020_webbredakt_x00f6_r xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <UserInfo>
-        <DisplayName>Söderholm, Joen</DisplayName>
-        <AccountId>87</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </Ansvarig_x0020_webbredakt_x00f6_r>
-    <TaxCatchAll xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">
-      <Value>9</Value>
-    </TaxCatchAll>
-    <Dokumenttyp xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Övrigt</Dokumenttyp>
-    <Titel xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">statistik-covid19-avlidna</Titel>
-    <Webbplatstillh_x00f6_righet xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <Value>Socialstyrelsen.se</Value>
-    </Webbplatstillh_x00f6_righet>
-    <i01e5b6f93524074838bfc1e1bab8714 xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">statistik och jämförelser</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">338b04a2-62bc-42a8-9e4b-6158db2fb390</TermId>
-        </TermInfo>
-      </Terms>
-    </i01e5b6f93524074838bfc1e1bab8714>
-    <_x00c4_mnesomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
-    <Status_x0020_p_x00e5__x0020_publikation xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Publicerad</Status_x0020_p_x00e5__x0020_publikation>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100361443839E954C488E1554F766430BDE" ma:contentTypeVersion="37" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="ec0867efc9d878e75742a5b73fddae48">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dd3acd59-a8d8-42b1-950d-eec6c247243c" xmlns:ns3="343f6c91-b5b3-4dff-89ad-5fc55ccc8930" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f4ea334ff345e29c5775f0a2fd1174f" ns2:_="" ns3:_="">
     <xsd:import namespace="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
@@ -23251,32 +23024,54 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4CF34A-7793-424A-BF7F-3DB732CF3454}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="343f6c91-b5b3-4dff-89ad-5fc55ccc8930"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C92573-D875-4871-BB97-75789C903393}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Publiceringsdatum xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">2020-04-28T22:00:00+00:00</Publiceringsdatum>
+    <Verksamhetsomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <Value>Hälso- och sjukvård</Value>
+    </Verksamhetsomr_x00e5_de>
+    <E_x002d_plikt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Ja</E_x002d_plikt>
+    <Produkt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Statistik</Produkt>
+    <Ansvarig_x0020_webbredakt_x00f6_r xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <UserInfo>
+        <DisplayName>Söderholm, Joen</DisplayName>
+        <AccountId>87</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </Ansvarig_x0020_webbredakt_x00f6_r>
+    <TaxCatchAll xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">
+      <Value>9</Value>
+    </TaxCatchAll>
+    <Dokumenttyp xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Övrigt</Dokumenttyp>
+    <Titel xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">statistik-covid19-avlidna</Titel>
+    <Webbplatstillh_x00f6_righet xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <Value>Socialstyrelsen.se</Value>
+    </Webbplatstillh_x00f6_righet>
+    <i01e5b6f93524074838bfc1e1bab8714 xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">statistik och jämförelser</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">338b04a2-62bc-42a8-9e4b-6158db2fb390</TermId>
+        </TermInfo>
+      </Terms>
+    </i01e5b6f93524074838bfc1e1bab8714>
+    <_x00c4_mnesomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
+    <Status_x0020_p_x00e5__x0020_publikation xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Publicerad</Status_x0020_p_x00e5__x0020_publikation>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2BDD971-BADF-427E-9579-B824215A28B1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -23293,4 +23088,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C92573-D875-4871-BB97-75789C903393}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4CF34A-7793-424A-BF7F-3DB732CF3454}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="343f6c91-b5b3-4dff-89ad-5fc55ccc8930"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/socialstyrelsen/statistik-covid19-inskrivna_latest.xlsx
+++ b/socialstyrelsen/statistik-covid19-inskrivna_latest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\S\Delad\021-Statistik Covid\Excelfiler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Delad\510-Statistik covid19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,12 +31,12 @@
     <definedName name="innehållsförteckning" localSheetId="2">'[2]Om statistiken'!#REF!</definedName>
     <definedName name="innehållsförteckning">'Om statistiken'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="289">
   <si>
     <t>Diabetes</t>
   </si>
@@ -995,7 +995,37 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Endast den första inskrivningen i slutenvård för en patient ingår i statistiken, skulle det förkomma mer än ett.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Antal unika patienter som rapporterats till Socialstyrelsen, som utskrivna från slutenvård som vårdats med diagnosen covid-19. Endast den sista utskrivningen i slutenvård för en patient ingår i statistiken, skulle det förkomma mer än ett. </t>
+  </si>
+  <si>
     <t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19.</t>
+  </si>
+  <si>
+    <t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19. Endast ett slutenvårdstillfälle för en patient ingår i statistiken, skulle det förkomma mer än ett.</t>
   </si>
   <si>
     <t>vecka 26</t>
@@ -1109,46 +1139,16 @@
     <t>vecka 49</t>
   </si>
   <si>
+    <t>vecka 51</t>
+  </si>
+  <si>
+    <t>vecka 52</t>
+  </si>
+  <si>
+    <t>IU</t>
+  </si>
+  <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>vecka 51</t>
-  </si>
-  <si>
-    <t>vecka 52</t>
-  </si>
-  <si>
-    <t>IU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antal unika patienter som rapporterats till Socialstyrelsen, som utskrivna från slutenvård som vårdats med diagnosen covid-19. Endast den sista utskrivningen i slutenvård för en patient ingår i statistiken, om det skulle förekomma mer än ett. </t>
-  </si>
-  <si>
-    <r>
-      <t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Endast den första inskrivningen i slutenvård för en patient ingår i statistiken, om det skulle förekomma mer än ett.</t>
-    </r>
-  </si>
-  <si>
-    <t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19. Endast ett slutenvårdstillfälle för en patient ingår i statistiken, om det skulle förekomma mer än ett.</t>
   </si>
   <si>
     <t>Populationen utgörs av alla individer som slutenvårdats för covid-19 med inskrivningsdatum fram till och med den 27 december 2020 enligt rapportering till patientregistret eller frivillig särskild</t>
@@ -2082,7 +2082,7 @@
     <xf numFmtId="167" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="305">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2696,42 +2696,30 @@
     <xf numFmtId="2" fontId="5" fillId="2" borderId="9" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="36" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="38" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="36" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="38" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="36" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="38" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="38" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="36" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2771,9 +2759,60 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2801,63 +2840,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2912,7 +2900,19 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="29" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="10" applyBorder="1" applyAlignment="1">
@@ -2921,28 +2921,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="29" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3040,6 +3025,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3500,6 +3486,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5463,16 +5450,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>455295</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>27270</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:colOff>551145</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>350520</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5483,7 +5470,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4884420" y="628650"/>
+          <a:off x="5408295" y="238125"/>
           <a:ext cx="1296000" cy="360045"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -5962,7 +5949,7 @@
               <a:latin typeface="Century Gothic"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19. Endast ett slutenvårdstillfälle för en patient ingår i statistiken, om det skulle förekomma mer än ett.</a:t>
+            <a:t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19. Endast ett slutenvårdstillfälle för en patient ingår i statistiken, skulle det förkomma mer än ett.</a:t>
           </a:fld>
           <a:endParaRPr lang="sv-SE" sz="800" b="0"/>
         </a:p>
@@ -7795,86 +7782,86 @@
     <row r="1" spans="2:6" ht="60" customHeight="1"/>
     <row r="2" spans="2:6" ht="14.25" thickBot="1"/>
     <row r="3" spans="2:6" ht="15.6" customHeight="1">
-      <c r="B3" s="237" t="s">
-        <v>257</v>
-      </c>
-      <c r="C3" s="238"/>
-      <c r="D3" s="238"/>
-      <c r="E3" s="238"/>
-      <c r="F3" s="239"/>
+      <c r="B3" s="233" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" s="234"/>
+      <c r="D3" s="234"/>
+      <c r="E3" s="234"/>
+      <c r="F3" s="235"/>
     </row>
     <row r="4" spans="2:6" s="30" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B4" s="243" t="s">
+      <c r="B4" s="239" t="s">
         <v>277</v>
       </c>
-      <c r="C4" s="244"/>
-      <c r="D4" s="244"/>
-      <c r="E4" s="244"/>
-      <c r="F4" s="245"/>
+      <c r="C4" s="240"/>
+      <c r="D4" s="240"/>
+      <c r="E4" s="240"/>
+      <c r="F4" s="241"/>
     </row>
     <row r="5" spans="2:6" s="30" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B5" s="243" t="str">
+      <c r="B5" s="239" t="str">
         <f>"veckovis inrapportering om slutenvård till Socialstyrelsen från regionerna. Patienter som slutenvårdas vid fler än ett tillfälle räknas bara som inskriven en gång respektive utskriven en"</f>
         <v>veckovis inrapportering om slutenvård till Socialstyrelsen från regionerna. Patienter som slutenvårdas vid fler än ett tillfälle räknas bara som inskriven en gång respektive utskriven en</v>
       </c>
-      <c r="C5" s="244"/>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="245"/>
+      <c r="C5" s="240"/>
+      <c r="D5" s="240"/>
+      <c r="E5" s="240"/>
+      <c r="F5" s="241"/>
     </row>
     <row r="6" spans="2:6" s="30" customFormat="1" ht="15.6" customHeight="1">
-      <c r="B6" s="243" t="s">
+      <c r="B6" s="239" t="s">
         <v>278</v>
       </c>
-      <c r="C6" s="244"/>
-      <c r="D6" s="244"/>
-      <c r="E6" s="244"/>
-      <c r="F6" s="245"/>
+      <c r="C6" s="240"/>
+      <c r="D6" s="240"/>
+      <c r="E6" s="240"/>
+      <c r="F6" s="241"/>
     </row>
     <row r="7" spans="2:6" ht="42.6" customHeight="1">
-      <c r="B7" s="240" t="s">
+      <c r="B7" s="236" t="s">
         <v>220</v>
       </c>
-      <c r="C7" s="241"/>
-      <c r="D7" s="241"/>
-      <c r="E7" s="241"/>
-      <c r="F7" s="242"/>
+      <c r="C7" s="237"/>
+      <c r="D7" s="237"/>
+      <c r="E7" s="237"/>
+      <c r="F7" s="238"/>
     </row>
     <row r="8" spans="2:6" ht="33" customHeight="1">
-      <c r="B8" s="240" t="s">
+      <c r="B8" s="236" t="s">
         <v>179</v>
       </c>
-      <c r="C8" s="241"/>
-      <c r="D8" s="241"/>
-      <c r="E8" s="241"/>
-      <c r="F8" s="242"/>
+      <c r="C8" s="237"/>
+      <c r="D8" s="237"/>
+      <c r="E8" s="237"/>
+      <c r="F8" s="238"/>
     </row>
     <row r="9" spans="2:6" ht="57.75" customHeight="1">
-      <c r="B9" s="243" t="s">
+      <c r="B9" s="239" t="s">
         <v>223</v>
       </c>
-      <c r="C9" s="244"/>
-      <c r="D9" s="244"/>
-      <c r="E9" s="244"/>
-      <c r="F9" s="245"/>
+      <c r="C9" s="240"/>
+      <c r="D9" s="240"/>
+      <c r="E9" s="240"/>
+      <c r="F9" s="241"/>
     </row>
     <row r="10" spans="2:6" ht="54.75" customHeight="1">
-      <c r="B10" s="243" t="s">
+      <c r="B10" s="239" t="s">
         <v>188</v>
       </c>
-      <c r="C10" s="244"/>
-      <c r="D10" s="244"/>
-      <c r="E10" s="244"/>
-      <c r="F10" s="245"/>
+      <c r="C10" s="240"/>
+      <c r="D10" s="240"/>
+      <c r="E10" s="240"/>
+      <c r="F10" s="241"/>
     </row>
     <row r="11" spans="2:6" ht="133.9" customHeight="1" thickBot="1">
-      <c r="B11" s="234" t="s">
-        <v>258</v>
-      </c>
-      <c r="C11" s="235"/>
-      <c r="D11" s="235"/>
-      <c r="E11" s="235"/>
-      <c r="F11" s="236"/>
+      <c r="B11" s="230" t="s">
+        <v>261</v>
+      </c>
+      <c r="C11" s="231"/>
+      <c r="D11" s="231"/>
+      <c r="E11" s="231"/>
+      <c r="F11" s="232"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="20"/>
@@ -7895,11 +7882,11 @@
       <c r="B15" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="233" t="s">
+      <c r="C15" s="229" t="s">
         <v>155</v>
       </c>
-      <c r="D15" s="233"/>
-      <c r="E15" s="233"/>
+      <c r="D15" s="229"/>
+      <c r="E15" s="229"/>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="37" t="s">
@@ -8424,7 +8411,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="50.45" customHeight="1">
-      <c r="B13" s="269" t="s">
+      <c r="B13" s="244" t="s">
         <v>163</v>
       </c>
       <c r="C13" s="74" t="s">
@@ -8438,24 +8425,24 @@
       </c>
     </row>
     <row r="14" spans="2:5" s="30" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B14" s="270"/>
+      <c r="B14" s="245"/>
       <c r="C14" s="129" t="s">
         <v>238</v>
       </c>
-      <c r="D14" s="267" t="s">
+      <c r="D14" s="242" t="s">
         <v>151</v>
       </c>
-      <c r="E14" s="267" t="s">
+      <c r="E14" s="242" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="15" spans="2:5" s="30" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
-      <c r="B15" s="270"/>
+      <c r="B15" s="245"/>
       <c r="C15" s="112" t="s">
         <v>187</v>
       </c>
-      <c r="D15" s="267"/>
-      <c r="E15" s="268"/>
+      <c r="D15" s="242"/>
+      <c r="E15" s="243"/>
     </row>
     <row r="16" spans="2:5" s="30" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="B16" s="109" t="s">
@@ -8471,20 +8458,20 @@
       <c r="B17" s="106" t="s">
         <v>215</v>
       </c>
-      <c r="C17" s="274" t="s">
+      <c r="C17" s="251" t="s">
         <v>219</v>
       </c>
-      <c r="D17" s="274"/>
+      <c r="D17" s="251"/>
       <c r="E17" s="108"/>
     </row>
     <row r="18" spans="2:6" s="30" customFormat="1" ht="40.5" customHeight="1" thickBot="1">
       <c r="B18" s="107" t="s">
         <v>216</v>
       </c>
-      <c r="C18" s="273" t="s">
+      <c r="C18" s="250" t="s">
         <v>217</v>
       </c>
-      <c r="D18" s="273"/>
+      <c r="D18" s="250"/>
       <c r="E18" s="108"/>
     </row>
     <row r="19" spans="2:6" ht="14.25" thickTop="1">
@@ -8701,16 +8688,16 @@
       <c r="F38" s="39"/>
     </row>
     <row r="39" spans="2:6" ht="27.75" thickTop="1">
-      <c r="B39" s="271" t="s">
+      <c r="B39" s="246" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="272" t="s">
+      <c r="D39" s="248" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="272" t="s">
+      <c r="E39" s="248" t="s">
         <v>49</v>
       </c>
       <c r="F39" s="10" t="s">
@@ -8718,45 +8705,45 @@
       </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="263"/>
+      <c r="B40" s="247"/>
       <c r="C40" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="258"/>
-      <c r="E40" s="258"/>
+      <c r="D40" s="249"/>
+      <c r="E40" s="249"/>
       <c r="F40" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="263"/>
+      <c r="B41" s="247"/>
       <c r="C41" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="258"/>
-      <c r="E41" s="258"/>
+      <c r="D41" s="249"/>
+      <c r="E41" s="249"/>
       <c r="F41" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="263"/>
+      <c r="B42" s="247"/>
       <c r="C42" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D42" s="258"/>
-      <c r="E42" s="258"/>
+      <c r="D42" s="249"/>
+      <c r="E42" s="249"/>
       <c r="F42" s="11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="27">
-      <c r="B43" s="263"/>
+      <c r="B43" s="247"/>
       <c r="C43" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="D43" s="258"/>
-      <c r="E43" s="258"/>
+      <c r="D43" s="249"/>
+      <c r="E43" s="249"/>
       <c r="F43" s="11" t="s">
         <v>55</v>
       </c>
@@ -8786,22 +8773,22 @@
       <c r="F45" s="26"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="257"/>
-      <c r="C46" s="257"/>
-      <c r="D46" s="258" t="s">
+      <c r="B46" s="255"/>
+      <c r="C46" s="255"/>
+      <c r="D46" s="249" t="s">
         <v>60</v>
       </c>
-      <c r="E46" s="258" t="s">
+      <c r="E46" s="249" t="s">
         <v>61</v>
       </c>
-      <c r="F46" s="258"/>
+      <c r="F46" s="249"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="257"/>
-      <c r="C47" s="257"/>
-      <c r="D47" s="258"/>
-      <c r="E47" s="258"/>
-      <c r="F47" s="258"/>
+      <c r="B47" s="255"/>
+      <c r="C47" s="255"/>
+      <c r="D47" s="249"/>
+      <c r="E47" s="249"/>
+      <c r="F47" s="249"/>
     </row>
     <row r="48" spans="2:6" ht="14.25" thickBot="1">
       <c r="B48" s="39"/>
@@ -8815,16 +8802,16 @@
       <c r="F48" s="40"/>
     </row>
     <row r="49" spans="2:6" ht="14.25" thickTop="1">
-      <c r="B49" s="262" t="s">
+      <c r="B49" s="254" t="s">
         <v>0</v>
       </c>
       <c r="C49" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D49" s="264" t="s">
+      <c r="D49" s="256" t="s">
         <v>65</v>
       </c>
-      <c r="E49" s="264" t="s">
+      <c r="E49" s="256" t="s">
         <v>66</v>
       </c>
       <c r="F49" s="25" t="s">
@@ -8832,30 +8819,30 @@
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="263"/>
+      <c r="B50" s="247"/>
       <c r="C50" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="257"/>
-      <c r="E50" s="257"/>
+      <c r="D50" s="255"/>
+      <c r="E50" s="255"/>
       <c r="F50" s="25"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="263"/>
+      <c r="B51" s="247"/>
       <c r="C51" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="257"/>
-      <c r="E51" s="257"/>
+      <c r="D51" s="255"/>
+      <c r="E51" s="255"/>
       <c r="F51" s="25"/>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="263"/>
+      <c r="B52" s="247"/>
       <c r="C52" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D52" s="257"/>
-      <c r="E52" s="257"/>
+      <c r="D52" s="255"/>
+      <c r="E52" s="255"/>
       <c r="F52" s="25"/>
     </row>
     <row r="53" spans="2:6" ht="27">
@@ -8907,46 +8894,46 @@
       <c r="F56" s="39"/>
     </row>
     <row r="57" spans="2:6" ht="14.25" thickTop="1">
-      <c r="B57" s="265" t="s">
+      <c r="B57" s="257" t="s">
         <v>76</v>
       </c>
       <c r="C57" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="266" t="s">
+      <c r="D57" s="259" t="s">
         <v>77</v>
       </c>
-      <c r="E57" s="266" t="s">
+      <c r="E57" s="259" t="s">
         <v>76</v>
       </c>
-      <c r="F57" s="261"/>
+      <c r="F57" s="252"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="256"/>
+      <c r="B58" s="258"/>
       <c r="C58" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="258"/>
-      <c r="E58" s="258"/>
-      <c r="F58" s="246"/>
+      <c r="D58" s="249"/>
+      <c r="E58" s="249"/>
+      <c r="F58" s="253"/>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="256"/>
+      <c r="B59" s="258"/>
       <c r="C59" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="258"/>
-      <c r="E59" s="258"/>
-      <c r="F59" s="246"/>
+      <c r="D59" s="249"/>
+      <c r="E59" s="249"/>
+      <c r="F59" s="253"/>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="256"/>
+      <c r="B60" s="258"/>
       <c r="C60" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D60" s="258"/>
-      <c r="E60" s="258"/>
-      <c r="F60" s="246"/>
+      <c r="D60" s="249"/>
+      <c r="E60" s="249"/>
+      <c r="F60" s="253"/>
     </row>
     <row r="61" spans="2:6" ht="27">
       <c r="B61" s="24"/>
@@ -8962,22 +8949,22 @@
       <c r="F61" s="23"/>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="256"/>
-      <c r="C62" s="257"/>
-      <c r="D62" s="258" t="s">
+      <c r="B62" s="258"/>
+      <c r="C62" s="255"/>
+      <c r="D62" s="249" t="s">
         <v>80</v>
       </c>
-      <c r="E62" s="258" t="s">
+      <c r="E62" s="249" t="s">
         <v>81</v>
       </c>
-      <c r="F62" s="246"/>
+      <c r="F62" s="253"/>
     </row>
     <row r="63" spans="2:6">
-      <c r="B63" s="256"/>
-      <c r="C63" s="257"/>
-      <c r="D63" s="258"/>
-      <c r="E63" s="258"/>
-      <c r="F63" s="246"/>
+      <c r="B63" s="258"/>
+      <c r="C63" s="255"/>
+      <c r="D63" s="249"/>
+      <c r="E63" s="249"/>
+      <c r="F63" s="253"/>
     </row>
     <row r="64" spans="2:6">
       <c r="B64" s="24"/>
@@ -9113,47 +9100,47 @@
     </row>
     <row r="76" spans="2:6" ht="14.25" thickTop="1"/>
     <row r="78" spans="2:6">
-      <c r="B78" s="253" t="s">
+      <c r="B78" s="266" t="s">
         <v>147</v>
       </c>
-      <c r="C78" s="254"/>
-      <c r="D78" s="254"/>
-      <c r="E78" s="254"/>
+      <c r="C78" s="267"/>
+      <c r="D78" s="267"/>
+      <c r="E78" s="267"/>
     </row>
     <row r="79" spans="2:6" s="30" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="B79" s="251" t="s">
-        <v>250</v>
-      </c>
-      <c r="C79" s="251"/>
-      <c r="D79" s="251"/>
+      <c r="B79" s="264" t="s">
+        <v>253</v>
+      </c>
+      <c r="C79" s="264"/>
+      <c r="D79" s="264"/>
       <c r="E79" s="28"/>
     </row>
     <row r="80" spans="2:6">
       <c r="B80" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C80" s="250" t="s">
+      <c r="C80" s="263" t="s">
         <v>138</v>
       </c>
-      <c r="D80" s="250"/>
+      <c r="D80" s="263"/>
     </row>
     <row r="81" spans="2:4" ht="57" customHeight="1">
       <c r="B81" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="C81" s="252" t="s">
+      <c r="C81" s="265" t="s">
         <v>143</v>
       </c>
-      <c r="D81" s="252"/>
+      <c r="D81" s="265"/>
     </row>
     <row r="82" spans="2:4" ht="72" customHeight="1" thickBot="1">
       <c r="B82" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="C82" s="249" t="s">
+      <c r="C82" s="262" t="s">
         <v>144</v>
       </c>
-      <c r="D82" s="249"/>
+      <c r="D82" s="262"/>
     </row>
     <row r="83" spans="2:4" ht="14.25" thickTop="1"/>
     <row r="84" spans="2:4">
@@ -9168,31 +9155,31 @@
       <c r="C85" s="73"/>
     </row>
     <row r="86" spans="2:4" ht="42" customHeight="1" thickBot="1">
-      <c r="B86" s="260" t="s">
+      <c r="B86" s="270" t="s">
         <v>186</v>
       </c>
-      <c r="C86" s="260"/>
-      <c r="D86" s="260"/>
+      <c r="C86" s="270"/>
+      <c r="D86" s="270"/>
     </row>
     <row r="87" spans="2:4" ht="14.25" thickBot="1">
-      <c r="B87" s="247" t="s">
+      <c r="B87" s="260" t="s">
         <v>148</v>
       </c>
-      <c r="C87" s="255" t="s">
+      <c r="C87" s="268" t="s">
         <v>224</v>
       </c>
-      <c r="D87" s="259" t="s">
+      <c r="D87" s="269" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="88" spans="2:4">
-      <c r="B88" s="248"/>
-      <c r="C88" s="255"/>
-      <c r="D88" s="259"/>
+      <c r="B88" s="261"/>
+      <c r="C88" s="268"/>
+      <c r="D88" s="269"/>
     </row>
     <row r="89" spans="2:4">
       <c r="B89" s="19" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C89" s="133" t="s">
         <v>279</v>
@@ -9427,26 +9414,6 @@
     <sortCondition ref="B85:B105"/>
   </sortState>
   <mergeCells count="34">
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F57:F60"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="E57:E60"/>
     <mergeCell ref="F62:F63"/>
     <mergeCell ref="B87:B88"/>
     <mergeCell ref="C82:D82"/>
@@ -9461,6 +9428,26 @@
     <mergeCell ref="E62:E63"/>
     <mergeCell ref="D87:D88"/>
     <mergeCell ref="B86:D86"/>
+    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" location="Definitioner!B21" display="Riskfaktorer"/>
@@ -9496,7 +9483,7 @@
         <v>44069</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -9558,15 +9545,15 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="29.25" customHeight="1">
-      <c r="A2" s="275" t="s">
-        <v>276</v>
-      </c>
-      <c r="B2" s="275"/>
-      <c r="C2" s="275"/>
-      <c r="D2" s="275"/>
-      <c r="E2" s="275"/>
-      <c r="F2" s="275"/>
-      <c r="G2" s="275"/>
+      <c r="A2" s="271" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="271"/>
+      <c r="C2" s="271"/>
+      <c r="D2" s="271"/>
+      <c r="E2" s="271"/>
+      <c r="F2" s="271"/>
+      <c r="G2" s="271"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="76"/>
@@ -9597,29 +9584,29 @@
     </row>
     <row r="6" spans="1:22" ht="21.75" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="276" t="s">
+      <c r="B6" s="272" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="277"/>
-      <c r="D6" s="277"/>
-      <c r="E6" s="277"/>
-      <c r="F6" s="277"/>
-      <c r="G6" s="278"/>
+      <c r="C6" s="273"/>
+      <c r="D6" s="273"/>
+      <c r="E6" s="273"/>
+      <c r="F6" s="273"/>
+      <c r="G6" s="274"/>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="58"/>
-      <c r="B7" s="284" t="s">
+      <c r="B7" s="280" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="284"/>
-      <c r="D7" s="282" t="s">
+      <c r="C7" s="280"/>
+      <c r="D7" s="278" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="283"/>
-      <c r="F7" s="281" t="s">
+      <c r="E7" s="279"/>
+      <c r="F7" s="277" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="281"/>
+      <c r="G7" s="277"/>
       <c r="V7" t="s">
         <v>110</v>
       </c>
@@ -9696,10 +9683,10 @@
         <v>214</v>
       </c>
       <c r="B11" s="34">
-        <v>27221</v>
+        <v>27220</v>
       </c>
       <c r="C11" s="119">
-        <v>77.6478307</v>
+        <v>77.644978199999997</v>
       </c>
       <c r="D11" s="34">
         <v>14825</v>
@@ -9708,10 +9695,10 @@
         <v>76.045139800000001</v>
       </c>
       <c r="F11" s="34">
-        <v>12396</v>
+        <v>12395</v>
       </c>
       <c r="G11" s="54">
-        <v>79.655571300000005</v>
+        <v>79.649145399999995</v>
       </c>
     </row>
     <row r="12" spans="1:22" s="30" customFormat="1">
@@ -9719,43 +9706,43 @@
         <v>205</v>
       </c>
       <c r="B12" s="34">
-        <v>5068</v>
+        <v>5139</v>
       </c>
       <c r="C12" s="119">
-        <v>14.456456599999999</v>
+        <v>14.658983900000001</v>
       </c>
       <c r="D12" s="34">
-        <v>3096</v>
+        <v>3138</v>
       </c>
       <c r="E12" s="54">
-        <v>15.8809951</v>
+        <v>16.096435</v>
       </c>
       <c r="F12" s="34">
-        <v>1972</v>
+        <v>2001</v>
       </c>
       <c r="G12" s="54">
-        <v>12.6718931</v>
+        <v>12.8582444</v>
       </c>
     </row>
     <row r="13" spans="1:22" s="30" customFormat="1">
       <c r="A13" s="17"/>
       <c r="B13" s="118">
-        <v>3536</v>
+        <v>3556</v>
       </c>
       <c r="C13" s="121">
-        <v>10.086430699999999</v>
+        <v>10.1434806</v>
       </c>
       <c r="D13" s="118">
-        <v>2520</v>
+        <v>2531</v>
       </c>
       <c r="E13" s="81">
-        <v>12.9263914</v>
+        <v>12.982816100000001</v>
       </c>
       <c r="F13" s="118">
-        <v>1016</v>
+        <v>1025</v>
       </c>
       <c r="G13" s="82">
-        <v>6.5287237999999999</v>
+        <v>6.586557</v>
       </c>
     </row>
     <row r="14" spans="1:22" s="30" customFormat="1">
@@ -10267,22 +10254,22 @@
         <v>133</v>
       </c>
       <c r="B36" s="29">
-        <v>2069</v>
+        <v>2083</v>
       </c>
       <c r="C36" s="119">
-        <v>5.9018170000000003</v>
+        <v>5.9417520000000001</v>
       </c>
       <c r="D36" s="29">
-        <v>982</v>
+        <v>990</v>
       </c>
       <c r="E36" s="54">
-        <v>5.0371889999999997</v>
+        <v>5.0782252000000003</v>
       </c>
       <c r="F36" s="60">
-        <v>1087</v>
+        <v>1093</v>
       </c>
       <c r="G36" s="54">
-        <v>6.9849633999999998</v>
+        <v>7.0235187999999997</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="14.25" thickBot="1">
@@ -10290,56 +10277,56 @@
         <v>146</v>
       </c>
       <c r="B37" s="52">
-        <v>6306</v>
+        <v>6339</v>
       </c>
       <c r="C37" s="120">
-        <v>17.987848400000001</v>
+        <v>18.0819808</v>
       </c>
       <c r="D37" s="52">
-        <v>2848</v>
+        <v>2862</v>
       </c>
       <c r="E37" s="69">
-        <v>14.6088741</v>
+        <v>14.6806874</v>
       </c>
       <c r="F37" s="52">
-        <v>3458</v>
+        <v>3477</v>
       </c>
       <c r="G37" s="69">
-        <v>22.2207942</v>
+        <v>22.342886499999999</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="24" customHeight="1" thickTop="1">
-      <c r="A38" s="279" t="s">
+      <c r="A38" s="275" t="s">
         <v>182</v>
       </c>
-      <c r="B38" s="279"/>
-      <c r="C38" s="279"/>
-      <c r="D38" s="279"/>
-      <c r="E38" s="279"/>
-      <c r="F38" s="279"/>
-      <c r="G38" s="279"/>
+      <c r="B38" s="275"/>
+      <c r="C38" s="275"/>
+      <c r="D38" s="275"/>
+      <c r="E38" s="275"/>
+      <c r="F38" s="275"/>
+      <c r="G38" s="275"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="285" t="s">
+      <c r="A39" s="281" t="s">
         <v>177</v>
       </c>
-      <c r="B39" s="285"/>
-      <c r="C39" s="285"/>
-      <c r="D39" s="285"/>
-      <c r="E39" s="285"/>
-      <c r="F39" s="285"/>
-      <c r="G39" s="285"/>
+      <c r="B39" s="281"/>
+      <c r="C39" s="281"/>
+      <c r="D39" s="281"/>
+      <c r="E39" s="281"/>
+      <c r="F39" s="281"/>
+      <c r="G39" s="281"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="280" t="s">
+      <c r="A40" s="276" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="280"/>
-      <c r="C40" s="280"/>
-      <c r="D40" s="280"/>
-      <c r="E40" s="280"/>
-      <c r="F40" s="280"/>
-      <c r="G40" s="280"/>
+      <c r="B40" s="276"/>
+      <c r="C40" s="276"/>
+      <c r="D40" s="276"/>
+      <c r="E40" s="276"/>
+      <c r="F40" s="276"/>
+      <c r="G40" s="276"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="47"/>
@@ -10391,15 +10378,15 @@
       <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A2" s="286" t="s">
-        <v>239</v>
-      </c>
-      <c r="B2" s="286"/>
-      <c r="C2" s="286"/>
-      <c r="D2" s="286"/>
-      <c r="E2" s="286"/>
-      <c r="F2" s="286"/>
-      <c r="G2" s="286"/>
+      <c r="A2" s="282" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="282"/>
+      <c r="C2" s="282"/>
+      <c r="D2" s="282"/>
+      <c r="E2" s="282"/>
+      <c r="F2" s="282"/>
+      <c r="G2" s="282"/>
       <c r="H2" s="76"/>
       <c r="I2" s="76"/>
     </row>
@@ -10408,30 +10395,30 @@
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="288" t="s">
+      <c r="B5" s="284" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="289"/>
-      <c r="D5" s="288" t="s">
+      <c r="C5" s="285"/>
+      <c r="D5" s="284" t="s">
         <v>214</v>
       </c>
-      <c r="E5" s="289"/>
-      <c r="F5" s="288" t="s">
+      <c r="E5" s="285"/>
+      <c r="F5" s="284" t="s">
         <v>205</v>
       </c>
-      <c r="G5" s="289"/>
+      <c r="G5" s="285"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="290"/>
-      <c r="B6" s="283"/>
-      <c r="C6" s="282"/>
-      <c r="D6" s="283"/>
-      <c r="E6" s="282"/>
-      <c r="F6" s="283"/>
-      <c r="G6" s="282"/>
+      <c r="A6" s="286"/>
+      <c r="B6" s="279"/>
+      <c r="C6" s="278"/>
+      <c r="D6" s="279"/>
+      <c r="E6" s="278"/>
+      <c r="F6" s="279"/>
+      <c r="G6" s="278"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="291"/>
+      <c r="A7" s="287"/>
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
@@ -10462,16 +10449,16 @@
         <v>100</v>
       </c>
       <c r="D8" s="88">
-        <v>27221</v>
+        <v>27220</v>
       </c>
       <c r="E8" s="128">
-        <v>77.647830675756595</v>
+        <v>77.644978178395206</v>
       </c>
       <c r="F8" s="88">
-        <v>5068</v>
+        <v>5139</v>
       </c>
       <c r="G8" s="128">
-        <v>14.4564566277776</v>
+        <v>14.658983940439899</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -10514,10 +10501,10 @@
         <v>76.409666283083993</v>
       </c>
       <c r="F10" s="103">
-        <v>2006</v>
+        <v>2023</v>
       </c>
       <c r="G10" s="127">
-        <v>15.3893364019946</v>
+        <v>15.5197545070963</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -10537,10 +10524,10 @@
         <v>76.950689590024595</v>
       </c>
       <c r="F11" s="103">
-        <v>773</v>
+        <v>790</v>
       </c>
       <c r="G11" s="127">
-        <v>14.604194218779501</v>
+        <v>14.9253731343284</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -10560,10 +10547,10 @@
         <v>82.4068018312623</v>
       </c>
       <c r="F12" s="103">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G12" s="127">
-        <v>13.3093525179856</v>
+        <v>13.3420536298234</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -10583,10 +10570,10 @@
         <v>78.490566037735903</v>
       </c>
       <c r="F13" s="103">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G13" s="127">
-        <v>10.5660377358491</v>
+        <v>10.781671159029701</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -10606,10 +10593,10 @@
         <v>82.162162162162204</v>
       </c>
       <c r="F14" s="103">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G14" s="127">
-        <v>12.0463320463321</v>
+        <v>12.277992277992301</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -10629,10 +10616,10 @@
         <v>76.885644768856494</v>
       </c>
       <c r="F15" s="103">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G15" s="127">
-        <v>16.058394160583902</v>
+        <v>16.220600162206001</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -10646,16 +10633,16 @@
         <v>3.4743417862338499</v>
       </c>
       <c r="D16" s="103">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E16" s="127">
-        <v>80.377668308702795</v>
+        <v>80.295566502463103</v>
       </c>
       <c r="F16" s="103">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G16" s="127">
-        <v>14.696223316913001</v>
+        <v>15.188834154351399</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -10698,10 +10685,10 @@
         <v>69.409486931268205</v>
       </c>
       <c r="F18" s="103">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G18" s="127">
-        <v>12.197483059051301</v>
+        <v>12.7783155856728</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -10721,10 +10708,10 @@
         <v>86.890951276102101</v>
       </c>
       <c r="F19" s="103">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G19" s="127">
-        <v>11.136890951276101</v>
+        <v>11.2529002320186</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -10744,10 +10731,10 @@
         <v>73.453608247422693</v>
       </c>
       <c r="F20" s="103">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G20" s="127">
-        <v>17.3969072164948</v>
+        <v>17.912371134020599</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -10790,10 +10777,10 @@
         <v>80.237741456166404</v>
       </c>
       <c r="F22" s="103">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G22" s="127">
-        <v>16.196136701337299</v>
+        <v>16.344725111441299</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -10813,10 +10800,10 @@
         <v>62.8521126760564</v>
       </c>
       <c r="F23" s="103">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G23" s="127">
-        <v>16.373239436619698</v>
+        <v>16.549295774647899</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -10836,10 +10823,10 @@
         <v>65.412186379928301</v>
       </c>
       <c r="F24" s="103">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G24" s="127">
-        <v>17.921146953405</v>
+        <v>18.637992831541201</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -10882,10 +10869,10 @@
         <v>81.6631130063966</v>
       </c>
       <c r="F26" s="103">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G26" s="127">
-        <v>13.006396588486099</v>
+        <v>13.2196162046908</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -10905,15 +10892,15 @@
         <v>85.567010309278402</v>
       </c>
       <c r="F27" s="103">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G27" s="127">
-        <v>9.6219931271477694</v>
+        <v>9.9656357388316206</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="30" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B28" s="92">
         <v>249</v>
@@ -10928,10 +10915,10 @@
         <v>79.518072289156606</v>
       </c>
       <c r="F28" s="131">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G28" s="127">
-        <v>12.851405622490001</v>
+        <v>13.253012048192801</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -10951,7 +10938,7 @@
         <v>83.966244725738406</v>
       </c>
       <c r="F29" s="111" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G29" s="54"/>
     </row>
@@ -10972,7 +10959,7 @@
         <v>87.878787878787904</v>
       </c>
       <c r="F30" s="150" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G30" s="151"/>
     </row>
@@ -10998,13 +10985,13 @@
       <c r="C33" s="80"/>
     </row>
     <row r="34" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A34" s="287"/>
-      <c r="B34" s="287"/>
-      <c r="C34" s="287"/>
-      <c r="D34" s="287"/>
-      <c r="E34" s="287"/>
-      <c r="F34" s="287"/>
-      <c r="G34" s="287"/>
+      <c r="A34" s="283"/>
+      <c r="B34" s="283"/>
+      <c r="C34" s="283"/>
+      <c r="D34" s="283"/>
+      <c r="E34" s="283"/>
+      <c r="F34" s="283"/>
+      <c r="G34" s="283"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -11061,17 +11048,17 @@
       </c>
     </row>
     <row r="2" spans="1:89" ht="30" customHeight="1">
-      <c r="A2" s="275" t="s">
-        <v>275</v>
-      </c>
-      <c r="B2" s="275"/>
-      <c r="C2" s="275"/>
-      <c r="D2" s="275"/>
-      <c r="E2" s="275"/>
-      <c r="F2" s="275"/>
-      <c r="G2" s="275"/>
-      <c r="H2" s="275"/>
-      <c r="I2" s="275"/>
+      <c r="A2" s="271" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="271"/>
+      <c r="C2" s="271"/>
+      <c r="D2" s="271"/>
+      <c r="E2" s="271"/>
+      <c r="F2" s="271"/>
+      <c r="G2" s="271"/>
+      <c r="H2" s="271"/>
+      <c r="I2" s="271"/>
     </row>
     <row r="3" spans="1:89">
       <c r="A3" s="61"/>
@@ -11092,280 +11079,280 @@
     </row>
     <row r="5" spans="1:89" ht="28.5" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="288" t="s">
+      <c r="B5" s="284" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="289"/>
-      <c r="D5" s="276" t="s">
+      <c r="C5" s="285"/>
+      <c r="D5" s="225" t="s">
         <v>193</v>
       </c>
-      <c r="E5" s="277"/>
-      <c r="F5" s="277"/>
-      <c r="G5" s="277"/>
-      <c r="H5" s="277"/>
-      <c r="I5" s="277"/>
-      <c r="J5" s="277"/>
-      <c r="K5" s="277"/>
-      <c r="L5" s="277"/>
-      <c r="M5" s="277"/>
-      <c r="N5" s="277"/>
-      <c r="O5" s="277"/>
-      <c r="P5" s="277"/>
-      <c r="Q5" s="277"/>
-      <c r="R5" s="277"/>
-      <c r="S5" s="277"/>
-      <c r="T5" s="277"/>
-      <c r="U5" s="277"/>
-      <c r="V5" s="277"/>
-      <c r="W5" s="277"/>
-      <c r="X5" s="277"/>
-      <c r="Y5" s="277"/>
-      <c r="Z5" s="277"/>
-      <c r="AA5" s="277"/>
-      <c r="AB5" s="277"/>
-      <c r="AC5" s="277"/>
-      <c r="AD5" s="277"/>
-      <c r="AE5" s="277"/>
-      <c r="AF5" s="277"/>
-      <c r="AG5" s="277"/>
-      <c r="AH5" s="277"/>
-      <c r="AI5" s="277"/>
-      <c r="AJ5" s="277"/>
-      <c r="AK5" s="277"/>
-      <c r="AL5" s="277"/>
-      <c r="AM5" s="277"/>
-      <c r="AN5" s="277"/>
-      <c r="AO5" s="277"/>
-      <c r="AP5" s="277"/>
-      <c r="AQ5" s="277"/>
-      <c r="AR5" s="277"/>
-      <c r="AS5" s="277"/>
-      <c r="AT5" s="277"/>
-      <c r="AU5" s="277"/>
-      <c r="AV5" s="277"/>
-      <c r="AW5" s="277"/>
-      <c r="AX5" s="277"/>
-      <c r="AY5" s="277"/>
-      <c r="AZ5" s="277"/>
-      <c r="BA5" s="277"/>
-      <c r="BB5" s="277"/>
-      <c r="BC5" s="277"/>
-      <c r="BD5" s="227"/>
-      <c r="BE5" s="227"/>
-      <c r="BF5" s="227"/>
-      <c r="BG5" s="227"/>
-      <c r="BH5" s="227"/>
-      <c r="BI5" s="227"/>
-      <c r="BJ5" s="227"/>
-      <c r="BK5" s="227"/>
-      <c r="BL5" s="227"/>
-      <c r="BM5" s="227"/>
-      <c r="BN5" s="227"/>
-      <c r="BO5" s="227"/>
-      <c r="BP5" s="227"/>
-      <c r="BQ5" s="227"/>
-      <c r="BR5" s="227"/>
-      <c r="BS5" s="228"/>
-      <c r="BT5" s="301" t="s">
+      <c r="E5" s="226"/>
+      <c r="F5" s="226"/>
+      <c r="G5" s="226"/>
+      <c r="H5" s="226"/>
+      <c r="I5" s="226"/>
+      <c r="J5" s="226"/>
+      <c r="K5" s="226"/>
+      <c r="L5" s="226"/>
+      <c r="M5" s="226"/>
+      <c r="N5" s="226"/>
+      <c r="O5" s="226"/>
+      <c r="P5" s="226"/>
+      <c r="Q5" s="226"/>
+      <c r="R5" s="226"/>
+      <c r="S5" s="226"/>
+      <c r="T5" s="226"/>
+      <c r="U5" s="226"/>
+      <c r="V5" s="226"/>
+      <c r="W5" s="226"/>
+      <c r="X5" s="226"/>
+      <c r="Y5" s="226"/>
+      <c r="Z5" s="226"/>
+      <c r="AA5" s="226"/>
+      <c r="AB5" s="226"/>
+      <c r="AC5" s="226"/>
+      <c r="AD5" s="226"/>
+      <c r="AE5" s="226"/>
+      <c r="AF5" s="226"/>
+      <c r="AG5" s="226"/>
+      <c r="AH5" s="226"/>
+      <c r="AI5" s="226"/>
+      <c r="AJ5" s="226"/>
+      <c r="AK5" s="226"/>
+      <c r="AL5" s="226"/>
+      <c r="AM5" s="226"/>
+      <c r="AN5" s="226"/>
+      <c r="AO5" s="226"/>
+      <c r="AP5" s="226"/>
+      <c r="AQ5" s="226"/>
+      <c r="AR5" s="226"/>
+      <c r="AS5" s="226"/>
+      <c r="AT5" s="226"/>
+      <c r="AU5" s="226"/>
+      <c r="AV5" s="226"/>
+      <c r="AW5" s="226"/>
+      <c r="AX5" s="226"/>
+      <c r="AY5" s="226"/>
+      <c r="AZ5" s="226"/>
+      <c r="BA5" s="226"/>
+      <c r="BB5" s="226"/>
+      <c r="BC5" s="226"/>
+      <c r="BD5" s="223"/>
+      <c r="BE5" s="223"/>
+      <c r="BF5" s="223"/>
+      <c r="BG5" s="223"/>
+      <c r="BH5" s="223"/>
+      <c r="BI5" s="223"/>
+      <c r="BJ5" s="223"/>
+      <c r="BK5" s="223"/>
+      <c r="BL5" s="223"/>
+      <c r="BM5" s="223"/>
+      <c r="BN5" s="223"/>
+      <c r="BO5" s="223"/>
+      <c r="BP5" s="223"/>
+      <c r="BQ5" s="223"/>
+      <c r="BR5" s="223"/>
+      <c r="BS5" s="224"/>
+      <c r="BT5" s="290" t="s">
         <v>194</v>
       </c>
-      <c r="BU5" s="302"/>
-      <c r="BV5" s="302"/>
-      <c r="BW5" s="302"/>
-      <c r="BX5" s="302"/>
-      <c r="BY5" s="302"/>
-      <c r="BZ5" s="302"/>
-      <c r="CA5" s="302"/>
-      <c r="CB5" s="302"/>
-      <c r="CC5" s="302"/>
-      <c r="CD5" s="302"/>
-      <c r="CE5" s="302"/>
-      <c r="CF5" s="302"/>
-      <c r="CG5" s="302"/>
-      <c r="CH5" s="302"/>
-      <c r="CI5" s="302"/>
-      <c r="CJ5" s="302"/>
-      <c r="CK5" s="303"/>
+      <c r="BU5" s="273"/>
+      <c r="BV5" s="273"/>
+      <c r="BW5" s="273"/>
+      <c r="BX5" s="273"/>
+      <c r="BY5" s="273"/>
+      <c r="BZ5" s="273"/>
+      <c r="CA5" s="273"/>
+      <c r="CB5" s="273"/>
+      <c r="CC5" s="273"/>
+      <c r="CD5" s="273"/>
+      <c r="CE5" s="273"/>
+      <c r="CF5" s="273"/>
+      <c r="CG5" s="273"/>
+      <c r="CH5" s="273"/>
+      <c r="CI5" s="273"/>
+      <c r="CJ5" s="273"/>
+      <c r="CK5" s="291"/>
     </row>
     <row r="6" spans="1:89" ht="13.5" customHeight="1">
-      <c r="A6" s="298"/>
+      <c r="A6" s="296"/>
       <c r="B6" s="294"/>
       <c r="C6" s="295"/>
-      <c r="D6" s="296" t="s">
+      <c r="D6" s="292" t="s">
         <v>195</v>
       </c>
-      <c r="E6" s="297"/>
-      <c r="F6" s="296" t="s">
+      <c r="E6" s="293"/>
+      <c r="F6" s="292" t="s">
         <v>196</v>
       </c>
-      <c r="G6" s="297"/>
-      <c r="H6" s="296" t="s">
+      <c r="G6" s="293"/>
+      <c r="H6" s="292" t="s">
         <v>191</v>
       </c>
-      <c r="I6" s="297"/>
-      <c r="J6" s="296" t="s">
+      <c r="I6" s="293"/>
+      <c r="J6" s="292" t="s">
         <v>167</v>
       </c>
-      <c r="K6" s="297"/>
-      <c r="L6" s="296" t="s">
+      <c r="K6" s="293"/>
+      <c r="L6" s="292" t="s">
         <v>168</v>
       </c>
-      <c r="M6" s="297"/>
-      <c r="N6" s="296" t="s">
+      <c r="M6" s="293"/>
+      <c r="N6" s="292" t="s">
         <v>169</v>
       </c>
-      <c r="O6" s="297"/>
-      <c r="P6" s="296" t="s">
+      <c r="O6" s="293"/>
+      <c r="P6" s="292" t="s">
         <v>170</v>
       </c>
-      <c r="Q6" s="297"/>
-      <c r="R6" s="296" t="s">
+      <c r="Q6" s="293"/>
+      <c r="R6" s="292" t="s">
         <v>171</v>
       </c>
-      <c r="S6" s="297"/>
-      <c r="T6" s="296" t="s">
+      <c r="S6" s="293"/>
+      <c r="T6" s="292" t="s">
         <v>172</v>
       </c>
-      <c r="U6" s="297"/>
-      <c r="V6" s="296" t="s">
+      <c r="U6" s="293"/>
+      <c r="V6" s="292" t="s">
         <v>173</v>
       </c>
-      <c r="W6" s="297"/>
-      <c r="X6" s="296" t="s">
+      <c r="W6" s="293"/>
+      <c r="X6" s="292" t="s">
         <v>174</v>
       </c>
-      <c r="Y6" s="297"/>
-      <c r="Z6" s="296" t="s">
+      <c r="Y6" s="293"/>
+      <c r="Z6" s="292" t="s">
         <v>175</v>
       </c>
-      <c r="AA6" s="297"/>
-      <c r="AB6" s="296" t="s">
+      <c r="AA6" s="293"/>
+      <c r="AB6" s="292" t="s">
         <v>201</v>
       </c>
-      <c r="AC6" s="297"/>
-      <c r="AD6" s="296" t="s">
+      <c r="AC6" s="293"/>
+      <c r="AD6" s="292" t="s">
         <v>222</v>
       </c>
-      <c r="AE6" s="297"/>
-      <c r="AF6" s="296" t="s">
+      <c r="AE6" s="293"/>
+      <c r="AF6" s="292" t="s">
         <v>230</v>
       </c>
-      <c r="AG6" s="297"/>
-      <c r="AH6" s="296" t="s">
+      <c r="AG6" s="293"/>
+      <c r="AH6" s="292" t="s">
         <v>234</v>
       </c>
-      <c r="AI6" s="297"/>
-      <c r="AJ6" s="296" t="s">
-        <v>240</v>
-      </c>
-      <c r="AK6" s="297"/>
-      <c r="AL6" s="296" t="s">
-        <v>241</v>
-      </c>
-      <c r="AM6" s="297"/>
-      <c r="AN6" s="296" t="s">
-        <v>242</v>
-      </c>
-      <c r="AO6" s="297"/>
-      <c r="AP6" s="296" t="s">
+      <c r="AI6" s="293"/>
+      <c r="AJ6" s="292" t="s">
         <v>243</v>
       </c>
-      <c r="AQ6" s="297"/>
-      <c r="AR6" s="296" t="s">
+      <c r="AK6" s="293"/>
+      <c r="AL6" s="292" t="s">
         <v>244</v>
       </c>
-      <c r="AS6" s="297"/>
-      <c r="AT6" s="296" t="s">
+      <c r="AM6" s="293"/>
+      <c r="AN6" s="292" t="s">
         <v>245</v>
       </c>
-      <c r="AU6" s="297"/>
-      <c r="AV6" s="296" t="s">
+      <c r="AO6" s="293"/>
+      <c r="AP6" s="292" t="s">
         <v>246</v>
       </c>
-      <c r="AW6" s="297"/>
-      <c r="AX6" s="296" t="s">
+      <c r="AQ6" s="293"/>
+      <c r="AR6" s="292" t="s">
         <v>247</v>
       </c>
-      <c r="AY6" s="297"/>
-      <c r="AZ6" s="296" t="s">
+      <c r="AS6" s="293"/>
+      <c r="AT6" s="292" t="s">
         <v>248</v>
       </c>
-      <c r="BA6" s="299"/>
-      <c r="BB6" s="292" t="s">
+      <c r="AU6" s="293"/>
+      <c r="AV6" s="292" t="s">
+        <v>249</v>
+      </c>
+      <c r="AW6" s="293"/>
+      <c r="AX6" s="292" t="s">
+        <v>250</v>
+      </c>
+      <c r="AY6" s="293"/>
+      <c r="AZ6" s="292" t="s">
         <v>251</v>
       </c>
-      <c r="BC6" s="293"/>
-      <c r="BD6" s="292" t="s">
-        <v>252</v>
-      </c>
-      <c r="BE6" s="300"/>
-      <c r="BF6" s="292" t="s">
-        <v>253</v>
-      </c>
-      <c r="BG6" s="300"/>
-      <c r="BH6" s="292" t="s">
+      <c r="BA6" s="297"/>
+      <c r="BB6" s="288" t="s">
+        <v>254</v>
+      </c>
+      <c r="BC6" s="298"/>
+      <c r="BD6" s="288" t="s">
         <v>255</v>
       </c>
-      <c r="BI6" s="300"/>
-      <c r="BJ6" s="292" t="s">
-        <v>254</v>
-      </c>
-      <c r="BK6" s="300"/>
-      <c r="BL6" s="292" t="s">
+      <c r="BE6" s="289"/>
+      <c r="BF6" s="288" t="s">
         <v>256</v>
       </c>
-      <c r="BM6" s="300"/>
-      <c r="BN6" s="292" t="s">
-        <v>260</v>
-      </c>
-      <c r="BO6" s="300"/>
-      <c r="BP6" s="292" t="s">
-        <v>261</v>
-      </c>
-      <c r="BQ6" s="300"/>
-      <c r="BR6" s="292" t="s">
+      <c r="BG6" s="289"/>
+      <c r="BH6" s="288" t="s">
+        <v>258</v>
+      </c>
+      <c r="BI6" s="289"/>
+      <c r="BJ6" s="288" t="s">
+        <v>257</v>
+      </c>
+      <c r="BK6" s="289"/>
+      <c r="BL6" s="288" t="s">
+        <v>259</v>
+      </c>
+      <c r="BM6" s="289"/>
+      <c r="BN6" s="288" t="s">
+        <v>263</v>
+      </c>
+      <c r="BO6" s="289"/>
+      <c r="BP6" s="288" t="s">
+        <v>264</v>
+      </c>
+      <c r="BQ6" s="289"/>
+      <c r="BR6" s="288" t="s">
+        <v>270</v>
+      </c>
+      <c r="BS6" s="289"/>
+      <c r="BT6" s="288" t="s">
+        <v>269</v>
+      </c>
+      <c r="BU6" s="289"/>
+      <c r="BV6" s="288" t="s">
+        <v>268</v>
+      </c>
+      <c r="BW6" s="289"/>
+      <c r="BX6" s="288" t="s">
         <v>267</v>
       </c>
-      <c r="BS6" s="300"/>
-      <c r="BT6" s="292" t="s">
+      <c r="BY6" s="289"/>
+      <c r="BZ6" s="288" t="s">
         <v>266</v>
       </c>
-      <c r="BU6" s="300"/>
-      <c r="BV6" s="292" t="s">
+      <c r="CA6" s="289"/>
+      <c r="CB6" s="288" t="s">
         <v>265</v>
       </c>
-      <c r="BW6" s="300"/>
-      <c r="BX6" s="292" t="s">
-        <v>264</v>
-      </c>
-      <c r="BY6" s="300"/>
-      <c r="BZ6" s="292" t="s">
-        <v>263</v>
-      </c>
-      <c r="CA6" s="300"/>
-      <c r="CB6" s="292" t="s">
-        <v>262</v>
-      </c>
-      <c r="CC6" s="300"/>
-      <c r="CD6" s="292" t="s">
-        <v>269</v>
-      </c>
-      <c r="CE6" s="300"/>
-      <c r="CF6" s="292" t="s">
-        <v>268</v>
-      </c>
-      <c r="CG6" s="300"/>
-      <c r="CH6" s="292" t="s">
+      <c r="CC6" s="289"/>
+      <c r="CD6" s="288" t="s">
+        <v>272</v>
+      </c>
+      <c r="CE6" s="289"/>
+      <c r="CF6" s="288" t="s">
         <v>271</v>
       </c>
-      <c r="CI6" s="300"/>
-      <c r="CJ6" s="292" t="s">
-        <v>272</v>
-      </c>
-      <c r="CK6" s="300"/>
+      <c r="CG6" s="289"/>
+      <c r="CH6" s="288" t="s">
+        <v>273</v>
+      </c>
+      <c r="CI6" s="289"/>
+      <c r="CJ6" s="288" t="s">
+        <v>274</v>
+      </c>
+      <c r="CK6" s="289"/>
     </row>
     <row r="7" spans="1:89">
-      <c r="A7" s="298"/>
+      <c r="A7" s="296"/>
       <c r="B7" s="192" t="s">
         <v>5</v>
       </c>
@@ -12542,13 +12529,13 @@
         <v>8.7229369312833391</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E12" s="164" t="s">
         <v>110</v>
       </c>
       <c r="F12" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G12" s="164" t="s">
         <v>110</v>
@@ -12949,7 +12936,7 @@
         <v>0.21563342318059001</v>
       </c>
       <c r="AX13" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AY13" s="164" t="s">
         <v>110</v>
@@ -12967,7 +12954,7 @@
         <v>0.43126684636119</v>
       </c>
       <c r="BD13" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BE13" s="164" t="s">
         <v>110</v>
@@ -13080,7 +13067,7 @@
         <v>3.09495963716234</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E14" s="164" t="s">
         <v>110</v>
@@ -13200,13 +13187,13 @@
         <v>0.64516129032257996</v>
       </c>
       <c r="AR14" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AS14" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AT14" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AU14" s="164" t="s">
         <v>110</v>
@@ -13218,19 +13205,19 @@
         <v>0</v>
       </c>
       <c r="AX14" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AY14" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AZ14" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BA14" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BB14" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BC14" s="164" t="s">
         <v>110</v>
@@ -13242,31 +13229,31 @@
         <v>0</v>
       </c>
       <c r="BF14" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BG14" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BH14" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BI14" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BJ14" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BK14" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BL14" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BM14" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BN14" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BO14" s="164" t="s">
         <v>110</v>
@@ -13349,7 +13336,7 @@
         <v>3.6939840830647199</v>
       </c>
       <c r="D15" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E15" s="164" t="s">
         <v>110</v>
@@ -13493,13 +13480,13 @@
         <v>0.54054054054054002</v>
       </c>
       <c r="AZ15" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BA15" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BB15" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BC15" s="164" t="s">
         <v>110</v>
@@ -13517,19 +13504,19 @@
         <v>0.46332046332046001</v>
       </c>
       <c r="BH15" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BI15" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BJ15" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BK15" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BL15" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BM15" s="164" t="s">
         <v>110</v>
@@ -13786,7 +13773,7 @@
         <v>0.90311986863711002</v>
       </c>
       <c r="BH16" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BI16" s="164" t="s">
         <v>110</v>
@@ -13870,7 +13857,7 @@
         <v>3.7766830870279202</v>
       </c>
       <c r="CJ16" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="CK16" s="164" t="s">
         <v>110</v>
@@ -13887,7 +13874,7 @@
         <v>3.51712924665545</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E17" s="164" t="s">
         <v>110</v>
@@ -13995,25 +13982,25 @@
         <v>0.89213300892132996</v>
       </c>
       <c r="AN17" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AO17" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AP17" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AQ17" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AR17" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AS17" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AT17" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AU17" s="164" t="s">
         <v>110</v>
@@ -14031,13 +14018,13 @@
         <v>0.32441200324412001</v>
       </c>
       <c r="AZ17" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BA17" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BB17" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BC17" s="164" t="s">
         <v>110</v>
@@ -14049,13 +14036,13 @@
         <v>0.32441200324412001</v>
       </c>
       <c r="BF17" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BG17" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BH17" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BI17" s="164" t="s">
         <v>110</v>
@@ -14139,7 +14126,7 @@
         <v>1.3787510137875101</v>
       </c>
       <c r="CJ17" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="CK17" s="164" t="s">
         <v>110</v>
@@ -14162,7 +14149,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G18" s="164" t="s">
         <v>110</v>
@@ -14306,7 +14293,7 @@
         <v>0.77444336882864995</v>
       </c>
       <c r="BB18" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BC18" s="164" t="s">
         <v>110</v>
@@ -14318,13 +14305,13 @@
         <v>0.48402710551791001</v>
       </c>
       <c r="BF18" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BG18" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BH18" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BI18" s="164" t="s">
         <v>110</v>
@@ -14407,11 +14394,11 @@
       <c r="CI18" s="164">
         <v>1.74249757986447</v>
       </c>
-      <c r="CJ18" s="223" t="s">
-        <v>273</v>
-      </c>
-      <c r="CK18" s="225" t="s">
-        <v>273</v>
+      <c r="CJ18" s="227" t="s">
+        <v>275</v>
+      </c>
+      <c r="CK18" s="228" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:89">
@@ -14431,7 +14418,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G19" s="164" t="s">
         <v>110</v>
@@ -14611,7 +14598,7 @@
         <v>0.70521861777150996</v>
       </c>
       <c r="BN19" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BO19" s="164" t="s">
         <v>110</v>
@@ -14658,29 +14645,29 @@
       <c r="CC19" s="164">
         <v>1.69252468265162</v>
       </c>
-      <c r="CD19" s="221" t="s">
-        <v>273</v>
-      </c>
-      <c r="CE19" s="222" t="s">
-        <v>273</v>
-      </c>
-      <c r="CF19" s="221" t="s">
-        <v>273</v>
-      </c>
-      <c r="CG19" s="222" t="s">
-        <v>273</v>
-      </c>
-      <c r="CH19" s="221" t="s">
-        <v>273</v>
-      </c>
-      <c r="CI19" s="222" t="s">
-        <v>273</v>
-      </c>
-      <c r="CJ19" s="221" t="s">
-        <v>273</v>
-      </c>
-      <c r="CK19" s="222" t="s">
-        <v>273</v>
+      <c r="CD19" s="227" t="s">
+        <v>275</v>
+      </c>
+      <c r="CE19" s="228" t="s">
+        <v>275</v>
+      </c>
+      <c r="CF19" s="227" t="s">
+        <v>275</v>
+      </c>
+      <c r="CG19" s="228" t="s">
+        <v>275</v>
+      </c>
+      <c r="CH19" s="227" t="s">
+        <v>275</v>
+      </c>
+      <c r="CI19" s="228" t="s">
+        <v>275</v>
+      </c>
+      <c r="CJ19" s="227" t="s">
+        <v>275</v>
+      </c>
+      <c r="CK19" s="228" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:89">
@@ -14694,13 +14681,13 @@
         <v>2.45885272556123</v>
       </c>
       <c r="D20" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E20" s="164" t="s">
         <v>110</v>
       </c>
       <c r="F20" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G20" s="164" t="s">
         <v>110</v>
@@ -14802,19 +14789,19 @@
         <v>0.81206496519722005</v>
       </c>
       <c r="AN20" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AO20" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AP20" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AQ20" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AR20" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AS20" s="164" t="s">
         <v>110</v>
@@ -14826,37 +14813,37 @@
         <v>0.46403712296984001</v>
       </c>
       <c r="AV20" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AW20" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AX20" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AY20" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AZ20" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BA20" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BB20" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BC20" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BD20" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BE20" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BF20" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BG20" s="164" t="s">
         <v>110</v>
@@ -14868,7 +14855,7 @@
         <v>0.46403712296984001</v>
       </c>
       <c r="BJ20" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BK20" s="164" t="s">
         <v>110</v>
@@ -14946,7 +14933,7 @@
         <v>2.2041763341067302</v>
       </c>
       <c r="CJ20" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="CK20" s="164" t="s">
         <v>110</v>
@@ -14963,7 +14950,7 @@
         <v>2.2135379524773899</v>
       </c>
       <c r="D21" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E21" s="164" t="s">
         <v>110</v>
@@ -15077,7 +15064,7 @@
         <v>1.28865979381443</v>
       </c>
       <c r="AP21" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AQ21" s="164" t="s">
         <v>110</v>
@@ -15089,25 +15076,25 @@
         <v>0.51546391752577003</v>
       </c>
       <c r="AT21" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AU21" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AV21" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AW21" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AX21" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AY21" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AZ21" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BA21" s="164" t="s">
         <v>110</v>
@@ -15119,7 +15106,7 @@
         <v>1.15979381443299</v>
       </c>
       <c r="BD21" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BE21" s="164" t="s">
         <v>110</v>
@@ -15238,7 +15225,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G22" s="164" t="s">
         <v>110</v>
@@ -15382,13 +15369,13 @@
         <v>1.1887072808321</v>
       </c>
       <c r="BB22" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BC22" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BD22" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BE22" s="164" t="s">
         <v>110</v>
@@ -15424,7 +15411,7 @@
         <v>1.1887072808321</v>
       </c>
       <c r="BP22" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BQ22" s="164" t="s">
         <v>110</v>
@@ -15436,7 +15423,7 @@
         <v>0.59435364041604999</v>
       </c>
       <c r="BT22" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BU22" s="164" t="s">
         <v>110</v>
@@ -15483,11 +15470,11 @@
       <c r="CI22" s="164">
         <v>2.5260029717682002</v>
       </c>
-      <c r="CJ22" s="223" t="s">
-        <v>273</v>
-      </c>
-      <c r="CK22" s="225" t="s">
-        <v>273</v>
+      <c r="CJ22" s="227" t="s">
+        <v>275</v>
+      </c>
+      <c r="CK22" s="228" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:89">
@@ -15501,7 +15488,7 @@
         <v>1.62021850129789</v>
       </c>
       <c r="D23" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E23" s="164" t="s">
         <v>110</v>
@@ -15615,13 +15602,13 @@
         <v>1.76056338028169</v>
       </c>
       <c r="AP23" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AQ23" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AR23" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AS23" s="164" t="s">
         <v>110</v>
@@ -15633,7 +15620,7 @@
         <v>0</v>
       </c>
       <c r="AV23" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AW23" s="164" t="s">
         <v>110</v>
@@ -15645,7 +15632,7 @@
         <v>0.88028169014085</v>
       </c>
       <c r="AZ23" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BA23" s="164" t="s">
         <v>110</v>
@@ -15663,19 +15650,19 @@
         <v>0.88028169014085</v>
       </c>
       <c r="BF23" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BG23" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BH23" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BI23" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BJ23" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BK23" s="164" t="s">
         <v>110</v>
@@ -15687,19 +15674,19 @@
         <v>1.2323943661971799</v>
       </c>
       <c r="BN23" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BO23" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BP23" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BQ23" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BR23" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BS23" s="164" t="s">
         <v>110</v>
@@ -15752,11 +15739,11 @@
       <c r="CI23" s="164">
         <v>2.9929577464788699</v>
       </c>
-      <c r="CJ23" s="223" t="s">
-        <v>273</v>
-      </c>
-      <c r="CK23" s="225" t="s">
-        <v>273</v>
+      <c r="CJ23" s="227" t="s">
+        <v>275</v>
+      </c>
+      <c r="CK23" s="228" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:89">
@@ -15776,7 +15763,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G24" s="164" t="s">
         <v>110</v>
@@ -15878,25 +15865,25 @@
         <v>1.2793176972281499</v>
       </c>
       <c r="AN24" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AO24" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AP24" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AQ24" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AR24" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AS24" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AT24" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AU24" s="164" t="s">
         <v>110</v>
@@ -15908,13 +15895,13 @@
         <v>0.85287846481875995</v>
       </c>
       <c r="AX24" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AY24" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AZ24" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BA24" s="164" t="s">
         <v>110</v>
@@ -15932,7 +15919,7 @@
         <v>0.85287846481875995</v>
       </c>
       <c r="BF24" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BG24" s="164" t="s">
         <v>110</v>
@@ -16009,23 +15996,23 @@
       <c r="CE24" s="164">
         <v>5.1172707889125801</v>
       </c>
-      <c r="CF24" s="223" t="s">
-        <v>273</v>
-      </c>
-      <c r="CG24" s="225" t="s">
-        <v>273</v>
-      </c>
-      <c r="CH24" s="226" t="s">
-        <v>273</v>
-      </c>
-      <c r="CI24" s="225" t="s">
-        <v>273</v>
-      </c>
-      <c r="CJ24" s="223" t="s">
-        <v>273</v>
-      </c>
-      <c r="CK24" s="225" t="s">
-        <v>273</v>
+      <c r="CF24" s="227" t="s">
+        <v>275</v>
+      </c>
+      <c r="CG24" s="228" t="s">
+        <v>275</v>
+      </c>
+      <c r="CH24" s="227" t="s">
+        <v>275</v>
+      </c>
+      <c r="CI24" s="228" t="s">
+        <v>275</v>
+      </c>
+      <c r="CJ24" s="227" t="s">
+        <v>275</v>
+      </c>
+      <c r="CK24" s="228" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:89">
@@ -16045,7 +16032,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G25" s="164" t="s">
         <v>110</v>
@@ -16159,25 +16146,25 @@
         <v>0.94876660341555996</v>
       </c>
       <c r="AR25" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AS25" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AT25" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AU25" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AV25" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AW25" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AX25" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AY25" s="164" t="s">
         <v>110</v>
@@ -16195,19 +16182,19 @@
         <v>0.94876660341555996</v>
       </c>
       <c r="BD25" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BE25" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BF25" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BG25" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BH25" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BI25" s="164" t="s">
         <v>110</v>
@@ -16219,19 +16206,19 @@
         <v>0</v>
       </c>
       <c r="BL25" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BM25" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BN25" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BO25" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BP25" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BQ25" s="164" t="s">
         <v>110</v>
@@ -16278,7 +16265,7 @@
       <c r="CE25" s="164">
         <v>6.2618595825426997</v>
       </c>
-      <c r="CF25" s="224">
+      <c r="CF25" s="165">
         <v>25</v>
       </c>
       <c r="CG25" s="164">
@@ -16290,7 +16277,7 @@
       <c r="CI25" s="164">
         <v>5.3130929791271404</v>
       </c>
-      <c r="CJ25" s="224">
+      <c r="CJ25" s="165">
         <v>10</v>
       </c>
       <c r="CK25" s="164">
@@ -16332,7 +16319,7 @@
         <v>1.25448028673835</v>
       </c>
       <c r="L26" s="79" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="M26" s="164" t="s">
         <v>110</v>
@@ -16416,19 +16403,19 @@
         <v>0.89605734767025003</v>
       </c>
       <c r="AN26" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AO26" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AP26" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AQ26" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AR26" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AS26" s="164" t="s">
         <v>110</v>
@@ -16440,7 +16427,7 @@
         <v>1.4336917562724001</v>
       </c>
       <c r="AV26" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AW26" s="164" t="s">
         <v>110</v>
@@ -16452,7 +16439,7 @@
         <v>0.71684587813620004</v>
       </c>
       <c r="AZ26" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BA26" s="164" t="s">
         <v>110</v>
@@ -16464,7 +16451,7 @@
         <v>0</v>
       </c>
       <c r="BD26" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BE26" s="164" t="s">
         <v>110</v>
@@ -16488,7 +16475,7 @@
         <v>1.25448028673835</v>
       </c>
       <c r="BL26" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BM26" s="164" t="s">
         <v>110</v>
@@ -16685,13 +16672,13 @@
         <v>2.9535864978903001</v>
       </c>
       <c r="AN27" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AO27" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AP27" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AQ27" s="164" t="s">
         <v>110</v>
@@ -16703,7 +16690,7 @@
         <v>1.6877637130801699</v>
       </c>
       <c r="AT27" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AU27" s="164" t="s">
         <v>110</v>
@@ -16721,19 +16708,19 @@
         <v>0</v>
       </c>
       <c r="AZ27" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BA27" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BB27" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BC27" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BD27" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BE27" s="164" t="s">
         <v>110</v>
@@ -16745,31 +16732,31 @@
         <v>0</v>
       </c>
       <c r="BH27" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BI27" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BJ27" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BK27" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BL27" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BM27" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BN27" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BO27" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BP27" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BQ27" s="164" t="s">
         <v>110</v>
@@ -16781,13 +16768,13 @@
         <v>2.1097046413502101</v>
       </c>
       <c r="BT27" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BU27" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BV27" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BW27" s="164" t="s">
         <v>110</v>
@@ -16829,7 +16816,7 @@
         <v>2.5316455696202498</v>
       </c>
       <c r="CJ27" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="CK27" s="164" t="s">
         <v>110</v>
@@ -16852,7 +16839,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G28" s="164" t="s">
         <v>110</v>
@@ -16900,7 +16887,7 @@
         <v>2.7491408934707899</v>
       </c>
       <c r="V28" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="W28" s="164" t="s">
         <v>110</v>
@@ -16918,7 +16905,7 @@
         <v>2.4054982817869401</v>
       </c>
       <c r="AB28" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AC28" s="164" t="s">
         <v>110</v>
@@ -16960,7 +16947,7 @@
         <v>1.3745704467354001</v>
       </c>
       <c r="AP28" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AQ28" s="164" t="s">
         <v>110</v>
@@ -16972,7 +16959,7 @@
         <v>0</v>
       </c>
       <c r="AT28" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AU28" s="164" t="s">
         <v>110</v>
@@ -16996,7 +16983,7 @@
         <v>0</v>
       </c>
       <c r="BB28" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BC28" s="164" t="s">
         <v>110</v>
@@ -17008,31 +16995,31 @@
         <v>0</v>
       </c>
       <c r="BF28" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BG28" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BH28" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BI28" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BJ28" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BK28" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BL28" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BM28" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BN28" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BO28" s="164" t="s">
         <v>110</v>
@@ -17044,7 +17031,7 @@
         <v>1.3745704467354001</v>
       </c>
       <c r="BR28" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BS28" s="164" t="s">
         <v>110</v>
@@ -17097,16 +17084,16 @@
       <c r="CI28" s="164">
         <v>2.4054982817869401</v>
       </c>
-      <c r="CJ28" s="223" t="s">
-        <v>273</v>
-      </c>
-      <c r="CK28" s="225" t="s">
-        <v>273</v>
+      <c r="CJ28" s="227" t="s">
+        <v>275</v>
+      </c>
+      <c r="CK28" s="228" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:89">
       <c r="A29" s="154" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B29" s="78">
         <v>249</v>
@@ -17145,25 +17132,25 @@
         <v>2.0080321285140599</v>
       </c>
       <c r="N29" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="O29" s="164" t="s">
         <v>110</v>
       </c>
       <c r="P29" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q29" s="164" t="s">
         <v>110</v>
       </c>
       <c r="R29" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="S29" s="164" t="s">
         <v>110</v>
       </c>
       <c r="T29" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="U29" s="164" t="s">
         <v>110</v>
@@ -17211,7 +17198,7 @@
         <v>5.2208835341365498</v>
       </c>
       <c r="AJ29" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AK29" s="164" t="s">
         <v>110</v>
@@ -17223,7 +17210,7 @@
         <v>2.0080321285140599</v>
       </c>
       <c r="AN29" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AO29" s="164" t="s">
         <v>110</v>
@@ -17235,7 +17222,7 @@
         <v>1.6064257028112501</v>
       </c>
       <c r="AR29" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AS29" s="164" t="s">
         <v>110</v>
@@ -17247,7 +17234,7 @@
         <v>2.0080321285140599</v>
       </c>
       <c r="AV29" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AW29" s="164" t="s">
         <v>110</v>
@@ -17271,7 +17258,7 @@
         <v>0</v>
       </c>
       <c r="BD29" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BE29" s="164" t="s">
         <v>110</v>
@@ -17283,7 +17270,7 @@
         <v>0</v>
       </c>
       <c r="BH29" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BI29" s="164" t="s">
         <v>110</v>
@@ -17307,7 +17294,7 @@
         <v>1.6064257028112501</v>
       </c>
       <c r="BP29" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BQ29" s="164" t="s">
         <v>110</v>
@@ -17396,13 +17383,13 @@
         <v>0</v>
       </c>
       <c r="H30" s="159" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="I30" s="155" t="s">
         <v>110</v>
       </c>
       <c r="J30" s="156" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="K30" s="155" t="s">
         <v>110</v>
@@ -17414,13 +17401,13 @@
         <v>0</v>
       </c>
       <c r="N30" s="156" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="O30" s="155" t="s">
         <v>110</v>
       </c>
       <c r="P30" s="156" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q30" s="155" t="s">
         <v>110</v>
@@ -17432,7 +17419,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="156" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="U30" s="155" t="s">
         <v>110</v>
@@ -17444,31 +17431,31 @@
         <v>0</v>
       </c>
       <c r="X30" s="156" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Y30" s="155" t="s">
         <v>110</v>
       </c>
       <c r="Z30" s="156" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AA30" s="155" t="s">
         <v>110</v>
       </c>
       <c r="AB30" s="156" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AC30" s="155" t="s">
         <v>110</v>
       </c>
       <c r="AD30" s="156" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AE30" s="155" t="s">
         <v>110</v>
       </c>
       <c r="AF30" s="156" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AG30" s="155" t="s">
         <v>110</v>
@@ -17480,7 +17467,7 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="156" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AK30" s="155" t="s">
         <v>110</v>
@@ -17492,7 +17479,7 @@
         <v>0</v>
       </c>
       <c r="AN30" s="156" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AO30" s="155" t="s">
         <v>110</v>
@@ -17504,7 +17491,7 @@
         <v>0</v>
       </c>
       <c r="AR30" s="156" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AS30" s="155" t="s">
         <v>110</v>
@@ -17522,13 +17509,13 @@
         <v>0</v>
       </c>
       <c r="AX30" s="156" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AY30" s="155" t="s">
         <v>110</v>
       </c>
       <c r="AZ30" s="156" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BA30" s="155" t="s">
         <v>110</v>
@@ -17540,7 +17527,7 @@
         <v>0</v>
       </c>
       <c r="BD30" s="156" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BE30" s="155" t="s">
         <v>110</v>
@@ -17552,7 +17539,7 @@
         <v>0</v>
       </c>
       <c r="BH30" s="156" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BI30" s="155" t="s">
         <v>110</v>
@@ -17570,76 +17557,76 @@
         <v>0</v>
       </c>
       <c r="BN30" s="156" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BO30" s="155" t="s">
         <v>110</v>
       </c>
       <c r="BP30" s="156" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BQ30" s="155" t="s">
         <v>110</v>
       </c>
       <c r="BR30" s="156" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BS30" s="155" t="s">
         <v>110</v>
       </c>
       <c r="BT30" s="156" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="BU30" s="155" t="s">
-        <v>273</v>
+        <v>110</v>
       </c>
       <c r="BV30" s="156" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="BW30" s="155" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="BX30" s="156" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="BY30" s="155" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="BZ30" s="156" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CA30" s="155" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CB30" s="156" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CC30" s="155" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CD30" s="156" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CE30" s="155" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CF30" s="156" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CG30" s="155" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CH30" s="156" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CI30" s="155" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CJ30" s="156" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CK30" s="155" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:89" ht="15.75" customHeight="1" thickTop="1">
@@ -17754,7 +17741,46 @@
       <c r="A37" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="47">
+    <mergeCell ref="BB6:BC6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="AZ6:BA6"/>
+    <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="AP6:AQ6"/>
+    <mergeCell ref="AX6:AY6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="AN6:AO6"/>
+    <mergeCell ref="AL6:AM6"/>
+    <mergeCell ref="AJ6:AK6"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="AT6:AU6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="BF6:BG6"/>
+    <mergeCell ref="BH6:BI6"/>
+    <mergeCell ref="BD6:BE6"/>
+    <mergeCell ref="BJ6:BK6"/>
+    <mergeCell ref="BL6:BM6"/>
+    <mergeCell ref="BP6:BQ6"/>
+    <mergeCell ref="BR6:BS6"/>
+    <mergeCell ref="BT6:BU6"/>
+    <mergeCell ref="BV6:BW6"/>
+    <mergeCell ref="BN6:BO6"/>
     <mergeCell ref="CD6:CE6"/>
     <mergeCell ref="CF6:CG6"/>
     <mergeCell ref="CH6:CI6"/>
@@ -17763,46 +17789,6 @@
     <mergeCell ref="BX6:BY6"/>
     <mergeCell ref="BZ6:CA6"/>
     <mergeCell ref="CB6:CC6"/>
-    <mergeCell ref="BP6:BQ6"/>
-    <mergeCell ref="BR6:BS6"/>
-    <mergeCell ref="BT6:BU6"/>
-    <mergeCell ref="BV6:BW6"/>
-    <mergeCell ref="BN6:BO6"/>
-    <mergeCell ref="BF6:BG6"/>
-    <mergeCell ref="BH6:BI6"/>
-    <mergeCell ref="BD6:BE6"/>
-    <mergeCell ref="BJ6:BK6"/>
-    <mergeCell ref="BL6:BM6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="AT6:AU6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="AH6:AI6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="AN6:AO6"/>
-    <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="AJ6:AK6"/>
-    <mergeCell ref="AF6:AG6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="BB6:BC6"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="D5:BC5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="AZ6:BA6"/>
-    <mergeCell ref="AR6:AS6"/>
-    <mergeCell ref="AP6:AQ6"/>
-    <mergeCell ref="AX6:AY6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17887,15 +17873,15 @@
       </c>
     </row>
     <row r="2" spans="1:87" ht="46.5" customHeight="1">
-      <c r="A2" s="286" t="s">
-        <v>274</v>
-      </c>
-      <c r="B2" s="286"/>
-      <c r="C2" s="286"/>
-      <c r="D2" s="286"/>
-      <c r="E2" s="286"/>
-      <c r="F2" s="286"/>
-      <c r="G2" s="286"/>
+      <c r="A2" s="282" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="282"/>
+      <c r="C2" s="282"/>
+      <c r="D2" s="282"/>
+      <c r="E2" s="282"/>
+      <c r="F2" s="282"/>
+      <c r="G2" s="282"/>
       <c r="BC2" s="30"/>
       <c r="BD2" s="194"/>
       <c r="BE2" s="30"/>
@@ -17934,274 +17920,274 @@
     </row>
     <row r="5" spans="1:87" ht="28.5" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="288" t="s">
+      <c r="B5" s="284" t="s">
         <v>204</v>
       </c>
-      <c r="C5" s="289"/>
-      <c r="D5" s="276" t="s">
+      <c r="C5" s="285"/>
+      <c r="D5" s="272" t="s">
         <v>193</v>
       </c>
-      <c r="E5" s="277"/>
-      <c r="F5" s="277"/>
-      <c r="G5" s="277"/>
-      <c r="H5" s="277"/>
-      <c r="I5" s="277"/>
-      <c r="J5" s="277"/>
-      <c r="K5" s="277"/>
-      <c r="L5" s="277"/>
-      <c r="M5" s="277"/>
-      <c r="N5" s="277"/>
-      <c r="O5" s="277"/>
-      <c r="P5" s="277"/>
-      <c r="Q5" s="277"/>
-      <c r="R5" s="277"/>
-      <c r="S5" s="277"/>
-      <c r="T5" s="277"/>
-      <c r="U5" s="277"/>
-      <c r="V5" s="277"/>
-      <c r="W5" s="277"/>
-      <c r="X5" s="277"/>
-      <c r="Y5" s="277"/>
-      <c r="Z5" s="277"/>
-      <c r="AA5" s="277"/>
-      <c r="AB5" s="277"/>
-      <c r="AC5" s="277"/>
-      <c r="AD5" s="277"/>
-      <c r="AE5" s="277"/>
-      <c r="AF5" s="277"/>
-      <c r="AG5" s="277"/>
-      <c r="AH5" s="277"/>
-      <c r="AI5" s="277"/>
-      <c r="AJ5" s="277"/>
-      <c r="AK5" s="277"/>
-      <c r="AL5" s="277"/>
-      <c r="AM5" s="277"/>
-      <c r="AN5" s="277"/>
-      <c r="AO5" s="277"/>
-      <c r="AP5" s="277"/>
-      <c r="AQ5" s="277"/>
-      <c r="AR5" s="277"/>
-      <c r="AS5" s="277"/>
-      <c r="AT5" s="277"/>
-      <c r="AU5" s="277"/>
-      <c r="AV5" s="277"/>
-      <c r="AW5" s="277"/>
-      <c r="AX5" s="277"/>
-      <c r="AY5" s="277"/>
-      <c r="AZ5" s="277"/>
-      <c r="BA5" s="277"/>
-      <c r="BB5" s="227"/>
-      <c r="BC5" s="227"/>
-      <c r="BD5" s="227"/>
-      <c r="BE5" s="227"/>
-      <c r="BF5" s="227"/>
-      <c r="BG5" s="227"/>
-      <c r="BH5" s="227"/>
-      <c r="BI5" s="227"/>
-      <c r="BJ5" s="227"/>
-      <c r="BK5" s="227"/>
-      <c r="BL5" s="227"/>
-      <c r="BM5" s="227"/>
-      <c r="BN5" s="227"/>
-      <c r="BO5" s="227"/>
-      <c r="BP5" s="227"/>
-      <c r="BQ5" s="227"/>
-      <c r="BR5" s="301" t="s">
+      <c r="E5" s="273"/>
+      <c r="F5" s="273"/>
+      <c r="G5" s="273"/>
+      <c r="H5" s="273"/>
+      <c r="I5" s="273"/>
+      <c r="J5" s="273"/>
+      <c r="K5" s="273"/>
+      <c r="L5" s="273"/>
+      <c r="M5" s="273"/>
+      <c r="N5" s="273"/>
+      <c r="O5" s="273"/>
+      <c r="P5" s="273"/>
+      <c r="Q5" s="273"/>
+      <c r="R5" s="273"/>
+      <c r="S5" s="273"/>
+      <c r="T5" s="273"/>
+      <c r="U5" s="273"/>
+      <c r="V5" s="273"/>
+      <c r="W5" s="273"/>
+      <c r="X5" s="273"/>
+      <c r="Y5" s="273"/>
+      <c r="Z5" s="273"/>
+      <c r="AA5" s="273"/>
+      <c r="AB5" s="273"/>
+      <c r="AC5" s="273"/>
+      <c r="AD5" s="273"/>
+      <c r="AE5" s="273"/>
+      <c r="AF5" s="273"/>
+      <c r="AG5" s="273"/>
+      <c r="AH5" s="273"/>
+      <c r="AI5" s="273"/>
+      <c r="AJ5" s="273"/>
+      <c r="AK5" s="273"/>
+      <c r="AL5" s="273"/>
+      <c r="AM5" s="273"/>
+      <c r="AN5" s="273"/>
+      <c r="AO5" s="273"/>
+      <c r="AP5" s="273"/>
+      <c r="AQ5" s="273"/>
+      <c r="AR5" s="273"/>
+      <c r="AS5" s="273"/>
+      <c r="AT5" s="273"/>
+      <c r="AU5" s="273"/>
+      <c r="AV5" s="273"/>
+      <c r="AW5" s="273"/>
+      <c r="AX5" s="273"/>
+      <c r="AY5" s="273"/>
+      <c r="AZ5" s="273"/>
+      <c r="BA5" s="273"/>
+      <c r="BB5" s="223"/>
+      <c r="BC5" s="223"/>
+      <c r="BD5" s="223"/>
+      <c r="BE5" s="223"/>
+      <c r="BF5" s="223"/>
+      <c r="BG5" s="223"/>
+      <c r="BH5" s="223"/>
+      <c r="BI5" s="223"/>
+      <c r="BJ5" s="223"/>
+      <c r="BK5" s="223"/>
+      <c r="BL5" s="223"/>
+      <c r="BM5" s="223"/>
+      <c r="BN5" s="223"/>
+      <c r="BO5" s="223"/>
+      <c r="BP5" s="223"/>
+      <c r="BQ5" s="224"/>
+      <c r="BR5" s="290" t="s">
         <v>203</v>
       </c>
-      <c r="BS5" s="302"/>
-      <c r="BT5" s="302"/>
-      <c r="BU5" s="302"/>
-      <c r="BV5" s="302"/>
-      <c r="BW5" s="302"/>
-      <c r="BX5" s="302"/>
-      <c r="BY5" s="302"/>
-      <c r="BZ5" s="302"/>
-      <c r="CA5" s="302"/>
-      <c r="CB5" s="302"/>
-      <c r="CC5" s="302"/>
-      <c r="CD5" s="302"/>
-      <c r="CE5" s="302"/>
-      <c r="CF5" s="302"/>
-      <c r="CG5" s="302"/>
-      <c r="CH5" s="302"/>
-      <c r="CI5" s="303"/>
+      <c r="BS5" s="273"/>
+      <c r="BT5" s="273"/>
+      <c r="BU5" s="273"/>
+      <c r="BV5" s="273"/>
+      <c r="BW5" s="273"/>
+      <c r="BX5" s="273"/>
+      <c r="BY5" s="273"/>
+      <c r="BZ5" s="273"/>
+      <c r="CA5" s="273"/>
+      <c r="CB5" s="273"/>
+      <c r="CC5" s="273"/>
+      <c r="CD5" s="273"/>
+      <c r="CE5" s="273"/>
+      <c r="CF5" s="273"/>
+      <c r="CG5" s="273"/>
+      <c r="CH5" s="273"/>
+      <c r="CI5" s="291"/>
     </row>
     <row r="6" spans="1:87" ht="13.5" customHeight="1">
-      <c r="A6" s="290"/>
-      <c r="B6" s="283"/>
-      <c r="C6" s="282"/>
-      <c r="D6" s="296" t="s">
+      <c r="A6" s="286"/>
+      <c r="B6" s="279"/>
+      <c r="C6" s="278"/>
+      <c r="D6" s="292" t="s">
         <v>196</v>
       </c>
-      <c r="E6" s="297"/>
-      <c r="F6" s="296" t="s">
+      <c r="E6" s="293"/>
+      <c r="F6" s="292" t="s">
         <v>191</v>
       </c>
-      <c r="G6" s="297"/>
-      <c r="H6" s="296" t="s">
+      <c r="G6" s="293"/>
+      <c r="H6" s="292" t="s">
         <v>167</v>
       </c>
-      <c r="I6" s="297"/>
-      <c r="J6" s="296" t="s">
+      <c r="I6" s="293"/>
+      <c r="J6" s="292" t="s">
         <v>168</v>
       </c>
-      <c r="K6" s="297"/>
-      <c r="L6" s="296" t="s">
+      <c r="K6" s="293"/>
+      <c r="L6" s="292" t="s">
         <v>169</v>
       </c>
-      <c r="M6" s="297"/>
-      <c r="N6" s="296" t="s">
+      <c r="M6" s="293"/>
+      <c r="N6" s="292" t="s">
         <v>170</v>
       </c>
-      <c r="O6" s="297"/>
-      <c r="P6" s="296" t="s">
+      <c r="O6" s="293"/>
+      <c r="P6" s="292" t="s">
         <v>171</v>
       </c>
-      <c r="Q6" s="297"/>
-      <c r="R6" s="296" t="s">
+      <c r="Q6" s="293"/>
+      <c r="R6" s="292" t="s">
         <v>172</v>
       </c>
-      <c r="S6" s="297"/>
-      <c r="T6" s="296" t="s">
+      <c r="S6" s="293"/>
+      <c r="T6" s="292" t="s">
         <v>173</v>
       </c>
-      <c r="U6" s="297"/>
-      <c r="V6" s="296" t="s">
+      <c r="U6" s="293"/>
+      <c r="V6" s="292" t="s">
         <v>174</v>
       </c>
-      <c r="W6" s="297"/>
-      <c r="X6" s="296" t="s">
+      <c r="W6" s="293"/>
+      <c r="X6" s="292" t="s">
         <v>175</v>
       </c>
-      <c r="Y6" s="297"/>
-      <c r="Z6" s="296" t="s">
+      <c r="Y6" s="293"/>
+      <c r="Z6" s="292" t="s">
         <v>201</v>
       </c>
-      <c r="AA6" s="297"/>
-      <c r="AB6" s="296" t="s">
+      <c r="AA6" s="293"/>
+      <c r="AB6" s="292" t="s">
         <v>222</v>
       </c>
-      <c r="AC6" s="297"/>
-      <c r="AD6" s="304" t="s">
+      <c r="AC6" s="293"/>
+      <c r="AD6" s="299" t="s">
         <v>230</v>
       </c>
-      <c r="AE6" s="297"/>
-      <c r="AF6" s="304" t="s">
+      <c r="AE6" s="293"/>
+      <c r="AF6" s="299" t="s">
         <v>234</v>
       </c>
-      <c r="AG6" s="297"/>
-      <c r="AH6" s="304" t="s">
-        <v>240</v>
-      </c>
-      <c r="AI6" s="297"/>
-      <c r="AJ6" s="304" t="s">
-        <v>241</v>
-      </c>
-      <c r="AK6" s="297"/>
-      <c r="AL6" s="304" t="s">
-        <v>242</v>
-      </c>
-      <c r="AM6" s="297"/>
-      <c r="AN6" s="304" t="s">
+      <c r="AG6" s="293"/>
+      <c r="AH6" s="299" t="s">
         <v>243</v>
       </c>
-      <c r="AO6" s="297"/>
-      <c r="AP6" s="304" t="s">
+      <c r="AI6" s="293"/>
+      <c r="AJ6" s="299" t="s">
         <v>244</v>
       </c>
-      <c r="AQ6" s="297"/>
-      <c r="AR6" s="304" t="s">
+      <c r="AK6" s="293"/>
+      <c r="AL6" s="299" t="s">
         <v>245</v>
       </c>
-      <c r="AS6" s="297"/>
-      <c r="AT6" s="304" t="s">
+      <c r="AM6" s="293"/>
+      <c r="AN6" s="299" t="s">
         <v>246</v>
       </c>
-      <c r="AU6" s="297"/>
-      <c r="AV6" s="304" t="s">
+      <c r="AO6" s="293"/>
+      <c r="AP6" s="299" t="s">
         <v>247</v>
       </c>
-      <c r="AW6" s="297"/>
-      <c r="AX6" s="304" t="s">
+      <c r="AQ6" s="293"/>
+      <c r="AR6" s="299" t="s">
         <v>248</v>
       </c>
-      <c r="AY6" s="297"/>
-      <c r="AZ6" s="304" t="s">
+      <c r="AS6" s="293"/>
+      <c r="AT6" s="299" t="s">
+        <v>249</v>
+      </c>
+      <c r="AU6" s="293"/>
+      <c r="AV6" s="299" t="s">
+        <v>250</v>
+      </c>
+      <c r="AW6" s="293"/>
+      <c r="AX6" s="299" t="s">
         <v>251</v>
       </c>
-      <c r="BA6" s="297"/>
-      <c r="BB6" s="304" t="s">
-        <v>252</v>
-      </c>
-      <c r="BC6" s="297"/>
-      <c r="BD6" s="304" t="s">
-        <v>253</v>
-      </c>
-      <c r="BE6" s="297"/>
-      <c r="BF6" s="304" t="s">
+      <c r="AY6" s="293"/>
+      <c r="AZ6" s="299" t="s">
+        <v>254</v>
+      </c>
+      <c r="BA6" s="293"/>
+      <c r="BB6" s="299" t="s">
         <v>255</v>
       </c>
-      <c r="BG6" s="297"/>
-      <c r="BH6" s="304" t="s">
-        <v>254</v>
-      </c>
-      <c r="BI6" s="297"/>
-      <c r="BJ6" s="304" t="s">
+      <c r="BC6" s="293"/>
+      <c r="BD6" s="299" t="s">
         <v>256</v>
       </c>
-      <c r="BK6" s="297"/>
-      <c r="BL6" s="304" t="s">
-        <v>260</v>
-      </c>
-      <c r="BM6" s="297"/>
-      <c r="BN6" s="304" t="s">
-        <v>261</v>
-      </c>
-      <c r="BO6" s="297"/>
-      <c r="BP6" s="304" t="s">
+      <c r="BE6" s="293"/>
+      <c r="BF6" s="299" t="s">
+        <v>258</v>
+      </c>
+      <c r="BG6" s="293"/>
+      <c r="BH6" s="299" t="s">
+        <v>257</v>
+      </c>
+      <c r="BI6" s="293"/>
+      <c r="BJ6" s="299" t="s">
+        <v>259</v>
+      </c>
+      <c r="BK6" s="293"/>
+      <c r="BL6" s="299" t="s">
+        <v>263</v>
+      </c>
+      <c r="BM6" s="293"/>
+      <c r="BN6" s="299" t="s">
+        <v>264</v>
+      </c>
+      <c r="BO6" s="293"/>
+      <c r="BP6" s="299" t="s">
+        <v>270</v>
+      </c>
+      <c r="BQ6" s="293"/>
+      <c r="BR6" s="299" t="s">
+        <v>269</v>
+      </c>
+      <c r="BS6" s="293"/>
+      <c r="BT6" s="299" t="s">
+        <v>268</v>
+      </c>
+      <c r="BU6" s="293"/>
+      <c r="BV6" s="299" t="s">
         <v>267</v>
       </c>
-      <c r="BQ6" s="297"/>
-      <c r="BR6" s="304" t="s">
+      <c r="BW6" s="293"/>
+      <c r="BX6" s="299" t="s">
         <v>266</v>
       </c>
-      <c r="BS6" s="297"/>
-      <c r="BT6" s="304" t="s">
+      <c r="BY6" s="293"/>
+      <c r="BZ6" s="299" t="s">
         <v>265</v>
       </c>
-      <c r="BU6" s="297"/>
-      <c r="BV6" s="304" t="s">
-        <v>264</v>
-      </c>
-      <c r="BW6" s="297"/>
-      <c r="BX6" s="304" t="s">
-        <v>263</v>
-      </c>
-      <c r="BY6" s="297"/>
-      <c r="BZ6" s="304" t="s">
-        <v>262</v>
-      </c>
-      <c r="CA6" s="297"/>
-      <c r="CB6" s="304" t="s">
-        <v>269</v>
-      </c>
-      <c r="CC6" s="297"/>
-      <c r="CD6" s="304" t="s">
-        <v>268</v>
-      </c>
-      <c r="CE6" s="297"/>
-      <c r="CF6" s="304" t="s">
+      <c r="CA6" s="293"/>
+      <c r="CB6" s="299" t="s">
+        <v>272</v>
+      </c>
+      <c r="CC6" s="293"/>
+      <c r="CD6" s="299" t="s">
         <v>271</v>
       </c>
-      <c r="CG6" s="297"/>
-      <c r="CH6" s="304" t="s">
-        <v>272</v>
-      </c>
-      <c r="CI6" s="297"/>
+      <c r="CE6" s="293"/>
+      <c r="CF6" s="299" t="s">
+        <v>273</v>
+      </c>
+      <c r="CG6" s="293"/>
+      <c r="CH6" s="299" t="s">
+        <v>274</v>
+      </c>
+      <c r="CI6" s="293"/>
     </row>
     <row r="7" spans="1:87">
-      <c r="A7" s="291"/>
+      <c r="A7" s="287"/>
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
@@ -18466,7 +18452,7 @@
         <v>221</v>
       </c>
       <c r="B8" s="219">
-        <v>27221</v>
+        <v>27220</v>
       </c>
       <c r="C8" s="184">
         <v>100</v>
@@ -18475,253 +18461,253 @@
         <v>31</v>
       </c>
       <c r="E8" s="179">
-        <v>0.11388266411961</v>
+        <v>0.11388684790594999</v>
       </c>
       <c r="F8" s="130">
         <v>129</v>
       </c>
       <c r="G8" s="177">
-        <v>0.47389882811064998</v>
+        <v>0.47391623806025002</v>
       </c>
       <c r="H8" s="78">
         <v>426</v>
       </c>
       <c r="I8" s="177">
-        <v>1.5649682230630799</v>
+        <v>1.5650257163850101</v>
       </c>
       <c r="J8" s="78">
         <v>994</v>
       </c>
       <c r="K8" s="177">
-        <v>3.6515925204805102</v>
+        <v>3.6517266715650298</v>
       </c>
       <c r="L8" s="78">
         <v>1219</v>
       </c>
       <c r="M8" s="177">
-        <v>4.4781602439293202</v>
+        <v>4.4783247612050001</v>
       </c>
       <c r="N8" s="78">
         <v>1399</v>
       </c>
       <c r="O8" s="177">
-        <v>5.13941442268837</v>
+        <v>5.1396032329169703</v>
       </c>
       <c r="P8" s="78">
         <v>1420</v>
       </c>
       <c r="Q8" s="177">
-        <v>5.2165607435435897</v>
+        <v>5.2167523879500397</v>
       </c>
       <c r="R8" s="78">
         <v>1290</v>
       </c>
       <c r="S8" s="218">
-        <v>4.7389882811064998</v>
+        <v>4.7391623806025001</v>
       </c>
       <c r="T8" s="130">
         <v>1286</v>
       </c>
       <c r="U8" s="213">
-        <v>4.7242937438007404</v>
+        <v>4.7244673034533404</v>
       </c>
       <c r="V8" s="88">
         <v>1107</v>
       </c>
       <c r="W8" s="217">
-        <v>4.0667131993681398</v>
+        <v>4.0668626010286602</v>
       </c>
       <c r="X8" s="130">
         <v>1044</v>
       </c>
       <c r="Y8" s="212">
-        <v>3.8352742368024701</v>
+        <v>3.8354151359294599</v>
       </c>
       <c r="Z8" s="130">
         <v>1083</v>
       </c>
       <c r="AA8" s="214">
-        <v>3.9785459755336001</v>
+        <v>3.9786921381337299</v>
       </c>
       <c r="AB8" s="88">
         <v>1010</v>
       </c>
       <c r="AC8" s="214">
-        <v>3.7103706697035399</v>
+        <v>3.7105069801616501</v>
       </c>
       <c r="AD8" s="88">
         <v>908</v>
       </c>
       <c r="AE8" s="212">
-        <v>3.3356599684067501</v>
+        <v>3.3357825128581902</v>
       </c>
       <c r="AF8" s="130">
         <v>795</v>
       </c>
       <c r="AG8" s="214">
-        <v>2.92053928951912</v>
+        <v>2.9206465833945598</v>
       </c>
       <c r="AH8" s="88">
         <v>785</v>
       </c>
       <c r="AI8" s="215">
-        <v>2.8838029462547299</v>
+        <v>2.8839088905216799</v>
       </c>
       <c r="AJ8" s="88">
         <v>583</v>
       </c>
       <c r="AK8" s="214">
-        <v>2.1417288123140201</v>
+        <v>2.1418074944893499</v>
       </c>
       <c r="AL8" s="88">
         <v>422</v>
       </c>
       <c r="AM8" s="214">
-        <v>1.5502736857573201</v>
+        <v>1.55033063923586</v>
       </c>
       <c r="AN8" s="88">
         <v>285</v>
       </c>
       <c r="AO8" s="212">
-        <v>1.0469857830351601</v>
+        <v>1.0470242468772999</v>
       </c>
       <c r="AP8" s="216">
         <v>201</v>
       </c>
       <c r="AQ8" s="215">
-        <v>0.73840049961427001</v>
+        <v>0.73842762674504003</v>
       </c>
       <c r="AR8" s="88">
         <v>202</v>
       </c>
       <c r="AS8" s="212">
-        <v>0.74207413394070998</v>
+        <v>0.74210139603233005</v>
       </c>
       <c r="AT8" s="216">
         <v>165</v>
       </c>
       <c r="AU8" s="212">
-        <v>0.60614966386246005</v>
+        <v>0.60617193240264999</v>
       </c>
       <c r="AV8" s="130">
         <v>160</v>
       </c>
       <c r="AW8" s="212">
-        <v>0.58778149223025999</v>
+        <v>0.58780308596620001</v>
       </c>
       <c r="AX8" s="130">
         <v>169</v>
       </c>
       <c r="AY8" s="214">
-        <v>0.62084420116822003</v>
+        <v>0.62086700955179996</v>
       </c>
       <c r="AZ8" s="88">
         <v>135</v>
       </c>
       <c r="BA8" s="212">
-        <v>0.49594063406928002</v>
+        <v>0.49595885378398002</v>
       </c>
       <c r="BB8" s="216">
         <v>111</v>
       </c>
       <c r="BC8" s="215">
-        <v>0.40777341023475</v>
+        <v>0.40778839088905</v>
       </c>
       <c r="BD8" s="88">
         <v>98</v>
       </c>
       <c r="BE8" s="214">
-        <v>0.36001616399103997</v>
+        <v>0.36002939015430002</v>
       </c>
       <c r="BF8" s="88">
         <v>119</v>
       </c>
       <c r="BG8" s="214">
-        <v>0.43716248484626002</v>
+        <v>0.43717854518735999</v>
       </c>
       <c r="BH8" s="88">
         <v>126</v>
       </c>
       <c r="BI8" s="214">
-        <v>0.46287792513133003</v>
+        <v>0.46289493019838002</v>
       </c>
       <c r="BJ8" s="88">
         <v>154</v>
       </c>
       <c r="BK8" s="214">
-        <v>0.56573968627162996</v>
+        <v>0.56576047024247</v>
       </c>
       <c r="BL8" s="88">
         <v>154</v>
       </c>
       <c r="BM8" s="214">
-        <v>0.56573968627162996</v>
+        <v>0.56576047024247</v>
       </c>
       <c r="BN8" s="88">
         <v>192</v>
       </c>
       <c r="BO8" s="213">
-        <v>0.70533779067631996</v>
+        <v>0.70536370315943997</v>
       </c>
       <c r="BP8" s="88">
         <v>221</v>
       </c>
       <c r="BQ8" s="213">
-        <v>0.81187318614305004</v>
+        <v>0.81190301249081998</v>
       </c>
       <c r="BR8" s="88">
         <v>354</v>
       </c>
       <c r="BS8" s="175">
-        <v>1.30046655155946</v>
+        <v>1.30051432770022</v>
       </c>
       <c r="BT8" s="88">
         <v>591</v>
       </c>
       <c r="BU8" s="175">
-        <v>2.1711178869255399</v>
+        <v>2.1711976487876599</v>
       </c>
       <c r="BV8" s="88">
         <v>867</v>
       </c>
       <c r="BW8" s="212">
-        <v>3.1850409610227399</v>
+        <v>3.1851579720793501</v>
       </c>
       <c r="BX8" s="88">
         <v>1075</v>
       </c>
       <c r="BY8" s="212">
-        <v>3.9491569009220799</v>
+        <v>3.94930198383542</v>
       </c>
       <c r="BZ8" s="88">
         <v>1320</v>
       </c>
       <c r="CA8" s="212">
-        <v>4.8491973108996698</v>
+        <v>4.84937545922116</v>
       </c>
       <c r="CB8" s="88">
         <v>1191</v>
       </c>
       <c r="CC8" s="212">
-        <v>4.3752984827890202</v>
+        <v>4.3754592211609102</v>
       </c>
       <c r="CD8" s="88">
         <v>1254</v>
       </c>
       <c r="CE8" s="212">
-        <v>4.6067374453546899</v>
+        <v>4.6069066862600998</v>
       </c>
       <c r="CF8" s="88">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="CG8" s="212">
-        <v>4.8896072884904997</v>
+        <v>4.8861131520940502</v>
       </c>
       <c r="CH8" s="88">
         <v>782</v>
       </c>
       <c r="CI8" s="212">
-        <v>2.8727820432754099</v>
+        <v>2.8728875826598101</v>
       </c>
     </row>
     <row r="9" spans="1:87">
@@ -18823,7 +18809,7 @@
         <v>9960</v>
       </c>
       <c r="C10" s="91">
-        <v>36.589397891333903</v>
+        <v>36.590742101396003</v>
       </c>
       <c r="D10" s="78">
         <v>18</v>
@@ -19068,13 +19054,13 @@
       <c r="CF10" s="103">
         <v>447</v>
       </c>
-      <c r="CG10" s="229">
+      <c r="CG10" s="221">
         <v>4.48795180722892</v>
       </c>
-      <c r="CH10" s="230">
+      <c r="CH10" s="222">
         <v>166</v>
       </c>
-      <c r="CI10" s="229">
+      <c r="CI10" s="221">
         <v>1.6666666666666701</v>
       </c>
     </row>
@@ -19086,7 +19072,7 @@
         <v>4073</v>
       </c>
       <c r="C11" s="93">
-        <v>14.9627126115866</v>
+        <v>14.963262307127099</v>
       </c>
       <c r="D11" s="78">
         <v>4</v>
@@ -19331,13 +19317,13 @@
       <c r="CF11" s="103">
         <v>233</v>
       </c>
-      <c r="CG11" s="229">
+      <c r="CG11" s="221">
         <v>5.7205990670267601</v>
       </c>
-      <c r="CH11" s="230">
+      <c r="CH11" s="222">
         <v>284</v>
       </c>
-      <c r="CI11" s="229">
+      <c r="CI11" s="221">
         <v>6.9727473606678103</v>
       </c>
     </row>
@@ -19349,16 +19335,16 @@
         <v>2520</v>
       </c>
       <c r="C12" s="93">
-        <v>9.2575585026266491</v>
+        <v>9.2578986039676696</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E12" s="208" t="s">
         <v>110</v>
       </c>
       <c r="F12" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G12" s="208" t="s">
         <v>110</v>
@@ -19594,13 +19580,13 @@
       <c r="CF12" s="103">
         <v>255</v>
       </c>
-      <c r="CG12" s="229">
+      <c r="CG12" s="221">
         <v>10.119047619047601</v>
       </c>
-      <c r="CH12" s="230">
+      <c r="CH12" s="222">
         <v>88</v>
       </c>
-      <c r="CI12" s="229">
+      <c r="CI12" s="221">
         <v>3.4920634920634899</v>
       </c>
     </row>
@@ -19612,10 +19598,10 @@
         <v>1456</v>
       </c>
       <c r="C13" s="93">
-        <v>5.3488115792953996</v>
+        <v>5.3490080822924302</v>
       </c>
       <c r="D13" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E13" s="208" t="s">
         <v>110</v>
@@ -19765,13 +19751,13 @@
         <v>0.34340659340659002</v>
       </c>
       <c r="BB13" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BC13" s="207" t="s">
         <v>110</v>
       </c>
       <c r="BD13" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BE13" s="207" t="s">
         <v>110</v>
@@ -19795,19 +19781,19 @@
         <v>0.48076923076923</v>
       </c>
       <c r="BL13" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BM13" s="205" t="s">
         <v>110</v>
       </c>
       <c r="BN13" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BO13" s="205" t="s">
         <v>110</v>
       </c>
       <c r="BP13" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BQ13" s="205" t="s">
         <v>110</v>
@@ -19857,13 +19843,13 @@
       <c r="CF13" s="103">
         <v>58</v>
       </c>
-      <c r="CG13" s="229">
+      <c r="CG13" s="221">
         <v>3.98351648351648</v>
       </c>
-      <c r="CH13" s="230">
+      <c r="CH13" s="222">
         <v>54</v>
       </c>
-      <c r="CI13" s="229">
+      <c r="CI13" s="221">
         <v>3.7087912087912098</v>
       </c>
     </row>
@@ -19875,7 +19861,7 @@
         <v>1064</v>
       </c>
       <c r="C14" s="94">
-        <v>3.90874692333125</v>
+        <v>3.9088905216752399</v>
       </c>
       <c r="D14" s="78">
         <v>0</v>
@@ -20028,7 +20014,7 @@
         <v>0.37593984962406002</v>
       </c>
       <c r="BB14" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BC14" s="203" t="s">
         <v>110</v>
@@ -20040,25 +20026,25 @@
         <v>0.46992481203008002</v>
       </c>
       <c r="BF14" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BG14" s="203" t="s">
         <v>110</v>
       </c>
       <c r="BH14" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BI14" s="201" t="s">
         <v>110</v>
       </c>
       <c r="BJ14" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BK14" s="201" t="s">
         <v>110</v>
       </c>
       <c r="BL14" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BM14" s="201" t="s">
         <v>110</v>
@@ -20120,13 +20106,13 @@
       <c r="CF14" s="103">
         <v>48</v>
       </c>
-      <c r="CG14" s="229">
+      <c r="CG14" s="221">
         <v>4.5112781954887202</v>
       </c>
-      <c r="CH14" s="230">
+      <c r="CH14" s="222">
         <v>37</v>
       </c>
-      <c r="CI14" s="229">
+      <c r="CI14" s="221">
         <v>3.47744360902256</v>
       </c>
     </row>
@@ -20135,10 +20121,10 @@
         <v>124</v>
       </c>
       <c r="B15" s="90">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C15" s="94">
-        <v>3.5964880055839199</v>
+        <v>3.59294636296841</v>
       </c>
       <c r="D15" s="78">
         <v>0</v>
@@ -20147,7 +20133,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G15" s="204" t="s">
         <v>110</v>
@@ -20156,166 +20142,166 @@
         <v>6</v>
       </c>
       <c r="I15" s="204">
-        <v>0.61287027579162001</v>
+        <v>0.61349693251533999</v>
       </c>
       <c r="J15" s="78">
         <v>41</v>
       </c>
       <c r="K15" s="204">
-        <v>4.1879468845760996</v>
+        <v>4.1922290388548102</v>
       </c>
       <c r="L15" s="78">
         <v>32</v>
       </c>
       <c r="M15" s="204">
-        <v>3.2686414708886602</v>
+        <v>3.2719836400818001</v>
       </c>
       <c r="N15" s="78">
         <v>53</v>
       </c>
       <c r="O15" s="204">
-        <v>5.4136874361593499</v>
+        <v>5.4192229038854798</v>
       </c>
       <c r="P15" s="78">
         <v>34</v>
       </c>
       <c r="Q15" s="204">
-        <v>3.4729315628192001</v>
+        <v>3.4764826175869099</v>
       </c>
       <c r="R15" s="78">
         <v>45</v>
       </c>
       <c r="S15" s="204">
-        <v>4.5965270684371804</v>
+        <v>4.6012269938650299</v>
       </c>
       <c r="T15" s="78">
         <v>40</v>
       </c>
       <c r="U15" s="203">
-        <v>4.0858018386108297</v>
+        <v>4.0899795501022496</v>
       </c>
       <c r="V15" s="78">
         <v>33</v>
       </c>
       <c r="W15" s="203">
-        <v>3.3707865168539302</v>
+        <v>3.3742331288343599</v>
       </c>
       <c r="X15" s="78">
         <v>35</v>
       </c>
       <c r="Y15" s="203">
-        <v>3.5750766087844701</v>
+        <v>3.5787321063394701</v>
       </c>
       <c r="Z15" s="78">
         <v>33</v>
       </c>
       <c r="AA15" s="203">
-        <v>3.3707865168539302</v>
+        <v>3.3742331288343599</v>
       </c>
       <c r="AB15" s="78">
         <v>33</v>
       </c>
       <c r="AC15" s="203">
-        <v>3.3707865168539302</v>
+        <v>3.3742331288343599</v>
       </c>
       <c r="AD15" s="78">
         <v>33</v>
       </c>
       <c r="AE15" s="203">
-        <v>3.3707865168539302</v>
+        <v>3.3742331288343599</v>
       </c>
       <c r="AF15" s="78">
         <v>40</v>
       </c>
       <c r="AG15" s="203">
-        <v>4.0858018386108297</v>
+        <v>4.0899795501022496</v>
       </c>
       <c r="AH15" s="78">
         <v>30</v>
       </c>
       <c r="AI15" s="203">
-        <v>3.0643513789581198</v>
+        <v>3.0674846625766898</v>
       </c>
       <c r="AJ15" s="78">
         <v>30</v>
       </c>
       <c r="AK15" s="203">
-        <v>3.0643513789581198</v>
+        <v>3.0674846625766898</v>
       </c>
       <c r="AL15" s="78">
         <v>23</v>
       </c>
       <c r="AM15" s="203">
-        <v>2.3493360572012301</v>
+        <v>2.3517382413087899</v>
       </c>
       <c r="AN15" s="78">
         <v>16</v>
       </c>
       <c r="AO15" s="203">
-        <v>1.6343207354443301</v>
+        <v>1.6359918200409</v>
       </c>
       <c r="AP15" s="78">
         <v>21</v>
       </c>
       <c r="AQ15" s="203">
-        <v>2.1450459652706799</v>
+        <v>2.1472392638036801</v>
       </c>
       <c r="AR15" s="78">
         <v>11</v>
       </c>
       <c r="AS15" s="203">
-        <v>1.1235955056179801</v>
+        <v>1.12474437627812</v>
       </c>
       <c r="AT15" s="78">
         <v>9</v>
       </c>
       <c r="AU15" s="203">
-        <v>0.91930541368744001</v>
+        <v>0.92024539877301004</v>
       </c>
       <c r="AV15" s="78">
         <v>10</v>
       </c>
       <c r="AW15" s="203">
-        <v>1.0214504596527101</v>
+        <v>1.0224948875255599</v>
       </c>
       <c r="AX15" s="78">
         <v>9</v>
       </c>
       <c r="AY15" s="203">
-        <v>0.91930541368744001</v>
+        <v>0.92024539877301004</v>
       </c>
       <c r="AZ15" s="78">
         <v>8</v>
       </c>
       <c r="BA15" s="203">
-        <v>0.81716036772217004</v>
+        <v>0.81799591002045002</v>
       </c>
       <c r="BB15" s="78">
         <v>7</v>
       </c>
       <c r="BC15" s="203">
-        <v>0.71501532175688998</v>
+        <v>0.71574642126789001</v>
       </c>
       <c r="BD15" s="78">
         <v>9</v>
       </c>
       <c r="BE15" s="203">
-        <v>0.91930541368744001</v>
+        <v>0.92024539877301004</v>
       </c>
       <c r="BF15" s="78">
         <v>6</v>
       </c>
       <c r="BG15" s="203">
-        <v>0.61287027579162001</v>
+        <v>0.61349693251533999</v>
       </c>
       <c r="BH15" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BI15" s="201" t="s">
         <v>110</v>
       </c>
       <c r="BJ15" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BK15" s="201" t="s">
         <v>110</v>
@@ -20324,73 +20310,73 @@
         <v>8</v>
       </c>
       <c r="BM15" s="201">
-        <v>0.81716036772217004</v>
+        <v>0.81799591002045002</v>
       </c>
       <c r="BN15" s="78">
         <v>11</v>
       </c>
       <c r="BO15" s="201">
-        <v>1.1235955056179801</v>
+        <v>1.12474437627812</v>
       </c>
       <c r="BP15" s="78">
         <v>8</v>
       </c>
       <c r="BQ15" s="201">
-        <v>0.81716036772217004</v>
+        <v>0.81799591002045002</v>
       </c>
       <c r="BR15" s="78">
         <v>9</v>
       </c>
       <c r="BS15" s="202">
-        <v>0.91930541368744001</v>
+        <v>0.92024539877301004</v>
       </c>
       <c r="BT15" s="78">
         <v>14</v>
       </c>
       <c r="BU15" s="202">
-        <v>1.4300306435137899</v>
+        <v>1.43149284253579</v>
       </c>
       <c r="BV15" s="78">
         <v>19</v>
       </c>
       <c r="BW15" s="201">
-        <v>1.94075587334014</v>
+        <v>1.9427402862985701</v>
       </c>
       <c r="BX15" s="78">
         <v>38</v>
       </c>
       <c r="BY15" s="201">
-        <v>3.8815117466802902</v>
+        <v>3.8854805725971402</v>
       </c>
       <c r="BZ15" s="78">
         <v>38</v>
       </c>
       <c r="CA15" s="201">
-        <v>3.8815117466802902</v>
+        <v>3.8854805725971402</v>
       </c>
       <c r="CB15" s="78">
         <v>44</v>
       </c>
       <c r="CC15" s="201">
-        <v>4.4943820224719104</v>
+        <v>4.4989775051124798</v>
       </c>
       <c r="CD15" s="78">
         <v>59</v>
       </c>
       <c r="CE15" s="201">
-        <v>6.0265577119509697</v>
+        <v>6.0327198364008199</v>
       </c>
       <c r="CF15" s="103">
-        <v>53</v>
-      </c>
-      <c r="CG15" s="229">
-        <v>5.4136874361593499</v>
-      </c>
-      <c r="CH15" s="230">
+        <v>52</v>
+      </c>
+      <c r="CG15" s="221">
+        <v>5.3169734151329298</v>
+      </c>
+      <c r="CH15" s="222">
         <v>23</v>
       </c>
-      <c r="CI15" s="229">
-        <v>2.3493360572012301</v>
+      <c r="CI15" s="221">
+        <v>2.3517382413087899</v>
       </c>
     </row>
     <row r="16" spans="1:87">
@@ -20401,10 +20387,10 @@
         <v>862</v>
       </c>
       <c r="C16" s="94">
-        <v>3.1666727893905402</v>
+        <v>3.1667891256429099</v>
       </c>
       <c r="D16" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E16" s="204" t="s">
         <v>110</v>
@@ -20518,13 +20504,13 @@
         <v>1.16009280742459</v>
       </c>
       <c r="AP16" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AQ16" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AR16" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AS16" s="203" t="s">
         <v>110</v>
@@ -20536,7 +20522,7 @@
         <v>0</v>
       </c>
       <c r="AV16" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AW16" s="203" t="s">
         <v>110</v>
@@ -20554,7 +20540,7 @@
         <v>0</v>
       </c>
       <c r="BB16" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BC16" s="203" t="s">
         <v>110</v>
@@ -20566,7 +20552,7 @@
         <v>0</v>
       </c>
       <c r="BF16" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BG16" s="203" t="s">
         <v>110</v>
@@ -20578,25 +20564,25 @@
         <v>0</v>
       </c>
       <c r="BJ16" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BK16" s="201" t="s">
         <v>110</v>
       </c>
       <c r="BL16" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BM16" s="201" t="s">
         <v>110</v>
       </c>
       <c r="BN16" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BO16" s="201" t="s">
         <v>110</v>
       </c>
       <c r="BP16" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BQ16" s="201" t="s">
         <v>110</v>
@@ -20646,13 +20632,13 @@
       <c r="CF16" s="103">
         <v>21</v>
       </c>
-      <c r="CG16" s="229">
+      <c r="CG16" s="221">
         <v>2.4361948955916501</v>
       </c>
-      <c r="CH16" s="230">
+      <c r="CH16" s="222">
         <v>12</v>
       </c>
-      <c r="CI16" s="229">
+      <c r="CI16" s="221">
         <v>1.3921113689095099</v>
       </c>
     </row>
@@ -20664,16 +20650,16 @@
         <v>948</v>
       </c>
       <c r="C17" s="94">
-        <v>3.4826053414643101</v>
+        <v>3.4827332843497398</v>
       </c>
       <c r="D17" s="85" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E17" s="204" t="s">
         <v>110</v>
       </c>
       <c r="F17" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G17" s="204" t="s">
         <v>110</v>
@@ -20787,7 +20773,7 @@
         <v>0.42194092827003998</v>
       </c>
       <c r="AR17" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AS17" s="203" t="s">
         <v>110</v>
@@ -20799,19 +20785,19 @@
         <v>0.42194092827003998</v>
       </c>
       <c r="AV17" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AW17" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AX17" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AY17" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AZ17" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BA17" s="203" t="s">
         <v>110</v>
@@ -20829,7 +20815,7 @@
         <v>0.42194092827003998</v>
       </c>
       <c r="BF17" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BG17" s="203" t="s">
         <v>110</v>
@@ -20909,13 +20895,13 @@
       <c r="CF17" s="103">
         <v>32</v>
       </c>
-      <c r="CG17" s="229">
+      <c r="CG17" s="221">
         <v>3.3755274261603399</v>
       </c>
-      <c r="CH17" s="230">
+      <c r="CH17" s="222">
         <v>20</v>
       </c>
-      <c r="CI17" s="229">
+      <c r="CI17" s="221">
         <v>2.1097046413502101</v>
       </c>
     </row>
@@ -20927,7 +20913,7 @@
         <v>580</v>
       </c>
       <c r="C18" s="94">
-        <v>2.1307079093347099</v>
+        <v>2.1307861866274802</v>
       </c>
       <c r="D18" s="85">
         <v>0</v>
@@ -21110,7 +21096,7 @@
         <v>1.72413793103448</v>
       </c>
       <c r="BL18" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BM18" s="201" t="s">
         <v>110</v>
@@ -21158,28 +21144,28 @@
         <v>2.9310344827586201</v>
       </c>
       <c r="CB18" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="CC18" s="201" t="s">
         <v>110</v>
       </c>
-      <c r="CD18" s="78">
-        <v>0</v>
-      </c>
-      <c r="CE18" s="201">
-        <v>0</v>
-      </c>
-      <c r="CF18" s="103">
-        <v>0</v>
-      </c>
-      <c r="CG18" s="229">
-        <v>0</v>
-      </c>
-      <c r="CH18" s="231" t="s">
-        <v>273</v>
-      </c>
-      <c r="CI18" s="232" t="s">
-        <v>273</v>
+      <c r="CD18" s="143" t="s">
+        <v>275</v>
+      </c>
+      <c r="CE18" s="201" t="s">
+        <v>275</v>
+      </c>
+      <c r="CF18" s="143" t="s">
+        <v>275</v>
+      </c>
+      <c r="CG18" s="201" t="s">
+        <v>275</v>
+      </c>
+      <c r="CH18" s="143" t="s">
+        <v>275</v>
+      </c>
+      <c r="CI18" s="201" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:87">
@@ -21190,7 +21176,7 @@
         <v>717</v>
       </c>
       <c r="C19" s="93">
-        <v>2.6339958120568698</v>
+        <v>2.6340925789860399</v>
       </c>
       <c r="D19" s="83">
         <v>0</v>
@@ -21199,7 +21185,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G19" s="208" t="s">
         <v>110</v>
@@ -21307,7 +21293,7 @@
         <v>0.83682008368201</v>
       </c>
       <c r="AP19" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AQ19" s="207" t="s">
         <v>110</v>
@@ -21343,13 +21329,13 @@
         <v>0.97629009762900998</v>
       </c>
       <c r="BB19" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BC19" s="207" t="s">
         <v>110</v>
       </c>
       <c r="BD19" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BE19" s="207" t="s">
         <v>110</v>
@@ -21421,28 +21407,28 @@
         <v>7.6708507670850796</v>
       </c>
       <c r="CB19" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="CC19" s="205" t="s">
         <v>110</v>
       </c>
       <c r="CD19" s="143" t="s">
-        <v>273</v>
-      </c>
-      <c r="CE19" s="205" t="s">
-        <v>273</v>
+        <v>275</v>
+      </c>
+      <c r="CE19" s="201" t="s">
+        <v>275</v>
       </c>
       <c r="CF19" s="143" t="s">
-        <v>273</v>
-      </c>
-      <c r="CG19" s="205" t="s">
-        <v>273</v>
+        <v>275</v>
+      </c>
+      <c r="CG19" s="201" t="s">
+        <v>275</v>
       </c>
       <c r="CH19" s="143" t="s">
-        <v>273</v>
-      </c>
-      <c r="CI19" s="205" t="s">
-        <v>273</v>
+        <v>275</v>
+      </c>
+      <c r="CI19" s="201" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:87">
@@ -21453,7 +21439,7 @@
         <v>749</v>
       </c>
       <c r="C20" s="94">
-        <v>2.7515521105029199</v>
+        <v>2.7516531961792801</v>
       </c>
       <c r="D20" s="78">
         <v>0</v>
@@ -21570,7 +21556,7 @@
         <v>0.53404539385848004</v>
       </c>
       <c r="AP20" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AQ20" s="203" t="s">
         <v>110</v>
@@ -21588,31 +21574,31 @@
         <v>0.53404539385848004</v>
       </c>
       <c r="AV20" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AW20" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AX20" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AY20" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AZ20" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BA20" s="203" t="s">
         <v>110</v>
       </c>
       <c r="BB20" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BC20" s="203" t="s">
         <v>110</v>
       </c>
       <c r="BD20" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BE20" s="203" t="s">
         <v>110</v>
@@ -21630,7 +21616,7 @@
         <v>0.53404539385848004</v>
       </c>
       <c r="BJ20" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BK20" s="201" t="s">
         <v>110</v>
@@ -21698,13 +21684,13 @@
       <c r="CF20" s="103">
         <v>28</v>
       </c>
-      <c r="CG20" s="229">
+      <c r="CG20" s="221">
         <v>3.7383177570093502</v>
       </c>
-      <c r="CH20" s="230">
+      <c r="CH20" s="222">
         <v>14</v>
       </c>
-      <c r="CI20" s="229">
+      <c r="CI20" s="221">
         <v>1.86915887850467</v>
       </c>
     </row>
@@ -21716,16 +21702,16 @@
         <v>570</v>
       </c>
       <c r="C21" s="96">
-        <v>2.09397156607031</v>
+        <v>2.09404849375459</v>
       </c>
       <c r="D21" s="62" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E21" s="204" t="s">
         <v>110</v>
       </c>
       <c r="F21" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G21" s="204" t="s">
         <v>110</v>
@@ -21833,19 +21819,19 @@
         <v>0.87719298245613997</v>
       </c>
       <c r="AP21" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AQ21" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AR21" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AS21" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AT21" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AU21" s="203" t="s">
         <v>110</v>
@@ -21857,13 +21843,13 @@
         <v>0.87719298245613997</v>
       </c>
       <c r="AX21" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AY21" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AZ21" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BA21" s="203" t="s">
         <v>110</v>
@@ -21875,13 +21861,13 @@
         <v>1.0526315789473699</v>
       </c>
       <c r="BD21" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BE21" s="203" t="s">
         <v>110</v>
       </c>
       <c r="BF21" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BG21" s="203" t="s">
         <v>110</v>
@@ -21961,13 +21947,13 @@
       <c r="CF21" s="103">
         <v>10</v>
       </c>
-      <c r="CG21" s="229">
+      <c r="CG21" s="221">
         <v>1.7543859649122799</v>
       </c>
-      <c r="CH21" s="230">
+      <c r="CH21" s="222">
         <v>9</v>
       </c>
-      <c r="CI21" s="229">
+      <c r="CI21" s="221">
         <v>1.57894736842105</v>
       </c>
     </row>
@@ -21979,7 +21965,7 @@
         <v>540</v>
       </c>
       <c r="C22" s="94">
-        <v>1.9837625362771401</v>
+        <v>1.9838354151359301</v>
       </c>
       <c r="D22" s="85">
         <v>0</v>
@@ -22132,25 +22118,25 @@
         <v>1.1111111111111101</v>
       </c>
       <c r="BB22" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BC22" s="203" t="s">
         <v>110</v>
       </c>
       <c r="BD22" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BE22" s="203" t="s">
         <v>110</v>
       </c>
       <c r="BF22" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BG22" s="203" t="s">
         <v>110</v>
       </c>
       <c r="BH22" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BI22" s="201" t="s">
         <v>110</v>
@@ -22180,13 +22166,13 @@
         <v>0.74074074074074003</v>
       </c>
       <c r="BR22" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BS22" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BT22" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BU22" s="202" t="s">
         <v>110</v>
@@ -22224,13 +22210,13 @@
       <c r="CF22" s="103">
         <v>46</v>
       </c>
-      <c r="CG22" s="229">
+      <c r="CG22" s="221">
         <v>8.5185185185185208</v>
       </c>
-      <c r="CH22" s="230">
+      <c r="CH22" s="222">
         <v>8</v>
       </c>
-      <c r="CI22" s="229">
+      <c r="CI22" s="221">
         <v>1.4814814814814801</v>
       </c>
     </row>
@@ -22242,7 +22228,7 @@
         <v>357</v>
       </c>
       <c r="C23" s="93">
-        <v>1.31148745453878</v>
+        <v>1.31153563556209</v>
       </c>
       <c r="D23" s="78">
         <v>0</v>
@@ -22269,7 +22255,7 @@
         <v>1.40056022408964</v>
       </c>
       <c r="L23" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="M23" s="208" t="s">
         <v>110</v>
@@ -22365,7 +22351,7 @@
         <v>0</v>
       </c>
       <c r="AR23" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AS23" s="207" t="s">
         <v>110</v>
@@ -22377,43 +22363,43 @@
         <v>0</v>
       </c>
       <c r="AV23" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AW23" s="207" t="s">
         <v>110</v>
       </c>
       <c r="AX23" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AY23" s="207" t="s">
         <v>110</v>
       </c>
       <c r="AZ23" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BA23" s="207" t="s">
         <v>110</v>
       </c>
       <c r="BB23" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BC23" s="207" t="s">
         <v>110</v>
       </c>
       <c r="BD23" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BE23" s="207" t="s">
         <v>110</v>
       </c>
       <c r="BF23" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BG23" s="207" t="s">
         <v>110</v>
       </c>
       <c r="BH23" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BI23" s="205" t="s">
         <v>110</v>
@@ -22431,19 +22417,19 @@
         <v>1.6806722689075599</v>
       </c>
       <c r="BN23" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BO23" s="205" t="s">
         <v>110</v>
       </c>
       <c r="BP23" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BQ23" s="205" t="s">
         <v>110</v>
       </c>
       <c r="BR23" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BS23" s="206" t="s">
         <v>110</v>
@@ -22472,29 +22458,29 @@
       <c r="CA23" s="205">
         <v>4.4817927170868401</v>
       </c>
-      <c r="CB23" s="78">
-        <v>0</v>
-      </c>
-      <c r="CC23" s="205">
-        <v>0</v>
-      </c>
-      <c r="CD23" s="78">
-        <v>0</v>
-      </c>
-      <c r="CE23" s="205">
-        <v>0</v>
-      </c>
-      <c r="CF23" s="103">
-        <v>0</v>
-      </c>
-      <c r="CG23" s="229">
-        <v>0</v>
-      </c>
-      <c r="CH23" s="230">
-        <v>0</v>
-      </c>
-      <c r="CI23" s="229">
-        <v>0</v>
+      <c r="CB23" s="143" t="s">
+        <v>275</v>
+      </c>
+      <c r="CC23" s="201" t="s">
+        <v>275</v>
+      </c>
+      <c r="CD23" s="143" t="s">
+        <v>275</v>
+      </c>
+      <c r="CE23" s="201" t="s">
+        <v>275</v>
+      </c>
+      <c r="CF23" s="143" t="s">
+        <v>275</v>
+      </c>
+      <c r="CG23" s="201" t="s">
+        <v>275</v>
+      </c>
+      <c r="CH23" s="143" t="s">
+        <v>275</v>
+      </c>
+      <c r="CI23" s="201" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:87">
@@ -22505,7 +22491,7 @@
         <v>383</v>
       </c>
       <c r="C24" s="94">
-        <v>1.4070019470261901</v>
+        <v>1.40705363703159</v>
       </c>
       <c r="D24" s="85">
         <v>0</v>
@@ -22514,7 +22500,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G24" s="204" t="s">
         <v>110</v>
@@ -22628,25 +22614,25 @@
         <v>0</v>
       </c>
       <c r="AR24" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AS24" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AT24" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AU24" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AV24" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AW24" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AX24" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AY24" s="203" t="s">
         <v>110</v>
@@ -22658,13 +22644,13 @@
         <v>1.0443864229765001</v>
       </c>
       <c r="BB24" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BC24" s="203" t="s">
         <v>110</v>
       </c>
       <c r="BD24" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BE24" s="203" t="s">
         <v>110</v>
@@ -22676,7 +22662,7 @@
         <v>1.30548302872063</v>
       </c>
       <c r="BH24" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BI24" s="201" t="s">
         <v>110</v>
@@ -22688,13 +22674,13 @@
         <v>1.30548302872063</v>
       </c>
       <c r="BL24" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BM24" s="201" t="s">
         <v>110</v>
       </c>
       <c r="BN24" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BO24" s="201" t="s">
         <v>110</v>
@@ -22747,17 +22733,17 @@
       <c r="CE24" s="201">
         <v>1.0443864229765001</v>
       </c>
-      <c r="CF24" s="103">
-        <v>0</v>
-      </c>
-      <c r="CG24" s="229">
-        <v>0</v>
-      </c>
-      <c r="CH24" s="230">
-        <v>0</v>
-      </c>
-      <c r="CI24" s="229">
-        <v>0</v>
+      <c r="CF24" s="143" t="s">
+        <v>275</v>
+      </c>
+      <c r="CG24" s="201" t="s">
+        <v>275</v>
+      </c>
+      <c r="CH24" s="143" t="s">
+        <v>275</v>
+      </c>
+      <c r="CI24" s="201" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:87">
@@ -22768,22 +22754,22 @@
         <v>423</v>
       </c>
       <c r="C25" s="94">
-        <v>1.5539473200837599</v>
+        <v>1.5540044085231499</v>
       </c>
       <c r="D25" s="85" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E25" s="204" t="s">
         <v>110</v>
       </c>
       <c r="F25" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G25" s="204" t="s">
         <v>110</v>
       </c>
       <c r="H25" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="I25" s="204" t="s">
         <v>110</v>
@@ -22885,31 +22871,31 @@
         <v>1.8912529550827399</v>
       </c>
       <c r="AP25" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AQ25" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AR25" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AS25" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AT25" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AU25" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AV25" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AW25" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AX25" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AY25" s="203" t="s">
         <v>110</v>
@@ -22921,43 +22907,43 @@
         <v>0.94562647754136997</v>
       </c>
       <c r="BB25" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BC25" s="203" t="s">
         <v>110</v>
       </c>
       <c r="BD25" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BE25" s="203" t="s">
         <v>110</v>
       </c>
       <c r="BF25" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BG25" s="203" t="s">
         <v>110</v>
       </c>
       <c r="BH25" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BI25" s="201" t="s">
         <v>110</v>
       </c>
       <c r="BJ25" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BK25" s="201" t="s">
         <v>110</v>
       </c>
       <c r="BL25" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BM25" s="201" t="s">
         <v>110</v>
       </c>
       <c r="BN25" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BO25" s="201" t="s">
         <v>110</v>
@@ -22975,7 +22961,7 @@
         <v>0.94562647754136997</v>
       </c>
       <c r="BT25" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BU25" s="202" t="s">
         <v>110</v>
@@ -23013,13 +22999,13 @@
       <c r="CF25" s="103">
         <v>31</v>
       </c>
-      <c r="CG25" s="229">
+      <c r="CG25" s="221">
         <v>7.3286052009456304</v>
       </c>
-      <c r="CH25" s="230">
+      <c r="CH25" s="222">
         <v>17</v>
       </c>
-      <c r="CI25" s="229">
+      <c r="CI25" s="221">
         <v>4.0189125295508301</v>
       </c>
     </row>
@@ -23031,7 +23017,7 @@
         <v>365</v>
       </c>
       <c r="C26" s="94">
-        <v>1.34087652915029</v>
+        <v>1.3409257898603999</v>
       </c>
       <c r="D26" s="84">
         <v>0</v>
@@ -23046,13 +23032,13 @@
         <v>0</v>
       </c>
       <c r="H26" s="84" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="I26" s="204" t="s">
         <v>110</v>
       </c>
       <c r="J26" s="84" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="K26" s="204" t="s">
         <v>110</v>
@@ -23136,19 +23122,19 @@
         <v>1.6438356164383601</v>
       </c>
       <c r="AL26" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AM26" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AN26" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AO26" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AP26" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AQ26" s="203" t="s">
         <v>110</v>
@@ -23166,7 +23152,7 @@
         <v>0</v>
       </c>
       <c r="AV26" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AW26" s="203" t="s">
         <v>110</v>
@@ -23178,7 +23164,7 @@
         <v>1.6438356164383601</v>
       </c>
       <c r="AZ26" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BA26" s="203" t="s">
         <v>110</v>
@@ -23190,19 +23176,19 @@
         <v>0</v>
       </c>
       <c r="BD26" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BE26" s="203" t="s">
         <v>110</v>
       </c>
       <c r="BF26" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BG26" s="203" t="s">
         <v>110</v>
       </c>
       <c r="BH26" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BI26" s="201" t="s">
         <v>110</v>
@@ -23214,7 +23200,7 @@
         <v>1.3698630136986301</v>
       </c>
       <c r="BL26" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BM26" s="201" t="s">
         <v>110</v>
@@ -23276,13 +23262,13 @@
       <c r="CF26" s="103">
         <v>25</v>
       </c>
-      <c r="CG26" s="229">
+      <c r="CG26" s="221">
         <v>6.8493150684931496</v>
       </c>
-      <c r="CH26" s="230">
+      <c r="CH26" s="222">
         <v>27</v>
       </c>
-      <c r="CI26" s="229">
+      <c r="CI26" s="221">
         <v>7.3972602739726101</v>
       </c>
     </row>
@@ -23294,10 +23280,10 @@
         <v>249</v>
       </c>
       <c r="C27" s="94">
-        <v>0.91473494728335003</v>
+        <v>0.91476855253489997</v>
       </c>
       <c r="D27" s="84" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E27" s="204" t="s">
         <v>110</v>
@@ -23309,7 +23295,7 @@
         <v>2.4096385542168699</v>
       </c>
       <c r="H27" s="84" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="I27" s="204" t="s">
         <v>110</v>
@@ -23405,55 +23391,55 @@
         <v>1.6064257028112501</v>
       </c>
       <c r="AN27" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AO27" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AP27" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AQ27" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AR27" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AS27" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AT27" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AU27" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AV27" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AW27" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AX27" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AY27" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AZ27" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BA27" s="203" t="s">
         <v>110</v>
       </c>
       <c r="BB27" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BC27" s="203" t="s">
         <v>110</v>
       </c>
       <c r="BD27" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BE27" s="203" t="s">
         <v>110</v>
@@ -23465,13 +23451,13 @@
         <v>0</v>
       </c>
       <c r="BH27" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BI27" s="201" t="s">
         <v>110</v>
       </c>
       <c r="BJ27" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BK27" s="201" t="s">
         <v>110</v>
@@ -23483,19 +23469,19 @@
         <v>0</v>
       </c>
       <c r="BN27" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BO27" s="201" t="s">
         <v>110</v>
       </c>
       <c r="BP27" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BQ27" s="201" t="s">
         <v>110</v>
       </c>
       <c r="BR27" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BS27" s="202" t="s">
         <v>110</v>
@@ -23539,14 +23525,14 @@
       <c r="CF27" s="103">
         <v>15</v>
       </c>
-      <c r="CG27" s="229">
+      <c r="CG27" s="221">
         <v>6.0240963855421699</v>
       </c>
-      <c r="CH27" s="230">
-        <v>0</v>
-      </c>
-      <c r="CI27" s="229">
-        <v>0</v>
+      <c r="CH27" s="143" t="s">
+        <v>275</v>
+      </c>
+      <c r="CI27" s="201" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:87">
@@ -23557,7 +23543,7 @@
         <v>199</v>
       </c>
       <c r="C28" s="93">
-        <v>0.73105323096138997</v>
+        <v>0.73108008817046</v>
       </c>
       <c r="D28" s="83">
         <v>0</v>
@@ -23566,13 +23552,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="83" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G28" s="208" t="s">
         <v>110</v>
       </c>
       <c r="H28" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="I28" s="208" t="s">
         <v>110</v>
@@ -23644,7 +23630,7 @@
         <v>2.5125628140703502</v>
       </c>
       <c r="AF28" s="83" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AG28" s="207" t="s">
         <v>110</v>
@@ -23662,13 +23648,13 @@
         <v>6.0301507537688499</v>
       </c>
       <c r="AL28" s="83" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AM28" s="207" t="s">
         <v>110</v>
       </c>
       <c r="AN28" s="83" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AO28" s="207" t="s">
         <v>110</v>
@@ -23686,7 +23672,7 @@
         <v>0</v>
       </c>
       <c r="AT28" s="83" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AU28" s="207" t="s">
         <v>110</v>
@@ -23698,25 +23684,25 @@
         <v>0</v>
       </c>
       <c r="AX28" s="83" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AY28" s="207" t="s">
         <v>110</v>
       </c>
       <c r="AZ28" s="83" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BA28" s="207" t="s">
         <v>110</v>
       </c>
       <c r="BB28" s="83" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BC28" s="207" t="s">
         <v>110</v>
       </c>
       <c r="BD28" s="83" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BE28" s="207" t="s">
         <v>110</v>
@@ -23728,25 +23714,25 @@
         <v>0</v>
       </c>
       <c r="BH28" s="83" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BI28" s="205" t="s">
         <v>110</v>
       </c>
       <c r="BJ28" s="83" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BK28" s="205" t="s">
         <v>110</v>
       </c>
       <c r="BL28" s="83" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BM28" s="205" t="s">
         <v>110</v>
       </c>
       <c r="BN28" s="83" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BO28" s="205" t="s">
         <v>110</v>
@@ -23758,19 +23744,19 @@
         <v>0</v>
       </c>
       <c r="BR28" s="83" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BS28" s="206" t="s">
         <v>110</v>
       </c>
       <c r="BT28" s="83" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BU28" s="206" t="s">
         <v>110</v>
       </c>
       <c r="BV28" s="83" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BW28" s="205" t="s">
         <v>110</v>
@@ -23802,25 +23788,25 @@
       <c r="CF28" s="103">
         <v>9</v>
       </c>
-      <c r="CG28" s="229">
+      <c r="CG28" s="221">
         <v>4.5226130653266301</v>
       </c>
-      <c r="CH28" s="230">
+      <c r="CH28" s="222">
         <v>4</v>
       </c>
-      <c r="CI28" s="229">
+      <c r="CI28" s="221">
         <v>2.0100502512562799</v>
       </c>
     </row>
     <row r="29" spans="1:87">
       <c r="A29" s="30" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B29" s="90">
         <v>198</v>
       </c>
       <c r="C29" s="94">
-        <v>0.72737959663495</v>
+        <v>0.72740631888316998</v>
       </c>
       <c r="D29" s="84">
         <v>0</v>
@@ -23835,7 +23821,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="84" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="I29" s="204" t="s">
         <v>110</v>
@@ -23847,13 +23833,13 @@
         <v>2.0202020202020199</v>
       </c>
       <c r="L29" s="84" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="M29" s="204" t="s">
         <v>110</v>
       </c>
       <c r="N29" s="84" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="O29" s="204" t="s">
         <v>110</v>
@@ -23865,7 +23851,7 @@
         <v>2.0202020202020199</v>
       </c>
       <c r="R29" s="84" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="S29" s="204" t="s">
         <v>110</v>
@@ -23877,7 +23863,7 @@
         <v>2.52525252525253</v>
       </c>
       <c r="V29" s="84" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="W29" s="203" t="s">
         <v>110</v>
@@ -23931,7 +23917,7 @@
         <v>2.52525252525253</v>
       </c>
       <c r="AN29" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AO29" s="203" t="s">
         <v>110</v>
@@ -23955,7 +23941,7 @@
         <v>2.0202020202020199</v>
       </c>
       <c r="AV29" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AW29" s="203" t="s">
         <v>110</v>
@@ -23967,31 +23953,31 @@
         <v>2.52525252525253</v>
       </c>
       <c r="AZ29" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BA29" s="203" t="s">
         <v>110</v>
       </c>
       <c r="BB29" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BC29" s="203" t="s">
         <v>110</v>
       </c>
       <c r="BD29" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BE29" s="203" t="s">
         <v>110</v>
       </c>
       <c r="BF29" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BG29" s="203" t="s">
         <v>110</v>
       </c>
       <c r="BH29" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BI29" s="201" t="s">
         <v>110</v>
@@ -24015,13 +24001,13 @@
         <v>2.52525252525253</v>
       </c>
       <c r="BP29" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BQ29" s="201" t="s">
         <v>110</v>
       </c>
       <c r="BR29" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BS29" s="202" t="s">
         <v>110</v>
@@ -24065,13 +24051,13 @@
       <c r="CF29" s="103">
         <v>20</v>
       </c>
-      <c r="CG29" s="229">
+      <c r="CG29" s="221">
         <v>10.1010101010101</v>
       </c>
-      <c r="CH29" s="230">
+      <c r="CH29" s="222">
         <v>19</v>
       </c>
-      <c r="CI29" s="229">
+      <c r="CI29" s="221">
         <v>9.5959595959596005</v>
       </c>
     </row>
@@ -24083,7 +24069,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="97">
-        <v>0.10653539546674</v>
+        <v>0.10653930933137</v>
       </c>
       <c r="D30" s="86">
         <v>0</v>
@@ -24104,7 +24090,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="86" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="K30" s="200" t="s">
         <v>110</v>
@@ -24122,19 +24108,19 @@
         <v>0</v>
       </c>
       <c r="P30" s="86" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q30" s="200" t="s">
         <v>110</v>
       </c>
       <c r="R30" s="86" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="S30" s="200" t="s">
         <v>110</v>
       </c>
       <c r="T30" s="86" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="U30" s="199" t="s">
         <v>110</v>
@@ -24146,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="86" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Y30" s="199" t="s">
         <v>110</v>
@@ -24158,37 +24144,37 @@
         <v>0</v>
       </c>
       <c r="AB30" s="86" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AC30" s="199" t="s">
         <v>110</v>
       </c>
       <c r="AD30" s="86" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AE30" s="199" t="s">
         <v>110</v>
       </c>
       <c r="AF30" s="86" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AG30" s="199" t="s">
         <v>110</v>
       </c>
       <c r="AH30" s="86" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AI30" s="199" t="s">
         <v>110</v>
       </c>
       <c r="AJ30" s="86" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AK30" s="199" t="s">
         <v>110</v>
       </c>
       <c r="AL30" s="86" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AM30" s="199" t="s">
         <v>110</v>
@@ -24206,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="AR30" s="86" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AS30" s="199" t="s">
         <v>110</v>
@@ -24218,37 +24204,37 @@
         <v>0</v>
       </c>
       <c r="AV30" s="86" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AW30" s="199" t="s">
         <v>110</v>
       </c>
       <c r="AX30" s="86" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AY30" s="199" t="s">
         <v>110</v>
       </c>
       <c r="AZ30" s="86" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BA30" s="199" t="s">
         <v>110</v>
       </c>
       <c r="BB30" s="86" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BC30" s="199" t="s">
         <v>110</v>
       </c>
       <c r="BD30" s="86" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BE30" s="199" t="s">
         <v>110</v>
       </c>
       <c r="BF30" s="86" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BG30" s="199" t="s">
         <v>110</v>
@@ -24266,13 +24252,13 @@
         <v>0</v>
       </c>
       <c r="BL30" s="86" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BM30" s="197" t="s">
         <v>110</v>
       </c>
       <c r="BN30" s="86" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BO30" s="197" t="s">
         <v>110</v>
@@ -24284,58 +24270,58 @@
         <v>0</v>
       </c>
       <c r="BR30" s="86" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="BS30" s="198" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="BT30" s="86" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="BU30" s="198" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="BV30" s="86" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="BW30" s="198" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="BX30" s="86" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="BY30" s="198" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="BZ30" s="86" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CA30" s="198" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CB30" s="86" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CC30" s="198" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CD30" s="86" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CE30" s="198" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CF30" s="86" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CG30" s="198" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CH30" s="86" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CI30" s="198" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:87" ht="15.75" customHeight="1" thickTop="1">
@@ -24425,37 +24411,6 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="BR5:CI5"/>
-    <mergeCell ref="BX6:BY6"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="AT6:AU6"/>
-    <mergeCell ref="CF6:CG6"/>
-    <mergeCell ref="CH6:CI6"/>
-    <mergeCell ref="CD6:CE6"/>
-    <mergeCell ref="BZ6:CA6"/>
-    <mergeCell ref="CB6:CC6"/>
-    <mergeCell ref="BR6:BS6"/>
-    <mergeCell ref="BT6:BU6"/>
-    <mergeCell ref="BV6:BW6"/>
-    <mergeCell ref="AZ6:BA6"/>
-    <mergeCell ref="AX6:AY6"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D5:BA5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="AH6:AI6"/>
-    <mergeCell ref="AN6:AO6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="AJ6:AK6"/>
-    <mergeCell ref="T6:U6"/>
     <mergeCell ref="X6:Y6"/>
     <mergeCell ref="AP6:AQ6"/>
     <mergeCell ref="AR6:AS6"/>
@@ -24472,6 +24427,37 @@
     <mergeCell ref="Z6:AA6"/>
     <mergeCell ref="AF6:AG6"/>
     <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D5:BA5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="BR6:BS6"/>
+    <mergeCell ref="BT6:BU6"/>
+    <mergeCell ref="BV6:BW6"/>
+    <mergeCell ref="AZ6:BA6"/>
+    <mergeCell ref="AX6:AY6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="AN6:AO6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="AL6:AM6"/>
+    <mergeCell ref="AJ6:AK6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="BR5:CI5"/>
+    <mergeCell ref="BX6:BY6"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AT6:AU6"/>
+    <mergeCell ref="CF6:CG6"/>
+    <mergeCell ref="CH6:CI6"/>
+    <mergeCell ref="CD6:CE6"/>
+    <mergeCell ref="BZ6:CA6"/>
+    <mergeCell ref="CB6:CC6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24480,53 +24466,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Publiceringsdatum xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">2020-04-28T22:00:00+00:00</Publiceringsdatum>
-    <Verksamhetsomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <Value>Hälso- och sjukvård</Value>
-    </Verksamhetsomr_x00e5_de>
-    <E_x002d_plikt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Ja</E_x002d_plikt>
-    <Produkt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Statistik</Produkt>
-    <Ansvarig_x0020_webbredakt_x00f6_r xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <UserInfo>
-        <DisplayName>Söderholm, Joen</DisplayName>
-        <AccountId>87</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </Ansvarig_x0020_webbredakt_x00f6_r>
-    <TaxCatchAll xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">
-      <Value>9</Value>
-    </TaxCatchAll>
-    <Dokumenttyp xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Övrigt</Dokumenttyp>
-    <Titel xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">statistik-covid19-avlidna</Titel>
-    <Webbplatstillh_x00f6_righet xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <Value>Socialstyrelsen.se</Value>
-    </Webbplatstillh_x00f6_righet>
-    <i01e5b6f93524074838bfc1e1bab8714 xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">statistik och jämförelser</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">338b04a2-62bc-42a8-9e4b-6158db2fb390</TermId>
-        </TermInfo>
-      </Terms>
-    </i01e5b6f93524074838bfc1e1bab8714>
-    <_x00c4_mnesomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
-    <Status_x0020_p_x00e5__x0020_publikation xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Publicerad</Status_x0020_p_x00e5__x0020_publikation>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100361443839E954C488E1554F766430BDE" ma:contentTypeVersion="37" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="ec0867efc9d878e75742a5b73fddae48">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dd3acd59-a8d8-42b1-950d-eec6c247243c" xmlns:ns3="343f6c91-b5b3-4dff-89ad-5fc55ccc8930" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f4ea334ff345e29c5775f0a2fd1174f" ns2:_="" ns3:_="">
     <xsd:import namespace="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
@@ -24859,32 +24798,54 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C92573-D875-4871-BB97-75789C903393}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Publiceringsdatum xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">2020-04-28T22:00:00+00:00</Publiceringsdatum>
+    <Verksamhetsomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <Value>Hälso- och sjukvård</Value>
+    </Verksamhetsomr_x00e5_de>
+    <E_x002d_plikt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Ja</E_x002d_plikt>
+    <Produkt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Statistik</Produkt>
+    <Ansvarig_x0020_webbredakt_x00f6_r xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <UserInfo>
+        <DisplayName>Söderholm, Joen</DisplayName>
+        <AccountId>87</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </Ansvarig_x0020_webbredakt_x00f6_r>
+    <TaxCatchAll xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">
+      <Value>9</Value>
+    </TaxCatchAll>
+    <Dokumenttyp xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Övrigt</Dokumenttyp>
+    <Titel xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">statistik-covid19-avlidna</Titel>
+    <Webbplatstillh_x00f6_righet xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <Value>Socialstyrelsen.se</Value>
+    </Webbplatstillh_x00f6_righet>
+    <i01e5b6f93524074838bfc1e1bab8714 xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">statistik och jämförelser</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">338b04a2-62bc-42a8-9e4b-6158db2fb390</TermId>
+        </TermInfo>
+      </Terms>
+    </i01e5b6f93524074838bfc1e1bab8714>
+    <_x00c4_mnesomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
+    <Status_x0020_p_x00e5__x0020_publikation xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Publicerad</Status_x0020_p_x00e5__x0020_publikation>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4CF34A-7793-424A-BF7F-3DB732CF3454}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="343f6c91-b5b3-4dff-89ad-5fc55ccc8930"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2BDD971-BADF-427E-9579-B824215A28B1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24901,4 +24862,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4CF34A-7793-424A-BF7F-3DB732CF3454}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="343f6c91-b5b3-4dff-89ad-5fc55ccc8930"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C92573-D875-4871-BB97-75789C903393}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/socialstyrelsen/statistik-covid19-inskrivna_latest.xlsx
+++ b/socialstyrelsen/statistik-covid19-inskrivna_latest.xlsx
@@ -31,12 +31,12 @@
     <definedName name="innehållsförteckning" localSheetId="2">'[2]Om statistiken'!#REF!</definedName>
     <definedName name="innehållsförteckning">'Om statistiken'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="288">
   <si>
     <t>Diabetes</t>
   </si>
@@ -995,141 +995,6 @@
     </r>
   </si>
   <si>
-    <t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19.</t>
-  </si>
-  <si>
-    <t>vecka 26</t>
-  </si>
-  <si>
-    <t>vecka 27</t>
-  </si>
-  <si>
-    <t>vecka 28</t>
-  </si>
-  <si>
-    <t>vecka 29</t>
-  </si>
-  <si>
-    <t>vecka 30</t>
-  </si>
-  <si>
-    <t>vecka 31</t>
-  </si>
-  <si>
-    <t>vecka 32</t>
-  </si>
-  <si>
-    <t>vecka 33</t>
-  </si>
-  <si>
-    <t>vecka 34</t>
-  </si>
-  <si>
-    <t>Beräkning av boendeform/socialtjänstinsats har korrigerats.</t>
-  </si>
-  <si>
-    <t>vecka 35</t>
-  </si>
-  <si>
-    <t>vecka 36</t>
-  </si>
-  <si>
-    <t>vecka 37</t>
-  </si>
-  <si>
-    <t>vecka 39</t>
-  </si>
-  <si>
-    <t>vecka 38</t>
-  </si>
-  <si>
-    <t>vecka 40</t>
-  </si>
-  <si>
-    <t>Population</t>
-  </si>
-  <si>
-    <t>Blekinge</t>
-  </si>
-  <si>
-    <t>vecka 41</t>
-  </si>
-  <si>
-    <t>vecka 42</t>
-  </si>
-  <si>
-    <t>vecka 48</t>
-  </si>
-  <si>
-    <t>vecka 47</t>
-  </si>
-  <si>
-    <t>vecka 46</t>
-  </si>
-  <si>
-    <t>vecka 45</t>
-  </si>
-  <si>
-    <t>vecka 44</t>
-  </si>
-  <si>
-    <t>vecka 43</t>
-  </si>
-  <si>
-    <t>vecka 50</t>
-  </si>
-  <si>
-    <t>vecka 49</t>
-  </si>
-  <si>
-    <t>vecka 51</t>
-  </si>
-  <si>
-    <t>vecka 52</t>
-  </si>
-  <si>
-    <t>vecka 53</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>IU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IU </t>
-  </si>
-  <si>
-    <t>Populationen utgörs av alla individer som slutenvårdats för covid-19 med inskrivningsdatum fram till och med 24 januari enligt rapportering till patientregistret eller frivillig särskild</t>
-  </si>
-  <si>
-    <t>gång. Statistiken är preliminär och baserad på de uppgifter som inkommit till Socialstyrelsen vid den 24 januari 2021. Notera bortfallet som beskrivs nedan.</t>
-  </si>
-  <si>
-    <t>2021W03</t>
-  </si>
-  <si>
-    <t>2020W49</t>
-  </si>
-  <si>
-    <t>2021W04</t>
-  </si>
-  <si>
-    <t>2021W02</t>
-  </si>
-  <si>
-    <t>vecka 1 2021</t>
-  </si>
-  <si>
-    <t>vecka 2 2021</t>
-  </si>
-  <si>
-    <t>vecka 3 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antal unika patienter som rapporterats till Socialstyrelsen, som utskrivna från slutenvård som vårdats med diagnosen covid-19. Endast den sista utskrivningen i slutenvård för en patient ingår i statistiken, om det skulle förekomma mer än ett. </t>
-  </si>
-  <si>
     <r>
       <t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19</t>
     </r>
@@ -1150,11 +1015,146 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Endast den första inskrivningen i slutenvård för en patient ingår i statistiken, om det skulle förekomma mer än ett.</t>
+      <t xml:space="preserve"> Endast den första inskrivningen i slutenvård för en patient ingår i statistiken, skulle det förkomma mer än ett.</t>
     </r>
   </si>
   <si>
-    <t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19. Endast ett slutenvårdstillfälle för en patient ingår i statistiken,  om det skulle förekomma mer än ett.</t>
+    <t xml:space="preserve">Antal unika patienter som rapporterats till Socialstyrelsen, som utskrivna från slutenvård som vårdats med diagnosen covid-19. Endast den sista utskrivningen i slutenvård för en patient ingår i statistiken, skulle det förkomma mer än ett. </t>
+  </si>
+  <si>
+    <t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19.</t>
+  </si>
+  <si>
+    <t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19. Endast ett slutenvårdstillfälle för en patient ingår i statistiken, skulle det förkomma mer än ett.</t>
+  </si>
+  <si>
+    <t>vecka 26</t>
+  </si>
+  <si>
+    <t>vecka 27</t>
+  </si>
+  <si>
+    <t>vecka 28</t>
+  </si>
+  <si>
+    <t>vecka 29</t>
+  </si>
+  <si>
+    <t>vecka 30</t>
+  </si>
+  <si>
+    <t>vecka 31</t>
+  </si>
+  <si>
+    <t>vecka 32</t>
+  </si>
+  <si>
+    <t>vecka 33</t>
+  </si>
+  <si>
+    <t>vecka 34</t>
+  </si>
+  <si>
+    <t>Beräkning av boendeform/socialtjänstinsats har korrigerats.</t>
+  </si>
+  <si>
+    <t>vecka 35</t>
+  </si>
+  <si>
+    <t>vecka 36</t>
+  </si>
+  <si>
+    <t>vecka 37</t>
+  </si>
+  <si>
+    <t>vecka 39</t>
+  </si>
+  <si>
+    <t>vecka 38</t>
+  </si>
+  <si>
+    <t>vecka 40</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Blekinge</t>
+  </si>
+  <si>
+    <t>vecka 41</t>
+  </si>
+  <si>
+    <t>vecka 42</t>
+  </si>
+  <si>
+    <t>vecka 48</t>
+  </si>
+  <si>
+    <t>vecka 47</t>
+  </si>
+  <si>
+    <t>vecka 46</t>
+  </si>
+  <si>
+    <t>vecka 45</t>
+  </si>
+  <si>
+    <t>vecka 44</t>
+  </si>
+  <si>
+    <t>vecka 43</t>
+  </si>
+  <si>
+    <t>vecka 50</t>
+  </si>
+  <si>
+    <t>vecka 49</t>
+  </si>
+  <si>
+    <t>vecka 51</t>
+  </si>
+  <si>
+    <t>vecka 52</t>
+  </si>
+  <si>
+    <t>vecka 53</t>
+  </si>
+  <si>
+    <t>vecka 1</t>
+  </si>
+  <si>
+    <t>vecka 2</t>
+  </si>
+  <si>
+    <t>vecka 3</t>
+  </si>
+  <si>
+    <t>IU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IU </t>
+  </si>
+  <si>
+    <t>Populationen utgörs av alla individer som slutenvårdats för covid-19 med inskrivningsdatum fram till och med 24 januari enligt rapportering till patientregistret eller frivillig särskild</t>
+  </si>
+  <si>
+    <t>gång. Statistiken är preliminär och baserad på de uppgifter som inkommit till Socialstyrelsen vid den 24 januari 2021. Notera bortfallet som beskrivs nedan.</t>
+  </si>
+  <si>
+    <t>2021W03</t>
+  </si>
+  <si>
+    <t>2020W49</t>
+  </si>
+  <si>
+    <t>2021W04</t>
+  </si>
+  <si>
+    <t>2021W02</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
   <si>
     <r>
@@ -1449,7 +1449,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -2029,6 +2029,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2080,7 +2091,7 @@
     <xf numFmtId="167" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="301">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2700,25 +2711,22 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="36" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="38" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="36" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="53" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2760,9 +2768,60 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2790,63 +2849,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2904,32 +2912,32 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="29" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="29" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5451,16 +5459,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>483870</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>55845</xdr:colOff>
+      <xdr:colOff>65370</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>17145</xdr:rowOff>
+      <xdr:rowOff>36195</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5471,7 +5479,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4912995" y="619125"/>
+          <a:off x="4922520" y="638175"/>
           <a:ext cx="1296000" cy="360045"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -5950,7 +5958,7 @@
               <a:latin typeface="Century Gothic"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19. Endast ett slutenvårdstillfälle för en patient ingår i statistiken,  om det skulle förekomma mer än ett.</a:t>
+            <a:t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19. Endast ett slutenvårdstillfälle för en patient ingår i statistiken, skulle det förkomma mer än ett.</a:t>
           </a:fld>
           <a:endParaRPr lang="sv-SE" sz="800" b="0"/>
         </a:p>
@@ -7783,88 +7791,88 @@
     <row r="1" spans="2:6" ht="60" customHeight="1"/>
     <row r="2" spans="2:6" ht="14.25" thickBot="1"/>
     <row r="3" spans="2:6" ht="15.6" customHeight="1">
-      <c r="B3" s="234" t="s">
-        <v>256</v>
-      </c>
-      <c r="C3" s="235"/>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
-      <c r="F3" s="236"/>
+      <c r="B3" s="233" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="234"/>
+      <c r="D3" s="234"/>
+      <c r="E3" s="234"/>
+      <c r="F3" s="235"/>
     </row>
     <row r="4" spans="2:6" s="30" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B4" s="240" t="s">
-        <v>274</v>
-      </c>
-      <c r="C4" s="241"/>
-      <c r="D4" s="241"/>
-      <c r="E4" s="241"/>
-      <c r="F4" s="242"/>
+      <c r="B4" s="239" t="s">
+        <v>279</v>
+      </c>
+      <c r="C4" s="240"/>
+      <c r="D4" s="240"/>
+      <c r="E4" s="240"/>
+      <c r="F4" s="241"/>
     </row>
     <row r="5" spans="2:6" s="30" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B5" s="240" t="str">
+      <c r="B5" s="239" t="str">
         <f>"veckovis inrapportering om slutenvård till Socialstyrelsen från regionerna. Patienter som slutenvårdas vid fler än ett tillfälle räknas bara som inskriven en gång respektive utskriven en"</f>
         <v>veckovis inrapportering om slutenvård till Socialstyrelsen från regionerna. Patienter som slutenvårdas vid fler än ett tillfälle räknas bara som inskriven en gång respektive utskriven en</v>
       </c>
-      <c r="C5" s="241"/>
-      <c r="D5" s="241"/>
-      <c r="E5" s="241"/>
-      <c r="F5" s="242"/>
+      <c r="C5" s="240"/>
+      <c r="D5" s="240"/>
+      <c r="E5" s="240"/>
+      <c r="F5" s="241"/>
     </row>
     <row r="6" spans="2:6" s="30" customFormat="1" ht="15.6" customHeight="1">
-      <c r="B6" s="240" t="s">
-        <v>275</v>
-      </c>
-      <c r="C6" s="241"/>
-      <c r="D6" s="241"/>
-      <c r="E6" s="241"/>
-      <c r="F6" s="242"/>
+      <c r="B6" s="239" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" s="240"/>
+      <c r="D6" s="240"/>
+      <c r="E6" s="240"/>
+      <c r="F6" s="241"/>
     </row>
     <row r="7" spans="2:6" ht="42.6" customHeight="1">
-      <c r="B7" s="237" t="s">
+      <c r="B7" s="236" t="s">
         <v>220</v>
       </c>
-      <c r="C7" s="238"/>
-      <c r="D7" s="238"/>
-      <c r="E7" s="238"/>
-      <c r="F7" s="239"/>
+      <c r="C7" s="237"/>
+      <c r="D7" s="237"/>
+      <c r="E7" s="237"/>
+      <c r="F7" s="238"/>
     </row>
     <row r="8" spans="2:6" ht="33" customHeight="1">
-      <c r="B8" s="237" t="s">
+      <c r="B8" s="236" t="s">
         <v>179</v>
       </c>
-      <c r="C8" s="238"/>
-      <c r="D8" s="238"/>
-      <c r="E8" s="238"/>
-      <c r="F8" s="239"/>
+      <c r="C8" s="237"/>
+      <c r="D8" s="237"/>
+      <c r="E8" s="237"/>
+      <c r="F8" s="238"/>
     </row>
     <row r="9" spans="2:6" ht="57.75" customHeight="1">
-      <c r="B9" s="240" t="s">
+      <c r="B9" s="239" t="s">
         <v>223</v>
       </c>
-      <c r="C9" s="241"/>
-      <c r="D9" s="241"/>
-      <c r="E9" s="241"/>
-      <c r="F9" s="242"/>
+      <c r="C9" s="240"/>
+      <c r="D9" s="240"/>
+      <c r="E9" s="240"/>
+      <c r="F9" s="241"/>
     </row>
     <row r="10" spans="2:6" ht="54.75" customHeight="1">
-      <c r="B10" s="240" t="s">
+      <c r="B10" s="239" t="s">
         <v>188</v>
       </c>
-      <c r="C10" s="241"/>
-      <c r="D10" s="241"/>
-      <c r="E10" s="241"/>
-      <c r="F10" s="242"/>
-    </row>
-    <row r="11" spans="2:6" ht="153.75" customHeight="1" thickBot="1">
-      <c r="B11" s="231" t="s">
+      <c r="C10" s="240"/>
+      <c r="D10" s="240"/>
+      <c r="E10" s="240"/>
+      <c r="F10" s="241"/>
+    </row>
+    <row r="11" spans="2:6" ht="148.5" customHeight="1" thickBot="1">
+      <c r="B11" s="230" t="s">
         <v>286</v>
       </c>
-      <c r="C11" s="232"/>
-      <c r="D11" s="232"/>
-      <c r="E11" s="232"/>
-      <c r="F11" s="233"/>
-    </row>
-    <row r="12" spans="2:6" ht="14.25" customHeight="1">
+      <c r="C11" s="231"/>
+      <c r="D11" s="231"/>
+      <c r="E11" s="231"/>
+      <c r="F11" s="232"/>
+    </row>
+    <row r="12" spans="2:6">
       <c r="B12" s="20"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -7883,11 +7891,11 @@
       <c r="B15" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="230" t="s">
+      <c r="C15" s="229" t="s">
         <v>155</v>
       </c>
-      <c r="D15" s="230"/>
-      <c r="E15" s="230"/>
+      <c r="D15" s="229"/>
+      <c r="E15" s="229"/>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="37" t="s">
@@ -8412,7 +8420,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="50.45" customHeight="1">
-      <c r="B13" s="266" t="s">
+      <c r="B13" s="244" t="s">
         <v>163</v>
       </c>
       <c r="C13" s="74" t="s">
@@ -8426,24 +8434,24 @@
       </c>
     </row>
     <row r="14" spans="2:5" s="30" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B14" s="267"/>
+      <c r="B14" s="245"/>
       <c r="C14" s="129" t="s">
         <v>238</v>
       </c>
-      <c r="D14" s="264" t="s">
+      <c r="D14" s="242" t="s">
         <v>151</v>
       </c>
-      <c r="E14" s="264" t="s">
+      <c r="E14" s="242" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="15" spans="2:5" s="30" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
-      <c r="B15" s="267"/>
+      <c r="B15" s="245"/>
       <c r="C15" s="112" t="s">
         <v>187</v>
       </c>
-      <c r="D15" s="264"/>
-      <c r="E15" s="265"/>
+      <c r="D15" s="242"/>
+      <c r="E15" s="243"/>
     </row>
     <row r="16" spans="2:5" s="30" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="B16" s="109" t="s">
@@ -8459,20 +8467,20 @@
       <c r="B17" s="106" t="s">
         <v>215</v>
       </c>
-      <c r="C17" s="271" t="s">
+      <c r="C17" s="251" t="s">
         <v>219</v>
       </c>
-      <c r="D17" s="271"/>
+      <c r="D17" s="251"/>
       <c r="E17" s="108"/>
     </row>
     <row r="18" spans="2:6" s="30" customFormat="1" ht="40.5" customHeight="1" thickBot="1">
       <c r="B18" s="107" t="s">
         <v>216</v>
       </c>
-      <c r="C18" s="270" t="s">
+      <c r="C18" s="250" t="s">
         <v>217</v>
       </c>
-      <c r="D18" s="270"/>
+      <c r="D18" s="250"/>
       <c r="E18" s="108"/>
     </row>
     <row r="19" spans="2:6" ht="14.25" thickTop="1">
@@ -8689,16 +8697,16 @@
       <c r="F38" s="39"/>
     </row>
     <row r="39" spans="2:6" ht="27.75" thickTop="1">
-      <c r="B39" s="268" t="s">
+      <c r="B39" s="246" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="269" t="s">
+      <c r="D39" s="248" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="269" t="s">
+      <c r="E39" s="248" t="s">
         <v>49</v>
       </c>
       <c r="F39" s="10" t="s">
@@ -8706,45 +8714,45 @@
       </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="260"/>
+      <c r="B40" s="247"/>
       <c r="C40" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="255"/>
-      <c r="E40" s="255"/>
+      <c r="D40" s="249"/>
+      <c r="E40" s="249"/>
       <c r="F40" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="260"/>
+      <c r="B41" s="247"/>
       <c r="C41" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="255"/>
-      <c r="E41" s="255"/>
+      <c r="D41" s="249"/>
+      <c r="E41" s="249"/>
       <c r="F41" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="260"/>
+      <c r="B42" s="247"/>
       <c r="C42" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D42" s="255"/>
-      <c r="E42" s="255"/>
+      <c r="D42" s="249"/>
+      <c r="E42" s="249"/>
       <c r="F42" s="11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="27">
-      <c r="B43" s="260"/>
+      <c r="B43" s="247"/>
       <c r="C43" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="D43" s="255"/>
-      <c r="E43" s="255"/>
+      <c r="D43" s="249"/>
+      <c r="E43" s="249"/>
       <c r="F43" s="11" t="s">
         <v>55</v>
       </c>
@@ -8774,22 +8782,22 @@
       <c r="F45" s="26"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="254"/>
-      <c r="C46" s="254"/>
-      <c r="D46" s="255" t="s">
+      <c r="B46" s="255"/>
+      <c r="C46" s="255"/>
+      <c r="D46" s="249" t="s">
         <v>60</v>
       </c>
-      <c r="E46" s="255" t="s">
+      <c r="E46" s="249" t="s">
         <v>61</v>
       </c>
-      <c r="F46" s="255"/>
+      <c r="F46" s="249"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="254"/>
-      <c r="C47" s="254"/>
-      <c r="D47" s="255"/>
-      <c r="E47" s="255"/>
-      <c r="F47" s="255"/>
+      <c r="B47" s="255"/>
+      <c r="C47" s="255"/>
+      <c r="D47" s="249"/>
+      <c r="E47" s="249"/>
+      <c r="F47" s="249"/>
     </row>
     <row r="48" spans="2:6" ht="14.25" thickBot="1">
       <c r="B48" s="39"/>
@@ -8803,16 +8811,16 @@
       <c r="F48" s="40"/>
     </row>
     <row r="49" spans="2:6" ht="14.25" thickTop="1">
-      <c r="B49" s="259" t="s">
+      <c r="B49" s="254" t="s">
         <v>0</v>
       </c>
       <c r="C49" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D49" s="261" t="s">
+      <c r="D49" s="256" t="s">
         <v>65</v>
       </c>
-      <c r="E49" s="261" t="s">
+      <c r="E49" s="256" t="s">
         <v>66</v>
       </c>
       <c r="F49" s="25" t="s">
@@ -8820,30 +8828,30 @@
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="260"/>
+      <c r="B50" s="247"/>
       <c r="C50" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="254"/>
-      <c r="E50" s="254"/>
+      <c r="D50" s="255"/>
+      <c r="E50" s="255"/>
       <c r="F50" s="25"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="260"/>
+      <c r="B51" s="247"/>
       <c r="C51" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="254"/>
-      <c r="E51" s="254"/>
+      <c r="D51" s="255"/>
+      <c r="E51" s="255"/>
       <c r="F51" s="25"/>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="260"/>
+      <c r="B52" s="247"/>
       <c r="C52" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D52" s="254"/>
-      <c r="E52" s="254"/>
+      <c r="D52" s="255"/>
+      <c r="E52" s="255"/>
       <c r="F52" s="25"/>
     </row>
     <row r="53" spans="2:6" ht="27">
@@ -8895,46 +8903,46 @@
       <c r="F56" s="39"/>
     </row>
     <row r="57" spans="2:6" ht="14.25" thickTop="1">
-      <c r="B57" s="262" t="s">
+      <c r="B57" s="257" t="s">
         <v>76</v>
       </c>
       <c r="C57" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="263" t="s">
+      <c r="D57" s="259" t="s">
         <v>77</v>
       </c>
-      <c r="E57" s="263" t="s">
+      <c r="E57" s="259" t="s">
         <v>76</v>
       </c>
-      <c r="F57" s="258"/>
+      <c r="F57" s="252"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="253"/>
+      <c r="B58" s="258"/>
       <c r="C58" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="255"/>
-      <c r="E58" s="255"/>
-      <c r="F58" s="243"/>
+      <c r="D58" s="249"/>
+      <c r="E58" s="249"/>
+      <c r="F58" s="253"/>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="253"/>
+      <c r="B59" s="258"/>
       <c r="C59" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="255"/>
-      <c r="E59" s="255"/>
-      <c r="F59" s="243"/>
+      <c r="D59" s="249"/>
+      <c r="E59" s="249"/>
+      <c r="F59" s="253"/>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="253"/>
+      <c r="B60" s="258"/>
       <c r="C60" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D60" s="255"/>
-      <c r="E60" s="255"/>
-      <c r="F60" s="243"/>
+      <c r="D60" s="249"/>
+      <c r="E60" s="249"/>
+      <c r="F60" s="253"/>
     </row>
     <row r="61" spans="2:6" ht="27">
       <c r="B61" s="24"/>
@@ -8950,22 +8958,22 @@
       <c r="F61" s="23"/>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="253"/>
-      <c r="C62" s="254"/>
-      <c r="D62" s="255" t="s">
+      <c r="B62" s="258"/>
+      <c r="C62" s="255"/>
+      <c r="D62" s="249" t="s">
         <v>80</v>
       </c>
-      <c r="E62" s="255" t="s">
+      <c r="E62" s="249" t="s">
         <v>81</v>
       </c>
-      <c r="F62" s="243"/>
+      <c r="F62" s="253"/>
     </row>
     <row r="63" spans="2:6">
-      <c r="B63" s="253"/>
-      <c r="C63" s="254"/>
-      <c r="D63" s="255"/>
-      <c r="E63" s="255"/>
-      <c r="F63" s="243"/>
+      <c r="B63" s="258"/>
+      <c r="C63" s="255"/>
+      <c r="D63" s="249"/>
+      <c r="E63" s="249"/>
+      <c r="F63" s="253"/>
     </row>
     <row r="64" spans="2:6">
       <c r="B64" s="24"/>
@@ -9101,47 +9109,47 @@
     </row>
     <row r="76" spans="2:6" ht="14.25" thickTop="1"/>
     <row r="78" spans="2:6">
-      <c r="B78" s="250" t="s">
+      <c r="B78" s="266" t="s">
         <v>147</v>
       </c>
-      <c r="C78" s="251"/>
-      <c r="D78" s="251"/>
-      <c r="E78" s="251"/>
+      <c r="C78" s="267"/>
+      <c r="D78" s="267"/>
+      <c r="E78" s="267"/>
     </row>
     <row r="79" spans="2:6" s="30" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="B79" s="248" t="s">
+      <c r="B79" s="264" t="s">
         <v>287</v>
       </c>
-      <c r="C79" s="248"/>
-      <c r="D79" s="248"/>
+      <c r="C79" s="264"/>
+      <c r="D79" s="264"/>
       <c r="E79" s="28"/>
     </row>
     <row r="80" spans="2:6">
       <c r="B80" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C80" s="247" t="s">
+      <c r="C80" s="263" t="s">
         <v>138</v>
       </c>
-      <c r="D80" s="247"/>
+      <c r="D80" s="263"/>
     </row>
     <row r="81" spans="2:4" ht="57" customHeight="1">
       <c r="B81" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="C81" s="249" t="s">
+      <c r="C81" s="265" t="s">
         <v>143</v>
       </c>
-      <c r="D81" s="249"/>
+      <c r="D81" s="265"/>
     </row>
     <row r="82" spans="2:4" ht="72" customHeight="1" thickBot="1">
       <c r="B82" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="C82" s="246" t="s">
+      <c r="C82" s="262" t="s">
         <v>144</v>
       </c>
-      <c r="D82" s="246"/>
+      <c r="D82" s="262"/>
     </row>
     <row r="83" spans="2:4" ht="14.25" thickTop="1"/>
     <row r="84" spans="2:4">
@@ -9156,37 +9164,37 @@
       <c r="C85" s="73"/>
     </row>
     <row r="86" spans="2:4" ht="42" customHeight="1" thickBot="1">
-      <c r="B86" s="257" t="s">
+      <c r="B86" s="270" t="s">
         <v>186</v>
       </c>
-      <c r="C86" s="257"/>
-      <c r="D86" s="257"/>
+      <c r="C86" s="270"/>
+      <c r="D86" s="270"/>
     </row>
     <row r="87" spans="2:4" ht="14.25" thickBot="1">
-      <c r="B87" s="244" t="s">
+      <c r="B87" s="260" t="s">
         <v>148</v>
       </c>
-      <c r="C87" s="252" t="s">
+      <c r="C87" s="268" t="s">
         <v>224</v>
       </c>
-      <c r="D87" s="256" t="s">
+      <c r="D87" s="269" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="88" spans="2:4">
-      <c r="B88" s="245"/>
-      <c r="C88" s="252"/>
-      <c r="D88" s="256"/>
+      <c r="B88" s="261"/>
+      <c r="C88" s="268"/>
+      <c r="D88" s="269"/>
     </row>
     <row r="89" spans="2:4">
       <c r="B89" s="19" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C89" s="133">
         <v>44220</v>
       </c>
       <c r="D89" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="90" spans="2:4">
@@ -9197,7 +9205,7 @@
         <v>44217</v>
       </c>
       <c r="D90" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="91" spans="2:4">
@@ -9208,7 +9216,7 @@
         <v>44165</v>
       </c>
       <c r="D91" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="92" spans="2:4">
@@ -9219,7 +9227,7 @@
         <v>44218</v>
       </c>
       <c r="D92" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="93" spans="2:4">
@@ -9230,7 +9238,7 @@
         <v>44220</v>
       </c>
       <c r="D93" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="94" spans="2:4">
@@ -9241,7 +9249,7 @@
         <v>44220</v>
       </c>
       <c r="D94" s="30" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="95" spans="2:4">
@@ -9252,7 +9260,7 @@
         <v>44220</v>
       </c>
       <c r="D95" s="30" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="96" spans="2:4">
@@ -9263,7 +9271,7 @@
         <v>44220</v>
       </c>
       <c r="D96" s="30" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="97" spans="2:4">
@@ -9274,7 +9282,7 @@
         <v>44220</v>
       </c>
       <c r="D97" s="30" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="98" spans="2:4">
@@ -9285,7 +9293,7 @@
         <v>44165</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="99" spans="2:4">
@@ -9296,7 +9304,7 @@
         <v>44214</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="100" spans="2:4">
@@ -9307,7 +9315,7 @@
         <v>44220</v>
       </c>
       <c r="D100" s="30" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="101" spans="2:4">
@@ -9318,7 +9326,7 @@
         <v>44221</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="102" spans="2:4">
@@ -9329,7 +9337,7 @@
         <v>44220</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="103" spans="2:4">
@@ -9340,7 +9348,7 @@
         <v>44220</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="104" spans="2:4">
@@ -9351,7 +9359,7 @@
         <v>44216</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="105" spans="2:4">
@@ -9359,10 +9367,10 @@
         <v>125</v>
       </c>
       <c r="C105" s="133">
-        <v>44221</v>
+        <v>44224</v>
       </c>
       <c r="D105" s="30" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="106" spans="2:4">
@@ -9373,7 +9381,7 @@
         <v>44215</v>
       </c>
       <c r="D106" s="30" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="107" spans="2:4">
@@ -9384,7 +9392,7 @@
         <v>44221</v>
       </c>
       <c r="D107" s="30" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="108" spans="2:4">
@@ -9395,7 +9403,7 @@
         <v>44213</v>
       </c>
       <c r="D108" s="30" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="109" spans="2:4" ht="14.25" thickBot="1">
@@ -9406,7 +9414,7 @@
         <v>44220</v>
       </c>
       <c r="D109" s="135" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="110" spans="2:4" ht="14.25" thickTop="1"/>
@@ -9415,26 +9423,6 @@
     <sortCondition ref="B85:B105"/>
   </sortState>
   <mergeCells count="34">
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F57:F60"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="E57:E60"/>
     <mergeCell ref="F62:F63"/>
     <mergeCell ref="B87:B88"/>
     <mergeCell ref="C82:D82"/>
@@ -9449,6 +9437,26 @@
     <mergeCell ref="E62:E63"/>
     <mergeCell ref="D87:D88"/>
     <mergeCell ref="B86:D86"/>
+    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" location="Definitioner!B21" display="Riskfaktorer"/>
@@ -9470,7 +9478,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="30" customWidth="1"/>
     <col min="2" max="16384" width="9.33203125" style="30"/>
   </cols>
   <sheetData>
@@ -9484,7 +9492,7 @@
         <v>44069</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -9546,15 +9554,15 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="29.25" customHeight="1">
-      <c r="A2" s="272" t="s">
-        <v>285</v>
-      </c>
-      <c r="B2" s="272"/>
-      <c r="C2" s="272"/>
-      <c r="D2" s="272"/>
-      <c r="E2" s="272"/>
-      <c r="F2" s="272"/>
-      <c r="G2" s="272"/>
+      <c r="A2" s="271" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="271"/>
+      <c r="C2" s="271"/>
+      <c r="D2" s="271"/>
+      <c r="E2" s="271"/>
+      <c r="F2" s="271"/>
+      <c r="G2" s="271"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="76"/>
@@ -9585,29 +9593,29 @@
     </row>
     <row r="6" spans="1:22" ht="21.75" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="273" t="s">
+      <c r="B6" s="272" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="274"/>
-      <c r="D6" s="274"/>
-      <c r="E6" s="274"/>
-      <c r="F6" s="274"/>
-      <c r="G6" s="275"/>
+      <c r="C6" s="273"/>
+      <c r="D6" s="273"/>
+      <c r="E6" s="273"/>
+      <c r="F6" s="273"/>
+      <c r="G6" s="274"/>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="58"/>
-      <c r="B7" s="281" t="s">
+      <c r="B7" s="280" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="281"/>
-      <c r="D7" s="279" t="s">
+      <c r="C7" s="280"/>
+      <c r="D7" s="278" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="280"/>
-      <c r="F7" s="278" t="s">
+      <c r="E7" s="279"/>
+      <c r="F7" s="277" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="278"/>
+      <c r="G7" s="277"/>
       <c r="V7" t="s">
         <v>110</v>
       </c>
@@ -9684,16 +9692,16 @@
         <v>214</v>
       </c>
       <c r="B11" s="34">
-        <v>33881</v>
+        <v>33880</v>
       </c>
       <c r="C11" s="119">
-        <v>78.036253099999996</v>
+        <v>78.033949800000002</v>
       </c>
       <c r="D11" s="34">
-        <v>18534</v>
+        <v>18533</v>
       </c>
       <c r="E11" s="54">
-        <v>76.391064200000002</v>
+        <v>76.386942500000004</v>
       </c>
       <c r="F11" s="34">
         <v>15347</v>
@@ -9707,43 +9715,43 @@
         <v>205</v>
       </c>
       <c r="B12" s="34">
-        <v>6592</v>
+        <v>6664</v>
       </c>
       <c r="C12" s="119">
-        <v>15.182992799999999</v>
+        <v>15.348826499999999</v>
       </c>
       <c r="D12" s="34">
-        <v>4017</v>
+        <v>4066</v>
       </c>
       <c r="E12" s="54">
-        <v>16.5567554</v>
+        <v>16.758717300000001</v>
       </c>
       <c r="F12" s="34">
-        <v>2575</v>
+        <v>2598</v>
       </c>
       <c r="G12" s="54">
-        <v>13.442965299999999</v>
+        <v>13.5630384</v>
       </c>
     </row>
     <row r="13" spans="1:22" s="30" customFormat="1">
       <c r="A13" s="17"/>
       <c r="B13" s="118">
-        <v>4305</v>
+        <v>4314</v>
       </c>
       <c r="C13" s="121">
-        <v>9.9154709000000008</v>
+        <v>9.9362001000000006</v>
       </c>
       <c r="D13" s="118">
-        <v>3075</v>
+        <v>3082</v>
       </c>
       <c r="E13" s="81">
-        <v>12.674140599999999</v>
+        <v>12.7029923</v>
       </c>
       <c r="F13" s="118">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="G13" s="82">
-        <v>6.4212999000000002</v>
+        <v>6.4317411</v>
       </c>
     </row>
     <row r="14" spans="1:22" s="30" customFormat="1">
@@ -10255,22 +10263,22 @@
         <v>133</v>
       </c>
       <c r="B36" s="29">
-        <v>2702</v>
+        <v>2719</v>
       </c>
       <c r="C36" s="119">
-        <v>6.2233687</v>
+        <v>6.2625238999999997</v>
       </c>
       <c r="D36" s="29">
-        <v>1273</v>
+        <v>1281</v>
       </c>
       <c r="E36" s="54">
-        <v>5.2468880999999996</v>
+        <v>5.2798615</v>
       </c>
       <c r="F36" s="60">
-        <v>1429</v>
+        <v>1438</v>
       </c>
       <c r="G36" s="54">
-        <v>7.4601932</v>
+        <v>7.5071782999999996</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="14.25" thickBot="1">
@@ -10278,56 +10286,56 @@
         <v>146</v>
       </c>
       <c r="B37" s="52">
-        <v>7847</v>
+        <v>7901</v>
       </c>
       <c r="C37" s="120">
-        <v>18.0735657</v>
+        <v>18.197940899999999</v>
       </c>
       <c r="D37" s="52">
-        <v>3547</v>
+        <v>3581</v>
       </c>
       <c r="E37" s="69">
-        <v>14.6195697</v>
+        <v>14.7597065</v>
       </c>
       <c r="F37" s="52">
-        <v>4300</v>
+        <v>4320</v>
       </c>
       <c r="G37" s="69">
-        <v>22.4484469</v>
+        <v>22.5528583</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="24" customHeight="1" thickTop="1">
-      <c r="A38" s="276" t="s">
+      <c r="A38" s="275" t="s">
         <v>182</v>
       </c>
-      <c r="B38" s="276"/>
-      <c r="C38" s="276"/>
-      <c r="D38" s="276"/>
-      <c r="E38" s="276"/>
-      <c r="F38" s="276"/>
-      <c r="G38" s="276"/>
+      <c r="B38" s="275"/>
+      <c r="C38" s="275"/>
+      <c r="D38" s="275"/>
+      <c r="E38" s="275"/>
+      <c r="F38" s="275"/>
+      <c r="G38" s="275"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="282" t="s">
+      <c r="A39" s="281" t="s">
         <v>177</v>
       </c>
-      <c r="B39" s="282"/>
-      <c r="C39" s="282"/>
-      <c r="D39" s="282"/>
-      <c r="E39" s="282"/>
-      <c r="F39" s="282"/>
-      <c r="G39" s="282"/>
+      <c r="B39" s="281"/>
+      <c r="C39" s="281"/>
+      <c r="D39" s="281"/>
+      <c r="E39" s="281"/>
+      <c r="F39" s="281"/>
+      <c r="G39" s="281"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="277" t="s">
+      <c r="A40" s="276" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="277"/>
-      <c r="C40" s="277"/>
-      <c r="D40" s="277"/>
-      <c r="E40" s="277"/>
-      <c r="F40" s="277"/>
-      <c r="G40" s="277"/>
+      <c r="B40" s="276"/>
+      <c r="C40" s="276"/>
+      <c r="D40" s="276"/>
+      <c r="E40" s="276"/>
+      <c r="F40" s="276"/>
+      <c r="G40" s="276"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="47"/>
@@ -10379,15 +10387,15 @@
       <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A2" s="283" t="s">
-        <v>239</v>
-      </c>
-      <c r="B2" s="283"/>
-      <c r="C2" s="283"/>
-      <c r="D2" s="283"/>
-      <c r="E2" s="283"/>
-      <c r="F2" s="283"/>
-      <c r="G2" s="283"/>
+      <c r="A2" s="282" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="282"/>
+      <c r="C2" s="282"/>
+      <c r="D2" s="282"/>
+      <c r="E2" s="282"/>
+      <c r="F2" s="282"/>
+      <c r="G2" s="282"/>
       <c r="H2" s="76"/>
       <c r="I2" s="76"/>
     </row>
@@ -10396,30 +10404,30 @@
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="285" t="s">
+      <c r="B5" s="284" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="286"/>
-      <c r="D5" s="285" t="s">
+      <c r="C5" s="285"/>
+      <c r="D5" s="284" t="s">
         <v>214</v>
       </c>
-      <c r="E5" s="286"/>
-      <c r="F5" s="285" t="s">
+      <c r="E5" s="285"/>
+      <c r="F5" s="284" t="s">
         <v>205</v>
       </c>
-      <c r="G5" s="286"/>
+      <c r="G5" s="285"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="287"/>
-      <c r="B6" s="280"/>
-      <c r="C6" s="279"/>
-      <c r="D6" s="280"/>
-      <c r="E6" s="279"/>
-      <c r="F6" s="280"/>
-      <c r="G6" s="279"/>
+      <c r="A6" s="286"/>
+      <c r="B6" s="279"/>
+      <c r="C6" s="278"/>
+      <c r="D6" s="279"/>
+      <c r="E6" s="278"/>
+      <c r="F6" s="279"/>
+      <c r="G6" s="278"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="288"/>
+      <c r="A7" s="287"/>
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
@@ -10450,16 +10458,16 @@
         <v>100</v>
       </c>
       <c r="D8" s="88">
-        <v>33881</v>
+        <v>33880</v>
       </c>
       <c r="E8" s="128">
-        <v>78.036253080590598</v>
+        <v>78.033949835317998</v>
       </c>
       <c r="F8" s="88">
-        <v>6592</v>
+        <v>6664</v>
       </c>
       <c r="G8" s="128">
-        <v>15.1829928369072</v>
+        <v>15.348826496533601</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -10502,10 +10510,10 @@
         <v>76.487856952228498</v>
       </c>
       <c r="F10" s="103">
-        <v>2368</v>
+        <v>2388</v>
       </c>
       <c r="G10" s="127">
-        <v>15.7993061115559</v>
+        <v>15.9327461969576</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -10525,10 +10533,10 @@
         <v>77.189109639440801</v>
       </c>
       <c r="F11" s="103">
-        <v>1081</v>
+        <v>1103</v>
       </c>
       <c r="G11" s="127">
-        <v>15.9087564385578</v>
+        <v>16.2325239146431</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -10548,10 +10556,10 @@
         <v>81.406283393887605</v>
       </c>
       <c r="F12" s="103">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="G12" s="127">
-        <v>15.238298781791</v>
+        <v>15.345159222055999</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -10571,10 +10579,10 @@
         <v>79.685393258426998</v>
       </c>
       <c r="F13" s="103">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="G13" s="127">
-        <v>11.5955056179775</v>
+        <v>11.8202247191011</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -10594,10 +10602,10 @@
         <v>81.090909090909093</v>
       </c>
       <c r="F14" s="103">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G14" s="127">
-        <v>13.454545454545499</v>
+        <v>13.5151515151515</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -10611,16 +10619,16 @@
         <v>3.58845613469378</v>
       </c>
       <c r="D15" s="103">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="E15" s="127">
-        <v>80.487804878048806</v>
+        <v>80.423620025673998</v>
       </c>
       <c r="F15" s="103">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G15" s="127">
-        <v>15.982028241335</v>
+        <v>16.1745827984596</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -10640,10 +10648,10 @@
         <v>77.680965147453094</v>
       </c>
       <c r="F16" s="103">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G16" s="127">
-        <v>15.884718498659501</v>
+        <v>15.9517426273458</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -10686,10 +10694,10 @@
         <v>74.635332252836307</v>
       </c>
       <c r="F18" s="103">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G18" s="127">
-        <v>12.2366288492707</v>
+        <v>12.4797406807131</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -10709,10 +10717,10 @@
         <v>86.503067484662594</v>
       </c>
       <c r="F19" s="103">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G19" s="127">
-        <v>11.349693251533701</v>
+        <v>11.451942740286301</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -10755,10 +10763,10 @@
         <v>69.7175141242938</v>
       </c>
       <c r="F21" s="103">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G21" s="127">
-        <v>18.079096045197701</v>
+        <v>18.1920903954802</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -10778,10 +10786,10 @@
         <v>85.204755614266901</v>
       </c>
       <c r="F22" s="103">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G22" s="127">
-        <v>12.4174372523118</v>
+        <v>12.549537648612899</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -10801,10 +10809,10 @@
         <v>68.4722222222222</v>
       </c>
       <c r="F23" s="103">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G23" s="127">
-        <v>18.3333333333333</v>
+        <v>18.8888888888889</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -10824,10 +10832,10 @@
         <v>81.805359661495103</v>
       </c>
       <c r="F24" s="103">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G24" s="127">
-        <v>10.578279266572601</v>
+        <v>10.7193229901269</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -10847,10 +10855,10 @@
         <v>79.603399433427796</v>
       </c>
       <c r="F25" s="103">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G25" s="127">
-        <v>13.7393767705382</v>
+        <v>14.022662889518401</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -10870,10 +10878,10 @@
         <v>68.126888217522705</v>
       </c>
       <c r="F26" s="103">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G26" s="127">
-        <v>16.465256797583098</v>
+        <v>16.616314199395799</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -10901,7 +10909,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="30" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B28" s="92">
         <v>386</v>
@@ -10962,10 +10970,10 @@
         <v>69.523809523809504</v>
       </c>
       <c r="F30" s="150">
-        <v>13</v>
-      </c>
-      <c r="G30" s="149">
-        <v>12.380952380952399</v>
+        <v>14</v>
+      </c>
+      <c r="G30" s="228">
+        <v>13.3333333333333</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -10990,13 +10998,13 @@
       <c r="C33" s="80"/>
     </row>
     <row r="34" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A34" s="284"/>
-      <c r="B34" s="284"/>
-      <c r="C34" s="284"/>
-      <c r="D34" s="284"/>
-      <c r="E34" s="284"/>
-      <c r="F34" s="284"/>
-      <c r="G34" s="284"/>
+      <c r="A34" s="283"/>
+      <c r="B34" s="283"/>
+      <c r="C34" s="283"/>
+      <c r="D34" s="283"/>
+      <c r="E34" s="283"/>
+      <c r="F34" s="283"/>
+      <c r="G34" s="283"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -11053,17 +11061,17 @@
       </c>
     </row>
     <row r="2" spans="1:97" ht="30" customHeight="1">
-      <c r="A2" s="272" t="s">
-        <v>284</v>
-      </c>
-      <c r="B2" s="272"/>
-      <c r="C2" s="272"/>
-      <c r="D2" s="272"/>
-      <c r="E2" s="272"/>
-      <c r="F2" s="272"/>
-      <c r="G2" s="272"/>
-      <c r="H2" s="272"/>
-      <c r="I2" s="272"/>
+      <c r="A2" s="271" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="271"/>
+      <c r="C2" s="271"/>
+      <c r="D2" s="271"/>
+      <c r="E2" s="271"/>
+      <c r="F2" s="271"/>
+      <c r="G2" s="271"/>
+      <c r="H2" s="271"/>
+      <c r="I2" s="271"/>
     </row>
     <row r="3" spans="1:97">
       <c r="A3" s="61"/>
@@ -11084,304 +11092,304 @@
     </row>
     <row r="5" spans="1:97" ht="28.5" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="285" t="s">
+      <c r="B5" s="284" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="286"/>
-      <c r="D5" s="273" t="s">
+      <c r="C5" s="285"/>
+      <c r="D5" s="223" t="s">
         <v>193</v>
       </c>
-      <c r="E5" s="274"/>
-      <c r="F5" s="274"/>
-      <c r="G5" s="274"/>
-      <c r="H5" s="274"/>
-      <c r="I5" s="274"/>
-      <c r="J5" s="274"/>
-      <c r="K5" s="274"/>
-      <c r="L5" s="274"/>
-      <c r="M5" s="274"/>
-      <c r="N5" s="274"/>
-      <c r="O5" s="274"/>
-      <c r="P5" s="274"/>
-      <c r="Q5" s="274"/>
-      <c r="R5" s="274"/>
-      <c r="S5" s="274"/>
-      <c r="T5" s="274"/>
-      <c r="U5" s="274"/>
-      <c r="V5" s="274"/>
-      <c r="W5" s="274"/>
-      <c r="X5" s="274"/>
-      <c r="Y5" s="274"/>
-      <c r="Z5" s="274"/>
-      <c r="AA5" s="274"/>
-      <c r="AB5" s="274"/>
-      <c r="AC5" s="274"/>
-      <c r="AD5" s="274"/>
-      <c r="AE5" s="274"/>
-      <c r="AF5" s="274"/>
-      <c r="AG5" s="274"/>
-      <c r="AH5" s="274"/>
-      <c r="AI5" s="274"/>
-      <c r="AJ5" s="274"/>
-      <c r="AK5" s="274"/>
-      <c r="AL5" s="274"/>
-      <c r="AM5" s="274"/>
-      <c r="AN5" s="274"/>
-      <c r="AO5" s="274"/>
-      <c r="AP5" s="274"/>
-      <c r="AQ5" s="274"/>
-      <c r="AR5" s="274"/>
-      <c r="AS5" s="274"/>
-      <c r="AT5" s="274"/>
-      <c r="AU5" s="274"/>
-      <c r="AV5" s="274"/>
-      <c r="AW5" s="274"/>
-      <c r="AX5" s="274"/>
-      <c r="AY5" s="274"/>
-      <c r="AZ5" s="274"/>
-      <c r="BA5" s="274"/>
-      <c r="BB5" s="274"/>
-      <c r="BC5" s="274"/>
-      <c r="BD5" s="274"/>
-      <c r="BE5" s="274"/>
-      <c r="BF5" s="274"/>
-      <c r="BG5" s="274"/>
-      <c r="BH5" s="274"/>
-      <c r="BI5" s="274"/>
-      <c r="BJ5" s="274"/>
-      <c r="BK5" s="274"/>
-      <c r="BL5" s="274"/>
-      <c r="BM5" s="274"/>
-      <c r="BN5" s="274"/>
-      <c r="BO5" s="274"/>
-      <c r="BP5" s="274"/>
-      <c r="BQ5" s="274"/>
-      <c r="BR5" s="274"/>
-      <c r="BS5" s="274"/>
-      <c r="BT5" s="274"/>
-      <c r="BU5" s="274"/>
-      <c r="BV5" s="274"/>
-      <c r="BW5" s="274"/>
-      <c r="BX5" s="274"/>
-      <c r="BY5" s="274"/>
-      <c r="BZ5" s="274"/>
-      <c r="CA5" s="274"/>
-      <c r="CB5" s="274"/>
-      <c r="CC5" s="274"/>
-      <c r="CD5" s="274"/>
-      <c r="CE5" s="300"/>
-      <c r="CF5" s="299" t="s">
+      <c r="E5" s="224"/>
+      <c r="F5" s="224"/>
+      <c r="G5" s="224"/>
+      <c r="H5" s="224"/>
+      <c r="I5" s="224"/>
+      <c r="J5" s="224"/>
+      <c r="K5" s="224"/>
+      <c r="L5" s="224"/>
+      <c r="M5" s="224"/>
+      <c r="N5" s="224"/>
+      <c r="O5" s="224"/>
+      <c r="P5" s="224"/>
+      <c r="Q5" s="224"/>
+      <c r="R5" s="224"/>
+      <c r="S5" s="224"/>
+      <c r="T5" s="224"/>
+      <c r="U5" s="224"/>
+      <c r="V5" s="224"/>
+      <c r="W5" s="224"/>
+      <c r="X5" s="224"/>
+      <c r="Y5" s="224"/>
+      <c r="Z5" s="224"/>
+      <c r="AA5" s="224"/>
+      <c r="AB5" s="224"/>
+      <c r="AC5" s="224"/>
+      <c r="AD5" s="224"/>
+      <c r="AE5" s="224"/>
+      <c r="AF5" s="224"/>
+      <c r="AG5" s="224"/>
+      <c r="AH5" s="224"/>
+      <c r="AI5" s="224"/>
+      <c r="AJ5" s="224"/>
+      <c r="AK5" s="224"/>
+      <c r="AL5" s="224"/>
+      <c r="AM5" s="224"/>
+      <c r="AN5" s="224"/>
+      <c r="AO5" s="224"/>
+      <c r="AP5" s="224"/>
+      <c r="AQ5" s="224"/>
+      <c r="AR5" s="224"/>
+      <c r="AS5" s="224"/>
+      <c r="AT5" s="224"/>
+      <c r="AU5" s="224"/>
+      <c r="AV5" s="224"/>
+      <c r="AW5" s="224"/>
+      <c r="AX5" s="224"/>
+      <c r="AY5" s="224"/>
+      <c r="AZ5" s="224"/>
+      <c r="BA5" s="224"/>
+      <c r="BB5" s="224"/>
+      <c r="BC5" s="224"/>
+      <c r="BD5" s="222"/>
+      <c r="BE5" s="222"/>
+      <c r="BF5" s="222"/>
+      <c r="BG5" s="222"/>
+      <c r="BH5" s="222"/>
+      <c r="BI5" s="222"/>
+      <c r="BJ5" s="222"/>
+      <c r="BK5" s="222"/>
+      <c r="BL5" s="222"/>
+      <c r="BM5" s="222"/>
+      <c r="BN5" s="222"/>
+      <c r="BO5" s="222"/>
+      <c r="BP5" s="222"/>
+      <c r="BQ5" s="222"/>
+      <c r="BR5" s="222"/>
+      <c r="BS5" s="222"/>
+      <c r="BT5" s="224"/>
+      <c r="BU5" s="224"/>
+      <c r="BV5" s="224"/>
+      <c r="BW5" s="224"/>
+      <c r="BX5" s="224"/>
+      <c r="BY5" s="224"/>
+      <c r="BZ5" s="224"/>
+      <c r="CA5" s="224"/>
+      <c r="CB5" s="224"/>
+      <c r="CC5" s="224"/>
+      <c r="CD5" s="224"/>
+      <c r="CE5" s="225"/>
+      <c r="CF5" s="290" t="s">
         <v>194</v>
       </c>
-      <c r="CG5" s="274"/>
-      <c r="CH5" s="274"/>
-      <c r="CI5" s="274"/>
-      <c r="CJ5" s="274"/>
-      <c r="CK5" s="274"/>
-      <c r="CL5" s="274"/>
-      <c r="CM5" s="274"/>
-      <c r="CN5" s="274"/>
-      <c r="CO5" s="274"/>
-      <c r="CP5" s="274"/>
-      <c r="CQ5" s="274"/>
-      <c r="CR5" s="274"/>
-      <c r="CS5" s="274"/>
+      <c r="CG5" s="273"/>
+      <c r="CH5" s="273"/>
+      <c r="CI5" s="273"/>
+      <c r="CJ5" s="273"/>
+      <c r="CK5" s="273"/>
+      <c r="CL5" s="273"/>
+      <c r="CM5" s="273"/>
+      <c r="CN5" s="273"/>
+      <c r="CO5" s="273"/>
+      <c r="CP5" s="273"/>
+      <c r="CQ5" s="273"/>
+      <c r="CR5" s="273"/>
+      <c r="CS5" s="273"/>
     </row>
     <row r="6" spans="1:97" ht="13.5" customHeight="1">
-      <c r="A6" s="297"/>
-      <c r="B6" s="295"/>
-      <c r="C6" s="296"/>
-      <c r="D6" s="293" t="s">
+      <c r="A6" s="295"/>
+      <c r="B6" s="293"/>
+      <c r="C6" s="294"/>
+      <c r="D6" s="291" t="s">
         <v>195</v>
       </c>
       <c r="E6" s="292"/>
-      <c r="F6" s="293" t="s">
+      <c r="F6" s="291" t="s">
         <v>196</v>
       </c>
       <c r="G6" s="292"/>
-      <c r="H6" s="293" t="s">
+      <c r="H6" s="291" t="s">
         <v>191</v>
       </c>
       <c r="I6" s="292"/>
-      <c r="J6" s="293" t="s">
+      <c r="J6" s="291" t="s">
         <v>167</v>
       </c>
       <c r="K6" s="292"/>
-      <c r="L6" s="293" t="s">
+      <c r="L6" s="291" t="s">
         <v>168</v>
       </c>
       <c r="M6" s="292"/>
-      <c r="N6" s="293" t="s">
+      <c r="N6" s="291" t="s">
         <v>169</v>
       </c>
       <c r="O6" s="292"/>
-      <c r="P6" s="293" t="s">
+      <c r="P6" s="291" t="s">
         <v>170</v>
       </c>
       <c r="Q6" s="292"/>
-      <c r="R6" s="293" t="s">
+      <c r="R6" s="291" t="s">
         <v>171</v>
       </c>
       <c r="S6" s="292"/>
-      <c r="T6" s="293" t="s">
+      <c r="T6" s="291" t="s">
         <v>172</v>
       </c>
       <c r="U6" s="292"/>
-      <c r="V6" s="293" t="s">
+      <c r="V6" s="291" t="s">
         <v>173</v>
       </c>
       <c r="W6" s="292"/>
-      <c r="X6" s="293" t="s">
+      <c r="X6" s="291" t="s">
         <v>174</v>
       </c>
       <c r="Y6" s="292"/>
-      <c r="Z6" s="293" t="s">
+      <c r="Z6" s="291" t="s">
         <v>175</v>
       </c>
       <c r="AA6" s="292"/>
-      <c r="AB6" s="293" t="s">
+      <c r="AB6" s="291" t="s">
         <v>201</v>
       </c>
       <c r="AC6" s="292"/>
-      <c r="AD6" s="293" t="s">
+      <c r="AD6" s="291" t="s">
         <v>222</v>
       </c>
       <c r="AE6" s="292"/>
-      <c r="AF6" s="293" t="s">
+      <c r="AF6" s="291" t="s">
         <v>230</v>
       </c>
       <c r="AG6" s="292"/>
-      <c r="AH6" s="293" t="s">
+      <c r="AH6" s="291" t="s">
         <v>234</v>
       </c>
       <c r="AI6" s="292"/>
-      <c r="AJ6" s="293" t="s">
-        <v>240</v>
+      <c r="AJ6" s="291" t="s">
+        <v>243</v>
       </c>
       <c r="AK6" s="292"/>
-      <c r="AL6" s="293" t="s">
-        <v>241</v>
+      <c r="AL6" s="291" t="s">
+        <v>244</v>
       </c>
       <c r="AM6" s="292"/>
-      <c r="AN6" s="293" t="s">
-        <v>242</v>
+      <c r="AN6" s="291" t="s">
+        <v>245</v>
       </c>
       <c r="AO6" s="292"/>
-      <c r="AP6" s="293" t="s">
-        <v>243</v>
+      <c r="AP6" s="291" t="s">
+        <v>246</v>
       </c>
       <c r="AQ6" s="292"/>
-      <c r="AR6" s="293" t="s">
-        <v>244</v>
+      <c r="AR6" s="291" t="s">
+        <v>247</v>
       </c>
       <c r="AS6" s="292"/>
-      <c r="AT6" s="293" t="s">
-        <v>245</v>
+      <c r="AT6" s="291" t="s">
+        <v>248</v>
       </c>
       <c r="AU6" s="292"/>
-      <c r="AV6" s="293" t="s">
-        <v>246</v>
+      <c r="AV6" s="291" t="s">
+        <v>249</v>
       </c>
       <c r="AW6" s="292"/>
-      <c r="AX6" s="293" t="s">
-        <v>247</v>
+      <c r="AX6" s="291" t="s">
+        <v>250</v>
       </c>
       <c r="AY6" s="292"/>
-      <c r="AZ6" s="293" t="s">
-        <v>248</v>
-      </c>
-      <c r="BA6" s="294"/>
-      <c r="BB6" s="289" t="s">
-        <v>250</v>
-      </c>
-      <c r="BC6" s="298"/>
-      <c r="BD6" s="289" t="s">
+      <c r="AZ6" s="291" t="s">
         <v>251</v>
       </c>
-      <c r="BE6" s="290"/>
-      <c r="BF6" s="289" t="s">
-        <v>252</v>
-      </c>
-      <c r="BG6" s="290"/>
-      <c r="BH6" s="289" t="s">
+      <c r="BA6" s="297"/>
+      <c r="BB6" s="288" t="s">
+        <v>253</v>
+      </c>
+      <c r="BC6" s="296"/>
+      <c r="BD6" s="288" t="s">
         <v>254</v>
       </c>
-      <c r="BI6" s="290"/>
-      <c r="BJ6" s="289" t="s">
-        <v>253</v>
-      </c>
-      <c r="BK6" s="290"/>
-      <c r="BL6" s="289" t="s">
+      <c r="BE6" s="289"/>
+      <c r="BF6" s="288" t="s">
         <v>255</v>
       </c>
-      <c r="BM6" s="290"/>
-      <c r="BN6" s="289" t="s">
+      <c r="BG6" s="289"/>
+      <c r="BH6" s="288" t="s">
+        <v>257</v>
+      </c>
+      <c r="BI6" s="289"/>
+      <c r="BJ6" s="288" t="s">
+        <v>256</v>
+      </c>
+      <c r="BK6" s="289"/>
+      <c r="BL6" s="288" t="s">
         <v>258</v>
       </c>
-      <c r="BO6" s="290"/>
-      <c r="BP6" s="289" t="s">
-        <v>259</v>
-      </c>
-      <c r="BQ6" s="290"/>
-      <c r="BR6" s="289" t="s">
+      <c r="BM6" s="289"/>
+      <c r="BN6" s="288" t="s">
+        <v>261</v>
+      </c>
+      <c r="BO6" s="289"/>
+      <c r="BP6" s="288" t="s">
+        <v>262</v>
+      </c>
+      <c r="BQ6" s="289"/>
+      <c r="BR6" s="288" t="s">
+        <v>268</v>
+      </c>
+      <c r="BS6" s="289"/>
+      <c r="BT6" s="288" t="s">
+        <v>267</v>
+      </c>
+      <c r="BU6" s="289"/>
+      <c r="BV6" s="288" t="s">
+        <v>266</v>
+      </c>
+      <c r="BW6" s="289"/>
+      <c r="BX6" s="288" t="s">
         <v>265</v>
       </c>
-      <c r="BS6" s="290"/>
-      <c r="BT6" s="289" t="s">
+      <c r="BY6" s="289"/>
+      <c r="BZ6" s="288" t="s">
         <v>264</v>
       </c>
-      <c r="BU6" s="290"/>
-      <c r="BV6" s="289" t="s">
+      <c r="CA6" s="289"/>
+      <c r="CB6" s="288" t="s">
         <v>263</v>
       </c>
-      <c r="BW6" s="290"/>
-      <c r="BX6" s="289" t="s">
-        <v>262</v>
-      </c>
-      <c r="BY6" s="290"/>
-      <c r="BZ6" s="289" t="s">
-        <v>261</v>
-      </c>
-      <c r="CA6" s="290"/>
-      <c r="CB6" s="289" t="s">
-        <v>260</v>
-      </c>
-      <c r="CC6" s="290"/>
-      <c r="CD6" s="289" t="s">
-        <v>267</v>
-      </c>
-      <c r="CE6" s="290"/>
-      <c r="CF6" s="289" t="s">
-        <v>266</v>
-      </c>
-      <c r="CG6" s="290"/>
-      <c r="CH6" s="289" t="s">
-        <v>268</v>
-      </c>
-      <c r="CI6" s="290"/>
-      <c r="CJ6" s="289" t="s">
+      <c r="CC6" s="289"/>
+      <c r="CD6" s="288" t="s">
+        <v>270</v>
+      </c>
+      <c r="CE6" s="289"/>
+      <c r="CF6" s="288" t="s">
         <v>269</v>
       </c>
-      <c r="CK6" s="290"/>
-      <c r="CL6" s="289" t="s">
-        <v>270</v>
-      </c>
-      <c r="CM6" s="290"/>
-      <c r="CN6" s="291" t="s">
-        <v>280</v>
-      </c>
-      <c r="CO6" s="292"/>
-      <c r="CP6" s="291" t="s">
-        <v>281</v>
-      </c>
-      <c r="CQ6" s="292"/>
-      <c r="CR6" s="291" t="s">
-        <v>282</v>
-      </c>
-      <c r="CS6" s="292"/>
+      <c r="CG6" s="289"/>
+      <c r="CH6" s="288" t="s">
+        <v>271</v>
+      </c>
+      <c r="CI6" s="289"/>
+      <c r="CJ6" s="288" t="s">
+        <v>272</v>
+      </c>
+      <c r="CK6" s="289"/>
+      <c r="CL6" s="288" t="s">
+        <v>273</v>
+      </c>
+      <c r="CM6" s="289"/>
+      <c r="CN6" s="288" t="s">
+        <v>274</v>
+      </c>
+      <c r="CO6" s="289"/>
+      <c r="CP6" s="288" t="s">
+        <v>275</v>
+      </c>
+      <c r="CQ6" s="289"/>
+      <c r="CR6" s="288" t="s">
+        <v>276</v>
+      </c>
+      <c r="CS6" s="289"/>
     </row>
     <row r="7" spans="1:97">
-      <c r="A7" s="297"/>
+      <c r="A7" s="295"/>
       <c r="B7" s="191" t="s">
         <v>5</v>
       </c>
@@ -11951,13 +11959,13 @@
       <c r="CO8" s="163">
         <v>3.7105281341410099</v>
       </c>
-      <c r="CP8" s="163">
+      <c r="CP8" s="164">
         <v>1049</v>
       </c>
       <c r="CQ8" s="163">
         <v>2.41610429094594</v>
       </c>
-      <c r="CR8" s="163">
+      <c r="CR8" s="164">
         <v>267</v>
       </c>
       <c r="CS8" s="163">
@@ -12061,13 +12069,9 @@
       <c r="CN9" s="65"/>
       <c r="CO9" s="169"/>
       <c r="CP9" s="65"/>
-      <c r="CQ9" s="169" t="s">
-        <v>110</v>
-      </c>
+      <c r="CQ9" s="169"/>
       <c r="CR9" s="65"/>
-      <c r="CS9" s="169" t="s">
-        <v>110</v>
-      </c>
+      <c r="CS9" s="169"/>
     </row>
     <row r="10" spans="1:97">
       <c r="A10" s="68" t="s">
@@ -12666,7 +12670,7 @@
         <v>10.7768846304443</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="E12" s="163" t="s">
         <v>110</v>
@@ -12942,7 +12946,7 @@
         <v>3.7401154092754898</v>
       </c>
       <c r="CR12" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="CS12" s="163" t="s">
         <v>110</v>
@@ -13097,7 +13101,7 @@
         <v>0.17977528089888001</v>
       </c>
       <c r="AX13" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AY13" s="163" t="s">
         <v>110</v>
@@ -13115,7 +13119,7 @@
         <v>0.35955056179775002</v>
       </c>
       <c r="BD13" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BE13" s="163" t="s">
         <v>110</v>
@@ -13252,7 +13256,7 @@
         <v>2.9527604394592002</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="E14" s="163" t="s">
         <v>110</v>
@@ -13372,13 +13376,13 @@
         <v>0.54602184087364003</v>
       </c>
       <c r="AR14" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AS14" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AT14" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AU14" s="163" t="s">
         <v>110</v>
@@ -13390,19 +13394,19 @@
         <v>0</v>
       </c>
       <c r="AX14" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AY14" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AZ14" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BA14" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BB14" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BC14" s="163" t="s">
         <v>110</v>
@@ -13414,31 +13418,31 @@
         <v>0</v>
       </c>
       <c r="BF14" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BG14" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BH14" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BI14" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BJ14" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BK14" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BL14" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BM14" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BN14" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BO14" s="163" t="s">
         <v>110</v>
@@ -13528,7 +13532,7 @@
         <v>2.3400936037441502</v>
       </c>
       <c r="CR14" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="CS14" s="163" t="s">
         <v>110</v>
@@ -13545,7 +13549,7 @@
         <v>3.8003546997719799</v>
       </c>
       <c r="D15" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="E15" s="163" t="s">
         <v>110</v>
@@ -13689,13 +13693,13 @@
         <v>0.42424242424241998</v>
       </c>
       <c r="AZ15" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BA15" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BB15" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BC15" s="163" t="s">
         <v>110</v>
@@ -13713,19 +13717,19 @@
         <v>0.36363636363635998</v>
       </c>
       <c r="BH15" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BI15" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BJ15" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BK15" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BL15" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BM15" s="163" t="s">
         <v>110</v>
@@ -14006,7 +14010,7 @@
         <v>0.70603337612324002</v>
       </c>
       <c r="BH16" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BI16" s="163" t="s">
         <v>110</v>
@@ -14114,7 +14118,7 @@
         <v>1.5404364569961499</v>
       </c>
       <c r="CR16" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="CS16" s="163" t="s">
         <v>110</v>
@@ -14131,7 +14135,7 @@
         <v>3.4364419467028999</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="E17" s="163" t="s">
         <v>110</v>
@@ -14239,25 +14243,25 @@
         <v>0.73726541554960001</v>
       </c>
       <c r="AN17" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AO17" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AP17" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AQ17" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AR17" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AS17" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AT17" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AU17" s="163" t="s">
         <v>110</v>
@@ -14275,13 +14279,13 @@
         <v>0.26809651474530999</v>
       </c>
       <c r="AZ17" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BA17" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BB17" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BC17" s="163" t="s">
         <v>110</v>
@@ -14299,7 +14303,7 @@
         <v>0.26809651474530999</v>
       </c>
       <c r="BH17" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BI17" s="163" t="s">
         <v>110</v>
@@ -14407,7 +14411,7 @@
         <v>1.27345844504021</v>
       </c>
       <c r="CR17" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="CS17" s="163" t="s">
         <v>110</v>
@@ -14430,7 +14434,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="G18" s="163" t="s">
         <v>110</v>
@@ -14574,7 +14578,7 @@
         <v>0.64829821717989999</v>
       </c>
       <c r="BB18" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BC18" s="163" t="s">
         <v>110</v>
@@ -14586,13 +14590,13 @@
         <v>0.40518638573743998</v>
       </c>
       <c r="BF18" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BG18" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BH18" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BI18" s="163" t="s">
         <v>110</v>
@@ -14700,7 +14704,7 @@
         <v>1.53970826580227</v>
       </c>
       <c r="CR18" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="CS18" s="163" t="s">
         <v>110</v>
@@ -14723,7 +14727,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="G19" s="163" t="s">
         <v>110</v>
@@ -14903,7 +14907,7 @@
         <v>0.70521861777150996</v>
       </c>
       <c r="BN19" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BO19" s="163" t="s">
         <v>110</v>
@@ -14950,53 +14954,53 @@
       <c r="CC19" s="163">
         <v>1.69252468265162</v>
       </c>
-      <c r="CD19" s="226" t="s">
-        <v>272</v>
-      </c>
-      <c r="CE19" s="227" t="s">
-        <v>273</v>
+      <c r="CD19" s="164">
+        <v>0</v>
+      </c>
+      <c r="CE19" s="163">
+        <v>0</v>
       </c>
       <c r="CF19" s="226" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="CG19" s="227" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CH19" s="226" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="CI19" s="227" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CJ19" s="226" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="CK19" s="227" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CL19" s="226" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="CM19" s="227" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CN19" s="226" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="CO19" s="227" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CP19" s="226" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="CQ19" s="227" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CR19" s="226" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="CS19" s="227" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:97">
@@ -15010,13 +15014,13 @@
         <v>2.2525738765921202</v>
       </c>
       <c r="D20" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="E20" s="163" t="s">
         <v>110</v>
       </c>
       <c r="F20" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="G20" s="163" t="s">
         <v>110</v>
@@ -15118,19 +15122,19 @@
         <v>0.71574642126789001</v>
       </c>
       <c r="AN20" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AO20" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AP20" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AQ20" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AR20" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AS20" s="163" t="s">
         <v>110</v>
@@ -15142,37 +15146,37 @@
         <v>0.40899795501023001</v>
       </c>
       <c r="AV20" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AW20" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AX20" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AY20" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AZ20" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BA20" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BB20" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BC20" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BD20" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BE20" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BF20" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BG20" s="163" t="s">
         <v>110</v>
@@ -15184,7 +15188,7 @@
         <v>0.40899795501023001</v>
       </c>
       <c r="BJ20" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BK20" s="163" t="s">
         <v>110</v>
@@ -15285,11 +15289,11 @@
       <c r="CQ20" s="163">
         <v>0.81799591002045002</v>
       </c>
-      <c r="CR20" s="226" t="s">
-        <v>272</v>
-      </c>
-      <c r="CS20" s="227" t="s">
-        <v>273</v>
+      <c r="CR20" s="164">
+        <v>0</v>
+      </c>
+      <c r="CS20" s="163">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:97">
@@ -15303,7 +15307,7 @@
         <v>2.03837206624133</v>
       </c>
       <c r="D21" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="E21" s="163" t="s">
         <v>110</v>
@@ -15417,7 +15421,7 @@
         <v>1.1299435028248599</v>
       </c>
       <c r="AP21" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AQ21" s="163" t="s">
         <v>110</v>
@@ -15429,25 +15433,25 @@
         <v>0.45197740112994</v>
       </c>
       <c r="AT21" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AU21" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AV21" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AW21" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AX21" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AY21" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AZ21" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BA21" s="163" t="s">
         <v>110</v>
@@ -15459,7 +15463,7 @@
         <v>1.0169491525423699</v>
       </c>
       <c r="BD21" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BE21" s="163" t="s">
         <v>110</v>
@@ -15602,7 +15606,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="G22" s="163" t="s">
         <v>110</v>
@@ -15746,13 +15750,13 @@
         <v>0.89086859688195996</v>
       </c>
       <c r="BB22" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BC22" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BD22" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BE22" s="163" t="s">
         <v>110</v>
@@ -15788,7 +15792,7 @@
         <v>0.89086859688195996</v>
       </c>
       <c r="BP22" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BQ22" s="163" t="s">
         <v>110</v>
@@ -15800,7 +15804,7 @@
         <v>0.44543429844097998</v>
       </c>
       <c r="BT22" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BU22" s="163" t="s">
         <v>110</v>
@@ -15872,7 +15876,7 @@
         <v>1.67037861915368</v>
       </c>
       <c r="CR22" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="CS22" s="163" t="s">
         <v>110</v>
@@ -15889,7 +15893,7 @@
         <v>1.5247483704539699</v>
       </c>
       <c r="D23" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="E23" s="163" t="s">
         <v>110</v>
@@ -16003,13 +16007,13 @@
         <v>1.5105740181268901</v>
       </c>
       <c r="AP23" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AQ23" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AR23" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AS23" s="163" t="s">
         <v>110</v>
@@ -16021,7 +16025,7 @@
         <v>0</v>
       </c>
       <c r="AV23" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AW23" s="163" t="s">
         <v>110</v>
@@ -16033,7 +16037,7 @@
         <v>0.75528700906344004</v>
       </c>
       <c r="AZ23" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BA23" s="163" t="s">
         <v>110</v>
@@ -16051,19 +16055,19 @@
         <v>0.75528700906344004</v>
       </c>
       <c r="BF23" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BG23" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BH23" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BI23" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BJ23" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BK23" s="163" t="s">
         <v>110</v>
@@ -16075,19 +16079,19 @@
         <v>1.0574018126888201</v>
       </c>
       <c r="BN23" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BO23" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BP23" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BQ23" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BR23" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BS23" s="163" t="s">
         <v>110</v>
@@ -16165,7 +16169,7 @@
         <v>1.5105740181268901</v>
       </c>
       <c r="CR23" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="CS23" s="163" t="s">
         <v>110</v>
@@ -16188,7 +16192,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="G24" s="163" t="s">
         <v>110</v>
@@ -16290,25 +16294,25 @@
         <v>0.79260237780713005</v>
       </c>
       <c r="AN24" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AO24" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AP24" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AQ24" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AR24" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AS24" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AT24" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AU24" s="163" t="s">
         <v>110</v>
@@ -16320,13 +16324,13 @@
         <v>0.52840158520475999</v>
       </c>
       <c r="AX24" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AY24" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AZ24" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BA24" s="163" t="s">
         <v>110</v>
@@ -16344,7 +16348,7 @@
         <v>0.52840158520475999</v>
       </c>
       <c r="BF24" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BG24" s="163" t="s">
         <v>110</v>
@@ -16481,7 +16485,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="G25" s="163" t="s">
         <v>110</v>
@@ -16595,25 +16599,25 @@
         <v>0.70821529745042999</v>
       </c>
       <c r="AR25" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AS25" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AT25" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AU25" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AV25" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AW25" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AX25" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AY25" s="163" t="s">
         <v>110</v>
@@ -16631,19 +16635,19 @@
         <v>0.70821529745042999</v>
       </c>
       <c r="BD25" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BE25" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BF25" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BG25" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BH25" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BI25" s="163" t="s">
         <v>110</v>
@@ -16655,19 +16659,19 @@
         <v>0</v>
       </c>
       <c r="BL25" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BM25" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BN25" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BO25" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BP25" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BQ25" s="163" t="s">
         <v>110</v>
@@ -16792,7 +16796,7 @@
         <v>0.97222222222221999</v>
       </c>
       <c r="L26" s="79" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="M26" s="163" t="s">
         <v>110</v>
@@ -16876,19 +16880,19 @@
         <v>0.69444444444443998</v>
       </c>
       <c r="AN26" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AO26" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AP26" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AQ26" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AR26" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AS26" s="163" t="s">
         <v>110</v>
@@ -16900,7 +16904,7 @@
         <v>1.1111111111111101</v>
       </c>
       <c r="AV26" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AW26" s="163" t="s">
         <v>110</v>
@@ -16912,7 +16916,7 @@
         <v>0.55555555555556002</v>
       </c>
       <c r="AZ26" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BA26" s="163" t="s">
         <v>110</v>
@@ -16924,7 +16928,7 @@
         <v>0</v>
       </c>
       <c r="BD26" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BE26" s="163" t="s">
         <v>110</v>
@@ -16948,7 +16952,7 @@
         <v>0.97222222222221999</v>
       </c>
       <c r="BL26" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BM26" s="163" t="s">
         <v>110</v>
@@ -17169,13 +17173,13 @@
         <v>2.3489932885906</v>
       </c>
       <c r="AN27" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AO27" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AP27" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AQ27" s="163" t="s">
         <v>110</v>
@@ -17187,7 +17191,7 @@
         <v>1.34228187919463</v>
       </c>
       <c r="AT27" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AU27" s="163" t="s">
         <v>110</v>
@@ -17205,19 +17209,19 @@
         <v>0</v>
       </c>
       <c r="AZ27" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BA27" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BB27" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BC27" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BD27" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BE27" s="163" t="s">
         <v>110</v>
@@ -17229,31 +17233,31 @@
         <v>0</v>
       </c>
       <c r="BH27" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BI27" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BJ27" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BK27" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BL27" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BM27" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BN27" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BO27" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BP27" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BQ27" s="163" t="s">
         <v>110</v>
@@ -17265,13 +17269,13 @@
         <v>1.6778523489932899</v>
       </c>
       <c r="BT27" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BU27" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BV27" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BW27" s="163" t="s">
         <v>110</v>
@@ -17360,7 +17364,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="G28" s="163" t="s">
         <v>110</v>
@@ -17408,7 +17412,7 @@
         <v>1.9512195121951199</v>
       </c>
       <c r="V28" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="W28" s="163" t="s">
         <v>110</v>
@@ -17426,7 +17430,7 @@
         <v>1.7073170731707299</v>
       </c>
       <c r="AB28" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AC28" s="163" t="s">
         <v>110</v>
@@ -17468,7 +17472,7 @@
         <v>0.97560975609755995</v>
       </c>
       <c r="AP28" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AQ28" s="163" t="s">
         <v>110</v>
@@ -17480,7 +17484,7 @@
         <v>0</v>
       </c>
       <c r="AT28" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AU28" s="163" t="s">
         <v>110</v>
@@ -17504,7 +17508,7 @@
         <v>0</v>
       </c>
       <c r="BB28" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BC28" s="163" t="s">
         <v>110</v>
@@ -17516,31 +17520,31 @@
         <v>0</v>
       </c>
       <c r="BF28" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BG28" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BH28" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BI28" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BJ28" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BK28" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BL28" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BM28" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BN28" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BO28" s="163" t="s">
         <v>110</v>
@@ -17552,7 +17556,7 @@
         <v>0.97560975609755995</v>
       </c>
       <c r="BR28" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BS28" s="163" t="s">
         <v>110</v>
@@ -17638,7 +17642,7 @@
     </row>
     <row r="29" spans="1:97">
       <c r="A29" s="153" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B29" s="78">
         <v>386</v>
@@ -17677,25 +17681,25 @@
         <v>1.2953367875647701</v>
       </c>
       <c r="N29" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="O29" s="163" t="s">
         <v>110</v>
       </c>
       <c r="P29" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="Q29" s="163" t="s">
         <v>110</v>
       </c>
       <c r="R29" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="S29" s="163" t="s">
         <v>110</v>
       </c>
       <c r="T29" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="U29" s="163" t="s">
         <v>110</v>
@@ -17743,7 +17747,7 @@
         <v>3.3678756476683902</v>
       </c>
       <c r="AJ29" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AK29" s="163" t="s">
         <v>110</v>
@@ -17755,7 +17759,7 @@
         <v>1.2953367875647701</v>
       </c>
       <c r="AN29" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AO29" s="163" t="s">
         <v>110</v>
@@ -17767,7 +17771,7 @@
         <v>1.03626943005181</v>
       </c>
       <c r="AR29" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AS29" s="163" t="s">
         <v>110</v>
@@ -17779,7 +17783,7 @@
         <v>1.2953367875647701</v>
       </c>
       <c r="AV29" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AW29" s="163" t="s">
         <v>110</v>
@@ -17803,7 +17807,7 @@
         <v>0</v>
       </c>
       <c r="BD29" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BE29" s="163" t="s">
         <v>110</v>
@@ -17815,7 +17819,7 @@
         <v>0</v>
       </c>
       <c r="BH29" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BI29" s="163" t="s">
         <v>110</v>
@@ -17839,7 +17843,7 @@
         <v>1.03626943005181</v>
       </c>
       <c r="BP29" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BQ29" s="163" t="s">
         <v>110</v>
@@ -17923,7 +17927,7 @@
         <v>6.4766839378238403</v>
       </c>
       <c r="CR29" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="CS29" s="163" t="s">
         <v>110</v>
@@ -17952,13 +17956,13 @@
         <v>0</v>
       </c>
       <c r="H30" s="158" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="I30" s="154" t="s">
         <v>110</v>
       </c>
       <c r="J30" s="155" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="K30" s="154" t="s">
         <v>110</v>
@@ -17970,13 +17974,13 @@
         <v>0</v>
       </c>
       <c r="N30" s="155" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="O30" s="154" t="s">
         <v>110</v>
       </c>
       <c r="P30" s="155" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="Q30" s="154" t="s">
         <v>110</v>
@@ -17988,7 +17992,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="155" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="U30" s="154" t="s">
         <v>110</v>
@@ -18000,31 +18004,31 @@
         <v>0</v>
       </c>
       <c r="X30" s="155" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="Y30" s="154" t="s">
         <v>110</v>
       </c>
       <c r="Z30" s="155" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AA30" s="154" t="s">
         <v>110</v>
       </c>
       <c r="AB30" s="155" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AC30" s="154" t="s">
         <v>110</v>
       </c>
       <c r="AD30" s="155" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AE30" s="154" t="s">
         <v>110</v>
       </c>
       <c r="AF30" s="155" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AG30" s="154" t="s">
         <v>110</v>
@@ -18036,7 +18040,7 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="155" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AK30" s="154" t="s">
         <v>110</v>
@@ -18048,7 +18052,7 @@
         <v>0</v>
       </c>
       <c r="AN30" s="155" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AO30" s="154" t="s">
         <v>110</v>
@@ -18060,7 +18064,7 @@
         <v>0</v>
       </c>
       <c r="AR30" s="155" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AS30" s="154" t="s">
         <v>110</v>
@@ -18078,13 +18082,13 @@
         <v>0</v>
       </c>
       <c r="AX30" s="155" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AY30" s="154" t="s">
         <v>110</v>
       </c>
       <c r="AZ30" s="155" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BA30" s="154" t="s">
         <v>110</v>
@@ -18096,7 +18100,7 @@
         <v>0</v>
       </c>
       <c r="BD30" s="155" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BE30" s="154" t="s">
         <v>110</v>
@@ -18108,7 +18112,7 @@
         <v>0</v>
       </c>
       <c r="BH30" s="155" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BI30" s="154" t="s">
         <v>110</v>
@@ -18126,25 +18130,25 @@
         <v>0</v>
       </c>
       <c r="BN30" s="155" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BO30" s="154" t="s">
         <v>110</v>
       </c>
       <c r="BP30" s="155" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BQ30" s="154" t="s">
         <v>110</v>
       </c>
       <c r="BR30" s="155" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BS30" s="154" t="s">
         <v>110</v>
       </c>
       <c r="BT30" s="155" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BU30" s="154" t="s">
         <v>110</v>
@@ -18152,19 +18156,19 @@
       <c r="BV30" s="155">
         <v>11</v>
       </c>
-      <c r="BW30" s="225">
+      <c r="BW30" s="154">
         <v>10.476190476190499</v>
       </c>
       <c r="BX30" s="155">
         <v>23</v>
       </c>
-      <c r="BY30" s="225">
+      <c r="BY30" s="154">
         <v>21.904761904761902</v>
       </c>
       <c r="BZ30" s="155">
         <v>15</v>
       </c>
-      <c r="CA30" s="225">
+      <c r="CA30" s="154">
         <v>14.285714285714301</v>
       </c>
       <c r="CB30" s="155">
@@ -18173,53 +18177,53 @@
       <c r="CC30" s="154">
         <v>20</v>
       </c>
-      <c r="CD30" s="155" t="s">
-        <v>272</v>
-      </c>
-      <c r="CE30" s="154" t="s">
-        <v>273</v>
+      <c r="CD30" s="155">
+        <v>21</v>
+      </c>
+      <c r="CE30" s="154">
+        <v>20</v>
       </c>
       <c r="CF30" s="155" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="CG30" s="154" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CH30" s="155" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="CI30" s="154" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CJ30" s="155" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="CK30" s="154" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CL30" s="155" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="CM30" s="154" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CN30" s="155" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="CO30" s="154" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CP30" s="155" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="CQ30" s="154" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CR30" s="155" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="CS30" s="154" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:97" ht="15.75" customHeight="1" thickTop="1">
@@ -18334,28 +18338,24 @@
       <c r="A37" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="CP6:CQ6"/>
-    <mergeCell ref="CR6:CS6"/>
-    <mergeCell ref="CF5:CS5"/>
-    <mergeCell ref="D5:CE5"/>
-    <mergeCell ref="CJ6:CK6"/>
-    <mergeCell ref="BX6:BY6"/>
-    <mergeCell ref="BZ6:CA6"/>
-    <mergeCell ref="CB6:CC6"/>
-    <mergeCell ref="BV6:BW6"/>
-    <mergeCell ref="BN6:BO6"/>
-    <mergeCell ref="CD6:CE6"/>
-    <mergeCell ref="CF6:CG6"/>
-    <mergeCell ref="CH6:CI6"/>
-    <mergeCell ref="BJ6:BK6"/>
-    <mergeCell ref="BL6:BM6"/>
-    <mergeCell ref="BP6:BQ6"/>
+  <mergeCells count="51">
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="AN6:AO6"/>
+    <mergeCell ref="AL6:AM6"/>
+    <mergeCell ref="AJ6:AK6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="H6:I6"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="R6:S6"/>
-    <mergeCell ref="BR6:BS6"/>
-    <mergeCell ref="BT6:BU6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="T6:U6"/>
     <mergeCell ref="AT6:AU6"/>
     <mergeCell ref="Z6:AA6"/>
     <mergeCell ref="AH6:AI6"/>
@@ -18365,28 +18365,31 @@
     <mergeCell ref="AF6:AG6"/>
     <mergeCell ref="AD6:AE6"/>
     <mergeCell ref="BB6:BC6"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="CL6:CM6"/>
-    <mergeCell ref="CN6:CO6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
     <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="T6:U6"/>
     <mergeCell ref="AZ6:BA6"/>
     <mergeCell ref="AR6:AS6"/>
     <mergeCell ref="AP6:AQ6"/>
     <mergeCell ref="AX6:AY6"/>
     <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="AN6:AO6"/>
-    <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="AJ6:AK6"/>
-    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="BJ6:BK6"/>
+    <mergeCell ref="BL6:BM6"/>
+    <mergeCell ref="BP6:BQ6"/>
+    <mergeCell ref="BR6:BS6"/>
+    <mergeCell ref="BT6:BU6"/>
+    <mergeCell ref="BV6:BW6"/>
+    <mergeCell ref="BN6:BO6"/>
+    <mergeCell ref="CD6:CE6"/>
+    <mergeCell ref="CF6:CG6"/>
+    <mergeCell ref="CH6:CI6"/>
+    <mergeCell ref="CP6:CQ6"/>
+    <mergeCell ref="CR6:CS6"/>
+    <mergeCell ref="CF5:CS5"/>
+    <mergeCell ref="CJ6:CK6"/>
+    <mergeCell ref="BX6:BY6"/>
+    <mergeCell ref="BZ6:CA6"/>
+    <mergeCell ref="CB6:CC6"/>
+    <mergeCell ref="CL6:CM6"/>
+    <mergeCell ref="CN6:CO6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18471,15 +18474,15 @@
       </c>
     </row>
     <row r="2" spans="1:95" ht="46.5" customHeight="1">
-      <c r="A2" s="283" t="s">
-        <v>283</v>
-      </c>
-      <c r="B2" s="283"/>
-      <c r="C2" s="283"/>
-      <c r="D2" s="283"/>
-      <c r="E2" s="283"/>
-      <c r="F2" s="283"/>
-      <c r="G2" s="283"/>
+      <c r="A2" s="282" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="282"/>
+      <c r="C2" s="282"/>
+      <c r="D2" s="282"/>
+      <c r="E2" s="282"/>
+      <c r="F2" s="282"/>
+      <c r="G2" s="282"/>
       <c r="BC2" s="30"/>
       <c r="BD2" s="193"/>
       <c r="BE2" s="30"/>
@@ -18518,62 +18521,62 @@
     </row>
     <row r="5" spans="1:95" ht="28.5" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="285" t="s">
+      <c r="B5" s="284" t="s">
         <v>204</v>
       </c>
-      <c r="C5" s="286"/>
-      <c r="D5" s="273" t="s">
+      <c r="C5" s="285"/>
+      <c r="D5" s="272" t="s">
         <v>193</v>
       </c>
-      <c r="E5" s="274"/>
-      <c r="F5" s="274"/>
-      <c r="G5" s="274"/>
-      <c r="H5" s="274"/>
-      <c r="I5" s="274"/>
-      <c r="J5" s="274"/>
-      <c r="K5" s="274"/>
-      <c r="L5" s="274"/>
-      <c r="M5" s="274"/>
-      <c r="N5" s="274"/>
-      <c r="O5" s="274"/>
-      <c r="P5" s="274"/>
-      <c r="Q5" s="274"/>
-      <c r="R5" s="274"/>
-      <c r="S5" s="274"/>
-      <c r="T5" s="274"/>
-      <c r="U5" s="274"/>
-      <c r="V5" s="274"/>
-      <c r="W5" s="274"/>
-      <c r="X5" s="274"/>
-      <c r="Y5" s="274"/>
-      <c r="Z5" s="274"/>
-      <c r="AA5" s="274"/>
-      <c r="AB5" s="274"/>
-      <c r="AC5" s="274"/>
-      <c r="AD5" s="274"/>
-      <c r="AE5" s="274"/>
-      <c r="AF5" s="274"/>
-      <c r="AG5" s="274"/>
-      <c r="AH5" s="274"/>
-      <c r="AI5" s="274"/>
-      <c r="AJ5" s="274"/>
-      <c r="AK5" s="274"/>
-      <c r="AL5" s="274"/>
-      <c r="AM5" s="274"/>
-      <c r="AN5" s="274"/>
-      <c r="AO5" s="274"/>
-      <c r="AP5" s="274"/>
-      <c r="AQ5" s="274"/>
-      <c r="AR5" s="274"/>
-      <c r="AS5" s="274"/>
-      <c r="AT5" s="274"/>
-      <c r="AU5" s="274"/>
-      <c r="AV5" s="274"/>
-      <c r="AW5" s="274"/>
-      <c r="AX5" s="274"/>
-      <c r="AY5" s="274"/>
-      <c r="AZ5" s="274"/>
-      <c r="BA5" s="274"/>
+      <c r="E5" s="273"/>
+      <c r="F5" s="273"/>
+      <c r="G5" s="273"/>
+      <c r="H5" s="273"/>
+      <c r="I5" s="273"/>
+      <c r="J5" s="273"/>
+      <c r="K5" s="273"/>
+      <c r="L5" s="273"/>
+      <c r="M5" s="273"/>
+      <c r="N5" s="273"/>
+      <c r="O5" s="273"/>
+      <c r="P5" s="273"/>
+      <c r="Q5" s="273"/>
+      <c r="R5" s="273"/>
+      <c r="S5" s="273"/>
+      <c r="T5" s="273"/>
+      <c r="U5" s="273"/>
+      <c r="V5" s="273"/>
+      <c r="W5" s="273"/>
+      <c r="X5" s="273"/>
+      <c r="Y5" s="273"/>
+      <c r="Z5" s="273"/>
+      <c r="AA5" s="273"/>
+      <c r="AB5" s="273"/>
+      <c r="AC5" s="273"/>
+      <c r="AD5" s="273"/>
+      <c r="AE5" s="273"/>
+      <c r="AF5" s="273"/>
+      <c r="AG5" s="273"/>
+      <c r="AH5" s="273"/>
+      <c r="AI5" s="273"/>
+      <c r="AJ5" s="273"/>
+      <c r="AK5" s="273"/>
+      <c r="AL5" s="273"/>
+      <c r="AM5" s="273"/>
+      <c r="AN5" s="273"/>
+      <c r="AO5" s="273"/>
+      <c r="AP5" s="273"/>
+      <c r="AQ5" s="273"/>
+      <c r="AR5" s="273"/>
+      <c r="AS5" s="273"/>
+      <c r="AT5" s="273"/>
+      <c r="AU5" s="273"/>
+      <c r="AV5" s="273"/>
+      <c r="AW5" s="273"/>
+      <c r="AX5" s="273"/>
+      <c r="AY5" s="273"/>
+      <c r="AZ5" s="273"/>
+      <c r="BA5" s="273"/>
       <c r="BB5" s="222"/>
       <c r="BC5" s="222"/>
       <c r="BD5" s="222"/>
@@ -18590,226 +18593,226 @@
       <c r="BO5" s="222"/>
       <c r="BP5" s="222"/>
       <c r="BQ5" s="222"/>
-      <c r="BR5" s="223"/>
-      <c r="BS5" s="223"/>
-      <c r="BT5" s="223"/>
-      <c r="BU5" s="223"/>
-      <c r="BV5" s="223"/>
-      <c r="BW5" s="223"/>
-      <c r="BX5" s="223"/>
-      <c r="BY5" s="223"/>
-      <c r="BZ5" s="223"/>
-      <c r="CA5" s="223"/>
-      <c r="CB5" s="223"/>
-      <c r="CC5" s="224"/>
-      <c r="CD5" s="299" t="s">
+      <c r="BR5" s="224"/>
+      <c r="BS5" s="224"/>
+      <c r="BT5" s="224"/>
+      <c r="BU5" s="224"/>
+      <c r="BV5" s="224"/>
+      <c r="BW5" s="224"/>
+      <c r="BX5" s="224"/>
+      <c r="BY5" s="224"/>
+      <c r="BZ5" s="224"/>
+      <c r="CA5" s="224"/>
+      <c r="CB5" s="224"/>
+      <c r="CC5" s="225"/>
+      <c r="CD5" s="290" t="s">
         <v>203</v>
       </c>
-      <c r="CE5" s="274"/>
-      <c r="CF5" s="274"/>
-      <c r="CG5" s="274"/>
-      <c r="CH5" s="274"/>
-      <c r="CI5" s="274"/>
-      <c r="CJ5" s="274"/>
-      <c r="CK5" s="274"/>
-      <c r="CL5" s="274"/>
-      <c r="CM5" s="274"/>
-      <c r="CN5" s="274"/>
-      <c r="CO5" s="274"/>
-      <c r="CP5" s="274"/>
-      <c r="CQ5" s="274"/>
+      <c r="CE5" s="273"/>
+      <c r="CF5" s="273"/>
+      <c r="CG5" s="273"/>
+      <c r="CH5" s="273"/>
+      <c r="CI5" s="273"/>
+      <c r="CJ5" s="273"/>
+      <c r="CK5" s="273"/>
+      <c r="CL5" s="273"/>
+      <c r="CM5" s="273"/>
+      <c r="CN5" s="273"/>
+      <c r="CO5" s="273"/>
+      <c r="CP5" s="273"/>
+      <c r="CQ5" s="299"/>
     </row>
     <row r="6" spans="1:95" ht="13.5" customHeight="1">
-      <c r="A6" s="287"/>
-      <c r="B6" s="280"/>
-      <c r="C6" s="279"/>
-      <c r="D6" s="293" t="s">
+      <c r="A6" s="286"/>
+      <c r="B6" s="279"/>
+      <c r="C6" s="278"/>
+      <c r="D6" s="291" t="s">
         <v>196</v>
       </c>
       <c r="E6" s="292"/>
-      <c r="F6" s="293" t="s">
+      <c r="F6" s="291" t="s">
         <v>191</v>
       </c>
       <c r="G6" s="292"/>
-      <c r="H6" s="293" t="s">
+      <c r="H6" s="291" t="s">
         <v>167</v>
       </c>
       <c r="I6" s="292"/>
-      <c r="J6" s="293" t="s">
+      <c r="J6" s="291" t="s">
         <v>168</v>
       </c>
       <c r="K6" s="292"/>
-      <c r="L6" s="293" t="s">
+      <c r="L6" s="291" t="s">
         <v>169</v>
       </c>
       <c r="M6" s="292"/>
-      <c r="N6" s="293" t="s">
+      <c r="N6" s="291" t="s">
         <v>170</v>
       </c>
       <c r="O6" s="292"/>
-      <c r="P6" s="293" t="s">
+      <c r="P6" s="291" t="s">
         <v>171</v>
       </c>
       <c r="Q6" s="292"/>
-      <c r="R6" s="293" t="s">
+      <c r="R6" s="291" t="s">
         <v>172</v>
       </c>
       <c r="S6" s="292"/>
-      <c r="T6" s="293" t="s">
+      <c r="T6" s="291" t="s">
         <v>173</v>
       </c>
       <c r="U6" s="292"/>
-      <c r="V6" s="293" t="s">
+      <c r="V6" s="291" t="s">
         <v>174</v>
       </c>
       <c r="W6" s="292"/>
-      <c r="X6" s="293" t="s">
+      <c r="X6" s="291" t="s">
         <v>175</v>
       </c>
       <c r="Y6" s="292"/>
-      <c r="Z6" s="293" t="s">
+      <c r="Z6" s="291" t="s">
         <v>201</v>
       </c>
       <c r="AA6" s="292"/>
-      <c r="AB6" s="293" t="s">
+      <c r="AB6" s="291" t="s">
         <v>222</v>
       </c>
       <c r="AC6" s="292"/>
-      <c r="AD6" s="291" t="s">
+      <c r="AD6" s="298" t="s">
         <v>230</v>
       </c>
       <c r="AE6" s="292"/>
-      <c r="AF6" s="291" t="s">
+      <c r="AF6" s="298" t="s">
         <v>234</v>
       </c>
       <c r="AG6" s="292"/>
-      <c r="AH6" s="291" t="s">
-        <v>240</v>
+      <c r="AH6" s="298" t="s">
+        <v>243</v>
       </c>
       <c r="AI6" s="292"/>
-      <c r="AJ6" s="291" t="s">
-        <v>241</v>
+      <c r="AJ6" s="298" t="s">
+        <v>244</v>
       </c>
       <c r="AK6" s="292"/>
-      <c r="AL6" s="291" t="s">
-        <v>242</v>
+      <c r="AL6" s="298" t="s">
+        <v>245</v>
       </c>
       <c r="AM6" s="292"/>
-      <c r="AN6" s="291" t="s">
-        <v>243</v>
+      <c r="AN6" s="298" t="s">
+        <v>246</v>
       </c>
       <c r="AO6" s="292"/>
-      <c r="AP6" s="291" t="s">
-        <v>244</v>
+      <c r="AP6" s="298" t="s">
+        <v>247</v>
       </c>
       <c r="AQ6" s="292"/>
-      <c r="AR6" s="291" t="s">
-        <v>245</v>
+      <c r="AR6" s="298" t="s">
+        <v>248</v>
       </c>
       <c r="AS6" s="292"/>
-      <c r="AT6" s="291" t="s">
-        <v>246</v>
+      <c r="AT6" s="298" t="s">
+        <v>249</v>
       </c>
       <c r="AU6" s="292"/>
-      <c r="AV6" s="291" t="s">
-        <v>247</v>
+      <c r="AV6" s="298" t="s">
+        <v>250</v>
       </c>
       <c r="AW6" s="292"/>
-      <c r="AX6" s="291" t="s">
-        <v>248</v>
+      <c r="AX6" s="298" t="s">
+        <v>251</v>
       </c>
       <c r="AY6" s="292"/>
-      <c r="AZ6" s="291" t="s">
-        <v>250</v>
+      <c r="AZ6" s="298" t="s">
+        <v>253</v>
       </c>
       <c r="BA6" s="292"/>
-      <c r="BB6" s="291" t="s">
-        <v>251</v>
+      <c r="BB6" s="298" t="s">
+        <v>254</v>
       </c>
       <c r="BC6" s="292"/>
-      <c r="BD6" s="291" t="s">
-        <v>252</v>
+      <c r="BD6" s="298" t="s">
+        <v>255</v>
       </c>
       <c r="BE6" s="292"/>
-      <c r="BF6" s="291" t="s">
-        <v>254</v>
+      <c r="BF6" s="298" t="s">
+        <v>257</v>
       </c>
       <c r="BG6" s="292"/>
-      <c r="BH6" s="291" t="s">
-        <v>253</v>
+      <c r="BH6" s="298" t="s">
+        <v>256</v>
       </c>
       <c r="BI6" s="292"/>
-      <c r="BJ6" s="291" t="s">
-        <v>255</v>
+      <c r="BJ6" s="298" t="s">
+        <v>258</v>
       </c>
       <c r="BK6" s="292"/>
-      <c r="BL6" s="291" t="s">
-        <v>258</v>
+      <c r="BL6" s="298" t="s">
+        <v>261</v>
       </c>
       <c r="BM6" s="292"/>
-      <c r="BN6" s="291" t="s">
-        <v>259</v>
+      <c r="BN6" s="298" t="s">
+        <v>262</v>
       </c>
       <c r="BO6" s="292"/>
-      <c r="BP6" s="291" t="s">
+      <c r="BP6" s="298" t="s">
+        <v>268</v>
+      </c>
+      <c r="BQ6" s="292"/>
+      <c r="BR6" s="298" t="s">
+        <v>267</v>
+      </c>
+      <c r="BS6" s="292"/>
+      <c r="BT6" s="298" t="s">
+        <v>266</v>
+      </c>
+      <c r="BU6" s="292"/>
+      <c r="BV6" s="298" t="s">
         <v>265</v>
       </c>
-      <c r="BQ6" s="292"/>
-      <c r="BR6" s="291" t="s">
+      <c r="BW6" s="292"/>
+      <c r="BX6" s="298" t="s">
         <v>264</v>
       </c>
-      <c r="BS6" s="292"/>
-      <c r="BT6" s="291" t="s">
+      <c r="BY6" s="292"/>
+      <c r="BZ6" s="298" t="s">
         <v>263</v>
       </c>
-      <c r="BU6" s="292"/>
-      <c r="BV6" s="291" t="s">
-        <v>262</v>
-      </c>
-      <c r="BW6" s="292"/>
-      <c r="BX6" s="291" t="s">
-        <v>261</v>
-      </c>
-      <c r="BY6" s="292"/>
-      <c r="BZ6" s="291" t="s">
-        <v>260</v>
-      </c>
       <c r="CA6" s="292"/>
-      <c r="CB6" s="291" t="s">
-        <v>267</v>
+      <c r="CB6" s="298" t="s">
+        <v>270</v>
       </c>
       <c r="CC6" s="292"/>
-      <c r="CD6" s="291" t="s">
-        <v>266</v>
+      <c r="CD6" s="298" t="s">
+        <v>269</v>
       </c>
       <c r="CE6" s="292"/>
-      <c r="CF6" s="291" t="s">
-        <v>268</v>
+      <c r="CF6" s="298" t="s">
+        <v>271</v>
       </c>
       <c r="CG6" s="292"/>
-      <c r="CH6" s="291" t="s">
-        <v>269</v>
+      <c r="CH6" s="298" t="s">
+        <v>272</v>
       </c>
       <c r="CI6" s="292"/>
-      <c r="CJ6" s="291" t="s">
-        <v>270</v>
+      <c r="CJ6" s="298" t="s">
+        <v>273</v>
       </c>
       <c r="CK6" s="292"/>
-      <c r="CL6" s="291" t="s">
-        <v>280</v>
+      <c r="CL6" s="298" t="s">
+        <v>274</v>
       </c>
       <c r="CM6" s="292"/>
-      <c r="CN6" s="291" t="s">
-        <v>281</v>
+      <c r="CN6" s="298" t="s">
+        <v>275</v>
       </c>
       <c r="CO6" s="292"/>
-      <c r="CP6" s="291" t="s">
-        <v>282</v>
+      <c r="CP6" s="298" t="s">
+        <v>276</v>
       </c>
       <c r="CQ6" s="292"/>
     </row>
     <row r="7" spans="1:95">
-      <c r="A7" s="288"/>
+      <c r="A7" s="287"/>
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
@@ -19098,7 +19101,7 @@
         <v>221</v>
       </c>
       <c r="B8" s="218">
-        <v>33881</v>
+        <v>33880</v>
       </c>
       <c r="C8" s="183">
         <v>100</v>
@@ -19107,277 +19110,277 @@
         <v>31</v>
       </c>
       <c r="E8" s="178">
-        <v>9.1496709069980003E-2</v>
+        <v>9.1499409681230007E-2</v>
       </c>
       <c r="F8" s="130">
         <v>128</v>
       </c>
       <c r="G8" s="176">
-        <v>0.37779286325668998</v>
+        <v>0.37780401416765003</v>
       </c>
       <c r="H8" s="78">
         <v>424</v>
       </c>
       <c r="I8" s="176">
-        <v>1.2514388595377901</v>
+        <v>1.2514757969303401</v>
       </c>
       <c r="J8" s="78">
         <v>991</v>
       </c>
       <c r="K8" s="176">
-        <v>2.92494318349517</v>
+        <v>2.9250295159386099</v>
       </c>
       <c r="L8" s="78">
         <v>1218</v>
       </c>
       <c r="M8" s="176">
-        <v>3.5949352144269699</v>
+        <v>3.5950413223140498</v>
       </c>
       <c r="N8" s="78">
         <v>1396</v>
       </c>
       <c r="O8" s="176">
-        <v>4.1203034148933</v>
+        <v>4.1204250295159399</v>
       </c>
       <c r="P8" s="78">
         <v>1416</v>
       </c>
       <c r="Q8" s="176">
-        <v>4.1793335497771604</v>
+        <v>4.1794569067296301</v>
       </c>
       <c r="R8" s="78">
         <v>1288</v>
       </c>
       <c r="S8" s="217">
-        <v>3.8015406865204699</v>
+        <v>3.8016528925619801</v>
       </c>
       <c r="T8" s="130">
         <v>1284</v>
       </c>
       <c r="U8" s="212">
-        <v>3.7897346595436998</v>
+        <v>3.7898465171192401</v>
       </c>
       <c r="V8" s="88">
         <v>1107</v>
       </c>
       <c r="W8" s="216">
-        <v>3.2673179658215501</v>
+        <v>3.2674144037780399</v>
       </c>
       <c r="X8" s="130">
         <v>1043</v>
       </c>
       <c r="Y8" s="211">
-        <v>3.0784215341932102</v>
+        <v>3.0785123966942201</v>
       </c>
       <c r="Z8" s="130">
         <v>1082</v>
       </c>
       <c r="AA8" s="213">
-        <v>3.1935302972167299</v>
+        <v>3.1936245572609199</v>
       </c>
       <c r="AB8" s="88">
         <v>1010</v>
       </c>
       <c r="AC8" s="213">
-        <v>2.9810218116348399</v>
+        <v>2.98110979929162</v>
       </c>
       <c r="AD8" s="88">
         <v>907</v>
       </c>
       <c r="AE8" s="211">
-        <v>2.6770166169829701</v>
+        <v>2.6770956316410901</v>
       </c>
       <c r="AF8" s="130">
         <v>794</v>
       </c>
       <c r="AG8" s="213">
-        <v>2.3434963548891701</v>
+        <v>2.3435655253837102</v>
       </c>
       <c r="AH8" s="88">
         <v>787</v>
       </c>
       <c r="AI8" s="214">
-        <v>2.3228358076798199</v>
+        <v>2.3229043683589099</v>
       </c>
       <c r="AJ8" s="88">
         <v>581</v>
       </c>
       <c r="AK8" s="213">
-        <v>1.71482541837608</v>
+        <v>1.7148760330578501</v>
       </c>
       <c r="AL8" s="88">
         <v>421</v>
       </c>
       <c r="AM8" s="213">
-        <v>1.2425843393052201</v>
+        <v>1.2426210153482899</v>
       </c>
       <c r="AN8" s="88">
         <v>285</v>
       </c>
       <c r="AO8" s="211">
-        <v>0.84117942209497998</v>
+        <v>0.84120425029515999</v>
       </c>
       <c r="AP8" s="215">
         <v>201</v>
       </c>
       <c r="AQ8" s="214">
-        <v>0.59325285558277996</v>
+        <v>0.59327036599764005</v>
       </c>
       <c r="AR8" s="88">
         <v>200</v>
       </c>
       <c r="AS8" s="211">
-        <v>0.59030134883857999</v>
+        <v>0.59031877213695005</v>
       </c>
       <c r="AT8" s="215">
         <v>165</v>
       </c>
       <c r="AU8" s="211">
-        <v>0.48699861279182999</v>
+        <v>0.48701298701299001</v>
       </c>
       <c r="AV8" s="130">
         <v>160</v>
       </c>
       <c r="AW8" s="211">
-        <v>0.47224107907086998</v>
+        <v>0.47225501770956002</v>
       </c>
       <c r="AX8" s="130">
         <v>168</v>
       </c>
       <c r="AY8" s="213">
-        <v>0.49585313302440998</v>
+        <v>0.49586776859504</v>
       </c>
       <c r="AZ8" s="88">
         <v>133</v>
       </c>
       <c r="BA8" s="211">
-        <v>0.39255039697765998</v>
+        <v>0.39256198347107002</v>
       </c>
       <c r="BB8" s="215">
         <v>112</v>
       </c>
       <c r="BC8" s="214">
-        <v>0.33056875534961</v>
+        <v>0.33057851239669001</v>
       </c>
       <c r="BD8" s="88">
         <v>98</v>
       </c>
       <c r="BE8" s="213">
-        <v>0.28924766093090998</v>
+        <v>0.28925619834711003</v>
       </c>
       <c r="BF8" s="88">
         <v>119</v>
       </c>
       <c r="BG8" s="213">
-        <v>0.35122930255896001</v>
+        <v>0.35123966942148999</v>
       </c>
       <c r="BH8" s="88">
         <v>126</v>
       </c>
       <c r="BI8" s="213">
-        <v>0.37188984976831002</v>
+        <v>0.37190082644627998</v>
       </c>
       <c r="BJ8" s="88">
         <v>154</v>
       </c>
       <c r="BK8" s="213">
-        <v>0.45453203860571001</v>
+        <v>0.45454545454544998</v>
       </c>
       <c r="BL8" s="88">
         <v>155</v>
       </c>
       <c r="BM8" s="213">
-        <v>0.45748354534989999</v>
+        <v>0.45749704840613997</v>
       </c>
       <c r="BN8" s="88">
         <v>192</v>
       </c>
       <c r="BO8" s="212">
-        <v>0.56668929488504005</v>
+        <v>0.56670602125147995</v>
       </c>
       <c r="BP8" s="88">
         <v>221</v>
       </c>
       <c r="BQ8" s="212">
-        <v>0.65228299046662996</v>
+        <v>0.65230224321133001</v>
       </c>
       <c r="BR8" s="88">
         <v>352</v>
       </c>
       <c r="BS8" s="174">
-        <v>1.0389303739558999</v>
+        <v>1.03896103896104</v>
       </c>
       <c r="BT8" s="88">
         <v>594</v>
       </c>
       <c r="BU8" s="174">
-        <v>1.7531950060505901</v>
+        <v>1.7532467532467499</v>
       </c>
       <c r="BV8" s="88">
         <v>893</v>
       </c>
       <c r="BW8" s="211">
-        <v>2.6356955225642702</v>
+        <v>2.6357733175915001</v>
       </c>
       <c r="BX8" s="88">
         <v>1092</v>
       </c>
       <c r="BY8" s="211">
-        <v>3.2230453646586601</v>
+        <v>3.2231404958677699</v>
       </c>
       <c r="BZ8" s="88">
         <v>1340</v>
       </c>
       <c r="CA8" s="211">
-        <v>3.9550190372184999</v>
+        <v>3.9551357733175898</v>
       </c>
       <c r="CB8" s="88">
         <v>1283</v>
       </c>
       <c r="CC8" s="211">
-        <v>3.7867831527995</v>
+        <v>3.78689492325856</v>
       </c>
       <c r="CD8" s="88">
         <v>1385</v>
       </c>
       <c r="CE8" s="211">
-        <v>4.0878368407071797</v>
+        <v>4.0879574970484098</v>
       </c>
       <c r="CF8" s="88">
         <v>1467</v>
       </c>
       <c r="CG8" s="211">
-        <v>4.3298603937309998</v>
+        <v>4.3299881936245601</v>
       </c>
       <c r="CH8" s="88">
         <v>1626</v>
       </c>
       <c r="CI8" s="211">
-        <v>4.7991499660576702</v>
+        <v>4.7992916174734397</v>
       </c>
       <c r="CJ8" s="88">
         <v>1690</v>
       </c>
       <c r="CK8" s="211">
-        <v>4.9880463976860199</v>
+        <v>4.98819362455726</v>
       </c>
       <c r="CL8" s="88">
         <v>1533</v>
       </c>
       <c r="CM8" s="211">
-        <v>4.5246598388477297</v>
+        <v>4.5247933884297504</v>
       </c>
       <c r="CN8" s="88">
         <v>1415</v>
       </c>
       <c r="CO8" s="211">
-        <v>4.1763820430329703</v>
+        <v>4.17650531286895</v>
       </c>
       <c r="CP8" s="88">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="CQ8" s="211">
-        <v>2.3080782739588601</v>
+        <v>2.3051948051948101</v>
       </c>
     </row>
     <row r="9" spans="1:95">
@@ -19487,7 +19490,7 @@
         <v>11464</v>
       </c>
       <c r="C10" s="91">
-        <v>33.836073315427498</v>
+        <v>33.837072018890197</v>
       </c>
       <c r="D10" s="78">
         <v>18</v>
@@ -19774,7 +19777,7 @@
         <v>5245</v>
       </c>
       <c r="C11" s="93">
-        <v>15.480652873291801</v>
+        <v>15.4811097992916</v>
       </c>
       <c r="D11" s="78">
         <v>4</v>
@@ -20061,16 +20064,16 @@
         <v>3809</v>
       </c>
       <c r="C12" s="93">
-        <v>11.242289188630799</v>
+        <v>11.2426210153483</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="E12" s="207" t="s">
         <v>110</v>
       </c>
       <c r="F12" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="G12" s="207" t="s">
         <v>110</v>
@@ -20348,10 +20351,10 @@
         <v>1773</v>
       </c>
       <c r="C13" s="93">
-        <v>5.2330214574540301</v>
+        <v>5.2331759149941002</v>
       </c>
       <c r="D13" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="E13" s="207" t="s">
         <v>110</v>
@@ -20501,13 +20504,13 @@
         <v>0.28200789622109002</v>
       </c>
       <c r="BB13" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BC13" s="206" t="s">
         <v>110</v>
       </c>
       <c r="BD13" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BE13" s="206" t="s">
         <v>110</v>
@@ -20531,19 +20534,19 @@
         <v>0.39481105470952998</v>
       </c>
       <c r="BL13" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BM13" s="204" t="s">
         <v>110</v>
       </c>
       <c r="BN13" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BO13" s="204" t="s">
         <v>110</v>
       </c>
       <c r="BP13" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BQ13" s="204" t="s">
         <v>110</v>
@@ -20635,7 +20638,7 @@
         <v>1338</v>
       </c>
       <c r="C14" s="94">
-        <v>3.9491160237301099</v>
+        <v>3.9492325855962198</v>
       </c>
       <c r="D14" s="78">
         <v>0</v>
@@ -20788,7 +20791,7 @@
         <v>0.29895366218236002</v>
       </c>
       <c r="BB14" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BC14" s="202" t="s">
         <v>110</v>
@@ -20800,25 +20803,25 @@
         <v>0.37369207772794999</v>
       </c>
       <c r="BF14" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BG14" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BH14" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BI14" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BJ14" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BK14" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BL14" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BM14" s="200" t="s">
         <v>110</v>
@@ -20919,10 +20922,10 @@
         <v>124</v>
       </c>
       <c r="B15" s="90">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C15" s="94">
-        <v>3.70118945721791</v>
+        <v>3.6983471074380199</v>
       </c>
       <c r="D15" s="78">
         <v>0</v>
@@ -20931,7 +20934,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="G15" s="203" t="s">
         <v>110</v>
@@ -20940,166 +20943,166 @@
         <v>6</v>
       </c>
       <c r="I15" s="203">
-        <v>0.47846889952152999</v>
+        <v>0.47885075818036998</v>
       </c>
       <c r="J15" s="78">
         <v>41</v>
       </c>
       <c r="K15" s="203">
-        <v>3.2695374800638</v>
+        <v>3.27214684756584</v>
       </c>
       <c r="L15" s="78">
         <v>32</v>
       </c>
       <c r="M15" s="203">
-        <v>2.5518341307814998</v>
+        <v>2.55387071029529</v>
       </c>
       <c r="N15" s="78">
         <v>53</v>
       </c>
       <c r="O15" s="203">
-        <v>4.2264752791068601</v>
+        <v>4.22984836392658</v>
       </c>
       <c r="P15" s="78">
         <v>34</v>
       </c>
       <c r="Q15" s="203">
-        <v>2.71132376395534</v>
+        <v>2.7134876296887498</v>
       </c>
       <c r="R15" s="78">
         <v>45</v>
       </c>
       <c r="S15" s="203">
-        <v>3.58851674641148</v>
+        <v>3.5913806863527502</v>
       </c>
       <c r="T15" s="78">
         <v>39</v>
       </c>
       <c r="U15" s="202">
-        <v>3.11004784688995</v>
+        <v>3.1125299281723899</v>
       </c>
       <c r="V15" s="78">
         <v>33</v>
       </c>
       <c r="W15" s="202">
-        <v>2.6315789473684199</v>
+        <v>2.6336791699920199</v>
       </c>
       <c r="X15" s="78">
         <v>35</v>
       </c>
       <c r="Y15" s="202">
-        <v>2.7910685805422601</v>
+        <v>2.7932960893854801</v>
       </c>
       <c r="Z15" s="78">
         <v>32</v>
       </c>
       <c r="AA15" s="202">
-        <v>2.5518341307814998</v>
+        <v>2.55387071029529</v>
       </c>
       <c r="AB15" s="78">
         <v>33</v>
       </c>
       <c r="AC15" s="202">
-        <v>2.6315789473684199</v>
+        <v>2.6336791699920199</v>
       </c>
       <c r="AD15" s="78">
         <v>32</v>
       </c>
       <c r="AE15" s="202">
-        <v>2.5518341307814998</v>
+        <v>2.55387071029529</v>
       </c>
       <c r="AF15" s="78">
         <v>40</v>
       </c>
       <c r="AG15" s="202">
-        <v>3.1897926634768701</v>
+        <v>3.1923383878691101</v>
       </c>
       <c r="AH15" s="78">
         <v>30</v>
       </c>
       <c r="AI15" s="202">
-        <v>2.39234449760766</v>
+        <v>2.39425379090184</v>
       </c>
       <c r="AJ15" s="78">
         <v>30</v>
       </c>
       <c r="AK15" s="202">
-        <v>2.39234449760766</v>
+        <v>2.39425379090184</v>
       </c>
       <c r="AL15" s="78">
         <v>23</v>
       </c>
       <c r="AM15" s="202">
-        <v>1.8341307814992001</v>
+        <v>1.8355945730247401</v>
       </c>
       <c r="AN15" s="78">
         <v>16</v>
       </c>
       <c r="AO15" s="202">
-        <v>1.2759170653907499</v>
+        <v>1.2769353551476501</v>
       </c>
       <c r="AP15" s="78">
         <v>21</v>
       </c>
       <c r="AQ15" s="202">
-        <v>1.67464114832536</v>
+        <v>1.67597765363129</v>
       </c>
       <c r="AR15" s="78">
         <v>11</v>
       </c>
       <c r="AS15" s="202">
-        <v>0.87719298245613997</v>
+        <v>0.87789305666400996</v>
       </c>
       <c r="AT15" s="78">
         <v>9</v>
       </c>
       <c r="AU15" s="202">
-        <v>0.71770334928229995</v>
+        <v>0.71827613727054995</v>
       </c>
       <c r="AV15" s="78">
         <v>10</v>
       </c>
       <c r="AW15" s="202">
-        <v>0.79744816586921996</v>
+        <v>0.79808459696727996</v>
       </c>
       <c r="AX15" s="78">
         <v>9</v>
       </c>
       <c r="AY15" s="202">
-        <v>0.71770334928229995</v>
+        <v>0.71827613727054995</v>
       </c>
       <c r="AZ15" s="78">
         <v>8</v>
       </c>
       <c r="BA15" s="202">
-        <v>0.63795853269536995</v>
+        <v>0.63846767757381995</v>
       </c>
       <c r="BB15" s="78">
         <v>7</v>
       </c>
       <c r="BC15" s="202">
-        <v>0.55821371610845005</v>
+        <v>0.55865921787710004</v>
       </c>
       <c r="BD15" s="78">
         <v>9</v>
       </c>
       <c r="BE15" s="202">
-        <v>0.71770334928229995</v>
+        <v>0.71827613727054995</v>
       </c>
       <c r="BF15" s="78">
         <v>6</v>
       </c>
       <c r="BG15" s="202">
-        <v>0.47846889952152999</v>
+        <v>0.47885075818036998</v>
       </c>
       <c r="BH15" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BI15" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BJ15" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BK15" s="200" t="s">
         <v>110</v>
@@ -21108,97 +21111,97 @@
         <v>8</v>
       </c>
       <c r="BM15" s="200">
-        <v>0.63795853269536995</v>
+        <v>0.63846767757381995</v>
       </c>
       <c r="BN15" s="78">
         <v>11</v>
       </c>
       <c r="BO15" s="200">
-        <v>0.87719298245613997</v>
+        <v>0.87789305666400996</v>
       </c>
       <c r="BP15" s="78">
         <v>8</v>
       </c>
       <c r="BQ15" s="200">
-        <v>0.63795853269536995</v>
+        <v>0.63846767757381995</v>
       </c>
       <c r="BR15" s="78">
         <v>9</v>
       </c>
       <c r="BS15" s="201">
-        <v>0.71770334928229995</v>
+        <v>0.71827613727054995</v>
       </c>
       <c r="BT15" s="78">
         <v>14</v>
       </c>
       <c r="BU15" s="201">
-        <v>1.1164274322169101</v>
+        <v>1.1173184357541901</v>
       </c>
       <c r="BV15" s="78">
         <v>18</v>
       </c>
       <c r="BW15" s="200">
-        <v>1.4354066985645899</v>
+        <v>1.4365522745410999</v>
       </c>
       <c r="BX15" s="78">
         <v>38</v>
       </c>
       <c r="BY15" s="200">
-        <v>3.0303030303030298</v>
+        <v>3.03272146847566</v>
       </c>
       <c r="BZ15" s="78">
         <v>38</v>
       </c>
       <c r="CA15" s="200">
-        <v>3.0303030303030298</v>
+        <v>3.03272146847566</v>
       </c>
       <c r="CB15" s="78">
         <v>48</v>
       </c>
       <c r="CC15" s="200">
-        <v>3.8277511961722501</v>
+        <v>3.8308060654429399</v>
       </c>
       <c r="CD15" s="78">
         <v>54</v>
       </c>
       <c r="CE15" s="200">
-        <v>4.3062200956937797</v>
+        <v>4.3096568236233104</v>
       </c>
       <c r="CF15" s="103">
         <v>53</v>
       </c>
       <c r="CG15" s="220">
-        <v>4.2264752791068601</v>
+        <v>4.22984836392658</v>
       </c>
       <c r="CH15" s="221">
         <v>70</v>
       </c>
       <c r="CI15" s="220">
-        <v>5.5821371610845301</v>
+        <v>5.5865921787709496</v>
       </c>
       <c r="CJ15" s="221">
         <v>90</v>
       </c>
       <c r="CK15" s="220">
-        <v>7.1770334928229698</v>
+        <v>7.1827613727055102</v>
       </c>
       <c r="CL15" s="221">
         <v>65</v>
       </c>
       <c r="CM15" s="220">
-        <v>5.1834130781499201</v>
+        <v>5.1875498802873103</v>
       </c>
       <c r="CN15" s="221">
         <v>54</v>
       </c>
       <c r="CO15" s="220">
-        <v>4.3062200956937797</v>
+        <v>4.3096568236233104</v>
       </c>
       <c r="CP15" s="221">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="CQ15" s="220">
-        <v>1.91387559808612</v>
+        <v>1.8355945730247401</v>
       </c>
     </row>
     <row r="16" spans="1:95">
@@ -21209,10 +21212,10 @@
         <v>1023</v>
       </c>
       <c r="C16" s="94">
-        <v>3.0193913993093502</v>
+        <v>3.0194805194805201</v>
       </c>
       <c r="D16" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="E16" s="203" t="s">
         <v>110</v>
@@ -21326,13 +21329,13 @@
         <v>0.97751710654935997</v>
       </c>
       <c r="AP16" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AQ16" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AR16" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AS16" s="202" t="s">
         <v>110</v>
@@ -21344,7 +21347,7 @@
         <v>0</v>
       </c>
       <c r="AV16" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AW16" s="202" t="s">
         <v>110</v>
@@ -21362,7 +21365,7 @@
         <v>0</v>
       </c>
       <c r="BB16" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BC16" s="202" t="s">
         <v>110</v>
@@ -21374,7 +21377,7 @@
         <v>0</v>
       </c>
       <c r="BF16" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BG16" s="202" t="s">
         <v>110</v>
@@ -21386,25 +21389,25 @@
         <v>0</v>
       </c>
       <c r="BJ16" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BK16" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BL16" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BM16" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BN16" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BO16" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BP16" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BQ16" s="200" t="s">
         <v>110</v>
@@ -21496,16 +21499,16 @@
         <v>1159</v>
       </c>
       <c r="C17" s="94">
-        <v>3.42079631651958</v>
+        <v>3.4208972845336501</v>
       </c>
       <c r="D17" s="85" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="E17" s="203" t="s">
         <v>110</v>
       </c>
       <c r="F17" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="G17" s="203" t="s">
         <v>110</v>
@@ -21619,7 +21622,7 @@
         <v>0.3451251078516</v>
       </c>
       <c r="AR17" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AS17" s="202" t="s">
         <v>110</v>
@@ -21631,19 +21634,19 @@
         <v>0.3451251078516</v>
       </c>
       <c r="AV17" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AW17" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AX17" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AY17" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AZ17" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BA17" s="202" t="s">
         <v>110</v>
@@ -21661,7 +21664,7 @@
         <v>0.3451251078516</v>
       </c>
       <c r="BF17" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BG17" s="202" t="s">
         <v>110</v>
@@ -21783,7 +21786,7 @@
         <v>580</v>
       </c>
       <c r="C18" s="94">
-        <v>1.71187391163189</v>
+        <v>1.71192443919717</v>
       </c>
       <c r="D18" s="85">
         <v>0</v>
@@ -21966,7 +21969,7 @@
         <v>1.72413793103448</v>
       </c>
       <c r="BL18" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BM18" s="200" t="s">
         <v>110</v>
@@ -22014,52 +22017,52 @@
         <v>2.9310344827586201</v>
       </c>
       <c r="CB18" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="CC18" s="200" t="s">
         <v>110</v>
       </c>
       <c r="CD18" s="143" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="CE18" s="200" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CF18" s="143" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="CG18" s="200" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CH18" s="143" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="CI18" s="200" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CJ18" s="143" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="CK18" s="200" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CL18" s="143" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="CM18" s="200" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CN18" s="143" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="CO18" s="200" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CP18" s="143" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="CQ18" s="200" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:95">
@@ -22070,7 +22073,7 @@
         <v>921</v>
       </c>
       <c r="C19" s="93">
-        <v>2.71833771140167</v>
+        <v>2.7184179456906699</v>
       </c>
       <c r="D19" s="83">
         <v>0</v>
@@ -22079,7 +22082,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="G19" s="207" t="s">
         <v>110</v>
@@ -22187,7 +22190,7 @@
         <v>0.65146579804560001</v>
       </c>
       <c r="AP19" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AQ19" s="206" t="s">
         <v>110</v>
@@ -22223,13 +22226,13 @@
         <v>0.76004343105320005</v>
       </c>
       <c r="BB19" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BC19" s="206" t="s">
         <v>110</v>
       </c>
       <c r="BD19" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BE19" s="206" t="s">
         <v>110</v>
@@ -22357,7 +22360,7 @@
         <v>846</v>
       </c>
       <c r="C20" s="94">
-        <v>2.4969747055872</v>
+        <v>2.4970484061393199</v>
       </c>
       <c r="D20" s="78">
         <v>0</v>
@@ -22474,7 +22477,7 @@
         <v>0.47281323877068998</v>
       </c>
       <c r="AP20" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AQ20" s="202" t="s">
         <v>110</v>
@@ -22492,31 +22495,31 @@
         <v>0.47281323877068998</v>
       </c>
       <c r="AV20" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AW20" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AX20" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AY20" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AZ20" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BA20" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BB20" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BC20" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BD20" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BE20" s="202" t="s">
         <v>110</v>
@@ -22534,7 +22537,7 @@
         <v>0.47281323877068998</v>
       </c>
       <c r="BJ20" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BK20" s="200" t="s">
         <v>110</v>
@@ -22629,11 +22632,11 @@
       <c r="CO20" s="220">
         <v>3.3096926713947998</v>
       </c>
-      <c r="CP20" s="228" t="s">
-        <v>273</v>
-      </c>
-      <c r="CQ20" s="229" t="s">
-        <v>273</v>
+      <c r="CP20" s="221">
+        <v>0</v>
+      </c>
+      <c r="CQ20" s="220">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:95">
@@ -22644,16 +22647,16 @@
         <v>617</v>
       </c>
       <c r="C21" s="96">
-        <v>1.8210796611670299</v>
+        <v>1.8211334120425</v>
       </c>
       <c r="D21" s="62" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="E21" s="203" t="s">
         <v>110</v>
       </c>
       <c r="F21" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="G21" s="203" t="s">
         <v>110</v>
@@ -22761,19 +22764,19 @@
         <v>0.81037277147487996</v>
       </c>
       <c r="AP21" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AQ21" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AR21" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AS21" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AT21" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AU21" s="202" t="s">
         <v>110</v>
@@ -22785,13 +22788,13 @@
         <v>0.81037277147487996</v>
       </c>
       <c r="AX21" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AY21" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AZ21" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BA21" s="202" t="s">
         <v>110</v>
@@ -22803,13 +22806,13 @@
         <v>0.97244732576985005</v>
       </c>
       <c r="BD21" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BE21" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BF21" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BG21" s="202" t="s">
         <v>110</v>
@@ -22910,12 +22913,14 @@
       <c r="CM21" s="220">
         <v>1.7828200972447299</v>
       </c>
-      <c r="CN21" s="228" t="s">
-        <v>271</v>
-      </c>
-      <c r="CO21" s="220"/>
+      <c r="CN21" s="221">
+        <v>11</v>
+      </c>
+      <c r="CO21" s="220">
+        <v>1.7828200972447299</v>
+      </c>
       <c r="CP21" s="221" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="CQ21" s="220" t="s">
         <v>110</v>
@@ -22929,7 +22934,7 @@
         <v>716</v>
       </c>
       <c r="C22" s="94">
-        <v>2.11327882884212</v>
+        <v>2.1133412042502999</v>
       </c>
       <c r="D22" s="85">
         <v>0</v>
@@ -23082,25 +23087,25 @@
         <v>0.69832402234637003</v>
       </c>
       <c r="BB22" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BC22" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BD22" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BE22" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BF22" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BG22" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BH22" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BI22" s="200" t="s">
         <v>110</v>
@@ -23130,13 +23135,13 @@
         <v>0.55865921787710004</v>
       </c>
       <c r="BR22" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BS22" s="201" t="s">
         <v>110</v>
       </c>
       <c r="BT22" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BU22" s="201" t="s">
         <v>110</v>
@@ -23216,7 +23221,7 @@
         <v>451</v>
       </c>
       <c r="C23" s="93">
-        <v>1.3311295416310001</v>
+        <v>1.3311688311688299</v>
       </c>
       <c r="D23" s="78">
         <v>0</v>
@@ -23243,7 +23248,7 @@
         <v>1.1086474501108701</v>
       </c>
       <c r="L23" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="M23" s="207" t="s">
         <v>110</v>
@@ -23339,7 +23344,7 @@
         <v>0</v>
       </c>
       <c r="AR23" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AS23" s="206" t="s">
         <v>110</v>
@@ -23351,43 +23356,43 @@
         <v>0</v>
       </c>
       <c r="AV23" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AW23" s="206" t="s">
         <v>110</v>
       </c>
       <c r="AX23" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AY23" s="206" t="s">
         <v>110</v>
       </c>
       <c r="AZ23" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BA23" s="206" t="s">
         <v>110</v>
       </c>
       <c r="BB23" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BC23" s="206" t="s">
         <v>110</v>
       </c>
       <c r="BD23" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BE23" s="206" t="s">
         <v>110</v>
       </c>
       <c r="BF23" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BG23" s="206" t="s">
         <v>110</v>
       </c>
       <c r="BH23" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BI23" s="204" t="s">
         <v>110</v>
@@ -23405,19 +23410,19 @@
         <v>1.3303769401330401</v>
       </c>
       <c r="BN23" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BO23" s="204" t="s">
         <v>110</v>
       </c>
       <c r="BP23" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BQ23" s="204" t="s">
         <v>110</v>
       </c>
       <c r="BR23" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BS23" s="205" t="s">
         <v>110</v>
@@ -23483,15 +23488,17 @@
         <v>0</v>
       </c>
       <c r="CN23" s="221" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="CO23" s="220" t="s">
         <v>110</v>
       </c>
-      <c r="CP23" s="228" t="s">
-        <v>271</v>
-      </c>
-      <c r="CQ23" s="220"/>
+      <c r="CP23" s="221">
+        <v>0</v>
+      </c>
+      <c r="CQ23" s="220">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:95">
       <c r="A24" s="30" t="s">
@@ -23501,7 +23508,7 @@
         <v>645</v>
       </c>
       <c r="C24" s="94">
-        <v>1.9037218500044299</v>
+        <v>1.90377804014168</v>
       </c>
       <c r="D24" s="85">
         <v>0</v>
@@ -23510,7 +23517,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="G24" s="203" t="s">
         <v>110</v>
@@ -23624,25 +23631,25 @@
         <v>0</v>
       </c>
       <c r="AR24" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AS24" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AT24" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AU24" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AV24" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AW24" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AX24" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AY24" s="202" t="s">
         <v>110</v>
@@ -23654,13 +23661,13 @@
         <v>0.62015503875969002</v>
       </c>
       <c r="BB24" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BC24" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BD24" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BE24" s="202" t="s">
         <v>110</v>
@@ -23672,7 +23679,7 @@
         <v>0.77519379844961001</v>
       </c>
       <c r="BH24" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BI24" s="200" t="s">
         <v>110</v>
@@ -23684,13 +23691,13 @@
         <v>0.77519379844961001</v>
       </c>
       <c r="BL24" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BM24" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BN24" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BO24" s="200" t="s">
         <v>110</v>
@@ -23788,22 +23795,22 @@
         <v>562</v>
       </c>
       <c r="C25" s="94">
-        <v>1.6587467902364199</v>
+        <v>1.65879574970484</v>
       </c>
       <c r="D25" s="85" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="E25" s="203" t="s">
         <v>110</v>
       </c>
       <c r="F25" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="G25" s="203" t="s">
         <v>110</v>
       </c>
       <c r="H25" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="I25" s="203" t="s">
         <v>110</v>
@@ -23905,31 +23912,31 @@
         <v>1.4234875444839901</v>
       </c>
       <c r="AP25" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AQ25" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AR25" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AS25" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AT25" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AU25" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AV25" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AW25" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AX25" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AY25" s="202" t="s">
         <v>110</v>
@@ -23941,43 +23948,43 @@
         <v>0.71174377224199004</v>
       </c>
       <c r="BB25" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BC25" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BD25" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BE25" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BF25" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BG25" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BH25" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BI25" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BJ25" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BK25" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BL25" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BM25" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BN25" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BO25" s="200" t="s">
         <v>110</v>
@@ -23995,7 +24002,7 @@
         <v>0.71174377224199004</v>
       </c>
       <c r="BT25" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BU25" s="201" t="s">
         <v>110</v>
@@ -24075,7 +24082,7 @@
         <v>493</v>
       </c>
       <c r="C26" s="94">
-        <v>1.45509282488711</v>
+        <v>1.45513577331759</v>
       </c>
       <c r="D26" s="84">
         <v>0</v>
@@ -24090,13 +24097,13 @@
         <v>0</v>
       </c>
       <c r="H26" s="84" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="I26" s="203" t="s">
         <v>110</v>
       </c>
       <c r="J26" s="84" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="K26" s="203" t="s">
         <v>110</v>
@@ -24180,19 +24187,19 @@
         <v>1.21703853955375</v>
       </c>
       <c r="AL26" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AM26" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AN26" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AO26" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AP26" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AQ26" s="202" t="s">
         <v>110</v>
@@ -24210,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="AV26" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AW26" s="202" t="s">
         <v>110</v>
@@ -24222,7 +24229,7 @@
         <v>1.21703853955375</v>
       </c>
       <c r="AZ26" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BA26" s="202" t="s">
         <v>110</v>
@@ -24234,19 +24241,19 @@
         <v>0</v>
       </c>
       <c r="BD26" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BE26" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BF26" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BG26" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BH26" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BI26" s="200" t="s">
         <v>110</v>
@@ -24258,7 +24265,7 @@
         <v>1.01419878296146</v>
       </c>
       <c r="BL26" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BM26" s="200" t="s">
         <v>110</v>
@@ -24362,10 +24369,10 @@
         <v>357</v>
       </c>
       <c r="C27" s="94">
-        <v>1.0536879076768699</v>
+        <v>1.0537190082644601</v>
       </c>
       <c r="D27" s="84" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="E27" s="203" t="s">
         <v>110</v>
@@ -24377,7 +24384,7 @@
         <v>1.6806722689075599</v>
       </c>
       <c r="H27" s="84" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="I27" s="203" t="s">
         <v>110</v>
@@ -24473,55 +24480,55 @@
         <v>1.12044817927171</v>
       </c>
       <c r="AN27" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AO27" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AP27" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AQ27" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AR27" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AS27" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AT27" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AU27" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AV27" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AW27" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AX27" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AY27" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AZ27" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BA27" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BB27" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BC27" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BD27" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BE27" s="202" t="s">
         <v>110</v>
@@ -24533,13 +24540,13 @@
         <v>0</v>
       </c>
       <c r="BH27" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BI27" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BJ27" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BK27" s="200" t="s">
         <v>110</v>
@@ -24551,19 +24558,19 @@
         <v>0</v>
       </c>
       <c r="BN27" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BO27" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BP27" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BQ27" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BR27" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BS27" s="201" t="s">
         <v>110</v>
@@ -24649,7 +24656,7 @@
         <v>250</v>
       </c>
       <c r="C28" s="93">
-        <v>0.73787668604822998</v>
+        <v>0.73789846517118995</v>
       </c>
       <c r="D28" s="83">
         <v>0</v>
@@ -24658,13 +24665,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="83" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="G28" s="207" t="s">
         <v>110</v>
       </c>
       <c r="H28" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="I28" s="207" t="s">
         <v>110</v>
@@ -24736,7 +24743,7 @@
         <v>2</v>
       </c>
       <c r="AF28" s="83" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AG28" s="206" t="s">
         <v>110</v>
@@ -24754,13 +24761,13 @@
         <v>4.8</v>
       </c>
       <c r="AL28" s="83" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AM28" s="206" t="s">
         <v>110</v>
       </c>
       <c r="AN28" s="83" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AO28" s="206" t="s">
         <v>110</v>
@@ -24778,7 +24785,7 @@
         <v>0</v>
       </c>
       <c r="AT28" s="83" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AU28" s="206" t="s">
         <v>110</v>
@@ -24790,25 +24797,25 @@
         <v>0</v>
       </c>
       <c r="AX28" s="83" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AY28" s="206" t="s">
         <v>110</v>
       </c>
       <c r="AZ28" s="83" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BA28" s="206" t="s">
         <v>110</v>
       </c>
       <c r="BB28" s="83" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BC28" s="206" t="s">
         <v>110</v>
       </c>
       <c r="BD28" s="83" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BE28" s="206" t="s">
         <v>110</v>
@@ -24820,25 +24827,25 @@
         <v>0</v>
       </c>
       <c r="BH28" s="83" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BI28" s="204" t="s">
         <v>110</v>
       </c>
       <c r="BJ28" s="83" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BK28" s="204" t="s">
         <v>110</v>
       </c>
       <c r="BL28" s="83" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BM28" s="204" t="s">
         <v>110</v>
       </c>
       <c r="BN28" s="83" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BO28" s="204" t="s">
         <v>110</v>
@@ -24850,19 +24857,19 @@
         <v>0</v>
       </c>
       <c r="BR28" s="83" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BS28" s="205" t="s">
         <v>110</v>
       </c>
       <c r="BT28" s="83" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BU28" s="205" t="s">
         <v>110</v>
       </c>
       <c r="BV28" s="83" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BW28" s="204" t="s">
         <v>110</v>
@@ -24930,13 +24937,13 @@
     </row>
     <row r="29" spans="1:95">
       <c r="A29" s="30" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B29" s="90">
         <v>305</v>
       </c>
       <c r="C29" s="94">
-        <v>0.90020955697883998</v>
+        <v>0.90023612750884996</v>
       </c>
       <c r="D29" s="84">
         <v>0</v>
@@ -24951,7 +24958,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="84" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="I29" s="203" t="s">
         <v>110</v>
@@ -24963,13 +24970,13 @@
         <v>1.3114754098360699</v>
       </c>
       <c r="L29" s="84" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="M29" s="203" t="s">
         <v>110</v>
       </c>
       <c r="N29" s="84" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="O29" s="203" t="s">
         <v>110</v>
@@ -24981,7 +24988,7 @@
         <v>1.3114754098360699</v>
       </c>
       <c r="R29" s="84" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="S29" s="203" t="s">
         <v>110</v>
@@ -24993,7 +25000,7 @@
         <v>1.63934426229508</v>
       </c>
       <c r="V29" s="84" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="W29" s="202" t="s">
         <v>110</v>
@@ -25047,7 +25054,7 @@
         <v>1.3114754098360699</v>
       </c>
       <c r="AN29" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AO29" s="202" t="s">
         <v>110</v>
@@ -25071,7 +25078,7 @@
         <v>1.3114754098360699</v>
       </c>
       <c r="AV29" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AW29" s="202" t="s">
         <v>110</v>
@@ -25083,31 +25090,31 @@
         <v>1.63934426229508</v>
       </c>
       <c r="AZ29" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BA29" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BB29" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BC29" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BD29" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BE29" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BF29" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BG29" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BH29" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BI29" s="200" t="s">
         <v>110</v>
@@ -25131,13 +25138,13 @@
         <v>1.63934426229508</v>
       </c>
       <c r="BP29" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BQ29" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BR29" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BS29" s="201" t="s">
         <v>110</v>
@@ -25223,7 +25230,7 @@
         <v>73</v>
       </c>
       <c r="C30" s="97">
-        <v>0.21545999232608001</v>
+        <v>0.21546635182998999</v>
       </c>
       <c r="D30" s="86">
         <v>0</v>
@@ -25244,7 +25251,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="K30" s="199" t="s">
         <v>110</v>
@@ -25262,19 +25269,19 @@
         <v>0</v>
       </c>
       <c r="P30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="Q30" s="199" t="s">
         <v>110</v>
       </c>
       <c r="R30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="S30" s="199" t="s">
         <v>110</v>
       </c>
       <c r="T30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="U30" s="198" t="s">
         <v>110</v>
@@ -25286,7 +25293,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="Y30" s="198" t="s">
         <v>110</v>
@@ -25298,37 +25305,37 @@
         <v>0</v>
       </c>
       <c r="AB30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AC30" s="198" t="s">
         <v>110</v>
       </c>
       <c r="AD30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AE30" s="198" t="s">
         <v>110</v>
       </c>
       <c r="AF30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AG30" s="198" t="s">
         <v>110</v>
       </c>
       <c r="AH30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AI30" s="198" t="s">
         <v>110</v>
       </c>
       <c r="AJ30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AK30" s="198" t="s">
         <v>110</v>
       </c>
       <c r="AL30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AM30" s="198" t="s">
         <v>110</v>
@@ -25346,7 +25353,7 @@
         <v>0</v>
       </c>
       <c r="AR30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AS30" s="198" t="s">
         <v>110</v>
@@ -25358,37 +25365,37 @@
         <v>0</v>
       </c>
       <c r="AV30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AW30" s="198" t="s">
         <v>110</v>
       </c>
       <c r="AX30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AY30" s="198" t="s">
         <v>110</v>
       </c>
       <c r="AZ30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BA30" s="198" t="s">
         <v>110</v>
       </c>
       <c r="BB30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BC30" s="198" t="s">
         <v>110</v>
       </c>
       <c r="BD30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BE30" s="198" t="s">
         <v>110</v>
       </c>
       <c r="BF30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BG30" s="198" t="s">
         <v>110</v>
@@ -25406,13 +25413,13 @@
         <v>0</v>
       </c>
       <c r="BL30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BM30" s="196" t="s">
         <v>110</v>
       </c>
       <c r="BN30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BO30" s="196" t="s">
         <v>110</v>
@@ -25424,13 +25431,13 @@
         <v>0</v>
       </c>
       <c r="BR30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BS30" s="197" t="s">
         <v>110</v>
       </c>
       <c r="BT30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BU30" s="197" t="s">
         <v>110</v>
@@ -25454,52 +25461,52 @@
         <v>12.328767123287699</v>
       </c>
       <c r="CB30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="CC30" s="196" t="s">
         <v>110</v>
       </c>
       <c r="CD30" s="86" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="CE30" s="196" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CF30" s="86" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="CG30" s="196" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CH30" s="86" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="CI30" s="196" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CJ30" s="86" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="CK30" s="196" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CL30" s="86" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="CM30" s="196" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CN30" s="86" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="CO30" s="196" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CP30" s="86" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="CQ30" s="196" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:95" ht="15.75" customHeight="1" thickTop="1">
@@ -25589,21 +25596,27 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="CN6:CO6"/>
-    <mergeCell ref="CP6:CQ6"/>
-    <mergeCell ref="BX6:BY6"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="AT6:AU6"/>
-    <mergeCell ref="CF6:CG6"/>
-    <mergeCell ref="CH6:CI6"/>
-    <mergeCell ref="CD6:CE6"/>
-    <mergeCell ref="BZ6:CA6"/>
-    <mergeCell ref="CB6:CC6"/>
+    <mergeCell ref="AP6:AQ6"/>
+    <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="BP6:BQ6"/>
+    <mergeCell ref="BR6:BS6"/>
+    <mergeCell ref="BT6:BU6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="BJ6:BK6"/>
+    <mergeCell ref="BL6:BM6"/>
     <mergeCell ref="BN6:BO6"/>
-    <mergeCell ref="CJ6:CK6"/>
-    <mergeCell ref="CL6:CM6"/>
-    <mergeCell ref="BV6:BW6"/>
-    <mergeCell ref="CD5:CQ5"/>
+    <mergeCell ref="BH6:BI6"/>
+    <mergeCell ref="BF6:BG6"/>
+    <mergeCell ref="BD6:BE6"/>
+    <mergeCell ref="BB6:BC6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AJ6:AK6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Y6"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="A6:A7"/>
@@ -25620,26 +25633,20 @@
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="BJ6:BK6"/>
-    <mergeCell ref="BL6:BM6"/>
-    <mergeCell ref="BH6:BI6"/>
-    <mergeCell ref="BF6:BG6"/>
-    <mergeCell ref="BD6:BE6"/>
-    <mergeCell ref="BB6:BC6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="AF6:AG6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AJ6:AK6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="AP6:AQ6"/>
-    <mergeCell ref="AR6:AS6"/>
-    <mergeCell ref="BP6:BQ6"/>
-    <mergeCell ref="BR6:BS6"/>
-    <mergeCell ref="BT6:BU6"/>
+    <mergeCell ref="AT6:AU6"/>
+    <mergeCell ref="CF6:CG6"/>
+    <mergeCell ref="CH6:CI6"/>
+    <mergeCell ref="CD6:CE6"/>
+    <mergeCell ref="BZ6:CA6"/>
+    <mergeCell ref="CB6:CC6"/>
+    <mergeCell ref="BV6:BW6"/>
+    <mergeCell ref="CN6:CO6"/>
+    <mergeCell ref="CP6:CQ6"/>
+    <mergeCell ref="CD5:CQ5"/>
+    <mergeCell ref="BX6:BY6"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="CJ6:CK6"/>
+    <mergeCell ref="CL6:CM6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -25657,44 +25664,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Publiceringsdatum xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">2020-04-28T22:00:00+00:00</Publiceringsdatum>
-    <Verksamhetsomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <Value>Hälso- och sjukvård</Value>
-    </Verksamhetsomr_x00e5_de>
-    <E_x002d_plikt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Ja</E_x002d_plikt>
-    <Produkt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Statistik</Produkt>
-    <Ansvarig_x0020_webbredakt_x00f6_r xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <UserInfo>
-        <DisplayName>Söderholm, Joen</DisplayName>
-        <AccountId>87</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </Ansvarig_x0020_webbredakt_x00f6_r>
-    <TaxCatchAll xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">
-      <Value>9</Value>
-    </TaxCatchAll>
-    <Dokumenttyp xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Övrigt</Dokumenttyp>
-    <Titel xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">statistik-covid19-avlidna</Titel>
-    <Webbplatstillh_x00f6_righet xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <Value>Socialstyrelsen.se</Value>
-    </Webbplatstillh_x00f6_righet>
-    <i01e5b6f93524074838bfc1e1bab8714 xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">statistik och jämförelser</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">338b04a2-62bc-42a8-9e4b-6158db2fb390</TermId>
-        </TermInfo>
-      </Terms>
-    </i01e5b6f93524074838bfc1e1bab8714>
-    <_x00c4_mnesomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
-    <Status_x0020_p_x00e5__x0020_publikation xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Publicerad</Status_x0020_p_x00e5__x0020_publikation>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100361443839E954C488E1554F766430BDE" ma:contentTypeVersion="37" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="ec0867efc9d878e75742a5b73fddae48">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dd3acd59-a8d8-42b1-950d-eec6c247243c" xmlns:ns3="343f6c91-b5b3-4dff-89ad-5fc55ccc8930" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f4ea334ff345e29c5775f0a2fd1174f" ns2:_="" ns3:_="">
     <xsd:import namespace="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
@@ -26027,6 +25996,44 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Publiceringsdatum xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">2020-04-28T22:00:00+00:00</Publiceringsdatum>
+    <Verksamhetsomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <Value>Hälso- och sjukvård</Value>
+    </Verksamhetsomr_x00e5_de>
+    <E_x002d_plikt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Ja</E_x002d_plikt>
+    <Produkt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Statistik</Produkt>
+    <Ansvarig_x0020_webbredakt_x00f6_r xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <UserInfo>
+        <DisplayName>Söderholm, Joen</DisplayName>
+        <AccountId>87</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </Ansvarig_x0020_webbredakt_x00f6_r>
+    <TaxCatchAll xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">
+      <Value>9</Value>
+    </TaxCatchAll>
+    <Dokumenttyp xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Övrigt</Dokumenttyp>
+    <Titel xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">statistik-covid19-avlidna</Titel>
+    <Webbplatstillh_x00f6_righet xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <Value>Socialstyrelsen.se</Value>
+    </Webbplatstillh_x00f6_righet>
+    <i01e5b6f93524074838bfc1e1bab8714 xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">statistik och jämförelser</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">338b04a2-62bc-42a8-9e4b-6158db2fb390</TermId>
+        </TermInfo>
+      </Terms>
+    </i01e5b6f93524074838bfc1e1bab8714>
+    <_x00c4_mnesomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
+    <Status_x0020_p_x00e5__x0020_publikation xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Publicerad</Status_x0020_p_x00e5__x0020_publikation>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C92573-D875-4871-BB97-75789C903393}">
   <ds:schemaRefs>
@@ -26036,23 +26043,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4CF34A-7793-424A-BF7F-3DB732CF3454}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
-    <ds:schemaRef ds:uri="343f6c91-b5b3-4dff-89ad-5fc55ccc8930"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2BDD971-BADF-427E-9579-B824215A28B1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26069,4 +26059,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4CF34A-7793-424A-BF7F-3DB732CF3454}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="343f6c91-b5b3-4dff-89ad-5fc55ccc8930"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/socialstyrelsen/statistik-covid19-inskrivna_latest.xlsx
+++ b/socialstyrelsen/statistik-covid19-inskrivna_latest.xlsx
@@ -31,12 +31,12 @@
     <definedName name="innehållsförteckning" localSheetId="2">'[2]Om statistiken'!#REF!</definedName>
     <definedName name="innehållsförteckning">'Om statistiken'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="288">
   <si>
     <t>Diabetes</t>
   </si>
@@ -995,6 +995,141 @@
     </r>
   </si>
   <si>
+    <t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19.</t>
+  </si>
+  <si>
+    <t>vecka 26</t>
+  </si>
+  <si>
+    <t>vecka 27</t>
+  </si>
+  <si>
+    <t>vecka 28</t>
+  </si>
+  <si>
+    <t>vecka 29</t>
+  </si>
+  <si>
+    <t>vecka 30</t>
+  </si>
+  <si>
+    <t>vecka 31</t>
+  </si>
+  <si>
+    <t>vecka 32</t>
+  </si>
+  <si>
+    <t>vecka 33</t>
+  </si>
+  <si>
+    <t>vecka 34</t>
+  </si>
+  <si>
+    <t>Beräkning av boendeform/socialtjänstinsats har korrigerats.</t>
+  </si>
+  <si>
+    <t>vecka 35</t>
+  </si>
+  <si>
+    <t>vecka 36</t>
+  </si>
+  <si>
+    <t>vecka 37</t>
+  </si>
+  <si>
+    <t>vecka 39</t>
+  </si>
+  <si>
+    <t>vecka 38</t>
+  </si>
+  <si>
+    <t>vecka 40</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Blekinge</t>
+  </si>
+  <si>
+    <t>vecka 41</t>
+  </si>
+  <si>
+    <t>vecka 42</t>
+  </si>
+  <si>
+    <t>vecka 48</t>
+  </si>
+  <si>
+    <t>vecka 47</t>
+  </si>
+  <si>
+    <t>vecka 46</t>
+  </si>
+  <si>
+    <t>vecka 45</t>
+  </si>
+  <si>
+    <t>vecka 44</t>
+  </si>
+  <si>
+    <t>vecka 43</t>
+  </si>
+  <si>
+    <t>vecka 50</t>
+  </si>
+  <si>
+    <t>vecka 49</t>
+  </si>
+  <si>
+    <t>vecka 51</t>
+  </si>
+  <si>
+    <t>vecka 52</t>
+  </si>
+  <si>
+    <t>vecka 53</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>IU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IU </t>
+  </si>
+  <si>
+    <t>Populationen utgörs av alla individer som slutenvårdats för covid-19 med inskrivningsdatum fram till och med 24 januari enligt rapportering till patientregistret eller frivillig särskild</t>
+  </si>
+  <si>
+    <t>gång. Statistiken är preliminär och baserad på de uppgifter som inkommit till Socialstyrelsen vid den 24 januari 2021. Notera bortfallet som beskrivs nedan.</t>
+  </si>
+  <si>
+    <t>2021W03</t>
+  </si>
+  <si>
+    <t>2020W49</t>
+  </si>
+  <si>
+    <t>2021W04</t>
+  </si>
+  <si>
+    <t>2021W02</t>
+  </si>
+  <si>
+    <t>vecka 1 2021</t>
+  </si>
+  <si>
+    <t>vecka 2 2021</t>
+  </si>
+  <si>
+    <t>vecka 3 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antal unika patienter som rapporterats till Socialstyrelsen, som utskrivna från slutenvård som vårdats med diagnosen covid-19. Endast den sista utskrivningen i slutenvård för en patient ingår i statistiken, om det skulle förekomma mer än ett. </t>
+  </si>
+  <si>
     <r>
       <t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19</t>
     </r>
@@ -1015,146 +1150,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Endast den första inskrivningen i slutenvård för en patient ingår i statistiken, skulle det förkomma mer än ett.</t>
+      <t xml:space="preserve"> Endast den första inskrivningen i slutenvård för en patient ingår i statistiken, om det skulle förekomma mer än ett.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Antal unika patienter som rapporterats till Socialstyrelsen, som utskrivna från slutenvård som vårdats med diagnosen covid-19. Endast den sista utskrivningen i slutenvård för en patient ingår i statistiken, skulle det förkomma mer än ett. </t>
-  </si>
-  <si>
-    <t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19.</t>
-  </si>
-  <si>
-    <t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19. Endast ett slutenvårdstillfälle för en patient ingår i statistiken, skulle det förkomma mer än ett.</t>
-  </si>
-  <si>
-    <t>vecka 26</t>
-  </si>
-  <si>
-    <t>vecka 27</t>
-  </si>
-  <si>
-    <t>vecka 28</t>
-  </si>
-  <si>
-    <t>vecka 29</t>
-  </si>
-  <si>
-    <t>vecka 30</t>
-  </si>
-  <si>
-    <t>vecka 31</t>
-  </si>
-  <si>
-    <t>vecka 32</t>
-  </si>
-  <si>
-    <t>vecka 33</t>
-  </si>
-  <si>
-    <t>vecka 34</t>
-  </si>
-  <si>
-    <t>Beräkning av boendeform/socialtjänstinsats har korrigerats.</t>
-  </si>
-  <si>
-    <t>vecka 35</t>
-  </si>
-  <si>
-    <t>vecka 36</t>
-  </si>
-  <si>
-    <t>vecka 37</t>
-  </si>
-  <si>
-    <t>vecka 39</t>
-  </si>
-  <si>
-    <t>vecka 38</t>
-  </si>
-  <si>
-    <t>vecka 40</t>
-  </si>
-  <si>
-    <t>Population</t>
-  </si>
-  <si>
-    <t>Blekinge</t>
-  </si>
-  <si>
-    <t>vecka 41</t>
-  </si>
-  <si>
-    <t>vecka 42</t>
-  </si>
-  <si>
-    <t>vecka 48</t>
-  </si>
-  <si>
-    <t>vecka 47</t>
-  </si>
-  <si>
-    <t>vecka 46</t>
-  </si>
-  <si>
-    <t>vecka 45</t>
-  </si>
-  <si>
-    <t>vecka 44</t>
-  </si>
-  <si>
-    <t>vecka 43</t>
-  </si>
-  <si>
-    <t>vecka 50</t>
-  </si>
-  <si>
-    <t>vecka 49</t>
-  </si>
-  <si>
-    <t>vecka 51</t>
-  </si>
-  <si>
-    <t>vecka 52</t>
-  </si>
-  <si>
-    <t>vecka 53</t>
-  </si>
-  <si>
-    <t>vecka 1</t>
-  </si>
-  <si>
-    <t>vecka 2</t>
-  </si>
-  <si>
-    <t>vecka 3</t>
-  </si>
-  <si>
-    <t>IU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IU </t>
-  </si>
-  <si>
-    <t>Populationen utgörs av alla individer som slutenvårdats för covid-19 med inskrivningsdatum fram till och med 24 januari enligt rapportering till patientregistret eller frivillig särskild</t>
-  </si>
-  <si>
-    <t>gång. Statistiken är preliminär och baserad på de uppgifter som inkommit till Socialstyrelsen vid den 24 januari 2021. Notera bortfallet som beskrivs nedan.</t>
-  </si>
-  <si>
-    <t>2021W03</t>
-  </si>
-  <si>
-    <t>2020W49</t>
-  </si>
-  <si>
-    <t>2021W04</t>
-  </si>
-  <si>
-    <t>2021W02</t>
-  </si>
-  <si>
-    <t>X</t>
+    <t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19. Endast ett slutenvårdstillfälle för en patient ingår i statistiken,  om det skulle förekomma mer än ett.</t>
   </si>
   <si>
     <r>
@@ -1449,7 +1449,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -2029,17 +2029,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2091,7 +2080,7 @@
     <xf numFmtId="167" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="300">
+  <cellXfs count="301">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2711,22 +2700,25 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="36" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="53" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="38" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="36" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2768,6 +2760,69 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2783,78 +2838,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2912,32 +2904,32 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="29" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="29" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5459,16 +5451,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>483870</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>65370</xdr:colOff>
+      <xdr:colOff>55845</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>36195</xdr:rowOff>
+      <xdr:rowOff>17145</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5479,7 +5471,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4922520" y="638175"/>
+          <a:off x="4912995" y="619125"/>
           <a:ext cx="1296000" cy="360045"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -5958,7 +5950,7 @@
               <a:latin typeface="Century Gothic"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19. Endast ett slutenvårdstillfälle för en patient ingår i statistiken, skulle det förkomma mer än ett.</a:t>
+            <a:t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19. Endast ett slutenvårdstillfälle för en patient ingår i statistiken,  om det skulle förekomma mer än ett.</a:t>
           </a:fld>
           <a:endParaRPr lang="sv-SE" sz="800" b="0"/>
         </a:p>
@@ -7791,88 +7783,88 @@
     <row r="1" spans="2:6" ht="60" customHeight="1"/>
     <row r="2" spans="2:6" ht="14.25" thickBot="1"/>
     <row r="3" spans="2:6" ht="15.6" customHeight="1">
-      <c r="B3" s="233" t="s">
-        <v>259</v>
-      </c>
-      <c r="C3" s="234"/>
-      <c r="D3" s="234"/>
-      <c r="E3" s="234"/>
-      <c r="F3" s="235"/>
+      <c r="B3" s="234" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" s="235"/>
+      <c r="D3" s="235"/>
+      <c r="E3" s="235"/>
+      <c r="F3" s="236"/>
     </row>
     <row r="4" spans="2:6" s="30" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B4" s="239" t="s">
-        <v>279</v>
-      </c>
-      <c r="C4" s="240"/>
-      <c r="D4" s="240"/>
-      <c r="E4" s="240"/>
-      <c r="F4" s="241"/>
+      <c r="B4" s="240" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" s="241"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="241"/>
+      <c r="F4" s="242"/>
     </row>
     <row r="5" spans="2:6" s="30" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B5" s="239" t="str">
+      <c r="B5" s="240" t="str">
         <f>"veckovis inrapportering om slutenvård till Socialstyrelsen från regionerna. Patienter som slutenvårdas vid fler än ett tillfälle räknas bara som inskriven en gång respektive utskriven en"</f>
         <v>veckovis inrapportering om slutenvård till Socialstyrelsen från regionerna. Patienter som slutenvårdas vid fler än ett tillfälle räknas bara som inskriven en gång respektive utskriven en</v>
       </c>
-      <c r="C5" s="240"/>
-      <c r="D5" s="240"/>
-      <c r="E5" s="240"/>
-      <c r="F5" s="241"/>
+      <c r="C5" s="241"/>
+      <c r="D5" s="241"/>
+      <c r="E5" s="241"/>
+      <c r="F5" s="242"/>
     </row>
     <row r="6" spans="2:6" s="30" customFormat="1" ht="15.6" customHeight="1">
-      <c r="B6" s="239" t="s">
-        <v>280</v>
-      </c>
-      <c r="C6" s="240"/>
-      <c r="D6" s="240"/>
-      <c r="E6" s="240"/>
-      <c r="F6" s="241"/>
+      <c r="B6" s="240" t="s">
+        <v>275</v>
+      </c>
+      <c r="C6" s="241"/>
+      <c r="D6" s="241"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="242"/>
     </row>
     <row r="7" spans="2:6" ht="42.6" customHeight="1">
-      <c r="B7" s="236" t="s">
+      <c r="B7" s="237" t="s">
         <v>220</v>
       </c>
-      <c r="C7" s="237"/>
-      <c r="D7" s="237"/>
-      <c r="E7" s="237"/>
-      <c r="F7" s="238"/>
+      <c r="C7" s="238"/>
+      <c r="D7" s="238"/>
+      <c r="E7" s="238"/>
+      <c r="F7" s="239"/>
     </row>
     <row r="8" spans="2:6" ht="33" customHeight="1">
-      <c r="B8" s="236" t="s">
+      <c r="B8" s="237" t="s">
         <v>179</v>
       </c>
-      <c r="C8" s="237"/>
-      <c r="D8" s="237"/>
-      <c r="E8" s="237"/>
-      <c r="F8" s="238"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="238"/>
+      <c r="E8" s="238"/>
+      <c r="F8" s="239"/>
     </row>
     <row r="9" spans="2:6" ht="57.75" customHeight="1">
-      <c r="B9" s="239" t="s">
+      <c r="B9" s="240" t="s">
         <v>223</v>
       </c>
-      <c r="C9" s="240"/>
-      <c r="D9" s="240"/>
-      <c r="E9" s="240"/>
-      <c r="F9" s="241"/>
+      <c r="C9" s="241"/>
+      <c r="D9" s="241"/>
+      <c r="E9" s="241"/>
+      <c r="F9" s="242"/>
     </row>
     <row r="10" spans="2:6" ht="54.75" customHeight="1">
-      <c r="B10" s="239" t="s">
+      <c r="B10" s="240" t="s">
         <v>188</v>
       </c>
-      <c r="C10" s="240"/>
-      <c r="D10" s="240"/>
-      <c r="E10" s="240"/>
-      <c r="F10" s="241"/>
-    </row>
-    <row r="11" spans="2:6" ht="148.5" customHeight="1" thickBot="1">
-      <c r="B11" s="230" t="s">
+      <c r="C10" s="241"/>
+      <c r="D10" s="241"/>
+      <c r="E10" s="241"/>
+      <c r="F10" s="242"/>
+    </row>
+    <row r="11" spans="2:6" ht="153.75" customHeight="1" thickBot="1">
+      <c r="B11" s="231" t="s">
         <v>286</v>
       </c>
-      <c r="C11" s="231"/>
-      <c r="D11" s="231"/>
-      <c r="E11" s="231"/>
-      <c r="F11" s="232"/>
-    </row>
-    <row r="12" spans="2:6">
+      <c r="C11" s="232"/>
+      <c r="D11" s="232"/>
+      <c r="E11" s="232"/>
+      <c r="F11" s="233"/>
+    </row>
+    <row r="12" spans="2:6" ht="14.25" customHeight="1">
       <c r="B12" s="20"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -7891,11 +7883,11 @@
       <c r="B15" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="229" t="s">
+      <c r="C15" s="230" t="s">
         <v>155</v>
       </c>
-      <c r="D15" s="229"/>
-      <c r="E15" s="229"/>
+      <c r="D15" s="230"/>
+      <c r="E15" s="230"/>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="37" t="s">
@@ -8420,7 +8412,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="50.45" customHeight="1">
-      <c r="B13" s="244" t="s">
+      <c r="B13" s="266" t="s">
         <v>163</v>
       </c>
       <c r="C13" s="74" t="s">
@@ -8434,24 +8426,24 @@
       </c>
     </row>
     <row r="14" spans="2:5" s="30" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B14" s="245"/>
+      <c r="B14" s="267"/>
       <c r="C14" s="129" t="s">
         <v>238</v>
       </c>
-      <c r="D14" s="242" t="s">
+      <c r="D14" s="264" t="s">
         <v>151</v>
       </c>
-      <c r="E14" s="242" t="s">
+      <c r="E14" s="264" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="15" spans="2:5" s="30" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
-      <c r="B15" s="245"/>
+      <c r="B15" s="267"/>
       <c r="C15" s="112" t="s">
         <v>187</v>
       </c>
-      <c r="D15" s="242"/>
-      <c r="E15" s="243"/>
+      <c r="D15" s="264"/>
+      <c r="E15" s="265"/>
     </row>
     <row r="16" spans="2:5" s="30" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="B16" s="109" t="s">
@@ -8467,20 +8459,20 @@
       <c r="B17" s="106" t="s">
         <v>215</v>
       </c>
-      <c r="C17" s="251" t="s">
+      <c r="C17" s="271" t="s">
         <v>219</v>
       </c>
-      <c r="D17" s="251"/>
+      <c r="D17" s="271"/>
       <c r="E17" s="108"/>
     </row>
     <row r="18" spans="2:6" s="30" customFormat="1" ht="40.5" customHeight="1" thickBot="1">
       <c r="B18" s="107" t="s">
         <v>216</v>
       </c>
-      <c r="C18" s="250" t="s">
+      <c r="C18" s="270" t="s">
         <v>217</v>
       </c>
-      <c r="D18" s="250"/>
+      <c r="D18" s="270"/>
       <c r="E18" s="108"/>
     </row>
     <row r="19" spans="2:6" ht="14.25" thickTop="1">
@@ -8697,16 +8689,16 @@
       <c r="F38" s="39"/>
     </row>
     <row r="39" spans="2:6" ht="27.75" thickTop="1">
-      <c r="B39" s="246" t="s">
+      <c r="B39" s="268" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="248" t="s">
+      <c r="D39" s="269" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="248" t="s">
+      <c r="E39" s="269" t="s">
         <v>49</v>
       </c>
       <c r="F39" s="10" t="s">
@@ -8714,45 +8706,45 @@
       </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="247"/>
+      <c r="B40" s="260"/>
       <c r="C40" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="249"/>
-      <c r="E40" s="249"/>
+      <c r="D40" s="255"/>
+      <c r="E40" s="255"/>
       <c r="F40" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="247"/>
+      <c r="B41" s="260"/>
       <c r="C41" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="249"/>
-      <c r="E41" s="249"/>
+      <c r="D41" s="255"/>
+      <c r="E41" s="255"/>
       <c r="F41" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="247"/>
+      <c r="B42" s="260"/>
       <c r="C42" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D42" s="249"/>
-      <c r="E42" s="249"/>
+      <c r="D42" s="255"/>
+      <c r="E42" s="255"/>
       <c r="F42" s="11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="27">
-      <c r="B43" s="247"/>
+      <c r="B43" s="260"/>
       <c r="C43" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="D43" s="249"/>
-      <c r="E43" s="249"/>
+      <c r="D43" s="255"/>
+      <c r="E43" s="255"/>
       <c r="F43" s="11" t="s">
         <v>55</v>
       </c>
@@ -8782,22 +8774,22 @@
       <c r="F45" s="26"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="255"/>
-      <c r="C46" s="255"/>
-      <c r="D46" s="249" t="s">
+      <c r="B46" s="254"/>
+      <c r="C46" s="254"/>
+      <c r="D46" s="255" t="s">
         <v>60</v>
       </c>
-      <c r="E46" s="249" t="s">
+      <c r="E46" s="255" t="s">
         <v>61</v>
       </c>
-      <c r="F46" s="249"/>
+      <c r="F46" s="255"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="255"/>
-      <c r="C47" s="255"/>
-      <c r="D47" s="249"/>
-      <c r="E47" s="249"/>
-      <c r="F47" s="249"/>
+      <c r="B47" s="254"/>
+      <c r="C47" s="254"/>
+      <c r="D47" s="255"/>
+      <c r="E47" s="255"/>
+      <c r="F47" s="255"/>
     </row>
     <row r="48" spans="2:6" ht="14.25" thickBot="1">
       <c r="B48" s="39"/>
@@ -8811,16 +8803,16 @@
       <c r="F48" s="40"/>
     </row>
     <row r="49" spans="2:6" ht="14.25" thickTop="1">
-      <c r="B49" s="254" t="s">
+      <c r="B49" s="259" t="s">
         <v>0</v>
       </c>
       <c r="C49" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D49" s="256" t="s">
+      <c r="D49" s="261" t="s">
         <v>65</v>
       </c>
-      <c r="E49" s="256" t="s">
+      <c r="E49" s="261" t="s">
         <v>66</v>
       </c>
       <c r="F49" s="25" t="s">
@@ -8828,30 +8820,30 @@
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="247"/>
+      <c r="B50" s="260"/>
       <c r="C50" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="255"/>
-      <c r="E50" s="255"/>
+      <c r="D50" s="254"/>
+      <c r="E50" s="254"/>
       <c r="F50" s="25"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="247"/>
+      <c r="B51" s="260"/>
       <c r="C51" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="255"/>
-      <c r="E51" s="255"/>
+      <c r="D51" s="254"/>
+      <c r="E51" s="254"/>
       <c r="F51" s="25"/>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="247"/>
+      <c r="B52" s="260"/>
       <c r="C52" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D52" s="255"/>
-      <c r="E52" s="255"/>
+      <c r="D52" s="254"/>
+      <c r="E52" s="254"/>
       <c r="F52" s="25"/>
     </row>
     <row r="53" spans="2:6" ht="27">
@@ -8903,46 +8895,46 @@
       <c r="F56" s="39"/>
     </row>
     <row r="57" spans="2:6" ht="14.25" thickTop="1">
-      <c r="B57" s="257" t="s">
+      <c r="B57" s="262" t="s">
         <v>76</v>
       </c>
       <c r="C57" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="259" t="s">
+      <c r="D57" s="263" t="s">
         <v>77</v>
       </c>
-      <c r="E57" s="259" t="s">
+      <c r="E57" s="263" t="s">
         <v>76</v>
       </c>
-      <c r="F57" s="252"/>
+      <c r="F57" s="258"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="258"/>
+      <c r="B58" s="253"/>
       <c r="C58" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="249"/>
-      <c r="E58" s="249"/>
-      <c r="F58" s="253"/>
+      <c r="D58" s="255"/>
+      <c r="E58" s="255"/>
+      <c r="F58" s="243"/>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="258"/>
+      <c r="B59" s="253"/>
       <c r="C59" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="249"/>
-      <c r="E59" s="249"/>
-      <c r="F59" s="253"/>
+      <c r="D59" s="255"/>
+      <c r="E59" s="255"/>
+      <c r="F59" s="243"/>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="258"/>
+      <c r="B60" s="253"/>
       <c r="C60" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D60" s="249"/>
-      <c r="E60" s="249"/>
-      <c r="F60" s="253"/>
+      <c r="D60" s="255"/>
+      <c r="E60" s="255"/>
+      <c r="F60" s="243"/>
     </row>
     <row r="61" spans="2:6" ht="27">
       <c r="B61" s="24"/>
@@ -8958,22 +8950,22 @@
       <c r="F61" s="23"/>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="258"/>
-      <c r="C62" s="255"/>
-      <c r="D62" s="249" t="s">
+      <c r="B62" s="253"/>
+      <c r="C62" s="254"/>
+      <c r="D62" s="255" t="s">
         <v>80</v>
       </c>
-      <c r="E62" s="249" t="s">
+      <c r="E62" s="255" t="s">
         <v>81</v>
       </c>
-      <c r="F62" s="253"/>
+      <c r="F62" s="243"/>
     </row>
     <row r="63" spans="2:6">
-      <c r="B63" s="258"/>
-      <c r="C63" s="255"/>
-      <c r="D63" s="249"/>
-      <c r="E63" s="249"/>
-      <c r="F63" s="253"/>
+      <c r="B63" s="253"/>
+      <c r="C63" s="254"/>
+      <c r="D63" s="255"/>
+      <c r="E63" s="255"/>
+      <c r="F63" s="243"/>
     </row>
     <row r="64" spans="2:6">
       <c r="B64" s="24"/>
@@ -9109,47 +9101,47 @@
     </row>
     <row r="76" spans="2:6" ht="14.25" thickTop="1"/>
     <row r="78" spans="2:6">
-      <c r="B78" s="266" t="s">
+      <c r="B78" s="250" t="s">
         <v>147</v>
       </c>
-      <c r="C78" s="267"/>
-      <c r="D78" s="267"/>
-      <c r="E78" s="267"/>
+      <c r="C78" s="251"/>
+      <c r="D78" s="251"/>
+      <c r="E78" s="251"/>
     </row>
     <row r="79" spans="2:6" s="30" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="B79" s="264" t="s">
+      <c r="B79" s="248" t="s">
         <v>287</v>
       </c>
-      <c r="C79" s="264"/>
-      <c r="D79" s="264"/>
+      <c r="C79" s="248"/>
+      <c r="D79" s="248"/>
       <c r="E79" s="28"/>
     </row>
     <row r="80" spans="2:6">
       <c r="B80" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C80" s="263" t="s">
+      <c r="C80" s="247" t="s">
         <v>138</v>
       </c>
-      <c r="D80" s="263"/>
+      <c r="D80" s="247"/>
     </row>
     <row r="81" spans="2:4" ht="57" customHeight="1">
       <c r="B81" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="C81" s="265" t="s">
+      <c r="C81" s="249" t="s">
         <v>143</v>
       </c>
-      <c r="D81" s="265"/>
+      <c r="D81" s="249"/>
     </row>
     <row r="82" spans="2:4" ht="72" customHeight="1" thickBot="1">
       <c r="B82" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="C82" s="262" t="s">
+      <c r="C82" s="246" t="s">
         <v>144</v>
       </c>
-      <c r="D82" s="262"/>
+      <c r="D82" s="246"/>
     </row>
     <row r="83" spans="2:4" ht="14.25" thickTop="1"/>
     <row r="84" spans="2:4">
@@ -9164,37 +9156,37 @@
       <c r="C85" s="73"/>
     </row>
     <row r="86" spans="2:4" ht="42" customHeight="1" thickBot="1">
-      <c r="B86" s="270" t="s">
+      <c r="B86" s="257" t="s">
         <v>186</v>
       </c>
-      <c r="C86" s="270"/>
-      <c r="D86" s="270"/>
+      <c r="C86" s="257"/>
+      <c r="D86" s="257"/>
     </row>
     <row r="87" spans="2:4" ht="14.25" thickBot="1">
-      <c r="B87" s="260" t="s">
+      <c r="B87" s="244" t="s">
         <v>148</v>
       </c>
-      <c r="C87" s="268" t="s">
+      <c r="C87" s="252" t="s">
         <v>224</v>
       </c>
-      <c r="D87" s="269" t="s">
+      <c r="D87" s="256" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="88" spans="2:4">
-      <c r="B88" s="261"/>
-      <c r="C88" s="268"/>
-      <c r="D88" s="269"/>
+      <c r="B88" s="245"/>
+      <c r="C88" s="252"/>
+      <c r="D88" s="256"/>
     </row>
     <row r="89" spans="2:4">
       <c r="B89" s="19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C89" s="133">
         <v>44220</v>
       </c>
       <c r="D89" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="90" spans="2:4">
@@ -9205,7 +9197,7 @@
         <v>44217</v>
       </c>
       <c r="D90" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="91" spans="2:4">
@@ -9216,7 +9208,7 @@
         <v>44165</v>
       </c>
       <c r="D91" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="92" spans="2:4">
@@ -9227,7 +9219,7 @@
         <v>44218</v>
       </c>
       <c r="D92" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="93" spans="2:4">
@@ -9238,7 +9230,7 @@
         <v>44220</v>
       </c>
       <c r="D93" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="94" spans="2:4">
@@ -9249,7 +9241,7 @@
         <v>44220</v>
       </c>
       <c r="D94" s="30" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="95" spans="2:4">
@@ -9260,7 +9252,7 @@
         <v>44220</v>
       </c>
       <c r="D95" s="30" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="96" spans="2:4">
@@ -9271,7 +9263,7 @@
         <v>44220</v>
       </c>
       <c r="D96" s="30" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="97" spans="2:4">
@@ -9282,7 +9274,7 @@
         <v>44220</v>
       </c>
       <c r="D97" s="30" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="98" spans="2:4">
@@ -9293,7 +9285,7 @@
         <v>44165</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="99" spans="2:4">
@@ -9304,7 +9296,7 @@
         <v>44214</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="100" spans="2:4">
@@ -9315,7 +9307,7 @@
         <v>44220</v>
       </c>
       <c r="D100" s="30" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="101" spans="2:4">
@@ -9326,7 +9318,7 @@
         <v>44221</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="102" spans="2:4">
@@ -9337,7 +9329,7 @@
         <v>44220</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="103" spans="2:4">
@@ -9348,7 +9340,7 @@
         <v>44220</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="104" spans="2:4">
@@ -9359,7 +9351,7 @@
         <v>44216</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="105" spans="2:4">
@@ -9367,10 +9359,10 @@
         <v>125</v>
       </c>
       <c r="C105" s="133">
-        <v>44224</v>
+        <v>44221</v>
       </c>
       <c r="D105" s="30" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="106" spans="2:4">
@@ -9381,7 +9373,7 @@
         <v>44215</v>
       </c>
       <c r="D106" s="30" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="107" spans="2:4">
@@ -9392,7 +9384,7 @@
         <v>44221</v>
       </c>
       <c r="D107" s="30" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="108" spans="2:4">
@@ -9403,7 +9395,7 @@
         <v>44213</v>
       </c>
       <c r="D108" s="30" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="109" spans="2:4" ht="14.25" thickBot="1">
@@ -9414,7 +9406,7 @@
         <v>44220</v>
       </c>
       <c r="D109" s="135" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="110" spans="2:4" ht="14.25" thickTop="1"/>
@@ -9423,6 +9415,26 @@
     <sortCondition ref="B85:B105"/>
   </sortState>
   <mergeCells count="34">
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="E57:E60"/>
     <mergeCell ref="F62:F63"/>
     <mergeCell ref="B87:B88"/>
     <mergeCell ref="C82:D82"/>
@@ -9437,26 +9449,6 @@
     <mergeCell ref="E62:E63"/>
     <mergeCell ref="D87:D88"/>
     <mergeCell ref="B86:D86"/>
-    <mergeCell ref="F57:F60"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" location="Definitioner!B21" display="Riskfaktorer"/>
@@ -9478,7 +9470,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="30" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="30" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9.33203125" style="30"/>
   </cols>
   <sheetData>
@@ -9492,7 +9484,7 @@
         <v>44069</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -9554,15 +9546,15 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="29.25" customHeight="1">
-      <c r="A2" s="271" t="s">
-        <v>242</v>
-      </c>
-      <c r="B2" s="271"/>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
-      <c r="G2" s="271"/>
+      <c r="A2" s="272" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" s="272"/>
+      <c r="C2" s="272"/>
+      <c r="D2" s="272"/>
+      <c r="E2" s="272"/>
+      <c r="F2" s="272"/>
+      <c r="G2" s="272"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="76"/>
@@ -9593,29 +9585,29 @@
     </row>
     <row r="6" spans="1:22" ht="21.75" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="272" t="s">
+      <c r="B6" s="273" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="273"/>
-      <c r="D6" s="273"/>
-      <c r="E6" s="273"/>
-      <c r="F6" s="273"/>
-      <c r="G6" s="274"/>
+      <c r="C6" s="274"/>
+      <c r="D6" s="274"/>
+      <c r="E6" s="274"/>
+      <c r="F6" s="274"/>
+      <c r="G6" s="275"/>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="58"/>
-      <c r="B7" s="280" t="s">
+      <c r="B7" s="281" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="280"/>
-      <c r="D7" s="278" t="s">
+      <c r="C7" s="281"/>
+      <c r="D7" s="279" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="279"/>
-      <c r="F7" s="277" t="s">
+      <c r="E7" s="280"/>
+      <c r="F7" s="278" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="277"/>
+      <c r="G7" s="278"/>
       <c r="V7" t="s">
         <v>110</v>
       </c>
@@ -9692,16 +9684,16 @@
         <v>214</v>
       </c>
       <c r="B11" s="34">
-        <v>33880</v>
+        <v>33881</v>
       </c>
       <c r="C11" s="119">
-        <v>78.033949800000002</v>
+        <v>78.036253099999996</v>
       </c>
       <c r="D11" s="34">
-        <v>18533</v>
+        <v>18534</v>
       </c>
       <c r="E11" s="54">
-        <v>76.386942500000004</v>
+        <v>76.391064200000002</v>
       </c>
       <c r="F11" s="34">
         <v>15347</v>
@@ -9715,43 +9707,43 @@
         <v>205</v>
       </c>
       <c r="B12" s="34">
-        <v>6664</v>
+        <v>6592</v>
       </c>
       <c r="C12" s="119">
-        <v>15.348826499999999</v>
+        <v>15.182992799999999</v>
       </c>
       <c r="D12" s="34">
-        <v>4066</v>
+        <v>4017</v>
       </c>
       <c r="E12" s="54">
-        <v>16.758717300000001</v>
+        <v>16.5567554</v>
       </c>
       <c r="F12" s="34">
-        <v>2598</v>
+        <v>2575</v>
       </c>
       <c r="G12" s="54">
-        <v>13.5630384</v>
+        <v>13.442965299999999</v>
       </c>
     </row>
     <row r="13" spans="1:22" s="30" customFormat="1">
       <c r="A13" s="17"/>
       <c r="B13" s="118">
-        <v>4314</v>
+        <v>4305</v>
       </c>
       <c r="C13" s="121">
-        <v>9.9362001000000006</v>
+        <v>9.9154709000000008</v>
       </c>
       <c r="D13" s="118">
-        <v>3082</v>
+        <v>3075</v>
       </c>
       <c r="E13" s="81">
-        <v>12.7029923</v>
+        <v>12.674140599999999</v>
       </c>
       <c r="F13" s="118">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="G13" s="82">
-        <v>6.4317411</v>
+        <v>6.4212999000000002</v>
       </c>
     </row>
     <row r="14" spans="1:22" s="30" customFormat="1">
@@ -10263,22 +10255,22 @@
         <v>133</v>
       </c>
       <c r="B36" s="29">
-        <v>2719</v>
+        <v>2702</v>
       </c>
       <c r="C36" s="119">
-        <v>6.2625238999999997</v>
+        <v>6.2233687</v>
       </c>
       <c r="D36" s="29">
-        <v>1281</v>
+        <v>1273</v>
       </c>
       <c r="E36" s="54">
-        <v>5.2798615</v>
+        <v>5.2468880999999996</v>
       </c>
       <c r="F36" s="60">
-        <v>1438</v>
+        <v>1429</v>
       </c>
       <c r="G36" s="54">
-        <v>7.5071782999999996</v>
+        <v>7.4601932</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="14.25" thickBot="1">
@@ -10286,56 +10278,56 @@
         <v>146</v>
       </c>
       <c r="B37" s="52">
-        <v>7901</v>
+        <v>7847</v>
       </c>
       <c r="C37" s="120">
-        <v>18.197940899999999</v>
+        <v>18.0735657</v>
       </c>
       <c r="D37" s="52">
-        <v>3581</v>
+        <v>3547</v>
       </c>
       <c r="E37" s="69">
-        <v>14.7597065</v>
+        <v>14.6195697</v>
       </c>
       <c r="F37" s="52">
-        <v>4320</v>
+        <v>4300</v>
       </c>
       <c r="G37" s="69">
-        <v>22.5528583</v>
+        <v>22.4484469</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="24" customHeight="1" thickTop="1">
-      <c r="A38" s="275" t="s">
+      <c r="A38" s="276" t="s">
         <v>182</v>
       </c>
-      <c r="B38" s="275"/>
-      <c r="C38" s="275"/>
-      <c r="D38" s="275"/>
-      <c r="E38" s="275"/>
-      <c r="F38" s="275"/>
-      <c r="G38" s="275"/>
+      <c r="B38" s="276"/>
+      <c r="C38" s="276"/>
+      <c r="D38" s="276"/>
+      <c r="E38" s="276"/>
+      <c r="F38" s="276"/>
+      <c r="G38" s="276"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="281" t="s">
+      <c r="A39" s="282" t="s">
         <v>177</v>
       </c>
-      <c r="B39" s="281"/>
-      <c r="C39" s="281"/>
-      <c r="D39" s="281"/>
-      <c r="E39" s="281"/>
-      <c r="F39" s="281"/>
-      <c r="G39" s="281"/>
+      <c r="B39" s="282"/>
+      <c r="C39" s="282"/>
+      <c r="D39" s="282"/>
+      <c r="E39" s="282"/>
+      <c r="F39" s="282"/>
+      <c r="G39" s="282"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="276" t="s">
+      <c r="A40" s="277" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="276"/>
-      <c r="C40" s="276"/>
-      <c r="D40" s="276"/>
-      <c r="E40" s="276"/>
-      <c r="F40" s="276"/>
-      <c r="G40" s="276"/>
+      <c r="B40" s="277"/>
+      <c r="C40" s="277"/>
+      <c r="D40" s="277"/>
+      <c r="E40" s="277"/>
+      <c r="F40" s="277"/>
+      <c r="G40" s="277"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="47"/>
@@ -10387,15 +10379,15 @@
       <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A2" s="282" t="s">
-        <v>241</v>
-      </c>
-      <c r="B2" s="282"/>
-      <c r="C2" s="282"/>
-      <c r="D2" s="282"/>
-      <c r="E2" s="282"/>
-      <c r="F2" s="282"/>
-      <c r="G2" s="282"/>
+      <c r="A2" s="283" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="283"/>
+      <c r="C2" s="283"/>
+      <c r="D2" s="283"/>
+      <c r="E2" s="283"/>
+      <c r="F2" s="283"/>
+      <c r="G2" s="283"/>
       <c r="H2" s="76"/>
       <c r="I2" s="76"/>
     </row>
@@ -10404,30 +10396,30 @@
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="284" t="s">
+      <c r="B5" s="285" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="285"/>
-      <c r="D5" s="284" t="s">
+      <c r="C5" s="286"/>
+      <c r="D5" s="285" t="s">
         <v>214</v>
       </c>
-      <c r="E5" s="285"/>
-      <c r="F5" s="284" t="s">
+      <c r="E5" s="286"/>
+      <c r="F5" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="G5" s="285"/>
+      <c r="G5" s="286"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="286"/>
-      <c r="B6" s="279"/>
-      <c r="C6" s="278"/>
-      <c r="D6" s="279"/>
-      <c r="E6" s="278"/>
-      <c r="F6" s="279"/>
-      <c r="G6" s="278"/>
+      <c r="A6" s="287"/>
+      <c r="B6" s="280"/>
+      <c r="C6" s="279"/>
+      <c r="D6" s="280"/>
+      <c r="E6" s="279"/>
+      <c r="F6" s="280"/>
+      <c r="G6" s="279"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="287"/>
+      <c r="A7" s="288"/>
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
@@ -10458,16 +10450,16 @@
         <v>100</v>
       </c>
       <c r="D8" s="88">
-        <v>33880</v>
+        <v>33881</v>
       </c>
       <c r="E8" s="128">
-        <v>78.033949835317998</v>
+        <v>78.036253080590598</v>
       </c>
       <c r="F8" s="88">
-        <v>6664</v>
+        <v>6592</v>
       </c>
       <c r="G8" s="128">
-        <v>15.348826496533601</v>
+        <v>15.1829928369072</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -10510,10 +10502,10 @@
         <v>76.487856952228498</v>
       </c>
       <c r="F10" s="103">
-        <v>2388</v>
+        <v>2368</v>
       </c>
       <c r="G10" s="127">
-        <v>15.9327461969576</v>
+        <v>15.7993061115559</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -10533,10 +10525,10 @@
         <v>77.189109639440801</v>
       </c>
       <c r="F11" s="103">
-        <v>1103</v>
+        <v>1081</v>
       </c>
       <c r="G11" s="127">
-        <v>16.2325239146431</v>
+        <v>15.9087564385578</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -10556,10 +10548,10 @@
         <v>81.406283393887605</v>
       </c>
       <c r="F12" s="103">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="G12" s="127">
-        <v>15.345159222055999</v>
+        <v>15.238298781791</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -10579,10 +10571,10 @@
         <v>79.685393258426998</v>
       </c>
       <c r="F13" s="103">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G13" s="127">
-        <v>11.8202247191011</v>
+        <v>11.5955056179775</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -10602,10 +10594,10 @@
         <v>81.090909090909093</v>
       </c>
       <c r="F14" s="103">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G14" s="127">
-        <v>13.5151515151515</v>
+        <v>13.454545454545499</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -10619,16 +10611,16 @@
         <v>3.58845613469378</v>
       </c>
       <c r="D15" s="103">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="E15" s="127">
-        <v>80.423620025673998</v>
+        <v>80.487804878048806</v>
       </c>
       <c r="F15" s="103">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G15" s="127">
-        <v>16.1745827984596</v>
+        <v>15.982028241335</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -10648,10 +10640,10 @@
         <v>77.680965147453094</v>
       </c>
       <c r="F16" s="103">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G16" s="127">
-        <v>15.9517426273458</v>
+        <v>15.884718498659501</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -10694,10 +10686,10 @@
         <v>74.635332252836307</v>
       </c>
       <c r="F18" s="103">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G18" s="127">
-        <v>12.4797406807131</v>
+        <v>12.2366288492707</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -10717,10 +10709,10 @@
         <v>86.503067484662594</v>
       </c>
       <c r="F19" s="103">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G19" s="127">
-        <v>11.451942740286301</v>
+        <v>11.349693251533701</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -10763,10 +10755,10 @@
         <v>69.7175141242938</v>
       </c>
       <c r="F21" s="103">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G21" s="127">
-        <v>18.1920903954802</v>
+        <v>18.079096045197701</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -10786,10 +10778,10 @@
         <v>85.204755614266901</v>
       </c>
       <c r="F22" s="103">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G22" s="127">
-        <v>12.549537648612899</v>
+        <v>12.4174372523118</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -10809,10 +10801,10 @@
         <v>68.4722222222222</v>
       </c>
       <c r="F23" s="103">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G23" s="127">
-        <v>18.8888888888889</v>
+        <v>18.3333333333333</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -10832,10 +10824,10 @@
         <v>81.805359661495103</v>
       </c>
       <c r="F24" s="103">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G24" s="127">
-        <v>10.7193229901269</v>
+        <v>10.578279266572601</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -10855,10 +10847,10 @@
         <v>79.603399433427796</v>
       </c>
       <c r="F25" s="103">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G25" s="127">
-        <v>14.022662889518401</v>
+        <v>13.7393767705382</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -10878,10 +10870,10 @@
         <v>68.126888217522705</v>
       </c>
       <c r="F26" s="103">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G26" s="127">
-        <v>16.616314199395799</v>
+        <v>16.465256797583098</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -10909,7 +10901,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="30" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B28" s="92">
         <v>386</v>
@@ -10970,10 +10962,10 @@
         <v>69.523809523809504</v>
       </c>
       <c r="F30" s="150">
-        <v>14</v>
-      </c>
-      <c r="G30" s="228">
-        <v>13.3333333333333</v>
+        <v>13</v>
+      </c>
+      <c r="G30" s="149">
+        <v>12.380952380952399</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -10998,13 +10990,13 @@
       <c r="C33" s="80"/>
     </row>
     <row r="34" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A34" s="283"/>
-      <c r="B34" s="283"/>
-      <c r="C34" s="283"/>
-      <c r="D34" s="283"/>
-      <c r="E34" s="283"/>
-      <c r="F34" s="283"/>
-      <c r="G34" s="283"/>
+      <c r="A34" s="284"/>
+      <c r="B34" s="284"/>
+      <c r="C34" s="284"/>
+      <c r="D34" s="284"/>
+      <c r="E34" s="284"/>
+      <c r="F34" s="284"/>
+      <c r="G34" s="284"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -11061,17 +11053,17 @@
       </c>
     </row>
     <row r="2" spans="1:97" ht="30" customHeight="1">
-      <c r="A2" s="271" t="s">
-        <v>239</v>
-      </c>
-      <c r="B2" s="271"/>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
-      <c r="G2" s="271"/>
-      <c r="H2" s="271"/>
-      <c r="I2" s="271"/>
+      <c r="A2" s="272" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="272"/>
+      <c r="C2" s="272"/>
+      <c r="D2" s="272"/>
+      <c r="E2" s="272"/>
+      <c r="F2" s="272"/>
+      <c r="G2" s="272"/>
+      <c r="H2" s="272"/>
+      <c r="I2" s="272"/>
     </row>
     <row r="3" spans="1:97">
       <c r="A3" s="61"/>
@@ -11092,304 +11084,304 @@
     </row>
     <row r="5" spans="1:97" ht="28.5" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="284" t="s">
+      <c r="B5" s="285" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="285"/>
-      <c r="D5" s="223" t="s">
+      <c r="C5" s="286"/>
+      <c r="D5" s="273" t="s">
         <v>193</v>
       </c>
-      <c r="E5" s="224"/>
-      <c r="F5" s="224"/>
-      <c r="G5" s="224"/>
-      <c r="H5" s="224"/>
-      <c r="I5" s="224"/>
-      <c r="J5" s="224"/>
-      <c r="K5" s="224"/>
-      <c r="L5" s="224"/>
-      <c r="M5" s="224"/>
-      <c r="N5" s="224"/>
-      <c r="O5" s="224"/>
-      <c r="P5" s="224"/>
-      <c r="Q5" s="224"/>
-      <c r="R5" s="224"/>
-      <c r="S5" s="224"/>
-      <c r="T5" s="224"/>
-      <c r="U5" s="224"/>
-      <c r="V5" s="224"/>
-      <c r="W5" s="224"/>
-      <c r="X5" s="224"/>
-      <c r="Y5" s="224"/>
-      <c r="Z5" s="224"/>
-      <c r="AA5" s="224"/>
-      <c r="AB5" s="224"/>
-      <c r="AC5" s="224"/>
-      <c r="AD5" s="224"/>
-      <c r="AE5" s="224"/>
-      <c r="AF5" s="224"/>
-      <c r="AG5" s="224"/>
-      <c r="AH5" s="224"/>
-      <c r="AI5" s="224"/>
-      <c r="AJ5" s="224"/>
-      <c r="AK5" s="224"/>
-      <c r="AL5" s="224"/>
-      <c r="AM5" s="224"/>
-      <c r="AN5" s="224"/>
-      <c r="AO5" s="224"/>
-      <c r="AP5" s="224"/>
-      <c r="AQ5" s="224"/>
-      <c r="AR5" s="224"/>
-      <c r="AS5" s="224"/>
-      <c r="AT5" s="224"/>
-      <c r="AU5" s="224"/>
-      <c r="AV5" s="224"/>
-      <c r="AW5" s="224"/>
-      <c r="AX5" s="224"/>
-      <c r="AY5" s="224"/>
-      <c r="AZ5" s="224"/>
-      <c r="BA5" s="224"/>
-      <c r="BB5" s="224"/>
-      <c r="BC5" s="224"/>
-      <c r="BD5" s="222"/>
-      <c r="BE5" s="222"/>
-      <c r="BF5" s="222"/>
-      <c r="BG5" s="222"/>
-      <c r="BH5" s="222"/>
-      <c r="BI5" s="222"/>
-      <c r="BJ5" s="222"/>
-      <c r="BK5" s="222"/>
-      <c r="BL5" s="222"/>
-      <c r="BM5" s="222"/>
-      <c r="BN5" s="222"/>
-      <c r="BO5" s="222"/>
-      <c r="BP5" s="222"/>
-      <c r="BQ5" s="222"/>
-      <c r="BR5" s="222"/>
-      <c r="BS5" s="222"/>
-      <c r="BT5" s="224"/>
-      <c r="BU5" s="224"/>
-      <c r="BV5" s="224"/>
-      <c r="BW5" s="224"/>
-      <c r="BX5" s="224"/>
-      <c r="BY5" s="224"/>
-      <c r="BZ5" s="224"/>
-      <c r="CA5" s="224"/>
-      <c r="CB5" s="224"/>
-      <c r="CC5" s="224"/>
-      <c r="CD5" s="224"/>
-      <c r="CE5" s="225"/>
-      <c r="CF5" s="290" t="s">
+      <c r="E5" s="274"/>
+      <c r="F5" s="274"/>
+      <c r="G5" s="274"/>
+      <c r="H5" s="274"/>
+      <c r="I5" s="274"/>
+      <c r="J5" s="274"/>
+      <c r="K5" s="274"/>
+      <c r="L5" s="274"/>
+      <c r="M5" s="274"/>
+      <c r="N5" s="274"/>
+      <c r="O5" s="274"/>
+      <c r="P5" s="274"/>
+      <c r="Q5" s="274"/>
+      <c r="R5" s="274"/>
+      <c r="S5" s="274"/>
+      <c r="T5" s="274"/>
+      <c r="U5" s="274"/>
+      <c r="V5" s="274"/>
+      <c r="W5" s="274"/>
+      <c r="X5" s="274"/>
+      <c r="Y5" s="274"/>
+      <c r="Z5" s="274"/>
+      <c r="AA5" s="274"/>
+      <c r="AB5" s="274"/>
+      <c r="AC5" s="274"/>
+      <c r="AD5" s="274"/>
+      <c r="AE5" s="274"/>
+      <c r="AF5" s="274"/>
+      <c r="AG5" s="274"/>
+      <c r="AH5" s="274"/>
+      <c r="AI5" s="274"/>
+      <c r="AJ5" s="274"/>
+      <c r="AK5" s="274"/>
+      <c r="AL5" s="274"/>
+      <c r="AM5" s="274"/>
+      <c r="AN5" s="274"/>
+      <c r="AO5" s="274"/>
+      <c r="AP5" s="274"/>
+      <c r="AQ5" s="274"/>
+      <c r="AR5" s="274"/>
+      <c r="AS5" s="274"/>
+      <c r="AT5" s="274"/>
+      <c r="AU5" s="274"/>
+      <c r="AV5" s="274"/>
+      <c r="AW5" s="274"/>
+      <c r="AX5" s="274"/>
+      <c r="AY5" s="274"/>
+      <c r="AZ5" s="274"/>
+      <c r="BA5" s="274"/>
+      <c r="BB5" s="274"/>
+      <c r="BC5" s="274"/>
+      <c r="BD5" s="274"/>
+      <c r="BE5" s="274"/>
+      <c r="BF5" s="274"/>
+      <c r="BG5" s="274"/>
+      <c r="BH5" s="274"/>
+      <c r="BI5" s="274"/>
+      <c r="BJ5" s="274"/>
+      <c r="BK5" s="274"/>
+      <c r="BL5" s="274"/>
+      <c r="BM5" s="274"/>
+      <c r="BN5" s="274"/>
+      <c r="BO5" s="274"/>
+      <c r="BP5" s="274"/>
+      <c r="BQ5" s="274"/>
+      <c r="BR5" s="274"/>
+      <c r="BS5" s="274"/>
+      <c r="BT5" s="274"/>
+      <c r="BU5" s="274"/>
+      <c r="BV5" s="274"/>
+      <c r="BW5" s="274"/>
+      <c r="BX5" s="274"/>
+      <c r="BY5" s="274"/>
+      <c r="BZ5" s="274"/>
+      <c r="CA5" s="274"/>
+      <c r="CB5" s="274"/>
+      <c r="CC5" s="274"/>
+      <c r="CD5" s="274"/>
+      <c r="CE5" s="300"/>
+      <c r="CF5" s="299" t="s">
         <v>194</v>
       </c>
-      <c r="CG5" s="273"/>
-      <c r="CH5" s="273"/>
-      <c r="CI5" s="273"/>
-      <c r="CJ5" s="273"/>
-      <c r="CK5" s="273"/>
-      <c r="CL5" s="273"/>
-      <c r="CM5" s="273"/>
-      <c r="CN5" s="273"/>
-      <c r="CO5" s="273"/>
-      <c r="CP5" s="273"/>
-      <c r="CQ5" s="273"/>
-      <c r="CR5" s="273"/>
-      <c r="CS5" s="273"/>
+      <c r="CG5" s="274"/>
+      <c r="CH5" s="274"/>
+      <c r="CI5" s="274"/>
+      <c r="CJ5" s="274"/>
+      <c r="CK5" s="274"/>
+      <c r="CL5" s="274"/>
+      <c r="CM5" s="274"/>
+      <c r="CN5" s="274"/>
+      <c r="CO5" s="274"/>
+      <c r="CP5" s="274"/>
+      <c r="CQ5" s="274"/>
+      <c r="CR5" s="274"/>
+      <c r="CS5" s="274"/>
     </row>
     <row r="6" spans="1:97" ht="13.5" customHeight="1">
-      <c r="A6" s="295"/>
-      <c r="B6" s="293"/>
-      <c r="C6" s="294"/>
-      <c r="D6" s="291" t="s">
+      <c r="A6" s="297"/>
+      <c r="B6" s="295"/>
+      <c r="C6" s="296"/>
+      <c r="D6" s="293" t="s">
         <v>195</v>
       </c>
       <c r="E6" s="292"/>
-      <c r="F6" s="291" t="s">
+      <c r="F6" s="293" t="s">
         <v>196</v>
       </c>
       <c r="G6" s="292"/>
-      <c r="H6" s="291" t="s">
+      <c r="H6" s="293" t="s">
         <v>191</v>
       </c>
       <c r="I6" s="292"/>
-      <c r="J6" s="291" t="s">
+      <c r="J6" s="293" t="s">
         <v>167</v>
       </c>
       <c r="K6" s="292"/>
-      <c r="L6" s="291" t="s">
+      <c r="L6" s="293" t="s">
         <v>168</v>
       </c>
       <c r="M6" s="292"/>
-      <c r="N6" s="291" t="s">
+      <c r="N6" s="293" t="s">
         <v>169</v>
       </c>
       <c r="O6" s="292"/>
-      <c r="P6" s="291" t="s">
+      <c r="P6" s="293" t="s">
         <v>170</v>
       </c>
       <c r="Q6" s="292"/>
-      <c r="R6" s="291" t="s">
+      <c r="R6" s="293" t="s">
         <v>171</v>
       </c>
       <c r="S6" s="292"/>
-      <c r="T6" s="291" t="s">
+      <c r="T6" s="293" t="s">
         <v>172</v>
       </c>
       <c r="U6" s="292"/>
-      <c r="V6" s="291" t="s">
+      <c r="V6" s="293" t="s">
         <v>173</v>
       </c>
       <c r="W6" s="292"/>
-      <c r="X6" s="291" t="s">
+      <c r="X6" s="293" t="s">
         <v>174</v>
       </c>
       <c r="Y6" s="292"/>
-      <c r="Z6" s="291" t="s">
+      <c r="Z6" s="293" t="s">
         <v>175</v>
       </c>
       <c r="AA6" s="292"/>
-      <c r="AB6" s="291" t="s">
+      <c r="AB6" s="293" t="s">
         <v>201</v>
       </c>
       <c r="AC6" s="292"/>
-      <c r="AD6" s="291" t="s">
+      <c r="AD6" s="293" t="s">
         <v>222</v>
       </c>
       <c r="AE6" s="292"/>
-      <c r="AF6" s="291" t="s">
+      <c r="AF6" s="293" t="s">
         <v>230</v>
       </c>
       <c r="AG6" s="292"/>
-      <c r="AH6" s="291" t="s">
+      <c r="AH6" s="293" t="s">
         <v>234</v>
       </c>
       <c r="AI6" s="292"/>
-      <c r="AJ6" s="291" t="s">
+      <c r="AJ6" s="293" t="s">
+        <v>240</v>
+      </c>
+      <c r="AK6" s="292"/>
+      <c r="AL6" s="293" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM6" s="292"/>
+      <c r="AN6" s="293" t="s">
+        <v>242</v>
+      </c>
+      <c r="AO6" s="292"/>
+      <c r="AP6" s="293" t="s">
         <v>243</v>
       </c>
-      <c r="AK6" s="292"/>
-      <c r="AL6" s="291" t="s">
+      <c r="AQ6" s="292"/>
+      <c r="AR6" s="293" t="s">
         <v>244</v>
       </c>
-      <c r="AM6" s="292"/>
-      <c r="AN6" s="291" t="s">
+      <c r="AS6" s="292"/>
+      <c r="AT6" s="293" t="s">
         <v>245</v>
       </c>
-      <c r="AO6" s="292"/>
-      <c r="AP6" s="291" t="s">
+      <c r="AU6" s="292"/>
+      <c r="AV6" s="293" t="s">
         <v>246</v>
       </c>
-      <c r="AQ6" s="292"/>
-      <c r="AR6" s="291" t="s">
+      <c r="AW6" s="292"/>
+      <c r="AX6" s="293" t="s">
         <v>247</v>
       </c>
-      <c r="AS6" s="292"/>
-      <c r="AT6" s="291" t="s">
+      <c r="AY6" s="292"/>
+      <c r="AZ6" s="293" t="s">
         <v>248</v>
       </c>
-      <c r="AU6" s="292"/>
-      <c r="AV6" s="291" t="s">
-        <v>249</v>
-      </c>
-      <c r="AW6" s="292"/>
-      <c r="AX6" s="291" t="s">
+      <c r="BA6" s="294"/>
+      <c r="BB6" s="289" t="s">
         <v>250</v>
       </c>
-      <c r="AY6" s="292"/>
-      <c r="AZ6" s="291" t="s">
+      <c r="BC6" s="298"/>
+      <c r="BD6" s="289" t="s">
         <v>251</v>
       </c>
-      <c r="BA6" s="297"/>
-      <c r="BB6" s="288" t="s">
+      <c r="BE6" s="290"/>
+      <c r="BF6" s="289" t="s">
+        <v>252</v>
+      </c>
+      <c r="BG6" s="290"/>
+      <c r="BH6" s="289" t="s">
+        <v>254</v>
+      </c>
+      <c r="BI6" s="290"/>
+      <c r="BJ6" s="289" t="s">
         <v>253</v>
       </c>
-      <c r="BC6" s="296"/>
-      <c r="BD6" s="288" t="s">
-        <v>254</v>
-      </c>
-      <c r="BE6" s="289"/>
-      <c r="BF6" s="288" t="s">
+      <c r="BK6" s="290"/>
+      <c r="BL6" s="289" t="s">
         <v>255</v>
       </c>
-      <c r="BG6" s="289"/>
-      <c r="BH6" s="288" t="s">
-        <v>257</v>
-      </c>
-      <c r="BI6" s="289"/>
-      <c r="BJ6" s="288" t="s">
-        <v>256</v>
-      </c>
-      <c r="BK6" s="289"/>
-      <c r="BL6" s="288" t="s">
+      <c r="BM6" s="290"/>
+      <c r="BN6" s="289" t="s">
         <v>258</v>
       </c>
-      <c r="BM6" s="289"/>
-      <c r="BN6" s="288" t="s">
+      <c r="BO6" s="290"/>
+      <c r="BP6" s="289" t="s">
+        <v>259</v>
+      </c>
+      <c r="BQ6" s="290"/>
+      <c r="BR6" s="289" t="s">
+        <v>265</v>
+      </c>
+      <c r="BS6" s="290"/>
+      <c r="BT6" s="289" t="s">
+        <v>264</v>
+      </c>
+      <c r="BU6" s="290"/>
+      <c r="BV6" s="289" t="s">
+        <v>263</v>
+      </c>
+      <c r="BW6" s="290"/>
+      <c r="BX6" s="289" t="s">
+        <v>262</v>
+      </c>
+      <c r="BY6" s="290"/>
+      <c r="BZ6" s="289" t="s">
         <v>261</v>
       </c>
-      <c r="BO6" s="289"/>
-      <c r="BP6" s="288" t="s">
-        <v>262</v>
-      </c>
-      <c r="BQ6" s="289"/>
-      <c r="BR6" s="288" t="s">
+      <c r="CA6" s="290"/>
+      <c r="CB6" s="289" t="s">
+        <v>260</v>
+      </c>
+      <c r="CC6" s="290"/>
+      <c r="CD6" s="289" t="s">
+        <v>267</v>
+      </c>
+      <c r="CE6" s="290"/>
+      <c r="CF6" s="289" t="s">
+        <v>266</v>
+      </c>
+      <c r="CG6" s="290"/>
+      <c r="CH6" s="289" t="s">
         <v>268</v>
       </c>
-      <c r="BS6" s="289"/>
-      <c r="BT6" s="288" t="s">
-        <v>267</v>
-      </c>
-      <c r="BU6" s="289"/>
-      <c r="BV6" s="288" t="s">
-        <v>266</v>
-      </c>
-      <c r="BW6" s="289"/>
-      <c r="BX6" s="288" t="s">
-        <v>265</v>
-      </c>
-      <c r="BY6" s="289"/>
-      <c r="BZ6" s="288" t="s">
-        <v>264</v>
-      </c>
-      <c r="CA6" s="289"/>
-      <c r="CB6" s="288" t="s">
-        <v>263</v>
-      </c>
-      <c r="CC6" s="289"/>
-      <c r="CD6" s="288" t="s">
+      <c r="CI6" s="290"/>
+      <c r="CJ6" s="289" t="s">
+        <v>269</v>
+      </c>
+      <c r="CK6" s="290"/>
+      <c r="CL6" s="289" t="s">
         <v>270</v>
       </c>
-      <c r="CE6" s="289"/>
-      <c r="CF6" s="288" t="s">
-        <v>269</v>
-      </c>
-      <c r="CG6" s="289"/>
-      <c r="CH6" s="288" t="s">
-        <v>271</v>
-      </c>
-      <c r="CI6" s="289"/>
-      <c r="CJ6" s="288" t="s">
-        <v>272</v>
-      </c>
-      <c r="CK6" s="289"/>
-      <c r="CL6" s="288" t="s">
-        <v>273</v>
-      </c>
-      <c r="CM6" s="289"/>
-      <c r="CN6" s="288" t="s">
-        <v>274</v>
-      </c>
-      <c r="CO6" s="289"/>
-      <c r="CP6" s="288" t="s">
-        <v>275</v>
-      </c>
-      <c r="CQ6" s="289"/>
-      <c r="CR6" s="288" t="s">
-        <v>276</v>
-      </c>
-      <c r="CS6" s="289"/>
+      <c r="CM6" s="290"/>
+      <c r="CN6" s="291" t="s">
+        <v>280</v>
+      </c>
+      <c r="CO6" s="292"/>
+      <c r="CP6" s="291" t="s">
+        <v>281</v>
+      </c>
+      <c r="CQ6" s="292"/>
+      <c r="CR6" s="291" t="s">
+        <v>282</v>
+      </c>
+      <c r="CS6" s="292"/>
     </row>
     <row r="7" spans="1:97">
-      <c r="A7" s="295"/>
+      <c r="A7" s="297"/>
       <c r="B7" s="191" t="s">
         <v>5</v>
       </c>
@@ -11959,13 +11951,13 @@
       <c r="CO8" s="163">
         <v>3.7105281341410099</v>
       </c>
-      <c r="CP8" s="164">
+      <c r="CP8" s="163">
         <v>1049</v>
       </c>
       <c r="CQ8" s="163">
         <v>2.41610429094594</v>
       </c>
-      <c r="CR8" s="164">
+      <c r="CR8" s="163">
         <v>267</v>
       </c>
       <c r="CS8" s="163">
@@ -12069,9 +12061,13 @@
       <c r="CN9" s="65"/>
       <c r="CO9" s="169"/>
       <c r="CP9" s="65"/>
-      <c r="CQ9" s="169"/>
+      <c r="CQ9" s="169" t="s">
+        <v>110</v>
+      </c>
       <c r="CR9" s="65"/>
-      <c r="CS9" s="169"/>
+      <c r="CS9" s="169" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="10" spans="1:97">
       <c r="A10" s="68" t="s">
@@ -12670,7 +12666,7 @@
         <v>10.7768846304443</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="E12" s="163" t="s">
         <v>110</v>
@@ -12946,7 +12942,7 @@
         <v>3.7401154092754898</v>
       </c>
       <c r="CR12" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="CS12" s="163" t="s">
         <v>110</v>
@@ -13101,7 +13097,7 @@
         <v>0.17977528089888001</v>
       </c>
       <c r="AX13" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AY13" s="163" t="s">
         <v>110</v>
@@ -13119,7 +13115,7 @@
         <v>0.35955056179775002</v>
       </c>
       <c r="BD13" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BE13" s="163" t="s">
         <v>110</v>
@@ -13256,7 +13252,7 @@
         <v>2.9527604394592002</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="E14" s="163" t="s">
         <v>110</v>
@@ -13376,13 +13372,13 @@
         <v>0.54602184087364003</v>
       </c>
       <c r="AR14" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AS14" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AT14" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AU14" s="163" t="s">
         <v>110</v>
@@ -13394,19 +13390,19 @@
         <v>0</v>
       </c>
       <c r="AX14" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AY14" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AZ14" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BA14" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BB14" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BC14" s="163" t="s">
         <v>110</v>
@@ -13418,31 +13414,31 @@
         <v>0</v>
       </c>
       <c r="BF14" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BG14" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BH14" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BI14" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BJ14" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BK14" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BL14" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BM14" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BN14" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BO14" s="163" t="s">
         <v>110</v>
@@ -13532,7 +13528,7 @@
         <v>2.3400936037441502</v>
       </c>
       <c r="CR14" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="CS14" s="163" t="s">
         <v>110</v>
@@ -13549,7 +13545,7 @@
         <v>3.8003546997719799</v>
       </c>
       <c r="D15" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="E15" s="163" t="s">
         <v>110</v>
@@ -13693,13 +13689,13 @@
         <v>0.42424242424241998</v>
       </c>
       <c r="AZ15" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BA15" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BB15" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BC15" s="163" t="s">
         <v>110</v>
@@ -13717,19 +13713,19 @@
         <v>0.36363636363635998</v>
       </c>
       <c r="BH15" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BI15" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BJ15" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BK15" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BL15" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BM15" s="163" t="s">
         <v>110</v>
@@ -14010,7 +14006,7 @@
         <v>0.70603337612324002</v>
       </c>
       <c r="BH16" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BI16" s="163" t="s">
         <v>110</v>
@@ -14118,7 +14114,7 @@
         <v>1.5404364569961499</v>
       </c>
       <c r="CR16" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="CS16" s="163" t="s">
         <v>110</v>
@@ -14135,7 +14131,7 @@
         <v>3.4364419467028999</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="E17" s="163" t="s">
         <v>110</v>
@@ -14243,25 +14239,25 @@
         <v>0.73726541554960001</v>
       </c>
       <c r="AN17" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AO17" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AP17" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AQ17" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AR17" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AS17" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AT17" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AU17" s="163" t="s">
         <v>110</v>
@@ -14279,13 +14275,13 @@
         <v>0.26809651474530999</v>
       </c>
       <c r="AZ17" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BA17" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BB17" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BC17" s="163" t="s">
         <v>110</v>
@@ -14303,7 +14299,7 @@
         <v>0.26809651474530999</v>
       </c>
       <c r="BH17" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BI17" s="163" t="s">
         <v>110</v>
@@ -14411,7 +14407,7 @@
         <v>1.27345844504021</v>
       </c>
       <c r="CR17" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="CS17" s="163" t="s">
         <v>110</v>
@@ -14434,7 +14430,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="G18" s="163" t="s">
         <v>110</v>
@@ -14578,7 +14574,7 @@
         <v>0.64829821717989999</v>
       </c>
       <c r="BB18" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BC18" s="163" t="s">
         <v>110</v>
@@ -14590,13 +14586,13 @@
         <v>0.40518638573743998</v>
       </c>
       <c r="BF18" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BG18" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BH18" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BI18" s="163" t="s">
         <v>110</v>
@@ -14704,7 +14700,7 @@
         <v>1.53970826580227</v>
       </c>
       <c r="CR18" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="CS18" s="163" t="s">
         <v>110</v>
@@ -14727,7 +14723,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="G19" s="163" t="s">
         <v>110</v>
@@ -14907,7 +14903,7 @@
         <v>0.70521861777150996</v>
       </c>
       <c r="BN19" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BO19" s="163" t="s">
         <v>110</v>
@@ -14954,53 +14950,53 @@
       <c r="CC19" s="163">
         <v>1.69252468265162</v>
       </c>
-      <c r="CD19" s="164">
-        <v>0</v>
-      </c>
-      <c r="CE19" s="163">
-        <v>0</v>
+      <c r="CD19" s="226" t="s">
+        <v>272</v>
+      </c>
+      <c r="CE19" s="227" t="s">
+        <v>273</v>
       </c>
       <c r="CF19" s="226" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="CG19" s="227" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CH19" s="226" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="CI19" s="227" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CJ19" s="226" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="CK19" s="227" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CL19" s="226" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="CM19" s="227" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CN19" s="226" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="CO19" s="227" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CP19" s="226" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="CQ19" s="227" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CR19" s="226" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="CS19" s="227" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:97">
@@ -15014,13 +15010,13 @@
         <v>2.2525738765921202</v>
       </c>
       <c r="D20" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="E20" s="163" t="s">
         <v>110</v>
       </c>
       <c r="F20" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="G20" s="163" t="s">
         <v>110</v>
@@ -15122,19 +15118,19 @@
         <v>0.71574642126789001</v>
       </c>
       <c r="AN20" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AO20" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AP20" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AQ20" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AR20" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AS20" s="163" t="s">
         <v>110</v>
@@ -15146,37 +15142,37 @@
         <v>0.40899795501023001</v>
       </c>
       <c r="AV20" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AW20" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AX20" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AY20" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AZ20" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BA20" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BB20" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BC20" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BD20" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BE20" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BF20" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BG20" s="163" t="s">
         <v>110</v>
@@ -15188,7 +15184,7 @@
         <v>0.40899795501023001</v>
       </c>
       <c r="BJ20" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BK20" s="163" t="s">
         <v>110</v>
@@ -15289,11 +15285,11 @@
       <c r="CQ20" s="163">
         <v>0.81799591002045002</v>
       </c>
-      <c r="CR20" s="164">
-        <v>0</v>
-      </c>
-      <c r="CS20" s="163">
-        <v>0</v>
+      <c r="CR20" s="226" t="s">
+        <v>272</v>
+      </c>
+      <c r="CS20" s="227" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:97">
@@ -15307,7 +15303,7 @@
         <v>2.03837206624133</v>
       </c>
       <c r="D21" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="E21" s="163" t="s">
         <v>110</v>
@@ -15421,7 +15417,7 @@
         <v>1.1299435028248599</v>
       </c>
       <c r="AP21" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AQ21" s="163" t="s">
         <v>110</v>
@@ -15433,25 +15429,25 @@
         <v>0.45197740112994</v>
       </c>
       <c r="AT21" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AU21" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AV21" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AW21" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AX21" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AY21" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AZ21" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BA21" s="163" t="s">
         <v>110</v>
@@ -15463,7 +15459,7 @@
         <v>1.0169491525423699</v>
       </c>
       <c r="BD21" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BE21" s="163" t="s">
         <v>110</v>
@@ -15606,7 +15602,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="G22" s="163" t="s">
         <v>110</v>
@@ -15750,13 +15746,13 @@
         <v>0.89086859688195996</v>
       </c>
       <c r="BB22" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BC22" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BD22" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BE22" s="163" t="s">
         <v>110</v>
@@ -15792,7 +15788,7 @@
         <v>0.89086859688195996</v>
       </c>
       <c r="BP22" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BQ22" s="163" t="s">
         <v>110</v>
@@ -15804,7 +15800,7 @@
         <v>0.44543429844097998</v>
       </c>
       <c r="BT22" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BU22" s="163" t="s">
         <v>110</v>
@@ -15876,7 +15872,7 @@
         <v>1.67037861915368</v>
       </c>
       <c r="CR22" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="CS22" s="163" t="s">
         <v>110</v>
@@ -15893,7 +15889,7 @@
         <v>1.5247483704539699</v>
       </c>
       <c r="D23" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="E23" s="163" t="s">
         <v>110</v>
@@ -16007,13 +16003,13 @@
         <v>1.5105740181268901</v>
       </c>
       <c r="AP23" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AQ23" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AR23" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AS23" s="163" t="s">
         <v>110</v>
@@ -16025,7 +16021,7 @@
         <v>0</v>
       </c>
       <c r="AV23" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AW23" s="163" t="s">
         <v>110</v>
@@ -16037,7 +16033,7 @@
         <v>0.75528700906344004</v>
       </c>
       <c r="AZ23" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BA23" s="163" t="s">
         <v>110</v>
@@ -16055,19 +16051,19 @@
         <v>0.75528700906344004</v>
       </c>
       <c r="BF23" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BG23" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BH23" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BI23" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BJ23" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BK23" s="163" t="s">
         <v>110</v>
@@ -16079,19 +16075,19 @@
         <v>1.0574018126888201</v>
       </c>
       <c r="BN23" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BO23" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BP23" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BQ23" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BR23" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BS23" s="163" t="s">
         <v>110</v>
@@ -16169,7 +16165,7 @@
         <v>1.5105740181268901</v>
       </c>
       <c r="CR23" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="CS23" s="163" t="s">
         <v>110</v>
@@ -16192,7 +16188,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="G24" s="163" t="s">
         <v>110</v>
@@ -16294,25 +16290,25 @@
         <v>0.79260237780713005</v>
       </c>
       <c r="AN24" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AO24" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AP24" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AQ24" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AR24" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AS24" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AT24" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AU24" s="163" t="s">
         <v>110</v>
@@ -16324,13 +16320,13 @@
         <v>0.52840158520475999</v>
       </c>
       <c r="AX24" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AY24" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AZ24" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BA24" s="163" t="s">
         <v>110</v>
@@ -16348,7 +16344,7 @@
         <v>0.52840158520475999</v>
       </c>
       <c r="BF24" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BG24" s="163" t="s">
         <v>110</v>
@@ -16485,7 +16481,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="G25" s="163" t="s">
         <v>110</v>
@@ -16599,25 +16595,25 @@
         <v>0.70821529745042999</v>
       </c>
       <c r="AR25" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AS25" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AT25" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AU25" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AV25" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AW25" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AX25" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AY25" s="163" t="s">
         <v>110</v>
@@ -16635,19 +16631,19 @@
         <v>0.70821529745042999</v>
       </c>
       <c r="BD25" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BE25" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BF25" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BG25" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BH25" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BI25" s="163" t="s">
         <v>110</v>
@@ -16659,19 +16655,19 @@
         <v>0</v>
       </c>
       <c r="BL25" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BM25" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BN25" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BO25" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BP25" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BQ25" s="163" t="s">
         <v>110</v>
@@ -16796,7 +16792,7 @@
         <v>0.97222222222221999</v>
       </c>
       <c r="L26" s="79" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="M26" s="163" t="s">
         <v>110</v>
@@ -16880,19 +16876,19 @@
         <v>0.69444444444443998</v>
       </c>
       <c r="AN26" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AO26" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AP26" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AQ26" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AR26" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AS26" s="163" t="s">
         <v>110</v>
@@ -16904,7 +16900,7 @@
         <v>1.1111111111111101</v>
       </c>
       <c r="AV26" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AW26" s="163" t="s">
         <v>110</v>
@@ -16916,7 +16912,7 @@
         <v>0.55555555555556002</v>
       </c>
       <c r="AZ26" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BA26" s="163" t="s">
         <v>110</v>
@@ -16928,7 +16924,7 @@
         <v>0</v>
       </c>
       <c r="BD26" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BE26" s="163" t="s">
         <v>110</v>
@@ -16952,7 +16948,7 @@
         <v>0.97222222222221999</v>
       </c>
       <c r="BL26" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BM26" s="163" t="s">
         <v>110</v>
@@ -17173,13 +17169,13 @@
         <v>2.3489932885906</v>
       </c>
       <c r="AN27" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AO27" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AP27" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AQ27" s="163" t="s">
         <v>110</v>
@@ -17191,7 +17187,7 @@
         <v>1.34228187919463</v>
       </c>
       <c r="AT27" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AU27" s="163" t="s">
         <v>110</v>
@@ -17209,19 +17205,19 @@
         <v>0</v>
       </c>
       <c r="AZ27" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BA27" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BB27" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BC27" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BD27" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BE27" s="163" t="s">
         <v>110</v>
@@ -17233,31 +17229,31 @@
         <v>0</v>
       </c>
       <c r="BH27" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BI27" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BJ27" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BK27" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BL27" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BM27" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BN27" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BO27" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BP27" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BQ27" s="163" t="s">
         <v>110</v>
@@ -17269,13 +17265,13 @@
         <v>1.6778523489932899</v>
       </c>
       <c r="BT27" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BU27" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BV27" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BW27" s="163" t="s">
         <v>110</v>
@@ -17364,7 +17360,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="G28" s="163" t="s">
         <v>110</v>
@@ -17412,7 +17408,7 @@
         <v>1.9512195121951199</v>
       </c>
       <c r="V28" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="W28" s="163" t="s">
         <v>110</v>
@@ -17430,7 +17426,7 @@
         <v>1.7073170731707299</v>
       </c>
       <c r="AB28" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AC28" s="163" t="s">
         <v>110</v>
@@ -17472,7 +17468,7 @@
         <v>0.97560975609755995</v>
       </c>
       <c r="AP28" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AQ28" s="163" t="s">
         <v>110</v>
@@ -17484,7 +17480,7 @@
         <v>0</v>
       </c>
       <c r="AT28" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AU28" s="163" t="s">
         <v>110</v>
@@ -17508,7 +17504,7 @@
         <v>0</v>
       </c>
       <c r="BB28" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BC28" s="163" t="s">
         <v>110</v>
@@ -17520,31 +17516,31 @@
         <v>0</v>
       </c>
       <c r="BF28" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BG28" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BH28" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BI28" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BJ28" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BK28" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BL28" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BM28" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BN28" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BO28" s="163" t="s">
         <v>110</v>
@@ -17556,7 +17552,7 @@
         <v>0.97560975609755995</v>
       </c>
       <c r="BR28" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BS28" s="163" t="s">
         <v>110</v>
@@ -17642,7 +17638,7 @@
     </row>
     <row r="29" spans="1:97">
       <c r="A29" s="153" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B29" s="78">
         <v>386</v>
@@ -17681,25 +17677,25 @@
         <v>1.2953367875647701</v>
       </c>
       <c r="N29" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="O29" s="163" t="s">
         <v>110</v>
       </c>
       <c r="P29" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="Q29" s="163" t="s">
         <v>110</v>
       </c>
       <c r="R29" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="S29" s="163" t="s">
         <v>110</v>
       </c>
       <c r="T29" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="U29" s="163" t="s">
         <v>110</v>
@@ -17747,7 +17743,7 @@
         <v>3.3678756476683902</v>
       </c>
       <c r="AJ29" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AK29" s="163" t="s">
         <v>110</v>
@@ -17759,7 +17755,7 @@
         <v>1.2953367875647701</v>
       </c>
       <c r="AN29" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AO29" s="163" t="s">
         <v>110</v>
@@ -17771,7 +17767,7 @@
         <v>1.03626943005181</v>
       </c>
       <c r="AR29" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AS29" s="163" t="s">
         <v>110</v>
@@ -17783,7 +17779,7 @@
         <v>1.2953367875647701</v>
       </c>
       <c r="AV29" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AW29" s="163" t="s">
         <v>110</v>
@@ -17807,7 +17803,7 @@
         <v>0</v>
       </c>
       <c r="BD29" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BE29" s="163" t="s">
         <v>110</v>
@@ -17819,7 +17815,7 @@
         <v>0</v>
       </c>
       <c r="BH29" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BI29" s="163" t="s">
         <v>110</v>
@@ -17843,7 +17839,7 @@
         <v>1.03626943005181</v>
       </c>
       <c r="BP29" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BQ29" s="163" t="s">
         <v>110</v>
@@ -17927,7 +17923,7 @@
         <v>6.4766839378238403</v>
       </c>
       <c r="CR29" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="CS29" s="163" t="s">
         <v>110</v>
@@ -17956,13 +17952,13 @@
         <v>0</v>
       </c>
       <c r="H30" s="158" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="I30" s="154" t="s">
         <v>110</v>
       </c>
       <c r="J30" s="155" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="K30" s="154" t="s">
         <v>110</v>
@@ -17974,13 +17970,13 @@
         <v>0</v>
       </c>
       <c r="N30" s="155" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="O30" s="154" t="s">
         <v>110</v>
       </c>
       <c r="P30" s="155" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="Q30" s="154" t="s">
         <v>110</v>
@@ -17992,7 +17988,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="155" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="U30" s="154" t="s">
         <v>110</v>
@@ -18004,31 +18000,31 @@
         <v>0</v>
       </c>
       <c r="X30" s="155" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="Y30" s="154" t="s">
         <v>110</v>
       </c>
       <c r="Z30" s="155" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AA30" s="154" t="s">
         <v>110</v>
       </c>
       <c r="AB30" s="155" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AC30" s="154" t="s">
         <v>110</v>
       </c>
       <c r="AD30" s="155" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AE30" s="154" t="s">
         <v>110</v>
       </c>
       <c r="AF30" s="155" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AG30" s="154" t="s">
         <v>110</v>
@@ -18040,7 +18036,7 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="155" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AK30" s="154" t="s">
         <v>110</v>
@@ -18052,7 +18048,7 @@
         <v>0</v>
       </c>
       <c r="AN30" s="155" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AO30" s="154" t="s">
         <v>110</v>
@@ -18064,7 +18060,7 @@
         <v>0</v>
       </c>
       <c r="AR30" s="155" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AS30" s="154" t="s">
         <v>110</v>
@@ -18082,13 +18078,13 @@
         <v>0</v>
       </c>
       <c r="AX30" s="155" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AY30" s="154" t="s">
         <v>110</v>
       </c>
       <c r="AZ30" s="155" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BA30" s="154" t="s">
         <v>110</v>
@@ -18100,7 +18096,7 @@
         <v>0</v>
       </c>
       <c r="BD30" s="155" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BE30" s="154" t="s">
         <v>110</v>
@@ -18112,7 +18108,7 @@
         <v>0</v>
       </c>
       <c r="BH30" s="155" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BI30" s="154" t="s">
         <v>110</v>
@@ -18130,25 +18126,25 @@
         <v>0</v>
       </c>
       <c r="BN30" s="155" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BO30" s="154" t="s">
         <v>110</v>
       </c>
       <c r="BP30" s="155" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BQ30" s="154" t="s">
         <v>110</v>
       </c>
       <c r="BR30" s="155" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BS30" s="154" t="s">
         <v>110</v>
       </c>
       <c r="BT30" s="155" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BU30" s="154" t="s">
         <v>110</v>
@@ -18156,19 +18152,19 @@
       <c r="BV30" s="155">
         <v>11</v>
       </c>
-      <c r="BW30" s="154">
+      <c r="BW30" s="225">
         <v>10.476190476190499</v>
       </c>
       <c r="BX30" s="155">
         <v>23</v>
       </c>
-      <c r="BY30" s="154">
+      <c r="BY30" s="225">
         <v>21.904761904761902</v>
       </c>
       <c r="BZ30" s="155">
         <v>15</v>
       </c>
-      <c r="CA30" s="154">
+      <c r="CA30" s="225">
         <v>14.285714285714301</v>
       </c>
       <c r="CB30" s="155">
@@ -18177,53 +18173,53 @@
       <c r="CC30" s="154">
         <v>20</v>
       </c>
-      <c r="CD30" s="155">
-        <v>21</v>
-      </c>
-      <c r="CE30" s="154">
-        <v>20</v>
+      <c r="CD30" s="155" t="s">
+        <v>272</v>
+      </c>
+      <c r="CE30" s="154" t="s">
+        <v>273</v>
       </c>
       <c r="CF30" s="155" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="CG30" s="154" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CH30" s="155" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="CI30" s="154" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CJ30" s="155" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="CK30" s="154" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CL30" s="155" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="CM30" s="154" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CN30" s="155" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="CO30" s="154" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CP30" s="155" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="CQ30" s="154" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CR30" s="155" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="CS30" s="154" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:97" ht="15.75" customHeight="1" thickTop="1">
@@ -18338,24 +18334,28 @@
       <c r="A37" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="AN6:AO6"/>
-    <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="AJ6:AK6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="H6:I6"/>
+  <mergeCells count="52">
+    <mergeCell ref="CP6:CQ6"/>
+    <mergeCell ref="CR6:CS6"/>
+    <mergeCell ref="CF5:CS5"/>
+    <mergeCell ref="D5:CE5"/>
+    <mergeCell ref="CJ6:CK6"/>
+    <mergeCell ref="BX6:BY6"/>
+    <mergeCell ref="BZ6:CA6"/>
+    <mergeCell ref="CB6:CC6"/>
+    <mergeCell ref="BV6:BW6"/>
+    <mergeCell ref="BN6:BO6"/>
+    <mergeCell ref="CD6:CE6"/>
+    <mergeCell ref="CF6:CG6"/>
+    <mergeCell ref="CH6:CI6"/>
+    <mergeCell ref="BJ6:BK6"/>
+    <mergeCell ref="BL6:BM6"/>
+    <mergeCell ref="BP6:BQ6"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="R6:S6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="BR6:BS6"/>
+    <mergeCell ref="BT6:BU6"/>
     <mergeCell ref="AT6:AU6"/>
     <mergeCell ref="Z6:AA6"/>
     <mergeCell ref="AH6:AI6"/>
@@ -18365,31 +18365,28 @@
     <mergeCell ref="AF6:AG6"/>
     <mergeCell ref="AD6:AE6"/>
     <mergeCell ref="BB6:BC6"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="CL6:CM6"/>
+    <mergeCell ref="CN6:CO6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
     <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="T6:U6"/>
     <mergeCell ref="AZ6:BA6"/>
     <mergeCell ref="AR6:AS6"/>
     <mergeCell ref="AP6:AQ6"/>
     <mergeCell ref="AX6:AY6"/>
     <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="BJ6:BK6"/>
-    <mergeCell ref="BL6:BM6"/>
-    <mergeCell ref="BP6:BQ6"/>
-    <mergeCell ref="BR6:BS6"/>
-    <mergeCell ref="BT6:BU6"/>
-    <mergeCell ref="BV6:BW6"/>
-    <mergeCell ref="BN6:BO6"/>
-    <mergeCell ref="CD6:CE6"/>
-    <mergeCell ref="CF6:CG6"/>
-    <mergeCell ref="CH6:CI6"/>
-    <mergeCell ref="CP6:CQ6"/>
-    <mergeCell ref="CR6:CS6"/>
-    <mergeCell ref="CF5:CS5"/>
-    <mergeCell ref="CJ6:CK6"/>
-    <mergeCell ref="BX6:BY6"/>
-    <mergeCell ref="BZ6:CA6"/>
-    <mergeCell ref="CB6:CC6"/>
-    <mergeCell ref="CL6:CM6"/>
-    <mergeCell ref="CN6:CO6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="AN6:AO6"/>
+    <mergeCell ref="AL6:AM6"/>
+    <mergeCell ref="AJ6:AK6"/>
+    <mergeCell ref="V6:W6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18474,15 +18471,15 @@
       </c>
     </row>
     <row r="2" spans="1:95" ht="46.5" customHeight="1">
-      <c r="A2" s="282" t="s">
-        <v>240</v>
-      </c>
-      <c r="B2" s="282"/>
-      <c r="C2" s="282"/>
-      <c r="D2" s="282"/>
-      <c r="E2" s="282"/>
-      <c r="F2" s="282"/>
-      <c r="G2" s="282"/>
+      <c r="A2" s="283" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" s="283"/>
+      <c r="C2" s="283"/>
+      <c r="D2" s="283"/>
+      <c r="E2" s="283"/>
+      <c r="F2" s="283"/>
+      <c r="G2" s="283"/>
       <c r="BC2" s="30"/>
       <c r="BD2" s="193"/>
       <c r="BE2" s="30"/>
@@ -18521,62 +18518,62 @@
     </row>
     <row r="5" spans="1:95" ht="28.5" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="284" t="s">
+      <c r="B5" s="285" t="s">
         <v>204</v>
       </c>
-      <c r="C5" s="285"/>
-      <c r="D5" s="272" t="s">
+      <c r="C5" s="286"/>
+      <c r="D5" s="273" t="s">
         <v>193</v>
       </c>
-      <c r="E5" s="273"/>
-      <c r="F5" s="273"/>
-      <c r="G5" s="273"/>
-      <c r="H5" s="273"/>
-      <c r="I5" s="273"/>
-      <c r="J5" s="273"/>
-      <c r="K5" s="273"/>
-      <c r="L5" s="273"/>
-      <c r="M5" s="273"/>
-      <c r="N5" s="273"/>
-      <c r="O5" s="273"/>
-      <c r="P5" s="273"/>
-      <c r="Q5" s="273"/>
-      <c r="R5" s="273"/>
-      <c r="S5" s="273"/>
-      <c r="T5" s="273"/>
-      <c r="U5" s="273"/>
-      <c r="V5" s="273"/>
-      <c r="W5" s="273"/>
-      <c r="X5" s="273"/>
-      <c r="Y5" s="273"/>
-      <c r="Z5" s="273"/>
-      <c r="AA5" s="273"/>
-      <c r="AB5" s="273"/>
-      <c r="AC5" s="273"/>
-      <c r="AD5" s="273"/>
-      <c r="AE5" s="273"/>
-      <c r="AF5" s="273"/>
-      <c r="AG5" s="273"/>
-      <c r="AH5" s="273"/>
-      <c r="AI5" s="273"/>
-      <c r="AJ5" s="273"/>
-      <c r="AK5" s="273"/>
-      <c r="AL5" s="273"/>
-      <c r="AM5" s="273"/>
-      <c r="AN5" s="273"/>
-      <c r="AO5" s="273"/>
-      <c r="AP5" s="273"/>
-      <c r="AQ5" s="273"/>
-      <c r="AR5" s="273"/>
-      <c r="AS5" s="273"/>
-      <c r="AT5" s="273"/>
-      <c r="AU5" s="273"/>
-      <c r="AV5" s="273"/>
-      <c r="AW5" s="273"/>
-      <c r="AX5" s="273"/>
-      <c r="AY5" s="273"/>
-      <c r="AZ5" s="273"/>
-      <c r="BA5" s="273"/>
+      <c r="E5" s="274"/>
+      <c r="F5" s="274"/>
+      <c r="G5" s="274"/>
+      <c r="H5" s="274"/>
+      <c r="I5" s="274"/>
+      <c r="J5" s="274"/>
+      <c r="K5" s="274"/>
+      <c r="L5" s="274"/>
+      <c r="M5" s="274"/>
+      <c r="N5" s="274"/>
+      <c r="O5" s="274"/>
+      <c r="P5" s="274"/>
+      <c r="Q5" s="274"/>
+      <c r="R5" s="274"/>
+      <c r="S5" s="274"/>
+      <c r="T5" s="274"/>
+      <c r="U5" s="274"/>
+      <c r="V5" s="274"/>
+      <c r="W5" s="274"/>
+      <c r="X5" s="274"/>
+      <c r="Y5" s="274"/>
+      <c r="Z5" s="274"/>
+      <c r="AA5" s="274"/>
+      <c r="AB5" s="274"/>
+      <c r="AC5" s="274"/>
+      <c r="AD5" s="274"/>
+      <c r="AE5" s="274"/>
+      <c r="AF5" s="274"/>
+      <c r="AG5" s="274"/>
+      <c r="AH5" s="274"/>
+      <c r="AI5" s="274"/>
+      <c r="AJ5" s="274"/>
+      <c r="AK5" s="274"/>
+      <c r="AL5" s="274"/>
+      <c r="AM5" s="274"/>
+      <c r="AN5" s="274"/>
+      <c r="AO5" s="274"/>
+      <c r="AP5" s="274"/>
+      <c r="AQ5" s="274"/>
+      <c r="AR5" s="274"/>
+      <c r="AS5" s="274"/>
+      <c r="AT5" s="274"/>
+      <c r="AU5" s="274"/>
+      <c r="AV5" s="274"/>
+      <c r="AW5" s="274"/>
+      <c r="AX5" s="274"/>
+      <c r="AY5" s="274"/>
+      <c r="AZ5" s="274"/>
+      <c r="BA5" s="274"/>
       <c r="BB5" s="222"/>
       <c r="BC5" s="222"/>
       <c r="BD5" s="222"/>
@@ -18593,226 +18590,226 @@
       <c r="BO5" s="222"/>
       <c r="BP5" s="222"/>
       <c r="BQ5" s="222"/>
-      <c r="BR5" s="224"/>
-      <c r="BS5" s="224"/>
-      <c r="BT5" s="224"/>
-      <c r="BU5" s="224"/>
-      <c r="BV5" s="224"/>
-      <c r="BW5" s="224"/>
-      <c r="BX5" s="224"/>
-      <c r="BY5" s="224"/>
-      <c r="BZ5" s="224"/>
-      <c r="CA5" s="224"/>
-      <c r="CB5" s="224"/>
-      <c r="CC5" s="225"/>
-      <c r="CD5" s="290" t="s">
+      <c r="BR5" s="223"/>
+      <c r="BS5" s="223"/>
+      <c r="BT5" s="223"/>
+      <c r="BU5" s="223"/>
+      <c r="BV5" s="223"/>
+      <c r="BW5" s="223"/>
+      <c r="BX5" s="223"/>
+      <c r="BY5" s="223"/>
+      <c r="BZ5" s="223"/>
+      <c r="CA5" s="223"/>
+      <c r="CB5" s="223"/>
+      <c r="CC5" s="224"/>
+      <c r="CD5" s="299" t="s">
         <v>203</v>
       </c>
-      <c r="CE5" s="273"/>
-      <c r="CF5" s="273"/>
-      <c r="CG5" s="273"/>
-      <c r="CH5" s="273"/>
-      <c r="CI5" s="273"/>
-      <c r="CJ5" s="273"/>
-      <c r="CK5" s="273"/>
-      <c r="CL5" s="273"/>
-      <c r="CM5" s="273"/>
-      <c r="CN5" s="273"/>
-      <c r="CO5" s="273"/>
-      <c r="CP5" s="273"/>
-      <c r="CQ5" s="299"/>
+      <c r="CE5" s="274"/>
+      <c r="CF5" s="274"/>
+      <c r="CG5" s="274"/>
+      <c r="CH5" s="274"/>
+      <c r="CI5" s="274"/>
+      <c r="CJ5" s="274"/>
+      <c r="CK5" s="274"/>
+      <c r="CL5" s="274"/>
+      <c r="CM5" s="274"/>
+      <c r="CN5" s="274"/>
+      <c r="CO5" s="274"/>
+      <c r="CP5" s="274"/>
+      <c r="CQ5" s="274"/>
     </row>
     <row r="6" spans="1:95" ht="13.5" customHeight="1">
-      <c r="A6" s="286"/>
-      <c r="B6" s="279"/>
-      <c r="C6" s="278"/>
-      <c r="D6" s="291" t="s">
+      <c r="A6" s="287"/>
+      <c r="B6" s="280"/>
+      <c r="C6" s="279"/>
+      <c r="D6" s="293" t="s">
         <v>196</v>
       </c>
       <c r="E6" s="292"/>
-      <c r="F6" s="291" t="s">
+      <c r="F6" s="293" t="s">
         <v>191</v>
       </c>
       <c r="G6" s="292"/>
-      <c r="H6" s="291" t="s">
+      <c r="H6" s="293" t="s">
         <v>167</v>
       </c>
       <c r="I6" s="292"/>
-      <c r="J6" s="291" t="s">
+      <c r="J6" s="293" t="s">
         <v>168</v>
       </c>
       <c r="K6" s="292"/>
-      <c r="L6" s="291" t="s">
+      <c r="L6" s="293" t="s">
         <v>169</v>
       </c>
       <c r="M6" s="292"/>
-      <c r="N6" s="291" t="s">
+      <c r="N6" s="293" t="s">
         <v>170</v>
       </c>
       <c r="O6" s="292"/>
-      <c r="P6" s="291" t="s">
+      <c r="P6" s="293" t="s">
         <v>171</v>
       </c>
       <c r="Q6" s="292"/>
-      <c r="R6" s="291" t="s">
+      <c r="R6" s="293" t="s">
         <v>172</v>
       </c>
       <c r="S6" s="292"/>
-      <c r="T6" s="291" t="s">
+      <c r="T6" s="293" t="s">
         <v>173</v>
       </c>
       <c r="U6" s="292"/>
-      <c r="V6" s="291" t="s">
+      <c r="V6" s="293" t="s">
         <v>174</v>
       </c>
       <c r="W6" s="292"/>
-      <c r="X6" s="291" t="s">
+      <c r="X6" s="293" t="s">
         <v>175</v>
       </c>
       <c r="Y6" s="292"/>
-      <c r="Z6" s="291" t="s">
+      <c r="Z6" s="293" t="s">
         <v>201</v>
       </c>
       <c r="AA6" s="292"/>
-      <c r="AB6" s="291" t="s">
+      <c r="AB6" s="293" t="s">
         <v>222</v>
       </c>
       <c r="AC6" s="292"/>
-      <c r="AD6" s="298" t="s">
+      <c r="AD6" s="291" t="s">
         <v>230</v>
       </c>
       <c r="AE6" s="292"/>
-      <c r="AF6" s="298" t="s">
+      <c r="AF6" s="291" t="s">
         <v>234</v>
       </c>
       <c r="AG6" s="292"/>
-      <c r="AH6" s="298" t="s">
+      <c r="AH6" s="291" t="s">
+        <v>240</v>
+      </c>
+      <c r="AI6" s="292"/>
+      <c r="AJ6" s="291" t="s">
+        <v>241</v>
+      </c>
+      <c r="AK6" s="292"/>
+      <c r="AL6" s="291" t="s">
+        <v>242</v>
+      </c>
+      <c r="AM6" s="292"/>
+      <c r="AN6" s="291" t="s">
         <v>243</v>
       </c>
-      <c r="AI6" s="292"/>
-      <c r="AJ6" s="298" t="s">
+      <c r="AO6" s="292"/>
+      <c r="AP6" s="291" t="s">
         <v>244</v>
       </c>
-      <c r="AK6" s="292"/>
-      <c r="AL6" s="298" t="s">
+      <c r="AQ6" s="292"/>
+      <c r="AR6" s="291" t="s">
         <v>245</v>
       </c>
-      <c r="AM6" s="292"/>
-      <c r="AN6" s="298" t="s">
+      <c r="AS6" s="292"/>
+      <c r="AT6" s="291" t="s">
         <v>246</v>
       </c>
-      <c r="AO6" s="292"/>
-      <c r="AP6" s="298" t="s">
+      <c r="AU6" s="292"/>
+      <c r="AV6" s="291" t="s">
         <v>247</v>
       </c>
-      <c r="AQ6" s="292"/>
-      <c r="AR6" s="298" t="s">
+      <c r="AW6" s="292"/>
+      <c r="AX6" s="291" t="s">
         <v>248</v>
       </c>
-      <c r="AS6" s="292"/>
-      <c r="AT6" s="298" t="s">
-        <v>249</v>
-      </c>
-      <c r="AU6" s="292"/>
-      <c r="AV6" s="298" t="s">
+      <c r="AY6" s="292"/>
+      <c r="AZ6" s="291" t="s">
         <v>250</v>
       </c>
-      <c r="AW6" s="292"/>
-      <c r="AX6" s="298" t="s">
+      <c r="BA6" s="292"/>
+      <c r="BB6" s="291" t="s">
         <v>251</v>
       </c>
-      <c r="AY6" s="292"/>
-      <c r="AZ6" s="298" t="s">
+      <c r="BC6" s="292"/>
+      <c r="BD6" s="291" t="s">
+        <v>252</v>
+      </c>
+      <c r="BE6" s="292"/>
+      <c r="BF6" s="291" t="s">
+        <v>254</v>
+      </c>
+      <c r="BG6" s="292"/>
+      <c r="BH6" s="291" t="s">
         <v>253</v>
       </c>
-      <c r="BA6" s="292"/>
-      <c r="BB6" s="298" t="s">
-        <v>254</v>
-      </c>
-      <c r="BC6" s="292"/>
-      <c r="BD6" s="298" t="s">
+      <c r="BI6" s="292"/>
+      <c r="BJ6" s="291" t="s">
         <v>255</v>
       </c>
-      <c r="BE6" s="292"/>
-      <c r="BF6" s="298" t="s">
-        <v>257</v>
-      </c>
-      <c r="BG6" s="292"/>
-      <c r="BH6" s="298" t="s">
-        <v>256</v>
-      </c>
-      <c r="BI6" s="292"/>
-      <c r="BJ6" s="298" t="s">
+      <c r="BK6" s="292"/>
+      <c r="BL6" s="291" t="s">
         <v>258</v>
       </c>
-      <c r="BK6" s="292"/>
-      <c r="BL6" s="298" t="s">
+      <c r="BM6" s="292"/>
+      <c r="BN6" s="291" t="s">
+        <v>259</v>
+      </c>
+      <c r="BO6" s="292"/>
+      <c r="BP6" s="291" t="s">
+        <v>265</v>
+      </c>
+      <c r="BQ6" s="292"/>
+      <c r="BR6" s="291" t="s">
+        <v>264</v>
+      </c>
+      <c r="BS6" s="292"/>
+      <c r="BT6" s="291" t="s">
+        <v>263</v>
+      </c>
+      <c r="BU6" s="292"/>
+      <c r="BV6" s="291" t="s">
+        <v>262</v>
+      </c>
+      <c r="BW6" s="292"/>
+      <c r="BX6" s="291" t="s">
         <v>261</v>
       </c>
-      <c r="BM6" s="292"/>
-      <c r="BN6" s="298" t="s">
-        <v>262</v>
-      </c>
-      <c r="BO6" s="292"/>
-      <c r="BP6" s="298" t="s">
+      <c r="BY6" s="292"/>
+      <c r="BZ6" s="291" t="s">
+        <v>260</v>
+      </c>
+      <c r="CA6" s="292"/>
+      <c r="CB6" s="291" t="s">
+        <v>267</v>
+      </c>
+      <c r="CC6" s="292"/>
+      <c r="CD6" s="291" t="s">
+        <v>266</v>
+      </c>
+      <c r="CE6" s="292"/>
+      <c r="CF6" s="291" t="s">
         <v>268</v>
       </c>
-      <c r="BQ6" s="292"/>
-      <c r="BR6" s="298" t="s">
-        <v>267</v>
-      </c>
-      <c r="BS6" s="292"/>
-      <c r="BT6" s="298" t="s">
-        <v>266</v>
-      </c>
-      <c r="BU6" s="292"/>
-      <c r="BV6" s="298" t="s">
-        <v>265</v>
-      </c>
-      <c r="BW6" s="292"/>
-      <c r="BX6" s="298" t="s">
-        <v>264</v>
-      </c>
-      <c r="BY6" s="292"/>
-      <c r="BZ6" s="298" t="s">
-        <v>263</v>
-      </c>
-      <c r="CA6" s="292"/>
-      <c r="CB6" s="298" t="s">
+      <c r="CG6" s="292"/>
+      <c r="CH6" s="291" t="s">
+        <v>269</v>
+      </c>
+      <c r="CI6" s="292"/>
+      <c r="CJ6" s="291" t="s">
         <v>270</v>
       </c>
-      <c r="CC6" s="292"/>
-      <c r="CD6" s="298" t="s">
-        <v>269</v>
-      </c>
-      <c r="CE6" s="292"/>
-      <c r="CF6" s="298" t="s">
-        <v>271</v>
-      </c>
-      <c r="CG6" s="292"/>
-      <c r="CH6" s="298" t="s">
-        <v>272</v>
-      </c>
-      <c r="CI6" s="292"/>
-      <c r="CJ6" s="298" t="s">
-        <v>273</v>
-      </c>
       <c r="CK6" s="292"/>
-      <c r="CL6" s="298" t="s">
-        <v>274</v>
+      <c r="CL6" s="291" t="s">
+        <v>280</v>
       </c>
       <c r="CM6" s="292"/>
-      <c r="CN6" s="298" t="s">
-        <v>275</v>
+      <c r="CN6" s="291" t="s">
+        <v>281</v>
       </c>
       <c r="CO6" s="292"/>
-      <c r="CP6" s="298" t="s">
-        <v>276</v>
+      <c r="CP6" s="291" t="s">
+        <v>282</v>
       </c>
       <c r="CQ6" s="292"/>
     </row>
     <row r="7" spans="1:95">
-      <c r="A7" s="287"/>
+      <c r="A7" s="288"/>
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
@@ -19101,7 +19098,7 @@
         <v>221</v>
       </c>
       <c r="B8" s="218">
-        <v>33880</v>
+        <v>33881</v>
       </c>
       <c r="C8" s="183">
         <v>100</v>
@@ -19110,277 +19107,277 @@
         <v>31</v>
       </c>
       <c r="E8" s="178">
-        <v>9.1499409681230007E-2</v>
+        <v>9.1496709069980003E-2</v>
       </c>
       <c r="F8" s="130">
         <v>128</v>
       </c>
       <c r="G8" s="176">
-        <v>0.37780401416765003</v>
+        <v>0.37779286325668998</v>
       </c>
       <c r="H8" s="78">
         <v>424</v>
       </c>
       <c r="I8" s="176">
-        <v>1.2514757969303401</v>
+        <v>1.2514388595377901</v>
       </c>
       <c r="J8" s="78">
         <v>991</v>
       </c>
       <c r="K8" s="176">
-        <v>2.9250295159386099</v>
+        <v>2.92494318349517</v>
       </c>
       <c r="L8" s="78">
         <v>1218</v>
       </c>
       <c r="M8" s="176">
-        <v>3.5950413223140498</v>
+        <v>3.5949352144269699</v>
       </c>
       <c r="N8" s="78">
         <v>1396</v>
       </c>
       <c r="O8" s="176">
-        <v>4.1204250295159399</v>
+        <v>4.1203034148933</v>
       </c>
       <c r="P8" s="78">
         <v>1416</v>
       </c>
       <c r="Q8" s="176">
-        <v>4.1794569067296301</v>
+        <v>4.1793335497771604</v>
       </c>
       <c r="R8" s="78">
         <v>1288</v>
       </c>
       <c r="S8" s="217">
-        <v>3.8016528925619801</v>
+        <v>3.8015406865204699</v>
       </c>
       <c r="T8" s="130">
         <v>1284</v>
       </c>
       <c r="U8" s="212">
-        <v>3.7898465171192401</v>
+        <v>3.7897346595436998</v>
       </c>
       <c r="V8" s="88">
         <v>1107</v>
       </c>
       <c r="W8" s="216">
-        <v>3.2674144037780399</v>
+        <v>3.2673179658215501</v>
       </c>
       <c r="X8" s="130">
         <v>1043</v>
       </c>
       <c r="Y8" s="211">
-        <v>3.0785123966942201</v>
+        <v>3.0784215341932102</v>
       </c>
       <c r="Z8" s="130">
         <v>1082</v>
       </c>
       <c r="AA8" s="213">
-        <v>3.1936245572609199</v>
+        <v>3.1935302972167299</v>
       </c>
       <c r="AB8" s="88">
         <v>1010</v>
       </c>
       <c r="AC8" s="213">
-        <v>2.98110979929162</v>
+        <v>2.9810218116348399</v>
       </c>
       <c r="AD8" s="88">
         <v>907</v>
       </c>
       <c r="AE8" s="211">
-        <v>2.6770956316410901</v>
+        <v>2.6770166169829701</v>
       </c>
       <c r="AF8" s="130">
         <v>794</v>
       </c>
       <c r="AG8" s="213">
-        <v>2.3435655253837102</v>
+        <v>2.3434963548891701</v>
       </c>
       <c r="AH8" s="88">
         <v>787</v>
       </c>
       <c r="AI8" s="214">
-        <v>2.3229043683589099</v>
+        <v>2.3228358076798199</v>
       </c>
       <c r="AJ8" s="88">
         <v>581</v>
       </c>
       <c r="AK8" s="213">
-        <v>1.7148760330578501</v>
+        <v>1.71482541837608</v>
       </c>
       <c r="AL8" s="88">
         <v>421</v>
       </c>
       <c r="AM8" s="213">
-        <v>1.2426210153482899</v>
+        <v>1.2425843393052201</v>
       </c>
       <c r="AN8" s="88">
         <v>285</v>
       </c>
       <c r="AO8" s="211">
-        <v>0.84120425029515999</v>
+        <v>0.84117942209497998</v>
       </c>
       <c r="AP8" s="215">
         <v>201</v>
       </c>
       <c r="AQ8" s="214">
-        <v>0.59327036599764005</v>
+        <v>0.59325285558277996</v>
       </c>
       <c r="AR8" s="88">
         <v>200</v>
       </c>
       <c r="AS8" s="211">
-        <v>0.59031877213695005</v>
+        <v>0.59030134883857999</v>
       </c>
       <c r="AT8" s="215">
         <v>165</v>
       </c>
       <c r="AU8" s="211">
-        <v>0.48701298701299001</v>
+        <v>0.48699861279182999</v>
       </c>
       <c r="AV8" s="130">
         <v>160</v>
       </c>
       <c r="AW8" s="211">
-        <v>0.47225501770956002</v>
+        <v>0.47224107907086998</v>
       </c>
       <c r="AX8" s="130">
         <v>168</v>
       </c>
       <c r="AY8" s="213">
-        <v>0.49586776859504</v>
+        <v>0.49585313302440998</v>
       </c>
       <c r="AZ8" s="88">
         <v>133</v>
       </c>
       <c r="BA8" s="211">
-        <v>0.39256198347107002</v>
+        <v>0.39255039697765998</v>
       </c>
       <c r="BB8" s="215">
         <v>112</v>
       </c>
       <c r="BC8" s="214">
-        <v>0.33057851239669001</v>
+        <v>0.33056875534961</v>
       </c>
       <c r="BD8" s="88">
         <v>98</v>
       </c>
       <c r="BE8" s="213">
-        <v>0.28925619834711003</v>
+        <v>0.28924766093090998</v>
       </c>
       <c r="BF8" s="88">
         <v>119</v>
       </c>
       <c r="BG8" s="213">
-        <v>0.35123966942148999</v>
+        <v>0.35122930255896001</v>
       </c>
       <c r="BH8" s="88">
         <v>126</v>
       </c>
       <c r="BI8" s="213">
-        <v>0.37190082644627998</v>
+        <v>0.37188984976831002</v>
       </c>
       <c r="BJ8" s="88">
         <v>154</v>
       </c>
       <c r="BK8" s="213">
-        <v>0.45454545454544998</v>
+        <v>0.45453203860571001</v>
       </c>
       <c r="BL8" s="88">
         <v>155</v>
       </c>
       <c r="BM8" s="213">
-        <v>0.45749704840613997</v>
+        <v>0.45748354534989999</v>
       </c>
       <c r="BN8" s="88">
         <v>192</v>
       </c>
       <c r="BO8" s="212">
-        <v>0.56670602125147995</v>
+        <v>0.56668929488504005</v>
       </c>
       <c r="BP8" s="88">
         <v>221</v>
       </c>
       <c r="BQ8" s="212">
-        <v>0.65230224321133001</v>
+        <v>0.65228299046662996</v>
       </c>
       <c r="BR8" s="88">
         <v>352</v>
       </c>
       <c r="BS8" s="174">
-        <v>1.03896103896104</v>
+        <v>1.0389303739558999</v>
       </c>
       <c r="BT8" s="88">
         <v>594</v>
       </c>
       <c r="BU8" s="174">
-        <v>1.7532467532467499</v>
+        <v>1.7531950060505901</v>
       </c>
       <c r="BV8" s="88">
         <v>893</v>
       </c>
       <c r="BW8" s="211">
-        <v>2.6357733175915001</v>
+        <v>2.6356955225642702</v>
       </c>
       <c r="BX8" s="88">
         <v>1092</v>
       </c>
       <c r="BY8" s="211">
-        <v>3.2231404958677699</v>
+        <v>3.2230453646586601</v>
       </c>
       <c r="BZ8" s="88">
         <v>1340</v>
       </c>
       <c r="CA8" s="211">
-        <v>3.9551357733175898</v>
+        <v>3.9550190372184999</v>
       </c>
       <c r="CB8" s="88">
         <v>1283</v>
       </c>
       <c r="CC8" s="211">
-        <v>3.78689492325856</v>
+        <v>3.7867831527995</v>
       </c>
       <c r="CD8" s="88">
         <v>1385</v>
       </c>
       <c r="CE8" s="211">
-        <v>4.0879574970484098</v>
+        <v>4.0878368407071797</v>
       </c>
       <c r="CF8" s="88">
         <v>1467</v>
       </c>
       <c r="CG8" s="211">
-        <v>4.3299881936245601</v>
+        <v>4.3298603937309998</v>
       </c>
       <c r="CH8" s="88">
         <v>1626</v>
       </c>
       <c r="CI8" s="211">
-        <v>4.7992916174734397</v>
+        <v>4.7991499660576702</v>
       </c>
       <c r="CJ8" s="88">
         <v>1690</v>
       </c>
       <c r="CK8" s="211">
-        <v>4.98819362455726</v>
+        <v>4.9880463976860199</v>
       </c>
       <c r="CL8" s="88">
         <v>1533</v>
       </c>
       <c r="CM8" s="211">
-        <v>4.5247933884297504</v>
+        <v>4.5246598388477297</v>
       </c>
       <c r="CN8" s="88">
         <v>1415</v>
       </c>
       <c r="CO8" s="211">
-        <v>4.17650531286895</v>
+        <v>4.1763820430329703</v>
       </c>
       <c r="CP8" s="88">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="CQ8" s="211">
-        <v>2.3051948051948101</v>
+        <v>2.3080782739588601</v>
       </c>
     </row>
     <row r="9" spans="1:95">
@@ -19490,7 +19487,7 @@
         <v>11464</v>
       </c>
       <c r="C10" s="91">
-        <v>33.837072018890197</v>
+        <v>33.836073315427498</v>
       </c>
       <c r="D10" s="78">
         <v>18</v>
@@ -19777,7 +19774,7 @@
         <v>5245</v>
       </c>
       <c r="C11" s="93">
-        <v>15.4811097992916</v>
+        <v>15.480652873291801</v>
       </c>
       <c r="D11" s="78">
         <v>4</v>
@@ -20064,16 +20061,16 @@
         <v>3809</v>
       </c>
       <c r="C12" s="93">
-        <v>11.2426210153483</v>
+        <v>11.242289188630799</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="E12" s="207" t="s">
         <v>110</v>
       </c>
       <c r="F12" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="G12" s="207" t="s">
         <v>110</v>
@@ -20351,10 +20348,10 @@
         <v>1773</v>
       </c>
       <c r="C13" s="93">
-        <v>5.2331759149941002</v>
+        <v>5.2330214574540301</v>
       </c>
       <c r="D13" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="E13" s="207" t="s">
         <v>110</v>
@@ -20504,13 +20501,13 @@
         <v>0.28200789622109002</v>
       </c>
       <c r="BB13" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BC13" s="206" t="s">
         <v>110</v>
       </c>
       <c r="BD13" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BE13" s="206" t="s">
         <v>110</v>
@@ -20534,19 +20531,19 @@
         <v>0.39481105470952998</v>
       </c>
       <c r="BL13" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BM13" s="204" t="s">
         <v>110</v>
       </c>
       <c r="BN13" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BO13" s="204" t="s">
         <v>110</v>
       </c>
       <c r="BP13" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BQ13" s="204" t="s">
         <v>110</v>
@@ -20638,7 +20635,7 @@
         <v>1338</v>
       </c>
       <c r="C14" s="94">
-        <v>3.9492325855962198</v>
+        <v>3.9491160237301099</v>
       </c>
       <c r="D14" s="78">
         <v>0</v>
@@ -20791,7 +20788,7 @@
         <v>0.29895366218236002</v>
       </c>
       <c r="BB14" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BC14" s="202" t="s">
         <v>110</v>
@@ -20803,25 +20800,25 @@
         <v>0.37369207772794999</v>
       </c>
       <c r="BF14" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BG14" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BH14" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BI14" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BJ14" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BK14" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BL14" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BM14" s="200" t="s">
         <v>110</v>
@@ -20922,10 +20919,10 @@
         <v>124</v>
       </c>
       <c r="B15" s="90">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="C15" s="94">
-        <v>3.6983471074380199</v>
+        <v>3.70118945721791</v>
       </c>
       <c r="D15" s="78">
         <v>0</v>
@@ -20934,7 +20931,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="G15" s="203" t="s">
         <v>110</v>
@@ -20943,166 +20940,166 @@
         <v>6</v>
       </c>
       <c r="I15" s="203">
-        <v>0.47885075818036998</v>
+        <v>0.47846889952152999</v>
       </c>
       <c r="J15" s="78">
         <v>41</v>
       </c>
       <c r="K15" s="203">
-        <v>3.27214684756584</v>
+        <v>3.2695374800638</v>
       </c>
       <c r="L15" s="78">
         <v>32</v>
       </c>
       <c r="M15" s="203">
-        <v>2.55387071029529</v>
+        <v>2.5518341307814998</v>
       </c>
       <c r="N15" s="78">
         <v>53</v>
       </c>
       <c r="O15" s="203">
-        <v>4.22984836392658</v>
+        <v>4.2264752791068601</v>
       </c>
       <c r="P15" s="78">
         <v>34</v>
       </c>
       <c r="Q15" s="203">
-        <v>2.7134876296887498</v>
+        <v>2.71132376395534</v>
       </c>
       <c r="R15" s="78">
         <v>45</v>
       </c>
       <c r="S15" s="203">
-        <v>3.5913806863527502</v>
+        <v>3.58851674641148</v>
       </c>
       <c r="T15" s="78">
         <v>39</v>
       </c>
       <c r="U15" s="202">
-        <v>3.1125299281723899</v>
+        <v>3.11004784688995</v>
       </c>
       <c r="V15" s="78">
         <v>33</v>
       </c>
       <c r="W15" s="202">
-        <v>2.6336791699920199</v>
+        <v>2.6315789473684199</v>
       </c>
       <c r="X15" s="78">
         <v>35</v>
       </c>
       <c r="Y15" s="202">
-        <v>2.7932960893854801</v>
+        <v>2.7910685805422601</v>
       </c>
       <c r="Z15" s="78">
         <v>32</v>
       </c>
       <c r="AA15" s="202">
-        <v>2.55387071029529</v>
+        <v>2.5518341307814998</v>
       </c>
       <c r="AB15" s="78">
         <v>33</v>
       </c>
       <c r="AC15" s="202">
-        <v>2.6336791699920199</v>
+        <v>2.6315789473684199</v>
       </c>
       <c r="AD15" s="78">
         <v>32</v>
       </c>
       <c r="AE15" s="202">
-        <v>2.55387071029529</v>
+        <v>2.5518341307814998</v>
       </c>
       <c r="AF15" s="78">
         <v>40</v>
       </c>
       <c r="AG15" s="202">
-        <v>3.1923383878691101</v>
+        <v>3.1897926634768701</v>
       </c>
       <c r="AH15" s="78">
         <v>30</v>
       </c>
       <c r="AI15" s="202">
-        <v>2.39425379090184</v>
+        <v>2.39234449760766</v>
       </c>
       <c r="AJ15" s="78">
         <v>30</v>
       </c>
       <c r="AK15" s="202">
-        <v>2.39425379090184</v>
+        <v>2.39234449760766</v>
       </c>
       <c r="AL15" s="78">
         <v>23</v>
       </c>
       <c r="AM15" s="202">
-        <v>1.8355945730247401</v>
+        <v>1.8341307814992001</v>
       </c>
       <c r="AN15" s="78">
         <v>16</v>
       </c>
       <c r="AO15" s="202">
-        <v>1.2769353551476501</v>
+        <v>1.2759170653907499</v>
       </c>
       <c r="AP15" s="78">
         <v>21</v>
       </c>
       <c r="AQ15" s="202">
-        <v>1.67597765363129</v>
+        <v>1.67464114832536</v>
       </c>
       <c r="AR15" s="78">
         <v>11</v>
       </c>
       <c r="AS15" s="202">
-        <v>0.87789305666400996</v>
+        <v>0.87719298245613997</v>
       </c>
       <c r="AT15" s="78">
         <v>9</v>
       </c>
       <c r="AU15" s="202">
-        <v>0.71827613727054995</v>
+        <v>0.71770334928229995</v>
       </c>
       <c r="AV15" s="78">
         <v>10</v>
       </c>
       <c r="AW15" s="202">
-        <v>0.79808459696727996</v>
+        <v>0.79744816586921996</v>
       </c>
       <c r="AX15" s="78">
         <v>9</v>
       </c>
       <c r="AY15" s="202">
-        <v>0.71827613727054995</v>
+        <v>0.71770334928229995</v>
       </c>
       <c r="AZ15" s="78">
         <v>8</v>
       </c>
       <c r="BA15" s="202">
-        <v>0.63846767757381995</v>
+        <v>0.63795853269536995</v>
       </c>
       <c r="BB15" s="78">
         <v>7</v>
       </c>
       <c r="BC15" s="202">
-        <v>0.55865921787710004</v>
+        <v>0.55821371610845005</v>
       </c>
       <c r="BD15" s="78">
         <v>9</v>
       </c>
       <c r="BE15" s="202">
-        <v>0.71827613727054995</v>
+        <v>0.71770334928229995</v>
       </c>
       <c r="BF15" s="78">
         <v>6</v>
       </c>
       <c r="BG15" s="202">
-        <v>0.47885075818036998</v>
+        <v>0.47846889952152999</v>
       </c>
       <c r="BH15" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BI15" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BJ15" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BK15" s="200" t="s">
         <v>110</v>
@@ -21111,97 +21108,97 @@
         <v>8</v>
       </c>
       <c r="BM15" s="200">
-        <v>0.63846767757381995</v>
+        <v>0.63795853269536995</v>
       </c>
       <c r="BN15" s="78">
         <v>11</v>
       </c>
       <c r="BO15" s="200">
-        <v>0.87789305666400996</v>
+        <v>0.87719298245613997</v>
       </c>
       <c r="BP15" s="78">
         <v>8</v>
       </c>
       <c r="BQ15" s="200">
-        <v>0.63846767757381995</v>
+        <v>0.63795853269536995</v>
       </c>
       <c r="BR15" s="78">
         <v>9</v>
       </c>
       <c r="BS15" s="201">
-        <v>0.71827613727054995</v>
+        <v>0.71770334928229995</v>
       </c>
       <c r="BT15" s="78">
         <v>14</v>
       </c>
       <c r="BU15" s="201">
-        <v>1.1173184357541901</v>
+        <v>1.1164274322169101</v>
       </c>
       <c r="BV15" s="78">
         <v>18</v>
       </c>
       <c r="BW15" s="200">
-        <v>1.4365522745410999</v>
+        <v>1.4354066985645899</v>
       </c>
       <c r="BX15" s="78">
         <v>38</v>
       </c>
       <c r="BY15" s="200">
-        <v>3.03272146847566</v>
+        <v>3.0303030303030298</v>
       </c>
       <c r="BZ15" s="78">
         <v>38</v>
       </c>
       <c r="CA15" s="200">
-        <v>3.03272146847566</v>
+        <v>3.0303030303030298</v>
       </c>
       <c r="CB15" s="78">
         <v>48</v>
       </c>
       <c r="CC15" s="200">
-        <v>3.8308060654429399</v>
+        <v>3.8277511961722501</v>
       </c>
       <c r="CD15" s="78">
         <v>54</v>
       </c>
       <c r="CE15" s="200">
-        <v>4.3096568236233104</v>
+        <v>4.3062200956937797</v>
       </c>
       <c r="CF15" s="103">
         <v>53</v>
       </c>
       <c r="CG15" s="220">
-        <v>4.22984836392658</v>
+        <v>4.2264752791068601</v>
       </c>
       <c r="CH15" s="221">
         <v>70</v>
       </c>
       <c r="CI15" s="220">
-        <v>5.5865921787709496</v>
+        <v>5.5821371610845301</v>
       </c>
       <c r="CJ15" s="221">
         <v>90</v>
       </c>
       <c r="CK15" s="220">
-        <v>7.1827613727055102</v>
+        <v>7.1770334928229698</v>
       </c>
       <c r="CL15" s="221">
         <v>65</v>
       </c>
       <c r="CM15" s="220">
-        <v>5.1875498802873103</v>
+        <v>5.1834130781499201</v>
       </c>
       <c r="CN15" s="221">
         <v>54</v>
       </c>
       <c r="CO15" s="220">
-        <v>4.3096568236233104</v>
+        <v>4.3062200956937797</v>
       </c>
       <c r="CP15" s="221">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="CQ15" s="220">
-        <v>1.8355945730247401</v>
+        <v>1.91387559808612</v>
       </c>
     </row>
     <row r="16" spans="1:95">
@@ -21212,10 +21209,10 @@
         <v>1023</v>
       </c>
       <c r="C16" s="94">
-        <v>3.0194805194805201</v>
+        <v>3.0193913993093502</v>
       </c>
       <c r="D16" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="E16" s="203" t="s">
         <v>110</v>
@@ -21329,13 +21326,13 @@
         <v>0.97751710654935997</v>
       </c>
       <c r="AP16" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AQ16" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AR16" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AS16" s="202" t="s">
         <v>110</v>
@@ -21347,7 +21344,7 @@
         <v>0</v>
       </c>
       <c r="AV16" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AW16" s="202" t="s">
         <v>110</v>
@@ -21365,7 +21362,7 @@
         <v>0</v>
       </c>
       <c r="BB16" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BC16" s="202" t="s">
         <v>110</v>
@@ -21377,7 +21374,7 @@
         <v>0</v>
       </c>
       <c r="BF16" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BG16" s="202" t="s">
         <v>110</v>
@@ -21389,25 +21386,25 @@
         <v>0</v>
       </c>
       <c r="BJ16" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BK16" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BL16" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BM16" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BN16" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BO16" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BP16" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BQ16" s="200" t="s">
         <v>110</v>
@@ -21499,16 +21496,16 @@
         <v>1159</v>
       </c>
       <c r="C17" s="94">
-        <v>3.4208972845336501</v>
+        <v>3.42079631651958</v>
       </c>
       <c r="D17" s="85" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="E17" s="203" t="s">
         <v>110</v>
       </c>
       <c r="F17" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="G17" s="203" t="s">
         <v>110</v>
@@ -21622,7 +21619,7 @@
         <v>0.3451251078516</v>
       </c>
       <c r="AR17" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AS17" s="202" t="s">
         <v>110</v>
@@ -21634,19 +21631,19 @@
         <v>0.3451251078516</v>
       </c>
       <c r="AV17" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AW17" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AX17" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AY17" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AZ17" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BA17" s="202" t="s">
         <v>110</v>
@@ -21664,7 +21661,7 @@
         <v>0.3451251078516</v>
       </c>
       <c r="BF17" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BG17" s="202" t="s">
         <v>110</v>
@@ -21786,7 +21783,7 @@
         <v>580</v>
       </c>
       <c r="C18" s="94">
-        <v>1.71192443919717</v>
+        <v>1.71187391163189</v>
       </c>
       <c r="D18" s="85">
         <v>0</v>
@@ -21969,7 +21966,7 @@
         <v>1.72413793103448</v>
       </c>
       <c r="BL18" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BM18" s="200" t="s">
         <v>110</v>
@@ -22017,52 +22014,52 @@
         <v>2.9310344827586201</v>
       </c>
       <c r="CB18" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="CC18" s="200" t="s">
         <v>110</v>
       </c>
       <c r="CD18" s="143" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="CE18" s="200" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CF18" s="143" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="CG18" s="200" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CH18" s="143" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="CI18" s="200" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CJ18" s="143" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="CK18" s="200" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CL18" s="143" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="CM18" s="200" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CN18" s="143" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="CO18" s="200" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CP18" s="143" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="CQ18" s="200" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:95">
@@ -22073,7 +22070,7 @@
         <v>921</v>
       </c>
       <c r="C19" s="93">
-        <v>2.7184179456906699</v>
+        <v>2.71833771140167</v>
       </c>
       <c r="D19" s="83">
         <v>0</v>
@@ -22082,7 +22079,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="G19" s="207" t="s">
         <v>110</v>
@@ -22190,7 +22187,7 @@
         <v>0.65146579804560001</v>
       </c>
       <c r="AP19" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AQ19" s="206" t="s">
         <v>110</v>
@@ -22226,13 +22223,13 @@
         <v>0.76004343105320005</v>
       </c>
       <c r="BB19" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BC19" s="206" t="s">
         <v>110</v>
       </c>
       <c r="BD19" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BE19" s="206" t="s">
         <v>110</v>
@@ -22360,7 +22357,7 @@
         <v>846</v>
       </c>
       <c r="C20" s="94">
-        <v>2.4970484061393199</v>
+        <v>2.4969747055872</v>
       </c>
       <c r="D20" s="78">
         <v>0</v>
@@ -22477,7 +22474,7 @@
         <v>0.47281323877068998</v>
       </c>
       <c r="AP20" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AQ20" s="202" t="s">
         <v>110</v>
@@ -22495,31 +22492,31 @@
         <v>0.47281323877068998</v>
       </c>
       <c r="AV20" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AW20" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AX20" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AY20" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AZ20" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BA20" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BB20" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BC20" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BD20" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BE20" s="202" t="s">
         <v>110</v>
@@ -22537,7 +22534,7 @@
         <v>0.47281323877068998</v>
       </c>
       <c r="BJ20" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BK20" s="200" t="s">
         <v>110</v>
@@ -22632,11 +22629,11 @@
       <c r="CO20" s="220">
         <v>3.3096926713947998</v>
       </c>
-      <c r="CP20" s="221">
-        <v>0</v>
-      </c>
-      <c r="CQ20" s="220">
-        <v>0</v>
+      <c r="CP20" s="228" t="s">
+        <v>273</v>
+      </c>
+      <c r="CQ20" s="229" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:95">
@@ -22647,16 +22644,16 @@
         <v>617</v>
       </c>
       <c r="C21" s="96">
-        <v>1.8211334120425</v>
+        <v>1.8210796611670299</v>
       </c>
       <c r="D21" s="62" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="E21" s="203" t="s">
         <v>110</v>
       </c>
       <c r="F21" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="G21" s="203" t="s">
         <v>110</v>
@@ -22764,19 +22761,19 @@
         <v>0.81037277147487996</v>
       </c>
       <c r="AP21" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AQ21" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AR21" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AS21" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AT21" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AU21" s="202" t="s">
         <v>110</v>
@@ -22788,13 +22785,13 @@
         <v>0.81037277147487996</v>
       </c>
       <c r="AX21" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AY21" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AZ21" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BA21" s="202" t="s">
         <v>110</v>
@@ -22806,13 +22803,13 @@
         <v>0.97244732576985005</v>
       </c>
       <c r="BD21" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BE21" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BF21" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BG21" s="202" t="s">
         <v>110</v>
@@ -22913,14 +22910,12 @@
       <c r="CM21" s="220">
         <v>1.7828200972447299</v>
       </c>
-      <c r="CN21" s="221">
-        <v>11</v>
-      </c>
-      <c r="CO21" s="220">
-        <v>1.7828200972447299</v>
-      </c>
+      <c r="CN21" s="228" t="s">
+        <v>271</v>
+      </c>
+      <c r="CO21" s="220"/>
       <c r="CP21" s="221" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="CQ21" s="220" t="s">
         <v>110</v>
@@ -22934,7 +22929,7 @@
         <v>716</v>
       </c>
       <c r="C22" s="94">
-        <v>2.1133412042502999</v>
+        <v>2.11327882884212</v>
       </c>
       <c r="D22" s="85">
         <v>0</v>
@@ -23087,25 +23082,25 @@
         <v>0.69832402234637003</v>
       </c>
       <c r="BB22" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BC22" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BD22" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BE22" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BF22" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BG22" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BH22" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BI22" s="200" t="s">
         <v>110</v>
@@ -23135,13 +23130,13 @@
         <v>0.55865921787710004</v>
       </c>
       <c r="BR22" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BS22" s="201" t="s">
         <v>110</v>
       </c>
       <c r="BT22" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BU22" s="201" t="s">
         <v>110</v>
@@ -23221,7 +23216,7 @@
         <v>451</v>
       </c>
       <c r="C23" s="93">
-        <v>1.3311688311688299</v>
+        <v>1.3311295416310001</v>
       </c>
       <c r="D23" s="78">
         <v>0</v>
@@ -23248,7 +23243,7 @@
         <v>1.1086474501108701</v>
       </c>
       <c r="L23" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="M23" s="207" t="s">
         <v>110</v>
@@ -23344,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="AR23" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AS23" s="206" t="s">
         <v>110</v>
@@ -23356,43 +23351,43 @@
         <v>0</v>
       </c>
       <c r="AV23" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AW23" s="206" t="s">
         <v>110</v>
       </c>
       <c r="AX23" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AY23" s="206" t="s">
         <v>110</v>
       </c>
       <c r="AZ23" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BA23" s="206" t="s">
         <v>110</v>
       </c>
       <c r="BB23" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BC23" s="206" t="s">
         <v>110</v>
       </c>
       <c r="BD23" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BE23" s="206" t="s">
         <v>110</v>
       </c>
       <c r="BF23" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BG23" s="206" t="s">
         <v>110</v>
       </c>
       <c r="BH23" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BI23" s="204" t="s">
         <v>110</v>
@@ -23410,19 +23405,19 @@
         <v>1.3303769401330401</v>
       </c>
       <c r="BN23" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BO23" s="204" t="s">
         <v>110</v>
       </c>
       <c r="BP23" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BQ23" s="204" t="s">
         <v>110</v>
       </c>
       <c r="BR23" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BS23" s="205" t="s">
         <v>110</v>
@@ -23488,17 +23483,15 @@
         <v>0</v>
       </c>
       <c r="CN23" s="221" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="CO23" s="220" t="s">
         <v>110</v>
       </c>
-      <c r="CP23" s="221">
-        <v>0</v>
-      </c>
-      <c r="CQ23" s="220">
-        <v>0</v>
-      </c>
+      <c r="CP23" s="228" t="s">
+        <v>271</v>
+      </c>
+      <c r="CQ23" s="220"/>
     </row>
     <row r="24" spans="1:95">
       <c r="A24" s="30" t="s">
@@ -23508,7 +23501,7 @@
         <v>645</v>
       </c>
       <c r="C24" s="94">
-        <v>1.90377804014168</v>
+        <v>1.9037218500044299</v>
       </c>
       <c r="D24" s="85">
         <v>0</v>
@@ -23517,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="G24" s="203" t="s">
         <v>110</v>
@@ -23631,25 +23624,25 @@
         <v>0</v>
       </c>
       <c r="AR24" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AS24" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AT24" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AU24" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AV24" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AW24" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AX24" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AY24" s="202" t="s">
         <v>110</v>
@@ -23661,13 +23654,13 @@
         <v>0.62015503875969002</v>
       </c>
       <c r="BB24" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BC24" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BD24" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BE24" s="202" t="s">
         <v>110</v>
@@ -23679,7 +23672,7 @@
         <v>0.77519379844961001</v>
       </c>
       <c r="BH24" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BI24" s="200" t="s">
         <v>110</v>
@@ -23691,13 +23684,13 @@
         <v>0.77519379844961001</v>
       </c>
       <c r="BL24" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BM24" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BN24" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BO24" s="200" t="s">
         <v>110</v>
@@ -23795,22 +23788,22 @@
         <v>562</v>
       </c>
       <c r="C25" s="94">
-        <v>1.65879574970484</v>
+        <v>1.6587467902364199</v>
       </c>
       <c r="D25" s="85" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="E25" s="203" t="s">
         <v>110</v>
       </c>
       <c r="F25" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="G25" s="203" t="s">
         <v>110</v>
       </c>
       <c r="H25" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="I25" s="203" t="s">
         <v>110</v>
@@ -23912,31 +23905,31 @@
         <v>1.4234875444839901</v>
       </c>
       <c r="AP25" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AQ25" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AR25" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AS25" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AT25" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AU25" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AV25" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AW25" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AX25" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AY25" s="202" t="s">
         <v>110</v>
@@ -23948,43 +23941,43 @@
         <v>0.71174377224199004</v>
       </c>
       <c r="BB25" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BC25" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BD25" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BE25" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BF25" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BG25" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BH25" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BI25" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BJ25" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BK25" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BL25" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BM25" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BN25" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BO25" s="200" t="s">
         <v>110</v>
@@ -24002,7 +23995,7 @@
         <v>0.71174377224199004</v>
       </c>
       <c r="BT25" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BU25" s="201" t="s">
         <v>110</v>
@@ -24082,7 +24075,7 @@
         <v>493</v>
       </c>
       <c r="C26" s="94">
-        <v>1.45513577331759</v>
+        <v>1.45509282488711</v>
       </c>
       <c r="D26" s="84">
         <v>0</v>
@@ -24097,13 +24090,13 @@
         <v>0</v>
       </c>
       <c r="H26" s="84" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="I26" s="203" t="s">
         <v>110</v>
       </c>
       <c r="J26" s="84" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="K26" s="203" t="s">
         <v>110</v>
@@ -24187,19 +24180,19 @@
         <v>1.21703853955375</v>
       </c>
       <c r="AL26" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AM26" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AN26" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AO26" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AP26" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AQ26" s="202" t="s">
         <v>110</v>
@@ -24217,7 +24210,7 @@
         <v>0</v>
       </c>
       <c r="AV26" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AW26" s="202" t="s">
         <v>110</v>
@@ -24229,7 +24222,7 @@
         <v>1.21703853955375</v>
       </c>
       <c r="AZ26" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BA26" s="202" t="s">
         <v>110</v>
@@ -24241,19 +24234,19 @@
         <v>0</v>
       </c>
       <c r="BD26" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BE26" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BF26" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BG26" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BH26" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BI26" s="200" t="s">
         <v>110</v>
@@ -24265,7 +24258,7 @@
         <v>1.01419878296146</v>
       </c>
       <c r="BL26" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BM26" s="200" t="s">
         <v>110</v>
@@ -24369,10 +24362,10 @@
         <v>357</v>
       </c>
       <c r="C27" s="94">
-        <v>1.0537190082644601</v>
+        <v>1.0536879076768699</v>
       </c>
       <c r="D27" s="84" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="E27" s="203" t="s">
         <v>110</v>
@@ -24384,7 +24377,7 @@
         <v>1.6806722689075599</v>
       </c>
       <c r="H27" s="84" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="I27" s="203" t="s">
         <v>110</v>
@@ -24480,55 +24473,55 @@
         <v>1.12044817927171</v>
       </c>
       <c r="AN27" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AO27" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AP27" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AQ27" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AR27" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AS27" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AT27" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AU27" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AV27" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AW27" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AX27" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AY27" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AZ27" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BA27" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BB27" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BC27" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BD27" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BE27" s="202" t="s">
         <v>110</v>
@@ -24540,13 +24533,13 @@
         <v>0</v>
       </c>
       <c r="BH27" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BI27" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BJ27" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BK27" s="200" t="s">
         <v>110</v>
@@ -24558,19 +24551,19 @@
         <v>0</v>
       </c>
       <c r="BN27" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BO27" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BP27" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BQ27" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BR27" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BS27" s="201" t="s">
         <v>110</v>
@@ -24656,7 +24649,7 @@
         <v>250</v>
       </c>
       <c r="C28" s="93">
-        <v>0.73789846517118995</v>
+        <v>0.73787668604822998</v>
       </c>
       <c r="D28" s="83">
         <v>0</v>
@@ -24665,13 +24658,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="83" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="G28" s="207" t="s">
         <v>110</v>
       </c>
       <c r="H28" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="I28" s="207" t="s">
         <v>110</v>
@@ -24743,7 +24736,7 @@
         <v>2</v>
       </c>
       <c r="AF28" s="83" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AG28" s="206" t="s">
         <v>110</v>
@@ -24761,13 +24754,13 @@
         <v>4.8</v>
       </c>
       <c r="AL28" s="83" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AM28" s="206" t="s">
         <v>110</v>
       </c>
       <c r="AN28" s="83" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AO28" s="206" t="s">
         <v>110</v>
@@ -24785,7 +24778,7 @@
         <v>0</v>
       </c>
       <c r="AT28" s="83" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AU28" s="206" t="s">
         <v>110</v>
@@ -24797,25 +24790,25 @@
         <v>0</v>
       </c>
       <c r="AX28" s="83" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AY28" s="206" t="s">
         <v>110</v>
       </c>
       <c r="AZ28" s="83" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BA28" s="206" t="s">
         <v>110</v>
       </c>
       <c r="BB28" s="83" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BC28" s="206" t="s">
         <v>110</v>
       </c>
       <c r="BD28" s="83" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BE28" s="206" t="s">
         <v>110</v>
@@ -24827,25 +24820,25 @@
         <v>0</v>
       </c>
       <c r="BH28" s="83" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BI28" s="204" t="s">
         <v>110</v>
       </c>
       <c r="BJ28" s="83" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BK28" s="204" t="s">
         <v>110</v>
       </c>
       <c r="BL28" s="83" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BM28" s="204" t="s">
         <v>110</v>
       </c>
       <c r="BN28" s="83" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BO28" s="204" t="s">
         <v>110</v>
@@ -24857,19 +24850,19 @@
         <v>0</v>
       </c>
       <c r="BR28" s="83" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BS28" s="205" t="s">
         <v>110</v>
       </c>
       <c r="BT28" s="83" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BU28" s="205" t="s">
         <v>110</v>
       </c>
       <c r="BV28" s="83" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BW28" s="204" t="s">
         <v>110</v>
@@ -24937,13 +24930,13 @@
     </row>
     <row r="29" spans="1:95">
       <c r="A29" s="30" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B29" s="90">
         <v>305</v>
       </c>
       <c r="C29" s="94">
-        <v>0.90023612750884996</v>
+        <v>0.90020955697883998</v>
       </c>
       <c r="D29" s="84">
         <v>0</v>
@@ -24958,7 +24951,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="84" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="I29" s="203" t="s">
         <v>110</v>
@@ -24970,13 +24963,13 @@
         <v>1.3114754098360699</v>
       </c>
       <c r="L29" s="84" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="M29" s="203" t="s">
         <v>110</v>
       </c>
       <c r="N29" s="84" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="O29" s="203" t="s">
         <v>110</v>
@@ -24988,7 +24981,7 @@
         <v>1.3114754098360699</v>
       </c>
       <c r="R29" s="84" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="S29" s="203" t="s">
         <v>110</v>
@@ -25000,7 +24993,7 @@
         <v>1.63934426229508</v>
       </c>
       <c r="V29" s="84" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="W29" s="202" t="s">
         <v>110</v>
@@ -25054,7 +25047,7 @@
         <v>1.3114754098360699</v>
       </c>
       <c r="AN29" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AO29" s="202" t="s">
         <v>110</v>
@@ -25078,7 +25071,7 @@
         <v>1.3114754098360699</v>
       </c>
       <c r="AV29" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AW29" s="202" t="s">
         <v>110</v>
@@ -25090,31 +25083,31 @@
         <v>1.63934426229508</v>
       </c>
       <c r="AZ29" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BA29" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BB29" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BC29" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BD29" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BE29" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BF29" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BG29" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BH29" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BI29" s="200" t="s">
         <v>110</v>
@@ -25138,13 +25131,13 @@
         <v>1.63934426229508</v>
       </c>
       <c r="BP29" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BQ29" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BR29" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BS29" s="201" t="s">
         <v>110</v>
@@ -25230,7 +25223,7 @@
         <v>73</v>
       </c>
       <c r="C30" s="97">
-        <v>0.21546635182998999</v>
+        <v>0.21545999232608001</v>
       </c>
       <c r="D30" s="86">
         <v>0</v>
@@ -25251,7 +25244,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="K30" s="199" t="s">
         <v>110</v>
@@ -25269,19 +25262,19 @@
         <v>0</v>
       </c>
       <c r="P30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="Q30" s="199" t="s">
         <v>110</v>
       </c>
       <c r="R30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="S30" s="199" t="s">
         <v>110</v>
       </c>
       <c r="T30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="U30" s="198" t="s">
         <v>110</v>
@@ -25293,7 +25286,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="Y30" s="198" t="s">
         <v>110</v>
@@ -25305,37 +25298,37 @@
         <v>0</v>
       </c>
       <c r="AB30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AC30" s="198" t="s">
         <v>110</v>
       </c>
       <c r="AD30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AE30" s="198" t="s">
         <v>110</v>
       </c>
       <c r="AF30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AG30" s="198" t="s">
         <v>110</v>
       </c>
       <c r="AH30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AI30" s="198" t="s">
         <v>110</v>
       </c>
       <c r="AJ30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AK30" s="198" t="s">
         <v>110</v>
       </c>
       <c r="AL30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AM30" s="198" t="s">
         <v>110</v>
@@ -25353,7 +25346,7 @@
         <v>0</v>
       </c>
       <c r="AR30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AS30" s="198" t="s">
         <v>110</v>
@@ -25365,37 +25358,37 @@
         <v>0</v>
       </c>
       <c r="AV30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AW30" s="198" t="s">
         <v>110</v>
       </c>
       <c r="AX30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AY30" s="198" t="s">
         <v>110</v>
       </c>
       <c r="AZ30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BA30" s="198" t="s">
         <v>110</v>
       </c>
       <c r="BB30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BC30" s="198" t="s">
         <v>110</v>
       </c>
       <c r="BD30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BE30" s="198" t="s">
         <v>110</v>
       </c>
       <c r="BF30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BG30" s="198" t="s">
         <v>110</v>
@@ -25413,13 +25406,13 @@
         <v>0</v>
       </c>
       <c r="BL30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BM30" s="196" t="s">
         <v>110</v>
       </c>
       <c r="BN30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BO30" s="196" t="s">
         <v>110</v>
@@ -25431,13 +25424,13 @@
         <v>0</v>
       </c>
       <c r="BR30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BS30" s="197" t="s">
         <v>110</v>
       </c>
       <c r="BT30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BU30" s="197" t="s">
         <v>110</v>
@@ -25461,52 +25454,52 @@
         <v>12.328767123287699</v>
       </c>
       <c r="CB30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="CC30" s="196" t="s">
         <v>110</v>
       </c>
       <c r="CD30" s="86" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="CE30" s="196" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CF30" s="86" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="CG30" s="196" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CH30" s="86" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="CI30" s="196" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CJ30" s="86" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="CK30" s="196" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CL30" s="86" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="CM30" s="196" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CN30" s="86" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="CO30" s="196" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CP30" s="86" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="CQ30" s="196" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:95" ht="15.75" customHeight="1" thickTop="1">
@@ -25596,27 +25589,21 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="AP6:AQ6"/>
-    <mergeCell ref="AR6:AS6"/>
-    <mergeCell ref="BP6:BQ6"/>
-    <mergeCell ref="BR6:BS6"/>
-    <mergeCell ref="BT6:BU6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="BJ6:BK6"/>
-    <mergeCell ref="BL6:BM6"/>
+    <mergeCell ref="CN6:CO6"/>
+    <mergeCell ref="CP6:CQ6"/>
+    <mergeCell ref="BX6:BY6"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AT6:AU6"/>
+    <mergeCell ref="CF6:CG6"/>
+    <mergeCell ref="CH6:CI6"/>
+    <mergeCell ref="CD6:CE6"/>
+    <mergeCell ref="BZ6:CA6"/>
+    <mergeCell ref="CB6:CC6"/>
     <mergeCell ref="BN6:BO6"/>
-    <mergeCell ref="BH6:BI6"/>
-    <mergeCell ref="BF6:BG6"/>
-    <mergeCell ref="BD6:BE6"/>
-    <mergeCell ref="BB6:BC6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="AF6:AG6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AJ6:AK6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="CJ6:CK6"/>
+    <mergeCell ref="CL6:CM6"/>
+    <mergeCell ref="BV6:BW6"/>
+    <mergeCell ref="CD5:CQ5"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="A6:A7"/>
@@ -25633,20 +25620,26 @@
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="AT6:AU6"/>
-    <mergeCell ref="CF6:CG6"/>
-    <mergeCell ref="CH6:CI6"/>
-    <mergeCell ref="CD6:CE6"/>
-    <mergeCell ref="BZ6:CA6"/>
-    <mergeCell ref="CB6:CC6"/>
-    <mergeCell ref="BV6:BW6"/>
-    <mergeCell ref="CN6:CO6"/>
-    <mergeCell ref="CP6:CQ6"/>
-    <mergeCell ref="CD5:CQ5"/>
-    <mergeCell ref="BX6:BY6"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="CJ6:CK6"/>
-    <mergeCell ref="CL6:CM6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="BJ6:BK6"/>
+    <mergeCell ref="BL6:BM6"/>
+    <mergeCell ref="BH6:BI6"/>
+    <mergeCell ref="BF6:BG6"/>
+    <mergeCell ref="BD6:BE6"/>
+    <mergeCell ref="BB6:BC6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AJ6:AK6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="AP6:AQ6"/>
+    <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="BP6:BQ6"/>
+    <mergeCell ref="BR6:BS6"/>
+    <mergeCell ref="BT6:BU6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -25664,6 +25657,44 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Publiceringsdatum xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">2020-04-28T22:00:00+00:00</Publiceringsdatum>
+    <Verksamhetsomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <Value>Hälso- och sjukvård</Value>
+    </Verksamhetsomr_x00e5_de>
+    <E_x002d_plikt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Ja</E_x002d_plikt>
+    <Produkt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Statistik</Produkt>
+    <Ansvarig_x0020_webbredakt_x00f6_r xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <UserInfo>
+        <DisplayName>Söderholm, Joen</DisplayName>
+        <AccountId>87</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </Ansvarig_x0020_webbredakt_x00f6_r>
+    <TaxCatchAll xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">
+      <Value>9</Value>
+    </TaxCatchAll>
+    <Dokumenttyp xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Övrigt</Dokumenttyp>
+    <Titel xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">statistik-covid19-avlidna</Titel>
+    <Webbplatstillh_x00f6_righet xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <Value>Socialstyrelsen.se</Value>
+    </Webbplatstillh_x00f6_righet>
+    <i01e5b6f93524074838bfc1e1bab8714 xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">statistik och jämförelser</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">338b04a2-62bc-42a8-9e4b-6158db2fb390</TermId>
+        </TermInfo>
+      </Terms>
+    </i01e5b6f93524074838bfc1e1bab8714>
+    <_x00c4_mnesomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
+    <Status_x0020_p_x00e5__x0020_publikation xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Publicerad</Status_x0020_p_x00e5__x0020_publikation>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100361443839E954C488E1554F766430BDE" ma:contentTypeVersion="37" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="ec0867efc9d878e75742a5b73fddae48">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dd3acd59-a8d8-42b1-950d-eec6c247243c" xmlns:ns3="343f6c91-b5b3-4dff-89ad-5fc55ccc8930" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f4ea334ff345e29c5775f0a2fd1174f" ns2:_="" ns3:_="">
     <xsd:import namespace="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
@@ -25996,44 +26027,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Publiceringsdatum xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">2020-04-28T22:00:00+00:00</Publiceringsdatum>
-    <Verksamhetsomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <Value>Hälso- och sjukvård</Value>
-    </Verksamhetsomr_x00e5_de>
-    <E_x002d_plikt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Ja</E_x002d_plikt>
-    <Produkt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Statistik</Produkt>
-    <Ansvarig_x0020_webbredakt_x00f6_r xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <UserInfo>
-        <DisplayName>Söderholm, Joen</DisplayName>
-        <AccountId>87</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </Ansvarig_x0020_webbredakt_x00f6_r>
-    <TaxCatchAll xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">
-      <Value>9</Value>
-    </TaxCatchAll>
-    <Dokumenttyp xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Övrigt</Dokumenttyp>
-    <Titel xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">statistik-covid19-avlidna</Titel>
-    <Webbplatstillh_x00f6_righet xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <Value>Socialstyrelsen.se</Value>
-    </Webbplatstillh_x00f6_righet>
-    <i01e5b6f93524074838bfc1e1bab8714 xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">statistik och jämförelser</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">338b04a2-62bc-42a8-9e4b-6158db2fb390</TermId>
-        </TermInfo>
-      </Terms>
-    </i01e5b6f93524074838bfc1e1bab8714>
-    <_x00c4_mnesomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
-    <Status_x0020_p_x00e5__x0020_publikation xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Publicerad</Status_x0020_p_x00e5__x0020_publikation>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C92573-D875-4871-BB97-75789C903393}">
   <ds:schemaRefs>
@@ -26043,6 +26036,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4CF34A-7793-424A-BF7F-3DB732CF3454}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
+    <ds:schemaRef ds:uri="343f6c91-b5b3-4dff-89ad-5fc55ccc8930"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2BDD971-BADF-427E-9579-B824215A28B1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26059,21 +26069,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4CF34A-7793-424A-BF7F-3DB732CF3454}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="343f6c91-b5b3-4dff-89ad-5fc55ccc8930"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/socialstyrelsen/statistik-covid19-inskrivna_latest.xlsx
+++ b/socialstyrelsen/statistik-covid19-inskrivna_latest.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projekt\Covid19_intensivvard\Upprepade leveranser\Output\Arbetsmapp\MALL_UT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Delad\510-Statistik covid19\5. Att publicera på slutenvård av patienter med covid-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="270" windowWidth="2880" windowHeight="5325" tabRatio="642"/>
+    <workbookView xWindow="720" yWindow="276" windowWidth="2880" windowHeight="5328" tabRatio="642"/>
   </bookViews>
   <sheets>
     <sheet name="Om statistiken" sheetId="11" r:id="rId1"/>
@@ -2119,7 +2119,7 @@
     <xf numFmtId="167" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="300">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2739,9 +2739,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2756,9 +2753,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2799,58 +2793,7 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="10" applyBorder="1" applyAlignment="1">
@@ -2880,11 +2823,62 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2949,7 +2943,7 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="10" applyBorder="1" applyAlignment="1">
@@ -2961,13 +2955,16 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7427,478 +7424,478 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="29.83203125" customWidth="1"/>
-    <col min="3" max="3" width="40.5" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="48.6640625" customWidth="1"/>
-    <col min="6" max="6" width="33.6640625" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
-    <col min="258" max="258" width="23.5" customWidth="1"/>
-    <col min="259" max="259" width="40.5" customWidth="1"/>
-    <col min="260" max="260" width="9.33203125" customWidth="1"/>
-    <col min="261" max="261" width="46.1640625" customWidth="1"/>
-    <col min="262" max="262" width="55.5" customWidth="1"/>
-    <col min="263" max="263" width="29.6640625" customWidth="1"/>
-    <col min="514" max="514" width="23.5" customWidth="1"/>
-    <col min="515" max="515" width="40.5" customWidth="1"/>
-    <col min="516" max="516" width="9.33203125" customWidth="1"/>
-    <col min="517" max="517" width="46.1640625" customWidth="1"/>
-    <col min="518" max="518" width="55.5" customWidth="1"/>
-    <col min="519" max="519" width="29.6640625" customWidth="1"/>
-    <col min="770" max="770" width="23.5" customWidth="1"/>
-    <col min="771" max="771" width="40.5" customWidth="1"/>
-    <col min="772" max="772" width="9.33203125" customWidth="1"/>
-    <col min="773" max="773" width="46.1640625" customWidth="1"/>
-    <col min="774" max="774" width="55.5" customWidth="1"/>
-    <col min="775" max="775" width="29.6640625" customWidth="1"/>
-    <col min="1026" max="1026" width="23.5" customWidth="1"/>
-    <col min="1027" max="1027" width="40.5" customWidth="1"/>
-    <col min="1028" max="1028" width="9.33203125" customWidth="1"/>
-    <col min="1029" max="1029" width="46.1640625" customWidth="1"/>
-    <col min="1030" max="1030" width="55.5" customWidth="1"/>
-    <col min="1031" max="1031" width="29.6640625" customWidth="1"/>
-    <col min="1282" max="1282" width="23.5" customWidth="1"/>
-    <col min="1283" max="1283" width="40.5" customWidth="1"/>
-    <col min="1284" max="1284" width="9.33203125" customWidth="1"/>
-    <col min="1285" max="1285" width="46.1640625" customWidth="1"/>
-    <col min="1286" max="1286" width="55.5" customWidth="1"/>
-    <col min="1287" max="1287" width="29.6640625" customWidth="1"/>
-    <col min="1538" max="1538" width="23.5" customWidth="1"/>
-    <col min="1539" max="1539" width="40.5" customWidth="1"/>
-    <col min="1540" max="1540" width="9.33203125" customWidth="1"/>
-    <col min="1541" max="1541" width="46.1640625" customWidth="1"/>
-    <col min="1542" max="1542" width="55.5" customWidth="1"/>
-    <col min="1543" max="1543" width="29.6640625" customWidth="1"/>
-    <col min="1794" max="1794" width="23.5" customWidth="1"/>
-    <col min="1795" max="1795" width="40.5" customWidth="1"/>
-    <col min="1796" max="1796" width="9.33203125" customWidth="1"/>
-    <col min="1797" max="1797" width="46.1640625" customWidth="1"/>
-    <col min="1798" max="1798" width="55.5" customWidth="1"/>
-    <col min="1799" max="1799" width="29.6640625" customWidth="1"/>
-    <col min="2050" max="2050" width="23.5" customWidth="1"/>
-    <col min="2051" max="2051" width="40.5" customWidth="1"/>
-    <col min="2052" max="2052" width="9.33203125" customWidth="1"/>
-    <col min="2053" max="2053" width="46.1640625" customWidth="1"/>
-    <col min="2054" max="2054" width="55.5" customWidth="1"/>
-    <col min="2055" max="2055" width="29.6640625" customWidth="1"/>
-    <col min="2306" max="2306" width="23.5" customWidth="1"/>
-    <col min="2307" max="2307" width="40.5" customWidth="1"/>
-    <col min="2308" max="2308" width="9.33203125" customWidth="1"/>
-    <col min="2309" max="2309" width="46.1640625" customWidth="1"/>
-    <col min="2310" max="2310" width="55.5" customWidth="1"/>
-    <col min="2311" max="2311" width="29.6640625" customWidth="1"/>
-    <col min="2562" max="2562" width="23.5" customWidth="1"/>
-    <col min="2563" max="2563" width="40.5" customWidth="1"/>
-    <col min="2564" max="2564" width="9.33203125" customWidth="1"/>
-    <col min="2565" max="2565" width="46.1640625" customWidth="1"/>
-    <col min="2566" max="2566" width="55.5" customWidth="1"/>
-    <col min="2567" max="2567" width="29.6640625" customWidth="1"/>
-    <col min="2818" max="2818" width="23.5" customWidth="1"/>
-    <col min="2819" max="2819" width="40.5" customWidth="1"/>
-    <col min="2820" max="2820" width="9.33203125" customWidth="1"/>
-    <col min="2821" max="2821" width="46.1640625" customWidth="1"/>
-    <col min="2822" max="2822" width="55.5" customWidth="1"/>
-    <col min="2823" max="2823" width="29.6640625" customWidth="1"/>
-    <col min="3074" max="3074" width="23.5" customWidth="1"/>
-    <col min="3075" max="3075" width="40.5" customWidth="1"/>
-    <col min="3076" max="3076" width="9.33203125" customWidth="1"/>
-    <col min="3077" max="3077" width="46.1640625" customWidth="1"/>
-    <col min="3078" max="3078" width="55.5" customWidth="1"/>
-    <col min="3079" max="3079" width="29.6640625" customWidth="1"/>
-    <col min="3330" max="3330" width="23.5" customWidth="1"/>
-    <col min="3331" max="3331" width="40.5" customWidth="1"/>
-    <col min="3332" max="3332" width="9.33203125" customWidth="1"/>
-    <col min="3333" max="3333" width="46.1640625" customWidth="1"/>
-    <col min="3334" max="3334" width="55.5" customWidth="1"/>
-    <col min="3335" max="3335" width="29.6640625" customWidth="1"/>
-    <col min="3586" max="3586" width="23.5" customWidth="1"/>
-    <col min="3587" max="3587" width="40.5" customWidth="1"/>
-    <col min="3588" max="3588" width="9.33203125" customWidth="1"/>
-    <col min="3589" max="3589" width="46.1640625" customWidth="1"/>
-    <col min="3590" max="3590" width="55.5" customWidth="1"/>
-    <col min="3591" max="3591" width="29.6640625" customWidth="1"/>
-    <col min="3842" max="3842" width="23.5" customWidth="1"/>
-    <col min="3843" max="3843" width="40.5" customWidth="1"/>
-    <col min="3844" max="3844" width="9.33203125" customWidth="1"/>
-    <col min="3845" max="3845" width="46.1640625" customWidth="1"/>
-    <col min="3846" max="3846" width="55.5" customWidth="1"/>
-    <col min="3847" max="3847" width="29.6640625" customWidth="1"/>
-    <col min="4098" max="4098" width="23.5" customWidth="1"/>
-    <col min="4099" max="4099" width="40.5" customWidth="1"/>
-    <col min="4100" max="4100" width="9.33203125" customWidth="1"/>
-    <col min="4101" max="4101" width="46.1640625" customWidth="1"/>
-    <col min="4102" max="4102" width="55.5" customWidth="1"/>
-    <col min="4103" max="4103" width="29.6640625" customWidth="1"/>
-    <col min="4354" max="4354" width="23.5" customWidth="1"/>
-    <col min="4355" max="4355" width="40.5" customWidth="1"/>
-    <col min="4356" max="4356" width="9.33203125" customWidth="1"/>
-    <col min="4357" max="4357" width="46.1640625" customWidth="1"/>
-    <col min="4358" max="4358" width="55.5" customWidth="1"/>
-    <col min="4359" max="4359" width="29.6640625" customWidth="1"/>
-    <col min="4610" max="4610" width="23.5" customWidth="1"/>
-    <col min="4611" max="4611" width="40.5" customWidth="1"/>
-    <col min="4612" max="4612" width="9.33203125" customWidth="1"/>
-    <col min="4613" max="4613" width="46.1640625" customWidth="1"/>
-    <col min="4614" max="4614" width="55.5" customWidth="1"/>
-    <col min="4615" max="4615" width="29.6640625" customWidth="1"/>
-    <col min="4866" max="4866" width="23.5" customWidth="1"/>
-    <col min="4867" max="4867" width="40.5" customWidth="1"/>
-    <col min="4868" max="4868" width="9.33203125" customWidth="1"/>
-    <col min="4869" max="4869" width="46.1640625" customWidth="1"/>
-    <col min="4870" max="4870" width="55.5" customWidth="1"/>
-    <col min="4871" max="4871" width="29.6640625" customWidth="1"/>
-    <col min="5122" max="5122" width="23.5" customWidth="1"/>
-    <col min="5123" max="5123" width="40.5" customWidth="1"/>
-    <col min="5124" max="5124" width="9.33203125" customWidth="1"/>
-    <col min="5125" max="5125" width="46.1640625" customWidth="1"/>
-    <col min="5126" max="5126" width="55.5" customWidth="1"/>
-    <col min="5127" max="5127" width="29.6640625" customWidth="1"/>
-    <col min="5378" max="5378" width="23.5" customWidth="1"/>
-    <col min="5379" max="5379" width="40.5" customWidth="1"/>
-    <col min="5380" max="5380" width="9.33203125" customWidth="1"/>
-    <col min="5381" max="5381" width="46.1640625" customWidth="1"/>
-    <col min="5382" max="5382" width="55.5" customWidth="1"/>
-    <col min="5383" max="5383" width="29.6640625" customWidth="1"/>
-    <col min="5634" max="5634" width="23.5" customWidth="1"/>
-    <col min="5635" max="5635" width="40.5" customWidth="1"/>
-    <col min="5636" max="5636" width="9.33203125" customWidth="1"/>
-    <col min="5637" max="5637" width="46.1640625" customWidth="1"/>
-    <col min="5638" max="5638" width="55.5" customWidth="1"/>
-    <col min="5639" max="5639" width="29.6640625" customWidth="1"/>
-    <col min="5890" max="5890" width="23.5" customWidth="1"/>
-    <col min="5891" max="5891" width="40.5" customWidth="1"/>
-    <col min="5892" max="5892" width="9.33203125" customWidth="1"/>
-    <col min="5893" max="5893" width="46.1640625" customWidth="1"/>
-    <col min="5894" max="5894" width="55.5" customWidth="1"/>
-    <col min="5895" max="5895" width="29.6640625" customWidth="1"/>
-    <col min="6146" max="6146" width="23.5" customWidth="1"/>
-    <col min="6147" max="6147" width="40.5" customWidth="1"/>
-    <col min="6148" max="6148" width="9.33203125" customWidth="1"/>
-    <col min="6149" max="6149" width="46.1640625" customWidth="1"/>
-    <col min="6150" max="6150" width="55.5" customWidth="1"/>
-    <col min="6151" max="6151" width="29.6640625" customWidth="1"/>
-    <col min="6402" max="6402" width="23.5" customWidth="1"/>
-    <col min="6403" max="6403" width="40.5" customWidth="1"/>
-    <col min="6404" max="6404" width="9.33203125" customWidth="1"/>
-    <col min="6405" max="6405" width="46.1640625" customWidth="1"/>
-    <col min="6406" max="6406" width="55.5" customWidth="1"/>
-    <col min="6407" max="6407" width="29.6640625" customWidth="1"/>
-    <col min="6658" max="6658" width="23.5" customWidth="1"/>
-    <col min="6659" max="6659" width="40.5" customWidth="1"/>
-    <col min="6660" max="6660" width="9.33203125" customWidth="1"/>
-    <col min="6661" max="6661" width="46.1640625" customWidth="1"/>
-    <col min="6662" max="6662" width="55.5" customWidth="1"/>
-    <col min="6663" max="6663" width="29.6640625" customWidth="1"/>
-    <col min="6914" max="6914" width="23.5" customWidth="1"/>
-    <col min="6915" max="6915" width="40.5" customWidth="1"/>
-    <col min="6916" max="6916" width="9.33203125" customWidth="1"/>
-    <col min="6917" max="6917" width="46.1640625" customWidth="1"/>
-    <col min="6918" max="6918" width="55.5" customWidth="1"/>
-    <col min="6919" max="6919" width="29.6640625" customWidth="1"/>
-    <col min="7170" max="7170" width="23.5" customWidth="1"/>
-    <col min="7171" max="7171" width="40.5" customWidth="1"/>
-    <col min="7172" max="7172" width="9.33203125" customWidth="1"/>
-    <col min="7173" max="7173" width="46.1640625" customWidth="1"/>
-    <col min="7174" max="7174" width="55.5" customWidth="1"/>
-    <col min="7175" max="7175" width="29.6640625" customWidth="1"/>
-    <col min="7426" max="7426" width="23.5" customWidth="1"/>
-    <col min="7427" max="7427" width="40.5" customWidth="1"/>
-    <col min="7428" max="7428" width="9.33203125" customWidth="1"/>
-    <col min="7429" max="7429" width="46.1640625" customWidth="1"/>
-    <col min="7430" max="7430" width="55.5" customWidth="1"/>
-    <col min="7431" max="7431" width="29.6640625" customWidth="1"/>
-    <col min="7682" max="7682" width="23.5" customWidth="1"/>
-    <col min="7683" max="7683" width="40.5" customWidth="1"/>
-    <col min="7684" max="7684" width="9.33203125" customWidth="1"/>
-    <col min="7685" max="7685" width="46.1640625" customWidth="1"/>
-    <col min="7686" max="7686" width="55.5" customWidth="1"/>
-    <col min="7687" max="7687" width="29.6640625" customWidth="1"/>
-    <col min="7938" max="7938" width="23.5" customWidth="1"/>
-    <col min="7939" max="7939" width="40.5" customWidth="1"/>
-    <col min="7940" max="7940" width="9.33203125" customWidth="1"/>
-    <col min="7941" max="7941" width="46.1640625" customWidth="1"/>
-    <col min="7942" max="7942" width="55.5" customWidth="1"/>
-    <col min="7943" max="7943" width="29.6640625" customWidth="1"/>
-    <col min="8194" max="8194" width="23.5" customWidth="1"/>
-    <col min="8195" max="8195" width="40.5" customWidth="1"/>
-    <col min="8196" max="8196" width="9.33203125" customWidth="1"/>
-    <col min="8197" max="8197" width="46.1640625" customWidth="1"/>
-    <col min="8198" max="8198" width="55.5" customWidth="1"/>
-    <col min="8199" max="8199" width="29.6640625" customWidth="1"/>
-    <col min="8450" max="8450" width="23.5" customWidth="1"/>
-    <col min="8451" max="8451" width="40.5" customWidth="1"/>
-    <col min="8452" max="8452" width="9.33203125" customWidth="1"/>
-    <col min="8453" max="8453" width="46.1640625" customWidth="1"/>
-    <col min="8454" max="8454" width="55.5" customWidth="1"/>
-    <col min="8455" max="8455" width="29.6640625" customWidth="1"/>
-    <col min="8706" max="8706" width="23.5" customWidth="1"/>
-    <col min="8707" max="8707" width="40.5" customWidth="1"/>
-    <col min="8708" max="8708" width="9.33203125" customWidth="1"/>
-    <col min="8709" max="8709" width="46.1640625" customWidth="1"/>
-    <col min="8710" max="8710" width="55.5" customWidth="1"/>
-    <col min="8711" max="8711" width="29.6640625" customWidth="1"/>
-    <col min="8962" max="8962" width="23.5" customWidth="1"/>
-    <col min="8963" max="8963" width="40.5" customWidth="1"/>
-    <col min="8964" max="8964" width="9.33203125" customWidth="1"/>
-    <col min="8965" max="8965" width="46.1640625" customWidth="1"/>
-    <col min="8966" max="8966" width="55.5" customWidth="1"/>
-    <col min="8967" max="8967" width="29.6640625" customWidth="1"/>
-    <col min="9218" max="9218" width="23.5" customWidth="1"/>
-    <col min="9219" max="9219" width="40.5" customWidth="1"/>
-    <col min="9220" max="9220" width="9.33203125" customWidth="1"/>
-    <col min="9221" max="9221" width="46.1640625" customWidth="1"/>
-    <col min="9222" max="9222" width="55.5" customWidth="1"/>
-    <col min="9223" max="9223" width="29.6640625" customWidth="1"/>
-    <col min="9474" max="9474" width="23.5" customWidth="1"/>
-    <col min="9475" max="9475" width="40.5" customWidth="1"/>
-    <col min="9476" max="9476" width="9.33203125" customWidth="1"/>
-    <col min="9477" max="9477" width="46.1640625" customWidth="1"/>
-    <col min="9478" max="9478" width="55.5" customWidth="1"/>
-    <col min="9479" max="9479" width="29.6640625" customWidth="1"/>
-    <col min="9730" max="9730" width="23.5" customWidth="1"/>
-    <col min="9731" max="9731" width="40.5" customWidth="1"/>
-    <col min="9732" max="9732" width="9.33203125" customWidth="1"/>
-    <col min="9733" max="9733" width="46.1640625" customWidth="1"/>
-    <col min="9734" max="9734" width="55.5" customWidth="1"/>
-    <col min="9735" max="9735" width="29.6640625" customWidth="1"/>
-    <col min="9986" max="9986" width="23.5" customWidth="1"/>
-    <col min="9987" max="9987" width="40.5" customWidth="1"/>
-    <col min="9988" max="9988" width="9.33203125" customWidth="1"/>
-    <col min="9989" max="9989" width="46.1640625" customWidth="1"/>
-    <col min="9990" max="9990" width="55.5" customWidth="1"/>
-    <col min="9991" max="9991" width="29.6640625" customWidth="1"/>
-    <col min="10242" max="10242" width="23.5" customWidth="1"/>
-    <col min="10243" max="10243" width="40.5" customWidth="1"/>
-    <col min="10244" max="10244" width="9.33203125" customWidth="1"/>
-    <col min="10245" max="10245" width="46.1640625" customWidth="1"/>
-    <col min="10246" max="10246" width="55.5" customWidth="1"/>
-    <col min="10247" max="10247" width="29.6640625" customWidth="1"/>
-    <col min="10498" max="10498" width="23.5" customWidth="1"/>
-    <col min="10499" max="10499" width="40.5" customWidth="1"/>
-    <col min="10500" max="10500" width="9.33203125" customWidth="1"/>
-    <col min="10501" max="10501" width="46.1640625" customWidth="1"/>
-    <col min="10502" max="10502" width="55.5" customWidth="1"/>
-    <col min="10503" max="10503" width="29.6640625" customWidth="1"/>
-    <col min="10754" max="10754" width="23.5" customWidth="1"/>
-    <col min="10755" max="10755" width="40.5" customWidth="1"/>
-    <col min="10756" max="10756" width="9.33203125" customWidth="1"/>
-    <col min="10757" max="10757" width="46.1640625" customWidth="1"/>
-    <col min="10758" max="10758" width="55.5" customWidth="1"/>
-    <col min="10759" max="10759" width="29.6640625" customWidth="1"/>
-    <col min="11010" max="11010" width="23.5" customWidth="1"/>
-    <col min="11011" max="11011" width="40.5" customWidth="1"/>
-    <col min="11012" max="11012" width="9.33203125" customWidth="1"/>
-    <col min="11013" max="11013" width="46.1640625" customWidth="1"/>
-    <col min="11014" max="11014" width="55.5" customWidth="1"/>
-    <col min="11015" max="11015" width="29.6640625" customWidth="1"/>
-    <col min="11266" max="11266" width="23.5" customWidth="1"/>
-    <col min="11267" max="11267" width="40.5" customWidth="1"/>
-    <col min="11268" max="11268" width="9.33203125" customWidth="1"/>
-    <col min="11269" max="11269" width="46.1640625" customWidth="1"/>
-    <col min="11270" max="11270" width="55.5" customWidth="1"/>
-    <col min="11271" max="11271" width="29.6640625" customWidth="1"/>
-    <col min="11522" max="11522" width="23.5" customWidth="1"/>
-    <col min="11523" max="11523" width="40.5" customWidth="1"/>
-    <col min="11524" max="11524" width="9.33203125" customWidth="1"/>
-    <col min="11525" max="11525" width="46.1640625" customWidth="1"/>
-    <col min="11526" max="11526" width="55.5" customWidth="1"/>
-    <col min="11527" max="11527" width="29.6640625" customWidth="1"/>
-    <col min="11778" max="11778" width="23.5" customWidth="1"/>
-    <col min="11779" max="11779" width="40.5" customWidth="1"/>
-    <col min="11780" max="11780" width="9.33203125" customWidth="1"/>
-    <col min="11781" max="11781" width="46.1640625" customWidth="1"/>
-    <col min="11782" max="11782" width="55.5" customWidth="1"/>
-    <col min="11783" max="11783" width="29.6640625" customWidth="1"/>
-    <col min="12034" max="12034" width="23.5" customWidth="1"/>
-    <col min="12035" max="12035" width="40.5" customWidth="1"/>
-    <col min="12036" max="12036" width="9.33203125" customWidth="1"/>
-    <col min="12037" max="12037" width="46.1640625" customWidth="1"/>
-    <col min="12038" max="12038" width="55.5" customWidth="1"/>
-    <col min="12039" max="12039" width="29.6640625" customWidth="1"/>
-    <col min="12290" max="12290" width="23.5" customWidth="1"/>
-    <col min="12291" max="12291" width="40.5" customWidth="1"/>
-    <col min="12292" max="12292" width="9.33203125" customWidth="1"/>
-    <col min="12293" max="12293" width="46.1640625" customWidth="1"/>
-    <col min="12294" max="12294" width="55.5" customWidth="1"/>
-    <col min="12295" max="12295" width="29.6640625" customWidth="1"/>
-    <col min="12546" max="12546" width="23.5" customWidth="1"/>
-    <col min="12547" max="12547" width="40.5" customWidth="1"/>
-    <col min="12548" max="12548" width="9.33203125" customWidth="1"/>
-    <col min="12549" max="12549" width="46.1640625" customWidth="1"/>
-    <col min="12550" max="12550" width="55.5" customWidth="1"/>
-    <col min="12551" max="12551" width="29.6640625" customWidth="1"/>
-    <col min="12802" max="12802" width="23.5" customWidth="1"/>
-    <col min="12803" max="12803" width="40.5" customWidth="1"/>
-    <col min="12804" max="12804" width="9.33203125" customWidth="1"/>
-    <col min="12805" max="12805" width="46.1640625" customWidth="1"/>
-    <col min="12806" max="12806" width="55.5" customWidth="1"/>
-    <col min="12807" max="12807" width="29.6640625" customWidth="1"/>
-    <col min="13058" max="13058" width="23.5" customWidth="1"/>
-    <col min="13059" max="13059" width="40.5" customWidth="1"/>
-    <col min="13060" max="13060" width="9.33203125" customWidth="1"/>
-    <col min="13061" max="13061" width="46.1640625" customWidth="1"/>
-    <col min="13062" max="13062" width="55.5" customWidth="1"/>
-    <col min="13063" max="13063" width="29.6640625" customWidth="1"/>
-    <col min="13314" max="13314" width="23.5" customWidth="1"/>
-    <col min="13315" max="13315" width="40.5" customWidth="1"/>
-    <col min="13316" max="13316" width="9.33203125" customWidth="1"/>
-    <col min="13317" max="13317" width="46.1640625" customWidth="1"/>
-    <col min="13318" max="13318" width="55.5" customWidth="1"/>
-    <col min="13319" max="13319" width="29.6640625" customWidth="1"/>
-    <col min="13570" max="13570" width="23.5" customWidth="1"/>
-    <col min="13571" max="13571" width="40.5" customWidth="1"/>
-    <col min="13572" max="13572" width="9.33203125" customWidth="1"/>
-    <col min="13573" max="13573" width="46.1640625" customWidth="1"/>
-    <col min="13574" max="13574" width="55.5" customWidth="1"/>
-    <col min="13575" max="13575" width="29.6640625" customWidth="1"/>
-    <col min="13826" max="13826" width="23.5" customWidth="1"/>
-    <col min="13827" max="13827" width="40.5" customWidth="1"/>
-    <col min="13828" max="13828" width="9.33203125" customWidth="1"/>
-    <col min="13829" max="13829" width="46.1640625" customWidth="1"/>
-    <col min="13830" max="13830" width="55.5" customWidth="1"/>
-    <col min="13831" max="13831" width="29.6640625" customWidth="1"/>
-    <col min="14082" max="14082" width="23.5" customWidth="1"/>
-    <col min="14083" max="14083" width="40.5" customWidth="1"/>
-    <col min="14084" max="14084" width="9.33203125" customWidth="1"/>
-    <col min="14085" max="14085" width="46.1640625" customWidth="1"/>
-    <col min="14086" max="14086" width="55.5" customWidth="1"/>
-    <col min="14087" max="14087" width="29.6640625" customWidth="1"/>
-    <col min="14338" max="14338" width="23.5" customWidth="1"/>
-    <col min="14339" max="14339" width="40.5" customWidth="1"/>
-    <col min="14340" max="14340" width="9.33203125" customWidth="1"/>
-    <col min="14341" max="14341" width="46.1640625" customWidth="1"/>
-    <col min="14342" max="14342" width="55.5" customWidth="1"/>
-    <col min="14343" max="14343" width="29.6640625" customWidth="1"/>
-    <col min="14594" max="14594" width="23.5" customWidth="1"/>
-    <col min="14595" max="14595" width="40.5" customWidth="1"/>
-    <col min="14596" max="14596" width="9.33203125" customWidth="1"/>
-    <col min="14597" max="14597" width="46.1640625" customWidth="1"/>
-    <col min="14598" max="14598" width="55.5" customWidth="1"/>
-    <col min="14599" max="14599" width="29.6640625" customWidth="1"/>
-    <col min="14850" max="14850" width="23.5" customWidth="1"/>
-    <col min="14851" max="14851" width="40.5" customWidth="1"/>
-    <col min="14852" max="14852" width="9.33203125" customWidth="1"/>
-    <col min="14853" max="14853" width="46.1640625" customWidth="1"/>
-    <col min="14854" max="14854" width="55.5" customWidth="1"/>
-    <col min="14855" max="14855" width="29.6640625" customWidth="1"/>
-    <col min="15106" max="15106" width="23.5" customWidth="1"/>
-    <col min="15107" max="15107" width="40.5" customWidth="1"/>
-    <col min="15108" max="15108" width="9.33203125" customWidth="1"/>
-    <col min="15109" max="15109" width="46.1640625" customWidth="1"/>
-    <col min="15110" max="15110" width="55.5" customWidth="1"/>
-    <col min="15111" max="15111" width="29.6640625" customWidth="1"/>
-    <col min="15362" max="15362" width="23.5" customWidth="1"/>
-    <col min="15363" max="15363" width="40.5" customWidth="1"/>
-    <col min="15364" max="15364" width="9.33203125" customWidth="1"/>
-    <col min="15365" max="15365" width="46.1640625" customWidth="1"/>
-    <col min="15366" max="15366" width="55.5" customWidth="1"/>
-    <col min="15367" max="15367" width="29.6640625" customWidth="1"/>
-    <col min="15618" max="15618" width="23.5" customWidth="1"/>
-    <col min="15619" max="15619" width="40.5" customWidth="1"/>
-    <col min="15620" max="15620" width="9.33203125" customWidth="1"/>
-    <col min="15621" max="15621" width="46.1640625" customWidth="1"/>
-    <col min="15622" max="15622" width="55.5" customWidth="1"/>
-    <col min="15623" max="15623" width="29.6640625" customWidth="1"/>
-    <col min="15874" max="15874" width="23.5" customWidth="1"/>
-    <col min="15875" max="15875" width="40.5" customWidth="1"/>
-    <col min="15876" max="15876" width="9.33203125" customWidth="1"/>
-    <col min="15877" max="15877" width="46.1640625" customWidth="1"/>
-    <col min="15878" max="15878" width="55.5" customWidth="1"/>
-    <col min="15879" max="15879" width="29.6640625" customWidth="1"/>
-    <col min="16130" max="16130" width="23.5" customWidth="1"/>
-    <col min="16131" max="16131" width="40.5" customWidth="1"/>
-    <col min="16132" max="16132" width="9.33203125" customWidth="1"/>
-    <col min="16133" max="16133" width="46.1640625" customWidth="1"/>
-    <col min="16134" max="16134" width="55.5" customWidth="1"/>
-    <col min="16135" max="16135" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="48.7109375" customWidth="1"/>
+    <col min="6" max="6" width="33.7109375" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1"/>
+    <col min="258" max="258" width="23.42578125" customWidth="1"/>
+    <col min="259" max="259" width="40.42578125" customWidth="1"/>
+    <col min="260" max="260" width="9.28515625" customWidth="1"/>
+    <col min="261" max="261" width="46.140625" customWidth="1"/>
+    <col min="262" max="262" width="55.42578125" customWidth="1"/>
+    <col min="263" max="263" width="29.7109375" customWidth="1"/>
+    <col min="514" max="514" width="23.42578125" customWidth="1"/>
+    <col min="515" max="515" width="40.42578125" customWidth="1"/>
+    <col min="516" max="516" width="9.28515625" customWidth="1"/>
+    <col min="517" max="517" width="46.140625" customWidth="1"/>
+    <col min="518" max="518" width="55.42578125" customWidth="1"/>
+    <col min="519" max="519" width="29.7109375" customWidth="1"/>
+    <col min="770" max="770" width="23.42578125" customWidth="1"/>
+    <col min="771" max="771" width="40.42578125" customWidth="1"/>
+    <col min="772" max="772" width="9.28515625" customWidth="1"/>
+    <col min="773" max="773" width="46.140625" customWidth="1"/>
+    <col min="774" max="774" width="55.42578125" customWidth="1"/>
+    <col min="775" max="775" width="29.7109375" customWidth="1"/>
+    <col min="1026" max="1026" width="23.42578125" customWidth="1"/>
+    <col min="1027" max="1027" width="40.42578125" customWidth="1"/>
+    <col min="1028" max="1028" width="9.28515625" customWidth="1"/>
+    <col min="1029" max="1029" width="46.140625" customWidth="1"/>
+    <col min="1030" max="1030" width="55.42578125" customWidth="1"/>
+    <col min="1031" max="1031" width="29.7109375" customWidth="1"/>
+    <col min="1282" max="1282" width="23.42578125" customWidth="1"/>
+    <col min="1283" max="1283" width="40.42578125" customWidth="1"/>
+    <col min="1284" max="1284" width="9.28515625" customWidth="1"/>
+    <col min="1285" max="1285" width="46.140625" customWidth="1"/>
+    <col min="1286" max="1286" width="55.42578125" customWidth="1"/>
+    <col min="1287" max="1287" width="29.7109375" customWidth="1"/>
+    <col min="1538" max="1538" width="23.42578125" customWidth="1"/>
+    <col min="1539" max="1539" width="40.42578125" customWidth="1"/>
+    <col min="1540" max="1540" width="9.28515625" customWidth="1"/>
+    <col min="1541" max="1541" width="46.140625" customWidth="1"/>
+    <col min="1542" max="1542" width="55.42578125" customWidth="1"/>
+    <col min="1543" max="1543" width="29.7109375" customWidth="1"/>
+    <col min="1794" max="1794" width="23.42578125" customWidth="1"/>
+    <col min="1795" max="1795" width="40.42578125" customWidth="1"/>
+    <col min="1796" max="1796" width="9.28515625" customWidth="1"/>
+    <col min="1797" max="1797" width="46.140625" customWidth="1"/>
+    <col min="1798" max="1798" width="55.42578125" customWidth="1"/>
+    <col min="1799" max="1799" width="29.7109375" customWidth="1"/>
+    <col min="2050" max="2050" width="23.42578125" customWidth="1"/>
+    <col min="2051" max="2051" width="40.42578125" customWidth="1"/>
+    <col min="2052" max="2052" width="9.28515625" customWidth="1"/>
+    <col min="2053" max="2053" width="46.140625" customWidth="1"/>
+    <col min="2054" max="2054" width="55.42578125" customWidth="1"/>
+    <col min="2055" max="2055" width="29.7109375" customWidth="1"/>
+    <col min="2306" max="2306" width="23.42578125" customWidth="1"/>
+    <col min="2307" max="2307" width="40.42578125" customWidth="1"/>
+    <col min="2308" max="2308" width="9.28515625" customWidth="1"/>
+    <col min="2309" max="2309" width="46.140625" customWidth="1"/>
+    <col min="2310" max="2310" width="55.42578125" customWidth="1"/>
+    <col min="2311" max="2311" width="29.7109375" customWidth="1"/>
+    <col min="2562" max="2562" width="23.42578125" customWidth="1"/>
+    <col min="2563" max="2563" width="40.42578125" customWidth="1"/>
+    <col min="2564" max="2564" width="9.28515625" customWidth="1"/>
+    <col min="2565" max="2565" width="46.140625" customWidth="1"/>
+    <col min="2566" max="2566" width="55.42578125" customWidth="1"/>
+    <col min="2567" max="2567" width="29.7109375" customWidth="1"/>
+    <col min="2818" max="2818" width="23.42578125" customWidth="1"/>
+    <col min="2819" max="2819" width="40.42578125" customWidth="1"/>
+    <col min="2820" max="2820" width="9.28515625" customWidth="1"/>
+    <col min="2821" max="2821" width="46.140625" customWidth="1"/>
+    <col min="2822" max="2822" width="55.42578125" customWidth="1"/>
+    <col min="2823" max="2823" width="29.7109375" customWidth="1"/>
+    <col min="3074" max="3074" width="23.42578125" customWidth="1"/>
+    <col min="3075" max="3075" width="40.42578125" customWidth="1"/>
+    <col min="3076" max="3076" width="9.28515625" customWidth="1"/>
+    <col min="3077" max="3077" width="46.140625" customWidth="1"/>
+    <col min="3078" max="3078" width="55.42578125" customWidth="1"/>
+    <col min="3079" max="3079" width="29.7109375" customWidth="1"/>
+    <col min="3330" max="3330" width="23.42578125" customWidth="1"/>
+    <col min="3331" max="3331" width="40.42578125" customWidth="1"/>
+    <col min="3332" max="3332" width="9.28515625" customWidth="1"/>
+    <col min="3333" max="3333" width="46.140625" customWidth="1"/>
+    <col min="3334" max="3334" width="55.42578125" customWidth="1"/>
+    <col min="3335" max="3335" width="29.7109375" customWidth="1"/>
+    <col min="3586" max="3586" width="23.42578125" customWidth="1"/>
+    <col min="3587" max="3587" width="40.42578125" customWidth="1"/>
+    <col min="3588" max="3588" width="9.28515625" customWidth="1"/>
+    <col min="3589" max="3589" width="46.140625" customWidth="1"/>
+    <col min="3590" max="3590" width="55.42578125" customWidth="1"/>
+    <col min="3591" max="3591" width="29.7109375" customWidth="1"/>
+    <col min="3842" max="3842" width="23.42578125" customWidth="1"/>
+    <col min="3843" max="3843" width="40.42578125" customWidth="1"/>
+    <col min="3844" max="3844" width="9.28515625" customWidth="1"/>
+    <col min="3845" max="3845" width="46.140625" customWidth="1"/>
+    <col min="3846" max="3846" width="55.42578125" customWidth="1"/>
+    <col min="3847" max="3847" width="29.7109375" customWidth="1"/>
+    <col min="4098" max="4098" width="23.42578125" customWidth="1"/>
+    <col min="4099" max="4099" width="40.42578125" customWidth="1"/>
+    <col min="4100" max="4100" width="9.28515625" customWidth="1"/>
+    <col min="4101" max="4101" width="46.140625" customWidth="1"/>
+    <col min="4102" max="4102" width="55.42578125" customWidth="1"/>
+    <col min="4103" max="4103" width="29.7109375" customWidth="1"/>
+    <col min="4354" max="4354" width="23.42578125" customWidth="1"/>
+    <col min="4355" max="4355" width="40.42578125" customWidth="1"/>
+    <col min="4356" max="4356" width="9.28515625" customWidth="1"/>
+    <col min="4357" max="4357" width="46.140625" customWidth="1"/>
+    <col min="4358" max="4358" width="55.42578125" customWidth="1"/>
+    <col min="4359" max="4359" width="29.7109375" customWidth="1"/>
+    <col min="4610" max="4610" width="23.42578125" customWidth="1"/>
+    <col min="4611" max="4611" width="40.42578125" customWidth="1"/>
+    <col min="4612" max="4612" width="9.28515625" customWidth="1"/>
+    <col min="4613" max="4613" width="46.140625" customWidth="1"/>
+    <col min="4614" max="4614" width="55.42578125" customWidth="1"/>
+    <col min="4615" max="4615" width="29.7109375" customWidth="1"/>
+    <col min="4866" max="4866" width="23.42578125" customWidth="1"/>
+    <col min="4867" max="4867" width="40.42578125" customWidth="1"/>
+    <col min="4868" max="4868" width="9.28515625" customWidth="1"/>
+    <col min="4869" max="4869" width="46.140625" customWidth="1"/>
+    <col min="4870" max="4870" width="55.42578125" customWidth="1"/>
+    <col min="4871" max="4871" width="29.7109375" customWidth="1"/>
+    <col min="5122" max="5122" width="23.42578125" customWidth="1"/>
+    <col min="5123" max="5123" width="40.42578125" customWidth="1"/>
+    <col min="5124" max="5124" width="9.28515625" customWidth="1"/>
+    <col min="5125" max="5125" width="46.140625" customWidth="1"/>
+    <col min="5126" max="5126" width="55.42578125" customWidth="1"/>
+    <col min="5127" max="5127" width="29.7109375" customWidth="1"/>
+    <col min="5378" max="5378" width="23.42578125" customWidth="1"/>
+    <col min="5379" max="5379" width="40.42578125" customWidth="1"/>
+    <col min="5380" max="5380" width="9.28515625" customWidth="1"/>
+    <col min="5381" max="5381" width="46.140625" customWidth="1"/>
+    <col min="5382" max="5382" width="55.42578125" customWidth="1"/>
+    <col min="5383" max="5383" width="29.7109375" customWidth="1"/>
+    <col min="5634" max="5634" width="23.42578125" customWidth="1"/>
+    <col min="5635" max="5635" width="40.42578125" customWidth="1"/>
+    <col min="5636" max="5636" width="9.28515625" customWidth="1"/>
+    <col min="5637" max="5637" width="46.140625" customWidth="1"/>
+    <col min="5638" max="5638" width="55.42578125" customWidth="1"/>
+    <col min="5639" max="5639" width="29.7109375" customWidth="1"/>
+    <col min="5890" max="5890" width="23.42578125" customWidth="1"/>
+    <col min="5891" max="5891" width="40.42578125" customWidth="1"/>
+    <col min="5892" max="5892" width="9.28515625" customWidth="1"/>
+    <col min="5893" max="5893" width="46.140625" customWidth="1"/>
+    <col min="5894" max="5894" width="55.42578125" customWidth="1"/>
+    <col min="5895" max="5895" width="29.7109375" customWidth="1"/>
+    <col min="6146" max="6146" width="23.42578125" customWidth="1"/>
+    <col min="6147" max="6147" width="40.42578125" customWidth="1"/>
+    <col min="6148" max="6148" width="9.28515625" customWidth="1"/>
+    <col min="6149" max="6149" width="46.140625" customWidth="1"/>
+    <col min="6150" max="6150" width="55.42578125" customWidth="1"/>
+    <col min="6151" max="6151" width="29.7109375" customWidth="1"/>
+    <col min="6402" max="6402" width="23.42578125" customWidth="1"/>
+    <col min="6403" max="6403" width="40.42578125" customWidth="1"/>
+    <col min="6404" max="6404" width="9.28515625" customWidth="1"/>
+    <col min="6405" max="6405" width="46.140625" customWidth="1"/>
+    <col min="6406" max="6406" width="55.42578125" customWidth="1"/>
+    <col min="6407" max="6407" width="29.7109375" customWidth="1"/>
+    <col min="6658" max="6658" width="23.42578125" customWidth="1"/>
+    <col min="6659" max="6659" width="40.42578125" customWidth="1"/>
+    <col min="6660" max="6660" width="9.28515625" customWidth="1"/>
+    <col min="6661" max="6661" width="46.140625" customWidth="1"/>
+    <col min="6662" max="6662" width="55.42578125" customWidth="1"/>
+    <col min="6663" max="6663" width="29.7109375" customWidth="1"/>
+    <col min="6914" max="6914" width="23.42578125" customWidth="1"/>
+    <col min="6915" max="6915" width="40.42578125" customWidth="1"/>
+    <col min="6916" max="6916" width="9.28515625" customWidth="1"/>
+    <col min="6917" max="6917" width="46.140625" customWidth="1"/>
+    <col min="6918" max="6918" width="55.42578125" customWidth="1"/>
+    <col min="6919" max="6919" width="29.7109375" customWidth="1"/>
+    <col min="7170" max="7170" width="23.42578125" customWidth="1"/>
+    <col min="7171" max="7171" width="40.42578125" customWidth="1"/>
+    <col min="7172" max="7172" width="9.28515625" customWidth="1"/>
+    <col min="7173" max="7173" width="46.140625" customWidth="1"/>
+    <col min="7174" max="7174" width="55.42578125" customWidth="1"/>
+    <col min="7175" max="7175" width="29.7109375" customWidth="1"/>
+    <col min="7426" max="7426" width="23.42578125" customWidth="1"/>
+    <col min="7427" max="7427" width="40.42578125" customWidth="1"/>
+    <col min="7428" max="7428" width="9.28515625" customWidth="1"/>
+    <col min="7429" max="7429" width="46.140625" customWidth="1"/>
+    <col min="7430" max="7430" width="55.42578125" customWidth="1"/>
+    <col min="7431" max="7431" width="29.7109375" customWidth="1"/>
+    <col min="7682" max="7682" width="23.42578125" customWidth="1"/>
+    <col min="7683" max="7683" width="40.42578125" customWidth="1"/>
+    <col min="7684" max="7684" width="9.28515625" customWidth="1"/>
+    <col min="7685" max="7685" width="46.140625" customWidth="1"/>
+    <col min="7686" max="7686" width="55.42578125" customWidth="1"/>
+    <col min="7687" max="7687" width="29.7109375" customWidth="1"/>
+    <col min="7938" max="7938" width="23.42578125" customWidth="1"/>
+    <col min="7939" max="7939" width="40.42578125" customWidth="1"/>
+    <col min="7940" max="7940" width="9.28515625" customWidth="1"/>
+    <col min="7941" max="7941" width="46.140625" customWidth="1"/>
+    <col min="7942" max="7942" width="55.42578125" customWidth="1"/>
+    <col min="7943" max="7943" width="29.7109375" customWidth="1"/>
+    <col min="8194" max="8194" width="23.42578125" customWidth="1"/>
+    <col min="8195" max="8195" width="40.42578125" customWidth="1"/>
+    <col min="8196" max="8196" width="9.28515625" customWidth="1"/>
+    <col min="8197" max="8197" width="46.140625" customWidth="1"/>
+    <col min="8198" max="8198" width="55.42578125" customWidth="1"/>
+    <col min="8199" max="8199" width="29.7109375" customWidth="1"/>
+    <col min="8450" max="8450" width="23.42578125" customWidth="1"/>
+    <col min="8451" max="8451" width="40.42578125" customWidth="1"/>
+    <col min="8452" max="8452" width="9.28515625" customWidth="1"/>
+    <col min="8453" max="8453" width="46.140625" customWidth="1"/>
+    <col min="8454" max="8454" width="55.42578125" customWidth="1"/>
+    <col min="8455" max="8455" width="29.7109375" customWidth="1"/>
+    <col min="8706" max="8706" width="23.42578125" customWidth="1"/>
+    <col min="8707" max="8707" width="40.42578125" customWidth="1"/>
+    <col min="8708" max="8708" width="9.28515625" customWidth="1"/>
+    <col min="8709" max="8709" width="46.140625" customWidth="1"/>
+    <col min="8710" max="8710" width="55.42578125" customWidth="1"/>
+    <col min="8711" max="8711" width="29.7109375" customWidth="1"/>
+    <col min="8962" max="8962" width="23.42578125" customWidth="1"/>
+    <col min="8963" max="8963" width="40.42578125" customWidth="1"/>
+    <col min="8964" max="8964" width="9.28515625" customWidth="1"/>
+    <col min="8965" max="8965" width="46.140625" customWidth="1"/>
+    <col min="8966" max="8966" width="55.42578125" customWidth="1"/>
+    <col min="8967" max="8967" width="29.7109375" customWidth="1"/>
+    <col min="9218" max="9218" width="23.42578125" customWidth="1"/>
+    <col min="9219" max="9219" width="40.42578125" customWidth="1"/>
+    <col min="9220" max="9220" width="9.28515625" customWidth="1"/>
+    <col min="9221" max="9221" width="46.140625" customWidth="1"/>
+    <col min="9222" max="9222" width="55.42578125" customWidth="1"/>
+    <col min="9223" max="9223" width="29.7109375" customWidth="1"/>
+    <col min="9474" max="9474" width="23.42578125" customWidth="1"/>
+    <col min="9475" max="9475" width="40.42578125" customWidth="1"/>
+    <col min="9476" max="9476" width="9.28515625" customWidth="1"/>
+    <col min="9477" max="9477" width="46.140625" customWidth="1"/>
+    <col min="9478" max="9478" width="55.42578125" customWidth="1"/>
+    <col min="9479" max="9479" width="29.7109375" customWidth="1"/>
+    <col min="9730" max="9730" width="23.42578125" customWidth="1"/>
+    <col min="9731" max="9731" width="40.42578125" customWidth="1"/>
+    <col min="9732" max="9732" width="9.28515625" customWidth="1"/>
+    <col min="9733" max="9733" width="46.140625" customWidth="1"/>
+    <col min="9734" max="9734" width="55.42578125" customWidth="1"/>
+    <col min="9735" max="9735" width="29.7109375" customWidth="1"/>
+    <col min="9986" max="9986" width="23.42578125" customWidth="1"/>
+    <col min="9987" max="9987" width="40.42578125" customWidth="1"/>
+    <col min="9988" max="9988" width="9.28515625" customWidth="1"/>
+    <col min="9989" max="9989" width="46.140625" customWidth="1"/>
+    <col min="9990" max="9990" width="55.42578125" customWidth="1"/>
+    <col min="9991" max="9991" width="29.7109375" customWidth="1"/>
+    <col min="10242" max="10242" width="23.42578125" customWidth="1"/>
+    <col min="10243" max="10243" width="40.42578125" customWidth="1"/>
+    <col min="10244" max="10244" width="9.28515625" customWidth="1"/>
+    <col min="10245" max="10245" width="46.140625" customWidth="1"/>
+    <col min="10246" max="10246" width="55.42578125" customWidth="1"/>
+    <col min="10247" max="10247" width="29.7109375" customWidth="1"/>
+    <col min="10498" max="10498" width="23.42578125" customWidth="1"/>
+    <col min="10499" max="10499" width="40.42578125" customWidth="1"/>
+    <col min="10500" max="10500" width="9.28515625" customWidth="1"/>
+    <col min="10501" max="10501" width="46.140625" customWidth="1"/>
+    <col min="10502" max="10502" width="55.42578125" customWidth="1"/>
+    <col min="10503" max="10503" width="29.7109375" customWidth="1"/>
+    <col min="10754" max="10754" width="23.42578125" customWidth="1"/>
+    <col min="10755" max="10755" width="40.42578125" customWidth="1"/>
+    <col min="10756" max="10756" width="9.28515625" customWidth="1"/>
+    <col min="10757" max="10757" width="46.140625" customWidth="1"/>
+    <col min="10758" max="10758" width="55.42578125" customWidth="1"/>
+    <col min="10759" max="10759" width="29.7109375" customWidth="1"/>
+    <col min="11010" max="11010" width="23.42578125" customWidth="1"/>
+    <col min="11011" max="11011" width="40.42578125" customWidth="1"/>
+    <col min="11012" max="11012" width="9.28515625" customWidth="1"/>
+    <col min="11013" max="11013" width="46.140625" customWidth="1"/>
+    <col min="11014" max="11014" width="55.42578125" customWidth="1"/>
+    <col min="11015" max="11015" width="29.7109375" customWidth="1"/>
+    <col min="11266" max="11266" width="23.42578125" customWidth="1"/>
+    <col min="11267" max="11267" width="40.42578125" customWidth="1"/>
+    <col min="11268" max="11268" width="9.28515625" customWidth="1"/>
+    <col min="11269" max="11269" width="46.140625" customWidth="1"/>
+    <col min="11270" max="11270" width="55.42578125" customWidth="1"/>
+    <col min="11271" max="11271" width="29.7109375" customWidth="1"/>
+    <col min="11522" max="11522" width="23.42578125" customWidth="1"/>
+    <col min="11523" max="11523" width="40.42578125" customWidth="1"/>
+    <col min="11524" max="11524" width="9.28515625" customWidth="1"/>
+    <col min="11525" max="11525" width="46.140625" customWidth="1"/>
+    <col min="11526" max="11526" width="55.42578125" customWidth="1"/>
+    <col min="11527" max="11527" width="29.7109375" customWidth="1"/>
+    <col min="11778" max="11778" width="23.42578125" customWidth="1"/>
+    <col min="11779" max="11779" width="40.42578125" customWidth="1"/>
+    <col min="11780" max="11780" width="9.28515625" customWidth="1"/>
+    <col min="11781" max="11781" width="46.140625" customWidth="1"/>
+    <col min="11782" max="11782" width="55.42578125" customWidth="1"/>
+    <col min="11783" max="11783" width="29.7109375" customWidth="1"/>
+    <col min="12034" max="12034" width="23.42578125" customWidth="1"/>
+    <col min="12035" max="12035" width="40.42578125" customWidth="1"/>
+    <col min="12036" max="12036" width="9.28515625" customWidth="1"/>
+    <col min="12037" max="12037" width="46.140625" customWidth="1"/>
+    <col min="12038" max="12038" width="55.42578125" customWidth="1"/>
+    <col min="12039" max="12039" width="29.7109375" customWidth="1"/>
+    <col min="12290" max="12290" width="23.42578125" customWidth="1"/>
+    <col min="12291" max="12291" width="40.42578125" customWidth="1"/>
+    <col min="12292" max="12292" width="9.28515625" customWidth="1"/>
+    <col min="12293" max="12293" width="46.140625" customWidth="1"/>
+    <col min="12294" max="12294" width="55.42578125" customWidth="1"/>
+    <col min="12295" max="12295" width="29.7109375" customWidth="1"/>
+    <col min="12546" max="12546" width="23.42578125" customWidth="1"/>
+    <col min="12547" max="12547" width="40.42578125" customWidth="1"/>
+    <col min="12548" max="12548" width="9.28515625" customWidth="1"/>
+    <col min="12549" max="12549" width="46.140625" customWidth="1"/>
+    <col min="12550" max="12550" width="55.42578125" customWidth="1"/>
+    <col min="12551" max="12551" width="29.7109375" customWidth="1"/>
+    <col min="12802" max="12802" width="23.42578125" customWidth="1"/>
+    <col min="12803" max="12803" width="40.42578125" customWidth="1"/>
+    <col min="12804" max="12804" width="9.28515625" customWidth="1"/>
+    <col min="12805" max="12805" width="46.140625" customWidth="1"/>
+    <col min="12806" max="12806" width="55.42578125" customWidth="1"/>
+    <col min="12807" max="12807" width="29.7109375" customWidth="1"/>
+    <col min="13058" max="13058" width="23.42578125" customWidth="1"/>
+    <col min="13059" max="13059" width="40.42578125" customWidth="1"/>
+    <col min="13060" max="13060" width="9.28515625" customWidth="1"/>
+    <col min="13061" max="13061" width="46.140625" customWidth="1"/>
+    <col min="13062" max="13062" width="55.42578125" customWidth="1"/>
+    <col min="13063" max="13063" width="29.7109375" customWidth="1"/>
+    <col min="13314" max="13314" width="23.42578125" customWidth="1"/>
+    <col min="13315" max="13315" width="40.42578125" customWidth="1"/>
+    <col min="13316" max="13316" width="9.28515625" customWidth="1"/>
+    <col min="13317" max="13317" width="46.140625" customWidth="1"/>
+    <col min="13318" max="13318" width="55.42578125" customWidth="1"/>
+    <col min="13319" max="13319" width="29.7109375" customWidth="1"/>
+    <col min="13570" max="13570" width="23.42578125" customWidth="1"/>
+    <col min="13571" max="13571" width="40.42578125" customWidth="1"/>
+    <col min="13572" max="13572" width="9.28515625" customWidth="1"/>
+    <col min="13573" max="13573" width="46.140625" customWidth="1"/>
+    <col min="13574" max="13574" width="55.42578125" customWidth="1"/>
+    <col min="13575" max="13575" width="29.7109375" customWidth="1"/>
+    <col min="13826" max="13826" width="23.42578125" customWidth="1"/>
+    <col min="13827" max="13827" width="40.42578125" customWidth="1"/>
+    <col min="13828" max="13828" width="9.28515625" customWidth="1"/>
+    <col min="13829" max="13829" width="46.140625" customWidth="1"/>
+    <col min="13830" max="13830" width="55.42578125" customWidth="1"/>
+    <col min="13831" max="13831" width="29.7109375" customWidth="1"/>
+    <col min="14082" max="14082" width="23.42578125" customWidth="1"/>
+    <col min="14083" max="14083" width="40.42578125" customWidth="1"/>
+    <col min="14084" max="14084" width="9.28515625" customWidth="1"/>
+    <col min="14085" max="14085" width="46.140625" customWidth="1"/>
+    <col min="14086" max="14086" width="55.42578125" customWidth="1"/>
+    <col min="14087" max="14087" width="29.7109375" customWidth="1"/>
+    <col min="14338" max="14338" width="23.42578125" customWidth="1"/>
+    <col min="14339" max="14339" width="40.42578125" customWidth="1"/>
+    <col min="14340" max="14340" width="9.28515625" customWidth="1"/>
+    <col min="14341" max="14341" width="46.140625" customWidth="1"/>
+    <col min="14342" max="14342" width="55.42578125" customWidth="1"/>
+    <col min="14343" max="14343" width="29.7109375" customWidth="1"/>
+    <col min="14594" max="14594" width="23.42578125" customWidth="1"/>
+    <col min="14595" max="14595" width="40.42578125" customWidth="1"/>
+    <col min="14596" max="14596" width="9.28515625" customWidth="1"/>
+    <col min="14597" max="14597" width="46.140625" customWidth="1"/>
+    <col min="14598" max="14598" width="55.42578125" customWidth="1"/>
+    <col min="14599" max="14599" width="29.7109375" customWidth="1"/>
+    <col min="14850" max="14850" width="23.42578125" customWidth="1"/>
+    <col min="14851" max="14851" width="40.42578125" customWidth="1"/>
+    <col min="14852" max="14852" width="9.28515625" customWidth="1"/>
+    <col min="14853" max="14853" width="46.140625" customWidth="1"/>
+    <col min="14854" max="14854" width="55.42578125" customWidth="1"/>
+    <col min="14855" max="14855" width="29.7109375" customWidth="1"/>
+    <col min="15106" max="15106" width="23.42578125" customWidth="1"/>
+    <col min="15107" max="15107" width="40.42578125" customWidth="1"/>
+    <col min="15108" max="15108" width="9.28515625" customWidth="1"/>
+    <col min="15109" max="15109" width="46.140625" customWidth="1"/>
+    <col min="15110" max="15110" width="55.42578125" customWidth="1"/>
+    <col min="15111" max="15111" width="29.7109375" customWidth="1"/>
+    <col min="15362" max="15362" width="23.42578125" customWidth="1"/>
+    <col min="15363" max="15363" width="40.42578125" customWidth="1"/>
+    <col min="15364" max="15364" width="9.28515625" customWidth="1"/>
+    <col min="15365" max="15365" width="46.140625" customWidth="1"/>
+    <col min="15366" max="15366" width="55.42578125" customWidth="1"/>
+    <col min="15367" max="15367" width="29.7109375" customWidth="1"/>
+    <col min="15618" max="15618" width="23.42578125" customWidth="1"/>
+    <col min="15619" max="15619" width="40.42578125" customWidth="1"/>
+    <col min="15620" max="15620" width="9.28515625" customWidth="1"/>
+    <col min="15621" max="15621" width="46.140625" customWidth="1"/>
+    <col min="15622" max="15622" width="55.42578125" customWidth="1"/>
+    <col min="15623" max="15623" width="29.7109375" customWidth="1"/>
+    <col min="15874" max="15874" width="23.42578125" customWidth="1"/>
+    <col min="15875" max="15875" width="40.42578125" customWidth="1"/>
+    <col min="15876" max="15876" width="9.28515625" customWidth="1"/>
+    <col min="15877" max="15877" width="46.140625" customWidth="1"/>
+    <col min="15878" max="15878" width="55.42578125" customWidth="1"/>
+    <col min="15879" max="15879" width="29.7109375" customWidth="1"/>
+    <col min="16130" max="16130" width="23.42578125" customWidth="1"/>
+    <col min="16131" max="16131" width="40.42578125" customWidth="1"/>
+    <col min="16132" max="16132" width="9.28515625" customWidth="1"/>
+    <col min="16133" max="16133" width="46.140625" customWidth="1"/>
+    <col min="16134" max="16134" width="55.42578125" customWidth="1"/>
+    <col min="16135" max="16135" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="60" customHeight="1"/>
-    <row r="2" spans="2:6" ht="14.25" thickBot="1"/>
+    <row r="2" spans="2:6" ht="11.4" thickBot="1"/>
     <row r="3" spans="2:6" ht="15.6" customHeight="1">
-      <c r="B3" s="234" t="s">
+      <c r="B3" s="232" t="s">
         <v>256</v>
       </c>
-      <c r="C3" s="235"/>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
-      <c r="F3" s="236"/>
+      <c r="C3" s="233"/>
+      <c r="D3" s="233"/>
+      <c r="E3" s="233"/>
+      <c r="F3" s="234"/>
     </row>
     <row r="4" spans="2:6" s="30" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B4" s="240" t="s">
+      <c r="B4" s="238" t="s">
         <v>290</v>
       </c>
-      <c r="C4" s="241"/>
-      <c r="D4" s="241"/>
-      <c r="E4" s="241"/>
-      <c r="F4" s="242"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="239"/>
+      <c r="E4" s="239"/>
+      <c r="F4" s="240"/>
     </row>
     <row r="5" spans="2:6" s="30" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B5" s="240" t="str">
+      <c r="B5" s="238" t="str">
         <f>"veckovis inrapportering om slutenvård till Socialstyrelsen från regionerna. Patienter som slutenvårdas vid fler än ett tillfälle räknas bara som inskriven en gång respektive utskriven en"</f>
         <v>veckovis inrapportering om slutenvård till Socialstyrelsen från regionerna. Patienter som slutenvårdas vid fler än ett tillfälle räknas bara som inskriven en gång respektive utskriven en</v>
       </c>
-      <c r="C5" s="241"/>
-      <c r="D5" s="241"/>
-      <c r="E5" s="241"/>
-      <c r="F5" s="242"/>
+      <c r="C5" s="239"/>
+      <c r="D5" s="239"/>
+      <c r="E5" s="239"/>
+      <c r="F5" s="240"/>
     </row>
     <row r="6" spans="2:6" s="30" customFormat="1" ht="15.6" customHeight="1">
-      <c r="B6" s="240" t="s">
+      <c r="B6" s="238" t="s">
         <v>291</v>
       </c>
-      <c r="C6" s="241"/>
-      <c r="D6" s="241"/>
-      <c r="E6" s="241"/>
-      <c r="F6" s="242"/>
+      <c r="C6" s="239"/>
+      <c r="D6" s="239"/>
+      <c r="E6" s="239"/>
+      <c r="F6" s="240"/>
     </row>
     <row r="7" spans="2:6" ht="42.6" customHeight="1">
-      <c r="B7" s="237" t="s">
+      <c r="B7" s="235" t="s">
         <v>220</v>
       </c>
-      <c r="C7" s="238"/>
-      <c r="D7" s="238"/>
-      <c r="E7" s="238"/>
-      <c r="F7" s="239"/>
+      <c r="C7" s="236"/>
+      <c r="D7" s="236"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="237"/>
     </row>
     <row r="8" spans="2:6" ht="33" customHeight="1">
-      <c r="B8" s="237" t="s">
+      <c r="B8" s="235" t="s">
         <v>179</v>
       </c>
-      <c r="C8" s="238"/>
-      <c r="D8" s="238"/>
-      <c r="E8" s="238"/>
-      <c r="F8" s="239"/>
+      <c r="C8" s="236"/>
+      <c r="D8" s="236"/>
+      <c r="E8" s="236"/>
+      <c r="F8" s="237"/>
     </row>
     <row r="9" spans="2:6" ht="57.75" customHeight="1">
-      <c r="B9" s="240" t="s">
+      <c r="B9" s="238" t="s">
         <v>223</v>
       </c>
-      <c r="C9" s="241"/>
-      <c r="D9" s="241"/>
-      <c r="E9" s="241"/>
-      <c r="F9" s="242"/>
+      <c r="C9" s="239"/>
+      <c r="D9" s="239"/>
+      <c r="E9" s="239"/>
+      <c r="F9" s="240"/>
     </row>
     <row r="10" spans="2:6" ht="54.75" customHeight="1">
-      <c r="B10" s="240" t="s">
+      <c r="B10" s="238" t="s">
         <v>188</v>
       </c>
-      <c r="C10" s="241"/>
-      <c r="D10" s="241"/>
-      <c r="E10" s="241"/>
-      <c r="F10" s="242"/>
+      <c r="C10" s="239"/>
+      <c r="D10" s="239"/>
+      <c r="E10" s="239"/>
+      <c r="F10" s="240"/>
     </row>
     <row r="11" spans="2:6" ht="150" customHeight="1" thickBot="1">
-      <c r="B11" s="231" t="s">
+      <c r="B11" s="229" t="s">
         <v>281</v>
       </c>
-      <c r="C11" s="232"/>
-      <c r="D11" s="232"/>
-      <c r="E11" s="232"/>
-      <c r="F11" s="233"/>
+      <c r="C11" s="230"/>
+      <c r="D11" s="230"/>
+      <c r="E11" s="230"/>
+      <c r="F11" s="231"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="20"/>
@@ -7907,7 +7904,7 @@
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
     </row>
-    <row r="14" spans="2:6" ht="14.25">
+    <row r="14" spans="2:6" ht="13.2">
       <c r="B14" s="56" t="s">
         <v>108</v>
       </c>
@@ -7919,11 +7916,11 @@
       <c r="B15" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="230" t="s">
+      <c r="C15" s="228" t="s">
         <v>155</v>
       </c>
-      <c r="D15" s="230"/>
-      <c r="E15" s="230"/>
+      <c r="D15" s="228"/>
+      <c r="E15" s="228"/>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="37" t="s">
@@ -8009,400 +8006,398 @@
   </sheetPr>
   <dimension ref="B4:F110"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="76.6640625" customWidth="1"/>
-    <col min="6" max="6" width="50.5" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
-    <col min="258" max="258" width="23.5" customWidth="1"/>
-    <col min="259" max="259" width="40.5" customWidth="1"/>
-    <col min="260" max="260" width="9.33203125" customWidth="1"/>
-    <col min="261" max="261" width="46.1640625" customWidth="1"/>
-    <col min="262" max="262" width="55.5" customWidth="1"/>
-    <col min="263" max="263" width="29.6640625" customWidth="1"/>
-    <col min="514" max="514" width="23.5" customWidth="1"/>
-    <col min="515" max="515" width="40.5" customWidth="1"/>
-    <col min="516" max="516" width="9.33203125" customWidth="1"/>
-    <col min="517" max="517" width="46.1640625" customWidth="1"/>
-    <col min="518" max="518" width="55.5" customWidth="1"/>
-    <col min="519" max="519" width="29.6640625" customWidth="1"/>
-    <col min="770" max="770" width="23.5" customWidth="1"/>
-    <col min="771" max="771" width="40.5" customWidth="1"/>
-    <col min="772" max="772" width="9.33203125" customWidth="1"/>
-    <col min="773" max="773" width="46.1640625" customWidth="1"/>
-    <col min="774" max="774" width="55.5" customWidth="1"/>
-    <col min="775" max="775" width="29.6640625" customWidth="1"/>
-    <col min="1026" max="1026" width="23.5" customWidth="1"/>
-    <col min="1027" max="1027" width="40.5" customWidth="1"/>
-    <col min="1028" max="1028" width="9.33203125" customWidth="1"/>
-    <col min="1029" max="1029" width="46.1640625" customWidth="1"/>
-    <col min="1030" max="1030" width="55.5" customWidth="1"/>
-    <col min="1031" max="1031" width="29.6640625" customWidth="1"/>
-    <col min="1282" max="1282" width="23.5" customWidth="1"/>
-    <col min="1283" max="1283" width="40.5" customWidth="1"/>
-    <col min="1284" max="1284" width="9.33203125" customWidth="1"/>
-    <col min="1285" max="1285" width="46.1640625" customWidth="1"/>
-    <col min="1286" max="1286" width="55.5" customWidth="1"/>
-    <col min="1287" max="1287" width="29.6640625" customWidth="1"/>
-    <col min="1538" max="1538" width="23.5" customWidth="1"/>
-    <col min="1539" max="1539" width="40.5" customWidth="1"/>
-    <col min="1540" max="1540" width="9.33203125" customWidth="1"/>
-    <col min="1541" max="1541" width="46.1640625" customWidth="1"/>
-    <col min="1542" max="1542" width="55.5" customWidth="1"/>
-    <col min="1543" max="1543" width="29.6640625" customWidth="1"/>
-    <col min="1794" max="1794" width="23.5" customWidth="1"/>
-    <col min="1795" max="1795" width="40.5" customWidth="1"/>
-    <col min="1796" max="1796" width="9.33203125" customWidth="1"/>
-    <col min="1797" max="1797" width="46.1640625" customWidth="1"/>
-    <col min="1798" max="1798" width="55.5" customWidth="1"/>
-    <col min="1799" max="1799" width="29.6640625" customWidth="1"/>
-    <col min="2050" max="2050" width="23.5" customWidth="1"/>
-    <col min="2051" max="2051" width="40.5" customWidth="1"/>
-    <col min="2052" max="2052" width="9.33203125" customWidth="1"/>
-    <col min="2053" max="2053" width="46.1640625" customWidth="1"/>
-    <col min="2054" max="2054" width="55.5" customWidth="1"/>
-    <col min="2055" max="2055" width="29.6640625" customWidth="1"/>
-    <col min="2306" max="2306" width="23.5" customWidth="1"/>
-    <col min="2307" max="2307" width="40.5" customWidth="1"/>
-    <col min="2308" max="2308" width="9.33203125" customWidth="1"/>
-    <col min="2309" max="2309" width="46.1640625" customWidth="1"/>
-    <col min="2310" max="2310" width="55.5" customWidth="1"/>
-    <col min="2311" max="2311" width="29.6640625" customWidth="1"/>
-    <col min="2562" max="2562" width="23.5" customWidth="1"/>
-    <col min="2563" max="2563" width="40.5" customWidth="1"/>
-    <col min="2564" max="2564" width="9.33203125" customWidth="1"/>
-    <col min="2565" max="2565" width="46.1640625" customWidth="1"/>
-    <col min="2566" max="2566" width="55.5" customWidth="1"/>
-    <col min="2567" max="2567" width="29.6640625" customWidth="1"/>
-    <col min="2818" max="2818" width="23.5" customWidth="1"/>
-    <col min="2819" max="2819" width="40.5" customWidth="1"/>
-    <col min="2820" max="2820" width="9.33203125" customWidth="1"/>
-    <col min="2821" max="2821" width="46.1640625" customWidth="1"/>
-    <col min="2822" max="2822" width="55.5" customWidth="1"/>
-    <col min="2823" max="2823" width="29.6640625" customWidth="1"/>
-    <col min="3074" max="3074" width="23.5" customWidth="1"/>
-    <col min="3075" max="3075" width="40.5" customWidth="1"/>
-    <col min="3076" max="3076" width="9.33203125" customWidth="1"/>
-    <col min="3077" max="3077" width="46.1640625" customWidth="1"/>
-    <col min="3078" max="3078" width="55.5" customWidth="1"/>
-    <col min="3079" max="3079" width="29.6640625" customWidth="1"/>
-    <col min="3330" max="3330" width="23.5" customWidth="1"/>
-    <col min="3331" max="3331" width="40.5" customWidth="1"/>
-    <col min="3332" max="3332" width="9.33203125" customWidth="1"/>
-    <col min="3333" max="3333" width="46.1640625" customWidth="1"/>
-    <col min="3334" max="3334" width="55.5" customWidth="1"/>
-    <col min="3335" max="3335" width="29.6640625" customWidth="1"/>
-    <col min="3586" max="3586" width="23.5" customWidth="1"/>
-    <col min="3587" max="3587" width="40.5" customWidth="1"/>
-    <col min="3588" max="3588" width="9.33203125" customWidth="1"/>
-    <col min="3589" max="3589" width="46.1640625" customWidth="1"/>
-    <col min="3590" max="3590" width="55.5" customWidth="1"/>
-    <col min="3591" max="3591" width="29.6640625" customWidth="1"/>
-    <col min="3842" max="3842" width="23.5" customWidth="1"/>
-    <col min="3843" max="3843" width="40.5" customWidth="1"/>
-    <col min="3844" max="3844" width="9.33203125" customWidth="1"/>
-    <col min="3845" max="3845" width="46.1640625" customWidth="1"/>
-    <col min="3846" max="3846" width="55.5" customWidth="1"/>
-    <col min="3847" max="3847" width="29.6640625" customWidth="1"/>
-    <col min="4098" max="4098" width="23.5" customWidth="1"/>
-    <col min="4099" max="4099" width="40.5" customWidth="1"/>
-    <col min="4100" max="4100" width="9.33203125" customWidth="1"/>
-    <col min="4101" max="4101" width="46.1640625" customWidth="1"/>
-    <col min="4102" max="4102" width="55.5" customWidth="1"/>
-    <col min="4103" max="4103" width="29.6640625" customWidth="1"/>
-    <col min="4354" max="4354" width="23.5" customWidth="1"/>
-    <col min="4355" max="4355" width="40.5" customWidth="1"/>
-    <col min="4356" max="4356" width="9.33203125" customWidth="1"/>
-    <col min="4357" max="4357" width="46.1640625" customWidth="1"/>
-    <col min="4358" max="4358" width="55.5" customWidth="1"/>
-    <col min="4359" max="4359" width="29.6640625" customWidth="1"/>
-    <col min="4610" max="4610" width="23.5" customWidth="1"/>
-    <col min="4611" max="4611" width="40.5" customWidth="1"/>
-    <col min="4612" max="4612" width="9.33203125" customWidth="1"/>
-    <col min="4613" max="4613" width="46.1640625" customWidth="1"/>
-    <col min="4614" max="4614" width="55.5" customWidth="1"/>
-    <col min="4615" max="4615" width="29.6640625" customWidth="1"/>
-    <col min="4866" max="4866" width="23.5" customWidth="1"/>
-    <col min="4867" max="4867" width="40.5" customWidth="1"/>
-    <col min="4868" max="4868" width="9.33203125" customWidth="1"/>
-    <col min="4869" max="4869" width="46.1640625" customWidth="1"/>
-    <col min="4870" max="4870" width="55.5" customWidth="1"/>
-    <col min="4871" max="4871" width="29.6640625" customWidth="1"/>
-    <col min="5122" max="5122" width="23.5" customWidth="1"/>
-    <col min="5123" max="5123" width="40.5" customWidth="1"/>
-    <col min="5124" max="5124" width="9.33203125" customWidth="1"/>
-    <col min="5125" max="5125" width="46.1640625" customWidth="1"/>
-    <col min="5126" max="5126" width="55.5" customWidth="1"/>
-    <col min="5127" max="5127" width="29.6640625" customWidth="1"/>
-    <col min="5378" max="5378" width="23.5" customWidth="1"/>
-    <col min="5379" max="5379" width="40.5" customWidth="1"/>
-    <col min="5380" max="5380" width="9.33203125" customWidth="1"/>
-    <col min="5381" max="5381" width="46.1640625" customWidth="1"/>
-    <col min="5382" max="5382" width="55.5" customWidth="1"/>
-    <col min="5383" max="5383" width="29.6640625" customWidth="1"/>
-    <col min="5634" max="5634" width="23.5" customWidth="1"/>
-    <col min="5635" max="5635" width="40.5" customWidth="1"/>
-    <col min="5636" max="5636" width="9.33203125" customWidth="1"/>
-    <col min="5637" max="5637" width="46.1640625" customWidth="1"/>
-    <col min="5638" max="5638" width="55.5" customWidth="1"/>
-    <col min="5639" max="5639" width="29.6640625" customWidth="1"/>
-    <col min="5890" max="5890" width="23.5" customWidth="1"/>
-    <col min="5891" max="5891" width="40.5" customWidth="1"/>
-    <col min="5892" max="5892" width="9.33203125" customWidth="1"/>
-    <col min="5893" max="5893" width="46.1640625" customWidth="1"/>
-    <col min="5894" max="5894" width="55.5" customWidth="1"/>
-    <col min="5895" max="5895" width="29.6640625" customWidth="1"/>
-    <col min="6146" max="6146" width="23.5" customWidth="1"/>
-    <col min="6147" max="6147" width="40.5" customWidth="1"/>
-    <col min="6148" max="6148" width="9.33203125" customWidth="1"/>
-    <col min="6149" max="6149" width="46.1640625" customWidth="1"/>
-    <col min="6150" max="6150" width="55.5" customWidth="1"/>
-    <col min="6151" max="6151" width="29.6640625" customWidth="1"/>
-    <col min="6402" max="6402" width="23.5" customWidth="1"/>
-    <col min="6403" max="6403" width="40.5" customWidth="1"/>
-    <col min="6404" max="6404" width="9.33203125" customWidth="1"/>
-    <col min="6405" max="6405" width="46.1640625" customWidth="1"/>
-    <col min="6406" max="6406" width="55.5" customWidth="1"/>
-    <col min="6407" max="6407" width="29.6640625" customWidth="1"/>
-    <col min="6658" max="6658" width="23.5" customWidth="1"/>
-    <col min="6659" max="6659" width="40.5" customWidth="1"/>
-    <col min="6660" max="6660" width="9.33203125" customWidth="1"/>
-    <col min="6661" max="6661" width="46.1640625" customWidth="1"/>
-    <col min="6662" max="6662" width="55.5" customWidth="1"/>
-    <col min="6663" max="6663" width="29.6640625" customWidth="1"/>
-    <col min="6914" max="6914" width="23.5" customWidth="1"/>
-    <col min="6915" max="6915" width="40.5" customWidth="1"/>
-    <col min="6916" max="6916" width="9.33203125" customWidth="1"/>
-    <col min="6917" max="6917" width="46.1640625" customWidth="1"/>
-    <col min="6918" max="6918" width="55.5" customWidth="1"/>
-    <col min="6919" max="6919" width="29.6640625" customWidth="1"/>
-    <col min="7170" max="7170" width="23.5" customWidth="1"/>
-    <col min="7171" max="7171" width="40.5" customWidth="1"/>
-    <col min="7172" max="7172" width="9.33203125" customWidth="1"/>
-    <col min="7173" max="7173" width="46.1640625" customWidth="1"/>
-    <col min="7174" max="7174" width="55.5" customWidth="1"/>
-    <col min="7175" max="7175" width="29.6640625" customWidth="1"/>
-    <col min="7426" max="7426" width="23.5" customWidth="1"/>
-    <col min="7427" max="7427" width="40.5" customWidth="1"/>
-    <col min="7428" max="7428" width="9.33203125" customWidth="1"/>
-    <col min="7429" max="7429" width="46.1640625" customWidth="1"/>
-    <col min="7430" max="7430" width="55.5" customWidth="1"/>
-    <col min="7431" max="7431" width="29.6640625" customWidth="1"/>
-    <col min="7682" max="7682" width="23.5" customWidth="1"/>
-    <col min="7683" max="7683" width="40.5" customWidth="1"/>
-    <col min="7684" max="7684" width="9.33203125" customWidth="1"/>
-    <col min="7685" max="7685" width="46.1640625" customWidth="1"/>
-    <col min="7686" max="7686" width="55.5" customWidth="1"/>
-    <col min="7687" max="7687" width="29.6640625" customWidth="1"/>
-    <col min="7938" max="7938" width="23.5" customWidth="1"/>
-    <col min="7939" max="7939" width="40.5" customWidth="1"/>
-    <col min="7940" max="7940" width="9.33203125" customWidth="1"/>
-    <col min="7941" max="7941" width="46.1640625" customWidth="1"/>
-    <col min="7942" max="7942" width="55.5" customWidth="1"/>
-    <col min="7943" max="7943" width="29.6640625" customWidth="1"/>
-    <col min="8194" max="8194" width="23.5" customWidth="1"/>
-    <col min="8195" max="8195" width="40.5" customWidth="1"/>
-    <col min="8196" max="8196" width="9.33203125" customWidth="1"/>
-    <col min="8197" max="8197" width="46.1640625" customWidth="1"/>
-    <col min="8198" max="8198" width="55.5" customWidth="1"/>
-    <col min="8199" max="8199" width="29.6640625" customWidth="1"/>
-    <col min="8450" max="8450" width="23.5" customWidth="1"/>
-    <col min="8451" max="8451" width="40.5" customWidth="1"/>
-    <col min="8452" max="8452" width="9.33203125" customWidth="1"/>
-    <col min="8453" max="8453" width="46.1640625" customWidth="1"/>
-    <col min="8454" max="8454" width="55.5" customWidth="1"/>
-    <col min="8455" max="8455" width="29.6640625" customWidth="1"/>
-    <col min="8706" max="8706" width="23.5" customWidth="1"/>
-    <col min="8707" max="8707" width="40.5" customWidth="1"/>
-    <col min="8708" max="8708" width="9.33203125" customWidth="1"/>
-    <col min="8709" max="8709" width="46.1640625" customWidth="1"/>
-    <col min="8710" max="8710" width="55.5" customWidth="1"/>
-    <col min="8711" max="8711" width="29.6640625" customWidth="1"/>
-    <col min="8962" max="8962" width="23.5" customWidth="1"/>
-    <col min="8963" max="8963" width="40.5" customWidth="1"/>
-    <col min="8964" max="8964" width="9.33203125" customWidth="1"/>
-    <col min="8965" max="8965" width="46.1640625" customWidth="1"/>
-    <col min="8966" max="8966" width="55.5" customWidth="1"/>
-    <col min="8967" max="8967" width="29.6640625" customWidth="1"/>
-    <col min="9218" max="9218" width="23.5" customWidth="1"/>
-    <col min="9219" max="9219" width="40.5" customWidth="1"/>
-    <col min="9220" max="9220" width="9.33203125" customWidth="1"/>
-    <col min="9221" max="9221" width="46.1640625" customWidth="1"/>
-    <col min="9222" max="9222" width="55.5" customWidth="1"/>
-    <col min="9223" max="9223" width="29.6640625" customWidth="1"/>
-    <col min="9474" max="9474" width="23.5" customWidth="1"/>
-    <col min="9475" max="9475" width="40.5" customWidth="1"/>
-    <col min="9476" max="9476" width="9.33203125" customWidth="1"/>
-    <col min="9477" max="9477" width="46.1640625" customWidth="1"/>
-    <col min="9478" max="9478" width="55.5" customWidth="1"/>
-    <col min="9479" max="9479" width="29.6640625" customWidth="1"/>
-    <col min="9730" max="9730" width="23.5" customWidth="1"/>
-    <col min="9731" max="9731" width="40.5" customWidth="1"/>
-    <col min="9732" max="9732" width="9.33203125" customWidth="1"/>
-    <col min="9733" max="9733" width="46.1640625" customWidth="1"/>
-    <col min="9734" max="9734" width="55.5" customWidth="1"/>
-    <col min="9735" max="9735" width="29.6640625" customWidth="1"/>
-    <col min="9986" max="9986" width="23.5" customWidth="1"/>
-    <col min="9987" max="9987" width="40.5" customWidth="1"/>
-    <col min="9988" max="9988" width="9.33203125" customWidth="1"/>
-    <col min="9989" max="9989" width="46.1640625" customWidth="1"/>
-    <col min="9990" max="9990" width="55.5" customWidth="1"/>
-    <col min="9991" max="9991" width="29.6640625" customWidth="1"/>
-    <col min="10242" max="10242" width="23.5" customWidth="1"/>
-    <col min="10243" max="10243" width="40.5" customWidth="1"/>
-    <col min="10244" max="10244" width="9.33203125" customWidth="1"/>
-    <col min="10245" max="10245" width="46.1640625" customWidth="1"/>
-    <col min="10246" max="10246" width="55.5" customWidth="1"/>
-    <col min="10247" max="10247" width="29.6640625" customWidth="1"/>
-    <col min="10498" max="10498" width="23.5" customWidth="1"/>
-    <col min="10499" max="10499" width="40.5" customWidth="1"/>
-    <col min="10500" max="10500" width="9.33203125" customWidth="1"/>
-    <col min="10501" max="10501" width="46.1640625" customWidth="1"/>
-    <col min="10502" max="10502" width="55.5" customWidth="1"/>
-    <col min="10503" max="10503" width="29.6640625" customWidth="1"/>
-    <col min="10754" max="10754" width="23.5" customWidth="1"/>
-    <col min="10755" max="10755" width="40.5" customWidth="1"/>
-    <col min="10756" max="10756" width="9.33203125" customWidth="1"/>
-    <col min="10757" max="10757" width="46.1640625" customWidth="1"/>
-    <col min="10758" max="10758" width="55.5" customWidth="1"/>
-    <col min="10759" max="10759" width="29.6640625" customWidth="1"/>
-    <col min="11010" max="11010" width="23.5" customWidth="1"/>
-    <col min="11011" max="11011" width="40.5" customWidth="1"/>
-    <col min="11012" max="11012" width="9.33203125" customWidth="1"/>
-    <col min="11013" max="11013" width="46.1640625" customWidth="1"/>
-    <col min="11014" max="11014" width="55.5" customWidth="1"/>
-    <col min="11015" max="11015" width="29.6640625" customWidth="1"/>
-    <col min="11266" max="11266" width="23.5" customWidth="1"/>
-    <col min="11267" max="11267" width="40.5" customWidth="1"/>
-    <col min="11268" max="11268" width="9.33203125" customWidth="1"/>
-    <col min="11269" max="11269" width="46.1640625" customWidth="1"/>
-    <col min="11270" max="11270" width="55.5" customWidth="1"/>
-    <col min="11271" max="11271" width="29.6640625" customWidth="1"/>
-    <col min="11522" max="11522" width="23.5" customWidth="1"/>
-    <col min="11523" max="11523" width="40.5" customWidth="1"/>
-    <col min="11524" max="11524" width="9.33203125" customWidth="1"/>
-    <col min="11525" max="11525" width="46.1640625" customWidth="1"/>
-    <col min="11526" max="11526" width="55.5" customWidth="1"/>
-    <col min="11527" max="11527" width="29.6640625" customWidth="1"/>
-    <col min="11778" max="11778" width="23.5" customWidth="1"/>
-    <col min="11779" max="11779" width="40.5" customWidth="1"/>
-    <col min="11780" max="11780" width="9.33203125" customWidth="1"/>
-    <col min="11781" max="11781" width="46.1640625" customWidth="1"/>
-    <col min="11782" max="11782" width="55.5" customWidth="1"/>
-    <col min="11783" max="11783" width="29.6640625" customWidth="1"/>
-    <col min="12034" max="12034" width="23.5" customWidth="1"/>
-    <col min="12035" max="12035" width="40.5" customWidth="1"/>
-    <col min="12036" max="12036" width="9.33203125" customWidth="1"/>
-    <col min="12037" max="12037" width="46.1640625" customWidth="1"/>
-    <col min="12038" max="12038" width="55.5" customWidth="1"/>
-    <col min="12039" max="12039" width="29.6640625" customWidth="1"/>
-    <col min="12290" max="12290" width="23.5" customWidth="1"/>
-    <col min="12291" max="12291" width="40.5" customWidth="1"/>
-    <col min="12292" max="12292" width="9.33203125" customWidth="1"/>
-    <col min="12293" max="12293" width="46.1640625" customWidth="1"/>
-    <col min="12294" max="12294" width="55.5" customWidth="1"/>
-    <col min="12295" max="12295" width="29.6640625" customWidth="1"/>
-    <col min="12546" max="12546" width="23.5" customWidth="1"/>
-    <col min="12547" max="12547" width="40.5" customWidth="1"/>
-    <col min="12548" max="12548" width="9.33203125" customWidth="1"/>
-    <col min="12549" max="12549" width="46.1640625" customWidth="1"/>
-    <col min="12550" max="12550" width="55.5" customWidth="1"/>
-    <col min="12551" max="12551" width="29.6640625" customWidth="1"/>
-    <col min="12802" max="12802" width="23.5" customWidth="1"/>
-    <col min="12803" max="12803" width="40.5" customWidth="1"/>
-    <col min="12804" max="12804" width="9.33203125" customWidth="1"/>
-    <col min="12805" max="12805" width="46.1640625" customWidth="1"/>
-    <col min="12806" max="12806" width="55.5" customWidth="1"/>
-    <col min="12807" max="12807" width="29.6640625" customWidth="1"/>
-    <col min="13058" max="13058" width="23.5" customWidth="1"/>
-    <col min="13059" max="13059" width="40.5" customWidth="1"/>
-    <col min="13060" max="13060" width="9.33203125" customWidth="1"/>
-    <col min="13061" max="13061" width="46.1640625" customWidth="1"/>
-    <col min="13062" max="13062" width="55.5" customWidth="1"/>
-    <col min="13063" max="13063" width="29.6640625" customWidth="1"/>
-    <col min="13314" max="13314" width="23.5" customWidth="1"/>
-    <col min="13315" max="13315" width="40.5" customWidth="1"/>
-    <col min="13316" max="13316" width="9.33203125" customWidth="1"/>
-    <col min="13317" max="13317" width="46.1640625" customWidth="1"/>
-    <col min="13318" max="13318" width="55.5" customWidth="1"/>
-    <col min="13319" max="13319" width="29.6640625" customWidth="1"/>
-    <col min="13570" max="13570" width="23.5" customWidth="1"/>
-    <col min="13571" max="13571" width="40.5" customWidth="1"/>
-    <col min="13572" max="13572" width="9.33203125" customWidth="1"/>
-    <col min="13573" max="13573" width="46.1640625" customWidth="1"/>
-    <col min="13574" max="13574" width="55.5" customWidth="1"/>
-    <col min="13575" max="13575" width="29.6640625" customWidth="1"/>
-    <col min="13826" max="13826" width="23.5" customWidth="1"/>
-    <col min="13827" max="13827" width="40.5" customWidth="1"/>
-    <col min="13828" max="13828" width="9.33203125" customWidth="1"/>
-    <col min="13829" max="13829" width="46.1640625" customWidth="1"/>
-    <col min="13830" max="13830" width="55.5" customWidth="1"/>
-    <col min="13831" max="13831" width="29.6640625" customWidth="1"/>
-    <col min="14082" max="14082" width="23.5" customWidth="1"/>
-    <col min="14083" max="14083" width="40.5" customWidth="1"/>
-    <col min="14084" max="14084" width="9.33203125" customWidth="1"/>
-    <col min="14085" max="14085" width="46.1640625" customWidth="1"/>
-    <col min="14086" max="14086" width="55.5" customWidth="1"/>
-    <col min="14087" max="14087" width="29.6640625" customWidth="1"/>
-    <col min="14338" max="14338" width="23.5" customWidth="1"/>
-    <col min="14339" max="14339" width="40.5" customWidth="1"/>
-    <col min="14340" max="14340" width="9.33203125" customWidth="1"/>
-    <col min="14341" max="14341" width="46.1640625" customWidth="1"/>
-    <col min="14342" max="14342" width="55.5" customWidth="1"/>
-    <col min="14343" max="14343" width="29.6640625" customWidth="1"/>
-    <col min="14594" max="14594" width="23.5" customWidth="1"/>
-    <col min="14595" max="14595" width="40.5" customWidth="1"/>
-    <col min="14596" max="14596" width="9.33203125" customWidth="1"/>
-    <col min="14597" max="14597" width="46.1640625" customWidth="1"/>
-    <col min="14598" max="14598" width="55.5" customWidth="1"/>
-    <col min="14599" max="14599" width="29.6640625" customWidth="1"/>
-    <col min="14850" max="14850" width="23.5" customWidth="1"/>
-    <col min="14851" max="14851" width="40.5" customWidth="1"/>
-    <col min="14852" max="14852" width="9.33203125" customWidth="1"/>
-    <col min="14853" max="14853" width="46.1640625" customWidth="1"/>
-    <col min="14854" max="14854" width="55.5" customWidth="1"/>
-    <col min="14855" max="14855" width="29.6640625" customWidth="1"/>
-    <col min="15106" max="15106" width="23.5" customWidth="1"/>
-    <col min="15107" max="15107" width="40.5" customWidth="1"/>
-    <col min="15108" max="15108" width="9.33203125" customWidth="1"/>
-    <col min="15109" max="15109" width="46.1640625" customWidth="1"/>
-    <col min="15110" max="15110" width="55.5" customWidth="1"/>
-    <col min="15111" max="15111" width="29.6640625" customWidth="1"/>
-    <col min="15362" max="15362" width="23.5" customWidth="1"/>
-    <col min="15363" max="15363" width="40.5" customWidth="1"/>
-    <col min="15364" max="15364" width="9.33203125" customWidth="1"/>
-    <col min="15365" max="15365" width="46.1640625" customWidth="1"/>
-    <col min="15366" max="15366" width="55.5" customWidth="1"/>
-    <col min="15367" max="15367" width="29.6640625" customWidth="1"/>
-    <col min="15618" max="15618" width="23.5" customWidth="1"/>
-    <col min="15619" max="15619" width="40.5" customWidth="1"/>
-    <col min="15620" max="15620" width="9.33203125" customWidth="1"/>
-    <col min="15621" max="15621" width="46.1640625" customWidth="1"/>
-    <col min="15622" max="15622" width="55.5" customWidth="1"/>
-    <col min="15623" max="15623" width="29.6640625" customWidth="1"/>
-    <col min="15874" max="15874" width="23.5" customWidth="1"/>
-    <col min="15875" max="15875" width="40.5" customWidth="1"/>
-    <col min="15876" max="15876" width="9.33203125" customWidth="1"/>
-    <col min="15877" max="15877" width="46.1640625" customWidth="1"/>
-    <col min="15878" max="15878" width="55.5" customWidth="1"/>
-    <col min="15879" max="15879" width="29.6640625" customWidth="1"/>
-    <col min="16130" max="16130" width="23.5" customWidth="1"/>
-    <col min="16131" max="16131" width="40.5" customWidth="1"/>
-    <col min="16132" max="16132" width="9.33203125" customWidth="1"/>
-    <col min="16133" max="16133" width="46.1640625" customWidth="1"/>
-    <col min="16134" max="16134" width="55.5" customWidth="1"/>
-    <col min="16135" max="16135" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="76.7109375" customWidth="1"/>
+    <col min="6" max="6" width="50.42578125" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1"/>
+    <col min="258" max="258" width="23.42578125" customWidth="1"/>
+    <col min="259" max="259" width="40.42578125" customWidth="1"/>
+    <col min="260" max="260" width="9.28515625" customWidth="1"/>
+    <col min="261" max="261" width="46.140625" customWidth="1"/>
+    <col min="262" max="262" width="55.42578125" customWidth="1"/>
+    <col min="263" max="263" width="29.7109375" customWidth="1"/>
+    <col min="514" max="514" width="23.42578125" customWidth="1"/>
+    <col min="515" max="515" width="40.42578125" customWidth="1"/>
+    <col min="516" max="516" width="9.28515625" customWidth="1"/>
+    <col min="517" max="517" width="46.140625" customWidth="1"/>
+    <col min="518" max="518" width="55.42578125" customWidth="1"/>
+    <col min="519" max="519" width="29.7109375" customWidth="1"/>
+    <col min="770" max="770" width="23.42578125" customWidth="1"/>
+    <col min="771" max="771" width="40.42578125" customWidth="1"/>
+    <col min="772" max="772" width="9.28515625" customWidth="1"/>
+    <col min="773" max="773" width="46.140625" customWidth="1"/>
+    <col min="774" max="774" width="55.42578125" customWidth="1"/>
+    <col min="775" max="775" width="29.7109375" customWidth="1"/>
+    <col min="1026" max="1026" width="23.42578125" customWidth="1"/>
+    <col min="1027" max="1027" width="40.42578125" customWidth="1"/>
+    <col min="1028" max="1028" width="9.28515625" customWidth="1"/>
+    <col min="1029" max="1029" width="46.140625" customWidth="1"/>
+    <col min="1030" max="1030" width="55.42578125" customWidth="1"/>
+    <col min="1031" max="1031" width="29.7109375" customWidth="1"/>
+    <col min="1282" max="1282" width="23.42578125" customWidth="1"/>
+    <col min="1283" max="1283" width="40.42578125" customWidth="1"/>
+    <col min="1284" max="1284" width="9.28515625" customWidth="1"/>
+    <col min="1285" max="1285" width="46.140625" customWidth="1"/>
+    <col min="1286" max="1286" width="55.42578125" customWidth="1"/>
+    <col min="1287" max="1287" width="29.7109375" customWidth="1"/>
+    <col min="1538" max="1538" width="23.42578125" customWidth="1"/>
+    <col min="1539" max="1539" width="40.42578125" customWidth="1"/>
+    <col min="1540" max="1540" width="9.28515625" customWidth="1"/>
+    <col min="1541" max="1541" width="46.140625" customWidth="1"/>
+    <col min="1542" max="1542" width="55.42578125" customWidth="1"/>
+    <col min="1543" max="1543" width="29.7109375" customWidth="1"/>
+    <col min="1794" max="1794" width="23.42578125" customWidth="1"/>
+    <col min="1795" max="1795" width="40.42578125" customWidth="1"/>
+    <col min="1796" max="1796" width="9.28515625" customWidth="1"/>
+    <col min="1797" max="1797" width="46.140625" customWidth="1"/>
+    <col min="1798" max="1798" width="55.42578125" customWidth="1"/>
+    <col min="1799" max="1799" width="29.7109375" customWidth="1"/>
+    <col min="2050" max="2050" width="23.42578125" customWidth="1"/>
+    <col min="2051" max="2051" width="40.42578125" customWidth="1"/>
+    <col min="2052" max="2052" width="9.28515625" customWidth="1"/>
+    <col min="2053" max="2053" width="46.140625" customWidth="1"/>
+    <col min="2054" max="2054" width="55.42578125" customWidth="1"/>
+    <col min="2055" max="2055" width="29.7109375" customWidth="1"/>
+    <col min="2306" max="2306" width="23.42578125" customWidth="1"/>
+    <col min="2307" max="2307" width="40.42578125" customWidth="1"/>
+    <col min="2308" max="2308" width="9.28515625" customWidth="1"/>
+    <col min="2309" max="2309" width="46.140625" customWidth="1"/>
+    <col min="2310" max="2310" width="55.42578125" customWidth="1"/>
+    <col min="2311" max="2311" width="29.7109375" customWidth="1"/>
+    <col min="2562" max="2562" width="23.42578125" customWidth="1"/>
+    <col min="2563" max="2563" width="40.42578125" customWidth="1"/>
+    <col min="2564" max="2564" width="9.28515625" customWidth="1"/>
+    <col min="2565" max="2565" width="46.140625" customWidth="1"/>
+    <col min="2566" max="2566" width="55.42578125" customWidth="1"/>
+    <col min="2567" max="2567" width="29.7109375" customWidth="1"/>
+    <col min="2818" max="2818" width="23.42578125" customWidth="1"/>
+    <col min="2819" max="2819" width="40.42578125" customWidth="1"/>
+    <col min="2820" max="2820" width="9.28515625" customWidth="1"/>
+    <col min="2821" max="2821" width="46.140625" customWidth="1"/>
+    <col min="2822" max="2822" width="55.42578125" customWidth="1"/>
+    <col min="2823" max="2823" width="29.7109375" customWidth="1"/>
+    <col min="3074" max="3074" width="23.42578125" customWidth="1"/>
+    <col min="3075" max="3075" width="40.42578125" customWidth="1"/>
+    <col min="3076" max="3076" width="9.28515625" customWidth="1"/>
+    <col min="3077" max="3077" width="46.140625" customWidth="1"/>
+    <col min="3078" max="3078" width="55.42578125" customWidth="1"/>
+    <col min="3079" max="3079" width="29.7109375" customWidth="1"/>
+    <col min="3330" max="3330" width="23.42578125" customWidth="1"/>
+    <col min="3331" max="3331" width="40.42578125" customWidth="1"/>
+    <col min="3332" max="3332" width="9.28515625" customWidth="1"/>
+    <col min="3333" max="3333" width="46.140625" customWidth="1"/>
+    <col min="3334" max="3334" width="55.42578125" customWidth="1"/>
+    <col min="3335" max="3335" width="29.7109375" customWidth="1"/>
+    <col min="3586" max="3586" width="23.42578125" customWidth="1"/>
+    <col min="3587" max="3587" width="40.42578125" customWidth="1"/>
+    <col min="3588" max="3588" width="9.28515625" customWidth="1"/>
+    <col min="3589" max="3589" width="46.140625" customWidth="1"/>
+    <col min="3590" max="3590" width="55.42578125" customWidth="1"/>
+    <col min="3591" max="3591" width="29.7109375" customWidth="1"/>
+    <col min="3842" max="3842" width="23.42578125" customWidth="1"/>
+    <col min="3843" max="3843" width="40.42578125" customWidth="1"/>
+    <col min="3844" max="3844" width="9.28515625" customWidth="1"/>
+    <col min="3845" max="3845" width="46.140625" customWidth="1"/>
+    <col min="3846" max="3846" width="55.42578125" customWidth="1"/>
+    <col min="3847" max="3847" width="29.7109375" customWidth="1"/>
+    <col min="4098" max="4098" width="23.42578125" customWidth="1"/>
+    <col min="4099" max="4099" width="40.42578125" customWidth="1"/>
+    <col min="4100" max="4100" width="9.28515625" customWidth="1"/>
+    <col min="4101" max="4101" width="46.140625" customWidth="1"/>
+    <col min="4102" max="4102" width="55.42578125" customWidth="1"/>
+    <col min="4103" max="4103" width="29.7109375" customWidth="1"/>
+    <col min="4354" max="4354" width="23.42578125" customWidth="1"/>
+    <col min="4355" max="4355" width="40.42578125" customWidth="1"/>
+    <col min="4356" max="4356" width="9.28515625" customWidth="1"/>
+    <col min="4357" max="4357" width="46.140625" customWidth="1"/>
+    <col min="4358" max="4358" width="55.42578125" customWidth="1"/>
+    <col min="4359" max="4359" width="29.7109375" customWidth="1"/>
+    <col min="4610" max="4610" width="23.42578125" customWidth="1"/>
+    <col min="4611" max="4611" width="40.42578125" customWidth="1"/>
+    <col min="4612" max="4612" width="9.28515625" customWidth="1"/>
+    <col min="4613" max="4613" width="46.140625" customWidth="1"/>
+    <col min="4614" max="4614" width="55.42578125" customWidth="1"/>
+    <col min="4615" max="4615" width="29.7109375" customWidth="1"/>
+    <col min="4866" max="4866" width="23.42578125" customWidth="1"/>
+    <col min="4867" max="4867" width="40.42578125" customWidth="1"/>
+    <col min="4868" max="4868" width="9.28515625" customWidth="1"/>
+    <col min="4869" max="4869" width="46.140625" customWidth="1"/>
+    <col min="4870" max="4870" width="55.42578125" customWidth="1"/>
+    <col min="4871" max="4871" width="29.7109375" customWidth="1"/>
+    <col min="5122" max="5122" width="23.42578125" customWidth="1"/>
+    <col min="5123" max="5123" width="40.42578125" customWidth="1"/>
+    <col min="5124" max="5124" width="9.28515625" customWidth="1"/>
+    <col min="5125" max="5125" width="46.140625" customWidth="1"/>
+    <col min="5126" max="5126" width="55.42578125" customWidth="1"/>
+    <col min="5127" max="5127" width="29.7109375" customWidth="1"/>
+    <col min="5378" max="5378" width="23.42578125" customWidth="1"/>
+    <col min="5379" max="5379" width="40.42578125" customWidth="1"/>
+    <col min="5380" max="5380" width="9.28515625" customWidth="1"/>
+    <col min="5381" max="5381" width="46.140625" customWidth="1"/>
+    <col min="5382" max="5382" width="55.42578125" customWidth="1"/>
+    <col min="5383" max="5383" width="29.7109375" customWidth="1"/>
+    <col min="5634" max="5634" width="23.42578125" customWidth="1"/>
+    <col min="5635" max="5635" width="40.42578125" customWidth="1"/>
+    <col min="5636" max="5636" width="9.28515625" customWidth="1"/>
+    <col min="5637" max="5637" width="46.140625" customWidth="1"/>
+    <col min="5638" max="5638" width="55.42578125" customWidth="1"/>
+    <col min="5639" max="5639" width="29.7109375" customWidth="1"/>
+    <col min="5890" max="5890" width="23.42578125" customWidth="1"/>
+    <col min="5891" max="5891" width="40.42578125" customWidth="1"/>
+    <col min="5892" max="5892" width="9.28515625" customWidth="1"/>
+    <col min="5893" max="5893" width="46.140625" customWidth="1"/>
+    <col min="5894" max="5894" width="55.42578125" customWidth="1"/>
+    <col min="5895" max="5895" width="29.7109375" customWidth="1"/>
+    <col min="6146" max="6146" width="23.42578125" customWidth="1"/>
+    <col min="6147" max="6147" width="40.42578125" customWidth="1"/>
+    <col min="6148" max="6148" width="9.28515625" customWidth="1"/>
+    <col min="6149" max="6149" width="46.140625" customWidth="1"/>
+    <col min="6150" max="6150" width="55.42578125" customWidth="1"/>
+    <col min="6151" max="6151" width="29.7109375" customWidth="1"/>
+    <col min="6402" max="6402" width="23.42578125" customWidth="1"/>
+    <col min="6403" max="6403" width="40.42578125" customWidth="1"/>
+    <col min="6404" max="6404" width="9.28515625" customWidth="1"/>
+    <col min="6405" max="6405" width="46.140625" customWidth="1"/>
+    <col min="6406" max="6406" width="55.42578125" customWidth="1"/>
+    <col min="6407" max="6407" width="29.7109375" customWidth="1"/>
+    <col min="6658" max="6658" width="23.42578125" customWidth="1"/>
+    <col min="6659" max="6659" width="40.42578125" customWidth="1"/>
+    <col min="6660" max="6660" width="9.28515625" customWidth="1"/>
+    <col min="6661" max="6661" width="46.140625" customWidth="1"/>
+    <col min="6662" max="6662" width="55.42578125" customWidth="1"/>
+    <col min="6663" max="6663" width="29.7109375" customWidth="1"/>
+    <col min="6914" max="6914" width="23.42578125" customWidth="1"/>
+    <col min="6915" max="6915" width="40.42578125" customWidth="1"/>
+    <col min="6916" max="6916" width="9.28515625" customWidth="1"/>
+    <col min="6917" max="6917" width="46.140625" customWidth="1"/>
+    <col min="6918" max="6918" width="55.42578125" customWidth="1"/>
+    <col min="6919" max="6919" width="29.7109375" customWidth="1"/>
+    <col min="7170" max="7170" width="23.42578125" customWidth="1"/>
+    <col min="7171" max="7171" width="40.42578125" customWidth="1"/>
+    <col min="7172" max="7172" width="9.28515625" customWidth="1"/>
+    <col min="7173" max="7173" width="46.140625" customWidth="1"/>
+    <col min="7174" max="7174" width="55.42578125" customWidth="1"/>
+    <col min="7175" max="7175" width="29.7109375" customWidth="1"/>
+    <col min="7426" max="7426" width="23.42578125" customWidth="1"/>
+    <col min="7427" max="7427" width="40.42578125" customWidth="1"/>
+    <col min="7428" max="7428" width="9.28515625" customWidth="1"/>
+    <col min="7429" max="7429" width="46.140625" customWidth="1"/>
+    <col min="7430" max="7430" width="55.42578125" customWidth="1"/>
+    <col min="7431" max="7431" width="29.7109375" customWidth="1"/>
+    <col min="7682" max="7682" width="23.42578125" customWidth="1"/>
+    <col min="7683" max="7683" width="40.42578125" customWidth="1"/>
+    <col min="7684" max="7684" width="9.28515625" customWidth="1"/>
+    <col min="7685" max="7685" width="46.140625" customWidth="1"/>
+    <col min="7686" max="7686" width="55.42578125" customWidth="1"/>
+    <col min="7687" max="7687" width="29.7109375" customWidth="1"/>
+    <col min="7938" max="7938" width="23.42578125" customWidth="1"/>
+    <col min="7939" max="7939" width="40.42578125" customWidth="1"/>
+    <col min="7940" max="7940" width="9.28515625" customWidth="1"/>
+    <col min="7941" max="7941" width="46.140625" customWidth="1"/>
+    <col min="7942" max="7942" width="55.42578125" customWidth="1"/>
+    <col min="7943" max="7943" width="29.7109375" customWidth="1"/>
+    <col min="8194" max="8194" width="23.42578125" customWidth="1"/>
+    <col min="8195" max="8195" width="40.42578125" customWidth="1"/>
+    <col min="8196" max="8196" width="9.28515625" customWidth="1"/>
+    <col min="8197" max="8197" width="46.140625" customWidth="1"/>
+    <col min="8198" max="8198" width="55.42578125" customWidth="1"/>
+    <col min="8199" max="8199" width="29.7109375" customWidth="1"/>
+    <col min="8450" max="8450" width="23.42578125" customWidth="1"/>
+    <col min="8451" max="8451" width="40.42578125" customWidth="1"/>
+    <col min="8452" max="8452" width="9.28515625" customWidth="1"/>
+    <col min="8453" max="8453" width="46.140625" customWidth="1"/>
+    <col min="8454" max="8454" width="55.42578125" customWidth="1"/>
+    <col min="8455" max="8455" width="29.7109375" customWidth="1"/>
+    <col min="8706" max="8706" width="23.42578125" customWidth="1"/>
+    <col min="8707" max="8707" width="40.42578125" customWidth="1"/>
+    <col min="8708" max="8708" width="9.28515625" customWidth="1"/>
+    <col min="8709" max="8709" width="46.140625" customWidth="1"/>
+    <col min="8710" max="8710" width="55.42578125" customWidth="1"/>
+    <col min="8711" max="8711" width="29.7109375" customWidth="1"/>
+    <col min="8962" max="8962" width="23.42578125" customWidth="1"/>
+    <col min="8963" max="8963" width="40.42578125" customWidth="1"/>
+    <col min="8964" max="8964" width="9.28515625" customWidth="1"/>
+    <col min="8965" max="8965" width="46.140625" customWidth="1"/>
+    <col min="8966" max="8966" width="55.42578125" customWidth="1"/>
+    <col min="8967" max="8967" width="29.7109375" customWidth="1"/>
+    <col min="9218" max="9218" width="23.42578125" customWidth="1"/>
+    <col min="9219" max="9219" width="40.42578125" customWidth="1"/>
+    <col min="9220" max="9220" width="9.28515625" customWidth="1"/>
+    <col min="9221" max="9221" width="46.140625" customWidth="1"/>
+    <col min="9222" max="9222" width="55.42578125" customWidth="1"/>
+    <col min="9223" max="9223" width="29.7109375" customWidth="1"/>
+    <col min="9474" max="9474" width="23.42578125" customWidth="1"/>
+    <col min="9475" max="9475" width="40.42578125" customWidth="1"/>
+    <col min="9476" max="9476" width="9.28515625" customWidth="1"/>
+    <col min="9477" max="9477" width="46.140625" customWidth="1"/>
+    <col min="9478" max="9478" width="55.42578125" customWidth="1"/>
+    <col min="9479" max="9479" width="29.7109375" customWidth="1"/>
+    <col min="9730" max="9730" width="23.42578125" customWidth="1"/>
+    <col min="9731" max="9731" width="40.42578125" customWidth="1"/>
+    <col min="9732" max="9732" width="9.28515625" customWidth="1"/>
+    <col min="9733" max="9733" width="46.140625" customWidth="1"/>
+    <col min="9734" max="9734" width="55.42578125" customWidth="1"/>
+    <col min="9735" max="9735" width="29.7109375" customWidth="1"/>
+    <col min="9986" max="9986" width="23.42578125" customWidth="1"/>
+    <col min="9987" max="9987" width="40.42578125" customWidth="1"/>
+    <col min="9988" max="9988" width="9.28515625" customWidth="1"/>
+    <col min="9989" max="9989" width="46.140625" customWidth="1"/>
+    <col min="9990" max="9990" width="55.42578125" customWidth="1"/>
+    <col min="9991" max="9991" width="29.7109375" customWidth="1"/>
+    <col min="10242" max="10242" width="23.42578125" customWidth="1"/>
+    <col min="10243" max="10243" width="40.42578125" customWidth="1"/>
+    <col min="10244" max="10244" width="9.28515625" customWidth="1"/>
+    <col min="10245" max="10245" width="46.140625" customWidth="1"/>
+    <col min="10246" max="10246" width="55.42578125" customWidth="1"/>
+    <col min="10247" max="10247" width="29.7109375" customWidth="1"/>
+    <col min="10498" max="10498" width="23.42578125" customWidth="1"/>
+    <col min="10499" max="10499" width="40.42578125" customWidth="1"/>
+    <col min="10500" max="10500" width="9.28515625" customWidth="1"/>
+    <col min="10501" max="10501" width="46.140625" customWidth="1"/>
+    <col min="10502" max="10502" width="55.42578125" customWidth="1"/>
+    <col min="10503" max="10503" width="29.7109375" customWidth="1"/>
+    <col min="10754" max="10754" width="23.42578125" customWidth="1"/>
+    <col min="10755" max="10755" width="40.42578125" customWidth="1"/>
+    <col min="10756" max="10756" width="9.28515625" customWidth="1"/>
+    <col min="10757" max="10757" width="46.140625" customWidth="1"/>
+    <col min="10758" max="10758" width="55.42578125" customWidth="1"/>
+    <col min="10759" max="10759" width="29.7109375" customWidth="1"/>
+    <col min="11010" max="11010" width="23.42578125" customWidth="1"/>
+    <col min="11011" max="11011" width="40.42578125" customWidth="1"/>
+    <col min="11012" max="11012" width="9.28515625" customWidth="1"/>
+    <col min="11013" max="11013" width="46.140625" customWidth="1"/>
+    <col min="11014" max="11014" width="55.42578125" customWidth="1"/>
+    <col min="11015" max="11015" width="29.7109375" customWidth="1"/>
+    <col min="11266" max="11266" width="23.42578125" customWidth="1"/>
+    <col min="11267" max="11267" width="40.42578125" customWidth="1"/>
+    <col min="11268" max="11268" width="9.28515625" customWidth="1"/>
+    <col min="11269" max="11269" width="46.140625" customWidth="1"/>
+    <col min="11270" max="11270" width="55.42578125" customWidth="1"/>
+    <col min="11271" max="11271" width="29.7109375" customWidth="1"/>
+    <col min="11522" max="11522" width="23.42578125" customWidth="1"/>
+    <col min="11523" max="11523" width="40.42578125" customWidth="1"/>
+    <col min="11524" max="11524" width="9.28515625" customWidth="1"/>
+    <col min="11525" max="11525" width="46.140625" customWidth="1"/>
+    <col min="11526" max="11526" width="55.42578125" customWidth="1"/>
+    <col min="11527" max="11527" width="29.7109375" customWidth="1"/>
+    <col min="11778" max="11778" width="23.42578125" customWidth="1"/>
+    <col min="11779" max="11779" width="40.42578125" customWidth="1"/>
+    <col min="11780" max="11780" width="9.28515625" customWidth="1"/>
+    <col min="11781" max="11781" width="46.140625" customWidth="1"/>
+    <col min="11782" max="11782" width="55.42578125" customWidth="1"/>
+    <col min="11783" max="11783" width="29.7109375" customWidth="1"/>
+    <col min="12034" max="12034" width="23.42578125" customWidth="1"/>
+    <col min="12035" max="12035" width="40.42578125" customWidth="1"/>
+    <col min="12036" max="12036" width="9.28515625" customWidth="1"/>
+    <col min="12037" max="12037" width="46.140625" customWidth="1"/>
+    <col min="12038" max="12038" width="55.42578125" customWidth="1"/>
+    <col min="12039" max="12039" width="29.7109375" customWidth="1"/>
+    <col min="12290" max="12290" width="23.42578125" customWidth="1"/>
+    <col min="12291" max="12291" width="40.42578125" customWidth="1"/>
+    <col min="12292" max="12292" width="9.28515625" customWidth="1"/>
+    <col min="12293" max="12293" width="46.140625" customWidth="1"/>
+    <col min="12294" max="12294" width="55.42578125" customWidth="1"/>
+    <col min="12295" max="12295" width="29.7109375" customWidth="1"/>
+    <col min="12546" max="12546" width="23.42578125" customWidth="1"/>
+    <col min="12547" max="12547" width="40.42578125" customWidth="1"/>
+    <col min="12548" max="12548" width="9.28515625" customWidth="1"/>
+    <col min="12549" max="12549" width="46.140625" customWidth="1"/>
+    <col min="12550" max="12550" width="55.42578125" customWidth="1"/>
+    <col min="12551" max="12551" width="29.7109375" customWidth="1"/>
+    <col min="12802" max="12802" width="23.42578125" customWidth="1"/>
+    <col min="12803" max="12803" width="40.42578125" customWidth="1"/>
+    <col min="12804" max="12804" width="9.28515625" customWidth="1"/>
+    <col min="12805" max="12805" width="46.140625" customWidth="1"/>
+    <col min="12806" max="12806" width="55.42578125" customWidth="1"/>
+    <col min="12807" max="12807" width="29.7109375" customWidth="1"/>
+    <col min="13058" max="13058" width="23.42578125" customWidth="1"/>
+    <col min="13059" max="13059" width="40.42578125" customWidth="1"/>
+    <col min="13060" max="13060" width="9.28515625" customWidth="1"/>
+    <col min="13061" max="13061" width="46.140625" customWidth="1"/>
+    <col min="13062" max="13062" width="55.42578125" customWidth="1"/>
+    <col min="13063" max="13063" width="29.7109375" customWidth="1"/>
+    <col min="13314" max="13314" width="23.42578125" customWidth="1"/>
+    <col min="13315" max="13315" width="40.42578125" customWidth="1"/>
+    <col min="13316" max="13316" width="9.28515625" customWidth="1"/>
+    <col min="13317" max="13317" width="46.140625" customWidth="1"/>
+    <col min="13318" max="13318" width="55.42578125" customWidth="1"/>
+    <col min="13319" max="13319" width="29.7109375" customWidth="1"/>
+    <col min="13570" max="13570" width="23.42578125" customWidth="1"/>
+    <col min="13571" max="13571" width="40.42578125" customWidth="1"/>
+    <col min="13572" max="13572" width="9.28515625" customWidth="1"/>
+    <col min="13573" max="13573" width="46.140625" customWidth="1"/>
+    <col min="13574" max="13574" width="55.42578125" customWidth="1"/>
+    <col min="13575" max="13575" width="29.7109375" customWidth="1"/>
+    <col min="13826" max="13826" width="23.42578125" customWidth="1"/>
+    <col min="13827" max="13827" width="40.42578125" customWidth="1"/>
+    <col min="13828" max="13828" width="9.28515625" customWidth="1"/>
+    <col min="13829" max="13829" width="46.140625" customWidth="1"/>
+    <col min="13830" max="13830" width="55.42578125" customWidth="1"/>
+    <col min="13831" max="13831" width="29.7109375" customWidth="1"/>
+    <col min="14082" max="14082" width="23.42578125" customWidth="1"/>
+    <col min="14083" max="14083" width="40.42578125" customWidth="1"/>
+    <col min="14084" max="14084" width="9.28515625" customWidth="1"/>
+    <col min="14085" max="14085" width="46.140625" customWidth="1"/>
+    <col min="14086" max="14086" width="55.42578125" customWidth="1"/>
+    <col min="14087" max="14087" width="29.7109375" customWidth="1"/>
+    <col min="14338" max="14338" width="23.42578125" customWidth="1"/>
+    <col min="14339" max="14339" width="40.42578125" customWidth="1"/>
+    <col min="14340" max="14340" width="9.28515625" customWidth="1"/>
+    <col min="14341" max="14341" width="46.140625" customWidth="1"/>
+    <col min="14342" max="14342" width="55.42578125" customWidth="1"/>
+    <col min="14343" max="14343" width="29.7109375" customWidth="1"/>
+    <col min="14594" max="14594" width="23.42578125" customWidth="1"/>
+    <col min="14595" max="14595" width="40.42578125" customWidth="1"/>
+    <col min="14596" max="14596" width="9.28515625" customWidth="1"/>
+    <col min="14597" max="14597" width="46.140625" customWidth="1"/>
+    <col min="14598" max="14598" width="55.42578125" customWidth="1"/>
+    <col min="14599" max="14599" width="29.7109375" customWidth="1"/>
+    <col min="14850" max="14850" width="23.42578125" customWidth="1"/>
+    <col min="14851" max="14851" width="40.42578125" customWidth="1"/>
+    <col min="14852" max="14852" width="9.28515625" customWidth="1"/>
+    <col min="14853" max="14853" width="46.140625" customWidth="1"/>
+    <col min="14854" max="14854" width="55.42578125" customWidth="1"/>
+    <col min="14855" max="14855" width="29.7109375" customWidth="1"/>
+    <col min="15106" max="15106" width="23.42578125" customWidth="1"/>
+    <col min="15107" max="15107" width="40.42578125" customWidth="1"/>
+    <col min="15108" max="15108" width="9.28515625" customWidth="1"/>
+    <col min="15109" max="15109" width="46.140625" customWidth="1"/>
+    <col min="15110" max="15110" width="55.42578125" customWidth="1"/>
+    <col min="15111" max="15111" width="29.7109375" customWidth="1"/>
+    <col min="15362" max="15362" width="23.42578125" customWidth="1"/>
+    <col min="15363" max="15363" width="40.42578125" customWidth="1"/>
+    <col min="15364" max="15364" width="9.28515625" customWidth="1"/>
+    <col min="15365" max="15365" width="46.140625" customWidth="1"/>
+    <col min="15366" max="15366" width="55.42578125" customWidth="1"/>
+    <col min="15367" max="15367" width="29.7109375" customWidth="1"/>
+    <col min="15618" max="15618" width="23.42578125" customWidth="1"/>
+    <col min="15619" max="15619" width="40.42578125" customWidth="1"/>
+    <col min="15620" max="15620" width="9.28515625" customWidth="1"/>
+    <col min="15621" max="15621" width="46.140625" customWidth="1"/>
+    <col min="15622" max="15622" width="55.42578125" customWidth="1"/>
+    <col min="15623" max="15623" width="29.7109375" customWidth="1"/>
+    <col min="15874" max="15874" width="23.42578125" customWidth="1"/>
+    <col min="15875" max="15875" width="40.42578125" customWidth="1"/>
+    <col min="15876" max="15876" width="9.28515625" customWidth="1"/>
+    <col min="15877" max="15877" width="46.140625" customWidth="1"/>
+    <col min="15878" max="15878" width="55.42578125" customWidth="1"/>
+    <col min="15879" max="15879" width="29.7109375" customWidth="1"/>
+    <col min="16130" max="16130" width="23.42578125" customWidth="1"/>
+    <col min="16131" max="16131" width="40.42578125" customWidth="1"/>
+    <col min="16132" max="16132" width="9.28515625" customWidth="1"/>
+    <col min="16133" max="16133" width="46.140625" customWidth="1"/>
+    <col min="16134" max="16134" width="55.42578125" customWidth="1"/>
+    <col min="16135" max="16135" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" s="30" customFormat="1" ht="14.25">
+    <row r="4" spans="2:5" s="30" customFormat="1" ht="13.2">
       <c r="B4" s="36" t="s">
         <v>139</v>
       </c>
@@ -8430,7 +8425,7 @@
     <row r="9" spans="2:5">
       <c r="B9" s="30"/>
     </row>
-    <row r="11" spans="2:5" ht="14.25" thickBot="1">
+    <row r="11" spans="2:5" ht="11.4" thickBot="1">
       <c r="B11" t="s">
         <v>218</v>
       </c>
@@ -8449,8 +8444,8 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="50.45" customHeight="1">
-      <c r="B13" s="245" t="s">
+    <row r="13" spans="2:5" ht="50.4" customHeight="1">
+      <c r="B13" s="264" t="s">
         <v>163</v>
       </c>
       <c r="C13" s="74" t="s">
@@ -8464,26 +8459,26 @@
       </c>
     </row>
     <row r="14" spans="2:5" s="30" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B14" s="246"/>
+      <c r="B14" s="265"/>
       <c r="C14" s="129" t="s">
         <v>238</v>
       </c>
-      <c r="D14" s="243" t="s">
+      <c r="D14" s="262" t="s">
         <v>151</v>
       </c>
-      <c r="E14" s="243" t="s">
+      <c r="E14" s="262" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="2:5" s="30" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
-      <c r="B15" s="246"/>
+    <row r="15" spans="2:5" s="30" customFormat="1" ht="16.95" customHeight="1" thickBot="1">
+      <c r="B15" s="265"/>
       <c r="C15" s="112" t="s">
         <v>187</v>
       </c>
-      <c r="D15" s="243"/>
-      <c r="E15" s="244"/>
+      <c r="D15" s="262"/>
+      <c r="E15" s="263"/>
     </row>
-    <row r="16" spans="2:5" s="30" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="16" spans="2:5" s="30" customFormat="1" ht="16.95" customHeight="1">
       <c r="B16" s="109" t="s">
         <v>154</v>
       </c>
@@ -8493,30 +8488,30 @@
       <c r="D16" s="109"/>
       <c r="E16" s="105"/>
     </row>
-    <row r="17" spans="2:6" s="30" customFormat="1" ht="54.95" customHeight="1">
+    <row r="17" spans="2:6" s="30" customFormat="1" ht="54.9" customHeight="1">
       <c r="B17" s="106" t="s">
         <v>215</v>
       </c>
-      <c r="C17" s="252" t="s">
+      <c r="C17" s="269" t="s">
         <v>219</v>
       </c>
-      <c r="D17" s="252"/>
+      <c r="D17" s="269"/>
       <c r="E17" s="108"/>
     </row>
     <row r="18" spans="2:6" s="30" customFormat="1" ht="40.5" customHeight="1" thickBot="1">
       <c r="B18" s="107" t="s">
         <v>216</v>
       </c>
-      <c r="C18" s="251" t="s">
+      <c r="C18" s="268" t="s">
         <v>217</v>
       </c>
-      <c r="D18" s="251"/>
+      <c r="D18" s="268"/>
       <c r="E18" s="108"/>
     </row>
-    <row r="19" spans="2:6" ht="14.25" thickTop="1">
+    <row r="19" spans="2:6" ht="11.4" thickTop="1">
       <c r="B19" s="49"/>
     </row>
-    <row r="21" spans="2:6" ht="14.25" thickBot="1">
+    <row r="21" spans="2:6" ht="11.4" thickBot="1">
       <c r="B21" s="7" t="s">
         <v>106</v>
       </c>
@@ -8592,7 +8587,7 @@
       </c>
       <c r="F26" s="25"/>
     </row>
-    <row r="27" spans="2:6" ht="27">
+    <row r="27" spans="2:6" ht="21.6">
       <c r="B27" s="25"/>
       <c r="C27" s="8" t="s">
         <v>228</v>
@@ -8693,7 +8688,7 @@
       </c>
       <c r="F35" s="26"/>
     </row>
-    <row r="36" spans="2:6" ht="27">
+    <row r="36" spans="2:6" ht="21.6">
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
       <c r="D36" s="26" t="s">
@@ -8715,7 +8710,7 @@
       </c>
       <c r="F37" s="26"/>
     </row>
-    <row r="38" spans="2:6" ht="14.25" thickBot="1">
+    <row r="38" spans="2:6" ht="11.4" thickBot="1">
       <c r="B38" s="39"/>
       <c r="C38" s="42"/>
       <c r="D38" s="39" t="s">
@@ -8726,17 +8721,17 @@
       </c>
       <c r="F38" s="39"/>
     </row>
-    <row r="39" spans="2:6" ht="27.75" thickTop="1">
-      <c r="B39" s="247" t="s">
+    <row r="39" spans="2:6" ht="22.2" thickTop="1">
+      <c r="B39" s="266" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="249" t="s">
+      <c r="D39" s="267" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="249" t="s">
+      <c r="E39" s="267" t="s">
         <v>49</v>
       </c>
       <c r="F39" s="10" t="s">
@@ -8744,50 +8739,50 @@
       </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="248"/>
+      <c r="B40" s="258"/>
       <c r="C40" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="250"/>
-      <c r="E40" s="250"/>
+      <c r="D40" s="253"/>
+      <c r="E40" s="253"/>
       <c r="F40" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="248"/>
+      <c r="B41" s="258"/>
       <c r="C41" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="250"/>
-      <c r="E41" s="250"/>
+      <c r="D41" s="253"/>
+      <c r="E41" s="253"/>
       <c r="F41" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="248"/>
+      <c r="B42" s="258"/>
       <c r="C42" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D42" s="250"/>
-      <c r="E42" s="250"/>
+      <c r="D42" s="253"/>
+      <c r="E42" s="253"/>
       <c r="F42" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="2:6" ht="27">
-      <c r="B43" s="248"/>
+    <row r="43" spans="2:6" ht="21.6">
+      <c r="B43" s="258"/>
       <c r="C43" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="D43" s="250"/>
-      <c r="E43" s="250"/>
+      <c r="D43" s="253"/>
+      <c r="E43" s="253"/>
       <c r="F43" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="40.5">
+    <row r="44" spans="2:6" ht="32.4">
       <c r="B44" s="25"/>
       <c r="C44" s="136" t="s">
         <v>229</v>
@@ -8812,24 +8807,24 @@
       <c r="F45" s="26"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="256"/>
-      <c r="C46" s="256"/>
-      <c r="D46" s="250" t="s">
+      <c r="B46" s="252"/>
+      <c r="C46" s="252"/>
+      <c r="D46" s="253" t="s">
         <v>60</v>
       </c>
-      <c r="E46" s="250" t="s">
+      <c r="E46" s="253" t="s">
         <v>61</v>
       </c>
-      <c r="F46" s="250"/>
+      <c r="F46" s="253"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="256"/>
-      <c r="C47" s="256"/>
-      <c r="D47" s="250"/>
-      <c r="E47" s="250"/>
-      <c r="F47" s="250"/>
+      <c r="B47" s="252"/>
+      <c r="C47" s="252"/>
+      <c r="D47" s="253"/>
+      <c r="E47" s="253"/>
+      <c r="F47" s="253"/>
     </row>
-    <row r="48" spans="2:6" ht="14.25" thickBot="1">
+    <row r="48" spans="2:6" ht="11.4" thickBot="1">
       <c r="B48" s="39"/>
       <c r="C48" s="39"/>
       <c r="D48" s="40" t="s">
@@ -8840,17 +8835,17 @@
       </c>
       <c r="F48" s="40"/>
     </row>
-    <row r="49" spans="2:6" ht="14.25" thickTop="1">
-      <c r="B49" s="255" t="s">
+    <row r="49" spans="2:6" ht="11.4" thickTop="1">
+      <c r="B49" s="257" t="s">
         <v>0</v>
       </c>
       <c r="C49" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D49" s="257" t="s">
+      <c r="D49" s="259" t="s">
         <v>65</v>
       </c>
-      <c r="E49" s="257" t="s">
+      <c r="E49" s="259" t="s">
         <v>66</v>
       </c>
       <c r="F49" s="25" t="s">
@@ -8858,33 +8853,33 @@
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="248"/>
+      <c r="B50" s="258"/>
       <c r="C50" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="256"/>
-      <c r="E50" s="256"/>
+      <c r="D50" s="252"/>
+      <c r="E50" s="252"/>
       <c r="F50" s="25"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="248"/>
+      <c r="B51" s="258"/>
       <c r="C51" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="256"/>
-      <c r="E51" s="256"/>
+      <c r="D51" s="252"/>
+      <c r="E51" s="252"/>
       <c r="F51" s="25"/>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="248"/>
+      <c r="B52" s="258"/>
       <c r="C52" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D52" s="256"/>
-      <c r="E52" s="256"/>
+      <c r="D52" s="252"/>
+      <c r="E52" s="252"/>
       <c r="F52" s="25"/>
     </row>
-    <row r="53" spans="2:6" ht="27">
+    <row r="53" spans="2:6" ht="21.6">
       <c r="B53" s="25"/>
       <c r="C53" s="8" t="s">
         <v>228</v>
@@ -8897,7 +8892,7 @@
       </c>
       <c r="F53" s="26"/>
     </row>
-    <row r="54" spans="2:6" ht="40.5">
+    <row r="54" spans="2:6" ht="32.4">
       <c r="B54" s="25"/>
       <c r="C54" s="132" t="s">
         <v>229</v>
@@ -8921,7 +8916,7 @@
       </c>
       <c r="F55" s="25"/>
     </row>
-    <row r="56" spans="2:6" ht="14.25" thickBot="1">
+    <row r="56" spans="2:6" ht="11.4" thickBot="1">
       <c r="B56" s="39"/>
       <c r="C56" s="42"/>
       <c r="D56" s="39" t="s">
@@ -8932,49 +8927,49 @@
       </c>
       <c r="F56" s="39"/>
     </row>
-    <row r="57" spans="2:6" ht="14.25" thickTop="1">
-      <c r="B57" s="258" t="s">
+    <row r="57" spans="2:6" ht="11.4" thickTop="1">
+      <c r="B57" s="260" t="s">
         <v>76</v>
       </c>
       <c r="C57" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="260" t="s">
+      <c r="D57" s="261" t="s">
         <v>77</v>
       </c>
-      <c r="E57" s="260" t="s">
+      <c r="E57" s="261" t="s">
         <v>76</v>
       </c>
-      <c r="F57" s="253"/>
+      <c r="F57" s="256"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="259"/>
+      <c r="B58" s="251"/>
       <c r="C58" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="250"/>
-      <c r="E58" s="250"/>
-      <c r="F58" s="254"/>
+      <c r="D58" s="253"/>
+      <c r="E58" s="253"/>
+      <c r="F58" s="241"/>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="259"/>
+      <c r="B59" s="251"/>
       <c r="C59" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="250"/>
-      <c r="E59" s="250"/>
-      <c r="F59" s="254"/>
+      <c r="D59" s="253"/>
+      <c r="E59" s="253"/>
+      <c r="F59" s="241"/>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="259"/>
+      <c r="B60" s="251"/>
       <c r="C60" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D60" s="250"/>
-      <c r="E60" s="250"/>
-      <c r="F60" s="254"/>
+      <c r="D60" s="253"/>
+      <c r="E60" s="253"/>
+      <c r="F60" s="241"/>
     </row>
-    <row r="61" spans="2:6" ht="27">
+    <row r="61" spans="2:6" ht="21.6">
       <c r="B61" s="24"/>
       <c r="C61" s="8" t="s">
         <v>228</v>
@@ -8988,22 +8983,22 @@
       <c r="F61" s="23"/>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="259"/>
-      <c r="C62" s="256"/>
-      <c r="D62" s="250" t="s">
+      <c r="B62" s="251"/>
+      <c r="C62" s="252"/>
+      <c r="D62" s="253" t="s">
         <v>80</v>
       </c>
-      <c r="E62" s="250" t="s">
+      <c r="E62" s="253" t="s">
         <v>81</v>
       </c>
-      <c r="F62" s="254"/>
+      <c r="F62" s="241"/>
     </row>
     <row r="63" spans="2:6">
-      <c r="B63" s="259"/>
-      <c r="C63" s="256"/>
-      <c r="D63" s="250"/>
-      <c r="E63" s="250"/>
-      <c r="F63" s="254"/>
+      <c r="B63" s="251"/>
+      <c r="C63" s="252"/>
+      <c r="D63" s="253"/>
+      <c r="E63" s="253"/>
+      <c r="F63" s="241"/>
     </row>
     <row r="64" spans="2:6">
       <c r="B64" s="24"/>
@@ -9060,7 +9055,7 @@
       </c>
       <c r="F68" s="23"/>
     </row>
-    <row r="69" spans="2:6" ht="27">
+    <row r="69" spans="2:6" ht="21.6">
       <c r="B69" s="24"/>
       <c r="C69" s="25"/>
       <c r="D69" s="26" t="s">
@@ -9071,7 +9066,7 @@
       </c>
       <c r="F69" s="23"/>
     </row>
-    <row r="70" spans="2:6">
+    <row r="70" spans="2:6" ht="21.6">
       <c r="B70" s="24"/>
       <c r="C70" s="25"/>
       <c r="D70" s="26" t="s">
@@ -9126,7 +9121,7 @@
       </c>
       <c r="F74" s="23"/>
     </row>
-    <row r="75" spans="2:6" ht="14.25" thickBot="1">
+    <row r="75" spans="2:6" ht="11.4" thickBot="1">
       <c r="B75" s="38"/>
       <c r="C75" s="39"/>
       <c r="D75" s="40" t="s">
@@ -9137,51 +9132,51 @@
       </c>
       <c r="F75" s="41"/>
     </row>
-    <row r="76" spans="2:6" ht="14.25" thickTop="1"/>
+    <row r="76" spans="2:6" ht="11.4" thickTop="1"/>
     <row r="78" spans="2:6">
-      <c r="B78" s="267" t="s">
+      <c r="B78" s="248" t="s">
         <v>147</v>
       </c>
-      <c r="C78" s="268"/>
-      <c r="D78" s="268"/>
-      <c r="E78" s="268"/>
+      <c r="C78" s="249"/>
+      <c r="D78" s="249"/>
+      <c r="E78" s="249"/>
     </row>
     <row r="79" spans="2:6" s="30" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="B79" s="265" t="s">
+      <c r="B79" s="246" t="s">
         <v>282</v>
       </c>
-      <c r="C79" s="265"/>
-      <c r="D79" s="265"/>
+      <c r="C79" s="246"/>
+      <c r="D79" s="246"/>
       <c r="E79" s="28"/>
     </row>
     <row r="80" spans="2:6">
       <c r="B80" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C80" s="264" t="s">
+      <c r="C80" s="245" t="s">
         <v>138</v>
       </c>
-      <c r="D80" s="264"/>
+      <c r="D80" s="245"/>
     </row>
     <row r="81" spans="2:4" ht="57" customHeight="1">
       <c r="B81" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="C81" s="266" t="s">
+      <c r="C81" s="247" t="s">
         <v>143</v>
       </c>
-      <c r="D81" s="266"/>
+      <c r="D81" s="247"/>
     </row>
     <row r="82" spans="2:4" ht="72" customHeight="1" thickBot="1">
       <c r="B82" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="C82" s="263" t="s">
+      <c r="C82" s="244" t="s">
         <v>144</v>
       </c>
-      <c r="D82" s="263"/>
+      <c r="D82" s="244"/>
     </row>
-    <row r="83" spans="2:4" ht="14.25" thickTop="1"/>
+    <row r="83" spans="2:4" ht="11.4" thickTop="1"/>
     <row r="84" spans="2:4">
       <c r="B84" s="35"/>
       <c r="C84" s="31"/>
@@ -9194,27 +9189,27 @@
       <c r="C85" s="73"/>
     </row>
     <row r="86" spans="2:4" ht="42" customHeight="1" thickBot="1">
-      <c r="B86" s="271" t="s">
+      <c r="B86" s="255" t="s">
         <v>186</v>
       </c>
-      <c r="C86" s="271"/>
-      <c r="D86" s="271"/>
+      <c r="C86" s="255"/>
+      <c r="D86" s="255"/>
     </row>
-    <row r="87" spans="2:4" ht="14.25" thickBot="1">
-      <c r="B87" s="261" t="s">
+    <row r="87" spans="2:4" ht="11.4" thickBot="1">
+      <c r="B87" s="242" t="s">
         <v>148</v>
       </c>
-      <c r="C87" s="269" t="s">
+      <c r="C87" s="250" t="s">
         <v>224</v>
       </c>
-      <c r="D87" s="270" t="s">
+      <c r="D87" s="254" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="88" spans="2:4">
-      <c r="B88" s="262"/>
-      <c r="C88" s="269"/>
-      <c r="D88" s="270"/>
+      <c r="B88" s="243"/>
+      <c r="C88" s="250"/>
+      <c r="D88" s="254"/>
     </row>
     <row r="89" spans="2:4">
       <c r="B89" s="19" t="s">
@@ -9436,7 +9431,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="109" spans="2:4" ht="14.25" thickBot="1">
+    <row r="109" spans="2:4" ht="11.4" thickBot="1">
       <c r="B109" s="21" t="s">
         <v>114</v>
       </c>
@@ -9447,12 +9442,32 @@
         <v>292</v>
       </c>
     </row>
-    <row r="110" spans="2:4" ht="14.25" thickTop="1"/>
+    <row r="110" spans="2:4" ht="11.4" thickTop="1"/>
   </sheetData>
   <sortState ref="B85:C105">
     <sortCondition ref="B85:B105"/>
   </sortState>
   <mergeCells count="34">
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="E57:E60"/>
     <mergeCell ref="F62:F63"/>
     <mergeCell ref="B87:B88"/>
     <mergeCell ref="C82:D82"/>
@@ -9467,26 +9482,6 @@
     <mergeCell ref="E62:E63"/>
     <mergeCell ref="D87:D88"/>
     <mergeCell ref="B86:D86"/>
-    <mergeCell ref="F57:F60"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" location="Definitioner!B21" display="Riskfaktorer"/>
@@ -9506,10 +9501,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="30"/>
+    <col min="1" max="1" width="10.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19.5" customHeight="1">
@@ -9571,11 +9566,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="1" width="43.5" customWidth="1"/>
-    <col min="2" max="7" width="8.5" style="2" customWidth="1"/>
-    <col min="8" max="11" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="43.42578125" customWidth="1"/>
+    <col min="2" max="7" width="8.42578125" style="2" customWidth="1"/>
+    <col min="8" max="11" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="20.100000000000001" customHeight="1">
@@ -9583,16 +9578,16 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="29.25" customHeight="1">
-      <c r="A2" s="272" t="s">
+    <row r="2" spans="1:22" ht="33" customHeight="1">
+      <c r="A2" s="270" t="s">
         <v>278</v>
       </c>
-      <c r="B2" s="272"/>
-      <c r="C2" s="272"/>
-      <c r="D2" s="272"/>
-      <c r="E2" s="272"/>
-      <c r="F2" s="272"/>
-      <c r="G2" s="272"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="76"/>
@@ -9612,7 +9607,7 @@
       <c r="F4" s="51"/>
       <c r="G4" s="51"/>
     </row>
-    <row r="5" spans="1:22" ht="14.25" thickBot="1">
+    <row r="5" spans="1:22" ht="11.4" thickBot="1">
       <c r="A5" s="61"/>
       <c r="B5" s="61"/>
       <c r="C5" s="61"/>
@@ -9623,29 +9618,29 @@
     </row>
     <row r="6" spans="1:22" ht="21.75" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="273" t="s">
+      <c r="B6" s="271" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="274"/>
-      <c r="D6" s="274"/>
-      <c r="E6" s="274"/>
-      <c r="F6" s="274"/>
-      <c r="G6" s="275"/>
+      <c r="C6" s="272"/>
+      <c r="D6" s="272"/>
+      <c r="E6" s="272"/>
+      <c r="F6" s="272"/>
+      <c r="G6" s="273"/>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="58"/>
-      <c r="B7" s="281" t="s">
+      <c r="B7" s="279" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="281"/>
-      <c r="D7" s="279" t="s">
+      <c r="C7" s="279"/>
+      <c r="D7" s="277" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="280"/>
-      <c r="F7" s="278" t="s">
+      <c r="E7" s="278"/>
+      <c r="F7" s="276" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="278"/>
+      <c r="G7" s="276"/>
       <c r="V7" t="s">
         <v>110</v>
       </c>
@@ -10311,7 +10306,7 @@
         <v>7.5592994999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="14.25" thickBot="1">
+    <row r="37" spans="1:7" ht="11.4" thickBot="1">
       <c r="A37" s="21" t="s">
         <v>146</v>
       </c>
@@ -10335,39 +10330,39 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="24" customHeight="1" thickTop="1">
-      <c r="A38" s="276" t="s">
+      <c r="A38" s="274" t="s">
         <v>182</v>
       </c>
-      <c r="B38" s="276"/>
-      <c r="C38" s="276"/>
-      <c r="D38" s="276"/>
-      <c r="E38" s="276"/>
-      <c r="F38" s="276"/>
-      <c r="G38" s="276"/>
+      <c r="B38" s="274"/>
+      <c r="C38" s="274"/>
+      <c r="D38" s="274"/>
+      <c r="E38" s="274"/>
+      <c r="F38" s="274"/>
+      <c r="G38" s="274"/>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="282" t="s">
+    <row r="39" spans="1:7" ht="11.4">
+      <c r="A39" s="280" t="s">
         <v>177</v>
       </c>
-      <c r="B39" s="282"/>
-      <c r="C39" s="282"/>
-      <c r="D39" s="282"/>
-      <c r="E39" s="282"/>
-      <c r="F39" s="282"/>
-      <c r="G39" s="282"/>
+      <c r="B39" s="280"/>
+      <c r="C39" s="280"/>
+      <c r="D39" s="280"/>
+      <c r="E39" s="280"/>
+      <c r="F39" s="280"/>
+      <c r="G39" s="280"/>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="277" t="s">
+    <row r="40" spans="1:7" ht="11.4">
+      <c r="A40" s="275" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="277"/>
-      <c r="C40" s="277"/>
-      <c r="D40" s="277"/>
-      <c r="E40" s="277"/>
-      <c r="F40" s="277"/>
-      <c r="G40" s="277"/>
+      <c r="B40" s="275"/>
+      <c r="C40" s="275"/>
+      <c r="D40" s="275"/>
+      <c r="E40" s="275"/>
+      <c r="F40" s="275"/>
+      <c r="G40" s="275"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" ht="11.4">
       <c r="A41" s="47"/>
     </row>
   </sheetData>
@@ -10397,10 +10392,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" customWidth="1"/>
-    <col min="4" max="7" width="7.83203125" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" customWidth="1"/>
+    <col min="4" max="7" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" customHeight="1">
@@ -10417,47 +10412,47 @@
       <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A2" s="283" t="s">
+      <c r="A2" s="281" t="s">
         <v>239</v>
       </c>
-      <c r="B2" s="283"/>
-      <c r="C2" s="283"/>
-      <c r="D2" s="283"/>
-      <c r="E2" s="283"/>
-      <c r="F2" s="283"/>
-      <c r="G2" s="283"/>
+      <c r="B2" s="281"/>
+      <c r="C2" s="281"/>
+      <c r="D2" s="281"/>
+      <c r="E2" s="281"/>
+      <c r="F2" s="281"/>
+      <c r="G2" s="281"/>
       <c r="H2" s="76"/>
       <c r="I2" s="76"/>
     </row>
-    <row r="4" spans="1:9" ht="14.25" thickBot="1">
+    <row r="4" spans="1:9" ht="11.4" thickBot="1">
       <c r="A4" s="104"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="285" t="s">
+      <c r="B5" s="283" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="286"/>
-      <c r="D5" s="285" t="s">
+      <c r="C5" s="284"/>
+      <c r="D5" s="283" t="s">
         <v>214</v>
       </c>
-      <c r="E5" s="286"/>
-      <c r="F5" s="285" t="s">
+      <c r="E5" s="284"/>
+      <c r="F5" s="283" t="s">
         <v>205</v>
       </c>
-      <c r="G5" s="286"/>
+      <c r="G5" s="284"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="287"/>
-      <c r="B6" s="280"/>
-      <c r="C6" s="279"/>
-      <c r="D6" s="280"/>
-      <c r="E6" s="279"/>
-      <c r="F6" s="280"/>
-      <c r="G6" s="279"/>
+      <c r="A6" s="285"/>
+      <c r="B6" s="278"/>
+      <c r="C6" s="277"/>
+      <c r="D6" s="278"/>
+      <c r="E6" s="277"/>
+      <c r="F6" s="278"/>
+      <c r="G6" s="277"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="288"/>
+      <c r="A7" s="286"/>
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
@@ -10983,7 +10978,7 @@
         <v>13.256484149855901</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="14.25" thickBot="1">
+    <row r="30" spans="1:7" ht="11.4" thickBot="1">
       <c r="A30" s="145" t="s">
         <v>142</v>
       </c>
@@ -11006,21 +11001,21 @@
         <v>14.720812182741099</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" ht="11.4">
       <c r="A31" s="144" t="s">
         <v>192</v>
       </c>
       <c r="B31" s="144"/>
       <c r="C31" s="144"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" ht="11.4">
       <c r="A32" s="48" t="s">
         <v>180</v>
       </c>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" ht="11.4">
       <c r="A33" s="48" t="s">
         <v>208</v>
       </c>
@@ -11028,13 +11023,13 @@
       <c r="C33" s="80"/>
     </row>
     <row r="34" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A34" s="284"/>
-      <c r="B34" s="284"/>
-      <c r="C34" s="284"/>
-      <c r="D34" s="284"/>
-      <c r="E34" s="284"/>
-      <c r="F34" s="284"/>
-      <c r="G34" s="284"/>
+      <c r="A34" s="282"/>
+      <c r="B34" s="282"/>
+      <c r="C34" s="282"/>
+      <c r="D34" s="282"/>
+      <c r="E34" s="282"/>
+      <c r="F34" s="282"/>
+      <c r="G34" s="282"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -11054,39 +11049,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DG37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="1" width="40.5" style="30" customWidth="1"/>
-    <col min="2" max="9" width="7.5" style="30" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="30" customWidth="1"/>
-    <col min="11" max="11" width="7.5" style="30" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" style="30" customWidth="1"/>
-    <col min="13" max="13" width="7.5" style="30" customWidth="1"/>
-    <col min="14" max="14" width="11.1640625" style="30" customWidth="1"/>
-    <col min="15" max="15" width="7.5" style="30" customWidth="1"/>
-    <col min="16" max="16" width="8.5" style="30" customWidth="1"/>
-    <col min="17" max="17" width="7.5" style="30" customWidth="1"/>
+    <col min="1" max="1" width="40.42578125" style="30" customWidth="1"/>
+    <col min="2" max="9" width="7.42578125" style="30" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="30" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" style="30" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="30" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" style="30" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" style="30" customWidth="1"/>
+    <col min="15" max="15" width="7.42578125" style="30" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" style="30" customWidth="1"/>
+    <col min="17" max="17" width="7.42578125" style="30" customWidth="1"/>
     <col min="18" max="18" width="11" style="30" customWidth="1"/>
-    <col min="19" max="19" width="7.5" style="30" customWidth="1"/>
-    <col min="20" max="20" width="9.5" style="30" customWidth="1"/>
-    <col min="21" max="21" width="7.5" style="30" customWidth="1"/>
-    <col min="22" max="22" width="8.1640625" style="30" customWidth="1"/>
-    <col min="23" max="23" width="7.5" style="30" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" style="30" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" style="30" customWidth="1"/>
+    <col min="21" max="21" width="7.42578125" style="30" customWidth="1"/>
+    <col min="22" max="22" width="8.140625" style="30" customWidth="1"/>
+    <col min="23" max="23" width="7.42578125" style="30" customWidth="1"/>
     <col min="24" max="24" width="8" style="30" customWidth="1"/>
-    <col min="25" max="25" width="7.5" style="30" customWidth="1"/>
-    <col min="26" max="26" width="8.83203125" style="30" customWidth="1"/>
-    <col min="27" max="27" width="7.5" style="30" customWidth="1"/>
-    <col min="28" max="28" width="8.1640625" style="30" customWidth="1"/>
-    <col min="29" max="29" width="7.5" style="30" customWidth="1"/>
-    <col min="30" max="30" width="8.6640625" style="30" customWidth="1"/>
-    <col min="31" max="33" width="7.5" style="30" customWidth="1"/>
-    <col min="34" max="105" width="9.33203125" style="30"/>
-    <col min="106" max="107" width="9.83203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="108" max="16384" width="9.33203125" style="30"/>
+    <col min="25" max="25" width="7.42578125" style="30" customWidth="1"/>
+    <col min="26" max="26" width="8.85546875" style="30" customWidth="1"/>
+    <col min="27" max="27" width="7.42578125" style="30" customWidth="1"/>
+    <col min="28" max="28" width="8.140625" style="30" customWidth="1"/>
+    <col min="29" max="29" width="7.42578125" style="30" customWidth="1"/>
+    <col min="30" max="30" width="8.7109375" style="30" customWidth="1"/>
+    <col min="31" max="33" width="7.42578125" style="30" customWidth="1"/>
+    <col min="34" max="105" width="9.28515625" style="30"/>
+    <col min="106" max="107" width="9.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="108" max="16384" width="9.28515625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:111" ht="20.100000000000001" customHeight="1">
@@ -11094,18 +11087,18 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:111" ht="30" customHeight="1">
-      <c r="A2" s="272" t="s">
+    <row r="2" spans="1:111" ht="33.6" customHeight="1">
+      <c r="A2" s="270" t="s">
         <v>279</v>
       </c>
-      <c r="B2" s="272"/>
-      <c r="C2" s="272"/>
-      <c r="D2" s="272"/>
-      <c r="E2" s="272"/>
-      <c r="F2" s="272"/>
-      <c r="G2" s="272"/>
-      <c r="H2" s="272"/>
-      <c r="I2" s="272"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
+      <c r="H2" s="270"/>
+      <c r="I2" s="270"/>
     </row>
     <row r="3" spans="1:111">
       <c r="A3" s="61"/>
@@ -11120,70 +11113,70 @@
       <c r="J3" s="61"/>
       <c r="K3" s="61"/>
     </row>
-    <row r="4" spans="1:111" ht="14.25" thickBot="1">
+    <row r="4" spans="1:111" ht="11.4" thickBot="1">
       <c r="B4" s="87"/>
       <c r="C4" s="192"/>
     </row>
     <row r="5" spans="1:111" ht="28.5" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="285" t="s">
+      <c r="B5" s="283" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="286"/>
-      <c r="D5" s="223" t="s">
+      <c r="C5" s="284"/>
+      <c r="D5" s="271" t="s">
         <v>193</v>
       </c>
-      <c r="E5" s="224"/>
-      <c r="F5" s="224"/>
-      <c r="G5" s="224"/>
-      <c r="H5" s="224"/>
-      <c r="I5" s="224"/>
-      <c r="J5" s="224"/>
-      <c r="K5" s="224"/>
-      <c r="L5" s="224"/>
-      <c r="M5" s="224"/>
-      <c r="N5" s="224"/>
-      <c r="O5" s="224"/>
-      <c r="P5" s="224"/>
-      <c r="Q5" s="224"/>
-      <c r="R5" s="224"/>
-      <c r="S5" s="224"/>
-      <c r="T5" s="224"/>
-      <c r="U5" s="224"/>
-      <c r="V5" s="224"/>
-      <c r="W5" s="224"/>
-      <c r="X5" s="224"/>
-      <c r="Y5" s="224"/>
-      <c r="Z5" s="224"/>
-      <c r="AA5" s="224"/>
-      <c r="AB5" s="224"/>
-      <c r="AC5" s="224"/>
-      <c r="AD5" s="224"/>
-      <c r="AE5" s="224"/>
-      <c r="AF5" s="224"/>
-      <c r="AG5" s="224"/>
-      <c r="AH5" s="224"/>
-      <c r="AI5" s="224"/>
-      <c r="AJ5" s="224"/>
-      <c r="AK5" s="224"/>
-      <c r="AL5" s="224"/>
-      <c r="AM5" s="224"/>
-      <c r="AN5" s="224"/>
-      <c r="AO5" s="224"/>
-      <c r="AP5" s="224"/>
-      <c r="AQ5" s="224"/>
-      <c r="AR5" s="224"/>
-      <c r="AS5" s="224"/>
-      <c r="AT5" s="224"/>
-      <c r="AU5" s="224"/>
-      <c r="AV5" s="224"/>
-      <c r="AW5" s="224"/>
-      <c r="AX5" s="224"/>
-      <c r="AY5" s="224"/>
-      <c r="AZ5" s="224"/>
-      <c r="BA5" s="224"/>
-      <c r="BB5" s="224"/>
-      <c r="BC5" s="224"/>
+      <c r="E5" s="272"/>
+      <c r="F5" s="272"/>
+      <c r="G5" s="272"/>
+      <c r="H5" s="272"/>
+      <c r="I5" s="272"/>
+      <c r="J5" s="272"/>
+      <c r="K5" s="272"/>
+      <c r="L5" s="272"/>
+      <c r="M5" s="272"/>
+      <c r="N5" s="272"/>
+      <c r="O5" s="272"/>
+      <c r="P5" s="272"/>
+      <c r="Q5" s="272"/>
+      <c r="R5" s="272"/>
+      <c r="S5" s="272"/>
+      <c r="T5" s="272"/>
+      <c r="U5" s="272"/>
+      <c r="V5" s="272"/>
+      <c r="W5" s="272"/>
+      <c r="X5" s="272"/>
+      <c r="Y5" s="272"/>
+      <c r="Z5" s="272"/>
+      <c r="AA5" s="272"/>
+      <c r="AB5" s="272"/>
+      <c r="AC5" s="272"/>
+      <c r="AD5" s="272"/>
+      <c r="AE5" s="272"/>
+      <c r="AF5" s="272"/>
+      <c r="AG5" s="272"/>
+      <c r="AH5" s="272"/>
+      <c r="AI5" s="272"/>
+      <c r="AJ5" s="272"/>
+      <c r="AK5" s="272"/>
+      <c r="AL5" s="272"/>
+      <c r="AM5" s="272"/>
+      <c r="AN5" s="272"/>
+      <c r="AO5" s="272"/>
+      <c r="AP5" s="272"/>
+      <c r="AQ5" s="272"/>
+      <c r="AR5" s="272"/>
+      <c r="AS5" s="272"/>
+      <c r="AT5" s="272"/>
+      <c r="AU5" s="272"/>
+      <c r="AV5" s="272"/>
+      <c r="AW5" s="272"/>
+      <c r="AX5" s="272"/>
+      <c r="AY5" s="272"/>
+      <c r="AZ5" s="223"/>
+      <c r="BA5" s="223"/>
+      <c r="BB5" s="223"/>
+      <c r="BC5" s="223"/>
       <c r="BD5" s="222"/>
       <c r="BE5" s="222"/>
       <c r="BF5" s="222"/>
@@ -11200,272 +11193,272 @@
       <c r="BQ5" s="222"/>
       <c r="BR5" s="222"/>
       <c r="BS5" s="222"/>
-      <c r="BT5" s="224"/>
-      <c r="BU5" s="224"/>
-      <c r="BV5" s="224"/>
-      <c r="BW5" s="224"/>
-      <c r="BX5" s="224"/>
-      <c r="BY5" s="224"/>
-      <c r="BZ5" s="224"/>
-      <c r="CA5" s="224"/>
-      <c r="CB5" s="224"/>
-      <c r="CC5" s="224"/>
-      <c r="CD5" s="224"/>
-      <c r="CE5" s="224"/>
-      <c r="CF5" s="224"/>
-      <c r="CG5" s="224"/>
-      <c r="CH5" s="224"/>
-      <c r="CI5" s="224"/>
-      <c r="CJ5" s="224"/>
-      <c r="CK5" s="226"/>
-      <c r="CL5" s="229" t="s">
+      <c r="BT5" s="223"/>
+      <c r="BU5" s="223"/>
+      <c r="BV5" s="223"/>
+      <c r="BW5" s="223"/>
+      <c r="BX5" s="223"/>
+      <c r="BY5" s="223"/>
+      <c r="BZ5" s="223"/>
+      <c r="CA5" s="223"/>
+      <c r="CB5" s="223"/>
+      <c r="CC5" s="223"/>
+      <c r="CD5" s="223"/>
+      <c r="CE5" s="223"/>
+      <c r="CF5" s="223"/>
+      <c r="CG5" s="223"/>
+      <c r="CH5" s="223"/>
+      <c r="CI5" s="223"/>
+      <c r="CJ5" s="223"/>
+      <c r="CK5" s="223"/>
+      <c r="CL5" s="223"/>
+      <c r="CM5" s="223"/>
+      <c r="CN5" s="223"/>
+      <c r="CO5" s="223"/>
+      <c r="CP5" s="223"/>
+      <c r="CQ5" s="223"/>
+      <c r="CR5" s="223"/>
+      <c r="CS5" s="223"/>
+      <c r="CT5" s="223"/>
+      <c r="CU5" s="225"/>
+      <c r="CV5" s="297" t="s">
         <v>194</v>
       </c>
-      <c r="CM5" s="224"/>
-      <c r="CN5" s="224"/>
-      <c r="CO5" s="224"/>
-      <c r="CP5" s="224"/>
-      <c r="CQ5" s="224"/>
-      <c r="CR5" s="224"/>
-      <c r="CS5" s="224"/>
-      <c r="CT5" s="224"/>
-      <c r="CU5" s="224"/>
-      <c r="CV5" s="224"/>
-      <c r="CW5" s="224"/>
-      <c r="CX5" s="224"/>
-      <c r="CY5" s="224"/>
-      <c r="CZ5" s="224"/>
-      <c r="DA5" s="224"/>
-      <c r="DB5" s="224"/>
-      <c r="DC5" s="224"/>
-      <c r="DD5" s="224"/>
-      <c r="DE5" s="224"/>
-      <c r="DF5" s="224"/>
-      <c r="DG5" s="226"/>
+      <c r="CW5" s="272"/>
+      <c r="CX5" s="272"/>
+      <c r="CY5" s="272"/>
+      <c r="CZ5" s="272"/>
+      <c r="DA5" s="272"/>
+      <c r="DB5" s="272"/>
+      <c r="DC5" s="272"/>
+      <c r="DD5" s="272"/>
+      <c r="DE5" s="272"/>
+      <c r="DF5" s="272"/>
+      <c r="DG5" s="298"/>
     </row>
     <row r="6" spans="1:111" ht="13.5" customHeight="1">
-      <c r="A6" s="296"/>
-      <c r="B6" s="294"/>
-      <c r="C6" s="295"/>
-      <c r="D6" s="291" t="s">
+      <c r="A6" s="294"/>
+      <c r="B6" s="292"/>
+      <c r="C6" s="293"/>
+      <c r="D6" s="289" t="s">
         <v>195</v>
       </c>
-      <c r="E6" s="292"/>
-      <c r="F6" s="291" t="s">
+      <c r="E6" s="290"/>
+      <c r="F6" s="289" t="s">
         <v>196</v>
       </c>
-      <c r="G6" s="292"/>
-      <c r="H6" s="291" t="s">
+      <c r="G6" s="290"/>
+      <c r="H6" s="289" t="s">
         <v>191</v>
       </c>
-      <c r="I6" s="292"/>
-      <c r="J6" s="291" t="s">
+      <c r="I6" s="290"/>
+      <c r="J6" s="289" t="s">
         <v>167</v>
       </c>
-      <c r="K6" s="292"/>
-      <c r="L6" s="291" t="s">
+      <c r="K6" s="290"/>
+      <c r="L6" s="289" t="s">
         <v>168</v>
       </c>
-      <c r="M6" s="292"/>
-      <c r="N6" s="291" t="s">
+      <c r="M6" s="290"/>
+      <c r="N6" s="289" t="s">
         <v>169</v>
       </c>
-      <c r="O6" s="292"/>
-      <c r="P6" s="291" t="s">
+      <c r="O6" s="290"/>
+      <c r="P6" s="289" t="s">
         <v>170</v>
       </c>
-      <c r="Q6" s="292"/>
-      <c r="R6" s="291" t="s">
+      <c r="Q6" s="290"/>
+      <c r="R6" s="289" t="s">
         <v>171</v>
       </c>
-      <c r="S6" s="292"/>
-      <c r="T6" s="291" t="s">
+      <c r="S6" s="290"/>
+      <c r="T6" s="289" t="s">
         <v>172</v>
       </c>
-      <c r="U6" s="292"/>
-      <c r="V6" s="291" t="s">
+      <c r="U6" s="290"/>
+      <c r="V6" s="289" t="s">
         <v>173</v>
       </c>
-      <c r="W6" s="292"/>
-      <c r="X6" s="291" t="s">
+      <c r="W6" s="290"/>
+      <c r="X6" s="289" t="s">
         <v>174</v>
       </c>
-      <c r="Y6" s="292"/>
-      <c r="Z6" s="291" t="s">
+      <c r="Y6" s="290"/>
+      <c r="Z6" s="289" t="s">
         <v>175</v>
       </c>
-      <c r="AA6" s="292"/>
-      <c r="AB6" s="291" t="s">
+      <c r="AA6" s="290"/>
+      <c r="AB6" s="289" t="s">
         <v>201</v>
       </c>
-      <c r="AC6" s="292"/>
-      <c r="AD6" s="291" t="s">
+      <c r="AC6" s="290"/>
+      <c r="AD6" s="289" t="s">
         <v>222</v>
       </c>
-      <c r="AE6" s="292"/>
-      <c r="AF6" s="291" t="s">
+      <c r="AE6" s="290"/>
+      <c r="AF6" s="289" t="s">
         <v>230</v>
       </c>
-      <c r="AG6" s="292"/>
-      <c r="AH6" s="291" t="s">
+      <c r="AG6" s="290"/>
+      <c r="AH6" s="289" t="s">
         <v>234</v>
       </c>
-      <c r="AI6" s="292"/>
-      <c r="AJ6" s="291" t="s">
+      <c r="AI6" s="290"/>
+      <c r="AJ6" s="289" t="s">
         <v>240</v>
       </c>
-      <c r="AK6" s="292"/>
-      <c r="AL6" s="291" t="s">
+      <c r="AK6" s="290"/>
+      <c r="AL6" s="289" t="s">
         <v>241</v>
       </c>
-      <c r="AM6" s="292"/>
-      <c r="AN6" s="291" t="s">
+      <c r="AM6" s="290"/>
+      <c r="AN6" s="289" t="s">
         <v>242</v>
       </c>
-      <c r="AO6" s="292"/>
-      <c r="AP6" s="291" t="s">
+      <c r="AO6" s="290"/>
+      <c r="AP6" s="289" t="s">
         <v>243</v>
       </c>
-      <c r="AQ6" s="292"/>
-      <c r="AR6" s="291" t="s">
+      <c r="AQ6" s="290"/>
+      <c r="AR6" s="289" t="s">
         <v>244</v>
       </c>
-      <c r="AS6" s="292"/>
-      <c r="AT6" s="291" t="s">
+      <c r="AS6" s="290"/>
+      <c r="AT6" s="289" t="s">
         <v>245</v>
       </c>
-      <c r="AU6" s="292"/>
-      <c r="AV6" s="291" t="s">
+      <c r="AU6" s="290"/>
+      <c r="AV6" s="289" t="s">
         <v>246</v>
       </c>
-      <c r="AW6" s="292"/>
-      <c r="AX6" s="291" t="s">
+      <c r="AW6" s="290"/>
+      <c r="AX6" s="289" t="s">
         <v>247</v>
       </c>
-      <c r="AY6" s="292"/>
-      <c r="AZ6" s="291" t="s">
+      <c r="AY6" s="290"/>
+      <c r="AZ6" s="289" t="s">
         <v>248</v>
       </c>
-      <c r="BA6" s="293"/>
-      <c r="BB6" s="289" t="s">
+      <c r="BA6" s="295"/>
+      <c r="BB6" s="287" t="s">
         <v>250</v>
       </c>
-      <c r="BC6" s="297"/>
-      <c r="BD6" s="289" t="s">
+      <c r="BC6" s="291"/>
+      <c r="BD6" s="287" t="s">
         <v>251</v>
       </c>
-      <c r="BE6" s="290"/>
-      <c r="BF6" s="289" t="s">
+      <c r="BE6" s="288"/>
+      <c r="BF6" s="287" t="s">
         <v>252</v>
       </c>
-      <c r="BG6" s="290"/>
-      <c r="BH6" s="289" t="s">
+      <c r="BG6" s="288"/>
+      <c r="BH6" s="287" t="s">
         <v>254</v>
       </c>
-      <c r="BI6" s="290"/>
-      <c r="BJ6" s="289" t="s">
+      <c r="BI6" s="288"/>
+      <c r="BJ6" s="287" t="s">
         <v>253</v>
       </c>
-      <c r="BK6" s="290"/>
-      <c r="BL6" s="289" t="s">
+      <c r="BK6" s="288"/>
+      <c r="BL6" s="287" t="s">
         <v>255</v>
       </c>
-      <c r="BM6" s="290"/>
-      <c r="BN6" s="289" t="s">
+      <c r="BM6" s="288"/>
+      <c r="BN6" s="287" t="s">
         <v>258</v>
       </c>
-      <c r="BO6" s="290"/>
-      <c r="BP6" s="289" t="s">
+      <c r="BO6" s="288"/>
+      <c r="BP6" s="287" t="s">
         <v>259</v>
       </c>
-      <c r="BQ6" s="290"/>
-      <c r="BR6" s="289" t="s">
+      <c r="BQ6" s="288"/>
+      <c r="BR6" s="287" t="s">
         <v>265</v>
       </c>
-      <c r="BS6" s="290"/>
-      <c r="BT6" s="289" t="s">
+      <c r="BS6" s="288"/>
+      <c r="BT6" s="287" t="s">
         <v>264</v>
       </c>
-      <c r="BU6" s="290"/>
-      <c r="BV6" s="289" t="s">
+      <c r="BU6" s="288"/>
+      <c r="BV6" s="287" t="s">
         <v>263</v>
       </c>
-      <c r="BW6" s="290"/>
-      <c r="BX6" s="289" t="s">
+      <c r="BW6" s="288"/>
+      <c r="BX6" s="287" t="s">
         <v>262</v>
       </c>
-      <c r="BY6" s="290"/>
-      <c r="BZ6" s="289" t="s">
+      <c r="BY6" s="288"/>
+      <c r="BZ6" s="287" t="s">
         <v>261</v>
       </c>
-      <c r="CA6" s="290"/>
-      <c r="CB6" s="289" t="s">
+      <c r="CA6" s="288"/>
+      <c r="CB6" s="287" t="s">
         <v>260</v>
       </c>
-      <c r="CC6" s="290"/>
-      <c r="CD6" s="289" t="s">
+      <c r="CC6" s="288"/>
+      <c r="CD6" s="287" t="s">
         <v>267</v>
       </c>
-      <c r="CE6" s="290"/>
-      <c r="CF6" s="289" t="s">
+      <c r="CE6" s="288"/>
+      <c r="CF6" s="287" t="s">
         <v>266</v>
       </c>
-      <c r="CG6" s="290"/>
-      <c r="CH6" s="289" t="s">
+      <c r="CG6" s="288"/>
+      <c r="CH6" s="287" t="s">
         <v>268</v>
       </c>
-      <c r="CI6" s="290"/>
-      <c r="CJ6" s="289" t="s">
+      <c r="CI6" s="288"/>
+      <c r="CJ6" s="287" t="s">
         <v>269</v>
       </c>
-      <c r="CK6" s="290"/>
-      <c r="CL6" s="289" t="s">
+      <c r="CK6" s="288"/>
+      <c r="CL6" s="287" t="s">
         <v>270</v>
       </c>
-      <c r="CM6" s="290"/>
-      <c r="CN6" s="289" t="s">
+      <c r="CM6" s="288"/>
+      <c r="CN6" s="287" t="s">
         <v>272</v>
       </c>
-      <c r="CO6" s="290"/>
-      <c r="CP6" s="289" t="s">
+      <c r="CO6" s="288"/>
+      <c r="CP6" s="287" t="s">
         <v>273</v>
       </c>
-      <c r="CQ6" s="290"/>
-      <c r="CR6" s="289" t="s">
+      <c r="CQ6" s="288"/>
+      <c r="CR6" s="287" t="s">
         <v>274</v>
       </c>
-      <c r="CS6" s="290"/>
-      <c r="CT6" s="289" t="s">
+      <c r="CS6" s="288"/>
+      <c r="CT6" s="287" t="s">
         <v>275</v>
       </c>
-      <c r="CU6" s="290"/>
-      <c r="CV6" s="289" t="s">
+      <c r="CU6" s="288"/>
+      <c r="CV6" s="287" t="s">
         <v>276</v>
       </c>
-      <c r="CW6" s="290"/>
-      <c r="CX6" s="289" t="s">
+      <c r="CW6" s="288"/>
+      <c r="CX6" s="287" t="s">
         <v>277</v>
       </c>
-      <c r="CY6" s="290"/>
-      <c r="CZ6" s="289" t="s">
+      <c r="CY6" s="288"/>
+      <c r="CZ6" s="287" t="s">
         <v>283</v>
       </c>
-      <c r="DA6" s="290"/>
-      <c r="DB6" s="289" t="s">
+      <c r="DA6" s="288"/>
+      <c r="DB6" s="287" t="s">
         <v>284</v>
       </c>
-      <c r="DC6" s="290"/>
-      <c r="DD6" s="289" t="s">
+      <c r="DC6" s="288"/>
+      <c r="DD6" s="287" t="s">
         <v>285</v>
       </c>
-      <c r="DE6" s="290"/>
-      <c r="DF6" s="289" t="s">
+      <c r="DE6" s="288"/>
+      <c r="DF6" s="287" t="s">
         <v>286</v>
       </c>
-      <c r="DG6" s="290"/>
+      <c r="DG6" s="288"/>
     </row>
     <row r="7" spans="1:111">
-      <c r="A7" s="296"/>
+      <c r="A7" s="294"/>
       <c r="B7" s="191" t="s">
         <v>5</v>
       </c>
@@ -18927,7 +18920,7 @@
       </c>
       <c r="DG29" s="163"/>
     </row>
-    <row r="30" spans="1:111" ht="14.25" thickBot="1">
+    <row r="30" spans="1:111" ht="11.4" thickBot="1">
       <c r="A30" s="21" t="s">
         <v>142</v>
       </c>
@@ -19162,90 +19155,90 @@
       <c r="BZ30" s="155">
         <v>16</v>
       </c>
-      <c r="CA30" s="228">
+      <c r="CA30" s="227">
         <v>8.1218274111675104</v>
       </c>
       <c r="CB30" s="155">
         <v>22</v>
       </c>
-      <c r="CC30" s="228">
+      <c r="CC30" s="227">
         <v>11.1675126903553</v>
       </c>
       <c r="CD30" s="155">
         <v>8</v>
       </c>
-      <c r="CE30" s="228">
+      <c r="CE30" s="227">
         <v>4.0609137055837596</v>
       </c>
       <c r="CF30" s="155">
         <v>20</v>
       </c>
-      <c r="CG30" s="228">
+      <c r="CG30" s="227">
         <v>10.1522842639594</v>
       </c>
       <c r="CH30" s="155">
         <v>16</v>
       </c>
-      <c r="CI30" s="228">
+      <c r="CI30" s="227">
         <v>8.1218274111675104</v>
       </c>
       <c r="CJ30" s="155">
         <v>13</v>
       </c>
-      <c r="CK30" s="228">
+      <c r="CK30" s="227">
         <v>6.5989847715736101</v>
       </c>
       <c r="CL30" s="155">
         <v>12</v>
       </c>
-      <c r="CM30" s="227">
+      <c r="CM30" s="226">
         <v>6.0913705583756403</v>
       </c>
-      <c r="CN30" s="225">
+      <c r="CN30" s="224">
         <v>6</v>
       </c>
       <c r="CO30" s="154">
         <v>3.0456852791878202</v>
       </c>
-      <c r="CP30" s="225">
+      <c r="CP30" s="224">
         <v>7</v>
       </c>
       <c r="CQ30" s="154">
         <v>3.5532994923857899</v>
       </c>
-      <c r="CR30" s="225">
+      <c r="CR30" s="224">
         <v>6</v>
       </c>
       <c r="CS30" s="154">
         <v>3.0456852791878202</v>
       </c>
-      <c r="CT30" s="225" t="s">
+      <c r="CT30" s="224" t="s">
         <v>288</v>
       </c>
       <c r="CU30" s="154" t="s">
         <v>287</v>
       </c>
-      <c r="CV30" s="225" t="s">
+      <c r="CV30" s="224" t="s">
         <v>271</v>
       </c>
       <c r="CW30" s="154"/>
-      <c r="CX30" s="225" t="s">
+      <c r="CX30" s="224" t="s">
         <v>271</v>
       </c>
       <c r="CY30" s="154"/>
-      <c r="CZ30" s="225" t="s">
+      <c r="CZ30" s="224" t="s">
         <v>271</v>
       </c>
       <c r="DA30" s="154"/>
-      <c r="DB30" s="225" t="s">
+      <c r="DB30" s="224" t="s">
         <v>271</v>
       </c>
       <c r="DC30" s="154"/>
-      <c r="DD30" s="225" t="s">
+      <c r="DD30" s="224" t="s">
         <v>271</v>
       </c>
       <c r="DE30" s="154"/>
-      <c r="DF30" s="225" t="s">
+      <c r="DF30" s="224" t="s">
         <v>271</v>
       </c>
       <c r="DG30" s="154"/>
@@ -19280,7 +19273,7 @@
       <c r="BO31" s="19"/>
       <c r="BP31" s="19"/>
     </row>
-    <row r="32" spans="1:111">
+    <row r="32" spans="1:111" ht="11.4">
       <c r="A32" s="48" t="s">
         <v>180</v>
       </c>
@@ -19305,7 +19298,7 @@
       <c r="AD32" s="80"/>
       <c r="BH32" s="19"/>
     </row>
-    <row r="33" spans="1:64">
+    <row r="33" spans="1:64" ht="11.4">
       <c r="A33" s="48" t="s">
         <v>181</v>
       </c>
@@ -19349,23 +19342,66 @@
       <c r="BI34" s="151"/>
       <c r="BL34" s="151"/>
     </row>
-    <row r="35" spans="1:64">
+    <row r="35" spans="1:64" ht="11.4">
       <c r="A35" s="48" t="s">
         <v>166</v>
       </c>
       <c r="BL35" s="19"/>
     </row>
-    <row r="36" spans="1:64">
+    <row r="36" spans="1:64" ht="11.4">
       <c r="A36" s="48" t="s">
         <v>199</v>
       </c>
       <c r="BL36" s="19"/>
     </row>
-    <row r="37" spans="1:64">
+    <row r="37" spans="1:64" ht="11.4">
       <c r="A37" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="59">
+    <mergeCell ref="CV5:DG5"/>
+    <mergeCell ref="D5:AY5"/>
+    <mergeCell ref="CX6:CY6"/>
+    <mergeCell ref="CR6:CS6"/>
+    <mergeCell ref="CT6:CU6"/>
+    <mergeCell ref="CJ6:CK6"/>
+    <mergeCell ref="DB6:DC6"/>
+    <mergeCell ref="CZ6:DA6"/>
+    <mergeCell ref="CB6:CC6"/>
+    <mergeCell ref="BV6:BW6"/>
+    <mergeCell ref="BN6:BO6"/>
+    <mergeCell ref="CP6:CQ6"/>
+    <mergeCell ref="CD6:CE6"/>
+    <mergeCell ref="CF6:CG6"/>
+    <mergeCell ref="CH6:CI6"/>
+    <mergeCell ref="CL6:CM6"/>
+    <mergeCell ref="CN6:CO6"/>
+    <mergeCell ref="BP6:BQ6"/>
+    <mergeCell ref="BR6:BS6"/>
+    <mergeCell ref="BT6:BU6"/>
+    <mergeCell ref="BX6:BY6"/>
+    <mergeCell ref="BZ6:CA6"/>
+    <mergeCell ref="AP6:AQ6"/>
+    <mergeCell ref="AX6:AY6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="BJ6:BK6"/>
+    <mergeCell ref="BL6:BM6"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AZ6:BA6"/>
+    <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="T6:U6"/>
     <mergeCell ref="DD6:DE6"/>
     <mergeCell ref="DF6:DG6"/>
     <mergeCell ref="X6:Y6"/>
@@ -19382,47 +19418,6 @@
     <mergeCell ref="AF6:AG6"/>
     <mergeCell ref="AD6:AE6"/>
     <mergeCell ref="BB6:BC6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="AP6:AQ6"/>
-    <mergeCell ref="AX6:AY6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="BJ6:BK6"/>
-    <mergeCell ref="BL6:BM6"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="AZ6:BA6"/>
-    <mergeCell ref="AR6:AS6"/>
-    <mergeCell ref="CB6:CC6"/>
-    <mergeCell ref="BV6:BW6"/>
-    <mergeCell ref="BN6:BO6"/>
-    <mergeCell ref="CP6:CQ6"/>
-    <mergeCell ref="CD6:CE6"/>
-    <mergeCell ref="CF6:CG6"/>
-    <mergeCell ref="CH6:CI6"/>
-    <mergeCell ref="CL6:CM6"/>
-    <mergeCell ref="CN6:CO6"/>
-    <mergeCell ref="BP6:BQ6"/>
-    <mergeCell ref="BR6:BS6"/>
-    <mergeCell ref="BT6:BU6"/>
-    <mergeCell ref="BX6:BY6"/>
-    <mergeCell ref="BZ6:CA6"/>
-    <mergeCell ref="CX6:CY6"/>
-    <mergeCell ref="CR6:CS6"/>
-    <mergeCell ref="CT6:CU6"/>
-    <mergeCell ref="CJ6:CK6"/>
-    <mergeCell ref="DB6:DC6"/>
-    <mergeCell ref="CZ6:DA6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19436,69 +19431,69 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="1" width="40.5" style="30" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="30" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="30" customWidth="1"/>
-    <col min="5" max="20" width="7.5" style="30" customWidth="1"/>
-    <col min="21" max="21" width="7.5" style="193" customWidth="1"/>
-    <col min="22" max="22" width="7.5" style="30" customWidth="1"/>
-    <col min="23" max="23" width="7.5" style="193" customWidth="1"/>
-    <col min="24" max="24" width="7.5" style="30" customWidth="1"/>
-    <col min="25" max="25" width="7.5" style="193" customWidth="1"/>
-    <col min="26" max="26" width="7.5" style="30" customWidth="1"/>
-    <col min="27" max="27" width="7.5" style="193" customWidth="1"/>
-    <col min="28" max="28" width="7.5" style="30" customWidth="1"/>
-    <col min="29" max="29" width="7.5" style="193" customWidth="1"/>
-    <col min="30" max="30" width="7.5" style="30" customWidth="1"/>
-    <col min="31" max="31" width="7.5" style="193" customWidth="1"/>
-    <col min="32" max="32" width="7.5" style="30" customWidth="1"/>
-    <col min="33" max="33" width="7.5" style="193" customWidth="1"/>
-    <col min="34" max="34" width="9.33203125" style="30"/>
-    <col min="35" max="35" width="9.33203125" style="193"/>
-    <col min="36" max="36" width="9.33203125" style="30"/>
-    <col min="37" max="37" width="9.33203125" style="193"/>
-    <col min="38" max="38" width="9.33203125" style="30"/>
-    <col min="39" max="39" width="9.33203125" style="193"/>
-    <col min="40" max="40" width="9.33203125" style="30"/>
-    <col min="41" max="41" width="9.33203125" style="193"/>
-    <col min="42" max="42" width="9.33203125" style="30"/>
-    <col min="43" max="43" width="9.33203125" style="193"/>
-    <col min="44" max="44" width="9.33203125" style="30"/>
-    <col min="45" max="45" width="9.33203125" style="193"/>
-    <col min="46" max="46" width="9.33203125" style="30"/>
-    <col min="47" max="47" width="9.33203125" style="193"/>
-    <col min="48" max="48" width="9.33203125" style="30"/>
-    <col min="49" max="49" width="9.33203125" style="193"/>
-    <col min="50" max="50" width="9.33203125" style="30"/>
-    <col min="51" max="51" width="9.33203125" style="193"/>
-    <col min="52" max="52" width="9.33203125" style="30"/>
-    <col min="53" max="53" width="9.33203125" style="193"/>
-    <col min="54" max="54" width="9.33203125" style="30"/>
-    <col min="55" max="55" width="9.33203125" style="193"/>
-    <col min="56" max="56" width="9.33203125" style="30"/>
-    <col min="57" max="57" width="9.33203125" style="193"/>
-    <col min="58" max="58" width="9.33203125" style="30"/>
-    <col min="59" max="59" width="9.33203125" style="193"/>
-    <col min="60" max="60" width="9.33203125" style="30"/>
-    <col min="61" max="61" width="9.33203125" style="193"/>
-    <col min="62" max="62" width="9.33203125" style="30"/>
-    <col min="63" max="63" width="9.33203125" style="193"/>
-    <col min="64" max="64" width="9.33203125" style="30"/>
-    <col min="65" max="65" width="9.33203125" style="193"/>
-    <col min="66" max="66" width="9.33203125" style="30"/>
-    <col min="67" max="67" width="9.33203125" style="193"/>
-    <col min="68" max="68" width="9.33203125" style="30"/>
-    <col min="69" max="69" width="9.33203125" style="193"/>
-    <col min="70" max="78" width="9.33203125" style="30"/>
-    <col min="79" max="79" width="9.33203125" style="193"/>
-    <col min="80" max="80" width="9.33203125" style="30"/>
-    <col min="81" max="81" width="9.33203125" style="193"/>
-    <col min="82" max="82" width="9.33203125" style="30"/>
-    <col min="83" max="83" width="9.33203125" style="193"/>
-    <col min="84" max="16384" width="9.33203125" style="30"/>
+    <col min="1" max="1" width="40.42578125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="30" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="30" customWidth="1"/>
+    <col min="5" max="20" width="7.42578125" style="30" customWidth="1"/>
+    <col min="21" max="21" width="7.42578125" style="193" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" style="30" customWidth="1"/>
+    <col min="23" max="23" width="7.42578125" style="193" customWidth="1"/>
+    <col min="24" max="24" width="7.42578125" style="30" customWidth="1"/>
+    <col min="25" max="25" width="7.42578125" style="193" customWidth="1"/>
+    <col min="26" max="26" width="7.42578125" style="30" customWidth="1"/>
+    <col min="27" max="27" width="7.42578125" style="193" customWidth="1"/>
+    <col min="28" max="28" width="7.42578125" style="30" customWidth="1"/>
+    <col min="29" max="29" width="7.42578125" style="193" customWidth="1"/>
+    <col min="30" max="30" width="7.42578125" style="30" customWidth="1"/>
+    <col min="31" max="31" width="7.42578125" style="193" customWidth="1"/>
+    <col min="32" max="32" width="7.42578125" style="30" customWidth="1"/>
+    <col min="33" max="33" width="7.42578125" style="193" customWidth="1"/>
+    <col min="34" max="34" width="9.28515625" style="30"/>
+    <col min="35" max="35" width="9.28515625" style="193"/>
+    <col min="36" max="36" width="9.28515625" style="30"/>
+    <col min="37" max="37" width="9.28515625" style="193"/>
+    <col min="38" max="38" width="9.28515625" style="30"/>
+    <col min="39" max="39" width="9.28515625" style="193"/>
+    <col min="40" max="40" width="9.28515625" style="30"/>
+    <col min="41" max="41" width="9.28515625" style="193"/>
+    <col min="42" max="42" width="9.28515625" style="30"/>
+    <col min="43" max="43" width="9.28515625" style="193"/>
+    <col min="44" max="44" width="9.28515625" style="30"/>
+    <col min="45" max="45" width="9.28515625" style="193"/>
+    <col min="46" max="46" width="9.28515625" style="30"/>
+    <col min="47" max="47" width="9.28515625" style="193"/>
+    <col min="48" max="48" width="9.28515625" style="30"/>
+    <col min="49" max="49" width="9.28515625" style="193"/>
+    <col min="50" max="50" width="9.28515625" style="30"/>
+    <col min="51" max="51" width="9.28515625" style="193"/>
+    <col min="52" max="52" width="9.28515625" style="30"/>
+    <col min="53" max="53" width="9.28515625" style="193"/>
+    <col min="54" max="54" width="9.28515625" style="30"/>
+    <col min="55" max="55" width="9.28515625" style="193"/>
+    <col min="56" max="56" width="9.28515625" style="30"/>
+    <col min="57" max="57" width="9.28515625" style="193"/>
+    <col min="58" max="58" width="9.28515625" style="30"/>
+    <col min="59" max="59" width="9.28515625" style="193"/>
+    <col min="60" max="60" width="9.28515625" style="30"/>
+    <col min="61" max="61" width="9.28515625" style="193"/>
+    <col min="62" max="62" width="9.28515625" style="30"/>
+    <col min="63" max="63" width="9.28515625" style="193"/>
+    <col min="64" max="64" width="9.28515625" style="30"/>
+    <col min="65" max="65" width="9.28515625" style="193"/>
+    <col min="66" max="66" width="9.28515625" style="30"/>
+    <col min="67" max="67" width="9.28515625" style="193"/>
+    <col min="68" max="68" width="9.28515625" style="30"/>
+    <col min="69" max="69" width="9.28515625" style="193"/>
+    <col min="70" max="78" width="9.28515625" style="30"/>
+    <col min="79" max="79" width="9.28515625" style="193"/>
+    <col min="80" max="80" width="9.28515625" style="30"/>
+    <col min="81" max="81" width="9.28515625" style="193"/>
+    <col min="82" max="82" width="9.28515625" style="30"/>
+    <col min="83" max="83" width="9.28515625" style="193"/>
+    <col min="84" max="16384" width="9.28515625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:109" ht="20.100000000000001" customHeight="1">
@@ -19507,15 +19502,15 @@
       </c>
     </row>
     <row r="2" spans="1:109" ht="46.5" customHeight="1">
-      <c r="A2" s="283" t="s">
+      <c r="A2" s="281" t="s">
         <v>280</v>
       </c>
-      <c r="B2" s="283"/>
-      <c r="C2" s="283"/>
-      <c r="D2" s="283"/>
-      <c r="E2" s="283"/>
-      <c r="F2" s="283"/>
-      <c r="G2" s="283"/>
+      <c r="B2" s="281"/>
+      <c r="C2" s="281"/>
+      <c r="D2" s="281"/>
+      <c r="E2" s="281"/>
+      <c r="F2" s="281"/>
+      <c r="G2" s="281"/>
       <c r="BC2" s="30"/>
       <c r="BD2" s="193"/>
       <c r="BE2" s="30"/>
@@ -19549,67 +19544,67 @@
       <c r="H3" s="61"/>
       <c r="I3" s="61"/>
     </row>
-    <row r="4" spans="1:109" ht="14.25" thickBot="1">
+    <row r="4" spans="1:109" ht="11.4" thickBot="1">
       <c r="A4" s="104"/>
     </row>
     <row r="5" spans="1:109" ht="28.5" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="285" t="s">
+      <c r="B5" s="283" t="s">
         <v>204</v>
       </c>
-      <c r="C5" s="286"/>
-      <c r="D5" s="273" t="s">
+      <c r="C5" s="284"/>
+      <c r="D5" s="271" t="s">
         <v>193</v>
       </c>
-      <c r="E5" s="274"/>
-      <c r="F5" s="274"/>
-      <c r="G5" s="274"/>
-      <c r="H5" s="274"/>
-      <c r="I5" s="274"/>
-      <c r="J5" s="274"/>
-      <c r="K5" s="274"/>
-      <c r="L5" s="274"/>
-      <c r="M5" s="274"/>
-      <c r="N5" s="274"/>
-      <c r="O5" s="274"/>
-      <c r="P5" s="274"/>
-      <c r="Q5" s="274"/>
-      <c r="R5" s="274"/>
-      <c r="S5" s="274"/>
-      <c r="T5" s="274"/>
-      <c r="U5" s="274"/>
-      <c r="V5" s="274"/>
-      <c r="W5" s="274"/>
-      <c r="X5" s="274"/>
-      <c r="Y5" s="274"/>
-      <c r="Z5" s="274"/>
-      <c r="AA5" s="274"/>
-      <c r="AB5" s="274"/>
-      <c r="AC5" s="274"/>
-      <c r="AD5" s="274"/>
-      <c r="AE5" s="274"/>
-      <c r="AF5" s="274"/>
-      <c r="AG5" s="274"/>
-      <c r="AH5" s="274"/>
-      <c r="AI5" s="274"/>
-      <c r="AJ5" s="274"/>
-      <c r="AK5" s="274"/>
-      <c r="AL5" s="274"/>
-      <c r="AM5" s="274"/>
-      <c r="AN5" s="274"/>
-      <c r="AO5" s="274"/>
-      <c r="AP5" s="274"/>
-      <c r="AQ5" s="274"/>
-      <c r="AR5" s="274"/>
-      <c r="AS5" s="274"/>
-      <c r="AT5" s="274"/>
-      <c r="AU5" s="274"/>
-      <c r="AV5" s="274"/>
-      <c r="AW5" s="274"/>
-      <c r="AX5" s="274"/>
-      <c r="AY5" s="274"/>
-      <c r="AZ5" s="274"/>
-      <c r="BA5" s="274"/>
+      <c r="E5" s="272"/>
+      <c r="F5" s="272"/>
+      <c r="G5" s="272"/>
+      <c r="H5" s="272"/>
+      <c r="I5" s="272"/>
+      <c r="J5" s="272"/>
+      <c r="K5" s="272"/>
+      <c r="L5" s="272"/>
+      <c r="M5" s="272"/>
+      <c r="N5" s="272"/>
+      <c r="O5" s="272"/>
+      <c r="P5" s="272"/>
+      <c r="Q5" s="272"/>
+      <c r="R5" s="272"/>
+      <c r="S5" s="272"/>
+      <c r="T5" s="272"/>
+      <c r="U5" s="272"/>
+      <c r="V5" s="272"/>
+      <c r="W5" s="272"/>
+      <c r="X5" s="272"/>
+      <c r="Y5" s="272"/>
+      <c r="Z5" s="272"/>
+      <c r="AA5" s="272"/>
+      <c r="AB5" s="272"/>
+      <c r="AC5" s="272"/>
+      <c r="AD5" s="272"/>
+      <c r="AE5" s="272"/>
+      <c r="AF5" s="272"/>
+      <c r="AG5" s="272"/>
+      <c r="AH5" s="272"/>
+      <c r="AI5" s="272"/>
+      <c r="AJ5" s="272"/>
+      <c r="AK5" s="272"/>
+      <c r="AL5" s="272"/>
+      <c r="AM5" s="272"/>
+      <c r="AN5" s="272"/>
+      <c r="AO5" s="272"/>
+      <c r="AP5" s="272"/>
+      <c r="AQ5" s="272"/>
+      <c r="AR5" s="272"/>
+      <c r="AS5" s="272"/>
+      <c r="AT5" s="272"/>
+      <c r="AU5" s="272"/>
+      <c r="AV5" s="272"/>
+      <c r="AW5" s="272"/>
+      <c r="AX5" s="272"/>
+      <c r="AY5" s="272"/>
+      <c r="AZ5" s="272"/>
+      <c r="BA5" s="272"/>
       <c r="BB5" s="222"/>
       <c r="BC5" s="222"/>
       <c r="BD5" s="222"/>
@@ -19626,268 +19621,268 @@
       <c r="BO5" s="222"/>
       <c r="BP5" s="222"/>
       <c r="BQ5" s="222"/>
-      <c r="BR5" s="224"/>
-      <c r="BS5" s="224"/>
-      <c r="BT5" s="224"/>
-      <c r="BU5" s="224"/>
-      <c r="BV5" s="224"/>
-      <c r="BW5" s="224"/>
-      <c r="BX5" s="224"/>
-      <c r="BY5" s="224"/>
-      <c r="BZ5" s="224"/>
-      <c r="CA5" s="224"/>
-      <c r="CB5" s="224"/>
-      <c r="CC5" s="224"/>
-      <c r="CD5" s="224"/>
-      <c r="CE5" s="224"/>
-      <c r="CF5" s="224"/>
-      <c r="CG5" s="224"/>
-      <c r="CH5" s="224"/>
-      <c r="CI5" s="226"/>
-      <c r="CJ5" s="299" t="s">
+      <c r="BR5" s="223"/>
+      <c r="BS5" s="223"/>
+      <c r="BT5" s="223"/>
+      <c r="BU5" s="223"/>
+      <c r="BV5" s="223"/>
+      <c r="BW5" s="223"/>
+      <c r="BX5" s="223"/>
+      <c r="BY5" s="223"/>
+      <c r="BZ5" s="223"/>
+      <c r="CA5" s="223"/>
+      <c r="CB5" s="223"/>
+      <c r="CC5" s="223"/>
+      <c r="CD5" s="223"/>
+      <c r="CE5" s="223"/>
+      <c r="CF5" s="223"/>
+      <c r="CG5" s="223"/>
+      <c r="CH5" s="223"/>
+      <c r="CI5" s="223"/>
+      <c r="CJ5" s="223"/>
+      <c r="CK5" s="223"/>
+      <c r="CL5" s="223"/>
+      <c r="CM5" s="223"/>
+      <c r="CN5" s="223"/>
+      <c r="CO5" s="223"/>
+      <c r="CP5" s="223"/>
+      <c r="CQ5" s="223"/>
+      <c r="CR5" s="223"/>
+      <c r="CS5" s="225"/>
+      <c r="CT5" s="297" t="s">
         <v>203</v>
       </c>
-      <c r="CK5" s="274"/>
-      <c r="CL5" s="274"/>
-      <c r="CM5" s="274"/>
-      <c r="CN5" s="274"/>
-      <c r="CO5" s="274"/>
-      <c r="CP5" s="274"/>
-      <c r="CQ5" s="274"/>
-      <c r="CR5" s="274"/>
-      <c r="CS5" s="274"/>
-      <c r="CT5" s="274"/>
-      <c r="CU5" s="274"/>
-      <c r="CV5" s="274"/>
-      <c r="CW5" s="274"/>
-      <c r="CX5" s="274"/>
-      <c r="CY5" s="274"/>
-      <c r="CZ5" s="224"/>
-      <c r="DA5" s="224"/>
-      <c r="DB5" s="224"/>
-      <c r="DC5" s="224"/>
-      <c r="DD5" s="224"/>
-      <c r="DE5" s="226"/>
+      <c r="CU5" s="272"/>
+      <c r="CV5" s="272"/>
+      <c r="CW5" s="272"/>
+      <c r="CX5" s="272"/>
+      <c r="CY5" s="272"/>
+      <c r="CZ5" s="272"/>
+      <c r="DA5" s="272"/>
+      <c r="DB5" s="272"/>
+      <c r="DC5" s="272"/>
+      <c r="DD5" s="272"/>
+      <c r="DE5" s="298"/>
     </row>
     <row r="6" spans="1:109" ht="13.5" customHeight="1">
-      <c r="A6" s="287"/>
-      <c r="B6" s="280"/>
-      <c r="C6" s="279"/>
-      <c r="D6" s="291" t="s">
+      <c r="A6" s="285"/>
+      <c r="B6" s="278"/>
+      <c r="C6" s="277"/>
+      <c r="D6" s="289" t="s">
         <v>196</v>
       </c>
-      <c r="E6" s="292"/>
-      <c r="F6" s="291" t="s">
+      <c r="E6" s="290"/>
+      <c r="F6" s="289" t="s">
         <v>191</v>
       </c>
-      <c r="G6" s="292"/>
-      <c r="H6" s="291" t="s">
+      <c r="G6" s="290"/>
+      <c r="H6" s="289" t="s">
         <v>167</v>
       </c>
-      <c r="I6" s="292"/>
-      <c r="J6" s="291" t="s">
+      <c r="I6" s="290"/>
+      <c r="J6" s="289" t="s">
         <v>168</v>
       </c>
-      <c r="K6" s="292"/>
-      <c r="L6" s="291" t="s">
+      <c r="K6" s="290"/>
+      <c r="L6" s="289" t="s">
         <v>169</v>
       </c>
-      <c r="M6" s="292"/>
-      <c r="N6" s="291" t="s">
+      <c r="M6" s="290"/>
+      <c r="N6" s="289" t="s">
         <v>170</v>
       </c>
-      <c r="O6" s="292"/>
-      <c r="P6" s="291" t="s">
+      <c r="O6" s="290"/>
+      <c r="P6" s="289" t="s">
         <v>171</v>
       </c>
-      <c r="Q6" s="292"/>
-      <c r="R6" s="291" t="s">
+      <c r="Q6" s="290"/>
+      <c r="R6" s="289" t="s">
         <v>172</v>
       </c>
-      <c r="S6" s="292"/>
-      <c r="T6" s="291" t="s">
+      <c r="S6" s="290"/>
+      <c r="T6" s="289" t="s">
         <v>173</v>
       </c>
-      <c r="U6" s="292"/>
-      <c r="V6" s="291" t="s">
+      <c r="U6" s="290"/>
+      <c r="V6" s="289" t="s">
         <v>174</v>
       </c>
-      <c r="W6" s="292"/>
-      <c r="X6" s="291" t="s">
+      <c r="W6" s="290"/>
+      <c r="X6" s="289" t="s">
         <v>175</v>
       </c>
-      <c r="Y6" s="292"/>
-      <c r="Z6" s="291" t="s">
+      <c r="Y6" s="290"/>
+      <c r="Z6" s="289" t="s">
         <v>201</v>
       </c>
-      <c r="AA6" s="292"/>
-      <c r="AB6" s="291" t="s">
+      <c r="AA6" s="290"/>
+      <c r="AB6" s="289" t="s">
         <v>222</v>
       </c>
-      <c r="AC6" s="292"/>
-      <c r="AD6" s="298" t="s">
+      <c r="AC6" s="290"/>
+      <c r="AD6" s="296" t="s">
         <v>230</v>
       </c>
-      <c r="AE6" s="292"/>
-      <c r="AF6" s="298" t="s">
+      <c r="AE6" s="290"/>
+      <c r="AF6" s="296" t="s">
         <v>234</v>
       </c>
-      <c r="AG6" s="292"/>
-      <c r="AH6" s="298" t="s">
+      <c r="AG6" s="290"/>
+      <c r="AH6" s="296" t="s">
         <v>240</v>
       </c>
-      <c r="AI6" s="292"/>
-      <c r="AJ6" s="298" t="s">
+      <c r="AI6" s="290"/>
+      <c r="AJ6" s="296" t="s">
         <v>241</v>
       </c>
-      <c r="AK6" s="292"/>
-      <c r="AL6" s="298" t="s">
+      <c r="AK6" s="290"/>
+      <c r="AL6" s="296" t="s">
         <v>242</v>
       </c>
-      <c r="AM6" s="292"/>
-      <c r="AN6" s="298" t="s">
+      <c r="AM6" s="290"/>
+      <c r="AN6" s="296" t="s">
         <v>243</v>
       </c>
-      <c r="AO6" s="292"/>
-      <c r="AP6" s="298" t="s">
+      <c r="AO6" s="290"/>
+      <c r="AP6" s="296" t="s">
         <v>244</v>
       </c>
-      <c r="AQ6" s="292"/>
-      <c r="AR6" s="298" t="s">
+      <c r="AQ6" s="290"/>
+      <c r="AR6" s="296" t="s">
         <v>245</v>
       </c>
-      <c r="AS6" s="292"/>
-      <c r="AT6" s="298" t="s">
+      <c r="AS6" s="290"/>
+      <c r="AT6" s="296" t="s">
         <v>246</v>
       </c>
-      <c r="AU6" s="292"/>
-      <c r="AV6" s="298" t="s">
+      <c r="AU6" s="290"/>
+      <c r="AV6" s="296" t="s">
         <v>247</v>
       </c>
-      <c r="AW6" s="292"/>
-      <c r="AX6" s="298" t="s">
+      <c r="AW6" s="290"/>
+      <c r="AX6" s="296" t="s">
         <v>248</v>
       </c>
-      <c r="AY6" s="292"/>
-      <c r="AZ6" s="298" t="s">
+      <c r="AY6" s="290"/>
+      <c r="AZ6" s="296" t="s">
         <v>250</v>
       </c>
-      <c r="BA6" s="292"/>
-      <c r="BB6" s="298" t="s">
+      <c r="BA6" s="290"/>
+      <c r="BB6" s="296" t="s">
         <v>251</v>
       </c>
-      <c r="BC6" s="292"/>
-      <c r="BD6" s="298" t="s">
+      <c r="BC6" s="290"/>
+      <c r="BD6" s="296" t="s">
         <v>252</v>
       </c>
-      <c r="BE6" s="292"/>
-      <c r="BF6" s="298" t="s">
+      <c r="BE6" s="290"/>
+      <c r="BF6" s="296" t="s">
         <v>254</v>
       </c>
-      <c r="BG6" s="292"/>
-      <c r="BH6" s="298" t="s">
+      <c r="BG6" s="290"/>
+      <c r="BH6" s="296" t="s">
         <v>253</v>
       </c>
-      <c r="BI6" s="292"/>
-      <c r="BJ6" s="298" t="s">
+      <c r="BI6" s="290"/>
+      <c r="BJ6" s="296" t="s">
         <v>255</v>
       </c>
-      <c r="BK6" s="292"/>
-      <c r="BL6" s="298" t="s">
+      <c r="BK6" s="290"/>
+      <c r="BL6" s="296" t="s">
         <v>258</v>
       </c>
-      <c r="BM6" s="292"/>
-      <c r="BN6" s="298" t="s">
+      <c r="BM6" s="290"/>
+      <c r="BN6" s="296" t="s">
         <v>259</v>
       </c>
-      <c r="BO6" s="292"/>
-      <c r="BP6" s="298" t="s">
+      <c r="BO6" s="290"/>
+      <c r="BP6" s="296" t="s">
         <v>265</v>
       </c>
-      <c r="BQ6" s="292"/>
-      <c r="BR6" s="298" t="s">
+      <c r="BQ6" s="290"/>
+      <c r="BR6" s="296" t="s">
         <v>264</v>
       </c>
-      <c r="BS6" s="292"/>
-      <c r="BT6" s="298" t="s">
+      <c r="BS6" s="290"/>
+      <c r="BT6" s="296" t="s">
         <v>263</v>
       </c>
-      <c r="BU6" s="292"/>
-      <c r="BV6" s="298" t="s">
+      <c r="BU6" s="290"/>
+      <c r="BV6" s="296" t="s">
         <v>262</v>
       </c>
-      <c r="BW6" s="292"/>
-      <c r="BX6" s="298" t="s">
+      <c r="BW6" s="290"/>
+      <c r="BX6" s="296" t="s">
         <v>261</v>
       </c>
-      <c r="BY6" s="292"/>
-      <c r="BZ6" s="298" t="s">
+      <c r="BY6" s="290"/>
+      <c r="BZ6" s="296" t="s">
         <v>260</v>
       </c>
-      <c r="CA6" s="292"/>
-      <c r="CB6" s="298" t="s">
+      <c r="CA6" s="290"/>
+      <c r="CB6" s="296" t="s">
         <v>267</v>
       </c>
-      <c r="CC6" s="292"/>
-      <c r="CD6" s="298" t="s">
+      <c r="CC6" s="290"/>
+      <c r="CD6" s="296" t="s">
         <v>266</v>
       </c>
-      <c r="CE6" s="292"/>
-      <c r="CF6" s="298" t="s">
+      <c r="CE6" s="290"/>
+      <c r="CF6" s="296" t="s">
         <v>268</v>
       </c>
-      <c r="CG6" s="292"/>
-      <c r="CH6" s="298" t="s">
+      <c r="CG6" s="290"/>
+      <c r="CH6" s="296" t="s">
         <v>269</v>
       </c>
-      <c r="CI6" s="292"/>
-      <c r="CJ6" s="298" t="s">
+      <c r="CI6" s="290"/>
+      <c r="CJ6" s="296" t="s">
         <v>270</v>
       </c>
-      <c r="CK6" s="292"/>
-      <c r="CL6" s="298" t="s">
+      <c r="CK6" s="290"/>
+      <c r="CL6" s="296" t="s">
         <v>272</v>
       </c>
-      <c r="CM6" s="292"/>
-      <c r="CN6" s="298" t="s">
+      <c r="CM6" s="290"/>
+      <c r="CN6" s="296" t="s">
         <v>273</v>
       </c>
-      <c r="CO6" s="292"/>
-      <c r="CP6" s="298" t="s">
+      <c r="CO6" s="290"/>
+      <c r="CP6" s="296" t="s">
         <v>274</v>
       </c>
-      <c r="CQ6" s="292"/>
-      <c r="CR6" s="298" t="s">
+      <c r="CQ6" s="290"/>
+      <c r="CR6" s="296" t="s">
         <v>275</v>
       </c>
-      <c r="CS6" s="292"/>
-      <c r="CT6" s="298" t="s">
+      <c r="CS6" s="290"/>
+      <c r="CT6" s="296" t="s">
         <v>276</v>
       </c>
-      <c r="CU6" s="292"/>
-      <c r="CV6" s="298" t="s">
+      <c r="CU6" s="290"/>
+      <c r="CV6" s="296" t="s">
         <v>277</v>
       </c>
-      <c r="CW6" s="292"/>
-      <c r="CX6" s="298" t="s">
+      <c r="CW6" s="290"/>
+      <c r="CX6" s="296" t="s">
         <v>283</v>
       </c>
-      <c r="CY6" s="292"/>
-      <c r="CZ6" s="298" t="s">
+      <c r="CY6" s="290"/>
+      <c r="CZ6" s="296" t="s">
         <v>284</v>
       </c>
-      <c r="DA6" s="292"/>
-      <c r="DB6" s="298" t="s">
+      <c r="DA6" s="290"/>
+      <c r="DB6" s="296" t="s">
         <v>285</v>
       </c>
-      <c r="DC6" s="292"/>
-      <c r="DD6" s="298" t="s">
+      <c r="DC6" s="290"/>
+      <c r="DD6" s="296" t="s">
         <v>286</v>
       </c>
-      <c r="DE6" s="292"/>
+      <c r="DE6" s="290"/>
     </row>
     <row r="7" spans="1:109">
-      <c r="A7" s="288"/>
+      <c r="A7" s="286"/>
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
@@ -27217,7 +27212,7 @@
         <v>1.3698630136986301</v>
       </c>
     </row>
-    <row r="30" spans="1:109" ht="14.25" thickBot="1">
+    <row r="30" spans="1:109" ht="11.4" thickBot="1">
       <c r="A30" s="21" t="s">
         <v>142</v>
       </c>
@@ -27550,7 +27545,7 @@
       <c r="BC31" s="195"/>
       <c r="BD31" s="152"/>
     </row>
-    <row r="32" spans="1:109">
+    <row r="32" spans="1:109" ht="11.4">
       <c r="A32" s="48" t="s">
         <v>180</v>
       </c>
@@ -27572,7 +27567,7 @@
       <c r="Z32" s="80"/>
       <c r="BR32" s="19"/>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" ht="11.4">
       <c r="A33" s="48" t="s">
         <v>181</v>
       </c>
@@ -27606,40 +27601,38 @@
     <row r="34" spans="1:27" ht="15" customHeight="1">
       <c r="A34" s="98"/>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" ht="11.4">
       <c r="A35" s="48" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" ht="11.4">
       <c r="A36" s="48" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" ht="11.4">
       <c r="A37" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="CZ6:DA6"/>
-    <mergeCell ref="DB6:DC6"/>
-    <mergeCell ref="DD6:DE6"/>
-    <mergeCell ref="BV6:BW6"/>
-    <mergeCell ref="CN6:CO6"/>
-    <mergeCell ref="CX6:CY6"/>
-    <mergeCell ref="CJ5:CY5"/>
-    <mergeCell ref="AP6:AQ6"/>
-    <mergeCell ref="AR6:AS6"/>
-    <mergeCell ref="BP6:BQ6"/>
-    <mergeCell ref="BR6:BS6"/>
-    <mergeCell ref="BT6:BU6"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="AT6:AU6"/>
-    <mergeCell ref="CV6:CW6"/>
-    <mergeCell ref="CP6:CQ6"/>
-    <mergeCell ref="CR6:CS6"/>
-    <mergeCell ref="BX6:BY6"/>
-    <mergeCell ref="CJ6:CK6"/>
+    <mergeCell ref="CT5:DE5"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D5:BA5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="AZ6:BA6"/>
+    <mergeCell ref="AX6:AY6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="AN6:AO6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="AL6:AM6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="AD6:AE6"/>
     <mergeCell ref="BJ6:BK6"/>
@@ -27656,25 +27649,27 @@
     <mergeCell ref="T6:U6"/>
     <mergeCell ref="V6:W6"/>
     <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D5:BA5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="AZ6:BA6"/>
-    <mergeCell ref="AX6:AY6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="AH6:AI6"/>
-    <mergeCell ref="AN6:AO6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="AL6:AM6"/>
+    <mergeCell ref="AP6:AQ6"/>
+    <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="BP6:BQ6"/>
+    <mergeCell ref="BR6:BS6"/>
+    <mergeCell ref="BT6:BU6"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AT6:AU6"/>
+    <mergeCell ref="CV6:CW6"/>
+    <mergeCell ref="CP6:CQ6"/>
+    <mergeCell ref="CR6:CS6"/>
+    <mergeCell ref="BX6:BY6"/>
+    <mergeCell ref="CJ6:CK6"/>
     <mergeCell ref="BZ6:CA6"/>
     <mergeCell ref="CB6:CC6"/>
     <mergeCell ref="CL6:CM6"/>
+    <mergeCell ref="CZ6:DA6"/>
+    <mergeCell ref="DB6:DC6"/>
+    <mergeCell ref="DD6:DE6"/>
+    <mergeCell ref="BV6:BW6"/>
+    <mergeCell ref="CN6:CO6"/>
+    <mergeCell ref="CX6:CY6"/>
     <mergeCell ref="CT6:CU6"/>
     <mergeCell ref="CF6:CG6"/>
     <mergeCell ref="CH6:CI6"/>
@@ -27687,6 +27682,53 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Publiceringsdatum xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">2020-04-28T22:00:00+00:00</Publiceringsdatum>
+    <Verksamhetsomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <Value>Hälso- och sjukvård</Value>
+    </Verksamhetsomr_x00e5_de>
+    <E_x002d_plikt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Ja</E_x002d_plikt>
+    <Produkt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Statistik</Produkt>
+    <Ansvarig_x0020_webbredakt_x00f6_r xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <UserInfo>
+        <DisplayName>Söderholm, Joen</DisplayName>
+        <AccountId>87</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </Ansvarig_x0020_webbredakt_x00f6_r>
+    <TaxCatchAll xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">
+      <Value>9</Value>
+    </TaxCatchAll>
+    <Dokumenttyp xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Övrigt</Dokumenttyp>
+    <Titel xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">statistik-covid19-avlidna</Titel>
+    <Webbplatstillh_x00f6_righet xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <Value>Socialstyrelsen.se</Value>
+    </Webbplatstillh_x00f6_righet>
+    <i01e5b6f93524074838bfc1e1bab8714 xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">statistik och jämförelser</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">338b04a2-62bc-42a8-9e4b-6158db2fb390</TermId>
+        </TermInfo>
+      </Terms>
+    </i01e5b6f93524074838bfc1e1bab8714>
+    <_x00c4_mnesomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
+    <Status_x0020_p_x00e5__x0020_publikation xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Publicerad</Status_x0020_p_x00e5__x0020_publikation>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100361443839E954C488E1554F766430BDE" ma:contentTypeVersion="37" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="ec0867efc9d878e75742a5b73fddae48">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dd3acd59-a8d8-42b1-950d-eec6c247243c" xmlns:ns3="343f6c91-b5b3-4dff-89ad-5fc55ccc8930" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f4ea334ff345e29c5775f0a2fd1174f" ns2:_="" ns3:_="">
     <xsd:import namespace="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
@@ -28019,68 +28061,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Publiceringsdatum xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">2020-04-28T22:00:00+00:00</Publiceringsdatum>
-    <Verksamhetsomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <Value>Hälso- och sjukvård</Value>
-    </Verksamhetsomr_x00e5_de>
-    <E_x002d_plikt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Ja</E_x002d_plikt>
-    <Produkt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Statistik</Produkt>
-    <Ansvarig_x0020_webbredakt_x00f6_r xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <UserInfo>
-        <DisplayName>Söderholm, Joen</DisplayName>
-        <AccountId>87</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </Ansvarig_x0020_webbredakt_x00f6_r>
-    <TaxCatchAll xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">
-      <Value>9</Value>
-    </TaxCatchAll>
-    <Dokumenttyp xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Övrigt</Dokumenttyp>
-    <Titel xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">statistik-covid19-avlidna</Titel>
-    <Webbplatstillh_x00f6_righet xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <Value>Socialstyrelsen.se</Value>
-    </Webbplatstillh_x00f6_righet>
-    <i01e5b6f93524074838bfc1e1bab8714 xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">statistik och jämförelser</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">338b04a2-62bc-42a8-9e4b-6158db2fb390</TermId>
-        </TermInfo>
-      </Terms>
-    </i01e5b6f93524074838bfc1e1bab8714>
-    <_x00c4_mnesomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
-    <Status_x0020_p_x00e5__x0020_publikation xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Publicerad</Status_x0020_p_x00e5__x0020_publikation>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2BDD971-BADF-427E-9579-B824215A28B1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C92573-D875-4871-BB97-75789C903393}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
-    <ds:schemaRef ds:uri="343f6c91-b5b3-4dff-89ad-5fc55ccc8930"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -28103,9 +28087,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C92573-D875-4871-BB97-75789C903393}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2BDD971-BADF-427E-9579-B824215A28B1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
+    <ds:schemaRef ds:uri="343f6c91-b5b3-4dff-89ad-5fc55ccc8930"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/socialstyrelsen/statistik-covid19-inskrivna_latest.xlsx
+++ b/socialstyrelsen/statistik-covid19-inskrivna_latest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\S\Delad\021-Statistik Covid\Excelfiler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Delad\510-Statistik covid19\3. Vård och covid-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="334">
   <si>
     <t>Diabetes</t>
   </si>
@@ -1200,9 +1200,6 @@
     <t xml:space="preserve"> vecka 29 2021</t>
   </si>
   <si>
-    <t xml:space="preserve"> vecka 30 2021</t>
-  </si>
-  <si>
     <t>vecka 20 2021</t>
   </si>
   <si>
@@ -1231,9 +1228,6 @@
   </si>
   <si>
     <t>vecka 29 2021</t>
-  </si>
-  <si>
-    <t>vecka 30 2021</t>
   </si>
   <si>
     <t>Populationen utgörs av alla individer som slutenvårdats för covid-19 med inskrivningsdatum fram till och med 22 juli enligt rapportering till patientregistret eller frivillig särskild</t>
@@ -1594,7 +1588,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -2169,6 +2163,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2220,7 +2225,7 @@
     <xf numFmtId="167" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="269">
+  <cellXfs count="271">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2799,58 +2804,7 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="10" applyBorder="1" applyAlignment="1">
@@ -2880,11 +2834,62 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2937,22 +2942,28 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="51" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="49" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="50" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="29" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="10" applyBorder="1" applyAlignment="1">
@@ -2964,22 +2975,22 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="51" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="49" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="50" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7841,7 +7852,7 @@
     </row>
     <row r="4" spans="2:6" s="30" customFormat="1" ht="13.5" customHeight="1">
       <c r="B4" s="205" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C4" s="206"/>
       <c r="D4" s="206"/>
@@ -7860,7 +7871,7 @@
     </row>
     <row r="6" spans="2:6" s="30" customFormat="1" ht="15.6" customHeight="1">
       <c r="B6" s="205" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C6" s="206"/>
       <c r="D6" s="206"/>
@@ -8460,7 +8471,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="50.45" customHeight="1">
-      <c r="B13" s="210" t="s">
+      <c r="B13" s="231" t="s">
         <v>144</v>
       </c>
       <c r="C13" s="74" t="s">
@@ -8474,24 +8485,24 @@
       </c>
     </row>
     <row r="14" spans="2:5" s="30" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B14" s="211"/>
+      <c r="B14" s="232"/>
       <c r="C14" s="127" t="s">
         <v>216</v>
       </c>
-      <c r="D14" s="208" t="s">
+      <c r="D14" s="229" t="s">
         <v>132</v>
       </c>
-      <c r="E14" s="208" t="s">
+      <c r="E14" s="229" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="15" spans="2:5" s="30" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
-      <c r="B15" s="211"/>
+      <c r="B15" s="232"/>
       <c r="C15" s="110" t="s">
         <v>168</v>
       </c>
-      <c r="D15" s="208"/>
-      <c r="E15" s="209"/>
+      <c r="D15" s="229"/>
+      <c r="E15" s="230"/>
     </row>
     <row r="16" spans="2:5" s="30" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="B16" s="107" t="s">
@@ -8507,20 +8518,20 @@
       <c r="B17" s="104" t="s">
         <v>194</v>
       </c>
-      <c r="C17" s="217" t="s">
+      <c r="C17" s="236" t="s">
         <v>198</v>
       </c>
-      <c r="D17" s="217"/>
+      <c r="D17" s="236"/>
       <c r="E17" s="106"/>
     </row>
     <row r="18" spans="2:6" s="30" customFormat="1" ht="40.5" customHeight="1" thickBot="1">
       <c r="B18" s="105" t="s">
         <v>195</v>
       </c>
-      <c r="C18" s="216" t="s">
+      <c r="C18" s="235" t="s">
         <v>196</v>
       </c>
-      <c r="D18" s="216"/>
+      <c r="D18" s="235"/>
       <c r="E18" s="106"/>
     </row>
     <row r="19" spans="2:6" ht="14.25" thickTop="1">
@@ -8737,16 +8748,16 @@
       <c r="F38" s="39"/>
     </row>
     <row r="39" spans="2:6" ht="27.75" thickTop="1">
-      <c r="B39" s="212" t="s">
+      <c r="B39" s="233" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="214" t="s">
+      <c r="D39" s="234" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="214" t="s">
+      <c r="E39" s="234" t="s">
         <v>49</v>
       </c>
       <c r="F39" s="10" t="s">
@@ -8754,45 +8765,45 @@
       </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="213"/>
+      <c r="B40" s="225"/>
       <c r="C40" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="215"/>
-      <c r="E40" s="215"/>
+      <c r="D40" s="220"/>
+      <c r="E40" s="220"/>
       <c r="F40" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="213"/>
+      <c r="B41" s="225"/>
       <c r="C41" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="215"/>
-      <c r="E41" s="215"/>
+      <c r="D41" s="220"/>
+      <c r="E41" s="220"/>
       <c r="F41" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="213"/>
+      <c r="B42" s="225"/>
       <c r="C42" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="D42" s="215"/>
-      <c r="E42" s="215"/>
+      <c r="D42" s="220"/>
+      <c r="E42" s="220"/>
       <c r="F42" s="11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="27">
-      <c r="B43" s="213"/>
+      <c r="B43" s="225"/>
       <c r="C43" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="D43" s="215"/>
-      <c r="E43" s="215"/>
+      <c r="D43" s="220"/>
+      <c r="E43" s="220"/>
       <c r="F43" s="11" t="s">
         <v>55</v>
       </c>
@@ -8822,22 +8833,22 @@
       <c r="F45" s="26"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="221"/>
-      <c r="C46" s="221"/>
-      <c r="D46" s="215" t="s">
+      <c r="B46" s="219"/>
+      <c r="C46" s="219"/>
+      <c r="D46" s="220" t="s">
         <v>60</v>
       </c>
-      <c r="E46" s="215" t="s">
+      <c r="E46" s="220" t="s">
         <v>61</v>
       </c>
-      <c r="F46" s="215"/>
+      <c r="F46" s="220"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="221"/>
-      <c r="C47" s="221"/>
-      <c r="D47" s="215"/>
-      <c r="E47" s="215"/>
-      <c r="F47" s="215"/>
+      <c r="B47" s="219"/>
+      <c r="C47" s="219"/>
+      <c r="D47" s="220"/>
+      <c r="E47" s="220"/>
+      <c r="F47" s="220"/>
     </row>
     <row r="48" spans="2:6" ht="14.25" thickBot="1">
       <c r="B48" s="39"/>
@@ -8851,16 +8862,16 @@
       <c r="F48" s="40"/>
     </row>
     <row r="49" spans="2:6" ht="14.25" thickTop="1">
-      <c r="B49" s="220" t="s">
+      <c r="B49" s="224" t="s">
         <v>0</v>
       </c>
       <c r="C49" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D49" s="222" t="s">
+      <c r="D49" s="226" t="s">
         <v>65</v>
       </c>
-      <c r="E49" s="222" t="s">
+      <c r="E49" s="226" t="s">
         <v>66</v>
       </c>
       <c r="F49" s="25" t="s">
@@ -8868,30 +8879,30 @@
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="213"/>
+      <c r="B50" s="225"/>
       <c r="C50" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="221"/>
-      <c r="E50" s="221"/>
+      <c r="D50" s="219"/>
+      <c r="E50" s="219"/>
       <c r="F50" s="25"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="213"/>
+      <c r="B51" s="225"/>
       <c r="C51" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="221"/>
-      <c r="E51" s="221"/>
+      <c r="D51" s="219"/>
+      <c r="E51" s="219"/>
       <c r="F51" s="25"/>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="213"/>
+      <c r="B52" s="225"/>
       <c r="C52" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="D52" s="221"/>
-      <c r="E52" s="221"/>
+      <c r="D52" s="219"/>
+      <c r="E52" s="219"/>
       <c r="F52" s="25"/>
     </row>
     <row r="53" spans="2:6" ht="27">
@@ -8943,46 +8954,46 @@
       <c r="F56" s="39"/>
     </row>
     <row r="57" spans="2:6" ht="14.25" thickTop="1">
-      <c r="B57" s="223" t="s">
+      <c r="B57" s="227" t="s">
         <v>76</v>
       </c>
       <c r="C57" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="225" t="s">
+      <c r="D57" s="228" t="s">
         <v>77</v>
       </c>
-      <c r="E57" s="225" t="s">
+      <c r="E57" s="228" t="s">
         <v>76</v>
       </c>
-      <c r="F57" s="218"/>
+      <c r="F57" s="223"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="224"/>
+      <c r="B58" s="218"/>
       <c r="C58" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="215"/>
-      <c r="E58" s="215"/>
-      <c r="F58" s="219"/>
+      <c r="D58" s="220"/>
+      <c r="E58" s="220"/>
+      <c r="F58" s="208"/>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="224"/>
+      <c r="B59" s="218"/>
       <c r="C59" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="215"/>
-      <c r="E59" s="215"/>
-      <c r="F59" s="219"/>
+      <c r="D59" s="220"/>
+      <c r="E59" s="220"/>
+      <c r="F59" s="208"/>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="224"/>
+      <c r="B60" s="218"/>
       <c r="C60" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="D60" s="215"/>
-      <c r="E60" s="215"/>
-      <c r="F60" s="219"/>
+      <c r="D60" s="220"/>
+      <c r="E60" s="220"/>
+      <c r="F60" s="208"/>
     </row>
     <row r="61" spans="2:6" ht="27">
       <c r="B61" s="24"/>
@@ -8998,22 +9009,22 @@
       <c r="F61" s="23"/>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="224"/>
-      <c r="C62" s="221"/>
-      <c r="D62" s="215" t="s">
+      <c r="B62" s="218"/>
+      <c r="C62" s="219"/>
+      <c r="D62" s="220" t="s">
         <v>80</v>
       </c>
-      <c r="E62" s="215" t="s">
+      <c r="E62" s="220" t="s">
         <v>81</v>
       </c>
-      <c r="F62" s="219"/>
+      <c r="F62" s="208"/>
     </row>
     <row r="63" spans="2:6">
-      <c r="B63" s="224"/>
-      <c r="C63" s="221"/>
-      <c r="D63" s="215"/>
-      <c r="E63" s="215"/>
-      <c r="F63" s="219"/>
+      <c r="B63" s="218"/>
+      <c r="C63" s="219"/>
+      <c r="D63" s="220"/>
+      <c r="E63" s="220"/>
+      <c r="F63" s="208"/>
     </row>
     <row r="64" spans="2:6">
       <c r="B64" s="24"/>
@@ -9149,47 +9160,47 @@
     </row>
     <row r="76" spans="2:6" ht="14.25" thickTop="1"/>
     <row r="78" spans="2:6">
-      <c r="B78" s="232" t="s">
+      <c r="B78" s="215" t="s">
         <v>128</v>
       </c>
-      <c r="C78" s="233"/>
-      <c r="D78" s="233"/>
-      <c r="E78" s="233"/>
+      <c r="C78" s="216"/>
+      <c r="D78" s="216"/>
+      <c r="E78" s="216"/>
     </row>
     <row r="79" spans="2:6" s="30" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="B79" s="230" t="s">
+      <c r="B79" s="213" t="s">
         <v>257</v>
       </c>
-      <c r="C79" s="230"/>
-      <c r="D79" s="230"/>
+      <c r="C79" s="213"/>
+      <c r="D79" s="213"/>
       <c r="E79" s="28"/>
     </row>
     <row r="80" spans="2:6">
       <c r="B80" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C80" s="229" t="s">
+      <c r="C80" s="212" t="s">
         <v>121</v>
       </c>
-      <c r="D80" s="229"/>
+      <c r="D80" s="212"/>
     </row>
     <row r="81" spans="2:4" ht="57" customHeight="1">
       <c r="B81" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="C81" s="231" t="s">
+      <c r="C81" s="214" t="s">
         <v>124</v>
       </c>
-      <c r="D81" s="231"/>
+      <c r="D81" s="214"/>
     </row>
     <row r="82" spans="2:4" ht="72" customHeight="1" thickBot="1">
       <c r="B82" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="C82" s="228" t="s">
+      <c r="C82" s="211" t="s">
         <v>125</v>
       </c>
-      <c r="D82" s="228"/>
+      <c r="D82" s="211"/>
     </row>
     <row r="83" spans="2:4" ht="14.25" thickTop="1"/>
     <row r="84" spans="2:4">
@@ -9204,257 +9215,257 @@
       <c r="C85" s="73"/>
     </row>
     <row r="86" spans="2:4" ht="42" customHeight="1" thickBot="1">
-      <c r="B86" s="236" t="s">
+      <c r="B86" s="222" t="s">
         <v>167</v>
       </c>
-      <c r="C86" s="236"/>
-      <c r="D86" s="236"/>
+      <c r="C86" s="222"/>
+      <c r="D86" s="222"/>
     </row>
     <row r="87" spans="2:4" ht="14.25" thickBot="1">
-      <c r="B87" s="226" t="s">
+      <c r="B87" s="209" t="s">
         <v>129</v>
       </c>
-      <c r="C87" s="234" t="s">
+      <c r="C87" s="217" t="s">
         <v>202</v>
       </c>
-      <c r="D87" s="235" t="s">
+      <c r="D87" s="221" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="88" spans="2:4">
-      <c r="B88" s="227"/>
-      <c r="C88" s="234"/>
-      <c r="D88" s="235"/>
+      <c r="B88" s="210"/>
+      <c r="C88" s="217"/>
+      <c r="D88" s="221"/>
     </row>
     <row r="89" spans="2:4">
       <c r="B89" s="19" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C89" s="130">
         <v>44402</v>
       </c>
       <c r="D89" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="90" spans="2:4">
       <c r="B90" s="30" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C90" s="130">
         <v>44398</v>
       </c>
       <c r="D90" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="91" spans="2:4">
       <c r="B91" s="30" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C91" s="130">
         <v>44377</v>
       </c>
       <c r="D91" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="92" spans="2:4">
       <c r="B92" s="30" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C92" s="130">
         <v>44400</v>
       </c>
       <c r="D92" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="93" spans="2:4">
       <c r="B93" s="30" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C93" s="130">
         <v>44402</v>
       </c>
       <c r="D93" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="94" spans="2:4">
       <c r="B94" s="30" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C94" s="130">
         <v>44395</v>
       </c>
       <c r="D94" s="30" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="95" spans="2:4">
       <c r="B95" s="30" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C95" s="130">
         <v>44401</v>
       </c>
       <c r="D95" s="30" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="96" spans="2:4">
       <c r="B96" s="30" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C96" s="130">
         <v>44401</v>
       </c>
       <c r="D96" s="30" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="97" spans="2:4">
       <c r="B97" s="30" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C97" s="130">
         <v>44402</v>
       </c>
       <c r="D97" s="30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="98" spans="2:4">
       <c r="B98" s="30" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C98" s="130">
         <v>44377</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="99" spans="2:4">
       <c r="B99" s="30" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C99" s="130">
         <v>44397</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="100" spans="2:4">
       <c r="B100" s="19" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C100" s="130">
         <v>44402</v>
       </c>
       <c r="D100" s="30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" s="30" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C101" s="130">
         <v>44403</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="102" spans="2:4">
       <c r="B102" s="30" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C102" s="130">
         <v>44402</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="103" spans="2:4">
       <c r="B103" s="30" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C103" s="130">
         <v>44402</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="104" spans="2:4">
       <c r="B104" s="30" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C104" s="130">
         <v>44397</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="105" spans="2:4">
       <c r="B105" s="18" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C105" s="130">
         <v>44404</v>
       </c>
       <c r="D105" s="30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="106" spans="2:4">
       <c r="B106" s="30" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C106" s="130">
         <v>44404</v>
       </c>
       <c r="D106" s="30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="107" spans="2:4">
       <c r="B107" s="30" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C107" s="130">
         <v>44402</v>
       </c>
       <c r="D107" s="30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="108" spans="2:4">
       <c r="B108" s="30" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C108" s="130">
         <v>44402</v>
       </c>
       <c r="D108" s="30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="109" spans="2:4" ht="14.25" thickBot="1">
       <c r="B109" s="21" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C109" s="131">
         <v>44402</v>
       </c>
       <c r="D109" s="132" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="110" spans="2:4" ht="14.25" thickTop="1"/>
@@ -9463,6 +9474,26 @@
     <sortCondition ref="B85:B105"/>
   </sortState>
   <mergeCells count="34">
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="E57:E60"/>
     <mergeCell ref="F62:F63"/>
     <mergeCell ref="B87:B88"/>
     <mergeCell ref="C82:D82"/>
@@ -9477,26 +9508,6 @@
     <mergeCell ref="E62:E63"/>
     <mergeCell ref="D87:D88"/>
     <mergeCell ref="B86:D86"/>
-    <mergeCell ref="F57:F60"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" location="Definitioner!B21" display="Riskfaktorer"/>
@@ -9709,22 +9720,22 @@
         <v>186</v>
       </c>
       <c r="B10" s="111" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C10" s="112" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D10" s="111" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E10" s="113" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F10" s="111" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G10" s="114" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:22" s="30" customFormat="1">
@@ -9799,22 +9810,22 @@
         <v>6</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C14" s="120" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E14" s="44" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G14" s="43" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -10028,22 +10039,22 @@
     <row r="24" spans="1:8">
       <c r="A24" s="30"/>
       <c r="B24" s="115" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C24" s="119" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D24" s="116" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E24" s="80" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F24" s="116" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G24" s="81" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -10051,22 +10062,22 @@
         <v>111</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C25" s="120" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E25" s="44" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G25" s="43" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -10166,22 +10177,22 @@
         <v>120</v>
       </c>
       <c r="B30" s="70" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C30" s="120" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D30" s="70" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E30" s="72" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F30" s="70" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G30" s="71" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -10257,22 +10268,22 @@
     <row r="34" spans="1:7">
       <c r="A34" s="22"/>
       <c r="B34" s="115" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C34" s="119" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D34" s="115" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E34" s="80" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F34" s="115" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G34" s="81" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -10280,22 +10291,22 @@
         <v>126</v>
       </c>
       <c r="B35" s="70" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C35" s="120" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D35" s="70" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E35" s="72" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F35" s="70" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G35" s="71" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -10489,7 +10500,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="63" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B8" s="87">
         <v>69442</v>
@@ -10518,24 +10529,24 @@
         <v>0</v>
       </c>
       <c r="C9" s="135" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D9" s="137">
         <v>0</v>
       </c>
       <c r="E9" s="136" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F9" s="137">
         <v>0</v>
       </c>
       <c r="G9" s="136" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="68" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B10" s="89">
         <v>21602</v>
@@ -10558,7 +10569,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="68" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B11" s="91">
         <v>10951</v>
@@ -10581,7 +10592,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="64" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B12" s="91">
         <v>7595</v>
@@ -10604,7 +10615,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="30" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B13" s="91">
         <v>3381</v>
@@ -10627,7 +10638,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="30" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B14" s="34">
         <v>2906</v>
@@ -10650,7 +10661,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="30" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B15" s="34">
         <v>2466</v>
@@ -10673,7 +10684,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="30" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B16" s="34">
         <v>2463</v>
@@ -10696,7 +10707,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="30" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B17" s="34">
         <v>2198</v>
@@ -10719,7 +10730,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="30" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B18" s="34">
         <v>1724</v>
@@ -10742,7 +10753,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="30" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B19" s="91">
         <v>1717</v>
@@ -10765,7 +10776,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="30" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B20" s="34">
         <v>1684</v>
@@ -10788,7 +10799,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="18" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B21" s="94">
         <v>1598</v>
@@ -10811,7 +10822,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="30" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B22" s="34">
         <v>1593</v>
@@ -10834,7 +10845,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="30" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B23" s="91">
         <v>1393</v>
@@ -10857,7 +10868,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="30" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B24" s="34">
         <v>1278</v>
@@ -10880,7 +10891,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="30" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B25" s="34">
         <v>1214</v>
@@ -10903,7 +10914,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="30" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B26" s="34">
         <v>1135</v>
@@ -10926,7 +10937,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="30" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B27" s="34">
         <v>954</v>
@@ -10949,7 +10960,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="30" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B28" s="91">
         <v>822</v>
@@ -10972,7 +10983,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="30" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B29" s="34">
         <v>494</v>
@@ -10995,7 +11006,7 @@
     </row>
     <row r="30" spans="1:7" ht="14.25" thickBot="1">
       <c r="A30" s="142" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B30" s="143">
         <v>274</v>
@@ -11062,7 +11073,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EU37"/>
+  <dimension ref="A1:ES37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -11097,12 +11108,12 @@
     <col min="108" max="16384" width="9.33203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:151" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:149" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:151" ht="30" customHeight="1">
+    <row r="2" spans="1:149" ht="30" customHeight="1">
       <c r="A2" s="237" t="s">
         <v>255</v>
       </c>
@@ -11115,7 +11126,7 @@
       <c r="H2" s="237"/>
       <c r="I2" s="237"/>
     </row>
-    <row r="3" spans="1:151">
+    <row r="3" spans="1:149">
       <c r="A3" s="61"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
@@ -11128,11 +11139,11 @@
       <c r="J3" s="61"/>
       <c r="K3" s="61"/>
     </row>
-    <row r="4" spans="1:151" ht="14.25" thickBot="1">
+    <row r="4" spans="1:149" ht="14.25" thickBot="1">
       <c r="B4" s="86"/>
       <c r="C4" s="163"/>
     </row>
-    <row r="5" spans="1:151" ht="28.5" customHeight="1">
+    <row r="5" spans="1:149" ht="28.5" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="250" t="s">
         <v>181</v>
@@ -11252,348 +11263,342 @@
       <c r="DI5" s="182"/>
       <c r="DJ5" s="182"/>
       <c r="DK5" s="194"/>
-      <c r="DL5" s="263" t="s">
+      <c r="DL5" s="254" t="s">
         <v>175</v>
       </c>
-      <c r="DM5" s="264"/>
-      <c r="DN5" s="264"/>
-      <c r="DO5" s="264"/>
-      <c r="DP5" s="264"/>
-      <c r="DQ5" s="264"/>
-      <c r="DR5" s="264"/>
-      <c r="DS5" s="264"/>
-      <c r="DT5" s="264"/>
-      <c r="DU5" s="264"/>
-      <c r="DV5" s="264"/>
-      <c r="DW5" s="264"/>
-      <c r="DX5" s="264"/>
-      <c r="DY5" s="264"/>
-      <c r="DZ5" s="264"/>
-      <c r="EA5" s="264"/>
-      <c r="EB5" s="264"/>
-      <c r="EC5" s="264"/>
-      <c r="ED5" s="264"/>
-      <c r="EE5" s="264"/>
-      <c r="EF5" s="264"/>
-      <c r="EG5" s="264"/>
-      <c r="EH5" s="264"/>
-      <c r="EI5" s="264"/>
-      <c r="EJ5" s="264"/>
-      <c r="EK5" s="264"/>
-      <c r="EL5" s="264"/>
-      <c r="EM5" s="264"/>
-      <c r="EN5" s="264"/>
-      <c r="EO5" s="264"/>
-      <c r="EP5" s="264"/>
-      <c r="EQ5" s="264"/>
-      <c r="ER5" s="182"/>
-      <c r="ES5" s="182"/>
-      <c r="ET5" s="182"/>
-      <c r="EU5" s="194"/>
+      <c r="DM5" s="255"/>
+      <c r="DN5" s="255"/>
+      <c r="DO5" s="255"/>
+      <c r="DP5" s="255"/>
+      <c r="DQ5" s="255"/>
+      <c r="DR5" s="255"/>
+      <c r="DS5" s="255"/>
+      <c r="DT5" s="255"/>
+      <c r="DU5" s="255"/>
+      <c r="DV5" s="255"/>
+      <c r="DW5" s="255"/>
+      <c r="DX5" s="255"/>
+      <c r="DY5" s="255"/>
+      <c r="DZ5" s="255"/>
+      <c r="EA5" s="255"/>
+      <c r="EB5" s="255"/>
+      <c r="EC5" s="255"/>
+      <c r="ED5" s="255"/>
+      <c r="EE5" s="255"/>
+      <c r="EF5" s="255"/>
+      <c r="EG5" s="255"/>
+      <c r="EH5" s="255"/>
+      <c r="EI5" s="255"/>
+      <c r="EJ5" s="255"/>
+      <c r="EK5" s="255"/>
+      <c r="EL5" s="255"/>
+      <c r="EM5" s="255"/>
+      <c r="EN5" s="255"/>
+      <c r="EO5" s="255"/>
+      <c r="EP5" s="255"/>
+      <c r="EQ5" s="255"/>
+      <c r="ER5" s="255"/>
+      <c r="ES5" s="270"/>
     </row>
-    <row r="6" spans="1:151" ht="13.5" customHeight="1">
-      <c r="A6" s="262"/>
-      <c r="B6" s="260"/>
-      <c r="C6" s="261"/>
-      <c r="D6" s="256" t="s">
+    <row r="6" spans="1:149" ht="13.5" customHeight="1">
+      <c r="A6" s="264"/>
+      <c r="B6" s="262"/>
+      <c r="C6" s="263"/>
+      <c r="D6" s="260" t="s">
         <v>176</v>
       </c>
-      <c r="E6" s="257"/>
-      <c r="F6" s="256" t="s">
+      <c r="E6" s="261"/>
+      <c r="F6" s="260" t="s">
         <v>177</v>
       </c>
-      <c r="G6" s="257"/>
-      <c r="H6" s="256" t="s">
+      <c r="G6" s="261"/>
+      <c r="H6" s="260" t="s">
         <v>172</v>
       </c>
-      <c r="I6" s="257"/>
-      <c r="J6" s="256" t="s">
+      <c r="I6" s="261"/>
+      <c r="J6" s="260" t="s">
         <v>148</v>
       </c>
-      <c r="K6" s="257"/>
-      <c r="L6" s="256" t="s">
+      <c r="K6" s="261"/>
+      <c r="L6" s="260" t="s">
         <v>149</v>
       </c>
-      <c r="M6" s="257"/>
-      <c r="N6" s="256" t="s">
+      <c r="M6" s="261"/>
+      <c r="N6" s="260" t="s">
         <v>150</v>
       </c>
-      <c r="O6" s="257"/>
-      <c r="P6" s="256" t="s">
+      <c r="O6" s="261"/>
+      <c r="P6" s="260" t="s">
         <v>151</v>
       </c>
-      <c r="Q6" s="257"/>
-      <c r="R6" s="256" t="s">
+      <c r="Q6" s="261"/>
+      <c r="R6" s="260" t="s">
         <v>152</v>
       </c>
-      <c r="S6" s="257"/>
-      <c r="T6" s="256" t="s">
+      <c r="S6" s="261"/>
+      <c r="T6" s="260" t="s">
         <v>153</v>
       </c>
-      <c r="U6" s="257"/>
-      <c r="V6" s="256" t="s">
+      <c r="U6" s="261"/>
+      <c r="V6" s="260" t="s">
         <v>154</v>
       </c>
-      <c r="W6" s="257"/>
-      <c r="X6" s="256" t="s">
+      <c r="W6" s="261"/>
+      <c r="X6" s="260" t="s">
         <v>155</v>
       </c>
-      <c r="Y6" s="257"/>
-      <c r="Z6" s="256" t="s">
+      <c r="Y6" s="261"/>
+      <c r="Z6" s="260" t="s">
         <v>156</v>
       </c>
-      <c r="AA6" s="257"/>
-      <c r="AB6" s="256" t="s">
+      <c r="AA6" s="261"/>
+      <c r="AB6" s="260" t="s">
         <v>180</v>
       </c>
-      <c r="AC6" s="257"/>
-      <c r="AD6" s="256" t="s">
+      <c r="AC6" s="261"/>
+      <c r="AD6" s="260" t="s">
         <v>200</v>
       </c>
-      <c r="AE6" s="257"/>
-      <c r="AF6" s="256" t="s">
+      <c r="AE6" s="261"/>
+      <c r="AF6" s="260" t="s">
         <v>208</v>
       </c>
-      <c r="AG6" s="257"/>
-      <c r="AH6" s="256" t="s">
+      <c r="AG6" s="261"/>
+      <c r="AH6" s="260" t="s">
         <v>212</v>
       </c>
-      <c r="AI6" s="257"/>
-      <c r="AJ6" s="256" t="s">
+      <c r="AI6" s="261"/>
+      <c r="AJ6" s="260" t="s">
         <v>218</v>
       </c>
-      <c r="AK6" s="257"/>
-      <c r="AL6" s="256" t="s">
+      <c r="AK6" s="261"/>
+      <c r="AL6" s="260" t="s">
         <v>219</v>
       </c>
-      <c r="AM6" s="257"/>
-      <c r="AN6" s="256" t="s">
+      <c r="AM6" s="261"/>
+      <c r="AN6" s="260" t="s">
         <v>220</v>
       </c>
-      <c r="AO6" s="257"/>
-      <c r="AP6" s="256" t="s">
+      <c r="AO6" s="261"/>
+      <c r="AP6" s="260" t="s">
         <v>221</v>
       </c>
-      <c r="AQ6" s="257"/>
-      <c r="AR6" s="256" t="s">
+      <c r="AQ6" s="261"/>
+      <c r="AR6" s="260" t="s">
         <v>222</v>
       </c>
-      <c r="AS6" s="257"/>
-      <c r="AT6" s="256" t="s">
+      <c r="AS6" s="261"/>
+      <c r="AT6" s="260" t="s">
         <v>223</v>
       </c>
-      <c r="AU6" s="257"/>
-      <c r="AV6" s="256" t="s">
+      <c r="AU6" s="261"/>
+      <c r="AV6" s="260" t="s">
         <v>224</v>
       </c>
-      <c r="AW6" s="257"/>
-      <c r="AX6" s="256" t="s">
+      <c r="AW6" s="261"/>
+      <c r="AX6" s="260" t="s">
         <v>225</v>
       </c>
-      <c r="AY6" s="257"/>
-      <c r="AZ6" s="256" t="s">
+      <c r="AY6" s="261"/>
+      <c r="AZ6" s="260" t="s">
         <v>226</v>
       </c>
-      <c r="BA6" s="258"/>
-      <c r="BB6" s="254" t="s">
+      <c r="BA6" s="265"/>
+      <c r="BB6" s="256" t="s">
         <v>228</v>
       </c>
-      <c r="BC6" s="259"/>
-      <c r="BD6" s="254" t="s">
+      <c r="BC6" s="266"/>
+      <c r="BD6" s="256" t="s">
         <v>229</v>
       </c>
-      <c r="BE6" s="255"/>
-      <c r="BF6" s="254" t="s">
+      <c r="BE6" s="257"/>
+      <c r="BF6" s="256" t="s">
         <v>230</v>
       </c>
-      <c r="BG6" s="255"/>
-      <c r="BH6" s="254" t="s">
+      <c r="BG6" s="257"/>
+      <c r="BH6" s="256" t="s">
         <v>232</v>
       </c>
-      <c r="BI6" s="255"/>
-      <c r="BJ6" s="254" t="s">
+      <c r="BI6" s="257"/>
+      <c r="BJ6" s="256" t="s">
         <v>231</v>
       </c>
-      <c r="BK6" s="255"/>
-      <c r="BL6" s="254" t="s">
+      <c r="BK6" s="257"/>
+      <c r="BL6" s="256" t="s">
         <v>233</v>
       </c>
-      <c r="BM6" s="255"/>
-      <c r="BN6" s="254" t="s">
+      <c r="BM6" s="257"/>
+      <c r="BN6" s="256" t="s">
         <v>235</v>
       </c>
-      <c r="BO6" s="255"/>
-      <c r="BP6" s="254" t="s">
+      <c r="BO6" s="257"/>
+      <c r="BP6" s="256" t="s">
         <v>236</v>
       </c>
-      <c r="BQ6" s="255"/>
-      <c r="BR6" s="254" t="s">
+      <c r="BQ6" s="257"/>
+      <c r="BR6" s="256" t="s">
         <v>242</v>
       </c>
-      <c r="BS6" s="255"/>
-      <c r="BT6" s="254" t="s">
+      <c r="BS6" s="257"/>
+      <c r="BT6" s="256" t="s">
         <v>241</v>
       </c>
-      <c r="BU6" s="255"/>
-      <c r="BV6" s="254" t="s">
+      <c r="BU6" s="257"/>
+      <c r="BV6" s="256" t="s">
         <v>240</v>
       </c>
-      <c r="BW6" s="255"/>
-      <c r="BX6" s="254" t="s">
+      <c r="BW6" s="257"/>
+      <c r="BX6" s="256" t="s">
         <v>239</v>
       </c>
-      <c r="BY6" s="255"/>
-      <c r="BZ6" s="254" t="s">
+      <c r="BY6" s="257"/>
+      <c r="BZ6" s="256" t="s">
         <v>238</v>
       </c>
-      <c r="CA6" s="255"/>
-      <c r="CB6" s="254" t="s">
+      <c r="CA6" s="257"/>
+      <c r="CB6" s="256" t="s">
         <v>237</v>
       </c>
-      <c r="CC6" s="255"/>
-      <c r="CD6" s="254" t="s">
+      <c r="CC6" s="257"/>
+      <c r="CD6" s="256" t="s">
         <v>244</v>
       </c>
-      <c r="CE6" s="255"/>
-      <c r="CF6" s="254" t="s">
+      <c r="CE6" s="257"/>
+      <c r="CF6" s="256" t="s">
         <v>243</v>
       </c>
-      <c r="CG6" s="255"/>
-      <c r="CH6" s="254" t="s">
+      <c r="CG6" s="257"/>
+      <c r="CH6" s="256" t="s">
         <v>245</v>
       </c>
-      <c r="CI6" s="255"/>
-      <c r="CJ6" s="254" t="s">
+      <c r="CI6" s="257"/>
+      <c r="CJ6" s="256" t="s">
         <v>246</v>
       </c>
-      <c r="CK6" s="255"/>
-      <c r="CL6" s="254" t="s">
+      <c r="CK6" s="257"/>
+      <c r="CL6" s="256" t="s">
         <v>247</v>
       </c>
-      <c r="CM6" s="255"/>
-      <c r="CN6" s="254" t="s">
+      <c r="CM6" s="257"/>
+      <c r="CN6" s="256" t="s">
         <v>248</v>
       </c>
-      <c r="CO6" s="255"/>
-      <c r="CP6" s="254" t="s">
+      <c r="CO6" s="257"/>
+      <c r="CP6" s="256" t="s">
         <v>249</v>
       </c>
-      <c r="CQ6" s="255"/>
-      <c r="CR6" s="254" t="s">
+      <c r="CQ6" s="257"/>
+      <c r="CR6" s="256" t="s">
         <v>250</v>
       </c>
-      <c r="CS6" s="255"/>
-      <c r="CT6" s="254" t="s">
+      <c r="CS6" s="257"/>
+      <c r="CT6" s="256" t="s">
         <v>251</v>
       </c>
-      <c r="CU6" s="255"/>
-      <c r="CV6" s="254" t="s">
+      <c r="CU6" s="257"/>
+      <c r="CV6" s="256" t="s">
         <v>252</v>
       </c>
-      <c r="CW6" s="255"/>
-      <c r="CX6" s="254" t="s">
+      <c r="CW6" s="257"/>
+      <c r="CX6" s="256" t="s">
         <v>253</v>
       </c>
-      <c r="CY6" s="255"/>
-      <c r="CZ6" s="254" t="s">
+      <c r="CY6" s="257"/>
+      <c r="CZ6" s="256" t="s">
         <v>258</v>
       </c>
-      <c r="DA6" s="255"/>
-      <c r="DB6" s="254" t="s">
+      <c r="DA6" s="257"/>
+      <c r="DB6" s="256" t="s">
         <v>259</v>
       </c>
-      <c r="DC6" s="255"/>
-      <c r="DD6" s="254" t="s">
+      <c r="DC6" s="257"/>
+      <c r="DD6" s="256" t="s">
         <v>270</v>
       </c>
-      <c r="DE6" s="255"/>
-      <c r="DF6" s="254" t="s">
+      <c r="DE6" s="257"/>
+      <c r="DF6" s="256" t="s">
         <v>271</v>
       </c>
-      <c r="DG6" s="255"/>
-      <c r="DH6" s="254" t="s">
+      <c r="DG6" s="257"/>
+      <c r="DH6" s="256" t="s">
         <v>272</v>
       </c>
-      <c r="DI6" s="255"/>
-      <c r="DJ6" s="254" t="s">
+      <c r="DI6" s="257"/>
+      <c r="DJ6" s="256" t="s">
         <v>273</v>
       </c>
-      <c r="DK6" s="255"/>
-      <c r="DL6" s="254" t="s">
+      <c r="DK6" s="257"/>
+      <c r="DL6" s="256" t="s">
         <v>274</v>
       </c>
-      <c r="DM6" s="255"/>
-      <c r="DN6" s="254" t="s">
+      <c r="DM6" s="257"/>
+      <c r="DN6" s="256" t="s">
         <v>275</v>
       </c>
-      <c r="DO6" s="255"/>
-      <c r="DP6" s="254" t="s">
+      <c r="DO6" s="257"/>
+      <c r="DP6" s="256" t="s">
         <v>276</v>
       </c>
-      <c r="DQ6" s="255"/>
-      <c r="DR6" s="254" t="s">
+      <c r="DQ6" s="257"/>
+      <c r="DR6" s="256" t="s">
         <v>277</v>
       </c>
-      <c r="DS6" s="255"/>
-      <c r="DT6" s="254" t="s">
+      <c r="DS6" s="257"/>
+      <c r="DT6" s="256" t="s">
         <v>278</v>
       </c>
-      <c r="DU6" s="255"/>
-      <c r="DV6" s="254" t="s">
+      <c r="DU6" s="257"/>
+      <c r="DV6" s="256" t="s">
         <v>279</v>
       </c>
-      <c r="DW6" s="255"/>
-      <c r="DX6" s="265" t="s">
+      <c r="DW6" s="257"/>
+      <c r="DX6" s="258" t="s">
         <v>281</v>
       </c>
-      <c r="DY6" s="266"/>
-      <c r="DZ6" s="254" t="s">
+      <c r="DY6" s="259"/>
+      <c r="DZ6" s="256" t="s">
         <v>283</v>
       </c>
-      <c r="EA6" s="255"/>
-      <c r="EB6" s="254" t="s">
+      <c r="EA6" s="257"/>
+      <c r="EB6" s="256" t="s">
         <v>284</v>
       </c>
-      <c r="EC6" s="255"/>
-      <c r="ED6" s="254" t="s">
+      <c r="EC6" s="257"/>
+      <c r="ED6" s="256" t="s">
         <v>285</v>
       </c>
-      <c r="EE6" s="255"/>
-      <c r="EF6" s="254" t="s">
+      <c r="EE6" s="257"/>
+      <c r="EF6" s="256" t="s">
         <v>286</v>
       </c>
-      <c r="EG6" s="255"/>
-      <c r="EH6" s="254" t="s">
+      <c r="EG6" s="257"/>
+      <c r="EH6" s="256" t="s">
         <v>287</v>
       </c>
-      <c r="EI6" s="255"/>
-      <c r="EJ6" s="254" t="s">
+      <c r="EI6" s="257"/>
+      <c r="EJ6" s="256" t="s">
         <v>288</v>
       </c>
-      <c r="EK6" s="255"/>
-      <c r="EL6" s="254" t="s">
+      <c r="EK6" s="257"/>
+      <c r="EL6" s="256" t="s">
         <v>289</v>
       </c>
-      <c r="EM6" s="255"/>
-      <c r="EN6" s="254" t="s">
+      <c r="EM6" s="257"/>
+      <c r="EN6" s="256" t="s">
         <v>290</v>
       </c>
-      <c r="EO6" s="255"/>
-      <c r="EP6" s="254" t="s">
+      <c r="EO6" s="257"/>
+      <c r="EP6" s="256" t="s">
         <v>291</v>
       </c>
-      <c r="EQ6" s="255"/>
-      <c r="ER6" s="254" t="s">
+      <c r="EQ6" s="257"/>
+      <c r="ER6" s="256" t="s">
         <v>292</v>
       </c>
-      <c r="ES6" s="255"/>
-      <c r="ET6" s="254" t="s">
-        <v>293</v>
-      </c>
-      <c r="EU6" s="255"/>
+      <c r="ES6" s="257"/>
     </row>
-    <row r="7" spans="1:151">
-      <c r="A7" s="262"/>
+    <row r="7" spans="1:149">
+      <c r="A7" s="264"/>
       <c r="B7" s="162" t="s">
         <v>5</v>
       </c>
@@ -12038,16 +12043,10 @@
       <c r="ES7" s="159" t="s">
         <v>146</v>
       </c>
-      <c r="ET7" s="159" t="s">
-        <v>5</v>
-      </c>
-      <c r="EU7" s="159" t="s">
-        <v>146</v>
-      </c>
     </row>
-    <row r="8" spans="1:151">
+    <row r="8" spans="1:149">
       <c r="A8" s="158" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B8" s="101">
         <v>69442</v>
@@ -12493,14 +12492,8 @@
       <c r="ES8" s="157">
         <v>1.4400506897840001E-2</v>
       </c>
-      <c r="ET8" s="101">
-        <v>0</v>
-      </c>
-      <c r="EU8" s="157">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:151">
+    <row r="9" spans="1:149">
       <c r="A9" s="66" t="s">
         <v>129</v>
       </c>
@@ -12652,12 +12645,10 @@
       <c r="EQ9" s="153"/>
       <c r="ER9" s="65"/>
       <c r="ES9" s="153"/>
-      <c r="ET9" s="65"/>
-      <c r="EU9" s="153"/>
     </row>
-    <row r="10" spans="1:151">
+    <row r="10" spans="1:149">
       <c r="A10" s="158" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B10" s="101">
         <v>21602</v>
@@ -13103,16 +13094,10 @@
       <c r="ES10" s="152">
         <v>0</v>
       </c>
-      <c r="ET10" s="101">
-        <v>0</v>
-      </c>
-      <c r="EU10" s="152">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:151">
+    <row r="11" spans="1:149">
       <c r="A11" s="158" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B11" s="78">
         <v>10951</v>
@@ -13558,16 +13543,10 @@
       <c r="ES11" s="152">
         <v>6.3921103095609999E-2</v>
       </c>
-      <c r="ET11" s="78">
-        <v>0</v>
-      </c>
-      <c r="EU11" s="152">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:151">
+    <row r="12" spans="1:149">
       <c r="A12" s="158" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B12" s="78">
         <v>7595</v>
@@ -13576,10 +13555,10 @@
         <v>10.9371849889116</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E12" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F12" s="78">
         <v>8</v>
@@ -13990,22 +13969,22 @@
         <v>6.5832784726789995E-2</v>
       </c>
       <c r="EL12" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EM12" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EN12" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EO12" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EP12" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EQ12" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="ER12" s="78">
         <v>0</v>
@@ -14013,16 +13992,10 @@
       <c r="ES12" s="152">
         <v>0</v>
       </c>
-      <c r="ET12" s="78">
-        <v>0</v>
-      </c>
-      <c r="EU12" s="152">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:151">
+    <row r="13" spans="1:149">
       <c r="A13" s="158" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B13" s="78">
         <v>3381</v>
@@ -14187,10 +14160,10 @@
         <v>0.23661638568471</v>
       </c>
       <c r="BD13" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE13" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF13" s="78">
         <v>7</v>
@@ -14445,16 +14418,16 @@
         <v>0.17746228926353</v>
       </c>
       <c r="EL13" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EM13" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EN13" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EO13" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EP13" s="78">
         <v>0</v>
@@ -14468,16 +14441,10 @@
       <c r="ES13" s="152">
         <v>0</v>
       </c>
-      <c r="ET13" s="78">
-        <v>0</v>
-      </c>
-      <c r="EU13" s="152">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:151">
+    <row r="14" spans="1:149">
       <c r="A14" s="158" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B14" s="78">
         <v>2906</v>
@@ -14486,10 +14453,10 @@
         <v>4.1847873045131196</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E14" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F14" s="78">
         <v>9</v>
@@ -14630,16 +14597,16 @@
         <v>0.24088093599449001</v>
       </c>
       <c r="AZ14" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BA14" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BB14" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC14" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BD14" s="78">
         <v>4</v>
@@ -14654,22 +14621,22 @@
         <v>0.20646937370957</v>
       </c>
       <c r="BH14" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BI14" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BJ14" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BK14" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BL14" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BM14" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BN14" s="78">
         <v>15</v>
@@ -14900,10 +14867,10 @@
         <v>0.13764624913970999</v>
       </c>
       <c r="EL14" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EM14" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EN14" s="78">
         <v>0</v>
@@ -14912,10 +14879,10 @@
         <v>0</v>
       </c>
       <c r="EP14" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EQ14" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="ER14" s="78">
         <v>0</v>
@@ -14923,16 +14890,10 @@
       <c r="ES14" s="152">
         <v>0</v>
       </c>
-      <c r="ET14" s="78">
-        <v>0</v>
-      </c>
-      <c r="EU14" s="152">
-        <v>0</v>
-      </c>
     </row>
-    <row r="15" spans="1:151">
+    <row r="15" spans="1:149">
       <c r="A15" s="158" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B15" s="78">
         <v>2466</v>
@@ -14941,10 +14902,10 @@
         <v>3.55116500100804</v>
       </c>
       <c r="D15" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E15" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F15" s="78">
         <v>10</v>
@@ -15049,28 +15010,28 @@
         <v>0.44606650446066998</v>
       </c>
       <c r="AN15" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO15" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AP15" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AQ15" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AR15" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AS15" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AT15" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU15" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AV15" s="78">
         <v>4</v>
@@ -15085,16 +15046,16 @@
         <v>0.16220600162206</v>
       </c>
       <c r="AZ15" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BA15" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BB15" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC15" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BD15" s="78">
         <v>4</v>
@@ -15109,10 +15070,10 @@
         <v>0.16220600162206</v>
       </c>
       <c r="BH15" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BI15" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BJ15" s="78">
         <v>4</v>
@@ -15343,10 +15304,10 @@
         <v>0.24330900243309</v>
       </c>
       <c r="EH15" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EI15" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EJ15" s="78">
         <v>0</v>
@@ -15367,10 +15328,10 @@
         <v>0</v>
       </c>
       <c r="EP15" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EQ15" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="ER15" s="78">
         <v>0</v>
@@ -15378,16 +15339,10 @@
       <c r="ES15" s="152">
         <v>0</v>
       </c>
-      <c r="ET15" s="78">
-        <v>0</v>
-      </c>
-      <c r="EU15" s="152">
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="1:151">
+    <row r="16" spans="1:149">
       <c r="A16" s="158" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B16" s="78">
         <v>2463</v>
@@ -15564,10 +15519,10 @@
         <v>0.44660982541616001</v>
       </c>
       <c r="BH16" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BI16" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BJ16" s="78">
         <v>7</v>
@@ -15822,10 +15777,10 @@
         <v>0.32480714575720998</v>
       </c>
       <c r="EP16" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EQ16" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="ER16" s="78">
         <v>0</v>
@@ -15833,16 +15788,10 @@
       <c r="ES16" s="152">
         <v>0</v>
       </c>
-      <c r="ET16" s="78">
-        <v>0</v>
-      </c>
-      <c r="EU16" s="152">
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="1:151">
+    <row r="17" spans="1:149">
       <c r="A17" s="158" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B17" s="78">
         <v>2198</v>
@@ -15851,10 +15800,10 @@
         <v>3.1652314161458501</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E17" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F17" s="78">
         <v>7</v>
@@ -15971,16 +15920,16 @@
         <v>0.31847133757961998</v>
       </c>
       <c r="AR17" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AS17" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AT17" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU17" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AV17" s="78">
         <v>0</v>
@@ -15989,22 +15938,22 @@
         <v>0</v>
       </c>
       <c r="AX17" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AY17" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AZ17" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BA17" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BB17" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC17" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BD17" s="78">
         <v>0</v>
@@ -16013,34 +15962,34 @@
         <v>0</v>
       </c>
       <c r="BF17" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BG17" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BH17" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BI17" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BJ17" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BK17" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BL17" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BM17" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BN17" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BO17" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BP17" s="78">
         <v>6</v>
@@ -16271,16 +16220,16 @@
         <v>0.22747952684257999</v>
       </c>
       <c r="EN17" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EO17" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EP17" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EQ17" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="ER17" s="78">
         <v>0</v>
@@ -16288,16 +16237,10 @@
       <c r="ES17" s="152">
         <v>0</v>
       </c>
-      <c r="ET17" s="78">
-        <v>0</v>
-      </c>
-      <c r="EU17" s="152">
-        <v>0</v>
-      </c>
     </row>
-    <row r="18" spans="1:151">
+    <row r="18" spans="1:149">
       <c r="A18" s="158" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B18" s="78">
         <v>1724</v>
@@ -16306,16 +16249,16 @@
         <v>2.4826473891881</v>
       </c>
       <c r="D18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E18" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G18" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H18" s="78">
         <v>15</v>
@@ -16414,22 +16357,22 @@
         <v>0.40603248259861002</v>
       </c>
       <c r="AN18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO18" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AP18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AQ18" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AR18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AS18" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AT18" s="78">
         <v>4</v>
@@ -16438,40 +16381,40 @@
         <v>0.23201856148492001</v>
       </c>
       <c r="AV18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AW18" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AX18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AY18" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AZ18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BA18" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BB18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC18" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BD18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE18" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BG18" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BH18" s="78">
         <v>4</v>
@@ -16480,10 +16423,10 @@
         <v>0.23201856148492001</v>
       </c>
       <c r="BJ18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BK18" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BL18" s="78">
         <v>0</v>
@@ -16600,10 +16543,10 @@
         <v>0.75406032482598995</v>
       </c>
       <c r="CX18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="CY18" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CZ18" s="78">
         <v>12</v>
@@ -16708,28 +16651,28 @@
         <v>0.40603248259861002</v>
       </c>
       <c r="EH18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EI18" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EJ18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EK18" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EL18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EM18" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EN18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EO18" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EP18" s="78">
         <v>0</v>
@@ -16743,16 +16686,10 @@
       <c r="ES18" s="152">
         <v>0</v>
       </c>
-      <c r="ET18" s="78">
-        <v>0</v>
-      </c>
-      <c r="EU18" s="152">
-        <v>0</v>
-      </c>
     </row>
-    <row r="19" spans="1:151">
+    <row r="19" spans="1:149">
       <c r="A19" s="158" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B19" s="78">
         <v>1717</v>
@@ -16767,10 +16704,10 @@
         <v>0</v>
       </c>
       <c r="F19" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G19" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H19" s="78">
         <v>16</v>
@@ -16947,10 +16884,10 @@
         <v>0.29120559114735001</v>
       </c>
       <c r="BN19" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BO19" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BP19" s="78">
         <v>5</v>
@@ -17181,33 +17118,27 @@
         <v>0</v>
       </c>
       <c r="EN19" s="78" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="EO19" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EP19" s="78" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="EQ19" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="ER19" s="78" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="ES19" s="152" t="s">
-        <v>331</v>
-      </c>
-      <c r="ET19" s="78">
-        <v>0</v>
-      </c>
-      <c r="EU19" s="152">
-        <v>0</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="20" spans="1:151">
+    <row r="20" spans="1:149">
       <c r="A20" s="158" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B20" s="78">
         <v>1684</v>
@@ -17222,10 +17153,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G20" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H20" s="78">
         <v>6</v>
@@ -17366,10 +17297,10 @@
         <v>0.47505938242279999</v>
       </c>
       <c r="BB20" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC20" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BD20" s="78">
         <v>5</v>
@@ -17378,16 +17309,16 @@
         <v>0.29691211401424999</v>
       </c>
       <c r="BF20" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BG20" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BH20" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BI20" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BJ20" s="78">
         <v>9</v>
@@ -17612,16 +17543,16 @@
         <v>0.29691211401424999</v>
       </c>
       <c r="EF20" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EG20" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EH20" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EI20" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EJ20" s="78">
         <v>5</v>
@@ -17636,10 +17567,10 @@
         <v>0</v>
       </c>
       <c r="EN20" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EO20" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EP20" s="78">
         <v>0</v>
@@ -17648,21 +17579,15 @@
         <v>0</v>
       </c>
       <c r="ER20" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="ES20" s="152" t="s">
-        <v>331</v>
-      </c>
-      <c r="ET20" s="78">
-        <v>0</v>
-      </c>
-      <c r="EU20" s="152">
-        <v>0</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="21" spans="1:151">
+    <row r="21" spans="1:149">
       <c r="A21" s="158" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B21" s="78">
         <v>1598</v>
@@ -17677,10 +17602,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G21" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H21" s="78">
         <v>8</v>
@@ -17779,28 +17704,28 @@
         <v>0.37546933667083998</v>
       </c>
       <c r="AN21" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO21" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AP21" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AQ21" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AR21" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AS21" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AT21" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU21" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AV21" s="78">
         <v>4</v>
@@ -17809,16 +17734,16 @@
         <v>0.25031289111388999</v>
       </c>
       <c r="AX21" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AY21" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AZ21" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BA21" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BB21" s="78">
         <v>4</v>
@@ -17833,10 +17758,10 @@
         <v>0.25031289111388999</v>
       </c>
       <c r="BF21" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BG21" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BH21" s="78">
         <v>4</v>
@@ -18055,10 +17980,10 @@
         <v>0.62578222778473003</v>
       </c>
       <c r="EB21" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EC21" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="ED21" s="78">
         <v>5</v>
@@ -18085,10 +18010,10 @@
         <v>0</v>
       </c>
       <c r="EL21" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EM21" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EN21" s="78">
         <v>0</v>
@@ -18108,16 +18033,10 @@
       <c r="ES21" s="152">
         <v>0</v>
       </c>
-      <c r="ET21" s="78">
-        <v>0</v>
-      </c>
-      <c r="EU21" s="152">
-        <v>0</v>
-      </c>
     </row>
-    <row r="22" spans="1:151">
+    <row r="22" spans="1:149">
       <c r="A22" s="158" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B22" s="78">
         <v>1593</v>
@@ -18132,16 +18051,16 @@
         <v>0</v>
       </c>
       <c r="F22" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G22" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H22" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I22" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J22" s="78">
         <v>10</v>
@@ -18276,16 +18195,16 @@
         <v>0.50219711236660003</v>
       </c>
       <c r="BB22" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC22" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BD22" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE22" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF22" s="78">
         <v>4</v>
@@ -18294,10 +18213,10 @@
         <v>0.25109855618330001</v>
       </c>
       <c r="BH22" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BI22" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BJ22" s="78">
         <v>8</v>
@@ -18318,10 +18237,10 @@
         <v>0.50219711236660003</v>
       </c>
       <c r="BP22" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BQ22" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BR22" s="78">
         <v>4</v>
@@ -18330,10 +18249,10 @@
         <v>0.25109855618330001</v>
       </c>
       <c r="BT22" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BU22" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BV22" s="78">
         <v>9</v>
@@ -18528,10 +18447,10 @@
         <v>0.43942247332077999</v>
       </c>
       <c r="EH22" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EI22" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EJ22" s="78">
         <v>0</v>
@@ -18563,16 +18482,10 @@
       <c r="ES22" s="152">
         <v>0</v>
       </c>
-      <c r="ET22" s="78">
-        <v>0</v>
-      </c>
-      <c r="EU22" s="152">
-        <v>0</v>
-      </c>
     </row>
-    <row r="23" spans="1:151">
+    <row r="23" spans="1:149">
       <c r="A23" s="158" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B23" s="78">
         <v>1393</v>
@@ -18581,10 +18494,10 @@
         <v>2.0059906108695</v>
       </c>
       <c r="D23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E23" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F23" s="78">
         <v>5</v>
@@ -18695,10 +18608,10 @@
         <v>0.71787508973438996</v>
       </c>
       <c r="AP23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AQ23" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AR23" s="78">
         <v>4</v>
@@ -18707,28 +18620,28 @@
         <v>0.28715003589374999</v>
       </c>
       <c r="AT23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU23" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AV23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AW23" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AX23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AY23" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AZ23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BA23" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BB23" s="78">
         <v>9</v>
@@ -18737,10 +18650,10 @@
         <v>0.64608758076094996</v>
       </c>
       <c r="BD23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE23" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF23" s="78">
         <v>6</v>
@@ -18983,16 +18896,16 @@
         <v>0.28715003589374999</v>
       </c>
       <c r="EH23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EI23" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EJ23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EK23" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EL23" s="78">
         <v>0</v>
@@ -19018,16 +18931,10 @@
       <c r="ES23" s="152">
         <v>0</v>
       </c>
-      <c r="ET23" s="78">
-        <v>0</v>
-      </c>
-      <c r="EU23" s="152">
-        <v>0</v>
-      </c>
     </row>
-    <row r="24" spans="1:151">
+    <row r="24" spans="1:149">
       <c r="A24" s="158" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B24" s="78">
         <v>1278</v>
@@ -19042,10 +18949,10 @@
         <v>0</v>
       </c>
       <c r="F24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G24" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H24" s="78">
         <v>9</v>
@@ -19102,10 +19009,10 @@
         <v>1.7214397496087599</v>
       </c>
       <c r="Z24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AA24" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AB24" s="78">
         <v>15</v>
@@ -19156,28 +19063,28 @@
         <v>0.39123630672926002</v>
       </c>
       <c r="AR24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AS24" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AT24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU24" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AV24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AW24" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AX24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AY24" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AZ24" s="78">
         <v>4</v>
@@ -19192,22 +19099,22 @@
         <v>0.39123630672926002</v>
       </c>
       <c r="BD24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE24" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BG24" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BH24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BI24" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BJ24" s="78">
         <v>0</v>
@@ -19216,22 +19123,22 @@
         <v>0</v>
       </c>
       <c r="BL24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BM24" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BN24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BO24" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BP24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BQ24" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BR24" s="78">
         <v>4</v>
@@ -19438,51 +19345,45 @@
         <v>0.39123630672926002</v>
       </c>
       <c r="EH24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EI24" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EJ24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EK24" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EL24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EM24" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EN24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EO24" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EP24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EQ24" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="ER24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="ES24" s="152" t="s">
-        <v>331</v>
-      </c>
-      <c r="ET24" s="78">
-        <v>0</v>
-      </c>
-      <c r="EU24" s="152">
-        <v>0</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="25" spans="1:151">
+    <row r="25" spans="1:149">
       <c r="A25" s="158" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B25" s="78">
         <v>1214</v>
@@ -19491,10 +19392,10 @@
         <v>1.74822153739812</v>
       </c>
       <c r="D25" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E25" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F25" s="78">
         <v>4</v>
@@ -19515,10 +19416,10 @@
         <v>0.49423393739702998</v>
       </c>
       <c r="L25" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M25" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="N25" s="78">
         <v>15</v>
@@ -19605,16 +19506,16 @@
         <v>0.82372322899506001</v>
       </c>
       <c r="AP25" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AQ25" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AR25" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AS25" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AT25" s="78">
         <v>0</v>
@@ -19623,10 +19524,10 @@
         <v>0</v>
       </c>
       <c r="AV25" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AW25" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AX25" s="78">
         <v>5</v>
@@ -19635,10 +19536,10 @@
         <v>0.41186161449753</v>
       </c>
       <c r="AZ25" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BA25" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BB25" s="78">
         <v>0</v>
@@ -19653,22 +19554,22 @@
         <v>0.41186161449753</v>
       </c>
       <c r="BF25" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BG25" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BH25" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BI25" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BJ25" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BK25" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BL25" s="78">
         <v>7</v>
@@ -19677,22 +19578,22 @@
         <v>0.57660626029654005</v>
       </c>
       <c r="BN25" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BO25" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BP25" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BQ25" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BR25" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BS25" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BT25" s="78">
         <v>9</v>
@@ -19928,16 +19829,10 @@
       <c r="ES25" s="152">
         <v>0</v>
       </c>
-      <c r="ET25" s="78">
-        <v>0</v>
-      </c>
-      <c r="EU25" s="152">
-        <v>0</v>
-      </c>
     </row>
-    <row r="26" spans="1:151">
+    <row r="26" spans="1:149">
       <c r="A26" s="158" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B26" s="78">
         <v>1135</v>
@@ -19970,10 +19865,10 @@
         <v>0.61674008810573</v>
       </c>
       <c r="L26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M26" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="N26" s="78">
         <v>16</v>
@@ -20042,10 +19937,10 @@
         <v>1.14537444933921</v>
       </c>
       <c r="AJ26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AK26" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AL26" s="78">
         <v>5</v>
@@ -20054,22 +19949,22 @@
         <v>0.44052863436123002</v>
       </c>
       <c r="AN26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO26" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AP26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AQ26" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AR26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AS26" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AT26" s="78">
         <v>8</v>
@@ -20078,10 +19973,10 @@
         <v>0.70484581497797005</v>
       </c>
       <c r="AV26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AW26" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AX26" s="78">
         <v>4</v>
@@ -20090,10 +19985,10 @@
         <v>0.35242290748899002</v>
       </c>
       <c r="AZ26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BA26" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BB26" s="78">
         <v>0</v>
@@ -20102,10 +19997,10 @@
         <v>0</v>
       </c>
       <c r="BD26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE26" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF26" s="78">
         <v>0</v>
@@ -20126,10 +20021,10 @@
         <v>0.61674008810573</v>
       </c>
       <c r="BL26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BM26" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BN26" s="78">
         <v>10</v>
@@ -20336,22 +20231,22 @@
         <v>0.88105726872247003</v>
       </c>
       <c r="ED26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EE26" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EF26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EG26" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EH26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EI26" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EJ26" s="78">
         <v>0</v>
@@ -20366,10 +20261,10 @@
         <v>0</v>
       </c>
       <c r="EN26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EO26" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EP26" s="78">
         <v>0</v>
@@ -20383,16 +20278,10 @@
       <c r="ES26" s="152">
         <v>0</v>
       </c>
-      <c r="ET26" s="78">
-        <v>0</v>
-      </c>
-      <c r="EU26" s="152">
-        <v>0</v>
-      </c>
     </row>
-    <row r="27" spans="1:151">
+    <row r="27" spans="1:149">
       <c r="A27" s="158" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B27" s="78">
         <v>954</v>
@@ -20407,10 +20296,10 @@
         <v>0</v>
       </c>
       <c r="F27" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G27" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H27" s="78">
         <v>12</v>
@@ -20443,10 +20332,10 @@
         <v>1.57232704402516</v>
       </c>
       <c r="R27" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="S27" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="T27" s="78">
         <v>8</v>
@@ -20455,10 +20344,10 @@
         <v>0.83857442348008004</v>
       </c>
       <c r="V27" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="W27" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="X27" s="78">
         <v>8</v>
@@ -20467,16 +20356,16 @@
         <v>0.83857442348008004</v>
       </c>
       <c r="Z27" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AA27" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AB27" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AC27" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AD27" s="78">
         <v>6</v>
@@ -20515,10 +20404,10 @@
         <v>0.41928721174004002</v>
       </c>
       <c r="AP27" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AQ27" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AR27" s="78">
         <v>0</v>
@@ -20527,10 +20416,10 @@
         <v>0</v>
       </c>
       <c r="AT27" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU27" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AV27" s="78">
         <v>0</v>
@@ -20551,46 +20440,46 @@
         <v>0</v>
       </c>
       <c r="BB27" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC27" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BD27" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE27" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF27" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BG27" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BH27" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BI27" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BJ27" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BK27" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BL27" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BM27" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BN27" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BO27" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BP27" s="78">
         <v>4</v>
@@ -20599,10 +20488,10 @@
         <v>0.41928721174004002</v>
       </c>
       <c r="BR27" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BS27" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BT27" s="78">
         <v>6</v>
@@ -20809,10 +20698,10 @@
         <v>0.52410901467505</v>
       </c>
       <c r="EJ27" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EK27" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EL27" s="78">
         <v>0</v>
@@ -20838,16 +20727,10 @@
       <c r="ES27" s="152">
         <v>0</v>
       </c>
-      <c r="ET27" s="78">
-        <v>0</v>
-      </c>
-      <c r="EU27" s="152">
-        <v>0</v>
-      </c>
     </row>
-    <row r="28" spans="1:151">
+    <row r="28" spans="1:149">
       <c r="A28" s="158" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B28" s="78">
         <v>822</v>
@@ -20874,52 +20757,52 @@
         <v>0</v>
       </c>
       <c r="J28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K28" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M28" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="N28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O28" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="P28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="Q28" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="R28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="S28" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="T28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="U28" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="V28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="W28" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="X28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="Y28" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Z28" s="78">
         <v>10</v>
@@ -20952,10 +20835,10 @@
         <v>1.5815085158150901</v>
       </c>
       <c r="AJ28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AK28" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AL28" s="78">
         <v>5</v>
@@ -20964,10 +20847,10 @@
         <v>0.60827250608272998</v>
       </c>
       <c r="AN28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO28" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AP28" s="78">
         <v>4</v>
@@ -20976,10 +20859,10 @@
         <v>0.48661800486618001</v>
       </c>
       <c r="AR28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AS28" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AT28" s="78">
         <v>5</v>
@@ -20988,10 +20871,10 @@
         <v>0.60827250608272998</v>
       </c>
       <c r="AV28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AW28" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AX28" s="78">
         <v>6</v>
@@ -21012,10 +20895,10 @@
         <v>0</v>
       </c>
       <c r="BD28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE28" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF28" s="78">
         <v>0</v>
@@ -21024,10 +20907,10 @@
         <v>0</v>
       </c>
       <c r="BH28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BI28" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BJ28" s="78">
         <v>4</v>
@@ -21048,10 +20931,10 @@
         <v>0.48661800486618001</v>
       </c>
       <c r="BP28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BQ28" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BR28" s="78">
         <v>4</v>
@@ -21066,10 +20949,10 @@
         <v>0.85158150851582004</v>
       </c>
       <c r="BV28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BW28" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BX28" s="78">
         <v>13</v>
@@ -21162,16 +21045,16 @@
         <v>1.94647201946472</v>
       </c>
       <c r="DB28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DC28" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="DD28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DE28" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="DF28" s="78">
         <v>6</v>
@@ -21258,28 +21141,28 @@
         <v>0.48661800486618001</v>
       </c>
       <c r="EH28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EI28" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EJ28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EK28" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EL28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EM28" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EN28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EO28" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EP28" s="78">
         <v>0</v>
@@ -21288,21 +21171,15 @@
         <v>0</v>
       </c>
       <c r="ER28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="ES28" s="152" t="s">
-        <v>331</v>
-      </c>
-      <c r="ET28" s="78">
-        <v>0</v>
-      </c>
-      <c r="EU28" s="152">
-        <v>0</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="29" spans="1:151">
+    <row r="29" spans="1:149">
       <c r="A29" s="158" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B29" s="78">
         <v>494</v>
@@ -21323,10 +21200,10 @@
         <v>0</v>
       </c>
       <c r="H29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J29" s="78">
         <v>7</v>
@@ -21389,16 +21266,16 @@
         <v>1.2145748987854299</v>
       </c>
       <c r="AD29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AE29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AF29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AG29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AH29" s="78">
         <v>7</v>
@@ -21419,16 +21296,16 @@
         <v>1.417004048583</v>
       </c>
       <c r="AN29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AP29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AQ29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AR29" s="78">
         <v>4</v>
@@ -21437,10 +21314,10 @@
         <v>0.80971659919028005</v>
       </c>
       <c r="AT29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AV29" s="78">
         <v>0</v>
@@ -21455,22 +21332,22 @@
         <v>0</v>
       </c>
       <c r="AZ29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BA29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BB29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BD29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF29" s="78">
         <v>0</v>
@@ -21479,16 +21356,16 @@
         <v>0</v>
       </c>
       <c r="BH29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BI29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BJ29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BK29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BL29" s="78">
         <v>4</v>
@@ -21497,16 +21374,16 @@
         <v>0.80971659919028005</v>
       </c>
       <c r="BN29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BO29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BP29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BQ29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BR29" s="78">
         <v>5</v>
@@ -21515,16 +21392,16 @@
         <v>1.01214574898785</v>
       </c>
       <c r="BT29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BU29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BV29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BW29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BX29" s="78">
         <v>7</v>
@@ -21593,28 +21470,28 @@
         <v>1.417004048583</v>
       </c>
       <c r="CT29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="CU29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CV29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="CW29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CX29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="CY29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CZ29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DA29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="DB29" s="78">
         <v>8</v>
@@ -21671,10 +21548,10 @@
         <v>3.6437246963562799</v>
       </c>
       <c r="DT29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DU29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="DV29" s="78">
         <v>11</v>
@@ -21701,28 +21578,28 @@
         <v>1.417004048583</v>
       </c>
       <c r="ED29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EE29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EF29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EG29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EH29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EI29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EJ29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EK29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EL29" s="78">
         <v>0</v>
@@ -21743,21 +21620,15 @@
         <v>0</v>
       </c>
       <c r="ER29" s="78" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="ES29" s="152" t="s">
-        <v>331</v>
-      </c>
-      <c r="ET29" s="78">
-        <v>0</v>
-      </c>
-      <c r="EU29" s="152">
-        <v>0</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:151" ht="14.25" thickBot="1">
+    <row r="30" spans="1:149" ht="14.25" thickBot="1">
       <c r="A30" s="158" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B30" s="151">
         <v>274</v>
@@ -21778,16 +21649,16 @@
         <v>0</v>
       </c>
       <c r="H30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L30" s="151">
         <v>0</v>
@@ -21796,16 +21667,16 @@
         <v>0</v>
       </c>
       <c r="N30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="P30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="Q30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="R30" s="151">
         <v>0</v>
@@ -21814,10 +21685,10 @@
         <v>0</v>
       </c>
       <c r="T30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="U30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="V30" s="151">
         <v>0</v>
@@ -21826,34 +21697,34 @@
         <v>0</v>
       </c>
       <c r="X30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="Y30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Z30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AA30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AB30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AC30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AD30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AE30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AF30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AG30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AH30" s="151">
         <v>0</v>
@@ -21862,10 +21733,10 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AK30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AL30" s="151">
         <v>0</v>
@@ -21874,10 +21745,10 @@
         <v>0</v>
       </c>
       <c r="AN30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AP30" s="151">
         <v>0</v>
@@ -21886,10 +21757,10 @@
         <v>0</v>
       </c>
       <c r="AR30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AS30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AT30" s="151">
         <v>0</v>
@@ -21904,16 +21775,16 @@
         <v>0</v>
       </c>
       <c r="AX30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AY30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AZ30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BA30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BB30" s="151">
         <v>0</v>
@@ -21922,10 +21793,10 @@
         <v>0</v>
       </c>
       <c r="BD30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF30" s="151">
         <v>0</v>
@@ -21934,10 +21805,10 @@
         <v>0</v>
       </c>
       <c r="BH30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BI30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BJ30" s="151">
         <v>0</v>
@@ -21952,28 +21823,28 @@
         <v>0</v>
       </c>
       <c r="BN30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BO30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BP30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BQ30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BR30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BS30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BT30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BU30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BV30" s="151">
         <v>11</v>
@@ -22048,40 +21919,40 @@
         <v>2.1897810218978102</v>
       </c>
       <c r="CT30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="CU30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CV30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="CW30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CX30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="CY30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CZ30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DA30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="DB30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DC30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="DD30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DE30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="DF30" s="151">
         <v>8</v>
@@ -22126,10 +21997,10 @@
         <v>1.8248175182481801</v>
       </c>
       <c r="DT30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DU30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="DV30" s="151">
         <v>6</v>
@@ -22150,34 +22021,34 @@
         <v>1.4598540145985399</v>
       </c>
       <c r="EB30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EC30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="ED30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EE30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EF30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EG30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EH30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EI30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EJ30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EK30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EL30" s="151">
         <v>0</v>
@@ -22186,31 +22057,25 @@
         <v>0</v>
       </c>
       <c r="EN30" s="151" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="EO30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EP30" s="151" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="EQ30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="ER30" s="151" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="ES30" s="150" t="s">
-        <v>331</v>
-      </c>
-      <c r="ET30" s="151">
-        <v>0</v>
-      </c>
-      <c r="EU30" s="150">
-        <v>0</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="31" spans="1:151" ht="15.75" customHeight="1" thickTop="1">
+    <row r="31" spans="1:149" ht="15.75" customHeight="1" thickTop="1">
       <c r="A31" s="67" t="s">
         <v>173</v>
       </c>
@@ -22240,7 +22105,7 @@
       <c r="BO31" s="19"/>
       <c r="BP31" s="19"/>
     </row>
-    <row r="32" spans="1:151">
+    <row r="32" spans="1:149">
       <c r="A32" s="48" t="s">
         <v>161</v>
       </c>
@@ -22320,46 +22185,28 @@
       <c r="EB37" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="79">
-    <mergeCell ref="DL5:EQ5"/>
-    <mergeCell ref="ET6:EU6"/>
-    <mergeCell ref="EJ6:EK6"/>
-    <mergeCell ref="EL6:EM6"/>
-    <mergeCell ref="EN6:EO6"/>
-    <mergeCell ref="EP6:EQ6"/>
-    <mergeCell ref="ER6:ES6"/>
-    <mergeCell ref="DZ6:EA6"/>
-    <mergeCell ref="EB6:EC6"/>
-    <mergeCell ref="ED6:EE6"/>
-    <mergeCell ref="EF6:EG6"/>
-    <mergeCell ref="EH6:EI6"/>
-    <mergeCell ref="DT6:DU6"/>
-    <mergeCell ref="DV6:DW6"/>
-    <mergeCell ref="DX6:DY6"/>
-    <mergeCell ref="DN6:DO6"/>
-    <mergeCell ref="CV6:CW6"/>
-    <mergeCell ref="AT6:AU6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="AH6:AI6"/>
-    <mergeCell ref="BF6:BG6"/>
-    <mergeCell ref="BH6:BI6"/>
-    <mergeCell ref="BD6:BE6"/>
-    <mergeCell ref="AF6:AG6"/>
-    <mergeCell ref="BV6:BW6"/>
-    <mergeCell ref="BN6:BO6"/>
-    <mergeCell ref="CP6:CQ6"/>
-    <mergeCell ref="CD6:CE6"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
+  <mergeCells count="78">
+    <mergeCell ref="DR6:DS6"/>
+    <mergeCell ref="D5:DC5"/>
+    <mergeCell ref="DD6:DE6"/>
+    <mergeCell ref="DF6:DG6"/>
+    <mergeCell ref="DH6:DI6"/>
+    <mergeCell ref="DJ6:DK6"/>
+    <mergeCell ref="DL6:DM6"/>
+    <mergeCell ref="CX6:CY6"/>
+    <mergeCell ref="CR6:CS6"/>
+    <mergeCell ref="CT6:CU6"/>
+    <mergeCell ref="CJ6:CK6"/>
+    <mergeCell ref="DB6:DC6"/>
+    <mergeCell ref="CZ6:DA6"/>
+    <mergeCell ref="CB6:CC6"/>
+    <mergeCell ref="CF6:CG6"/>
+    <mergeCell ref="DL5:ES5"/>
+    <mergeCell ref="BR6:BS6"/>
+    <mergeCell ref="BT6:BU6"/>
+    <mergeCell ref="BX6:BY6"/>
+    <mergeCell ref="BZ6:CA6"/>
+    <mergeCell ref="DP6:DQ6"/>
     <mergeCell ref="T6:U6"/>
     <mergeCell ref="AB6:AC6"/>
     <mergeCell ref="BJ6:BK6"/>
@@ -22376,30 +22223,47 @@
     <mergeCell ref="AN6:AO6"/>
     <mergeCell ref="AL6:AM6"/>
     <mergeCell ref="AJ6:AK6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="CV6:CW6"/>
+    <mergeCell ref="AT6:AU6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="BF6:BG6"/>
+    <mergeCell ref="BH6:BI6"/>
+    <mergeCell ref="BD6:BE6"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="BV6:BW6"/>
+    <mergeCell ref="BN6:BO6"/>
+    <mergeCell ref="CP6:CQ6"/>
+    <mergeCell ref="CD6:CE6"/>
     <mergeCell ref="CH6:CI6"/>
     <mergeCell ref="CL6:CM6"/>
     <mergeCell ref="CN6:CO6"/>
     <mergeCell ref="BP6:BQ6"/>
-    <mergeCell ref="BR6:BS6"/>
-    <mergeCell ref="BT6:BU6"/>
-    <mergeCell ref="BX6:BY6"/>
-    <mergeCell ref="BZ6:CA6"/>
-    <mergeCell ref="DP6:DQ6"/>
-    <mergeCell ref="DR6:DS6"/>
-    <mergeCell ref="D5:DC5"/>
-    <mergeCell ref="DD6:DE6"/>
-    <mergeCell ref="DF6:DG6"/>
-    <mergeCell ref="DH6:DI6"/>
-    <mergeCell ref="DJ6:DK6"/>
-    <mergeCell ref="DL6:DM6"/>
-    <mergeCell ref="CX6:CY6"/>
-    <mergeCell ref="CR6:CS6"/>
-    <mergeCell ref="CT6:CU6"/>
-    <mergeCell ref="CJ6:CK6"/>
-    <mergeCell ref="DB6:DC6"/>
-    <mergeCell ref="CZ6:DA6"/>
-    <mergeCell ref="CB6:CC6"/>
-    <mergeCell ref="CF6:CG6"/>
+    <mergeCell ref="EJ6:EK6"/>
+    <mergeCell ref="EL6:EM6"/>
+    <mergeCell ref="EN6:EO6"/>
+    <mergeCell ref="EP6:EQ6"/>
+    <mergeCell ref="ER6:ES6"/>
+    <mergeCell ref="DZ6:EA6"/>
+    <mergeCell ref="EB6:EC6"/>
+    <mergeCell ref="ED6:EE6"/>
+    <mergeCell ref="EF6:EG6"/>
+    <mergeCell ref="EH6:EI6"/>
+    <mergeCell ref="DT6:DU6"/>
+    <mergeCell ref="DV6:DW6"/>
+    <mergeCell ref="DX6:DY6"/>
+    <mergeCell ref="DN6:DO6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22409,7 +22273,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:ES36"/>
+  <dimension ref="A1:EQ36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -22478,12 +22342,12 @@
     <col min="84" max="16384" width="9.33203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:149" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:147" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:149" ht="46.5" customHeight="1">
+    <row r="2" spans="1:147" ht="46.5" customHeight="1">
       <c r="A2" s="248" t="s">
         <v>256</v>
       </c>
@@ -22515,7 +22379,7 @@
       <c r="CD2" s="164"/>
       <c r="CE2" s="30"/>
     </row>
-    <row r="3" spans="1:149">
+    <row r="3" spans="1:147">
       <c r="A3" s="61"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
@@ -22526,10 +22390,10 @@
       <c r="H3" s="61"/>
       <c r="I3" s="61"/>
     </row>
-    <row r="4" spans="1:149" ht="14.25" thickBot="1">
+    <row r="4" spans="1:147" ht="14.25" thickBot="1">
       <c r="A4" s="102"/>
     </row>
-    <row r="5" spans="1:149" ht="28.5" customHeight="1">
+    <row r="5" spans="1:147" ht="28.5" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="250" t="s">
         <v>183</v>
@@ -22682,308 +22546,302 @@
       <c r="EN5" s="239"/>
       <c r="EO5" s="239"/>
       <c r="EP5" s="239"/>
-      <c r="EQ5" s="239"/>
-      <c r="ER5" s="239"/>
-      <c r="ES5" s="194"/>
+      <c r="EQ5" s="269"/>
     </row>
-    <row r="6" spans="1:149" ht="13.5" customHeight="1">
+    <row r="6" spans="1:147" ht="13.5" customHeight="1">
       <c r="A6" s="252"/>
       <c r="B6" s="245"/>
       <c r="C6" s="244"/>
-      <c r="D6" s="256" t="s">
+      <c r="D6" s="260" t="s">
         <v>177</v>
       </c>
-      <c r="E6" s="257"/>
-      <c r="F6" s="256" t="s">
+      <c r="E6" s="261"/>
+      <c r="F6" s="260" t="s">
         <v>172</v>
       </c>
-      <c r="G6" s="257"/>
-      <c r="H6" s="256" t="s">
+      <c r="G6" s="261"/>
+      <c r="H6" s="260" t="s">
         <v>148</v>
       </c>
-      <c r="I6" s="257"/>
-      <c r="J6" s="256" t="s">
+      <c r="I6" s="261"/>
+      <c r="J6" s="260" t="s">
         <v>149</v>
       </c>
-      <c r="K6" s="257"/>
-      <c r="L6" s="256" t="s">
+      <c r="K6" s="261"/>
+      <c r="L6" s="260" t="s">
         <v>150</v>
       </c>
-      <c r="M6" s="257"/>
-      <c r="N6" s="256" t="s">
+      <c r="M6" s="261"/>
+      <c r="N6" s="260" t="s">
         <v>151</v>
       </c>
-      <c r="O6" s="257"/>
-      <c r="P6" s="256" t="s">
+      <c r="O6" s="261"/>
+      <c r="P6" s="260" t="s">
         <v>152</v>
       </c>
-      <c r="Q6" s="257"/>
-      <c r="R6" s="256" t="s">
+      <c r="Q6" s="261"/>
+      <c r="R6" s="260" t="s">
         <v>153</v>
       </c>
-      <c r="S6" s="257"/>
-      <c r="T6" s="256" t="s">
+      <c r="S6" s="261"/>
+      <c r="T6" s="260" t="s">
         <v>154</v>
       </c>
-      <c r="U6" s="257"/>
-      <c r="V6" s="256" t="s">
+      <c r="U6" s="261"/>
+      <c r="V6" s="260" t="s">
         <v>155</v>
       </c>
-      <c r="W6" s="257"/>
-      <c r="X6" s="256" t="s">
+      <c r="W6" s="261"/>
+      <c r="X6" s="260" t="s">
         <v>156</v>
       </c>
-      <c r="Y6" s="257"/>
-      <c r="Z6" s="256" t="s">
+      <c r="Y6" s="261"/>
+      <c r="Z6" s="260" t="s">
         <v>180</v>
       </c>
-      <c r="AA6" s="257"/>
-      <c r="AB6" s="256" t="s">
+      <c r="AA6" s="261"/>
+      <c r="AB6" s="260" t="s">
         <v>200</v>
       </c>
-      <c r="AC6" s="257"/>
+      <c r="AC6" s="261"/>
       <c r="AD6" s="267" t="s">
         <v>208</v>
       </c>
-      <c r="AE6" s="257"/>
+      <c r="AE6" s="261"/>
       <c r="AF6" s="267" t="s">
         <v>212</v>
       </c>
-      <c r="AG6" s="257"/>
+      <c r="AG6" s="261"/>
       <c r="AH6" s="267" t="s">
         <v>218</v>
       </c>
-      <c r="AI6" s="257"/>
+      <c r="AI6" s="261"/>
       <c r="AJ6" s="267" t="s">
         <v>219</v>
       </c>
-      <c r="AK6" s="257"/>
+      <c r="AK6" s="261"/>
       <c r="AL6" s="267" t="s">
         <v>220</v>
       </c>
-      <c r="AM6" s="257"/>
+      <c r="AM6" s="261"/>
       <c r="AN6" s="267" t="s">
         <v>221</v>
       </c>
-      <c r="AO6" s="257"/>
+      <c r="AO6" s="261"/>
       <c r="AP6" s="267" t="s">
         <v>222</v>
       </c>
-      <c r="AQ6" s="257"/>
+      <c r="AQ6" s="261"/>
       <c r="AR6" s="267" t="s">
         <v>223</v>
       </c>
-      <c r="AS6" s="257"/>
+      <c r="AS6" s="261"/>
       <c r="AT6" s="267" t="s">
         <v>224</v>
       </c>
-      <c r="AU6" s="257"/>
+      <c r="AU6" s="261"/>
       <c r="AV6" s="267" t="s">
         <v>225</v>
       </c>
-      <c r="AW6" s="257"/>
+      <c r="AW6" s="261"/>
       <c r="AX6" s="267" t="s">
         <v>226</v>
       </c>
-      <c r="AY6" s="257"/>
+      <c r="AY6" s="261"/>
       <c r="AZ6" s="267" t="s">
         <v>228</v>
       </c>
-      <c r="BA6" s="257"/>
+      <c r="BA6" s="261"/>
       <c r="BB6" s="267" t="s">
         <v>229</v>
       </c>
-      <c r="BC6" s="257"/>
+      <c r="BC6" s="261"/>
       <c r="BD6" s="267" t="s">
         <v>230</v>
       </c>
-      <c r="BE6" s="257"/>
+      <c r="BE6" s="261"/>
       <c r="BF6" s="267" t="s">
         <v>232</v>
       </c>
-      <c r="BG6" s="257"/>
+      <c r="BG6" s="261"/>
       <c r="BH6" s="267" t="s">
         <v>231</v>
       </c>
-      <c r="BI6" s="257"/>
+      <c r="BI6" s="261"/>
       <c r="BJ6" s="267" t="s">
         <v>233</v>
       </c>
-      <c r="BK6" s="257"/>
+      <c r="BK6" s="261"/>
       <c r="BL6" s="267" t="s">
         <v>235</v>
       </c>
-      <c r="BM6" s="257"/>
+      <c r="BM6" s="261"/>
       <c r="BN6" s="267" t="s">
         <v>236</v>
       </c>
-      <c r="BO6" s="257"/>
+      <c r="BO6" s="261"/>
       <c r="BP6" s="267" t="s">
         <v>242</v>
       </c>
-      <c r="BQ6" s="257"/>
+      <c r="BQ6" s="261"/>
       <c r="BR6" s="267" t="s">
         <v>241</v>
       </c>
-      <c r="BS6" s="257"/>
+      <c r="BS6" s="261"/>
       <c r="BT6" s="267" t="s">
         <v>240</v>
       </c>
-      <c r="BU6" s="257"/>
+      <c r="BU6" s="261"/>
       <c r="BV6" s="267" t="s">
         <v>239</v>
       </c>
-      <c r="BW6" s="257"/>
+      <c r="BW6" s="261"/>
       <c r="BX6" s="267" t="s">
         <v>238</v>
       </c>
-      <c r="BY6" s="257"/>
+      <c r="BY6" s="261"/>
       <c r="BZ6" s="267" t="s">
         <v>237</v>
       </c>
-      <c r="CA6" s="257"/>
+      <c r="CA6" s="261"/>
       <c r="CB6" s="267" t="s">
         <v>244</v>
       </c>
-      <c r="CC6" s="257"/>
+      <c r="CC6" s="261"/>
       <c r="CD6" s="267" t="s">
         <v>243</v>
       </c>
-      <c r="CE6" s="257"/>
+      <c r="CE6" s="261"/>
       <c r="CF6" s="267" t="s">
         <v>245</v>
       </c>
-      <c r="CG6" s="257"/>
+      <c r="CG6" s="261"/>
       <c r="CH6" s="267" t="s">
         <v>246</v>
       </c>
-      <c r="CI6" s="257"/>
+      <c r="CI6" s="261"/>
       <c r="CJ6" s="267" t="s">
         <v>247</v>
       </c>
-      <c r="CK6" s="257"/>
+      <c r="CK6" s="261"/>
       <c r="CL6" s="267" t="s">
         <v>248</v>
       </c>
-      <c r="CM6" s="257"/>
+      <c r="CM6" s="261"/>
       <c r="CN6" s="267" t="s">
         <v>249</v>
       </c>
-      <c r="CO6" s="257"/>
+      <c r="CO6" s="261"/>
       <c r="CP6" s="267" t="s">
         <v>250</v>
       </c>
-      <c r="CQ6" s="257"/>
+      <c r="CQ6" s="261"/>
       <c r="CR6" s="267" t="s">
         <v>251</v>
       </c>
-      <c r="CS6" s="257"/>
+      <c r="CS6" s="261"/>
       <c r="CT6" s="267" t="s">
         <v>252</v>
       </c>
-      <c r="CU6" s="257"/>
+      <c r="CU6" s="261"/>
       <c r="CV6" s="267" t="s">
         <v>253</v>
       </c>
-      <c r="CW6" s="257"/>
+      <c r="CW6" s="261"/>
       <c r="CX6" s="267" t="s">
         <v>260</v>
       </c>
-      <c r="CY6" s="257"/>
+      <c r="CY6" s="261"/>
       <c r="CZ6" s="267" t="s">
         <v>261</v>
       </c>
-      <c r="DA6" s="257"/>
+      <c r="DA6" s="261"/>
       <c r="DB6" s="267" t="s">
         <v>262</v>
       </c>
-      <c r="DC6" s="257"/>
+      <c r="DC6" s="261"/>
       <c r="DD6" s="267" t="s">
         <v>263</v>
       </c>
-      <c r="DE6" s="257"/>
+      <c r="DE6" s="261"/>
       <c r="DF6" s="267" t="s">
         <v>264</v>
       </c>
-      <c r="DG6" s="257"/>
+      <c r="DG6" s="261"/>
       <c r="DH6" s="267" t="s">
         <v>265</v>
       </c>
-      <c r="DI6" s="257"/>
+      <c r="DI6" s="261"/>
       <c r="DJ6" s="267" t="s">
         <v>266</v>
       </c>
-      <c r="DK6" s="257"/>
+      <c r="DK6" s="261"/>
       <c r="DL6" s="267" t="s">
         <v>267</v>
       </c>
-      <c r="DM6" s="257"/>
+      <c r="DM6" s="261"/>
       <c r="DN6" s="267" t="s">
         <v>268</v>
       </c>
-      <c r="DO6" s="257"/>
+      <c r="DO6" s="261"/>
       <c r="DP6" s="267" t="s">
         <v>269</v>
       </c>
-      <c r="DQ6" s="257"/>
+      <c r="DQ6" s="261"/>
       <c r="DR6" s="267" t="s">
         <v>278</v>
       </c>
-      <c r="DS6" s="257"/>
+      <c r="DS6" s="261"/>
       <c r="DT6" s="267" t="s">
         <v>279</v>
       </c>
-      <c r="DU6" s="257"/>
+      <c r="DU6" s="261"/>
       <c r="DV6" s="267" t="s">
         <v>280</v>
       </c>
-      <c r="DW6" s="257"/>
+      <c r="DW6" s="261"/>
       <c r="DX6" s="267" t="s">
+        <v>293</v>
+      </c>
+      <c r="DY6" s="261"/>
+      <c r="DZ6" s="267" t="s">
         <v>294</v>
       </c>
-      <c r="DY6" s="257"/>
-      <c r="DZ6" s="267" t="s">
+      <c r="EA6" s="261"/>
+      <c r="EB6" s="267" t="s">
         <v>295</v>
       </c>
-      <c r="EA6" s="257"/>
-      <c r="EB6" s="267" t="s">
+      <c r="EC6" s="261"/>
+      <c r="ED6" s="267" t="s">
         <v>296</v>
       </c>
-      <c r="EC6" s="257"/>
-      <c r="ED6" s="267" t="s">
+      <c r="EE6" s="261"/>
+      <c r="EF6" s="267" t="s">
         <v>297</v>
       </c>
-      <c r="EE6" s="257"/>
-      <c r="EF6" s="267" t="s">
+      <c r="EG6" s="261"/>
+      <c r="EH6" s="267" t="s">
         <v>298</v>
       </c>
-      <c r="EG6" s="257"/>
-      <c r="EH6" s="267" t="s">
+      <c r="EI6" s="261"/>
+      <c r="EJ6" s="267" t="s">
         <v>299</v>
       </c>
-      <c r="EI6" s="257"/>
-      <c r="EJ6" s="267" t="s">
+      <c r="EK6" s="261"/>
+      <c r="EL6" s="267" t="s">
         <v>300</v>
       </c>
-      <c r="EK6" s="257"/>
-      <c r="EL6" s="267" t="s">
+      <c r="EM6" s="261"/>
+      <c r="EN6" s="267" t="s">
         <v>301</v>
       </c>
-      <c r="EM6" s="257"/>
-      <c r="EN6" s="267" t="s">
+      <c r="EO6" s="261"/>
+      <c r="EP6" s="267" t="s">
         <v>302</v>
       </c>
-      <c r="EO6" s="257"/>
-      <c r="EP6" s="267" t="s">
-        <v>303</v>
-      </c>
-      <c r="EQ6" s="257"/>
-      <c r="ER6" s="267" t="s">
-        <v>304</v>
-      </c>
-      <c r="ES6" s="257"/>
+      <c r="EQ6" s="261"/>
     </row>
-    <row r="7" spans="1:149">
+    <row r="7" spans="1:147">
       <c r="A7" s="253"/>
       <c r="B7" s="6" t="s">
         <v>5</v>
@@ -23423,16 +23281,10 @@
       <c r="EQ7" s="178" t="s">
         <v>146</v>
       </c>
-      <c r="ER7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="ES7" s="178" t="s">
-        <v>146</v>
-      </c>
     </row>
-    <row r="8" spans="1:149">
+    <row r="8" spans="1:147">
       <c r="A8" s="184" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B8" s="185">
         <v>56816</v>
@@ -23872,14 +23724,8 @@
       <c r="EQ8" s="187">
         <v>7.0402703463810001E-2</v>
       </c>
-      <c r="ER8" s="185">
-        <v>0</v>
-      </c>
-      <c r="ES8" s="187">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:149">
+    <row r="9" spans="1:147">
       <c r="A9" s="66" t="s">
         <v>129</v>
       </c>
@@ -24029,12 +23875,10 @@
       <c r="EO9" s="176"/>
       <c r="EP9" s="65"/>
       <c r="EQ9" s="176"/>
-      <c r="ER9" s="65"/>
-      <c r="ES9" s="176"/>
     </row>
-    <row r="10" spans="1:149">
+    <row r="10" spans="1:147">
       <c r="A10" s="183" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B10" s="89">
         <v>17216</v>
@@ -24474,16 +24318,10 @@
       <c r="EQ10" s="179">
         <v>2.3234200743489999E-2</v>
       </c>
-      <c r="ER10" s="180">
-        <v>0</v>
-      </c>
-      <c r="ES10" s="179">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:149">
+    <row r="11" spans="1:147">
       <c r="A11" s="183" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B11" s="89">
         <v>9169</v>
@@ -24923,16 +24761,10 @@
       <c r="EQ11" s="179">
         <v>0.26175155414985002</v>
       </c>
-      <c r="ER11" s="180">
-        <v>0</v>
-      </c>
-      <c r="ES11" s="179">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:149">
+    <row r="12" spans="1:147">
       <c r="A12" s="183" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B12" s="89">
         <v>6320</v>
@@ -24941,10 +24773,10 @@
         <v>11.1236271472825</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E12" s="189" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F12" s="78">
         <v>8</v>
@@ -25355,16 +25187,16 @@
         <v>0.14240506329114</v>
       </c>
       <c r="EL12" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EM12" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EN12" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EO12" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EP12" s="180">
         <v>0</v>
@@ -25372,16 +25204,10 @@
       <c r="EQ12" s="179">
         <v>0</v>
       </c>
-      <c r="ER12" s="180">
-        <v>0</v>
-      </c>
-      <c r="ES12" s="179">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:149">
+    <row r="13" spans="1:147">
       <c r="A13" s="183" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B13" s="89">
         <v>2818</v>
@@ -25390,10 +25216,10 @@
         <v>4.9598704590256304</v>
       </c>
       <c r="D13" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E13" s="189" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F13" s="78">
         <v>10</v>
@@ -25540,16 +25366,16 @@
         <v>0.17743080198722</v>
       </c>
       <c r="BB13" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC13" s="175" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BD13" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE13" s="175" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF13" s="78">
         <v>5</v>
@@ -25570,22 +25396,22 @@
         <v>0.24840312278212001</v>
       </c>
       <c r="BL13" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BM13" s="173" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BN13" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BO13" s="173" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BP13" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BQ13" s="173" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BR13" s="78">
         <v>28</v>
@@ -25804,33 +25630,27 @@
         <v>0.21291696238467001</v>
       </c>
       <c r="EL13" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EM13" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EN13" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EO13" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EP13" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EQ13" s="179" t="s">
-        <v>331</v>
-      </c>
-      <c r="ER13" s="180">
-        <v>0</v>
-      </c>
-      <c r="ES13" s="179">
-        <v>0</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="14" spans="1:149">
+    <row r="14" spans="1:147">
       <c r="A14" s="183" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B14" s="89">
         <v>2466</v>
@@ -25989,10 +25809,10 @@
         <v>0.16220600162206</v>
       </c>
       <c r="BB14" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC14" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BD14" s="78">
         <v>5</v>
@@ -26001,28 +25821,28 @@
         <v>0.20275750202758</v>
       </c>
       <c r="BF14" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BG14" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BH14" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BI14" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BJ14" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BK14" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BL14" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BM14" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BN14" s="78">
         <v>8</v>
@@ -26247,39 +26067,33 @@
         <v>0.28386050283860997</v>
       </c>
       <c r="EJ14" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EK14" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EL14" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EM14" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EN14" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EO14" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EP14" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EQ14" s="179" t="s">
-        <v>331</v>
-      </c>
-      <c r="ER14" s="180">
-        <v>0</v>
-      </c>
-      <c r="ES14" s="179">
-        <v>0</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="15" spans="1:149">
+    <row r="15" spans="1:147">
       <c r="A15" s="183" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B15" s="89">
         <v>2025</v>
@@ -26294,10 +26108,10 @@
         <v>0</v>
       </c>
       <c r="F15" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G15" s="188" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H15" s="78">
         <v>6</v>
@@ -26456,16 +26270,16 @@
         <v>0.2962962962963</v>
       </c>
       <c r="BH15" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BI15" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BJ15" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BK15" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BL15" s="78">
         <v>8</v>
@@ -26714,21 +26528,15 @@
         <v>0.24691358024691001</v>
       </c>
       <c r="EP15" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EQ15" s="179" t="s">
-        <v>331</v>
-      </c>
-      <c r="ER15" s="180">
-        <v>0</v>
-      </c>
-      <c r="ES15" s="179">
-        <v>0</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="16" spans="1:149">
+    <row r="16" spans="1:147">
       <c r="A16" s="183" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B16" s="89">
         <v>2014</v>
@@ -26737,16 +26545,16 @@
         <v>3.5447761194029899</v>
       </c>
       <c r="D16" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E16" s="188" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F16" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G16" s="188" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H16" s="78">
         <v>11</v>
@@ -26857,10 +26665,10 @@
         <v>0.19860973187686001</v>
       </c>
       <c r="AR16" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AS16" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AT16" s="78">
         <v>4</v>
@@ -26869,22 +26677,22 @@
         <v>0.19860973187686001</v>
       </c>
       <c r="AV16" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AW16" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AX16" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AY16" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AZ16" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BA16" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BB16" s="78">
         <v>4</v>
@@ -26899,10 +26707,10 @@
         <v>0.19860973187686001</v>
       </c>
       <c r="BF16" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BG16" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BH16" s="78">
         <v>4</v>
@@ -27139,10 +26947,10 @@
         <v>0.29791459781529001</v>
       </c>
       <c r="EH16" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EI16" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EJ16" s="180">
         <v>0</v>
@@ -27151,33 +26959,27 @@
         <v>0</v>
       </c>
       <c r="EL16" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EM16" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EN16" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EO16" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EP16" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EQ16" s="179" t="s">
-        <v>331</v>
-      </c>
-      <c r="ER16" s="180">
-        <v>0</v>
-      </c>
-      <c r="ES16" s="179">
-        <v>0</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="17" spans="1:149">
+    <row r="17" spans="1:147">
       <c r="A17" s="183" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B17" s="89">
         <v>1830</v>
@@ -27186,10 +26988,10 @@
         <v>3.2209236834694499</v>
       </c>
       <c r="D17" s="84" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E17" s="188" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F17" s="78">
         <v>6</v>
@@ -27300,16 +27102,16 @@
         <v>0.54644808743169004</v>
       </c>
       <c r="AP17" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AQ17" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AR17" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AS17" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AT17" s="78">
         <v>0</v>
@@ -27318,10 +27120,10 @@
         <v>0</v>
       </c>
       <c r="AV17" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AW17" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AX17" s="78">
         <v>4</v>
@@ -27336,10 +27138,10 @@
         <v>0</v>
       </c>
       <c r="BB17" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC17" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BD17" s="78">
         <v>0</v>
@@ -27348,10 +27150,10 @@
         <v>0</v>
       </c>
       <c r="BF17" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BG17" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BH17" s="78">
         <v>0</v>
@@ -27360,28 +27162,28 @@
         <v>0</v>
       </c>
       <c r="BJ17" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BK17" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BL17" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BM17" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BN17" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BO17" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BP17" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BQ17" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BR17" s="78">
         <v>8</v>
@@ -27594,10 +27396,10 @@
         <v>0.32786885245901998</v>
       </c>
       <c r="EJ17" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EK17" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EL17" s="180">
         <v>7</v>
@@ -27612,21 +27414,15 @@
         <v>0.38251366120218999</v>
       </c>
       <c r="EP17" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EQ17" s="179" t="s">
-        <v>331</v>
-      </c>
-      <c r="ER17" s="180">
-        <v>0</v>
-      </c>
-      <c r="ES17" s="179">
-        <v>0</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="18" spans="1:149">
+    <row r="18" spans="1:147">
       <c r="A18" s="183" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B18" s="89">
         <v>1523</v>
@@ -27749,10 +27545,10 @@
         <v>0.26263952724884998</v>
       </c>
       <c r="AP18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AQ18" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AR18" s="78">
         <v>5</v>
@@ -27767,34 +27563,34 @@
         <v>0.26263952724884998</v>
       </c>
       <c r="AV18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AW18" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AX18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AY18" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AZ18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BA18" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BB18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC18" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BD18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE18" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF18" s="78">
         <v>6</v>
@@ -27809,10 +27605,10 @@
         <v>0.26263952724884998</v>
       </c>
       <c r="BJ18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BK18" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BL18" s="78">
         <v>5</v>
@@ -28043,16 +27839,16 @@
         <v>0.32829940906105998</v>
       </c>
       <c r="EJ18" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EK18" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EL18" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EM18" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EN18" s="180">
         <v>0</v>
@@ -28061,21 +27857,15 @@
         <v>0</v>
       </c>
       <c r="EP18" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EQ18" s="179" t="s">
-        <v>331</v>
-      </c>
-      <c r="ER18" s="180">
-        <v>0</v>
-      </c>
-      <c r="ES18" s="179">
-        <v>0</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="19" spans="1:149">
+    <row r="19" spans="1:147">
       <c r="A19" s="183" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B19" s="89">
         <v>1427</v>
@@ -28264,16 +28054,16 @@
         <v>0.70077084793273003</v>
       </c>
       <c r="BL19" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BM19" s="173" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BN19" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BO19" s="173" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BP19" s="78">
         <v>5</v>
@@ -28498,33 +28288,27 @@
         <v>0.42046250875963997</v>
       </c>
       <c r="EL19" s="180" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="EM19" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EN19" s="180" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="EO19" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EP19" s="180" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="EQ19" s="179" t="s">
-        <v>331</v>
-      </c>
-      <c r="ER19" s="180">
-        <v>0</v>
-      </c>
-      <c r="ES19" s="179">
-        <v>0</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="20" spans="1:149">
+    <row r="20" spans="1:147">
       <c r="A20" s="183" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B20" s="89">
         <v>1408</v>
@@ -28539,10 +28323,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G20" s="188" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H20" s="78">
         <v>8</v>
@@ -28647,10 +28431,10 @@
         <v>0.42613636363635998</v>
       </c>
       <c r="AP20" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AQ20" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AR20" s="98">
         <v>7</v>
@@ -28683,16 +28467,16 @@
         <v>0.49715909090909</v>
       </c>
       <c r="BB20" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC20" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BD20" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE20" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF20" s="98">
         <v>5</v>
@@ -28923,28 +28707,28 @@
         <v>0.56818181818182001</v>
       </c>
       <c r="ED20" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EE20" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EF20" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EG20" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EH20" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EI20" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EJ20" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EK20" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EL20" s="180">
         <v>0</v>
@@ -28964,16 +28748,10 @@
       <c r="EQ20" s="179">
         <v>0</v>
       </c>
-      <c r="ER20" s="180">
-        <v>0</v>
-      </c>
-      <c r="ES20" s="179">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:149">
+    <row r="21" spans="1:147">
       <c r="A21" s="183" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B21" s="89">
         <v>1396</v>
@@ -28988,10 +28766,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G21" s="188" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H21" s="78">
         <v>5</v>
@@ -29102,28 +28880,28 @@
         <v>0</v>
       </c>
       <c r="AR21" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AS21" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AT21" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU21" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AV21" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AW21" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AX21" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AY21" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AZ21" s="98">
         <v>4</v>
@@ -29132,16 +28910,16 @@
         <v>0.28653295128939998</v>
       </c>
       <c r="BB21" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC21" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BD21" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE21" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF21" s="98">
         <v>5</v>
@@ -29150,10 +28928,10 @@
         <v>0.35816618911175002</v>
       </c>
       <c r="BH21" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BI21" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BJ21" s="98">
         <v>5</v>
@@ -29162,16 +28940,16 @@
         <v>0.35816618911175002</v>
       </c>
       <c r="BL21" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BM21" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BN21" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BO21" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BP21" s="98">
         <v>6</v>
@@ -29366,10 +29144,10 @@
         <v>0.71633237822350004</v>
       </c>
       <c r="EB21" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EC21" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="ED21" s="180">
         <v>8</v>
@@ -29384,22 +29162,22 @@
         <v>0.28653295128939998</v>
       </c>
       <c r="EH21" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EI21" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EJ21" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EK21" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EL21" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EM21" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EN21" s="180">
         <v>0</v>
@@ -29413,16 +29191,10 @@
       <c r="EQ21" s="179">
         <v>0</v>
       </c>
-      <c r="ER21" s="180">
-        <v>0</v>
-      </c>
-      <c r="ES21" s="179">
-        <v>0</v>
-      </c>
     </row>
-    <row r="22" spans="1:149">
+    <row r="22" spans="1:147">
       <c r="A22" s="183" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B22" s="89">
         <v>1310</v>
@@ -29581,22 +29353,22 @@
         <v>0.38167938931298001</v>
       </c>
       <c r="BB22" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC22" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BD22" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE22" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF22" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BG22" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BH22" s="78">
         <v>4</v>
@@ -29629,22 +29401,22 @@
         <v>0.30534351145038002</v>
       </c>
       <c r="BR22" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BS22" s="171" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BT22" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BU22" s="171" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BV22" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BW22" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BX22" s="78">
         <v>19</v>
@@ -29839,16 +29611,16 @@
         <v>0.30534351145038002</v>
       </c>
       <c r="EJ22" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EK22" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EL22" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EM22" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EN22" s="180">
         <v>0</v>
@@ -29862,16 +29634,10 @@
       <c r="EQ22" s="179">
         <v>0</v>
       </c>
-      <c r="ER22" s="180">
-        <v>0</v>
-      </c>
-      <c r="ES22" s="179">
-        <v>0</v>
-      </c>
     </row>
-    <row r="23" spans="1:149">
+    <row r="23" spans="1:147">
       <c r="A23" s="183" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B23" s="89">
         <v>1075</v>
@@ -29880,22 +29646,22 @@
         <v>1.8920726555899801</v>
       </c>
       <c r="D23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E23" s="189" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G23" s="189" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H23" s="82" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I23" s="189" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J23" s="82">
         <v>10</v>
@@ -29994,34 +29760,34 @@
         <v>0.74418604651163001</v>
       </c>
       <c r="AP23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AQ23" s="175" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AR23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AS23" s="175" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AT23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU23" s="175" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AV23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AW23" s="175" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AX23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AY23" s="175" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AZ23" s="78">
         <v>4</v>
@@ -30030,46 +29796,46 @@
         <v>0.37209302325581001</v>
       </c>
       <c r="BB23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC23" s="175" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BD23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE23" s="175" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BG23" s="175" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BH23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BI23" s="173" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BJ23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BK23" s="173" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BL23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BM23" s="173" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BN23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BO23" s="173" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BP23" s="78">
         <v>0</v>
@@ -30084,10 +29850,10 @@
         <v>0.37209302325581001</v>
       </c>
       <c r="BT23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BU23" s="174" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BV23" s="78">
         <v>9</v>
@@ -30282,28 +30048,28 @@
         <v>0.37209302325581001</v>
       </c>
       <c r="EH23" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EI23" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EJ23" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EK23" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EL23" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EM23" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EN23" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EO23" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EP23" s="180">
         <v>0</v>
@@ -30311,16 +30077,10 @@
       <c r="EQ23" s="179">
         <v>0</v>
       </c>
-      <c r="ER23" s="180">
-        <v>0</v>
-      </c>
-      <c r="ES23" s="179">
-        <v>0</v>
-      </c>
     </row>
-    <row r="24" spans="1:149">
+    <row r="24" spans="1:147">
       <c r="A24" s="183" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B24" s="89">
         <v>958</v>
@@ -30353,16 +30113,16 @@
         <v>0.52192066805846005</v>
       </c>
       <c r="L24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M24" s="188" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="N24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O24" s="188" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="P24" s="78">
         <v>17</v>
@@ -30449,10 +30209,10 @@
         <v>0</v>
       </c>
       <c r="AR24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AS24" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AT24" s="78">
         <v>0</v>
@@ -30461,46 +30221,46 @@
         <v>0</v>
       </c>
       <c r="AV24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AW24" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AX24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AY24" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AZ24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BA24" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BB24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC24" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BD24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE24" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BG24" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BH24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BI24" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BJ24" s="78">
         <v>0</v>
@@ -30515,22 +30275,22 @@
         <v>0.62630480167015001</v>
       </c>
       <c r="BN24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BO24" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BP24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BQ24" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BR24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BS24" s="171" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BT24" s="78">
         <v>11</v>
@@ -30713,10 +30473,10 @@
         <v>1.1482254697286001</v>
       </c>
       <c r="EB24" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EC24" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="ED24" s="180">
         <v>12</v>
@@ -30743,16 +30503,16 @@
         <v>0.52192066805846005</v>
       </c>
       <c r="EL24" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EM24" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EN24" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EO24" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EP24" s="180">
         <v>0</v>
@@ -30760,16 +30520,10 @@
       <c r="EQ24" s="179">
         <v>0</v>
       </c>
-      <c r="ER24" s="180">
-        <v>0</v>
-      </c>
-      <c r="ES24" s="179">
-        <v>0</v>
-      </c>
     </row>
-    <row r="25" spans="1:149">
+    <row r="25" spans="1:147">
       <c r="A25" s="183" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B25" s="89">
         <v>899</v>
@@ -30778,16 +30532,16 @@
         <v>1.5823007603492001</v>
       </c>
       <c r="D25" s="84" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E25" s="188" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F25" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G25" s="188" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H25" s="78">
         <v>15</v>
@@ -30892,22 +30646,22 @@
         <v>0.55617352614016002</v>
       </c>
       <c r="AP25" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AQ25" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AR25" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AS25" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AT25" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU25" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AV25" s="78">
         <v>5</v>
@@ -30916,16 +30670,16 @@
         <v>0.55617352614016002</v>
       </c>
       <c r="AX25" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AY25" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AZ25" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BA25" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BB25" s="78">
         <v>6</v>
@@ -30934,16 +30688,16 @@
         <v>0.66740823136819005</v>
       </c>
       <c r="BD25" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE25" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF25" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BG25" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BH25" s="78">
         <v>6</v>
@@ -31060,16 +30814,16 @@
         <v>1.1123470522803101</v>
       </c>
       <c r="CT25" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="CU25" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CV25" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="CW25" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CX25" s="180">
         <v>4</v>
@@ -31078,10 +30832,10 @@
         <v>0.44493882091212</v>
       </c>
       <c r="CZ25" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DA25" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="DB25" s="180">
         <v>11</v>
@@ -31150,10 +30904,10 @@
         <v>1.7797552836485</v>
       </c>
       <c r="DX25" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DY25" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="DZ25" s="180">
         <v>11</v>
@@ -31174,16 +30928,16 @@
         <v>1.2235817575083401</v>
       </c>
       <c r="EF25" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EG25" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EH25" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EI25" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EJ25" s="180">
         <v>0</v>
@@ -31192,33 +30946,27 @@
         <v>0</v>
       </c>
       <c r="EL25" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EM25" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EN25" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EO25" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EP25" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EQ25" s="179" t="s">
-        <v>331</v>
-      </c>
-      <c r="ER25" s="180">
-        <v>0</v>
-      </c>
-      <c r="ES25" s="179">
-        <v>0</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="26" spans="1:149">
+    <row r="26" spans="1:147">
       <c r="A26" s="183" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B26" s="89">
         <v>830</v>
@@ -31239,16 +30987,16 @@
         <v>0</v>
       </c>
       <c r="H26" s="83" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I26" s="188" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J26" s="83" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K26" s="188" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L26" s="78">
         <v>4</v>
@@ -31323,28 +31071,28 @@
         <v>1.2048192771084301</v>
       </c>
       <c r="AJ26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AK26" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AL26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AM26" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AN26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO26" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AP26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AQ26" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AR26" s="78">
         <v>0</v>
@@ -31359,10 +31107,10 @@
         <v>0</v>
       </c>
       <c r="AV26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AW26" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AX26" s="78">
         <v>6</v>
@@ -31371,10 +31119,10 @@
         <v>0.72289156626506001</v>
       </c>
       <c r="AZ26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BA26" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BB26" s="78">
         <v>0</v>
@@ -31383,22 +31131,22 @@
         <v>0</v>
       </c>
       <c r="BD26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE26" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BG26" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BH26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BI26" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BJ26" s="78">
         <v>5</v>
@@ -31407,10 +31155,10 @@
         <v>0.60240963855422003</v>
       </c>
       <c r="BL26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BM26" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BN26" s="78">
         <v>4</v>
@@ -31551,10 +31299,10 @@
         <v>1.32530120481928</v>
       </c>
       <c r="DH26" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DI26" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="DJ26" s="180">
         <v>16</v>
@@ -31635,10 +31383,10 @@
         <v>0</v>
       </c>
       <c r="EJ26" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EK26" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EL26" s="180">
         <v>0</v>
@@ -31658,16 +31406,10 @@
       <c r="EQ26" s="179">
         <v>0</v>
       </c>
-      <c r="ER26" s="180">
-        <v>0</v>
-      </c>
-      <c r="ES26" s="179">
-        <v>0</v>
-      </c>
     </row>
-    <row r="27" spans="1:149">
+    <row r="27" spans="1:147">
       <c r="A27" s="183" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B27" s="89">
         <v>822</v>
@@ -31676,10 +31418,10 @@
         <v>1.44677555618136</v>
       </c>
       <c r="D27" s="83" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E27" s="188" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F27" s="83">
         <v>6</v>
@@ -31688,10 +31430,10 @@
         <v>0.72992700729926996</v>
       </c>
       <c r="H27" s="83" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I27" s="188" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J27" s="83">
         <v>10</v>
@@ -31730,16 +31472,16 @@
         <v>0.48661800486618001</v>
       </c>
       <c r="V27" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="W27" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="X27" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="Y27" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Z27" s="98">
         <v>4</v>
@@ -31748,10 +31490,10 @@
         <v>0.48661800486618001</v>
       </c>
       <c r="AB27" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AC27" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AD27" s="98">
         <v>6</v>
@@ -31784,58 +31526,58 @@
         <v>0.48661800486618001</v>
       </c>
       <c r="AN27" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO27" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AP27" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AQ27" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AR27" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AS27" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AT27" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU27" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AV27" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AW27" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AX27" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AY27" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AZ27" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BA27" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BB27" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC27" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BD27" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE27" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF27" s="98">
         <v>0</v>
@@ -31844,16 +31586,16 @@
         <v>0</v>
       </c>
       <c r="BH27" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BI27" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BJ27" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BK27" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BL27" s="98">
         <v>0</v>
@@ -31862,22 +31604,22 @@
         <v>0</v>
       </c>
       <c r="BN27" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BO27" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BP27" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BQ27" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BR27" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BS27" s="171" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BT27" s="98">
         <v>10</v>
@@ -31952,10 +31694,10 @@
         <v>2.06812652068127</v>
       </c>
       <c r="CR27" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="CS27" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CT27" s="180">
         <v>12</v>
@@ -32072,28 +31814,28 @@
         <v>0.60827250608272998</v>
       </c>
       <c r="EF27" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EG27" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EH27" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EI27" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EJ27" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EK27" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EL27" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EM27" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EN27" s="180">
         <v>0</v>
@@ -32107,16 +31849,10 @@
       <c r="EQ27" s="179">
         <v>0</v>
       </c>
-      <c r="ER27" s="180">
-        <v>0</v>
-      </c>
-      <c r="ES27" s="179">
-        <v>0</v>
-      </c>
     </row>
-    <row r="28" spans="1:149">
+    <row r="28" spans="1:147">
       <c r="A28" s="183" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B28" s="89">
         <v>666</v>
@@ -32137,10 +31873,10 @@
         <v>0</v>
       </c>
       <c r="H28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I28" s="189" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J28" s="78">
         <v>4</v>
@@ -32149,28 +31885,28 @@
         <v>0.60060060060060005</v>
       </c>
       <c r="L28" s="82" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M28" s="189" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="N28" s="82" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O28" s="189" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="P28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="Q28" s="189" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="R28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="S28" s="189" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="T28" s="82">
         <v>5</v>
@@ -32179,10 +31915,10 @@
         <v>0.75075075075075004</v>
       </c>
       <c r="V28" s="82" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="W28" s="175" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="X28" s="82">
         <v>0</v>
@@ -32233,10 +31969,10 @@
         <v>0.60060060060060005</v>
       </c>
       <c r="AN28" s="82" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO28" s="175" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AP28" s="82">
         <v>4</v>
@@ -32257,10 +31993,10 @@
         <v>0.60060060060060005</v>
       </c>
       <c r="AV28" s="82" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AW28" s="175" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AX28" s="82">
         <v>5</v>
@@ -32269,34 +32005,34 @@
         <v>0.75075075075075004</v>
       </c>
       <c r="AZ28" s="82" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BA28" s="175" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BB28" s="82" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC28" s="175" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BD28" s="82" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE28" s="175" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF28" s="82" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BG28" s="175" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BH28" s="82" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BI28" s="173" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BJ28" s="82">
         <v>4</v>
@@ -32305,10 +32041,10 @@
         <v>0.60060060060060005</v>
       </c>
       <c r="BL28" s="82" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BM28" s="173" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BN28" s="82">
         <v>5</v>
@@ -32317,16 +32053,16 @@
         <v>0.75075075075075004</v>
       </c>
       <c r="BP28" s="82" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BQ28" s="173" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BR28" s="82" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BS28" s="174" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BT28" s="82">
         <v>7</v>
@@ -32527,16 +32263,16 @@
         <v>0.60060060060060005</v>
       </c>
       <c r="EH28" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EI28" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EJ28" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EK28" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EL28" s="180">
         <v>0</v>
@@ -32545,27 +32281,21 @@
         <v>0</v>
       </c>
       <c r="EN28" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EO28" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EP28" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EQ28" s="179" t="s">
-        <v>331</v>
-      </c>
-      <c r="ER28" s="180">
-        <v>0</v>
-      </c>
-      <c r="ES28" s="179">
-        <v>0</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="29" spans="1:149">
+    <row r="29" spans="1:147">
       <c r="A29" s="183" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B29" s="89">
         <v>420</v>
@@ -32580,16 +32310,16 @@
         <v>0</v>
       </c>
       <c r="F29" s="83" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G29" s="188" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H29" s="83" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I29" s="188" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J29" s="83">
         <v>5</v>
@@ -32652,22 +32382,22 @@
         <v>2.1428571428571401</v>
       </c>
       <c r="AD29" s="83" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AE29" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AF29" s="83" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AG29" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AH29" s="83" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AI29" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AJ29" s="83">
         <v>12</v>
@@ -32676,16 +32406,16 @@
         <v>2.8571428571428599</v>
       </c>
       <c r="AL29" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AM29" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AN29" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO29" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AP29" s="98">
         <v>5</v>
@@ -32700,10 +32430,10 @@
         <v>0</v>
       </c>
       <c r="AT29" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU29" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AV29" s="98">
         <v>0</v>
@@ -32712,28 +32442,28 @@
         <v>0</v>
       </c>
       <c r="AX29" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AY29" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AZ29" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BA29" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BB29" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC29" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BD29" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE29" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF29" s="98">
         <v>0</v>
@@ -32742,28 +32472,28 @@
         <v>0</v>
       </c>
       <c r="BH29" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BI29" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BJ29" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BK29" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BL29" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BM29" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BN29" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BO29" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BP29" s="98">
         <v>0</v>
@@ -32772,22 +32502,22 @@
         <v>0</v>
       </c>
       <c r="BR29" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BS29" s="171" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BT29" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BU29" s="171" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BV29" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BW29" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BX29" s="98">
         <v>4</v>
@@ -32856,28 +32586,28 @@
         <v>1.90476190476191</v>
       </c>
       <c r="CT29" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="CU29" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CV29" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="CW29" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CX29" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="CY29" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CZ29" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DA29" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="DB29" s="180">
         <v>10</v>
@@ -32910,10 +32640,10 @@
         <v>2.1428571428571401</v>
       </c>
       <c r="DL29" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DM29" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="DN29" s="180">
         <v>16</v>
@@ -32922,10 +32652,10 @@
         <v>3.8095238095238102</v>
       </c>
       <c r="DP29" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DQ29" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="DR29" s="180">
         <v>16</v>
@@ -32934,10 +32664,10 @@
         <v>3.8095238095238102</v>
       </c>
       <c r="DT29" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DU29" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="DV29" s="180">
         <v>13</v>
@@ -32946,46 +32676,46 @@
         <v>3.0952380952380998</v>
       </c>
       <c r="DX29" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DY29" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="DZ29" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EA29" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EB29" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EC29" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="ED29" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EE29" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EF29" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EG29" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EH29" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EI29" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EJ29" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EK29" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EL29" s="180">
         <v>0</v>
@@ -33000,21 +32730,15 @@
         <v>0</v>
       </c>
       <c r="EP29" s="180" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="EQ29" s="179" t="s">
-        <v>331</v>
-      </c>
-      <c r="ER29" s="180">
-        <v>0</v>
-      </c>
-      <c r="ES29" s="179">
-        <v>0</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:149" ht="14.25" thickBot="1">
+    <row r="30" spans="1:147" ht="14.25" thickBot="1">
       <c r="A30" s="183" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B30" s="89">
         <v>224</v>
@@ -33041,10 +32765,10 @@
         <v>0</v>
       </c>
       <c r="J30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K30" s="190" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L30" s="85">
         <v>0</v>
@@ -33059,16 +32783,16 @@
         <v>0</v>
       </c>
       <c r="P30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="Q30" s="190" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="R30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="S30" s="190" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="T30" s="85">
         <v>4</v>
@@ -33083,10 +32807,10 @@
         <v>0</v>
       </c>
       <c r="X30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="Y30" s="169" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Z30" s="85">
         <v>0</v>
@@ -33095,40 +32819,40 @@
         <v>0</v>
       </c>
       <c r="AB30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AC30" s="169" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AD30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AE30" s="169" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AF30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AG30" s="169" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AH30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AI30" s="169" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AJ30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AK30" s="169" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AL30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AM30" s="169" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AN30" s="85">
         <v>0</v>
@@ -33143,10 +32867,10 @@
         <v>0</v>
       </c>
       <c r="AR30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AS30" s="169" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AT30" s="85">
         <v>0</v>
@@ -33155,40 +32879,40 @@
         <v>0</v>
       </c>
       <c r="AV30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AW30" s="169" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AX30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AY30" s="169" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AZ30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BA30" s="169" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BB30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC30" s="169" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BD30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE30" s="169" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BG30" s="169" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BH30" s="85">
         <v>0</v>
@@ -33203,16 +32927,16 @@
         <v>0</v>
       </c>
       <c r="BL30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BM30" s="167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BN30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BO30" s="167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BP30" s="85">
         <v>0</v>
@@ -33221,16 +32945,16 @@
         <v>0</v>
       </c>
       <c r="BR30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BS30" s="168" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BT30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BU30" s="168" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BV30" s="85">
         <v>16</v>
@@ -33299,16 +33023,16 @@
         <v>2.2321428571428599</v>
       </c>
       <c r="CR30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="CS30" s="167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CT30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="CU30" s="167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CV30" s="85">
         <v>7</v>
@@ -33317,16 +33041,16 @@
         <v>3.125</v>
       </c>
       <c r="CX30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="CY30" s="167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CZ30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DA30" s="167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="DB30" s="85">
         <v>0</v>
@@ -33347,10 +33071,10 @@
         <v>1.78571428571429</v>
       </c>
       <c r="DH30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DI30" s="167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="DJ30" s="85">
         <v>5</v>
@@ -33359,10 +33083,10 @@
         <v>2.2321428571428599</v>
       </c>
       <c r="DL30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DM30" s="167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="DN30" s="85">
         <v>7</v>
@@ -33371,10 +33095,10 @@
         <v>3.125</v>
       </c>
       <c r="DP30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DQ30" s="167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="DR30" s="85">
         <v>7</v>
@@ -33383,10 +33107,10 @@
         <v>3.125</v>
       </c>
       <c r="DT30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DU30" s="167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="DV30" s="85">
         <v>8</v>
@@ -33395,40 +33119,40 @@
         <v>3.5714285714285698</v>
       </c>
       <c r="DX30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DY30" s="167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="DZ30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EA30" s="167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EB30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EC30" s="167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="ED30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EE30" s="167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EF30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EG30" s="167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EH30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EI30" s="167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EJ30" s="85">
         <v>0</v>
@@ -33437,31 +33161,25 @@
         <v>0</v>
       </c>
       <c r="EL30" s="85" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="EM30" s="167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EN30" s="85" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="EO30" s="167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EP30" s="85" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="EQ30" s="167" t="s">
-        <v>331</v>
-      </c>
-      <c r="ER30" s="85">
-        <v>0</v>
-      </c>
-      <c r="ES30" s="167">
-        <v>0</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="31" spans="1:149" ht="15.75" customHeight="1" thickTop="1">
+    <row r="31" spans="1:147" ht="15.75" customHeight="1" thickTop="1">
       <c r="A31" s="67" t="s">
         <v>173</v>
       </c>
@@ -33477,7 +33195,7 @@
       <c r="BC31" s="166"/>
       <c r="BD31" s="148"/>
     </row>
-    <row r="32" spans="1:149">
+    <row r="32" spans="1:147">
       <c r="A32" s="48" t="s">
         <v>161</v>
       </c>
@@ -33545,22 +33263,55 @@
       <c r="A36" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="79">
-    <mergeCell ref="ER6:ES6"/>
-    <mergeCell ref="DJ5:ER5"/>
-    <mergeCell ref="EH6:EI6"/>
-    <mergeCell ref="EJ6:EK6"/>
-    <mergeCell ref="EL6:EM6"/>
-    <mergeCell ref="EN6:EO6"/>
-    <mergeCell ref="EP6:EQ6"/>
-    <mergeCell ref="DX6:DY6"/>
-    <mergeCell ref="DZ6:EA6"/>
-    <mergeCell ref="EB6:EC6"/>
-    <mergeCell ref="ED6:EE6"/>
-    <mergeCell ref="EF6:EG6"/>
-    <mergeCell ref="DR6:DS6"/>
-    <mergeCell ref="DT6:DU6"/>
-    <mergeCell ref="DV6:DW6"/>
+  <mergeCells count="78">
+    <mergeCell ref="CZ6:DA6"/>
+    <mergeCell ref="DL6:DM6"/>
+    <mergeCell ref="DN6:DO6"/>
+    <mergeCell ref="DP6:DQ6"/>
+    <mergeCell ref="DB6:DC6"/>
+    <mergeCell ref="DD6:DE6"/>
+    <mergeCell ref="DF6:DG6"/>
+    <mergeCell ref="DH6:DI6"/>
+    <mergeCell ref="DJ6:DK6"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D5:BA5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="AZ6:BA6"/>
+    <mergeCell ref="AX6:AY6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="AN6:AO6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="AL6:AM6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="BJ6:BK6"/>
+    <mergeCell ref="BL6:BM6"/>
+    <mergeCell ref="BN6:BO6"/>
+    <mergeCell ref="BH6:BI6"/>
+    <mergeCell ref="BF6:BG6"/>
+    <mergeCell ref="BD6:BE6"/>
+    <mergeCell ref="BB6:BC6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AJ6:AK6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="AP6:AQ6"/>
+    <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="BP6:BQ6"/>
+    <mergeCell ref="BR6:BS6"/>
+    <mergeCell ref="BT6:BU6"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AT6:AU6"/>
     <mergeCell ref="BV6:BW6"/>
     <mergeCell ref="CN6:CO6"/>
     <mergeCell ref="CX6:CY6"/>
@@ -33577,54 +33328,20 @@
     <mergeCell ref="CF6:CG6"/>
     <mergeCell ref="CH6:CI6"/>
     <mergeCell ref="CD6:CE6"/>
-    <mergeCell ref="AP6:AQ6"/>
-    <mergeCell ref="AR6:AS6"/>
-    <mergeCell ref="BP6:BQ6"/>
-    <mergeCell ref="BR6:BS6"/>
-    <mergeCell ref="BT6:BU6"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="AT6:AU6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="BJ6:BK6"/>
-    <mergeCell ref="BL6:BM6"/>
-    <mergeCell ref="BN6:BO6"/>
-    <mergeCell ref="BH6:BI6"/>
-    <mergeCell ref="BF6:BG6"/>
-    <mergeCell ref="BD6:BE6"/>
-    <mergeCell ref="BB6:BC6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="AF6:AG6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AJ6:AK6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D5:BA5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="AZ6:BA6"/>
-    <mergeCell ref="AX6:AY6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="AH6:AI6"/>
-    <mergeCell ref="AN6:AO6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="CZ6:DA6"/>
-    <mergeCell ref="DL6:DM6"/>
-    <mergeCell ref="DN6:DO6"/>
-    <mergeCell ref="DP6:DQ6"/>
-    <mergeCell ref="DB6:DC6"/>
-    <mergeCell ref="DD6:DE6"/>
-    <mergeCell ref="DF6:DG6"/>
-    <mergeCell ref="DH6:DI6"/>
-    <mergeCell ref="DJ6:DK6"/>
+    <mergeCell ref="EH6:EI6"/>
+    <mergeCell ref="EJ6:EK6"/>
+    <mergeCell ref="EL6:EM6"/>
+    <mergeCell ref="EN6:EO6"/>
+    <mergeCell ref="EP6:EQ6"/>
+    <mergeCell ref="DX6:DY6"/>
+    <mergeCell ref="DZ6:EA6"/>
+    <mergeCell ref="EB6:EC6"/>
+    <mergeCell ref="ED6:EE6"/>
+    <mergeCell ref="EF6:EG6"/>
+    <mergeCell ref="DR6:DS6"/>
+    <mergeCell ref="DT6:DU6"/>
+    <mergeCell ref="DV6:DW6"/>
+    <mergeCell ref="DJ5:EQ5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -33642,6 +33359,44 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Publiceringsdatum xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">2020-04-28T22:00:00+00:00</Publiceringsdatum>
+    <Verksamhetsomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <Value>Hälso- och sjukvård</Value>
+    </Verksamhetsomr_x00e5_de>
+    <E_x002d_plikt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Ja</E_x002d_plikt>
+    <Produkt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Statistik</Produkt>
+    <Ansvarig_x0020_webbredakt_x00f6_r xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <UserInfo>
+        <DisplayName>Söderholm, Joen</DisplayName>
+        <AccountId>87</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </Ansvarig_x0020_webbredakt_x00f6_r>
+    <TaxCatchAll xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">
+      <Value>9</Value>
+    </TaxCatchAll>
+    <Dokumenttyp xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Övrigt</Dokumenttyp>
+    <Titel xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">statistik-covid19-avlidna</Titel>
+    <Webbplatstillh_x00f6_righet xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <Value>Socialstyrelsen.se</Value>
+    </Webbplatstillh_x00f6_righet>
+    <i01e5b6f93524074838bfc1e1bab8714 xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">statistik och jämförelser</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">338b04a2-62bc-42a8-9e4b-6158db2fb390</TermId>
+        </TermInfo>
+      </Terms>
+    </i01e5b6f93524074838bfc1e1bab8714>
+    <_x00c4_mnesomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
+    <Status_x0020_p_x00e5__x0020_publikation xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Publicerad</Status_x0020_p_x00e5__x0020_publikation>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100361443839E954C488E1554F766430BDE" ma:contentTypeVersion="37" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="ec0867efc9d878e75742a5b73fddae48">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dd3acd59-a8d8-42b1-950d-eec6c247243c" xmlns:ns3="343f6c91-b5b3-4dff-89ad-5fc55ccc8930" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f4ea334ff345e29c5775f0a2fd1174f" ns2:_="" ns3:_="">
     <xsd:import namespace="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
@@ -33974,44 +33729,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Publiceringsdatum xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">2020-04-28T22:00:00+00:00</Publiceringsdatum>
-    <Verksamhetsomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <Value>Hälso- och sjukvård</Value>
-    </Verksamhetsomr_x00e5_de>
-    <E_x002d_plikt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Ja</E_x002d_plikt>
-    <Produkt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Statistik</Produkt>
-    <Ansvarig_x0020_webbredakt_x00f6_r xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <UserInfo>
-        <DisplayName>Söderholm, Joen</DisplayName>
-        <AccountId>87</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </Ansvarig_x0020_webbredakt_x00f6_r>
-    <TaxCatchAll xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">
-      <Value>9</Value>
-    </TaxCatchAll>
-    <Dokumenttyp xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Övrigt</Dokumenttyp>
-    <Titel xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">statistik-covid19-avlidna</Titel>
-    <Webbplatstillh_x00f6_righet xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <Value>Socialstyrelsen.se</Value>
-    </Webbplatstillh_x00f6_righet>
-    <i01e5b6f93524074838bfc1e1bab8714 xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">statistik och jämförelser</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">338b04a2-62bc-42a8-9e4b-6158db2fb390</TermId>
-        </TermInfo>
-      </Terms>
-    </i01e5b6f93524074838bfc1e1bab8714>
-    <_x00c4_mnesomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
-    <Status_x0020_p_x00e5__x0020_publikation xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Publicerad</Status_x0020_p_x00e5__x0020_publikation>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C92573-D875-4871-BB97-75789C903393}">
   <ds:schemaRefs>
@@ -34021,6 +33738,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4CF34A-7793-424A-BF7F-3DB732CF3454}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="343f6c91-b5b3-4dff-89ad-5fc55ccc8930"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2BDD971-BADF-427E-9579-B824215A28B1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34037,21 +33771,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4CF34A-7793-424A-BF7F-3DB732CF3454}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="343f6c91-b5b3-4dff-89ad-5fc55ccc8930"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>